--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3846D950-9A0E-4723-BE67-18C32BE7FB48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D26F22C-DAD3-4CCB-8F71-AEBA0799165A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4494,7 +4494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="1158">
   <si>
     <t>Name</t>
   </si>
@@ -1528,9 +1528,6 @@
   </si>
   <si>
     <t>1400</t>
-  </si>
-  <si>
-    <t>1000</t>
   </si>
   <si>
     <t>2200</t>
@@ -4467,8 +4464,8 @@
   <dimension ref="B1:BL283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V254" sqref="V254"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4678,7 +4675,7 @@
         <v>316</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J2" t="s">
         <v>495</v>
@@ -4711,7 +4708,7 @@
         <v>490</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W2" s="17" t="str">
         <f t="shared" ref="W2:AJ2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -4798,7 +4795,7 @@
         <v/>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>30</v>
@@ -4867,13 +4864,13 @@
     </row>
     <row r="3" spans="2:64" ht="150">
       <c r="B3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C3" t="s">
         <v>421</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J3">
         <v>1500</v>
@@ -4906,7 +4903,7 @@
         <v>1830</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W3" s="17" t="str">
         <f t="shared" ref="W3:W66" si="3">IF(H3&gt;0,H3/100,"")</f>
@@ -4993,7 +4990,7 @@
         <v/>
       </c>
       <c r="AR3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>30</v>
@@ -5062,13 +5059,13 @@
     </row>
     <row r="4" spans="2:64" ht="135">
       <c r="B4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>958</v>
-      </c>
-      <c r="C4" t="s">
-        <v>914</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>959</v>
       </c>
       <c r="H4">
         <v>1500</v>
@@ -5113,7 +5110,7 @@
         <v>1900</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="3"/>
@@ -5200,7 +5197,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AV4" s="4" t="s">
         <v>30</v>
@@ -5272,7 +5269,7 @@
         <v>311</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J5" t="s">
         <v>488</v>
@@ -5398,7 +5395,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR5" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AS5" t="s">
         <v>485</v>
@@ -5470,13 +5467,13 @@
         <v>61</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>488</v>
@@ -5608,7 +5605,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AS6" s="17"/>
       <c r="AT6" s="17"/>
@@ -5683,7 +5680,7 @@
         <v>278</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>467</v>
@@ -5773,7 +5770,7 @@
         <v/>
       </c>
       <c r="AR7" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AV7" s="17" t="s">
         <v>30</v>
@@ -5842,7 +5839,7 @@
         <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>288</v>
@@ -5977,7 +5974,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR8" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS8" t="s">
         <v>485</v>
@@ -6049,7 +6046,7 @@
         <v>248</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6100,7 +6097,7 @@
         <v>490</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="3"/>
@@ -6187,7 +6184,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AS9" s="17" t="s">
         <v>485</v>
@@ -6258,13 +6255,13 @@
     </row>
     <row r="10" spans="2:64" ht="150">
       <c r="B10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>909</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>1005</v>
-      </c>
-      <c r="C10" t="s">
-        <v>910</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>1006</v>
       </c>
       <c r="J10">
         <v>1430</v>
@@ -6297,7 +6294,7 @@
         <v>1830</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="W10" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6384,7 +6381,7 @@
         <v/>
       </c>
       <c r="AR10" s="17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>30</v>
@@ -6450,13 +6447,13 @@
     </row>
     <row r="11" spans="2:64" s="17" customFormat="1" ht="120">
       <c r="B11" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>925</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>912</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>926</v>
       </c>
       <c r="V11" s="8"/>
       <c r="W11" s="17" t="str">
@@ -6544,7 +6541,7 @@
         <v/>
       </c>
       <c r="AR11" s="21" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>31</v>
@@ -6608,16 +6605,16 @@
     </row>
     <row r="12" spans="2:64" s="8" customFormat="1" ht="150">
       <c r="B12" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -6651,7 +6648,7 @@
         <v>1500</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="W12" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6738,7 +6735,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AR12" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
@@ -6816,7 +6813,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>488</v>
@@ -6948,7 +6945,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
@@ -7017,13 +7014,13 @@
     </row>
     <row r="14" spans="2:64" ht="409.5">
       <c r="B14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C14" t="s">
         <v>421</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H14">
         <v>1600</v>
@@ -7068,7 +7065,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W14" s="17">
         <f t="shared" si="3"/>
@@ -7222,13 +7219,13 @@
         <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -7329,7 +7326,7 @@
         <v/>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
@@ -7401,10 +7398,10 @@
         <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W16" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7566,7 +7563,7 @@
         <v>311</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H17" t="s">
         <v>488</v>
@@ -7698,7 +7695,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV17" s="4" t="s">
         <v>30</v>
@@ -7764,13 +7761,13 @@
     </row>
     <row r="18" spans="2:64" ht="120">
       <c r="B18" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C18" t="s">
+        <v>911</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>941</v>
-      </c>
-      <c r="C18" t="s">
-        <v>912</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>942</v>
       </c>
       <c r="W18" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7924,10 +7921,10 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H19" t="s">
         <v>488</v>
@@ -8059,7 +8056,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AV19" s="4" t="s">
         <v>30</v>
@@ -8128,13 +8125,13 @@
         <v>66</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>488</v>
@@ -8266,7 +8263,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
@@ -8338,10 +8335,10 @@
         <v>67</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H21" t="s">
         <v>488</v>
@@ -8473,7 +8470,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AV21" s="4" t="s">
         <v>30</v>
@@ -8539,13 +8536,13 @@
     </row>
     <row r="22" spans="2:64" ht="150">
       <c r="B22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C22" t="s">
         <v>279</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L22">
         <v>1600</v>
@@ -8578,7 +8575,7 @@
         <v>1800</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="W22" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8665,7 +8662,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AV22" s="4" t="s">
         <v>30</v>
@@ -8731,13 +8728,13 @@
     </row>
     <row r="23" spans="2:64" ht="165">
       <c r="B23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>909</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>1003</v>
-      </c>
-      <c r="C23" t="s">
-        <v>910</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>1004</v>
       </c>
       <c r="J23">
         <v>1600</v>
@@ -8770,7 +8767,7 @@
         <v>1900</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="W23" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8857,7 +8854,7 @@
         <v/>
       </c>
       <c r="AR23" s="17" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AV23" s="4" t="s">
         <v>30</v>
@@ -8923,7 +8920,7 @@
     </row>
     <row r="24" spans="2:64" s="8" customFormat="1" ht="120">
       <c r="B24" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>279</v>
@@ -8932,7 +8929,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -9033,7 +9030,7 @@
         <v/>
       </c>
       <c r="AR24" s="17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
@@ -9111,7 +9108,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -9235,7 +9232,7 @@
         <v/>
       </c>
       <c r="AR25" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AS25" s="17"/>
       <c r="AT25" s="17"/>
@@ -9307,7 +9304,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -9414,7 +9411,7 @@
         <v/>
       </c>
       <c r="AR26" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AS26" s="17" t="s">
         <v>485</v>
@@ -9494,7 +9491,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -9618,7 +9615,7 @@
         <v/>
       </c>
       <c r="AR27" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
@@ -9690,13 +9687,13 @@
         <v>178</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -9824,7 +9821,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
@@ -9896,7 +9893,7 @@
         <v>251</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -9947,7 +9944,7 @@
         <v>492</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" si="3"/>
@@ -10034,7 +10031,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR29" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AS29" s="17" t="s">
         <v>485</v>
@@ -10105,13 +10102,13 @@
     </row>
     <row r="30" spans="2:64" ht="165">
       <c r="B30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C30" t="s">
         <v>421</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H30">
         <v>1500</v>
@@ -10156,7 +10153,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="3"/>
@@ -10243,7 +10240,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR30" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AV30" s="4" t="s">
         <v>30</v>
@@ -10315,7 +10312,7 @@
         <v>343</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J31" t="s">
         <v>488</v>
@@ -10435,7 +10432,7 @@
         <v/>
       </c>
       <c r="AR31" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AV31" s="4" t="s">
         <v>30</v>
@@ -10510,7 +10507,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -10634,7 +10631,7 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
@@ -10712,7 +10709,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -10836,7 +10833,7 @@
         <v/>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AS33" s="8"/>
       <c r="AT33" s="8"/>
@@ -10914,7 +10911,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -11038,7 +11035,7 @@
         <v/>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AS34" s="8"/>
       <c r="AT34" s="8"/>
@@ -11110,10 +11107,10 @@
         <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J35" t="s">
         <v>488</v>
@@ -11227,7 +11224,7 @@
         <v/>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AV35" s="4" t="s">
         <v>30</v>
@@ -11296,13 +11293,13 @@
         <v>70</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>494</v>
@@ -11434,7 +11431,7 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR36" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AS36" s="8"/>
       <c r="AT36" s="8"/>
@@ -11506,10 +11503,10 @@
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J37" t="s">
         <v>488</v>
@@ -11635,7 +11632,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AV37" s="4" t="s">
         <v>30</v>
@@ -11701,13 +11698,13 @@
     </row>
     <row r="38" spans="2:64" ht="120">
       <c r="B38" t="s">
+        <v>928</v>
+      </c>
+      <c r="C38" t="s">
+        <v>911</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>929</v>
-      </c>
-      <c r="C38" t="s">
-        <v>912</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>930</v>
       </c>
       <c r="W38" s="17" t="str">
         <f t="shared" si="3"/>
@@ -11794,7 +11791,7 @@
         <v/>
       </c>
       <c r="AR38" s="21" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AV38" s="4" t="s">
         <v>31</v>
@@ -11863,7 +11860,7 @@
         <v>262</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>292</v>
@@ -11953,7 +11950,7 @@
         <v/>
       </c>
       <c r="AR39" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AS39" t="s">
         <v>485</v>
@@ -12028,7 +12025,7 @@
         <v>264</v>
       </c>
       <c r="C40" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>294</v>
@@ -12118,7 +12115,7 @@
         <v/>
       </c>
       <c r="AR40" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AS40" t="s">
         <v>485</v>
@@ -12193,7 +12190,7 @@
         <v>316</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W41" s="17" t="str">
         <f t="shared" si="3"/>
@@ -12280,7 +12277,7 @@
         <v/>
       </c>
       <c r="AR41" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AV41" s="4" t="s">
         <v>31</v>
@@ -12349,10 +12346,10 @@
         <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H42" t="s">
         <v>495</v>
@@ -12478,7 +12475,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR42" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AV42" s="17" t="s">
         <v>30</v>
@@ -12547,10 +12544,10 @@
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H43" t="s">
         <v>488</v>
@@ -12682,7 +12679,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR43" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AV43" s="4" t="s">
         <v>30</v>
@@ -12751,10 +12748,10 @@
         <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H44" t="s">
         <v>488</v>
@@ -12886,7 +12883,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR44" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>30</v>
@@ -12952,13 +12949,13 @@
     </row>
     <row r="45" spans="2:64" ht="135">
       <c r="B45" t="s">
+        <v>922</v>
+      </c>
+      <c r="C45" t="s">
+        <v>911</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>923</v>
-      </c>
-      <c r="C45" t="s">
-        <v>912</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>924</v>
       </c>
       <c r="J45">
         <v>1500</v>
@@ -12991,7 +12988,7 @@
         <v>1800</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W45" s="17" t="str">
         <f t="shared" si="3"/>
@@ -13078,7 +13075,7 @@
         <v/>
       </c>
       <c r="AR45" s="21" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AV45" s="4" t="s">
         <v>30</v>
@@ -13147,13 +13144,13 @@
         <v>76</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>488</v>
@@ -13285,7 +13282,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
@@ -13346,28 +13343,28 @@
         <v>[39.758182,-104.902855],</v>
       </c>
       <c r="BJ46" s="17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="BK46" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL46" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="47" spans="2:64" s="8" customFormat="1" ht="409.5">
       <c r="B47" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="16" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -13404,7 +13401,7 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W47" s="17" t="str">
         <f t="shared" si="3"/>
@@ -13491,7 +13488,7 @@
         <v/>
       </c>
       <c r="AR47" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
@@ -13569,7 +13566,7 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -13693,7 +13690,7 @@
         <v/>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
@@ -13765,7 +13762,7 @@
         <v>275</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -13946,13 +13943,13 @@
         <v>77</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>495</v>
@@ -14080,7 +14077,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
@@ -14152,13 +14149,13 @@
         <v>78</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>495</v>
@@ -14290,7 +14287,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
@@ -14362,13 +14359,13 @@
         <v>183</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -14492,7 +14489,7 @@
         <v/>
       </c>
       <c r="AR52" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
@@ -14561,16 +14558,16 @@
     </row>
     <row r="53" spans="2:64" s="8" customFormat="1" ht="150">
       <c r="B53" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H53" s="17">
         <v>1500</v>
@@ -14615,7 +14612,7 @@
         <v>1800</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="W53" s="17">
         <f t="shared" si="3"/>
@@ -14702,7 +14699,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR53" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
@@ -14774,13 +14771,13 @@
         <v>79</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -14904,7 +14901,7 @@
         <v/>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
@@ -14973,16 +14970,16 @@
     </row>
     <row r="55" spans="2:64" s="8" customFormat="1" ht="165">
       <c r="B55" s="17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -15019,7 +15016,7 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="W55" s="17" t="str">
         <f t="shared" si="3"/>
@@ -15106,7 +15103,7 @@
         <v/>
       </c>
       <c r="AR55" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
@@ -15184,7 +15181,7 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -15308,7 +15305,7 @@
         <v/>
       </c>
       <c r="AR56" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
@@ -15386,7 +15383,7 @@
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>497</v>
@@ -15518,7 +15515,7 @@
         <v>2.3pm-6.3pm</v>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
@@ -15590,13 +15587,13 @@
         <v>81</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>498</v>
@@ -15728,7 +15725,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR58" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AS58" s="17"/>
       <c r="AT58" s="17"/>
@@ -15800,13 +15797,13 @@
         <v>185</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -15930,7 +15927,7 @@
         <v/>
       </c>
       <c r="AR59" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
@@ -16008,7 +16005,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -16132,7 +16129,7 @@
         <v/>
       </c>
       <c r="AR60" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AS60" s="17" t="s">
         <v>485</v>
@@ -16203,16 +16200,16 @@
     </row>
     <row r="61" spans="2:64" ht="255">
       <c r="B61" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="16" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H61" s="17">
         <v>1400</v>
@@ -16257,7 +16254,7 @@
         <v>1800</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" si="3"/>
@@ -16344,7 +16341,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR61" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AS61" s="17"/>
       <c r="AT61" s="17"/>
@@ -16422,7 +16419,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -16546,7 +16543,7 @@
         <v/>
       </c>
       <c r="AR62" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AS62" s="8"/>
       <c r="AT62" s="8"/>
@@ -16627,7 +16624,7 @@
         <v>494</v>
       </c>
       <c r="I63" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
         <v>488</v>
@@ -16666,7 +16663,7 @@
         <v>498</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="W63" s="17">
         <f t="shared" si="3"/>
@@ -16753,7 +16750,7 @@
         <v>11am-2pm</v>
       </c>
       <c r="AR63" s="17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AS63" t="s">
         <v>485</v>
@@ -16825,13 +16822,13 @@
         <v>188</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -16955,7 +16952,7 @@
         <v/>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AS64" s="17"/>
       <c r="AT64" s="17"/>
@@ -17024,13 +17021,13 @@
     </row>
     <row r="65" spans="2:64" ht="165">
       <c r="B65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C65" t="s">
         <v>311</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H65">
         <v>1500</v>
@@ -17075,7 +17072,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W65" s="17">
         <f t="shared" si="3"/>
@@ -17162,7 +17159,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR65" s="17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AV65" s="4" t="s">
         <v>30</v>
@@ -17228,13 +17225,13 @@
     </row>
     <row r="66" spans="2:64" ht="150">
       <c r="B66" t="s">
+        <v>934</v>
+      </c>
+      <c r="C66" t="s">
+        <v>911</v>
+      </c>
+      <c r="G66" s="16" t="s">
         <v>935</v>
-      </c>
-      <c r="C66" t="s">
-        <v>912</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>936</v>
       </c>
       <c r="J66">
         <v>1500</v>
@@ -17267,7 +17264,7 @@
         <v>1800</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="W66" s="17" t="str">
         <f t="shared" si="3"/>
@@ -17354,7 +17351,7 @@
         <v/>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AV66" s="4" t="s">
         <v>30</v>
@@ -17423,13 +17420,13 @@
         <v>82</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>488</v>
@@ -17561,7 +17558,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR67" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AS67" s="8"/>
       <c r="AT67" s="8"/>
@@ -17643,36 +17640,32 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>499</v>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8">
+        <v>1100</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>499</v>
+      <c r="N68" s="8">
+        <v>1100</v>
       </c>
       <c r="O68" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="P68" s="8" t="s">
-        <v>499</v>
+      <c r="P68" s="8">
+        <v>1100</v>
       </c>
       <c r="Q68" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="R68" s="8" t="s">
-        <v>499</v>
+      <c r="R68" s="8">
+        <v>1100</v>
       </c>
       <c r="S68" s="8" t="s">
         <v>492</v>
@@ -17690,17 +17683,17 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="Y68" s="17">
+      <c r="Y68" s="17" t="str">
         <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="Z68" s="17">
+        <v/>
+      </c>
+      <c r="Z68" s="17" t="str">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v/>
       </c>
       <c r="AA68" s="17">
         <f t="shared" si="39"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB68" s="17">
         <f t="shared" si="40"/>
@@ -17708,7 +17701,7 @@
       </c>
       <c r="AC68" s="17">
         <f t="shared" si="41"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD68" s="17">
         <f t="shared" si="42"/>
@@ -17716,7 +17709,7 @@
       </c>
       <c r="AE68" s="17">
         <f t="shared" si="43"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF68" s="17">
         <f t="shared" si="44"/>
@@ -17724,7 +17717,7 @@
       </c>
       <c r="AG68" s="17">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH68" s="17">
         <f t="shared" si="46"/>
@@ -17744,30 +17737,30 @@
       </c>
       <c r="AL68" s="17" t="str">
         <f t="shared" si="50"/>
-        <v>10am-5pm</v>
+        <v/>
       </c>
       <c r="AM68" s="17" t="str">
         <f t="shared" si="51"/>
-        <v>10am-5pm</v>
+        <v>11am-5pm</v>
       </c>
       <c r="AN68" s="17" t="str">
         <f t="shared" si="52"/>
-        <v>10am-5pm</v>
+        <v>11am-5pm</v>
       </c>
       <c r="AO68" s="17" t="str">
         <f t="shared" si="53"/>
-        <v>10am-5pm</v>
+        <v>11am-5pm</v>
       </c>
       <c r="AP68" s="17" t="str">
         <f t="shared" si="54"/>
-        <v>10am-5pm</v>
+        <v>11am-5pm</v>
       </c>
       <c r="AQ68" s="17" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AR68" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AS68" s="8"/>
       <c r="AT68" s="8"/>
@@ -17783,7 +17776,7 @@
         <v>{
     'name': "Dazzle Restaurant &amp; Lounge",
     'area': "Downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1000", 'monday-end':"1700", 'tuesday-start':"1000", 'tuesday-end':"1700", 'wednesday-start':"1000", 'wednesday-end':"1700", 'thursday-start':"1000", 'thursday-end':"1700", 'friday-start':"1000", 'friday-end':"1700", 'saturday-start':"", 'saturday-end':""},  'description': "Food and drink specials", 'link':"http://www.dazzlejazz.com", 'pricing':"",   'phone-number': "", 'address': "1512 Curtis St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1100", 'tuesday-end':"1700", 'wednesday-start':"1100", 'wednesday-end':"1700", 'thursday-start':"1100", 'thursday-end':"1700", 'friday-start':"1100", 'friday-end':"1700", 'saturday-start':"", 'saturday-end':""},  'description': "Food and drink specials", 'link':"http://www.dazzlejazz.com", 'pricing':"",   'phone-number': "", 'address': "1512 Curtis St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY68" s="17" t="str">
         <f t="shared" si="57"/>
@@ -17839,7 +17832,7 @@
         <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>284</v>
@@ -17929,7 +17922,7 @@
         <v/>
       </c>
       <c r="AR69" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AS69" t="s">
         <v>485</v>
@@ -18007,7 +18000,7 @@
         <v>318</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J70" t="s">
         <v>495</v>
@@ -18127,7 +18120,7 @@
         <v/>
       </c>
       <c r="AR70" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AV70" s="4" t="s">
         <v>30</v>
@@ -18196,7 +18189,7 @@
         <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>475</v>
@@ -18286,7 +18279,7 @@
         <v/>
       </c>
       <c r="AR71" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AS71" t="s">
         <v>485</v>
@@ -18361,7 +18354,7 @@
         <v>279</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J72" t="s">
         <v>488</v>
@@ -18481,7 +18474,7 @@
         <v/>
       </c>
       <c r="AR72" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AV72" s="4" t="s">
         <v>30</v>
@@ -18550,10 +18543,10 @@
         <v>191</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J73" s="17" t="s">
         <v>495</v>
@@ -18673,7 +18666,7 @@
         <v/>
       </c>
       <c r="AR73" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AV73" s="17" t="s">
         <v>30</v>
@@ -18744,37 +18737,37 @@
         <v>278</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J74" t="s">
         <v>492</v>
       </c>
       <c r="K74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s">
         <v>492</v>
       </c>
       <c r="M74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N74" t="s">
         <v>492</v>
       </c>
       <c r="O74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P74" t="s">
         <v>492</v>
       </c>
       <c r="Q74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R74" t="s">
         <v>492</v>
       </c>
       <c r="S74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V74" s="8" t="s">
         <v>429</v>
@@ -18864,7 +18857,7 @@
         <v/>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AV74" s="4" t="s">
         <v>30</v>
@@ -18936,7 +18929,7 @@
         <v>318</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J75" t="s">
         <v>495</v>
@@ -19056,7 +19049,7 @@
         <v/>
       </c>
       <c r="AR75" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AV75" s="17" t="s">
         <v>30</v>
@@ -19125,7 +19118,7 @@
         <v>261</v>
       </c>
       <c r="C76" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>291</v>
@@ -19140,7 +19133,7 @@
         <v>494</v>
       </c>
       <c r="K76" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s">
         <v>497</v>
@@ -19173,7 +19166,7 @@
         <v>489</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="W76" s="17">
         <f t="shared" si="35"/>
@@ -19260,7 +19253,7 @@
         <v>2.3pm-6.3pm</v>
       </c>
       <c r="AR76" s="17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AS76" t="s">
         <v>485</v>
@@ -19341,7 +19334,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>488</v>
@@ -19473,7 +19466,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR77" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AS77" s="8" t="s">
         <v>485</v>
@@ -19550,7 +19543,7 @@
         <v>316</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J78" t="s">
         <v>488</v>
@@ -19670,7 +19663,7 @@
         <v/>
       </c>
       <c r="AR78" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AV78" s="4" t="s">
         <v>30</v>
@@ -19739,10 +19732,10 @@
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H79" t="s">
         <v>488</v>
@@ -19874,7 +19867,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR79" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AU79" t="s">
         <v>27</v>
@@ -19946,28 +19939,28 @@
         <v>246</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R80" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T80" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V80" s="8"/>
       <c r="W80" s="17">
@@ -20126,13 +20119,13 @@
         <v>85</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -20256,7 +20249,7 @@
         <v/>
       </c>
       <c r="AR81" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AS81" s="8"/>
       <c r="AT81" s="8"/>
@@ -20331,7 +20324,7 @@
         <v>316</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H82" t="s">
         <v>495</v>
@@ -20463,7 +20456,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR82" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AS82" t="s">
         <v>485</v>
@@ -20532,13 +20525,13 @@
     </row>
     <row r="83" spans="2:64" ht="150">
       <c r="B83" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C83" t="s">
         <v>421</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J83">
         <v>1500</v>
@@ -20571,7 +20564,7 @@
         <v>1800</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="W83" s="17" t="str">
         <f t="shared" si="35"/>
@@ -20658,7 +20651,7 @@
         <v/>
       </c>
       <c r="AR83" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AV83" s="4" t="s">
         <v>30</v>
@@ -20727,10 +20720,10 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H84" t="s">
         <v>494</v>
@@ -20862,7 +20855,7 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR84" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AV84" s="4" t="s">
         <v>30</v>
@@ -20928,13 +20921,13 @@
     </row>
     <row r="85" spans="2:64" ht="180">
       <c r="B85" t="s">
+        <v>953</v>
+      </c>
+      <c r="C85" t="s">
+        <v>913</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>954</v>
-      </c>
-      <c r="C85" t="s">
-        <v>914</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>955</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -20979,7 +20972,7 @@
         <v>2400</v>
       </c>
       <c r="V85" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="W85" s="17">
         <f t="shared" si="35"/>
@@ -21066,7 +21059,7 @@
         <v>10am-12am</v>
       </c>
       <c r="AR85" s="17" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AV85" s="4" t="s">
         <v>30</v>
@@ -21138,7 +21131,7 @@
         <v>318</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H86" t="s">
         <v>488</v>
@@ -21270,7 +21263,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR86" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AV86" s="17" t="s">
         <v>30</v>
@@ -21339,7 +21332,7 @@
         <v>277</v>
       </c>
       <c r="C87" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>307</v>
@@ -21353,7 +21346,7 @@
       <c r="R87" s="17"/>
       <c r="S87" s="17"/>
       <c r="V87" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="W87" s="17" t="str">
         <f t="shared" si="35"/>
@@ -21440,7 +21433,7 @@
         <v/>
       </c>
       <c r="AR87" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AS87" t="s">
         <v>485</v>
@@ -21515,13 +21508,13 @@
         <v>89</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>495</v>
@@ -21533,7 +21526,7 @@
         <v>495</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L88" s="8" t="s">
         <v>495</v>
@@ -21653,7 +21646,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR88" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AS88" s="8"/>
       <c r="AT88" s="8"/>
@@ -21815,7 +21808,7 @@
         <v/>
       </c>
       <c r="AR89" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AS89" t="s">
         <v>485</v>
@@ -21887,10 +21880,10 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H90" t="s">
         <v>488</v>
@@ -22022,7 +22015,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR90" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AS90" t="s">
         <v>485</v>
@@ -22091,13 +22084,13 @@
     </row>
     <row r="91" spans="2:64" ht="120">
       <c r="B91" t="s">
+        <v>984</v>
+      </c>
+      <c r="C91" t="s">
+        <v>912</v>
+      </c>
+      <c r="G91" s="16" t="s">
         <v>985</v>
-      </c>
-      <c r="C91" t="s">
-        <v>913</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>986</v>
       </c>
       <c r="W91" s="17" t="str">
         <f t="shared" si="35"/>
@@ -22184,7 +22177,7 @@
         <v/>
       </c>
       <c r="AR91" s="17" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AV91" s="4" t="s">
         <v>31</v>
@@ -22250,13 +22243,13 @@
     </row>
     <row r="92" spans="2:64" ht="120">
       <c r="B92" t="s">
+        <v>944</v>
+      </c>
+      <c r="C92" t="s">
+        <v>911</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>945</v>
-      </c>
-      <c r="C92" t="s">
-        <v>912</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>946</v>
       </c>
       <c r="W92" s="17" t="str">
         <f t="shared" si="35"/>
@@ -22343,7 +22336,7 @@
         <v/>
       </c>
       <c r="AR92" s="22" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AV92" s="4" t="s">
         <v>31</v>
@@ -22412,10 +22405,10 @@
         <v>91</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H93" s="17" t="s">
         <v>495</v>
@@ -22547,7 +22540,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR93" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AS93" s="17" t="s">
         <v>485</v>
@@ -22624,7 +22617,7 @@
         <v>316</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L94" t="s">
         <v>488</v>
@@ -22738,7 +22731,7 @@
         <v/>
       </c>
       <c r="AR94" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AV94" s="4" t="s">
         <v>30</v>
@@ -22810,7 +22803,7 @@
         <v>318</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H95" t="s">
         <v>488</v>
@@ -22942,7 +22935,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR95" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AV95" s="4" t="s">
         <v>30</v>
@@ -23011,10 +23004,10 @@
         <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J96" t="s">
         <v>488</v>
@@ -23134,7 +23127,7 @@
         <v/>
       </c>
       <c r="AR96" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AV96" s="17" t="s">
         <v>30</v>
@@ -23206,7 +23199,7 @@
         <v>278</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W97" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23293,7 +23286,7 @@
         <v/>
       </c>
       <c r="AR97" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AV97" s="4" t="s">
         <v>31</v>
@@ -23362,7 +23355,7 @@
         <v>257</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
@@ -23413,7 +23406,7 @@
         <v>491</v>
       </c>
       <c r="V98" s="8" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="W98" s="17">
         <f t="shared" si="35"/>
@@ -23500,7 +23493,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR98" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AS98" s="17" t="s">
         <v>485</v>
@@ -23577,7 +23570,7 @@
         <v>343</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V99" s="17"/>
       <c r="W99" s="17" t="str">
@@ -23665,7 +23658,7 @@
         <v/>
       </c>
       <c r="AR99" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AV99" s="17" t="s">
         <v>31</v>
@@ -23731,13 +23724,13 @@
     </row>
     <row r="100" spans="2:64" ht="135">
       <c r="B100" t="s">
+        <v>973</v>
+      </c>
+      <c r="C100" t="s">
+        <v>907</v>
+      </c>
+      <c r="G100" s="16" t="s">
         <v>974</v>
-      </c>
-      <c r="C100" t="s">
-        <v>908</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>975</v>
       </c>
       <c r="J100">
         <v>1500</v>
@@ -23770,7 +23763,7 @@
         <v>1800</v>
       </c>
       <c r="V100" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W100" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23857,7 +23850,7 @@
         <v/>
       </c>
       <c r="AR100" s="17" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AV100" s="4" t="s">
         <v>30</v>
@@ -23926,10 +23919,10 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H101" t="s">
         <v>488</v>
@@ -24061,7 +24054,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR101" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AV101" s="4" t="s">
         <v>30</v>
@@ -24130,10 +24123,10 @@
         <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H102" t="s">
         <v>495</v>
@@ -24142,7 +24135,7 @@
         <v>491</v>
       </c>
       <c r="J102" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L102" t="s">
         <v>495</v>
@@ -24262,7 +24255,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR102" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AV102" s="4" t="s">
         <v>30</v>
@@ -24328,13 +24321,13 @@
     </row>
     <row r="103" spans="2:64" ht="150">
       <c r="B103" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C103" t="s">
+        <v>909</v>
+      </c>
+      <c r="G103" s="16" t="s">
         <v>1013</v>
-      </c>
-      <c r="C103" t="s">
-        <v>910</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>1014</v>
       </c>
       <c r="H103">
         <v>1500</v>
@@ -24379,7 +24372,7 @@
         <v>1900</v>
       </c>
       <c r="V103" s="23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="W103" s="17">
         <f t="shared" si="35"/>
@@ -24466,7 +24459,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR103" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AV103" s="4" t="s">
         <v>30</v>
@@ -24535,10 +24528,10 @@
         <v>197</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J104" t="s">
         <v>488</v>
@@ -24658,7 +24651,7 @@
         <v/>
       </c>
       <c r="AR104" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AV104" s="4" t="s">
         <v>30</v>
@@ -24727,31 +24720,31 @@
         <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L105" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M105" s="17" t="s">
         <v>490</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O105" s="17" t="s">
         <v>490</v>
       </c>
       <c r="P105" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q105" s="17" t="s">
         <v>490</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S105" s="17" t="s">
         <v>490</v>
@@ -24843,7 +24836,7 @@
         <v/>
       </c>
       <c r="AR105" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AV105" s="17" t="s">
         <v>31</v>
@@ -24915,7 +24908,7 @@
         <v>316</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J106" t="s">
         <v>488</v>
@@ -25035,7 +25028,7 @@
         <v/>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AU106" s="4"/>
       <c r="AV106" s="4" t="s">
@@ -25111,7 +25104,7 @@
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -25235,7 +25228,7 @@
         <v/>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AS107" s="17"/>
       <c r="AT107" s="17"/>
@@ -25307,10 +25300,10 @@
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J108" t="s">
         <v>488</v>
@@ -25430,7 +25423,7 @@
         <v/>
       </c>
       <c r="AR108" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AS108" t="s">
         <v>485</v>
@@ -25502,10 +25495,10 @@
         <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H109" t="s">
         <v>495</v>
@@ -25637,7 +25630,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AS109" t="s">
         <v>485</v>
@@ -25745,7 +25738,7 @@
         <v>491</v>
       </c>
       <c r="V110" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W110" s="17" t="str">
         <f t="shared" si="35"/>
@@ -25907,7 +25900,7 @@
         <v>318</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J111" t="s">
         <v>488</v>
@@ -26027,7 +26020,7 @@
         <v/>
       </c>
       <c r="AR111" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS111" t="s">
         <v>485</v>
@@ -26102,13 +26095,13 @@
         <v>200</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
@@ -26232,7 +26225,7 @@
         <v/>
       </c>
       <c r="AR112" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AS112" s="17"/>
       <c r="AT112" s="17"/>
@@ -26307,7 +26300,7 @@
         <v>278</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H113" t="s">
         <v>488</v>
@@ -26439,7 +26432,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR113" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AV113" s="4" t="s">
         <v>30</v>
@@ -26505,16 +26498,16 @@
     </row>
     <row r="114" spans="2:64" ht="19.5" customHeight="1">
       <c r="B114" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
@@ -26615,7 +26608,7 @@
         <v/>
       </c>
       <c r="AR114" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AS114" s="17"/>
       <c r="AT114" s="17"/>
@@ -26687,10 +26680,10 @@
         <v>101</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H115" s="17" t="s">
         <v>488</v>
@@ -26822,7 +26815,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR115" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AV115" s="17" t="s">
         <v>30</v>
@@ -26893,7 +26886,7 @@
         <v>318</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J116" t="s">
         <v>488</v>
@@ -27013,7 +27006,7 @@
         <v/>
       </c>
       <c r="AR116" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AV116" s="17" t="s">
         <v>30</v>
@@ -27085,7 +27078,7 @@
         <v>343</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H117" t="s">
         <v>488</v>
@@ -27217,7 +27210,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AS117" t="s">
         <v>485</v>
@@ -27286,13 +27279,13 @@
     </row>
     <row r="118" spans="2:64" ht="120">
       <c r="B118" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C118" t="s">
         <v>279</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="W118" s="17" t="str">
         <f t="shared" si="35"/>
@@ -27379,7 +27372,7 @@
         <v/>
       </c>
       <c r="AR118" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AV118" s="4" t="s">
         <v>31</v>
@@ -27448,10 +27441,10 @@
         <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H119" t="s">
         <v>495</v>
@@ -27583,7 +27576,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR119" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AV119" s="4" t="s">
         <v>30</v>
@@ -27655,7 +27648,7 @@
         <v>278</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J120" t="s">
         <v>488</v>
@@ -27775,7 +27768,7 @@
         <v/>
       </c>
       <c r="AR120" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AV120" s="4" t="s">
         <v>30</v>
@@ -27844,10 +27837,10 @@
         <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H121" t="s">
         <v>488</v>
@@ -27979,7 +27972,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AT121" t="s">
         <v>486</v>
@@ -28051,10 +28044,10 @@
         <v>243</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L122" s="17" t="s">
         <v>490</v>
@@ -28174,7 +28167,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR122" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AS122" s="17" t="s">
         <v>485</v>
@@ -28248,7 +28241,7 @@
         <v>318</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V123" s="8">
         <v>0</v>
@@ -28338,7 +28331,7 @@
         <v/>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AV123" s="4" t="s">
         <v>31</v>
@@ -28412,7 +28405,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>495</v>
@@ -28424,7 +28417,7 @@
         <v>495</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L124" s="8" t="s">
         <v>495</v>
@@ -28544,7 +28537,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR124" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AS124" s="8" t="s">
         <v>485</v>
@@ -28617,13 +28610,13 @@
         <v>109</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>495</v>
@@ -28635,7 +28628,7 @@
         <v>495</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>495</v>
@@ -28755,7 +28748,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR125" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AS125" s="8"/>
       <c r="AT125" s="8"/>
@@ -28833,7 +28826,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>495</v>
@@ -28965,7 +28958,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR126" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AS126" s="8"/>
       <c r="AT126" s="8"/>
@@ -29037,13 +29030,13 @@
         <v>111</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>488</v>
@@ -29175,7 +29168,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR127" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AS127" s="8"/>
       <c r="AT127" s="8"/>
@@ -29250,7 +29243,7 @@
         <v>316</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J128" t="s">
         <v>488</v>
@@ -29352,7 +29345,7 @@
         <v/>
       </c>
       <c r="AR128" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AV128" s="4" t="s">
         <v>30</v>
@@ -29421,13 +29414,13 @@
         <v>112</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -29551,7 +29544,7 @@
         <v/>
       </c>
       <c r="AR129" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AS129" s="8"/>
       <c r="AT129" s="8"/>
@@ -29628,7 +29621,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>495</v>
@@ -29760,7 +29753,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR130" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AS130" s="8"/>
       <c r="AT130" s="8"/>
@@ -29829,7 +29822,7 @@
     </row>
     <row r="131" spans="2:64" ht="165">
       <c r="B131" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>311</v>
@@ -29838,7 +29831,7 @@
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
       <c r="G131" s="16" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
@@ -29879,7 +29872,7 @@
         <v>1900</v>
       </c>
       <c r="V131" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W131" s="17" t="str">
         <f t="shared" ref="W131:W194" si="67">IF(H131&gt;0,H131/100,"")</f>
@@ -29966,7 +29959,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR131" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AS131" s="17"/>
       <c r="AT131" s="17"/>
@@ -30039,13 +30032,13 @@
     </row>
     <row r="132" spans="2:64" ht="409.5">
       <c r="B132" t="s">
+        <v>918</v>
+      </c>
+      <c r="C132" t="s">
+        <v>911</v>
+      </c>
+      <c r="G132" s="16" t="s">
         <v>919</v>
-      </c>
-      <c r="C132" t="s">
-        <v>912</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>920</v>
       </c>
       <c r="H132">
         <v>2100</v>
@@ -30084,7 +30077,7 @@
         <v>1800</v>
       </c>
       <c r="V132" s="12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="W132" s="17">
         <f t="shared" si="67"/>
@@ -30171,7 +30164,7 @@
         <v/>
       </c>
       <c r="AR132" s="21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AV132" s="4" t="s">
         <v>30</v>
@@ -30237,13 +30230,13 @@
     </row>
     <row r="133" spans="2:64" s="17" customFormat="1" ht="150">
       <c r="B133" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="G133" s="16" t="s">
         <v>939</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>912</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>940</v>
       </c>
       <c r="H133" s="17">
         <v>1400</v>
@@ -30288,7 +30281,7 @@
         <v>1830</v>
       </c>
       <c r="V133" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="W133" s="17">
         <f t="shared" si="67"/>
@@ -30375,7 +30368,7 @@
         <v>2pm-6.3pm</v>
       </c>
       <c r="AR133" s="21" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AV133" s="4" t="s">
         <v>30</v>
@@ -30448,49 +30441,49 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="S134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T134" s="8" t="s">
         <v>488</v>
       </c>
       <c r="U134" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V134" s="8" t="s">
         <v>361</v>
@@ -30580,7 +30573,7 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR134" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS134" s="8"/>
       <c r="AT134" s="8"/>
@@ -30655,7 +30648,7 @@
         <v>316</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J135" t="s">
         <v>495</v>
@@ -30773,7 +30766,7 @@
         <v/>
       </c>
       <c r="AR135" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AV135" s="17" t="s">
         <v>31</v>
@@ -30842,10 +30835,10 @@
         <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J136" t="s">
         <v>488</v>
@@ -30965,7 +30958,7 @@
         <v/>
       </c>
       <c r="AR136" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AS136" t="s">
         <v>485</v>
@@ -31037,13 +31030,13 @@
         <v>115</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>488</v>
@@ -31084,7 +31077,7 @@
         <v>489</v>
       </c>
       <c r="V137" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="W137" s="17">
         <f t="shared" si="67"/>
@@ -31171,7 +31164,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR137" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AS137" s="8"/>
       <c r="AT137" s="8"/>
@@ -31243,13 +31236,13 @@
         <v>204</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
       <c r="G138" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
@@ -31373,7 +31366,7 @@
         <v/>
       </c>
       <c r="AR138" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AS138" s="17" t="s">
         <v>485</v>
@@ -31453,7 +31446,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -31577,7 +31570,7 @@
         <v/>
       </c>
       <c r="AR139" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AS139" s="8" t="s">
         <v>485</v>
@@ -31651,13 +31644,13 @@
         <v>117</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -31781,7 +31774,7 @@
         <v/>
       </c>
       <c r="AR140" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AS140" s="8"/>
       <c r="AT140" s="8"/>
@@ -31859,7 +31852,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -31983,7 +31976,7 @@
         <v/>
       </c>
       <c r="AR141" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AS141" s="8"/>
       <c r="AT141" s="8"/>
@@ -32055,13 +32048,13 @@
         <v>119</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>497</v>
@@ -32189,7 +32182,7 @@
         <v>2.3pm-5pm</v>
       </c>
       <c r="AR142" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AS142" s="8"/>
       <c r="AT142" s="8"/>
@@ -32261,40 +32254,40 @@
         <v>205</v>
       </c>
       <c r="C143" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J143" t="s">
         <v>490</v>
       </c>
       <c r="K143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L143" t="s">
         <v>490</v>
       </c>
       <c r="M143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N143" t="s">
         <v>490</v>
       </c>
       <c r="O143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P143" t="s">
         <v>490</v>
       </c>
       <c r="Q143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R143" t="s">
         <v>490</v>
       </c>
       <c r="S143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V143" s="8" t="s">
         <v>332</v>
@@ -32384,7 +32377,7 @@
         <v/>
       </c>
       <c r="AR143" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AS143" t="s">
         <v>485</v>
@@ -32456,13 +32449,13 @@
         <v>206</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
       <c r="G144" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
@@ -32586,7 +32579,7 @@
         <v/>
       </c>
       <c r="AR144" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AS144" s="17"/>
       <c r="AT144" s="17"/>
@@ -32658,13 +32651,13 @@
         <v>120</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
       <c r="G145" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H145" s="17" t="s">
         <v>497</v>
@@ -32703,7 +32696,7 @@
         <v>489</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U145" s="17" t="s">
         <v>492</v>
@@ -32796,7 +32789,7 @@
         <v>10.3am-5pm</v>
       </c>
       <c r="AR145" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AS145" s="17"/>
       <c r="AT145" s="17"/>
@@ -32865,16 +32858,16 @@
     </row>
     <row r="146" spans="2:64" ht="135">
       <c r="B146" s="17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
       <c r="G146" s="16" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
@@ -32911,7 +32904,7 @@
       <c r="T146" s="17"/>
       <c r="U146" s="17"/>
       <c r="V146" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W146" s="17" t="str">
         <f t="shared" si="67"/>
@@ -32998,7 +32991,7 @@
         <v/>
       </c>
       <c r="AR146" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AS146" s="17"/>
       <c r="AT146" s="17"/>
@@ -33070,13 +33063,13 @@
         <v>121</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -33200,7 +33193,7 @@
         <v/>
       </c>
       <c r="AR147" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AS147" s="8" t="s">
         <v>485</v>
@@ -33280,7 +33273,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
       <c r="G148" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H148" s="17" t="s">
         <v>495</v>
@@ -33412,7 +33405,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR148" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AS148" s="17"/>
       <c r="AT148" s="17"/>
@@ -33484,13 +33477,13 @@
         <v>207</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
       <c r="G149" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
@@ -33527,7 +33520,7 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
       <c r="V149" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="W149" s="17" t="str">
         <f t="shared" si="67"/>
@@ -33614,7 +33607,7 @@
         <v/>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AS149" s="17"/>
       <c r="AT149" s="17"/>
@@ -33692,7 +33685,7 @@
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
       <c r="G150" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
@@ -33729,7 +33722,7 @@
       <c r="T150" s="17"/>
       <c r="U150" s="17"/>
       <c r="V150" s="17" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="W150" s="17" t="str">
         <f t="shared" si="67"/>
@@ -33816,7 +33809,7 @@
         <v/>
       </c>
       <c r="AR150" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AS150" s="17"/>
       <c r="AT150" s="17"/>
@@ -33894,7 +33887,7 @@
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
       <c r="G151" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H151" s="17" t="s">
         <v>488</v>
@@ -33915,7 +33908,7 @@
         <v>490</v>
       </c>
       <c r="N151" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O151" s="17" t="s">
         <v>490</v>
@@ -34026,7 +34019,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR151" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AS151" s="17"/>
       <c r="AT151" s="17"/>
@@ -34098,13 +34091,13 @@
         <v>124</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
       <c r="G152" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H152" s="17" t="s">
         <v>488</v>
@@ -34236,7 +34229,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR152" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AS152" s="17"/>
       <c r="AT152" s="17"/>
@@ -34308,13 +34301,13 @@
         <v>125</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
       <c r="G153" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H153" s="17" t="s">
         <v>488</v>
@@ -34446,7 +34439,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR153" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AS153" s="17"/>
       <c r="AT153" s="17"/>
@@ -34524,7 +34517,7 @@
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
       <c r="G154" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H154" s="17" t="s">
         <v>488</v>
@@ -34656,7 +34649,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR154" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AS154" s="17"/>
       <c r="AT154" s="17"/>
@@ -34734,7 +34727,7 @@
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
       <c r="G155" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H155" s="17" t="s">
         <v>488</v>
@@ -34866,7 +34859,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR155" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AS155" s="17"/>
       <c r="AT155" s="17"/>
@@ -34944,7 +34937,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
       <c r="G156" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
@@ -35068,7 +35061,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR156" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AS156" s="17"/>
       <c r="AT156" s="17"/>
@@ -35146,7 +35139,7 @@
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
       <c r="G157" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
@@ -35270,7 +35263,7 @@
         <v/>
       </c>
       <c r="AR157" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AS157" s="17"/>
       <c r="AT157" s="17"/>
@@ -35342,7 +35335,7 @@
         <v>270</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
@@ -35354,46 +35347,46 @@
         <v>495</v>
       </c>
       <c r="I158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J158" s="17" t="s">
         <v>495</v>
       </c>
       <c r="K158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L158" s="17" t="s">
         <v>495</v>
       </c>
       <c r="M158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N158" s="17" t="s">
         <v>495</v>
       </c>
       <c r="O158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P158" s="17" t="s">
         <v>495</v>
       </c>
       <c r="Q158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R158" s="17" t="s">
         <v>495</v>
       </c>
       <c r="S158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T158" s="17" t="s">
         <v>495</v>
       </c>
       <c r="U158" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V158" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W158" s="17">
         <f t="shared" si="67"/>
@@ -35480,7 +35473,7 @@
         <v>4pm-8pm</v>
       </c>
       <c r="AR158" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AS158" s="17" t="s">
         <v>485</v>
@@ -35554,13 +35547,13 @@
         <v>129</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
       <c r="G159" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H159" s="17" t="s">
         <v>488</v>
@@ -35692,7 +35685,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR159" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AS159" s="17"/>
       <c r="AT159" s="17"/>
@@ -35767,7 +35760,7 @@
         <v>318</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J160" t="s">
         <v>494</v>
@@ -35887,7 +35880,7 @@
         <v/>
       </c>
       <c r="AR160" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AV160" s="4" t="s">
         <v>30</v>
@@ -35956,10 +35949,10 @@
         <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H161" t="s">
         <v>488</v>
@@ -36091,7 +36084,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR161" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AV161" t="s">
         <v>30</v>
@@ -36163,34 +36156,34 @@
         <v>279</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K162" t="s">
         <v>490</v>
       </c>
       <c r="L162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M162" t="s">
         <v>490</v>
       </c>
       <c r="N162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O162" t="s">
         <v>490</v>
       </c>
       <c r="P162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q162" t="s">
         <v>490</v>
       </c>
       <c r="R162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S162" t="s">
         <v>490</v>
@@ -36283,7 +36276,7 @@
         <v/>
       </c>
       <c r="AR162" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AV162" s="4" t="s">
         <v>30</v>
@@ -36355,7 +36348,7 @@
         <v>318</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H163" t="s">
         <v>495</v>
@@ -36487,7 +36480,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR163" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AV163" s="4" t="s">
         <v>30</v>
@@ -36556,43 +36549,43 @@
         <v>271</v>
       </c>
       <c r="C164" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G164" s="17" t="s">
         <v>300</v>
       </c>
       <c r="J164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K164" t="s">
         <v>489</v>
       </c>
       <c r="L164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M164" t="s">
         <v>489</v>
       </c>
       <c r="N164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O164" t="s">
         <v>489</v>
       </c>
       <c r="P164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q164" t="s">
         <v>489</v>
       </c>
       <c r="R164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S164" t="s">
         <v>489</v>
       </c>
       <c r="V164" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="W164" s="17" t="str">
         <f t="shared" si="67"/>
@@ -36679,7 +36672,7 @@
         <v/>
       </c>
       <c r="AR164" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AS164" t="s">
         <v>485</v>
@@ -36748,13 +36741,13 @@
     </row>
     <row r="165" spans="2:64" ht="409.5">
       <c r="B165" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C165" t="s">
+        <v>913</v>
+      </c>
+      <c r="G165" s="20" t="s">
         <v>952</v>
-      </c>
-      <c r="C165" t="s">
-        <v>914</v>
-      </c>
-      <c r="G165" s="20" t="s">
-        <v>953</v>
       </c>
       <c r="L165">
         <v>1700</v>
@@ -36781,7 +36774,7 @@
         <v>1900</v>
       </c>
       <c r="V165" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="W165" s="17" t="str">
         <f t="shared" si="67"/>
@@ -36868,7 +36861,7 @@
         <v/>
       </c>
       <c r="AR165" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AV165" s="4" t="s">
         <v>30</v>
@@ -36934,13 +36927,13 @@
     </row>
     <row r="166" spans="2:64" ht="165">
       <c r="B166" t="s">
+        <v>959</v>
+      </c>
+      <c r="C166" t="s">
+        <v>908</v>
+      </c>
+      <c r="G166" s="16" t="s">
         <v>960</v>
-      </c>
-      <c r="C166" t="s">
-        <v>909</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>961</v>
       </c>
       <c r="H166">
         <v>1500</v>
@@ -36985,7 +36978,7 @@
         <v>1800</v>
       </c>
       <c r="V166" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W166" s="17">
         <f t="shared" si="67"/>
@@ -37072,7 +37065,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR166" s="21" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AV166" s="4" t="s">
         <v>30</v>
@@ -37144,7 +37137,7 @@
         <v>316</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H167" t="s">
         <v>488</v>
@@ -37276,7 +37269,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR167" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AV167" s="4" t="s">
         <v>30</v>
@@ -37345,22 +37338,22 @@
         <v>244</v>
       </c>
       <c r="C168" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L168" t="s">
         <v>491</v>
       </c>
       <c r="M168" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N168" t="s">
         <v>491</v>
       </c>
       <c r="O168" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P168" t="s">
         <v>491</v>
@@ -37468,7 +37461,7 @@
         <v>7pm-9pm</v>
       </c>
       <c r="AR168" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AV168" t="s">
         <v>30</v>
@@ -37537,7 +37530,7 @@
         <v>276</v>
       </c>
       <c r="C169" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G169" s="17" t="s">
         <v>305</v>
@@ -37717,13 +37710,13 @@
     </row>
     <row r="170" spans="2:64" ht="135">
       <c r="B170" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C170" s="17" t="s">
         <v>421</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H170">
         <v>1500</v>
@@ -37855,7 +37848,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR170" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AV170" s="4" t="s">
         <v>30</v>
@@ -37921,13 +37914,13 @@
     </row>
     <row r="171" spans="2:64" ht="120">
       <c r="B171" t="s">
+        <v>965</v>
+      </c>
+      <c r="C171" t="s">
+        <v>908</v>
+      </c>
+      <c r="G171" s="16" t="s">
         <v>966</v>
-      </c>
-      <c r="C171" t="s">
-        <v>909</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>967</v>
       </c>
       <c r="W171" s="17" t="str">
         <f t="shared" si="67"/>
@@ -38080,43 +38073,43 @@
         <v>212</v>
       </c>
       <c r="C172" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K172" t="s">
         <v>490</v>
       </c>
       <c r="L172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M172" t="s">
         <v>490</v>
       </c>
       <c r="N172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O172" t="s">
         <v>490</v>
       </c>
       <c r="P172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q172" t="s">
         <v>490</v>
       </c>
       <c r="R172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S172" t="s">
         <v>490</v>
       </c>
       <c r="T172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U172" t="s">
         <v>490</v>
@@ -38209,7 +38202,7 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR172" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AV172" s="4" t="s">
         <v>30</v>
@@ -38275,13 +38268,13 @@
     </row>
     <row r="173" spans="2:64" ht="409.5">
       <c r="B173" t="s">
+        <v>946</v>
+      </c>
+      <c r="C173" t="s">
+        <v>913</v>
+      </c>
+      <c r="G173" s="20" t="s">
         <v>947</v>
-      </c>
-      <c r="C173" t="s">
-        <v>914</v>
-      </c>
-      <c r="G173" s="20" t="s">
-        <v>948</v>
       </c>
       <c r="H173">
         <v>1400</v>
@@ -38326,7 +38319,7 @@
         <v>1800</v>
       </c>
       <c r="V173" s="12" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W173" s="17">
         <f t="shared" si="67"/>
@@ -38413,7 +38406,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR173" s="21" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AV173" s="4" t="s">
         <v>30</v>
@@ -38482,10 +38475,10 @@
         <v>213</v>
       </c>
       <c r="C174" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J174" t="s">
         <v>488</v>
@@ -38605,7 +38598,7 @@
         <v/>
       </c>
       <c r="AR174" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AV174" t="s">
         <v>30</v>
@@ -38677,7 +38670,7 @@
         <v>356</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J175" t="s">
         <v>488</v>
@@ -38797,7 +38790,7 @@
         <v/>
       </c>
       <c r="AR175" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AV175" s="4" t="s">
         <v>30</v>
@@ -38866,10 +38859,10 @@
         <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J176" t="s">
         <v>488</v>
@@ -38989,7 +38982,7 @@
         <v/>
       </c>
       <c r="AR176" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AV176" t="s">
         <v>30</v>
@@ -39061,7 +39054,7 @@
         <v>356</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J177" t="s">
         <v>495</v>
@@ -39181,7 +39174,7 @@
         <v/>
       </c>
       <c r="AR177" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AV177" t="s">
         <v>30</v>
@@ -39253,7 +39246,7 @@
         <v>343</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J178" t="s">
         <v>498</v>
@@ -39373,7 +39366,7 @@
         <v/>
       </c>
       <c r="AR178" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AV178" t="s">
         <v>30</v>
@@ -39445,7 +39438,7 @@
         <v>316</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J179" t="s">
         <v>488</v>
@@ -39565,7 +39558,7 @@
         <v/>
       </c>
       <c r="AR179" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AV179" s="4" t="s">
         <v>30</v>
@@ -39631,13 +39624,13 @@
     </row>
     <row r="180" spans="2:64" ht="180">
       <c r="B180" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C180" t="s">
         <v>311</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J180">
         <v>1400</v>
@@ -39670,7 +39663,7 @@
         <v>1800</v>
       </c>
       <c r="V180" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="W180" s="17" t="str">
         <f t="shared" si="67"/>
@@ -39757,7 +39750,7 @@
         <v/>
       </c>
       <c r="AR180" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AV180" s="4" t="s">
         <v>30</v>
@@ -39826,43 +39819,43 @@
         <v>134</v>
       </c>
       <c r="C181" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H181" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I181" t="s">
         <v>489</v>
       </c>
       <c r="J181" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K181" t="s">
         <v>489</v>
       </c>
       <c r="N181" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O181" t="s">
         <v>489</v>
       </c>
       <c r="P181" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q181" t="s">
         <v>489</v>
       </c>
       <c r="R181" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S181" t="s">
         <v>489</v>
       </c>
       <c r="T181" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U181" t="s">
         <v>489</v>
@@ -39955,7 +39948,7 @@
         <v>4.3pm-6.3pm</v>
       </c>
       <c r="AR181" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AV181" s="4" t="s">
         <v>30</v>
@@ -40021,13 +40014,13 @@
     </row>
     <row r="182" spans="2:64" ht="135">
       <c r="B182" t="s">
+        <v>916</v>
+      </c>
+      <c r="C182" t="s">
+        <v>911</v>
+      </c>
+      <c r="G182" s="16" t="s">
         <v>917</v>
-      </c>
-      <c r="C182" t="s">
-        <v>912</v>
-      </c>
-      <c r="G182" s="16" t="s">
-        <v>918</v>
       </c>
       <c r="J182">
         <v>1500</v>
@@ -40144,7 +40137,7 @@
         <v/>
       </c>
       <c r="AR182" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AV182" s="4" t="s">
         <v>30</v>
@@ -40213,10 +40206,10 @@
         <v>135</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H183" t="s">
         <v>495</v>
@@ -40342,7 +40335,7 @@
         <v/>
       </c>
       <c r="AR183" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AV183" s="4" t="s">
         <v>30</v>
@@ -40414,7 +40407,7 @@
         <v>318</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H184" t="s">
         <v>488</v>
@@ -40546,7 +40539,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AV184" s="4" t="s">
         <v>30</v>
@@ -40804,10 +40797,10 @@
         <v>137</v>
       </c>
       <c r="C186" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W186" s="17" t="str">
         <f t="shared" si="67"/>
@@ -40894,7 +40887,7 @@
         <v/>
       </c>
       <c r="AR186" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AS186" t="s">
         <v>485</v>
@@ -40969,40 +40962,40 @@
         <v>318</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J187" t="s">
         <v>498</v>
       </c>
       <c r="K187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L187" t="s">
         <v>498</v>
       </c>
       <c r="M187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N187" t="s">
         <v>498</v>
       </c>
       <c r="O187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P187" t="s">
         <v>498</v>
       </c>
       <c r="Q187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R187" t="s">
         <v>498</v>
       </c>
       <c r="S187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V187" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W187" s="17" t="str">
         <f t="shared" si="67"/>
@@ -41089,7 +41082,7 @@
         <v/>
       </c>
       <c r="AR187" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AV187" t="s">
         <v>30</v>
@@ -41161,7 +41154,7 @@
         <v>311</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J188" t="s">
         <v>498</v>
@@ -41281,7 +41274,7 @@
         <v/>
       </c>
       <c r="AR188" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AV188" t="s">
         <v>30</v>
@@ -41350,7 +41343,7 @@
         <v>273</v>
       </c>
       <c r="C189" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G189" s="17" t="s">
         <v>302</v>
@@ -41512,25 +41505,25 @@
         <v>139</v>
       </c>
       <c r="C190" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J190" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K190" t="s">
         <v>491</v>
       </c>
       <c r="L190" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M190" t="s">
         <v>491</v>
       </c>
       <c r="N190" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O190" t="s">
         <v>491</v>
@@ -41635,7 +41628,7 @@
         <v/>
       </c>
       <c r="AR190" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AV190" s="4" t="s">
         <v>30</v>
@@ -41707,7 +41700,7 @@
         <v>318</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H191" t="s">
         <v>488</v>
@@ -41752,7 +41745,7 @@
         <v>491</v>
       </c>
       <c r="V191" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W191" s="17">
         <f t="shared" si="67"/>
@@ -41839,7 +41832,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR191" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV191" s="4" t="s">
         <v>30</v>
@@ -41905,13 +41898,13 @@
     </row>
     <row r="192" spans="2:64" ht="210">
       <c r="B192" t="s">
+        <v>961</v>
+      </c>
+      <c r="C192" t="s">
+        <v>908</v>
+      </c>
+      <c r="G192" s="16" t="s">
         <v>962</v>
-      </c>
-      <c r="C192" t="s">
-        <v>909</v>
-      </c>
-      <c r="G192" s="16" t="s">
-        <v>963</v>
       </c>
       <c r="H192">
         <v>1500</v>
@@ -41956,7 +41949,7 @@
         <v>1800</v>
       </c>
       <c r="V192" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="W192" s="17">
         <f t="shared" si="67"/>
@@ -42043,7 +42036,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR192" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AV192" s="4" t="s">
         <v>30</v>
@@ -42115,7 +42108,7 @@
         <v>278</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H193" t="s">
         <v>488</v>
@@ -42247,7 +42240,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR193" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AV193" t="s">
         <v>30</v>
@@ -42316,7 +42309,7 @@
         <v>263</v>
       </c>
       <c r="C194" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G194" s="17" t="s">
         <v>474</v>
@@ -42439,7 +42432,7 @@
         <v/>
       </c>
       <c r="AR194" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AS194" t="s">
         <v>485</v>
@@ -42511,13 +42504,13 @@
     </row>
     <row r="195" spans="2:64" ht="120">
       <c r="B195" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C195" t="s">
         <v>421</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="W195" s="17" t="str">
         <f t="shared" ref="W195:W258" si="99">IF(H195&gt;0,H195/100,"")</f>
@@ -42604,7 +42597,7 @@
         <v/>
       </c>
       <c r="AR195" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AV195" s="4" t="s">
         <v>31</v>
@@ -42767,7 +42760,7 @@
         <v/>
       </c>
       <c r="AR196" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AS196" t="s">
         <v>485</v>
@@ -42839,7 +42832,7 @@
         <v>254</v>
       </c>
       <c r="C197" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G197" s="17" t="s">
         <v>472</v>
@@ -42875,7 +42868,7 @@
         <v>491</v>
       </c>
       <c r="V197" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="W197" s="17" t="str">
         <f t="shared" si="99"/>
@@ -42962,7 +42955,7 @@
         <v/>
       </c>
       <c r="AR197" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AS197" t="s">
         <v>485</v>
@@ -43038,7 +43031,7 @@
         <v>318</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H198" t="s">
         <v>492</v>
@@ -43164,7 +43157,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR198" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AV198" s="4" t="s">
         <v>30</v>
@@ -43236,13 +43229,13 @@
         <v>318</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H199" t="s">
         <v>494</v>
       </c>
       <c r="I199" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J199" t="s">
         <v>495</v>
@@ -43368,7 +43361,7 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR199" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AV199" t="s">
         <v>30</v>
@@ -43437,10 +43430,10 @@
         <v>219</v>
       </c>
       <c r="C200" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J200" t="s">
         <v>488</v>
@@ -43560,7 +43553,7 @@
         <v/>
       </c>
       <c r="AR200" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AV200" t="s">
         <v>30</v>
@@ -43632,7 +43625,7 @@
         <v>343</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H201" t="s">
         <v>495</v>
@@ -43764,7 +43757,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR201" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AV201" t="s">
         <v>30</v>
@@ -43830,13 +43823,13 @@
     </row>
     <row r="202" spans="2:64" ht="120">
       <c r="B202" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C202" t="s">
         <v>311</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="W202" s="17" t="str">
         <f t="shared" si="99"/>
@@ -43923,7 +43916,7 @@
         <v/>
       </c>
       <c r="AR202" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AV202" s="4" t="s">
         <v>31</v>
@@ -43995,7 +43988,7 @@
         <v>318</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H203" t="s">
         <v>488</v>
@@ -44121,7 +44114,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR203" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AV203" s="4" t="s">
         <v>30</v>
@@ -44193,7 +44186,7 @@
         <v>316</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H204" t="s">
         <v>488</v>
@@ -44325,7 +44318,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AV204" s="4" t="s">
         <v>30</v>
@@ -44394,10 +44387,10 @@
         <v>147</v>
       </c>
       <c r="C205" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H205" t="s">
         <v>495</v>
@@ -44529,7 +44522,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR205" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AV205" s="4" t="s">
         <v>30</v>
@@ -44760,10 +44753,10 @@
         <v>148</v>
       </c>
       <c r="C207" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J207" t="s">
         <v>495</v>
@@ -44883,7 +44876,7 @@
         <v/>
       </c>
       <c r="AR207" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AS207" t="s">
         <v>485</v>
@@ -44952,13 +44945,13 @@
     </row>
     <row r="208" spans="2:64" ht="165">
       <c r="B208" t="s">
+        <v>930</v>
+      </c>
+      <c r="C208" t="s">
+        <v>911</v>
+      </c>
+      <c r="G208" s="16" t="s">
         <v>931</v>
-      </c>
-      <c r="C208" t="s">
-        <v>912</v>
-      </c>
-      <c r="G208" s="16" t="s">
-        <v>932</v>
       </c>
       <c r="H208">
         <v>1500</v>
@@ -45003,7 +44996,7 @@
         <v>1800</v>
       </c>
       <c r="V208" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W208" s="17">
         <f t="shared" si="99"/>
@@ -45090,7 +45083,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR208" s="21" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AV208" s="4" t="s">
         <v>30</v>
@@ -45159,10 +45152,10 @@
         <v>220</v>
       </c>
       <c r="C209" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J209" t="s">
         <v>495</v>
@@ -45282,7 +45275,7 @@
         <v/>
       </c>
       <c r="AR209" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AV209" t="s">
         <v>30</v>
@@ -45348,13 +45341,13 @@
     </row>
     <row r="210" spans="2:64" ht="120">
       <c r="B210" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C210" t="s">
+        <v>909</v>
+      </c>
+      <c r="G210" s="16" t="s">
         <v>1007</v>
-      </c>
-      <c r="C210" t="s">
-        <v>910</v>
-      </c>
-      <c r="G210" s="16" t="s">
-        <v>1008</v>
       </c>
       <c r="W210" s="17" t="str">
         <f t="shared" si="99"/>
@@ -45441,7 +45434,7 @@
         <v/>
       </c>
       <c r="AR210" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AV210" s="4" t="s">
         <v>31</v>
@@ -45510,10 +45503,10 @@
         <v>221</v>
       </c>
       <c r="C211" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J211" t="s">
         <v>488</v>
@@ -45633,7 +45626,7 @@
         <v/>
       </c>
       <c r="AR211" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AS211" t="s">
         <v>485</v>
@@ -45705,13 +45698,13 @@
         <v>149</v>
       </c>
       <c r="C212" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H212" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I212" t="s">
         <v>490</v>
@@ -45741,7 +45734,7 @@
         <v>490</v>
       </c>
       <c r="T212" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U212" t="s">
         <v>490</v>
@@ -45834,7 +45827,7 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR212" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AV212" s="4" t="s">
         <v>30</v>
@@ -45900,13 +45893,13 @@
     </row>
     <row r="213" spans="2:64" ht="150">
       <c r="B213" t="s">
+        <v>980</v>
+      </c>
+      <c r="C213" t="s">
+        <v>912</v>
+      </c>
+      <c r="G213" s="16" t="s">
         <v>981</v>
-      </c>
-      <c r="C213" t="s">
-        <v>913</v>
-      </c>
-      <c r="G213" s="16" t="s">
-        <v>982</v>
       </c>
       <c r="H213">
         <v>1000</v>
@@ -45951,7 +45944,7 @@
         <v>1900</v>
       </c>
       <c r="V213" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="W213" s="17">
         <f t="shared" si="99"/>
@@ -46038,7 +46031,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR213" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AV213" s="4" t="s">
         <v>30</v>
@@ -46110,7 +46103,7 @@
         <v>356</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H214" t="s">
         <v>495</v>
@@ -46242,7 +46235,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR214" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AV214" s="4" t="s">
         <v>30</v>
@@ -46308,13 +46301,13 @@
     </row>
     <row r="215" spans="2:64" ht="120">
       <c r="B215" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C215" t="s">
         <v>316</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="W215" s="17" t="str">
         <f t="shared" si="99"/>
@@ -46464,13 +46457,13 @@
     </row>
     <row r="216" spans="2:64" ht="150">
       <c r="B216" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C216" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H216" t="s">
         <v>488</v>
@@ -46602,7 +46595,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR216" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AV216" s="4" t="s">
         <v>30</v>
@@ -46674,7 +46667,7 @@
         <v>278</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J217" t="s">
         <v>495</v>
@@ -46794,7 +46787,7 @@
         <v/>
       </c>
       <c r="AR217" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AV217" t="s">
         <v>30</v>
@@ -46863,10 +46856,10 @@
         <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J218" t="s">
         <v>498</v>
@@ -46986,7 +46979,7 @@
         <v/>
       </c>
       <c r="AR218" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AV218" t="s">
         <v>30</v>
@@ -47058,34 +47051,34 @@
         <v>318</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J219" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K219" t="s">
         <v>490</v>
       </c>
       <c r="L219" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M219" t="s">
         <v>490</v>
       </c>
       <c r="N219" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O219" t="s">
         <v>490</v>
       </c>
       <c r="P219" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q219" t="s">
         <v>490</v>
       </c>
       <c r="R219" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S219" t="s">
         <v>490</v>
@@ -47178,7 +47171,7 @@
         <v/>
       </c>
       <c r="AR219" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AV219" t="s">
         <v>30</v>
@@ -47250,7 +47243,7 @@
         <v>318</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J220" t="s">
         <v>495</v>
@@ -47370,7 +47363,7 @@
         <v/>
       </c>
       <c r="AR220" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AV220" s="17" t="s">
         <v>30</v>
@@ -47442,7 +47435,7 @@
         <v>278</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H221" t="s">
         <v>488</v>
@@ -47574,7 +47567,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR221" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AV221" s="4" t="s">
         <v>30</v>
@@ -47740,7 +47733,7 @@
         <v/>
       </c>
       <c r="AR222" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AS222" t="s">
         <v>485</v>
@@ -47983,7 +47976,7 @@
         <v>311</v>
       </c>
       <c r="G224" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H224" t="s">
         <v>488</v>
@@ -48115,7 +48108,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR224" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AV224" s="4" t="s">
         <v>30</v>
@@ -48186,7 +48179,7 @@
         <v>318</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J225" t="s">
         <v>495</v>
@@ -48306,7 +48299,7 @@
         <v/>
       </c>
       <c r="AR225" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AV225" s="17" t="s">
         <v>30</v>
@@ -48374,10 +48367,10 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J226" t="s">
         <v>488</v>
@@ -48497,7 +48490,7 @@
         <v/>
       </c>
       <c r="AR226" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AV226" s="17" t="s">
         <v>30</v>
@@ -48568,7 +48561,7 @@
         <v>316</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J227" s="17" t="s">
         <v>498</v>
@@ -48690,7 +48683,7 @@
         <v/>
       </c>
       <c r="AR227" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AV227" s="17" t="s">
         <v>30</v>
@@ -48761,7 +48754,7 @@
         <v>356</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H228">
         <v>1500</v>
@@ -48806,7 +48799,7 @@
         <v>1800</v>
       </c>
       <c r="V228" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="W228" s="17">
         <f t="shared" si="99"/>
@@ -48893,7 +48886,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR228" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AV228" s="4" t="s">
         <v>30</v>
@@ -48961,10 +48954,10 @@
         <v>154</v>
       </c>
       <c r="C229" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H229" t="s">
         <v>488</v>
@@ -49092,7 +49085,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR229" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AV229" s="4" t="s">
         <v>30</v>
@@ -49160,10 +49153,10 @@
         <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J230" t="s">
         <v>495</v>
@@ -49283,7 +49276,7 @@
         <v/>
       </c>
       <c r="AR230" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AV230" s="17" t="s">
         <v>30</v>
@@ -49351,10 +49344,10 @@
         <v>155</v>
       </c>
       <c r="C231" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H231" t="s">
         <v>498</v>
@@ -49486,7 +49479,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR231" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AS231" t="s">
         <v>485</v>
@@ -49554,13 +49547,13 @@
     </row>
     <row r="232" spans="2:64" ht="120">
       <c r="B232" t="s">
+        <v>971</v>
+      </c>
+      <c r="C232" t="s">
+        <v>907</v>
+      </c>
+      <c r="G232" s="16" t="s">
         <v>972</v>
-      </c>
-      <c r="C232" t="s">
-        <v>908</v>
-      </c>
-      <c r="G232" s="16" t="s">
-        <v>973</v>
       </c>
       <c r="N232" s="17"/>
       <c r="O232" s="17"/>
@@ -49655,7 +49648,7 @@
         <v/>
       </c>
       <c r="AR232" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AV232" s="4" t="s">
         <v>31</v>
@@ -49725,7 +49718,7 @@
         <v>343</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J233" s="17" t="s">
         <v>488</v>
@@ -49847,7 +49840,7 @@
         <v/>
       </c>
       <c r="AR233" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AV233" s="17" t="s">
         <v>30</v>
@@ -49915,10 +49908,10 @@
         <v>157</v>
       </c>
       <c r="C234" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J234" t="s">
         <v>488</v>
@@ -50038,7 +50031,7 @@
         <v/>
       </c>
       <c r="AR234" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AS234" t="s">
         <v>485</v>
@@ -50112,7 +50105,7 @@
         <v>356</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J235" t="s">
         <v>498</v>
@@ -50232,7 +50225,7 @@
         <v/>
       </c>
       <c r="AR235" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AV235" s="4" t="s">
         <v>30</v>
@@ -50303,7 +50296,7 @@
         <v>318</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J236" t="s">
         <v>488</v>
@@ -50423,7 +50416,7 @@
         <v/>
       </c>
       <c r="AR236" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AV236" s="17" t="s">
         <v>30</v>
@@ -50494,7 +50487,7 @@
         <v>318</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J237" s="17" t="s">
         <v>488</v>
@@ -50616,7 +50609,7 @@
         <v/>
       </c>
       <c r="AR237" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AV237" s="17" t="s">
         <v>30</v>
@@ -50687,7 +50680,7 @@
         <v>311</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J238" t="s">
         <v>488</v>
@@ -50807,7 +50800,7 @@
         <v/>
       </c>
       <c r="AR238" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AV238" s="17" t="s">
         <v>30</v>
@@ -50878,7 +50871,7 @@
         <v>356</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J239" s="17" t="s">
         <v>495</v>
@@ -51000,7 +50993,7 @@
         <v/>
       </c>
       <c r="AR239" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AV239" s="17" t="s">
         <v>30</v>
@@ -51068,10 +51061,10 @@
         <v>160</v>
       </c>
       <c r="C240" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H240" t="s">
         <v>495</v>
@@ -51203,7 +51196,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR240" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AV240" s="17" t="s">
         <v>30</v>
@@ -51274,7 +51267,7 @@
         <v>318</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="V241" s="8" t="s">
         <v>461</v>
@@ -51364,7 +51357,7 @@
         <v/>
       </c>
       <c r="AR241" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AV241" s="17" t="s">
         <v>30</v>
@@ -51429,13 +51422,13 @@
     </row>
     <row r="242" spans="2:64" ht="150">
       <c r="B242" t="s">
+        <v>926</v>
+      </c>
+      <c r="C242" t="s">
+        <v>911</v>
+      </c>
+      <c r="G242" s="16" t="s">
         <v>927</v>
-      </c>
-      <c r="C242" t="s">
-        <v>912</v>
-      </c>
-      <c r="G242" s="16" t="s">
-        <v>928</v>
       </c>
       <c r="H242">
         <v>1500</v>
@@ -51480,7 +51473,7 @@
         <v>1800</v>
       </c>
       <c r="V242" s="20" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="W242" s="17">
         <f t="shared" si="99"/>
@@ -51567,7 +51560,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR242" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AV242" s="4" t="s">
         <v>30</v>
@@ -51631,13 +51624,13 @@
     </row>
     <row r="243" spans="2:64" ht="165">
       <c r="B243" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C243" t="s">
         <v>421</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H243">
         <v>1600</v>
@@ -51682,7 +51675,7 @@
         <v>1800</v>
       </c>
       <c r="V243" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W243" s="17">
         <f t="shared" si="99"/>
@@ -51769,7 +51762,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR243" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AV243" s="4" t="s">
         <v>30</v>
@@ -51839,7 +51832,7 @@
         <v>318</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J244" s="17"/>
       <c r="K244" s="17"/>
@@ -51957,7 +51950,7 @@
         <v/>
       </c>
       <c r="AR244" s="17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AV244" s="17" t="s">
         <v>30</v>
@@ -52022,13 +52015,13 @@
     </row>
     <row r="245" spans="2:64" ht="180">
       <c r="B245" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C245" t="s">
         <v>316</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J245" s="17">
         <v>1500</v>
@@ -52067,7 +52060,7 @@
         <v>1700</v>
       </c>
       <c r="V245" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="W245" s="17" t="str">
         <f t="shared" si="99"/>
@@ -52154,7 +52147,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR245" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AV245" s="4" t="s">
         <v>30</v>
@@ -52218,13 +52211,13 @@
     </row>
     <row r="246" spans="2:64" ht="14.1" customHeight="1">
       <c r="B246" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C246" t="s">
+        <v>909</v>
+      </c>
+      <c r="G246" s="16" t="s">
         <v>1001</v>
-      </c>
-      <c r="C246" t="s">
-        <v>910</v>
-      </c>
-      <c r="G246" s="16" t="s">
-        <v>1002</v>
       </c>
       <c r="J246">
         <v>1500</v>
@@ -52341,7 +52334,7 @@
         <v/>
       </c>
       <c r="AR246" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AV246" s="4" t="s">
         <v>30</v>
@@ -52405,13 +52398,13 @@
     </row>
     <row r="247" spans="2:64" ht="135">
       <c r="B247" t="s">
+        <v>920</v>
+      </c>
+      <c r="C247" t="s">
+        <v>911</v>
+      </c>
+      <c r="G247" s="17" t="s">
         <v>921</v>
-      </c>
-      <c r="C247" t="s">
-        <v>912</v>
-      </c>
-      <c r="G247" s="17" t="s">
-        <v>922</v>
       </c>
       <c r="H247">
         <v>1600</v>
@@ -52456,7 +52449,7 @@
         <v>1900</v>
       </c>
       <c r="V247" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="W247" s="17">
         <f t="shared" si="99"/>
@@ -52543,7 +52536,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR247" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AV247" s="4" t="s">
         <v>30</v>
@@ -52648,7 +52641,7 @@
       <c r="T248" s="17"/>
       <c r="U248" s="17"/>
       <c r="V248" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="W248" s="17" t="str">
         <f t="shared" si="99"/>
@@ -52803,13 +52796,13 @@
     </row>
     <row r="249" spans="2:64" ht="23.45" customHeight="1">
       <c r="B249" t="s">
+        <v>955</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="G249" s="16" t="s">
         <v>956</v>
-      </c>
-      <c r="C249" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="G249" s="16" t="s">
-        <v>957</v>
       </c>
       <c r="H249">
         <v>1500</v>
@@ -52854,7 +52847,7 @@
         <v>1900</v>
       </c>
       <c r="V249" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W249" s="17">
         <f t="shared" si="99"/>
@@ -52941,7 +52934,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR249" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AV249" s="4" t="s">
         <v>30</v>
@@ -53005,13 +52998,13 @@
     </row>
     <row r="250" spans="2:64" ht="150">
       <c r="B250" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="G250" s="16" t="s">
         <v>1009</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="G250" s="16" t="s">
-        <v>1010</v>
       </c>
       <c r="H250">
         <v>1500</v>
@@ -53056,7 +53049,7 @@
         <v>1800</v>
       </c>
       <c r="V250" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="W250" s="17">
         <f t="shared" si="99"/>
@@ -53143,7 +53136,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR250" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AV250" s="4" t="s">
         <v>30</v>
@@ -53213,7 +53206,7 @@
         <v>318</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H251" t="s">
         <v>492</v>
@@ -53339,7 +53332,7 @@
         <v/>
       </c>
       <c r="AR251" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AT251" t="s">
         <v>486</v>
@@ -53407,13 +53400,13 @@
     </row>
     <row r="252" spans="2:64" ht="15.6" customHeight="1">
       <c r="B252" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>421</v>
       </c>
       <c r="G252" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H252">
         <v>1500</v>
@@ -53458,7 +53451,7 @@
         <v>1900</v>
       </c>
       <c r="V252" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W252" s="17">
         <f t="shared" si="99"/>
@@ -53545,7 +53538,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR252" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AV252" s="4" t="s">
         <v>30</v>
@@ -53609,13 +53602,13 @@
     </row>
     <row r="253" spans="2:64" ht="409.5">
       <c r="B253" t="s">
+        <v>969</v>
+      </c>
+      <c r="C253" t="s">
+        <v>907</v>
+      </c>
+      <c r="G253" s="16" t="s">
         <v>970</v>
-      </c>
-      <c r="C253" t="s">
-        <v>908</v>
-      </c>
-      <c r="G253" s="16" t="s">
-        <v>971</v>
       </c>
       <c r="J253">
         <v>1700</v>
@@ -53654,7 +53647,7 @@
         <v>1830</v>
       </c>
       <c r="V253" s="12" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W253" s="17" t="str">
         <f t="shared" si="99"/>
@@ -53741,7 +53734,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR253" s="17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AV253" s="4" t="s">
         <v>30</v>
@@ -53808,10 +53801,10 @@
         <v>162</v>
       </c>
       <c r="C254" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H254" t="s">
         <v>488</v>
@@ -53856,7 +53849,7 @@
         <v>490</v>
       </c>
       <c r="V254" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="W254" s="17">
         <f t="shared" si="99"/>
@@ -53943,7 +53936,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR254" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AV254" s="4" t="s">
         <v>30</v>
@@ -54011,7 +54004,7 @@
         <v>250</v>
       </c>
       <c r="C255" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G255" s="17" t="s">
         <v>281</v>
@@ -54059,7 +54052,7 @@
         <v>490</v>
       </c>
       <c r="V255" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="W255" s="17">
         <f t="shared" si="99"/>
@@ -54146,7 +54139,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR255" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AS255" t="s">
         <v>485</v>
@@ -54217,10 +54210,10 @@
         <v>163</v>
       </c>
       <c r="C256" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H256" t="s">
         <v>488</v>
@@ -54352,7 +54345,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR256" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AV256" s="4" t="s">
         <v>30</v>
@@ -54423,7 +54416,7 @@
         <v>318</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J257" t="s">
         <v>488</v>
@@ -54543,7 +54536,7 @@
         <v/>
       </c>
       <c r="AR257" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AV257" s="4" t="s">
         <v>30</v>
@@ -54611,10 +54604,10 @@
         <v>234</v>
       </c>
       <c r="C258" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L258" s="17"/>
       <c r="M258" s="17"/>
@@ -54711,7 +54704,7 @@
         <v/>
       </c>
       <c r="AR258" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AV258" s="17" t="s">
         <v>31</v>
@@ -54779,10 +54772,10 @@
         <v>235</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J259" t="s">
         <v>488</v>
@@ -54899,7 +54892,7 @@
         <v/>
       </c>
       <c r="AR259" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AV259" s="17" t="s">
         <v>31</v>
@@ -54971,10 +54964,10 @@
         <v>165</v>
       </c>
       <c r="C260" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G260" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J260" t="s">
         <v>495</v>
@@ -55090,7 +55083,7 @@
         <v/>
       </c>
       <c r="AR260" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AV260" s="4" t="s">
         <v>30</v>
@@ -55155,13 +55148,13 @@
     </row>
     <row r="261" spans="2:64" ht="120">
       <c r="B261" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C261" t="s">
         <v>421</v>
       </c>
       <c r="G261" s="16" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L261" s="17"/>
       <c r="M261" s="17"/>
@@ -55320,7 +55313,7 @@
         <v>318</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H262" t="s">
         <v>492</v>
@@ -55446,7 +55439,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR262" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AV262" s="17" t="s">
         <v>30</v>
@@ -55511,13 +55504,13 @@
     </row>
     <row r="263" spans="2:64" ht="135">
       <c r="B263" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C263" t="s">
         <v>421</v>
       </c>
       <c r="G263" s="16" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="W263" s="17" t="str">
         <f t="shared" si="131"/>
@@ -55604,7 +55597,7 @@
         <v/>
       </c>
       <c r="AR263" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AV263" s="4" t="s">
         <v>31</v>
@@ -55674,7 +55667,7 @@
         <v>318</v>
       </c>
       <c r="G264" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J264" t="s">
         <v>488</v>
@@ -55796,7 +55789,7 @@
         <v/>
       </c>
       <c r="AR264" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AV264" s="17" t="s">
         <v>30</v>
@@ -55867,7 +55860,7 @@
         <v>318</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J265" t="s">
         <v>488</v>
@@ -55987,7 +55980,7 @@
         <v/>
       </c>
       <c r="AR265" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AV265" s="4" t="s">
         <v>30</v>
@@ -56058,7 +56051,7 @@
         <v>343</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J266" t="s">
         <v>495</v>
@@ -56178,7 +56171,7 @@
         <v/>
       </c>
       <c r="AR266" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AS266" t="s">
         <v>485</v>
@@ -56249,10 +56242,10 @@
         <v>238</v>
       </c>
       <c r="C267" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G267" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J267" t="s">
         <v>495</v>
@@ -56372,7 +56365,7 @@
         <v/>
       </c>
       <c r="AR267" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AV267" s="17" t="s">
         <v>30</v>
@@ -56443,7 +56436,7 @@
         <v>279</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J268" t="s">
         <v>495</v>
@@ -56563,7 +56556,7 @@
         <v/>
       </c>
       <c r="AR268" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AV268" s="17" t="s">
         <v>30</v>
@@ -56631,10 +56624,10 @@
         <v>168</v>
       </c>
       <c r="C269" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G269" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H269" t="s">
         <v>492</v>
@@ -56758,7 +56751,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR269" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AT269" t="s">
         <v>486</v>
@@ -56829,10 +56822,10 @@
         <v>169</v>
       </c>
       <c r="C270" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H270" t="s">
         <v>498</v>
@@ -56874,7 +56867,7 @@
         <v>498</v>
       </c>
       <c r="U270" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V270" s="8" t="s">
         <v>410</v>
@@ -56964,7 +56957,7 @@
         <v>2pm-10pm</v>
       </c>
       <c r="AR270" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AV270" s="4" t="s">
         <v>30</v>
@@ -57029,13 +57022,13 @@
     </row>
     <row r="271" spans="2:64" ht="409.5">
       <c r="B271" t="s">
+        <v>975</v>
+      </c>
+      <c r="C271" t="s">
+        <v>907</v>
+      </c>
+      <c r="G271" s="16" t="s">
         <v>976</v>
-      </c>
-      <c r="C271" t="s">
-        <v>908</v>
-      </c>
-      <c r="G271" s="16" t="s">
-        <v>977</v>
       </c>
       <c r="H271">
         <v>1200</v>
@@ -57080,7 +57073,7 @@
         <v>1800</v>
       </c>
       <c r="V271" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W271" s="17">
         <f t="shared" si="131"/>
@@ -57167,7 +57160,7 @@
         <v>12pm-6pm</v>
       </c>
       <c r="AR271" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV271" s="4" t="s">
         <v>30</v>
@@ -57324,7 +57317,7 @@
         <v/>
       </c>
       <c r="AR272" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AS272" t="s">
         <v>485</v>
@@ -57392,13 +57385,13 @@
     </row>
     <row r="273" spans="2:64" ht="16.5" customHeight="1">
       <c r="B273" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C273" s="17" t="s">
         <v>421</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H273">
         <v>1500</v>
@@ -57527,7 +57520,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR273" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV273" s="4" t="s">
         <v>30</v>
@@ -57594,13 +57587,13 @@
         <v>170</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H274" s="8"/>
       <c r="I274" s="8"/>
@@ -57704,7 +57697,7 @@
         <v/>
       </c>
       <c r="AR274" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AS274" s="8"/>
       <c r="AT274" s="8"/>
@@ -57772,13 +57765,13 @@
     </row>
     <row r="275" spans="2:64" ht="150">
       <c r="B275" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H275">
         <v>1600</v>
@@ -57819,7 +57812,7 @@
       <c r="T275" s="17"/>
       <c r="U275" s="17"/>
       <c r="V275" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W275" s="17">
         <f t="shared" si="131"/>
@@ -57906,7 +57899,7 @@
         <v/>
       </c>
       <c r="AR275" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AV275" s="4" t="s">
         <v>30</v>
@@ -57973,10 +57966,10 @@
         <v>240</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J276" s="17"/>
       <c r="K276" s="17"/>
@@ -58098,7 +58091,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR276" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AV276" s="17" t="s">
         <v>30</v>
@@ -58163,13 +58156,13 @@
     </row>
     <row r="277" spans="2:64" ht="180">
       <c r="B277" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G277" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H277">
         <v>1600</v>
@@ -58214,7 +58207,7 @@
         <v>1700</v>
       </c>
       <c r="V277" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="W277" s="17">
         <f t="shared" si="131"/>
@@ -58301,7 +58294,7 @@
         <v>4pm-5pm</v>
       </c>
       <c r="AR277" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AV277" s="4" t="s">
         <v>30</v>
@@ -58368,10 +58361,10 @@
         <v>171</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J278" t="s">
         <v>488</v>
@@ -58491,7 +58484,7 @@
         <v/>
       </c>
       <c r="AR278" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AV278" s="4" t="s">
         <v>31</v>
@@ -58562,7 +58555,7 @@
         <v>316</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H279" t="s">
         <v>494</v>
@@ -58694,7 +58687,7 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR279" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AV279" s="17" t="s">
         <v>30</v>
@@ -58759,13 +58752,13 @@
     </row>
     <row r="280" spans="2:64" ht="165">
       <c r="B280" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="G280" s="16" t="s">
         <v>1011</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="G280" s="16" t="s">
-        <v>1012</v>
       </c>
       <c r="H280">
         <v>1500</v>
@@ -58810,7 +58803,7 @@
         <v>1730</v>
       </c>
       <c r="V280" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="W280" s="17">
         <f t="shared" si="131"/>
@@ -58897,7 +58890,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR280" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AV280" s="4" t="s">
         <v>30</v>
@@ -59066,7 +59059,7 @@
         <v/>
       </c>
       <c r="AR281" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AS281" t="s">
         <v>485</v>
@@ -59140,7 +59133,7 @@
         <v>343</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J282" s="17" t="s">
         <v>495</v>
@@ -59262,7 +59255,7 @@
         <v/>
       </c>
       <c r="AR282" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AV282" s="17" t="s">
         <v>30</v>
@@ -59365,7 +59358,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1">
       <c r="F1" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="17">
         <v>39.624346000000003</v>
@@ -59382,10 +59375,10 @@
         <v>-105.0354</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G2">
         <v>39.623085000000003</v>
@@ -59402,10 +59395,10 @@
         <v>-104.98718700000001</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G3">
         <v>39.624425000000002</v>
@@ -59425,7 +59418,7 @@
         <v>316</v>
       </c>
       <c r="F4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G4">
         <v>39.617455999999997</v>
@@ -59442,10 +59435,10 @@
         <v>-104.94912100000001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G5">
         <v>39.618811000000001</v>
@@ -59465,7 +59458,7 @@
         <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G6">
         <v>39.623742999999997</v>
@@ -59482,10 +59475,10 @@
         <v>-104.97963799999999</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G7">
         <v>39.625340000000001</v>
@@ -59502,10 +59495,10 @@
         <v>-104.940943</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G8">
         <v>39.898896999999998</v>
@@ -59522,10 +59515,10 @@
         <v>-105.013485</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G9">
         <v>39.867482000000003</v>
@@ -59545,7 +59538,7 @@
         <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G10">
         <v>39.883797999999999</v>
@@ -59565,7 +59558,7 @@
         <v>318</v>
       </c>
       <c r="F11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G11">
         <v>39.962471000000001</v>
@@ -59582,10 +59575,10 @@
         <v>-104.989178</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G12">
         <v>39.893236000000002</v>
@@ -59602,10 +59595,10 @@
         <v>-105.043755</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G13">
         <v>39.879528000000001</v>
@@ -59625,7 +59618,7 @@
         <v>316</v>
       </c>
       <c r="F14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G14">
         <v>39.908419000000002</v>
@@ -59642,10 +59635,10 @@
         <v>-105.008472</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F15" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G15">
         <v>39.913105000000002</v>
@@ -59662,10 +59655,10 @@
         <v>-105.008503</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G16">
         <v>39.927202999999999</v>
@@ -59682,10 +59675,10 @@
         <v>-104.98612</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G17">
         <v>39.909483999999999</v>
@@ -59702,10 +59695,10 @@
         <v>-104.902855</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G18">
         <v>39.841503000000003</v>
@@ -59722,7 +59715,7 @@
         <v>-104.961451</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -59733,7 +59726,7 @@
         <v>-104.988311</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -59744,7 +59737,7 @@
         <v>-104.94586700000001</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -59766,7 +59759,7 @@
         <v>-104.984549</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -59777,7 +59770,7 @@
         <v>-104.89540599999999</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -59810,7 +59803,7 @@
         <v>-104.92959999999999</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -59832,7 +59825,7 @@
         <v>-105.02446500000001</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -59854,7 +59847,7 @@
         <v>-104.980572</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -59865,7 +59858,7 @@
         <v>-104.987831</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -59876,7 +59869,7 @@
         <v>-105.01134</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -59920,7 +59913,7 @@
         <v>-104.94860300000001</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -59931,7 +59924,7 @@
         <v>-104.982012</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -59953,7 +59946,7 @@
         <v>-105.01330299999999</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -59964,7 +59957,7 @@
         <v>-105.00390299999999</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -59986,7 +59979,7 @@
         <v>-104.969341</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -60019,7 +60012,7 @@
         <v>-104.99881000000001</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -60041,7 +60034,7 @@
         <v>-104.971879</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -60074,7 +60067,7 @@
         <v>-104.938931</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -60096,7 +60089,7 @@
         <v>-104.972336</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -60107,7 +60100,7 @@
         <v>-104.95560399999999</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -60140,7 +60133,7 @@
         <v>-104.988668</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -60162,7 +60155,7 @@
         <v>-104.90545400000001</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -60184,7 +60177,7 @@
         <v>-105.01090600000001</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -60195,7 +60188,7 @@
         <v>-105.010822</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -60206,7 +60199,7 @@
         <v>-104.8963</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -60239,7 +60232,7 @@
         <v>-104.87091100000001</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -60250,7 +60243,7 @@
         <v>-104.953124</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -60294,7 +60287,7 @@
         <v>-104.961383</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -60305,7 +60298,7 @@
         <v>-104.948808</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -60349,7 +60342,7 @@
         <v>-104.97563599999999</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -60360,7 +60353,7 @@
         <v>-104.877948</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -60382,7 +60375,7 @@
         <v>-105.01049500000001</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -60404,7 +60397,7 @@
         <v>-104.980605</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -60492,7 +60485,7 @@
         <v>-104.87889</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -60503,7 +60496,7 @@
         <v>-105.005565</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -60514,7 +60507,7 @@
         <v>-104.95613400000001</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -60536,7 +60529,7 @@
         <v>-105.041906</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -60580,7 +60573,7 @@
         <v>-104.959621</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -60591,7 +60584,7 @@
         <v>-104.99946</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -60613,7 +60606,7 @@
         <v>-104.98064100000001</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -60646,7 +60639,7 @@
         <v>-104.986622</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -60668,7 +60661,7 @@
         <v>-105.00387000000001</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -60679,7 +60672,7 @@
         <v>-104.957384</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -60701,7 +60694,7 @@
         <v>-104.960009</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -60734,7 +60727,7 @@
         <v>-104.961474</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -60745,7 +60738,7 @@
         <v>-105.05743099999999</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -60756,7 +60749,7 @@
         <v>-104.878952</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -60767,7 +60760,7 @@
         <v>-104.96260100000001</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -60844,7 +60837,7 @@
         <v>-105.044303</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -60877,7 +60870,7 @@
         <v>-104.940437</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -60899,7 +60892,7 @@
         <v>-104.877388</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -60921,7 +60914,7 @@
         <v>-104.877388</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -60954,7 +60947,7 @@
         <v>-104.99886600000001</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -60987,7 +60980,7 @@
         <v>-105.013965</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -61042,7 +61035,7 @@
         <v>-105.01092800000001</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -61053,7 +61046,7 @@
         <v>-105.03431999999999</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -61086,7 +61079,7 @@
         <v>-105.04373200000001</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -61119,7 +61112,7 @@
         <v>-105.011383</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -61130,7 +61123,7 @@
         <v>-105.043755</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -61152,7 +61145,7 @@
         <v>-104.94472500000001</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -61163,7 +61156,7 @@
         <v>-104.954297</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -61218,7 +61211,7 @@
         <v>-104.999083</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -61229,7 +61222,7 @@
         <v>-104.975987</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -61251,7 +61244,7 @@
         <v>-104.989041</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -61295,7 +61288,7 @@
         <v>-104.96195299999999</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -61306,7 +61299,7 @@
         <v>-104.999121</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -61328,7 +61321,7 @@
         <v>-104.987872</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -61339,7 +61332,7 @@
         <v>-104.95562099999999</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -61383,7 +61376,7 @@
         <v>-104.986439</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -61405,7 +61398,7 @@
         <v>-104.999334</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -61460,7 +61453,7 @@
         <v>-104.96820700000001</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -61471,7 +61464,7 @@
         <v>-105.032044</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -61504,7 +61497,7 @@
         <v>-104.980251</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -61526,7 +61519,7 @@
         <v>-104.981644</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -61548,7 +61541,7 @@
         <v>-104.971554</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -61559,7 +61552,7 @@
         <v>-104.980825</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -61570,7 +61563,7 @@
         <v>-104.98459699999999</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -61592,7 +61585,7 @@
         <v>-105.0115</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -61603,7 +61596,7 @@
         <v>-105.00613</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -61614,7 +61607,7 @@
         <v>-105.00921700000001</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -61636,7 +61629,7 @@
         <v>-104.96300599999999</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -61647,7 +61640,7 @@
         <v>-104.999161</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -61669,7 +61662,7 @@
         <v>-105.007323</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -61680,7 +61673,7 @@
         <v>-105.01049500000001</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -61713,7 +61706,7 @@
         <v>-104.86783200000001</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -61724,7 +61717,7 @@
         <v>-104.96127300000001</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -61746,7 +61739,7 @@
         <v>-104.97815</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -61757,7 +61750,7 @@
         <v>-104.975893</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -61768,7 +61761,7 @@
         <v>-105.044828</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -61779,7 +61772,7 @@
         <v>-104.984477</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -61790,7 +61783,7 @@
         <v>-105.020359</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -61801,7 +61794,7 @@
         <v>-104.957275</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -61856,7 +61849,7 @@
         <v>-104.985001</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -61867,7 +61860,7 @@
         <v>-105.009308</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -61889,7 +61882,7 @@
         <v>-105.003967</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -61911,7 +61904,7 @@
         <v>-105.0012</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -61922,7 +61915,7 @@
         <v>-104.897385</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -61933,7 +61926,7 @@
         <v>-105.002073</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -61944,7 +61937,7 @@
         <v>-104.80994099999999</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -61955,7 +61948,7 @@
         <v>-104.793802</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -61966,7 +61959,7 @@
         <v>-104.707764</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -61977,7 +61970,7 @@
         <v>-104.864138</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -61988,7 +61981,7 @@
         <v>-104.84568</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -61999,7 +61992,7 @@
         <v>-104.864948</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -62010,7 +62003,7 @@
         <v>-104.845961</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -62021,7 +62014,7 @@
         <v>-104.68707000000001</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -62032,7 +62025,7 @@
         <v>-104.708513</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -62043,7 +62036,7 @@
         <v>-104.89504100000001</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -62054,7 +62047,7 @@
         <v>-104.80638500000001</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -62065,7 +62058,7 @@
         <v>-104.877388</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -62076,7 +62069,7 @@
         <v>-104.83219200000001</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -62087,7 +62080,7 @@
         <v>-104.86867599999999</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -62109,7 +62102,7 @@
         <v>-104.771021</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -62120,7 +62113,7 @@
         <v>-104.89708</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -62131,7 +62124,7 @@
         <v>-104.8963</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -62142,7 +62135,7 @@
         <v>-104.900999</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -62153,7 +62146,7 @@
         <v>-104.917292</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -62164,7 +62157,7 @@
         <v>-104.921684</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -62175,7 +62168,7 @@
         <v>-104.928431</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -62186,7 +62179,7 @@
         <v>-104.88911</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -62197,7 +62190,7 @@
         <v>-104.868858</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -62208,7 +62201,7 @@
         <v>-104.892036</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -62219,7 +62212,7 @@
         <v>-104.868493</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -62230,7 +62223,7 @@
         <v>-104.865118</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -62241,7 +62234,7 @@
         <v>-104.868493</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -62252,7 +62245,7 @@
         <v>-105.04432300000001</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -62263,7 +62256,7 @@
         <v>-105.04366400000001</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -62274,7 +62267,7 @@
         <v>-105.03209699999999</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -62285,7 +62278,7 @@
         <v>-105.044258</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -62296,7 +62289,7 @@
         <v>-104.98612</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -62318,7 +62311,7 @@
         <v>-104.991437</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -62340,7 +62333,7 @@
         <v>-104.98540800000001</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -62362,7 +62355,7 @@
         <v>-104.979404</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="260" spans="1:3">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4766" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="1151">
   <si>
     <t>Name</t>
   </si>
@@ -3229,9 +3229,6 @@
   </si>
   <si>
     <t>$1 off drafts, wells, and wines &lt;br&gt; $1 off select calls &lt;br&gt;&lt;br&gt; Weekly Specials:&lt;br&gt;Sunday - $1 off shitty cans &lt;br&gt; Monday - $1 off all vodkas&lt;br&gt;Tuesday - $20 wine and a pizza&lt;br&gt; Wednesday - $1 off all whiskeys&lt;br&gt;Thursday - $1 off all tequilas&lt;br&gt; Everyday - $2 off a beer and shot special. $3 mystery shots</t>
-  </si>
-  <si>
-    <t>treu</t>
   </si>
   <si>
     <t>http://www.7leguasmexicangrille.com/</t>
@@ -4445,9 +4442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4658,7 +4655,7 @@
         <v>313</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>619</v>
@@ -4694,7 +4691,7 @@
         <v>485</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W2" s="17" t="str">
         <f t="shared" ref="W2:AJ2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -4856,7 +4853,7 @@
         <v>416</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>1020</v>
@@ -4892,7 +4889,7 @@
         <v>1830</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="W3" s="17" t="str">
         <f t="shared" ref="W3:W64" si="3">IF(H3&gt;0,H3/100,"")</f>
@@ -4979,7 +4976,7 @@
         <v/>
       </c>
       <c r="AR3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>29</v>
@@ -5054,7 +5051,7 @@
         <v>904</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>949</v>
@@ -5102,7 +5099,7 @@
         <v>1900</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="3"/>
@@ -5189,7 +5186,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AV4" s="4" t="s">
         <v>29</v>
@@ -5261,7 +5258,7 @@
         <v>308</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>620</v>
@@ -5466,7 +5463,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
@@ -5677,7 +5674,7 @@
         <v>275</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>685</v>
@@ -5842,7 +5839,7 @@
         <v>693</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>285</v>
@@ -6053,7 +6050,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
@@ -6102,7 +6099,7 @@
         <v>485</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="3"/>
@@ -6266,7 +6263,7 @@
         <v>900</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>996</v>
@@ -6302,7 +6299,7 @@
         <v>1830</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="W10" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6389,7 +6386,7 @@
         <v/>
       </c>
       <c r="AR10" s="17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>29</v>
@@ -6461,7 +6458,7 @@
         <v>902</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>916</v>
@@ -6623,7 +6620,7 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
@@ -6824,7 +6821,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
@@ -7035,7 +7032,7 @@
         <v>416</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>1008</v>
@@ -7083,7 +7080,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="W14" s="17">
         <f t="shared" si="3"/>
@@ -7241,7 +7238,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="17" t="s">
@@ -7421,7 +7418,7 @@
         <v>898</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>691</v>
@@ -7586,7 +7583,7 @@
         <v>308</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>510</v>
@@ -7793,7 +7790,7 @@
         <v>902</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>932</v>
@@ -7950,10 +7947,10 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>511</v>
@@ -8161,7 +8158,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="17" t="s">
@@ -8372,7 +8369,7 @@
         <v>898</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>513</v>
@@ -8579,7 +8576,7 @@
         <v>276</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>974</v>
@@ -8615,7 +8612,7 @@
         <v>1800</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="W22" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8702,7 +8699,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AV22" s="4" t="s">
         <v>29</v>
@@ -8774,7 +8771,7 @@
         <v>900</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>994</v>
@@ -8810,7 +8807,7 @@
         <v>1900</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W23" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8897,7 +8894,7 @@
         <v/>
       </c>
       <c r="AR23" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AV23" s="4" t="s">
         <v>29</v>
@@ -8970,7 +8967,7 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
@@ -9075,7 +9072,7 @@
         <v/>
       </c>
       <c r="AR24" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
@@ -9151,7 +9148,7 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
@@ -9351,11 +9348,11 @@
         <v>257</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
@@ -9538,7 +9535,7 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
@@ -9742,7 +9739,7 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
@@ -9950,7 +9947,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
@@ -9999,7 +9996,7 @@
         <v>487</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" si="3"/>
@@ -10163,7 +10160,7 @@
         <v>416</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>1012</v>
@@ -10211,7 +10208,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="3"/>
@@ -10298,7 +10295,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR30" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV30" s="4" t="s">
         <v>29</v>
@@ -10370,7 +10367,7 @@
         <v>338</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>514</v>
@@ -10566,7 +10563,7 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
@@ -10770,7 +10767,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="17" t="s">
@@ -10974,7 +10971,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="17" t="s">
@@ -11177,7 +11174,7 @@
         <v>897</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>626</v>
@@ -11367,7 +11364,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="17" t="s">
@@ -11578,7 +11575,7 @@
         <v>898</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>517</v>
@@ -11779,7 +11776,7 @@
         <v>902</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>920</v>
@@ -11941,7 +11938,7 @@
         <v>898</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>289</v>
@@ -12109,7 +12106,7 @@
         <v>898</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>291</v>
@@ -12274,7 +12271,7 @@
         <v>313</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>518</v>
@@ -12436,7 +12433,7 @@
         <v>898</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>519</v>
@@ -12643,7 +12640,7 @@
         <v>903</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>520</v>
@@ -12850,7 +12847,7 @@
         <v>902</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>914</v>
@@ -13046,7 +13043,7 @@
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17" t="s">
@@ -13222,7 +13219,7 @@
       </c>
       <c r="BD45" s="17" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE45" s="17" t="str">
         <f t="shared" si="31"/>
@@ -13242,15 +13239,13 @@
         <f t="shared" si="1"/>
         <v>[39.758182,-104.902855],</v>
       </c>
-      <c r="BJ45" s="17" t="s">
-        <v>1066</v>
-      </c>
+      <c r="BJ45" s="17"/>
       <c r="BK45" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;img src=@img/kidicon.png@&gt;</v>
+        <v/>
       </c>
       <c r="BL45" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5">
@@ -13262,7 +13257,7 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="16" t="s">
@@ -13303,7 +13298,7 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W46" s="17" t="str">
         <f t="shared" si="3"/>
@@ -13390,7 +13385,7 @@
         <v/>
       </c>
       <c r="AR46" s="17" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
@@ -13466,7 +13461,7 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
@@ -13670,7 +13665,7 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
@@ -13853,7 +13848,7 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17" t="s">
@@ -14061,7 +14056,7 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
@@ -14265,7 +14260,7 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="16" t="s">
@@ -14477,7 +14472,7 @@
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
@@ -14681,7 +14676,7 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
@@ -14885,7 +14880,7 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
@@ -15089,7 +15084,7 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17" t="s">
@@ -15297,11 +15292,11 @@
         <v>78</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
@@ -15513,7 +15508,7 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
@@ -15717,7 +15712,7 @@
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
@@ -15923,7 +15918,7 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="16" t="s">
@@ -15972,7 +15967,7 @@
         <v>1800</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W59" s="17">
         <f t="shared" si="3"/>
@@ -16059,7 +16054,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR59" s="17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
@@ -16135,7 +16130,7 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="17" t="s">
@@ -16338,7 +16333,7 @@
         <v>276</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>468</v>
@@ -16386,7 +16381,7 @@
         <v>493</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" si="3"/>
@@ -16549,7 +16544,7 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17" t="s">
@@ -16752,7 +16747,7 @@
         <v>308</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>978</v>
@@ -16800,7 +16795,7 @@
         <v>1800</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W63" s="17">
         <f t="shared" si="3"/>
@@ -16887,7 +16882,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR63" s="17" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV63" s="4" t="s">
         <v>29</v>
@@ -16959,7 +16954,7 @@
         <v>902</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>926</v>
@@ -17155,7 +17150,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="17" t="s">
@@ -17371,7 +17366,7 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="17" t="s">
@@ -17570,7 +17565,7 @@
         <v>898</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>281</v>
@@ -17738,7 +17733,7 @@
         <v>315</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>633</v>
@@ -17933,7 +17928,7 @@
         <v>692</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>470</v>
@@ -18098,7 +18093,7 @@
         <v>276</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>634</v>
@@ -18293,7 +18288,7 @@
         <v>898</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>635</v>
@@ -18487,7 +18482,7 @@
         <v>275</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>636</v>
@@ -18682,7 +18677,7 @@
         <v>315</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>637</v>
@@ -18877,7 +18872,7 @@
         <v>903</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>288</v>
@@ -18925,7 +18920,7 @@
         <v>484</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="W74" s="17">
         <f t="shared" si="35"/>
@@ -19091,7 +19086,7 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="17" t="s">
@@ -19304,7 +19299,7 @@
         <v>313</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>638</v>
@@ -19499,7 +19494,7 @@
         <v>898</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>506</v>
@@ -19706,7 +19701,7 @@
         <v>898</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>690</v>
@@ -19890,7 +19885,7 @@
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="17" t="s">
@@ -20093,7 +20088,7 @@
         <v>313</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>530</v>
@@ -20303,7 +20298,7 @@
         <v>416</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>1016</v>
@@ -20339,7 +20334,7 @@
         <v>1800</v>
       </c>
       <c r="V81" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="W81" s="17" t="str">
         <f t="shared" si="35"/>
@@ -20426,7 +20421,7 @@
         <v/>
       </c>
       <c r="AR81" s="17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AV81" s="4" t="s">
         <v>29</v>
@@ -20498,7 +20493,7 @@
         <v>898</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>531</v>
@@ -20705,7 +20700,7 @@
         <v>904</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>945</v>
@@ -20912,7 +20907,7 @@
         <v>315</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>532</v>
@@ -21119,7 +21114,7 @@
         <v>898</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>304</v>
@@ -21299,7 +21294,7 @@
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="17" t="s">
@@ -21510,7 +21505,7 @@
         <v>276</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>293</v>
@@ -21672,10 +21667,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>534</v>
@@ -21885,7 +21880,7 @@
         <v>903</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>976</v>
@@ -21975,7 +21970,7 @@
         <v/>
       </c>
       <c r="AR89" s="17" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AV89" s="4" t="s">
         <v>30</v>
@@ -22047,7 +22042,7 @@
         <v>902</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>936</v>
@@ -22209,7 +22204,7 @@
         <v>898</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>535</v>
@@ -22421,7 +22416,7 @@
         <v>313</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>639</v>
@@ -22610,7 +22605,7 @@
         <v>315</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G93" s="17" t="s">
         <v>536</v>
@@ -22817,7 +22812,7 @@
         <v>898</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>640</v>
@@ -23012,7 +23007,7 @@
         <v>275</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>537</v>
@@ -23175,7 +23170,7 @@
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="17" t="s">
@@ -23224,7 +23219,7 @@
         <v>486</v>
       </c>
       <c r="V96" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W96" s="17">
         <f t="shared" si="35"/>
@@ -23388,7 +23383,7 @@
         <v>338</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G97" s="17" t="s">
         <v>538</v>
@@ -23551,7 +23546,7 @@
         <v>898</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>965</v>
@@ -23587,7 +23582,7 @@
         <v>1800</v>
       </c>
       <c r="V98" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W98" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23674,7 +23669,7 @@
         <v/>
       </c>
       <c r="AR98" s="17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AV98" s="4" t="s">
         <v>29</v>
@@ -23746,7 +23741,7 @@
         <v>695</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>539</v>
@@ -23950,10 +23945,10 @@
         <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>540</v>
@@ -24157,7 +24152,7 @@
         <v>900</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>1004</v>
@@ -24205,7 +24200,7 @@
         <v>1900</v>
       </c>
       <c r="V101" s="23" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="W101" s="17">
         <f t="shared" si="35"/>
@@ -24292,7 +24287,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR101" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AV101" s="4" t="s">
         <v>29</v>
@@ -24364,7 +24359,7 @@
         <v>897</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>641</v>
@@ -24559,7 +24554,7 @@
         <v>693</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>686</v>
@@ -24747,7 +24742,7 @@
         <v>313</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>642</v>
@@ -24944,7 +24939,7 @@
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="17" t="s">
@@ -25147,7 +25142,7 @@
         <v>898</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>542</v>
@@ -25345,7 +25340,7 @@
         <v>898</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>543</v>
@@ -25555,7 +25550,7 @@
         <v>275</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>280</v>
@@ -25591,7 +25586,7 @@
         <v>486</v>
       </c>
       <c r="V108" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="W108" s="17" t="str">
         <f t="shared" si="35"/>
@@ -25753,7 +25748,7 @@
         <v>315</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G109" s="17" t="s">
         <v>643</v>
@@ -25955,7 +25950,7 @@
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="17" t="s">
@@ -26158,7 +26153,7 @@
         <v>275</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>544</v>
@@ -26362,11 +26357,11 @@
         <v>979</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="16" t="s">
@@ -26471,7 +26466,7 @@
         <v/>
       </c>
       <c r="AR112" s="17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AS112" s="17"/>
       <c r="AT112" s="17"/>
@@ -26546,7 +26541,7 @@
         <v>695</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G113" s="17" t="s">
         <v>545</v>
@@ -26752,7 +26747,7 @@
         <v>315</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>546</v>
@@ -26947,7 +26942,7 @@
         <v>338</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G115" s="17" t="s">
         <v>547</v>
@@ -27157,7 +27152,7 @@
         <v>276</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>934</v>
@@ -27316,10 +27311,10 @@
         <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G117" s="17" t="s">
         <v>548</v>
@@ -27526,7 +27521,7 @@
         <v>275</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>549</v>
@@ -27721,7 +27716,7 @@
         <v>695</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>550</v>
@@ -27931,7 +27926,7 @@
         <v>693</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G120" s="17" t="s">
         <v>687</v>
@@ -28128,7 +28123,7 @@
         <v>315</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>551</v>
@@ -28293,7 +28288,7 @@
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="17" t="s">
@@ -28506,7 +28501,7 @@
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="17" t="s">
@@ -28718,7 +28713,7 @@
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="17" t="s">
@@ -28930,7 +28925,7 @@
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="17" t="s">
@@ -29141,7 +29136,7 @@
         <v>313</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G126" s="17" t="s">
         <v>645</v>
@@ -29319,7 +29314,7 @@
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="17" t="s">
@@ -29522,7 +29517,7 @@
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="17" t="s">
@@ -29734,7 +29729,7 @@
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="16" t="s">
@@ -29779,7 +29774,7 @@
         <v>1900</v>
       </c>
       <c r="V129" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="W129" s="17" t="str">
         <f t="shared" ref="W129:W192" si="67">IF(H129&gt;0,H129/100,"")</f>
@@ -29866,7 +29861,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR129" s="17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AS129" s="17"/>
       <c r="AT129" s="17"/>
@@ -29945,7 +29940,7 @@
         <v>902</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>910</v>
@@ -30146,7 +30141,7 @@
         <v>902</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>930</v>
@@ -30352,7 +30347,7 @@
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="17" t="s">
@@ -30563,7 +30558,7 @@
         <v>313</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G133" s="17" t="s">
         <v>646</v>
@@ -30756,7 +30751,7 @@
         <v>898</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>647</v>
@@ -30955,7 +30950,7 @@
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="17" t="s">
@@ -31000,7 +30995,7 @@
         <v>484</v>
       </c>
       <c r="V135" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W135" s="17">
         <f t="shared" si="67"/>
@@ -31163,7 +31158,7 @@
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17" t="s">
@@ -31369,7 +31364,7 @@
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="17" t="s">
@@ -31575,7 +31570,7 @@
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="17" t="s">
@@ -31779,7 +31774,7 @@
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="17" t="s">
@@ -31983,7 +31978,7 @@
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="17" t="s">
@@ -32190,7 +32185,7 @@
         <v>900</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G141" s="17" t="s">
         <v>649</v>
@@ -32389,7 +32384,7 @@
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17" t="s">
@@ -32593,7 +32588,7 @@
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17" t="s">
@@ -32805,7 +32800,7 @@
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="16" t="s">
@@ -33009,7 +33004,7 @@
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="17" t="s">
@@ -33215,7 +33210,7 @@
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="17" t="s">
@@ -33427,7 +33422,7 @@
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17" t="s">
@@ -33468,7 +33463,7 @@
       <c r="T147" s="17"/>
       <c r="U147" s="17"/>
       <c r="V147" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W147" s="17" t="str">
         <f t="shared" si="67"/>
@@ -33631,7 +33626,7 @@
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="17" t="s">
@@ -33672,7 +33667,7 @@
       <c r="T148" s="17"/>
       <c r="U148" s="17"/>
       <c r="V148" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W148" s="17" t="str">
         <f t="shared" si="67"/>
@@ -33835,7 +33830,7 @@
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17" t="s">
@@ -34047,7 +34042,7 @@
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17" t="s">
@@ -34259,7 +34254,7 @@
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="17" t="s">
@@ -34471,7 +34466,7 @@
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17" t="s">
@@ -34683,7 +34678,7 @@
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="17" t="s">
@@ -34895,7 +34890,7 @@
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17" t="s">
@@ -35099,7 +35094,7 @@
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17" t="s">
@@ -35303,7 +35298,7 @@
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="17" t="s">
@@ -35352,7 +35347,7 @@
         <v>497</v>
       </c>
       <c r="V156" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W156" s="17">
         <f t="shared" si="67"/>
@@ -35517,7 +35512,7 @@
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17" t="s">
@@ -35728,7 +35723,7 @@
         <v>315</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G158" s="17" t="s">
         <v>654</v>
@@ -35923,7 +35918,7 @@
         <v>695</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G159" s="17" t="s">
         <v>574</v>
@@ -36130,7 +36125,7 @@
         <v>276</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G160" s="17" t="s">
         <v>655</v>
@@ -36325,7 +36320,7 @@
         <v>315</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G161" s="17" t="s">
         <v>575</v>
@@ -36532,7 +36527,7 @@
         <v>898</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G162" s="17" t="s">
         <v>297</v>
@@ -36568,7 +36563,7 @@
         <v>484</v>
       </c>
       <c r="V162" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W162" s="17" t="str">
         <f t="shared" si="67"/>
@@ -36730,7 +36725,7 @@
         <v>904</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G163" s="20" t="s">
         <v>943</v>
@@ -36919,7 +36914,7 @@
         <v>899</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>951</v>
@@ -36967,7 +36962,7 @@
         <v>1800</v>
       </c>
       <c r="V164" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="W164" s="17">
         <f t="shared" si="67"/>
@@ -37054,7 +37049,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR164" s="21" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AV164" s="4" t="s">
         <v>29</v>
@@ -37126,7 +37121,7 @@
         <v>313</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G165" s="17" t="s">
         <v>576</v>
@@ -37333,7 +37328,7 @@
         <v>903</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>688</v>
@@ -37528,7 +37523,7 @@
         <v>904</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>302</v>
@@ -37714,7 +37709,7 @@
         <v>416</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>1022</v>
@@ -37849,7 +37844,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR168" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AV168" s="4" t="s">
         <v>29</v>
@@ -37921,7 +37916,7 @@
         <v>899</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>957</v>
@@ -38080,7 +38075,7 @@
         <v>696</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G170" s="17" t="s">
         <v>656</v>
@@ -38281,7 +38276,7 @@
         <v>904</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G171" s="20" t="s">
         <v>938</v>
@@ -38329,7 +38324,7 @@
         <v>1800</v>
       </c>
       <c r="V171" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W171" s="17">
         <f t="shared" si="67"/>
@@ -38488,7 +38483,7 @@
         <v>693</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G172" s="17" t="s">
         <v>657</v>
@@ -38683,7 +38678,7 @@
         <v>351</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G173" s="17" t="s">
         <v>658</v>
@@ -38878,7 +38873,7 @@
         <v>897</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G174" s="17" t="s">
         <v>659</v>
@@ -39073,7 +39068,7 @@
         <v>351</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G175" s="17" t="s">
         <v>660</v>
@@ -39268,7 +39263,7 @@
         <v>338</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G176" s="17" t="s">
         <v>661</v>
@@ -39463,7 +39458,7 @@
         <v>313</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G177" s="17" t="s">
         <v>577</v>
@@ -39658,7 +39653,7 @@
         <v>308</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G178" s="16" t="s">
         <v>982</v>
@@ -39694,7 +39689,7 @@
         <v>1800</v>
       </c>
       <c r="V178" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="W178" s="17" t="str">
         <f t="shared" si="67"/>
@@ -39781,7 +39776,7 @@
         <v/>
       </c>
       <c r="AR178" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AV178" s="4" t="s">
         <v>29</v>
@@ -39850,10 +39845,10 @@
         <v>131</v>
       </c>
       <c r="C179" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G179" s="17" t="s">
         <v>578</v>
@@ -40054,7 +40049,7 @@
         <v>902</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>908</v>
@@ -40246,7 +40241,7 @@
         <v>905</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G181" s="17" t="s">
         <v>579</v>
@@ -40447,7 +40442,7 @@
         <v>315</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G182" s="17" t="s">
         <v>580</v>
@@ -40654,7 +40649,7 @@
         <v>276</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G183" s="17" t="s">
         <v>277</v>
@@ -40846,7 +40841,7 @@
         <v>898</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G184" s="17" t="s">
         <v>581</v>
@@ -41011,7 +41006,7 @@
         <v>315</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G185" s="17" t="s">
         <v>582</v>
@@ -41206,7 +41201,7 @@
         <v>308</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G186" s="17" t="s">
         <v>662</v>
@@ -41401,7 +41396,7 @@
         <v>898</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G187" s="17" t="s">
         <v>299</v>
@@ -41566,7 +41561,7 @@
         <v>693</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G188" s="17" t="s">
         <v>583</v>
@@ -41761,7 +41756,7 @@
         <v>315</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G189" s="17" t="s">
         <v>584</v>
@@ -41809,7 +41804,7 @@
         <v>486</v>
       </c>
       <c r="V189" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="W189" s="17">
         <f t="shared" si="67"/>
@@ -41968,7 +41963,7 @@
         <v>899</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>953</v>
@@ -42016,7 +42011,7 @@
         <v>1800</v>
       </c>
       <c r="V190" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="W190" s="17">
         <f t="shared" si="67"/>
@@ -42103,7 +42098,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR190" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AV190" s="4" t="s">
         <v>29</v>
@@ -42175,7 +42170,7 @@
         <v>275</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G191" s="17" t="s">
         <v>585</v>
@@ -42379,10 +42374,10 @@
         <v>260</v>
       </c>
       <c r="C192" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G192" s="17" t="s">
         <v>469</v>
@@ -42583,7 +42578,7 @@
         <v>416</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>1018</v>
@@ -42673,7 +42668,7 @@
         <v/>
       </c>
       <c r="AR193" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AV193" s="4" t="s">
         <v>30</v>
@@ -42749,7 +42744,7 @@
         <v>276</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G194" s="17" t="s">
         <v>298</v>
@@ -42914,7 +42909,7 @@
         <v>898</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G195" s="17" t="s">
         <v>467</v>
@@ -42950,7 +42945,7 @@
         <v>486</v>
       </c>
       <c r="V195" s="12" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="W195" s="17" t="str">
         <f t="shared" si="99"/>
@@ -43113,7 +43108,7 @@
         <v>315</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G196" s="17" t="s">
         <v>586</v>
@@ -43314,7 +43309,7 @@
         <v>315</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G197" s="17" t="s">
         <v>587</v>
@@ -43521,7 +43516,7 @@
         <v>693</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G198" s="17" t="s">
         <v>663</v>
@@ -43716,7 +43711,7 @@
         <v>338</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G199" s="17" t="s">
         <v>588</v>
@@ -43923,7 +43918,7 @@
         <v>308</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>986</v>
@@ -44013,7 +44008,7 @@
         <v/>
       </c>
       <c r="AR200" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AV200" s="4" t="s">
         <v>30</v>
@@ -44085,7 +44080,7 @@
         <v>315</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G201" s="17" t="s">
         <v>589</v>
@@ -44286,7 +44281,7 @@
         <v>313</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G202" s="17" t="s">
         <v>590</v>
@@ -44493,7 +44488,7 @@
         <v>897</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G203" s="17" t="s">
         <v>591</v>
@@ -44700,7 +44695,7 @@
         <v>313</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G204" s="17" t="s">
         <v>300</v>
@@ -44865,7 +44860,7 @@
         <v>898</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G205" s="17" t="s">
         <v>592</v>
@@ -45063,7 +45058,7 @@
         <v>902</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>922</v>
@@ -45270,7 +45265,7 @@
         <v>696</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G207" s="17" t="s">
         <v>664</v>
@@ -45465,7 +45460,7 @@
         <v>900</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>998</v>
@@ -45555,7 +45550,7 @@
         <v/>
       </c>
       <c r="AR208" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AV208" s="4" t="s">
         <v>30</v>
@@ -45627,7 +45622,7 @@
         <v>900</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G209" s="17" t="s">
         <v>665</v>
@@ -45825,7 +45820,7 @@
         <v>695</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G210" s="17" t="s">
         <v>593</v>
@@ -46026,7 +46021,7 @@
         <v>903</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>972</v>
@@ -46074,7 +46069,7 @@
         <v>1900</v>
       </c>
       <c r="V211" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="W211" s="17">
         <f t="shared" si="99"/>
@@ -46161,7 +46156,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR211" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AV211" s="4" t="s">
         <v>29</v>
@@ -46233,7 +46228,7 @@
         <v>351</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G212" s="17" t="s">
         <v>594</v>
@@ -46440,7 +46435,7 @@
         <v>313</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>988</v>
@@ -46599,7 +46594,7 @@
         <v>898</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G214" s="17" t="s">
         <v>595</v>
@@ -46806,7 +46801,7 @@
         <v>275</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G215" s="17" t="s">
         <v>666</v>
@@ -47001,7 +46996,7 @@
         <v>692</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G216" s="17" t="s">
         <v>667</v>
@@ -47196,7 +47191,7 @@
         <v>315</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G217" s="17" t="s">
         <v>668</v>
@@ -47391,7 +47386,7 @@
         <v>315</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G218" s="17" t="s">
         <v>669</v>
@@ -47586,7 +47581,7 @@
         <v>275</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G219" s="17" t="s">
         <v>596</v>
@@ -47792,7 +47787,7 @@
         <v>338</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G220" s="17" t="s">
         <v>294</v>
@@ -47964,7 +47959,7 @@
         <v>276</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>282</v>
@@ -48136,7 +48131,7 @@
         <v>308</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G222" t="s">
         <v>597</v>
@@ -48342,7 +48337,7 @@
         <v>315</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G223" s="17" t="s">
         <v>670</v>
@@ -48533,10 +48528,10 @@
         <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G224" s="17" t="s">
         <v>671</v>
@@ -48730,7 +48725,7 @@
         <v>313</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G225" s="17" t="s">
         <v>672</v>
@@ -48926,7 +48921,7 @@
         <v>351</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G226" s="17" t="s">
         <v>598</v>
@@ -48974,7 +48969,7 @@
         <v>1800</v>
       </c>
       <c r="V226" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W226" s="17">
         <f t="shared" si="99"/>
@@ -49132,7 +49127,7 @@
         <v>695</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G227" s="17" t="s">
         <v>599</v>
@@ -49334,7 +49329,7 @@
         <v>696</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G228" s="17" t="s">
         <v>673</v>
@@ -49528,7 +49523,7 @@
         <v>696</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G229" s="17" t="s">
         <v>600</v>
@@ -49737,7 +49732,7 @@
         <v>898</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>963</v>
@@ -49835,7 +49830,7 @@
         <v/>
       </c>
       <c r="AR230" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AV230" s="4" t="s">
         <v>30</v>
@@ -49905,7 +49900,7 @@
         <v>338</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G231" s="17" t="s">
         <v>601</v>
@@ -50101,7 +50096,7 @@
         <v>693</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G232" s="17" t="s">
         <v>602</v>
@@ -50298,7 +50293,7 @@
         <v>351</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G233" s="17" t="s">
         <v>603</v>
@@ -50492,7 +50487,7 @@
         <v>315</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G234" s="17" t="s">
         <v>674</v>
@@ -50686,7 +50681,7 @@
         <v>315</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G235" s="17" t="s">
         <v>675</v>
@@ -50882,7 +50877,7 @@
         <v>308</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G236" s="17" t="s">
         <v>604</v>
@@ -51076,7 +51071,7 @@
         <v>351</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G237" s="17" t="s">
         <v>676</v>
@@ -51269,10 +51264,10 @@
         <v>157</v>
       </c>
       <c r="C238" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G238" s="17" t="s">
         <v>605</v>
@@ -51478,7 +51473,7 @@
         <v>315</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G239" s="17" t="s">
         <v>677</v>
@@ -51642,7 +51637,7 @@
         <v>902</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>918</v>
@@ -51847,7 +51842,7 @@
         <v>416</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>1024</v>
@@ -51895,7 +51890,7 @@
         <v>1800</v>
       </c>
       <c r="V241" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="W241" s="17">
         <f t="shared" si="99"/>
@@ -51982,7 +51977,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR241" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AV241" s="4" t="s">
         <v>29</v>
@@ -52052,7 +52047,7 @@
         <v>315</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G242" s="17" t="s">
         <v>689</v>
@@ -52244,7 +52239,7 @@
         <v>313</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>984</v>
@@ -52286,7 +52281,7 @@
         <v>1700</v>
       </c>
       <c r="V243" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="W243" s="17" t="str">
         <f t="shared" si="99"/>
@@ -52373,7 +52368,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR243" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AV243" s="4" t="s">
         <v>29</v>
@@ -52443,7 +52438,7 @@
         <v>900</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>992</v>
@@ -52563,7 +52558,7 @@
         <v/>
       </c>
       <c r="AR244" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AV244" s="4" t="s">
         <v>29</v>
@@ -52633,7 +52628,7 @@
         <v>902</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G245" s="17" t="s">
         <v>912</v>
@@ -52838,7 +52833,7 @@
         <v>276</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G246" s="17" t="s">
         <v>283</v>
@@ -52876,7 +52871,7 @@
       <c r="T246" s="17"/>
       <c r="U246" s="17"/>
       <c r="V246" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="W246" s="17" t="str">
         <f t="shared" si="99"/>
@@ -53037,7 +53032,7 @@
         <v>904</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>947</v>
@@ -53242,7 +53237,7 @@
         <v>900</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>1000</v>
@@ -53290,7 +53285,7 @@
         <v>1800</v>
       </c>
       <c r="V248" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="W248" s="17">
         <f t="shared" si="99"/>
@@ -53377,7 +53372,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR248" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AV248" s="4" t="s">
         <v>29</v>
@@ -53447,7 +53442,7 @@
         <v>315</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G249" s="17" t="s">
         <v>606</v>
@@ -53650,7 +53645,7 @@
         <v>416</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>1026</v>
@@ -53698,7 +53693,7 @@
         <v>1900</v>
       </c>
       <c r="V250" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="W250" s="17">
         <f t="shared" si="99"/>
@@ -53785,7 +53780,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR250" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AV250" s="4" t="s">
         <v>29</v>
@@ -53855,7 +53850,7 @@
         <v>898</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G251" s="16" t="s">
         <v>961</v>
@@ -53897,7 +53892,7 @@
         <v>1830</v>
       </c>
       <c r="V251" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W251" s="17" t="str">
         <f t="shared" si="99"/>
@@ -53984,7 +53979,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR251" s="17" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AV251" s="4" t="s">
         <v>29</v>
@@ -54054,7 +54049,7 @@
         <v>898</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G252" s="17" t="s">
         <v>607</v>
@@ -54102,7 +54097,7 @@
         <v>485</v>
       </c>
       <c r="V252" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W252" s="17">
         <f t="shared" si="99"/>
@@ -54260,7 +54255,7 @@
         <v>695</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G253" s="17" t="s">
         <v>278</v>
@@ -54308,7 +54303,7 @@
         <v>485</v>
       </c>
       <c r="V253" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W253" s="17">
         <f t="shared" si="99"/>
@@ -54469,7 +54464,7 @@
         <v>692</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G254" s="17" t="s">
         <v>608</v>
@@ -54675,7 +54670,7 @@
         <v>315</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G255" s="17" t="s">
         <v>609</v>
@@ -54869,7 +54864,7 @@
         <v>695</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G256" s="17" t="s">
         <v>678</v>
@@ -55040,7 +55035,7 @@
         <v>898</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G257" s="17" t="s">
         <v>679</v>
@@ -55235,7 +55230,7 @@
         <v>695</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G258" s="17" t="s">
         <v>610</v>
@@ -55425,7 +55420,7 @@
         <v>416</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>1011</v>
@@ -55587,7 +55582,7 @@
         <v>315</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G260" s="17" t="s">
         <v>611</v>
@@ -55787,7 +55782,7 @@
         <v>416</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>1006</v>
@@ -55877,7 +55872,7 @@
         <v/>
       </c>
       <c r="AR261" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AV261" s="4" t="s">
         <v>30</v>
@@ -55947,7 +55942,7 @@
         <v>315</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G262" s="17" t="s">
         <v>680</v>
@@ -56143,7 +56138,7 @@
         <v>315</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G263" s="17" t="s">
         <v>612</v>
@@ -56337,7 +56332,7 @@
         <v>338</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G264" s="17" t="s">
         <v>681</v>
@@ -56534,7 +56529,7 @@
         <v>693</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G265" s="17" t="s">
         <v>682</v>
@@ -56728,7 +56723,7 @@
         <v>276</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G266" s="17" t="s">
         <v>683</v>
@@ -56922,7 +56917,7 @@
         <v>693</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G267" s="17" t="s">
         <v>613</v>
@@ -57123,7 +57118,7 @@
         <v>898</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G268" s="17" t="s">
         <v>614</v>
@@ -57329,7 +57324,7 @@
         <v>898</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G269" s="16" t="s">
         <v>967</v>
@@ -57377,7 +57372,7 @@
         <v>1800</v>
       </c>
       <c r="V269" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="W269" s="17">
         <f t="shared" si="131"/>
@@ -57464,7 +57459,7 @@
         <v>12pm-6pm</v>
       </c>
       <c r="AR269" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AV269" s="4" t="s">
         <v>29</v>
@@ -57534,7 +57529,7 @@
         <v>338</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G270" s="17" t="s">
         <v>292</v>
@@ -57698,7 +57693,7 @@
         <v>416</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G271" s="16" t="s">
         <v>1014</v>
@@ -57830,7 +57825,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR271" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AV271" s="4" t="s">
         <v>29</v>
@@ -57901,7 +57896,7 @@
       </c>
       <c r="D272" s="8"/>
       <c r="E272" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F272" s="8"/>
       <c r="G272" s="17" t="s">
@@ -58083,7 +58078,7 @@
         <v>902</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G273" s="16" t="s">
         <v>906</v>
@@ -58281,10 +58276,10 @@
         <v>237</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G274" s="17" t="s">
         <v>684</v>
@@ -58480,7 +58475,7 @@
         <v>903</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G275" s="16" t="s">
         <v>520</v>
@@ -58528,7 +58523,7 @@
         <v>1700</v>
       </c>
       <c r="V275" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W275" s="17">
         <f t="shared" si="131"/>
@@ -58615,7 +58610,7 @@
         <v>4pm-5pm</v>
       </c>
       <c r="AR275" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AV275" s="4" t="s">
         <v>29</v>
@@ -58685,7 +58680,7 @@
         <v>695</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G276" s="17" t="s">
         <v>616</v>
@@ -58879,7 +58874,7 @@
         <v>313</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G277" s="17" t="s">
         <v>617</v>
@@ -59085,7 +59080,7 @@
         <v>900</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G278" s="16" t="s">
         <v>1002</v>
@@ -59133,7 +59128,7 @@
         <v>1730</v>
       </c>
       <c r="V278" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W278" s="17">
         <f t="shared" si="131"/>
@@ -59220,7 +59215,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR278" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AV278" s="4" t="s">
         <v>29</v>
@@ -59290,7 +59285,7 @@
         <v>313</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G279" s="17" t="s">
         <v>295</v>
@@ -59466,7 +59461,7 @@
         <v>338</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G280" s="17" t="s">
         <v>618</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="1150">
   <si>
     <t>Name</t>
   </si>
@@ -1528,9 +1528,6 @@
   </si>
   <si>
     <t>1030</t>
-  </si>
-  <si>
-    <t>0530</t>
   </si>
   <si>
     <t>1630</t>
@@ -4443,8 +4440,8 @@
   <dimension ref="B1:BL281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4655,10 +4652,10 @@
         <v>313</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J2" t="s">
         <v>490</v>
@@ -4691,7 +4688,7 @@
         <v>485</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W2" s="17" t="str">
         <f t="shared" ref="W2:AJ2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -4778,7 +4775,7 @@
         <v/>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>29</v>
@@ -4847,16 +4844,16 @@
     </row>
     <row r="3" spans="2:64" ht="150">
       <c r="B3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C3" t="s">
         <v>416</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J3">
         <v>1500</v>
@@ -4889,7 +4886,7 @@
         <v>1830</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="W3" s="17" t="str">
         <f t="shared" ref="W3:W64" si="3">IF(H3&gt;0,H3/100,"")</f>
@@ -4976,7 +4973,7 @@
         <v/>
       </c>
       <c r="AR3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>29</v>
@@ -5045,16 +5042,16 @@
     </row>
     <row r="4" spans="2:64" ht="135">
       <c r="B4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>948</v>
-      </c>
-      <c r="C4" t="s">
-        <v>904</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>949</v>
       </c>
       <c r="H4">
         <v>1500</v>
@@ -5099,7 +5096,7 @@
         <v>1900</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="3"/>
@@ -5186,7 +5183,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AV4" s="4" t="s">
         <v>29</v>
@@ -5258,10 +5255,10 @@
         <v>308</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J5" t="s">
         <v>483</v>
@@ -5387,7 +5384,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR5" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AS5" t="s">
         <v>480</v>
@@ -5459,15 +5456,15 @@
         <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>483</v>
@@ -5599,7 +5596,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AS6" s="17"/>
       <c r="AT6" s="17"/>
@@ -5674,10 +5671,10 @@
         <v>275</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>462</v>
@@ -5767,7 +5764,7 @@
         <v/>
       </c>
       <c r="AR7" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AV7" s="17" t="s">
         <v>29</v>
@@ -5836,10 +5833,10 @@
         <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>285</v>
@@ -5974,7 +5971,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR8" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AS8" t="s">
         <v>480</v>
@@ -6046,11 +6043,11 @@
         <v>245</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
@@ -6099,7 +6096,7 @@
         <v>485</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="3"/>
@@ -6186,7 +6183,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AS9" s="17" t="s">
         <v>480</v>
@@ -6257,16 +6254,16 @@
     </row>
     <row r="10" spans="2:64" ht="150">
       <c r="B10" t="s">
+        <v>994</v>
+      </c>
+      <c r="C10" t="s">
+        <v>899</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>995</v>
-      </c>
-      <c r="C10" t="s">
-        <v>900</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>996</v>
       </c>
       <c r="J10">
         <v>1430</v>
@@ -6299,7 +6296,7 @@
         <v>1830</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W10" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6386,7 +6383,7 @@
         <v/>
       </c>
       <c r="AR10" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>29</v>
@@ -6452,16 +6449,16 @@
     </row>
     <row r="11" spans="2:64" s="17" customFormat="1" ht="120">
       <c r="B11" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>915</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>916</v>
       </c>
       <c r="V11" s="8"/>
       <c r="W11" s="17" t="str">
@@ -6549,7 +6546,7 @@
         <v/>
       </c>
       <c r="AR11" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>30</v>
@@ -6613,18 +6610,18 @@
     </row>
     <row r="12" spans="2:64" s="8" customFormat="1" ht="150">
       <c r="B12" s="17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -6658,7 +6655,7 @@
         <v>1500</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="W12" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6745,7 +6742,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AR12" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
@@ -6821,11 +6818,11 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>483</v>
@@ -6957,7 +6954,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
@@ -7026,16 +7023,16 @@
     </row>
     <row r="14" spans="2:64" ht="409.5">
       <c r="B14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C14" t="s">
         <v>416</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H14">
         <v>1600</v>
@@ -7080,7 +7077,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="W14" s="17">
         <f t="shared" si="3"/>
@@ -7234,15 +7231,15 @@
         <v>62</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -7343,7 +7340,7 @@
         <v/>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
@@ -7415,13 +7412,13 @@
         <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W16" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7583,10 +7580,10 @@
         <v>308</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H17" t="s">
         <v>483</v>
@@ -7718,7 +7715,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AV17" s="4" t="s">
         <v>29</v>
@@ -7784,16 +7781,16 @@
     </row>
     <row r="18" spans="2:64" ht="120">
       <c r="B18" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>931</v>
-      </c>
-      <c r="C18" t="s">
-        <v>902</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>932</v>
       </c>
       <c r="W18" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7947,13 +7944,13 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H19" t="s">
         <v>483</v>
@@ -8085,7 +8082,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AV19" s="4" t="s">
         <v>29</v>
@@ -8154,15 +8151,15 @@
         <v>65</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>483</v>
@@ -8294,7 +8291,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
@@ -8366,13 +8363,13 @@
         <v>66</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H21" t="s">
         <v>483</v>
@@ -8504,7 +8501,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AV21" s="4" t="s">
         <v>29</v>
@@ -8570,16 +8567,16 @@
     </row>
     <row r="22" spans="2:64" ht="150">
       <c r="B22" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C22" t="s">
         <v>276</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L22">
         <v>1600</v>
@@ -8612,7 +8609,7 @@
         <v>1800</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W22" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8699,7 +8696,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AV22" s="4" t="s">
         <v>29</v>
@@ -8765,16 +8762,16 @@
     </row>
     <row r="23" spans="2:64" ht="165">
       <c r="B23" t="s">
+        <v>992</v>
+      </c>
+      <c r="C23" t="s">
+        <v>899</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>993</v>
-      </c>
-      <c r="C23" t="s">
-        <v>900</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>994</v>
       </c>
       <c r="J23">
         <v>1600</v>
@@ -8807,7 +8804,7 @@
         <v>1900</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="W23" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8894,7 +8891,7 @@
         <v/>
       </c>
       <c r="AR23" s="17" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AV23" s="4" t="s">
         <v>29</v>
@@ -8960,18 +8957,18 @@
     </row>
     <row r="24" spans="2:64" s="8" customFormat="1" ht="135">
       <c r="B24" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -9072,7 +9069,7 @@
         <v/>
       </c>
       <c r="AR24" s="17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
@@ -9148,11 +9145,11 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -9276,7 +9273,7 @@
         <v/>
       </c>
       <c r="AR25" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AS25" s="17"/>
       <c r="AT25" s="17"/>
@@ -9348,11 +9345,11 @@
         <v>257</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
@@ -9457,7 +9454,7 @@
         <v/>
       </c>
       <c r="AR26" s="17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AS26" s="17" t="s">
         <v>480</v>
@@ -9535,11 +9532,11 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -9663,7 +9660,7 @@
         <v/>
       </c>
       <c r="AR27" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
@@ -9735,15 +9732,15 @@
         <v>175</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -9871,7 +9868,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
@@ -9943,11 +9940,11 @@
         <v>248</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
@@ -9996,7 +9993,7 @@
         <v>487</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" si="3"/>
@@ -10083,7 +10080,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR29" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AS29" s="17" t="s">
         <v>480</v>
@@ -10154,16 +10151,16 @@
     </row>
     <row r="30" spans="2:64" ht="165">
       <c r="B30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C30" t="s">
         <v>416</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H30">
         <v>1500</v>
@@ -10208,7 +10205,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="3"/>
@@ -10295,7 +10292,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR30" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AV30" s="4" t="s">
         <v>29</v>
@@ -10367,10 +10364,10 @@
         <v>338</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J31" t="s">
         <v>483</v>
@@ -10490,7 +10487,7 @@
         <v/>
       </c>
       <c r="AR31" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AV31" s="4" t="s">
         <v>29</v>
@@ -10563,11 +10560,11 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -10691,7 +10688,7 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
@@ -10767,11 +10764,11 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -10895,7 +10892,7 @@
         <v/>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AS33" s="8"/>
       <c r="AT33" s="8"/>
@@ -10971,11 +10968,11 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -11099,7 +11096,7 @@
         <v/>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AS34" s="8"/>
       <c r="AT34" s="8"/>
@@ -11171,13 +11168,13 @@
         <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J35" t="s">
         <v>483</v>
@@ -11291,7 +11288,7 @@
         <v/>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AV35" s="4" t="s">
         <v>29</v>
@@ -11360,15 +11357,15 @@
         <v>69</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>489</v>
@@ -11500,7 +11497,7 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR36" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AS36" s="8"/>
       <c r="AT36" s="8"/>
@@ -11572,13 +11569,13 @@
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J37" t="s">
         <v>483</v>
@@ -11704,7 +11701,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AV37" s="4" t="s">
         <v>29</v>
@@ -11770,16 +11767,16 @@
     </row>
     <row r="38" spans="2:64" ht="120">
       <c r="B38" t="s">
+        <v>918</v>
+      </c>
+      <c r="C38" t="s">
+        <v>901</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>919</v>
-      </c>
-      <c r="C38" t="s">
-        <v>902</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>920</v>
       </c>
       <c r="W38" s="17" t="str">
         <f t="shared" si="3"/>
@@ -11866,7 +11863,7 @@
         <v/>
       </c>
       <c r="AR38" s="21" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AV38" s="4" t="s">
         <v>30</v>
@@ -11935,10 +11932,10 @@
         <v>259</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>289</v>
@@ -12028,7 +12025,7 @@
         <v/>
       </c>
       <c r="AR39" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AS39" t="s">
         <v>480</v>
@@ -12103,10 +12100,10 @@
         <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>291</v>
@@ -12196,7 +12193,7 @@
         <v/>
       </c>
       <c r="AR40" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AS40" t="s">
         <v>480</v>
@@ -12271,10 +12268,10 @@
         <v>313</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W41" s="17" t="str">
         <f t="shared" si="3"/>
@@ -12361,7 +12358,7 @@
         <v/>
       </c>
       <c r="AR41" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV41" s="4" t="s">
         <v>30</v>
@@ -12430,13 +12427,13 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H42" t="s">
         <v>483</v>
@@ -12568,7 +12565,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AV42" s="4" t="s">
         <v>29</v>
@@ -12637,13 +12634,13 @@
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H43" t="s">
         <v>483</v>
@@ -12775,7 +12772,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR43" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AV43" s="4" t="s">
         <v>29</v>
@@ -12841,16 +12838,16 @@
     </row>
     <row r="44" spans="2:64" ht="135">
       <c r="B44" t="s">
+        <v>912</v>
+      </c>
+      <c r="C44" t="s">
+        <v>901</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>913</v>
-      </c>
-      <c r="C44" t="s">
-        <v>902</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>914</v>
       </c>
       <c r="J44">
         <v>1500</v>
@@ -12883,7 +12880,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="W44" s="17" t="str">
         <f t="shared" si="3"/>
@@ -12970,7 +12967,7 @@
         <v/>
       </c>
       <c r="AR44" s="21" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>29</v>
@@ -13039,15 +13036,15 @@
         <v>74</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>483</v>
@@ -13179,7 +13176,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
@@ -13245,23 +13242,23 @@
         <v/>
       </c>
       <c r="BL45" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5">
       <c r="B46" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -13298,7 +13295,7 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="W46" s="17" t="str">
         <f t="shared" si="3"/>
@@ -13385,7 +13382,7 @@
         <v/>
       </c>
       <c r="AR46" s="17" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
@@ -13461,11 +13458,11 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -13589,7 +13586,7 @@
         <v/>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
@@ -13661,11 +13658,11 @@
         <v>272</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
@@ -13844,15 +13841,15 @@
         <v>75</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>490</v>
@@ -13980,7 +13977,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR49" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
@@ -14052,15 +14049,15 @@
         <v>180</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -14184,7 +14181,7 @@
         <v/>
       </c>
       <c r="AR50" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
@@ -14253,18 +14250,18 @@
     </row>
     <row r="51" spans="2:64" s="8" customFormat="1" ht="150">
       <c r="B51" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="16" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H51" s="17">
         <v>1500</v>
@@ -14309,7 +14306,7 @@
         <v>1800</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="W51" s="17">
         <f t="shared" si="3"/>
@@ -14396,7 +14393,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR51" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
@@ -14468,15 +14465,15 @@
         <v>76</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -14600,7 +14597,7 @@
         <v/>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
@@ -14669,18 +14666,18 @@
     </row>
     <row r="53" spans="2:64" s="8" customFormat="1" ht="165">
       <c r="B53" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -14717,7 +14714,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="W53" s="17" t="str">
         <f t="shared" si="3"/>
@@ -14804,7 +14801,7 @@
         <v/>
       </c>
       <c r="AR53" s="21" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
@@ -14880,11 +14877,11 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -15008,7 +15005,7 @@
         <v/>
       </c>
       <c r="AR54" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
@@ -15084,11 +15081,11 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>492</v>
@@ -15220,7 +15217,7 @@
         <v>2.3pm-6.3pm</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
@@ -15292,15 +15289,15 @@
         <v>78</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>493</v>
@@ -15432,7 +15429,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR56" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
@@ -15504,15 +15501,15 @@
         <v>182</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -15636,7 +15633,7 @@
         <v/>
       </c>
       <c r="AR57" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
@@ -15712,11 +15709,11 @@
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -15840,7 +15837,7 @@
         <v/>
       </c>
       <c r="AR58" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AS58" s="17" t="s">
         <v>480</v>
@@ -15911,18 +15908,18 @@
     </row>
     <row r="59" spans="2:64" ht="255">
       <c r="B59" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H59" s="17">
         <v>1400</v>
@@ -15967,7 +15964,7 @@
         <v>1800</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W59" s="17">
         <f t="shared" si="3"/>
@@ -16054,7 +16051,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR59" s="17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
@@ -16130,11 +16127,11 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -16258,7 +16255,7 @@
         <v/>
       </c>
       <c r="AR60" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AS60" s="8"/>
       <c r="AT60" s="8"/>
@@ -16333,7 +16330,7 @@
         <v>276</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>468</v>
@@ -16381,7 +16378,7 @@
         <v>493</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" si="3"/>
@@ -16468,7 +16465,7 @@
         <v>11am-2pm</v>
       </c>
       <c r="AR61" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AS61" t="s">
         <v>480</v>
@@ -16540,15 +16537,15 @@
         <v>185</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -16672,7 +16669,7 @@
         <v/>
       </c>
       <c r="AR62" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AS62" s="17"/>
       <c r="AT62" s="17"/>
@@ -16741,16 +16738,16 @@
     </row>
     <row r="63" spans="2:64" ht="165">
       <c r="B63" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C63" t="s">
         <v>308</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H63">
         <v>1500</v>
@@ -16795,7 +16792,7 @@
         <v>1800</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="W63" s="17">
         <f t="shared" si="3"/>
@@ -16882,7 +16879,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR63" s="17" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AV63" s="4" t="s">
         <v>29</v>
@@ -16948,16 +16945,16 @@
     </row>
     <row r="64" spans="2:64" ht="165">
       <c r="B64" t="s">
+        <v>924</v>
+      </c>
+      <c r="C64" t="s">
+        <v>901</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>925</v>
-      </c>
-      <c r="C64" t="s">
-        <v>902</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>926</v>
       </c>
       <c r="J64">
         <v>1500</v>
@@ -16990,7 +16987,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W64" s="17" t="str">
         <f t="shared" si="3"/>
@@ -17077,7 +17074,7 @@
         <v/>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AV64" s="4" t="s">
         <v>29</v>
@@ -17146,15 +17143,15 @@
         <v>79</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>483</v>
@@ -17286,7 +17283,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR65" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AS65" s="8"/>
       <c r="AT65" s="8"/>
@@ -17366,11 +17363,11 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -17490,7 +17487,7 @@
         <v/>
       </c>
       <c r="AR66" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AS66" s="8"/>
       <c r="AT66" s="8"/>
@@ -17562,10 +17559,10 @@
         <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>281</v>
@@ -17655,7 +17652,7 @@
         <v/>
       </c>
       <c r="AR67" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AS67" t="s">
         <v>480</v>
@@ -17733,10 +17730,10 @@
         <v>315</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J68" t="s">
         <v>490</v>
@@ -17856,7 +17853,7 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AV68" s="4" t="s">
         <v>29</v>
@@ -17925,10 +17922,10 @@
         <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>470</v>
@@ -18018,7 +18015,7 @@
         <v/>
       </c>
       <c r="AR69" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AS69" t="s">
         <v>480</v>
@@ -18093,10 +18090,10 @@
         <v>276</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J70" t="s">
         <v>483</v>
@@ -18216,7 +18213,7 @@
         <v/>
       </c>
       <c r="AR70" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AV70" s="4" t="s">
         <v>29</v>
@@ -18285,13 +18282,13 @@
         <v>188</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J71" s="17" t="s">
         <v>490</v>
@@ -18411,7 +18408,7 @@
         <v/>
       </c>
       <c r="AR71" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AV71" s="17" t="s">
         <v>29</v>
@@ -18482,10 +18479,10 @@
         <v>275</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J72" t="s">
         <v>487</v>
@@ -18605,7 +18602,7 @@
         <v/>
       </c>
       <c r="AR72" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AV72" s="4" t="s">
         <v>29</v>
@@ -18677,10 +18674,10 @@
         <v>315</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J73" t="s">
         <v>490</v>
@@ -18800,7 +18797,7 @@
         <v/>
       </c>
       <c r="AR73" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AV73" s="17" t="s">
         <v>29</v>
@@ -18869,10 +18866,10 @@
         <v>258</v>
       </c>
       <c r="C74" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>288</v>
@@ -18920,7 +18917,7 @@
         <v>484</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="W74" s="17">
         <f t="shared" si="35"/>
@@ -19007,7 +19004,7 @@
         <v>2.3pm-6.3pm</v>
       </c>
       <c r="AR74" s="17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AS74" t="s">
         <v>480</v>
@@ -19086,11 +19083,11 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>483</v>
@@ -19222,7 +19219,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR75" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AS75" s="8" t="s">
         <v>480</v>
@@ -19299,10 +19296,10 @@
         <v>313</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J76" t="s">
         <v>483</v>
@@ -19422,7 +19419,7 @@
         <v/>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AV76" s="4" t="s">
         <v>29</v>
@@ -19491,13 +19488,13 @@
         <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H77" t="s">
         <v>483</v>
@@ -19629,7 +19626,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR77" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AV77" s="17" t="s">
         <v>29</v>
@@ -19698,31 +19695,31 @@
         <v>243</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R78" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V78" s="8"/>
       <c r="W78" s="17">
@@ -19881,15 +19878,15 @@
         <v>82</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -20013,7 +20010,7 @@
         <v/>
       </c>
       <c r="AR79" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AS79" s="8"/>
       <c r="AT79" s="8"/>
@@ -20088,10 +20085,10 @@
         <v>313</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H80" t="s">
         <v>490</v>
@@ -20223,7 +20220,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR80" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AS80" t="s">
         <v>480</v>
@@ -20292,16 +20289,16 @@
     </row>
     <row r="81" spans="2:64" ht="150">
       <c r="B81" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C81" t="s">
         <v>416</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J81">
         <v>1500</v>
@@ -20334,7 +20331,7 @@
         <v>1800</v>
       </c>
       <c r="V81" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="W81" s="17" t="str">
         <f t="shared" si="35"/>
@@ -20421,7 +20418,7 @@
         <v/>
       </c>
       <c r="AR81" s="17" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AV81" s="4" t="s">
         <v>29</v>
@@ -20490,13 +20487,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H82" t="s">
         <v>489</v>
@@ -20628,7 +20625,7 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR82" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AV82" s="4" t="s">
         <v>29</v>
@@ -20694,16 +20691,16 @@
     </row>
     <row r="83" spans="2:64" ht="180">
       <c r="B83" t="s">
+        <v>943</v>
+      </c>
+      <c r="C83" t="s">
+        <v>903</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>944</v>
-      </c>
-      <c r="C83" t="s">
-        <v>904</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>945</v>
       </c>
       <c r="H83">
         <v>1000</v>
@@ -20748,7 +20745,7 @@
         <v>2400</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W83" s="17">
         <f t="shared" si="35"/>
@@ -20835,7 +20832,7 @@
         <v>10am-12am</v>
       </c>
       <c r="AR83" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AV83" s="4" t="s">
         <v>29</v>
@@ -20907,10 +20904,10 @@
         <v>315</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H84" t="s">
         <v>483</v>
@@ -21042,7 +21039,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR84" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AV84" s="17" t="s">
         <v>29</v>
@@ -21111,10 +21108,10 @@
         <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>304</v>
@@ -21128,7 +21125,7 @@
       <c r="R85" s="17"/>
       <c r="S85" s="17"/>
       <c r="V85" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W85" s="17" t="str">
         <f t="shared" si="35"/>
@@ -21215,7 +21212,7 @@
         <v/>
       </c>
       <c r="AR85" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AS85" t="s">
         <v>480</v>
@@ -21290,15 +21287,15 @@
         <v>86</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>490</v>
@@ -21430,7 +21427,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR86" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AS86" s="8"/>
       <c r="AT86" s="8"/>
@@ -21505,7 +21502,7 @@
         <v>276</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>293</v>
@@ -21595,7 +21592,7 @@
         <v/>
       </c>
       <c r="AR87" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AS87" t="s">
         <v>480</v>
@@ -21667,13 +21664,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H88" t="s">
         <v>483</v>
@@ -21805,7 +21802,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR88" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AS88" t="s">
         <v>480</v>
@@ -21874,16 +21871,16 @@
     </row>
     <row r="89" spans="2:64" ht="120">
       <c r="B89" t="s">
+        <v>974</v>
+      </c>
+      <c r="C89" t="s">
+        <v>902</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G89" s="16" t="s">
         <v>975</v>
-      </c>
-      <c r="C89" t="s">
-        <v>903</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>976</v>
       </c>
       <c r="W89" s="17" t="str">
         <f t="shared" si="35"/>
@@ -21970,7 +21967,7 @@
         <v/>
       </c>
       <c r="AR89" s="17" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AV89" s="4" t="s">
         <v>30</v>
@@ -22036,16 +22033,16 @@
     </row>
     <row r="90" spans="2:64" ht="120">
       <c r="B90" t="s">
+        <v>934</v>
+      </c>
+      <c r="C90" t="s">
+        <v>901</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>935</v>
-      </c>
-      <c r="C90" t="s">
-        <v>902</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>936</v>
       </c>
       <c r="W90" s="17" t="str">
         <f t="shared" si="35"/>
@@ -22132,7 +22129,7 @@
         <v/>
       </c>
       <c r="AR90" s="22" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AV90" s="4" t="s">
         <v>30</v>
@@ -22201,13 +22198,13 @@
         <v>88</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H91" s="17" t="s">
         <v>490</v>
@@ -22339,7 +22336,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR91" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AS91" s="17" t="s">
         <v>480</v>
@@ -22416,10 +22413,10 @@
         <v>313</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L92" t="s">
         <v>483</v>
@@ -22533,7 +22530,7 @@
         <v/>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AV92" s="4" t="s">
         <v>29</v>
@@ -22605,10 +22602,10 @@
         <v>315</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H93" t="s">
         <v>483</v>
@@ -22740,7 +22737,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR93" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AV93" s="4" t="s">
         <v>29</v>
@@ -22809,13 +22806,13 @@
         <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J94" t="s">
         <v>483</v>
@@ -22935,7 +22932,7 @@
         <v/>
       </c>
       <c r="AR94" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AV94" s="17" t="s">
         <v>29</v>
@@ -23007,10 +23004,10 @@
         <v>275</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W95" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23097,7 +23094,7 @@
         <v/>
       </c>
       <c r="AR95" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AV95" s="4" t="s">
         <v>30</v>
@@ -23166,11 +23163,11 @@
         <v>254</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="17" t="s">
@@ -23219,7 +23216,7 @@
         <v>486</v>
       </c>
       <c r="V96" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="W96" s="17">
         <f t="shared" si="35"/>
@@ -23306,7 +23303,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR96" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AS96" s="17" t="s">
         <v>480</v>
@@ -23383,10 +23380,10 @@
         <v>338</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V97" s="17"/>
       <c r="W97" s="17" t="str">
@@ -23474,7 +23471,7 @@
         <v/>
       </c>
       <c r="AR97" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AV97" s="17" t="s">
         <v>30</v>
@@ -23540,16 +23537,16 @@
     </row>
     <row r="98" spans="2:64" ht="135">
       <c r="B98" t="s">
+        <v>963</v>
+      </c>
+      <c r="C98" t="s">
+        <v>897</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G98" s="16" t="s">
         <v>964</v>
-      </c>
-      <c r="C98" t="s">
-        <v>898</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>965</v>
       </c>
       <c r="J98">
         <v>1500</v>
@@ -23582,7 +23579,7 @@
         <v>1800</v>
       </c>
       <c r="V98" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="W98" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23669,7 +23666,7 @@
         <v/>
       </c>
       <c r="AR98" s="17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AV98" s="4" t="s">
         <v>29</v>
@@ -23738,13 +23735,13 @@
         <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H99" t="s">
         <v>483</v>
@@ -23876,7 +23873,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR99" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AV99" s="4" t="s">
         <v>29</v>
@@ -23945,13 +23942,13 @@
         <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H100" t="s">
         <v>490</v>
@@ -24080,7 +24077,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR100" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AV100" s="4" t="s">
         <v>29</v>
@@ -24146,16 +24143,16 @@
     </row>
     <row r="101" spans="2:64" ht="150">
       <c r="B101" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C101" t="s">
+        <v>899</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>1003</v>
-      </c>
-      <c r="C101" t="s">
-        <v>900</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>1004</v>
       </c>
       <c r="H101">
         <v>1500</v>
@@ -24200,7 +24197,7 @@
         <v>1900</v>
       </c>
       <c r="V101" s="23" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="W101" s="17">
         <f t="shared" si="35"/>
@@ -24287,7 +24284,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR101" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AV101" s="4" t="s">
         <v>29</v>
@@ -24356,13 +24353,13 @@
         <v>194</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J102" t="s">
         <v>483</v>
@@ -24482,7 +24479,7 @@
         <v/>
       </c>
       <c r="AR102" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AV102" s="4" t="s">
         <v>29</v>
@@ -24551,34 +24548,34 @@
         <v>239</v>
       </c>
       <c r="C103" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M103" s="17" t="s">
         <v>485</v>
       </c>
       <c r="N103" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O103" s="17" t="s">
         <v>485</v>
       </c>
       <c r="P103" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q103" s="17" t="s">
         <v>485</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S103" s="17" t="s">
         <v>485</v>
@@ -24670,7 +24667,7 @@
         <v/>
       </c>
       <c r="AR103" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AV103" s="17" t="s">
         <v>30</v>
@@ -24742,10 +24739,10 @@
         <v>313</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J104" t="s">
         <v>483</v>
@@ -24865,7 +24862,7 @@
         <v/>
       </c>
       <c r="AR104" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AU104" s="4"/>
       <c r="AV104" s="4" t="s">
@@ -24939,11 +24936,11 @@
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
@@ -25067,7 +25064,7 @@
         <v/>
       </c>
       <c r="AR105" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AS105" s="17"/>
       <c r="AT105" s="17"/>
@@ -25139,13 +25136,13 @@
         <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J106" t="s">
         <v>483</v>
@@ -25265,7 +25262,7 @@
         <v/>
       </c>
       <c r="AR106" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AS106" t="s">
         <v>480</v>
@@ -25337,13 +25334,13 @@
         <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H107" t="s">
         <v>490</v>
@@ -25475,7 +25472,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AS107" t="s">
         <v>480</v>
@@ -25550,7 +25547,7 @@
         <v>275</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>280</v>
@@ -25586,7 +25583,7 @@
         <v>486</v>
       </c>
       <c r="V108" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="W108" s="17" t="str">
         <f t="shared" si="35"/>
@@ -25748,10 +25745,10 @@
         <v>315</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J109" t="s">
         <v>483</v>
@@ -25871,7 +25868,7 @@
         <v/>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AS109" t="s">
         <v>480</v>
@@ -25946,15 +25943,15 @@
         <v>197</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
@@ -26078,7 +26075,7 @@
         <v/>
       </c>
       <c r="AR110" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AS110" s="17"/>
       <c r="AT110" s="17"/>
@@ -26153,10 +26150,10 @@
         <v>275</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H111" t="s">
         <v>483</v>
@@ -26288,7 +26285,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR111" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AV111" s="4" t="s">
         <v>29</v>
@@ -26354,18 +26351,18 @@
     </row>
     <row r="112" spans="2:64" ht="19.5" customHeight="1">
       <c r="B112" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
@@ -26466,7 +26463,7 @@
         <v/>
       </c>
       <c r="AR112" s="17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AS112" s="17"/>
       <c r="AT112" s="17"/>
@@ -26538,13 +26535,13 @@
         <v>98</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H113" s="17" t="s">
         <v>483</v>
@@ -26676,7 +26673,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR113" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AV113" s="17" t="s">
         <v>29</v>
@@ -26747,10 +26744,10 @@
         <v>315</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J114" t="s">
         <v>483</v>
@@ -26870,7 +26867,7 @@
         <v/>
       </c>
       <c r="AR114" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AV114" s="17" t="s">
         <v>29</v>
@@ -26942,10 +26939,10 @@
         <v>338</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H115" t="s">
         <v>483</v>
@@ -27077,7 +27074,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR115" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AS115" t="s">
         <v>480</v>
@@ -27146,16 +27143,16 @@
     </row>
     <row r="116" spans="2:64" ht="120">
       <c r="B116" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C116" t="s">
         <v>276</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="W116" s="17" t="str">
         <f t="shared" si="35"/>
@@ -27242,7 +27239,7 @@
         <v/>
       </c>
       <c r="AR116" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AV116" s="4" t="s">
         <v>30</v>
@@ -27311,13 +27308,13 @@
         <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H117" t="s">
         <v>490</v>
@@ -27449,7 +27446,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR117" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AV117" s="4" t="s">
         <v>29</v>
@@ -27521,10 +27518,10 @@
         <v>275</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J118" t="s">
         <v>483</v>
@@ -27644,7 +27641,7 @@
         <v/>
       </c>
       <c r="AR118" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AV118" s="4" t="s">
         <v>29</v>
@@ -27713,13 +27710,13 @@
         <v>103</v>
       </c>
       <c r="C119" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H119" t="s">
         <v>483</v>
@@ -27851,7 +27848,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR119" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AT119" t="s">
         <v>481</v>
@@ -27923,13 +27920,13 @@
         <v>240</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L120" s="17" t="s">
         <v>485</v>
@@ -28049,7 +28046,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR120" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AS120" s="17" t="s">
         <v>480</v>
@@ -28123,10 +28120,10 @@
         <v>315</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V121" s="8">
         <v>0</v>
@@ -28216,7 +28213,7 @@
         <v/>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AV121" s="4" t="s">
         <v>30</v>
@@ -28288,11 +28285,11 @@
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>490</v>
@@ -28424,7 +28421,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR122" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AS122" s="8" t="s">
         <v>480</v>
@@ -28497,15 +28494,15 @@
         <v>106</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>490</v>
@@ -28637,7 +28634,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR123" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AS123" s="8"/>
       <c r="AT123" s="8"/>
@@ -28713,11 +28710,11 @@
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>490</v>
@@ -28849,7 +28846,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR124" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AS124" s="8"/>
       <c r="AT124" s="8"/>
@@ -28921,15 +28918,15 @@
         <v>108</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>483</v>
@@ -29061,7 +29058,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR125" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AS125" s="8"/>
       <c r="AT125" s="8"/>
@@ -29136,10 +29133,10 @@
         <v>313</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J126" t="s">
         <v>483</v>
@@ -29241,7 +29238,7 @@
         <v/>
       </c>
       <c r="AR126" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AV126" s="4" t="s">
         <v>29</v>
@@ -29310,15 +29307,15 @@
         <v>109</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -29442,7 +29439,7 @@
         <v/>
       </c>
       <c r="AR127" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AS127" s="8"/>
       <c r="AT127" s="8"/>
@@ -29517,11 +29514,11 @@
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>490</v>
@@ -29653,7 +29650,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR128" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AS128" s="8"/>
       <c r="AT128" s="8"/>
@@ -29722,18 +29719,18 @@
     </row>
     <row r="129" spans="2:64" ht="165">
       <c r="B129" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -29774,7 +29771,7 @@
         <v>1900</v>
       </c>
       <c r="V129" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="W129" s="17" t="str">
         <f t="shared" ref="W129:W192" si="67">IF(H129&gt;0,H129/100,"")</f>
@@ -29861,7 +29858,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR129" s="17" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AS129" s="17"/>
       <c r="AT129" s="17"/>
@@ -29934,16 +29931,16 @@
     </row>
     <row r="130" spans="2:64" ht="409.5">
       <c r="B130" t="s">
+        <v>908</v>
+      </c>
+      <c r="C130" t="s">
+        <v>901</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G130" s="16" t="s">
         <v>909</v>
-      </c>
-      <c r="C130" t="s">
-        <v>902</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>910</v>
       </c>
       <c r="H130">
         <v>2100</v>
@@ -29982,7 +29979,7 @@
         <v>1800</v>
       </c>
       <c r="V130" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W130" s="17">
         <f t="shared" si="67"/>
@@ -30069,7 +30066,7 @@
         <v/>
       </c>
       <c r="AR130" s="21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV130" s="4" t="s">
         <v>29</v>
@@ -30135,16 +30132,16 @@
     </row>
     <row r="131" spans="2:64" s="17" customFormat="1" ht="150">
       <c r="B131" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G131" s="16" t="s">
         <v>929</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>930</v>
       </c>
       <c r="H131" s="17">
         <v>1400</v>
@@ -30189,7 +30186,7 @@
         <v>1830</v>
       </c>
       <c r="V131" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="W131" s="17">
         <f t="shared" si="67"/>
@@ -30276,7 +30273,7 @@
         <v>2pm-6.3pm</v>
       </c>
       <c r="AR131" s="21" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AV131" s="4" t="s">
         <v>29</v>
@@ -30347,11 +30344,11 @@
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>483</v>
@@ -30483,7 +30480,7 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR132" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AS132" s="8"/>
       <c r="AT132" s="8"/>
@@ -30558,10 +30555,10 @@
         <v>313</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J133" t="s">
         <v>490</v>
@@ -30679,7 +30676,7 @@
         <v/>
       </c>
       <c r="AR133" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AV133" s="17" t="s">
         <v>30</v>
@@ -30748,13 +30745,13 @@
         <v>200</v>
       </c>
       <c r="C134" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J134" t="s">
         <v>483</v>
@@ -30874,7 +30871,7 @@
         <v/>
       </c>
       <c r="AR134" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AS134" t="s">
         <v>480</v>
@@ -30946,15 +30943,15 @@
         <v>112</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>483</v>
@@ -30995,7 +30992,7 @@
         <v>484</v>
       </c>
       <c r="V135" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W135" s="17">
         <f t="shared" si="67"/>
@@ -31082,7 +31079,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR135" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AS135" s="8"/>
       <c r="AT135" s="8"/>
@@ -31154,15 +31151,15 @@
         <v>201</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -31286,7 +31283,7 @@
         <v/>
       </c>
       <c r="AR136" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AS136" s="17" t="s">
         <v>480</v>
@@ -31364,11 +31361,11 @@
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -31492,7 +31489,7 @@
         <v/>
       </c>
       <c r="AR137" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AS137" s="8" t="s">
         <v>480</v>
@@ -31566,15 +31563,15 @@
         <v>114</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -31698,7 +31695,7 @@
         <v/>
       </c>
       <c r="AR138" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AS138" s="8"/>
       <c r="AT138" s="8"/>
@@ -31774,11 +31771,11 @@
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -31902,7 +31899,7 @@
         <v/>
       </c>
       <c r="AR139" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AS139" s="8"/>
       <c r="AT139" s="8"/>
@@ -31974,15 +31971,15 @@
         <v>116</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>492</v>
@@ -32110,7 +32107,7 @@
         <v>2.3pm-5pm</v>
       </c>
       <c r="AR140" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AS140" s="8"/>
       <c r="AT140" s="8"/>
@@ -32182,13 +32179,13 @@
         <v>202</v>
       </c>
       <c r="C141" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J141" t="s">
         <v>485</v>
@@ -32308,7 +32305,7 @@
         <v/>
       </c>
       <c r="AR141" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AS141" t="s">
         <v>480</v>
@@ -32380,15 +32377,15 @@
         <v>203</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
@@ -32512,7 +32509,7 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS142" s="17"/>
       <c r="AT142" s="17"/>
@@ -32584,15 +32581,15 @@
         <v>117</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H143" s="17" t="s">
         <v>492</v>
@@ -32724,7 +32721,7 @@
         <v>10.3am-5pm</v>
       </c>
       <c r="AR143" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AS143" s="17"/>
       <c r="AT143" s="17"/>
@@ -32793,18 +32790,18 @@
     </row>
     <row r="144" spans="2:64" ht="135">
       <c r="B144" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
@@ -32841,7 +32838,7 @@
       <c r="T144" s="17"/>
       <c r="U144" s="17"/>
       <c r="V144" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W144" s="17" t="str">
         <f t="shared" si="67"/>
@@ -32928,7 +32925,7 @@
         <v/>
       </c>
       <c r="AR144" s="17" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AS144" s="17"/>
       <c r="AT144" s="17"/>
@@ -33000,15 +32997,15 @@
         <v>118</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -33132,7 +33129,7 @@
         <v/>
       </c>
       <c r="AR145" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AS145" s="8" t="s">
         <v>480</v>
@@ -33210,11 +33207,11 @@
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H146" s="17" t="s">
         <v>490</v>
@@ -33346,7 +33343,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AS146" s="17"/>
       <c r="AT146" s="17"/>
@@ -33418,15 +33415,15 @@
         <v>204</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
@@ -33463,7 +33460,7 @@
       <c r="T147" s="17"/>
       <c r="U147" s="17"/>
       <c r="V147" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="W147" s="17" t="str">
         <f t="shared" si="67"/>
@@ -33550,7 +33547,7 @@
         <v/>
       </c>
       <c r="AR147" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AS147" s="17"/>
       <c r="AT147" s="17"/>
@@ -33626,11 +33623,11 @@
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
@@ -33667,7 +33664,7 @@
       <c r="T148" s="17"/>
       <c r="U148" s="17"/>
       <c r="V148" s="17" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="W148" s="17" t="str">
         <f t="shared" si="67"/>
@@ -33754,7 +33751,7 @@
         <v/>
       </c>
       <c r="AR148" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AS148" s="17"/>
       <c r="AT148" s="17"/>
@@ -33830,11 +33827,11 @@
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H149" s="17" t="s">
         <v>483</v>
@@ -33854,8 +33851,8 @@
       <c r="M149" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="N149" s="17" t="s">
-        <v>499</v>
+      <c r="N149" s="17">
+        <v>1500</v>
       </c>
       <c r="O149" s="17" t="s">
         <v>485</v>
@@ -33907,7 +33904,7 @@
       </c>
       <c r="AC149" s="17">
         <f t="shared" si="73"/>
-        <v>5.3</v>
+        <v>15</v>
       </c>
       <c r="AD149" s="17">
         <f t="shared" si="74"/>
@@ -33951,7 +33948,7 @@
       </c>
       <c r="AN149" s="17" t="str">
         <f t="shared" si="84"/>
-        <v>5.3am-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO149" s="17" t="str">
         <f t="shared" si="85"/>
@@ -33966,7 +33963,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AS149" s="17"/>
       <c r="AT149" s="17"/>
@@ -33982,7 +33979,7 @@
         <v>{
     'name': "Marco's Coal-Fired Pizzeria - Ballpark",
     'area': "Ballpark",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"0530", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 select drafts, $4 house wines and $5 house Mules and Mojitos; $5 small plate menu", 'link':"http://www.marcoscfp.com/", 'pricing':"med",   'phone-number': "", 'address': "2129 Larimer St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 select drafts, $4 house wines and $5 house Mules and Mojitos; $5 small plate menu", 'link':"http://www.marcoscfp.com/", 'pricing':"med",   'phone-number': "", 'address': "2129 Larimer St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY149" s="17" t="str">
         <f t="shared" si="89"/>
@@ -34038,15 +34035,15 @@
         <v>121</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H150" s="17" t="s">
         <v>483</v>
@@ -34178,7 +34175,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AS150" s="17"/>
       <c r="AT150" s="17"/>
@@ -34250,15 +34247,15 @@
         <v>122</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H151" s="17" t="s">
         <v>483</v>
@@ -34390,7 +34387,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR151" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AS151" s="17"/>
       <c r="AT151" s="17"/>
@@ -34466,11 +34463,11 @@
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H152" s="17" t="s">
         <v>483</v>
@@ -34602,7 +34599,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR152" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AS152" s="17"/>
       <c r="AT152" s="17"/>
@@ -34678,11 +34675,11 @@
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H153" s="17" t="s">
         <v>483</v>
@@ -34814,7 +34811,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR153" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AS153" s="17"/>
       <c r="AT153" s="17"/>
@@ -34890,11 +34887,11 @@
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
@@ -35018,7 +35015,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR154" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AS154" s="17"/>
       <c r="AT154" s="17"/>
@@ -35094,11 +35091,11 @@
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
@@ -35222,7 +35219,7 @@
         <v/>
       </c>
       <c r="AR155" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AS155" s="17"/>
       <c r="AT155" s="17"/>
@@ -35294,11 +35291,11 @@
         <v>267</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="17" t="s">
@@ -35347,7 +35344,7 @@
         <v>497</v>
       </c>
       <c r="V156" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W156" s="17">
         <f t="shared" si="67"/>
@@ -35434,7 +35431,7 @@
         <v>4pm-8pm</v>
       </c>
       <c r="AR156" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AS156" s="17" t="s">
         <v>480</v>
@@ -35508,15 +35505,15 @@
         <v>126</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>483</v>
@@ -35648,7 +35645,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR157" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS157" s="17"/>
       <c r="AT157" s="17"/>
@@ -35723,10 +35720,10 @@
         <v>315</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J158" t="s">
         <v>489</v>
@@ -35846,7 +35843,7 @@
         <v/>
       </c>
       <c r="AR158" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AV158" s="4" t="s">
         <v>29</v>
@@ -35915,13 +35912,13 @@
         <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H159" t="s">
         <v>483</v>
@@ -36053,7 +36050,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR159" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AV159" t="s">
         <v>29</v>
@@ -36125,37 +36122,37 @@
         <v>276</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K160" t="s">
         <v>485</v>
       </c>
       <c r="L160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M160" t="s">
         <v>485</v>
       </c>
       <c r="N160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O160" t="s">
         <v>485</v>
       </c>
       <c r="P160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q160" t="s">
         <v>485</v>
       </c>
       <c r="R160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S160" t="s">
         <v>485</v>
@@ -36248,7 +36245,7 @@
         <v/>
       </c>
       <c r="AR160" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AV160" s="4" t="s">
         <v>29</v>
@@ -36320,10 +36317,10 @@
         <v>315</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H161" t="s">
         <v>490</v>
@@ -36455,7 +36452,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR161" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AV161" s="4" t="s">
         <v>29</v>
@@ -36524,46 +36521,46 @@
         <v>268</v>
       </c>
       <c r="C162" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G162" s="17" t="s">
         <v>297</v>
       </c>
       <c r="J162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K162" t="s">
         <v>484</v>
       </c>
       <c r="L162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M162" t="s">
         <v>484</v>
       </c>
       <c r="N162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O162" t="s">
         <v>484</v>
       </c>
       <c r="P162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q162" t="s">
         <v>484</v>
       </c>
       <c r="R162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S162" t="s">
         <v>484</v>
       </c>
       <c r="V162" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W162" s="17" t="str">
         <f t="shared" si="67"/>
@@ -36650,7 +36647,7 @@
         <v/>
       </c>
       <c r="AR162" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AS162" t="s">
         <v>480</v>
@@ -36719,16 +36716,16 @@
     </row>
     <row r="163" spans="2:64" ht="409.5">
       <c r="B163" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C163" t="s">
+        <v>903</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G163" s="20" t="s">
         <v>942</v>
-      </c>
-      <c r="C163" t="s">
-        <v>904</v>
-      </c>
-      <c r="E163" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G163" s="20" t="s">
-        <v>943</v>
       </c>
       <c r="L163">
         <v>1700</v>
@@ -36755,7 +36752,7 @@
         <v>1900</v>
       </c>
       <c r="V163" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="W163" s="17" t="str">
         <f t="shared" si="67"/>
@@ -36842,7 +36839,7 @@
         <v/>
       </c>
       <c r="AR163" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AV163" s="4" t="s">
         <v>29</v>
@@ -36908,16 +36905,16 @@
     </row>
     <row r="164" spans="2:64" ht="165">
       <c r="B164" t="s">
+        <v>949</v>
+      </c>
+      <c r="C164" t="s">
+        <v>898</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G164" s="16" t="s">
         <v>950</v>
-      </c>
-      <c r="C164" t="s">
-        <v>899</v>
-      </c>
-      <c r="E164" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>951</v>
       </c>
       <c r="H164">
         <v>1500</v>
@@ -36962,7 +36959,7 @@
         <v>1800</v>
       </c>
       <c r="V164" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="W164" s="17">
         <f t="shared" si="67"/>
@@ -37049,7 +37046,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR164" s="21" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AV164" s="4" t="s">
         <v>29</v>
@@ -37121,10 +37118,10 @@
         <v>313</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H165" t="s">
         <v>483</v>
@@ -37256,7 +37253,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR165" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AV165" s="4" t="s">
         <v>29</v>
@@ -37325,25 +37322,25 @@
         <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L166" t="s">
         <v>486</v>
       </c>
       <c r="M166" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N166" t="s">
         <v>486</v>
       </c>
       <c r="O166" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P166" t="s">
         <v>486</v>
@@ -37451,7 +37448,7 @@
         <v>7pm-9pm</v>
       </c>
       <c r="AR166" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AV166" t="s">
         <v>29</v>
@@ -37520,10 +37517,10 @@
         <v>273</v>
       </c>
       <c r="C167" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>302</v>
@@ -37703,16 +37700,16 @@
     </row>
     <row r="168" spans="2:64" ht="135">
       <c r="B168" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C168" s="17" t="s">
         <v>416</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H168">
         <v>1500</v>
@@ -37844,7 +37841,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR168" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AV168" s="4" t="s">
         <v>29</v>
@@ -37910,16 +37907,16 @@
     </row>
     <row r="169" spans="2:64" ht="120">
       <c r="B169" t="s">
+        <v>955</v>
+      </c>
+      <c r="C169" t="s">
+        <v>898</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G169" s="16" t="s">
         <v>956</v>
-      </c>
-      <c r="C169" t="s">
-        <v>899</v>
-      </c>
-      <c r="E169" s="17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>957</v>
       </c>
       <c r="W169" s="17" t="str">
         <f t="shared" si="67"/>
@@ -38072,46 +38069,46 @@
         <v>209</v>
       </c>
       <c r="C170" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K170" t="s">
         <v>485</v>
       </c>
       <c r="L170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M170" t="s">
         <v>485</v>
       </c>
       <c r="N170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O170" t="s">
         <v>485</v>
       </c>
       <c r="P170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q170" t="s">
         <v>485</v>
       </c>
       <c r="R170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S170" t="s">
         <v>485</v>
       </c>
       <c r="T170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U170" t="s">
         <v>485</v>
@@ -38204,7 +38201,7 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR170" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AV170" s="4" t="s">
         <v>29</v>
@@ -38270,16 +38267,16 @@
     </row>
     <row r="171" spans="2:64" ht="409.5">
       <c r="B171" t="s">
+        <v>936</v>
+      </c>
+      <c r="C171" t="s">
+        <v>903</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G171" s="20" t="s">
         <v>937</v>
-      </c>
-      <c r="C171" t="s">
-        <v>904</v>
-      </c>
-      <c r="E171" s="17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G171" s="20" t="s">
-        <v>938</v>
       </c>
       <c r="H171">
         <v>1400</v>
@@ -38324,7 +38321,7 @@
         <v>1800</v>
       </c>
       <c r="V171" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="W171" s="17">
         <f t="shared" si="67"/>
@@ -38411,7 +38408,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR171" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AV171" s="4" t="s">
         <v>29</v>
@@ -38480,13 +38477,13 @@
         <v>210</v>
       </c>
       <c r="C172" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J172" t="s">
         <v>483</v>
@@ -38606,7 +38603,7 @@
         <v/>
       </c>
       <c r="AR172" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AV172" t="s">
         <v>29</v>
@@ -38678,10 +38675,10 @@
         <v>351</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J173" t="s">
         <v>483</v>
@@ -38801,7 +38798,7 @@
         <v/>
       </c>
       <c r="AR173" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AV173" s="4" t="s">
         <v>29</v>
@@ -38870,13 +38867,13 @@
         <v>212</v>
       </c>
       <c r="C174" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J174" t="s">
         <v>483</v>
@@ -38996,7 +38993,7 @@
         <v/>
       </c>
       <c r="AR174" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AV174" t="s">
         <v>29</v>
@@ -39068,10 +39065,10 @@
         <v>351</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J175" t="s">
         <v>490</v>
@@ -39191,7 +39188,7 @@
         <v/>
       </c>
       <c r="AR175" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AV175" t="s">
         <v>29</v>
@@ -39263,10 +39260,10 @@
         <v>338</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J176" t="s">
         <v>493</v>
@@ -39386,7 +39383,7 @@
         <v/>
       </c>
       <c r="AR176" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AV176" t="s">
         <v>29</v>
@@ -39458,10 +39455,10 @@
         <v>313</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J177" t="s">
         <v>483</v>
@@ -39581,7 +39578,7 @@
         <v/>
       </c>
       <c r="AR177" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AV177" s="4" t="s">
         <v>29</v>
@@ -39647,16 +39644,16 @@
     </row>
     <row r="178" spans="2:64" ht="180">
       <c r="B178" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C178" t="s">
         <v>308</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J178">
         <v>1400</v>
@@ -39689,7 +39686,7 @@
         <v>1800</v>
       </c>
       <c r="V178" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="W178" s="17" t="str">
         <f t="shared" si="67"/>
@@ -39776,7 +39773,7 @@
         <v/>
       </c>
       <c r="AR178" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AV178" s="4" t="s">
         <v>29</v>
@@ -39845,46 +39842,46 @@
         <v>131</v>
       </c>
       <c r="C179" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I179" t="s">
         <v>484</v>
       </c>
       <c r="J179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K179" t="s">
         <v>484</v>
       </c>
       <c r="N179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O179" t="s">
         <v>484</v>
       </c>
       <c r="P179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q179" t="s">
         <v>484</v>
       </c>
       <c r="R179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S179" t="s">
         <v>484</v>
       </c>
       <c r="T179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U179" t="s">
         <v>484</v>
@@ -39977,7 +39974,7 @@
         <v>4.3pm-6.3pm</v>
       </c>
       <c r="AR179" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AV179" s="4" t="s">
         <v>29</v>
@@ -40043,16 +40040,16 @@
     </row>
     <row r="180" spans="2:64" ht="135">
       <c r="B180" t="s">
+        <v>906</v>
+      </c>
+      <c r="C180" t="s">
+        <v>901</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G180" s="16" t="s">
         <v>907</v>
-      </c>
-      <c r="C180" t="s">
-        <v>902</v>
-      </c>
-      <c r="E180" s="17" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G180" s="16" t="s">
-        <v>908</v>
       </c>
       <c r="J180">
         <v>1500</v>
@@ -40169,7 +40166,7 @@
         <v/>
       </c>
       <c r="AR180" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AV180" s="4" t="s">
         <v>29</v>
@@ -40238,13 +40235,13 @@
         <v>132</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H181" t="s">
         <v>490</v>
@@ -40370,7 +40367,7 @@
         <v/>
       </c>
       <c r="AR181" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AV181" s="4" t="s">
         <v>29</v>
@@ -40442,10 +40439,10 @@
         <v>315</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H182" t="s">
         <v>483</v>
@@ -40577,7 +40574,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR182" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AV182" s="4" t="s">
         <v>29</v>
@@ -40649,7 +40646,7 @@
         <v>276</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G183" s="17" t="s">
         <v>277</v>
@@ -40838,13 +40835,13 @@
         <v>134</v>
       </c>
       <c r="C184" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W184" s="17" t="str">
         <f t="shared" si="67"/>
@@ -40931,7 +40928,7 @@
         <v/>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AS184" t="s">
         <v>480</v>
@@ -41006,10 +41003,10 @@
         <v>315</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J185" t="s">
         <v>493</v>
@@ -41042,7 +41039,7 @@
         <v>497</v>
       </c>
       <c r="V185" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W185" s="17" t="str">
         <f t="shared" si="67"/>
@@ -41129,7 +41126,7 @@
         <v/>
       </c>
       <c r="AR185" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AV185" t="s">
         <v>29</v>
@@ -41201,10 +41198,10 @@
         <v>308</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J186" t="s">
         <v>493</v>
@@ -41324,7 +41321,7 @@
         <v/>
       </c>
       <c r="AR186" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AV186" t="s">
         <v>29</v>
@@ -41393,10 +41390,10 @@
         <v>270</v>
       </c>
       <c r="C187" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G187" s="17" t="s">
         <v>299</v>
@@ -41558,28 +41555,28 @@
         <v>136</v>
       </c>
       <c r="C188" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K188" t="s">
         <v>486</v>
       </c>
       <c r="L188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M188" t="s">
         <v>486</v>
       </c>
       <c r="N188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O188" t="s">
         <v>486</v>
@@ -41684,7 +41681,7 @@
         <v/>
       </c>
       <c r="AR188" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AV188" s="4" t="s">
         <v>29</v>
@@ -41756,10 +41753,10 @@
         <v>315</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H189" t="s">
         <v>483</v>
@@ -41804,7 +41801,7 @@
         <v>486</v>
       </c>
       <c r="V189" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W189" s="17">
         <f t="shared" si="67"/>
@@ -41891,7 +41888,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR189" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AV189" s="4" t="s">
         <v>29</v>
@@ -41957,16 +41954,16 @@
     </row>
     <row r="190" spans="2:64" ht="210">
       <c r="B190" t="s">
+        <v>951</v>
+      </c>
+      <c r="C190" t="s">
+        <v>898</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G190" s="16" t="s">
         <v>952</v>
-      </c>
-      <c r="C190" t="s">
-        <v>899</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G190" s="16" t="s">
-        <v>953</v>
       </c>
       <c r="H190">
         <v>1500</v>
@@ -42011,7 +42008,7 @@
         <v>1800</v>
       </c>
       <c r="V190" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="W190" s="17">
         <f t="shared" si="67"/>
@@ -42098,7 +42095,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR190" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AV190" s="4" t="s">
         <v>29</v>
@@ -42170,10 +42167,10 @@
         <v>275</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H191" t="s">
         <v>483</v>
@@ -42305,7 +42302,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR191" s="18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AV191" t="s">
         <v>29</v>
@@ -42374,10 +42371,10 @@
         <v>260</v>
       </c>
       <c r="C192" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G192" s="17" t="s">
         <v>469</v>
@@ -42500,7 +42497,7 @@
         <v/>
       </c>
       <c r="AR192" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AS192" t="s">
         <v>480</v>
@@ -42572,16 +42569,16 @@
     </row>
     <row r="193" spans="2:64" ht="120">
       <c r="B193" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C193" t="s">
         <v>416</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="W193" s="17" t="str">
         <f t="shared" ref="W193:W256" si="99">IF(H193&gt;0,H193/100,"")</f>
@@ -42668,7 +42665,7 @@
         <v/>
       </c>
       <c r="AR193" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AV193" s="4" t="s">
         <v>30</v>
@@ -42744,7 +42741,7 @@
         <v>276</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G194" s="17" t="s">
         <v>298</v>
@@ -42834,7 +42831,7 @@
         <v/>
       </c>
       <c r="AR194" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AS194" t="s">
         <v>480</v>
@@ -42906,10 +42903,10 @@
         <v>251</v>
       </c>
       <c r="C195" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G195" s="17" t="s">
         <v>467</v>
@@ -42945,7 +42942,7 @@
         <v>486</v>
       </c>
       <c r="V195" s="12" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W195" s="17" t="str">
         <f t="shared" si="99"/>
@@ -43032,7 +43029,7 @@
         <v/>
       </c>
       <c r="AR195" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AS195" t="s">
         <v>480</v>
@@ -43108,10 +43105,10 @@
         <v>315</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H196" t="s">
         <v>487</v>
@@ -43237,7 +43234,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR196" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AV196" s="4" t="s">
         <v>29</v>
@@ -43309,16 +43306,16 @@
         <v>315</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H197" t="s">
         <v>489</v>
       </c>
       <c r="I197" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J197" t="s">
         <v>490</v>
@@ -43444,7 +43441,7 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR197" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AV197" t="s">
         <v>29</v>
@@ -43513,13 +43510,13 @@
         <v>216</v>
       </c>
       <c r="C198" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J198" t="s">
         <v>483</v>
@@ -43639,7 +43636,7 @@
         <v/>
       </c>
       <c r="AR198" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AV198" t="s">
         <v>29</v>
@@ -43711,10 +43708,10 @@
         <v>338</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H199" t="s">
         <v>490</v>
@@ -43846,7 +43843,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR199" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AV199" t="s">
         <v>29</v>
@@ -43912,16 +43909,16 @@
     </row>
     <row r="200" spans="2:64" ht="120">
       <c r="B200" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C200" t="s">
         <v>308</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="W200" s="17" t="str">
         <f t="shared" si="99"/>
@@ -44008,7 +44005,7 @@
         <v/>
       </c>
       <c r="AR200" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AV200" s="4" t="s">
         <v>30</v>
@@ -44080,10 +44077,10 @@
         <v>315</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H201" t="s">
         <v>483</v>
@@ -44209,7 +44206,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR201" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AV201" s="4" t="s">
         <v>29</v>
@@ -44281,10 +44278,10 @@
         <v>313</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H202" t="s">
         <v>483</v>
@@ -44416,7 +44413,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR202" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AV202" s="4" t="s">
         <v>29</v>
@@ -44485,13 +44482,13 @@
         <v>144</v>
       </c>
       <c r="C203" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H203" t="s">
         <v>490</v>
@@ -44623,7 +44620,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR203" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AV203" s="4" t="s">
         <v>29</v>
@@ -44695,7 +44692,7 @@
         <v>313</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G204" s="17" t="s">
         <v>300</v>
@@ -44857,13 +44854,13 @@
         <v>145</v>
       </c>
       <c r="C205" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J205" t="s">
         <v>490</v>
@@ -44983,7 +44980,7 @@
         <v/>
       </c>
       <c r="AR205" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AS205" t="s">
         <v>480</v>
@@ -45052,16 +45049,16 @@
     </row>
     <row r="206" spans="2:64" ht="165">
       <c r="B206" t="s">
+        <v>920</v>
+      </c>
+      <c r="C206" t="s">
+        <v>901</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G206" s="16" t="s">
         <v>921</v>
-      </c>
-      <c r="C206" t="s">
-        <v>902</v>
-      </c>
-      <c r="E206" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G206" s="16" t="s">
-        <v>922</v>
       </c>
       <c r="H206">
         <v>1500</v>
@@ -45106,7 +45103,7 @@
         <v>1800</v>
       </c>
       <c r="V206" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="W206" s="17">
         <f t="shared" si="99"/>
@@ -45193,7 +45190,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR206" s="21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AV206" s="4" t="s">
         <v>29</v>
@@ -45262,13 +45259,13 @@
         <v>217</v>
       </c>
       <c r="C207" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J207" t="s">
         <v>490</v>
@@ -45388,7 +45385,7 @@
         <v/>
       </c>
       <c r="AR207" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AV207" t="s">
         <v>29</v>
@@ -45454,16 +45451,16 @@
     </row>
     <row r="208" spans="2:64" ht="120">
       <c r="B208" t="s">
+        <v>996</v>
+      </c>
+      <c r="C208" t="s">
+        <v>899</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G208" s="16" t="s">
         <v>997</v>
-      </c>
-      <c r="C208" t="s">
-        <v>900</v>
-      </c>
-      <c r="E208" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G208" s="16" t="s">
-        <v>998</v>
       </c>
       <c r="W208" s="17" t="str">
         <f t="shared" si="99"/>
@@ -45550,7 +45547,7 @@
         <v/>
       </c>
       <c r="AR208" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AV208" s="4" t="s">
         <v>30</v>
@@ -45619,13 +45616,13 @@
         <v>218</v>
       </c>
       <c r="C209" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J209" t="s">
         <v>483</v>
@@ -45745,7 +45742,7 @@
         <v/>
       </c>
       <c r="AR209" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AS209" t="s">
         <v>480</v>
@@ -45817,16 +45814,16 @@
         <v>146</v>
       </c>
       <c r="C210" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H210" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I210" t="s">
         <v>485</v>
@@ -45856,7 +45853,7 @@
         <v>485</v>
       </c>
       <c r="T210" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U210" t="s">
         <v>485</v>
@@ -45949,7 +45946,7 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR210" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AV210" s="4" t="s">
         <v>29</v>
@@ -46015,16 +46012,16 @@
     </row>
     <row r="211" spans="2:64" ht="150">
       <c r="B211" t="s">
+        <v>970</v>
+      </c>
+      <c r="C211" t="s">
+        <v>902</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G211" s="16" t="s">
         <v>971</v>
-      </c>
-      <c r="C211" t="s">
-        <v>903</v>
-      </c>
-      <c r="E211" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G211" s="16" t="s">
-        <v>972</v>
       </c>
       <c r="H211">
         <v>1000</v>
@@ -46069,7 +46066,7 @@
         <v>1900</v>
       </c>
       <c r="V211" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="W211" s="17">
         <f t="shared" si="99"/>
@@ -46156,7 +46153,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR211" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AV211" s="4" t="s">
         <v>29</v>
@@ -46228,10 +46225,10 @@
         <v>351</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H212" t="s">
         <v>490</v>
@@ -46363,7 +46360,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR212" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV212" s="4" t="s">
         <v>29</v>
@@ -46429,16 +46426,16 @@
     </row>
     <row r="213" spans="2:64" ht="120">
       <c r="B213" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C213" t="s">
         <v>313</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="W213" s="17" t="str">
         <f t="shared" si="99"/>
@@ -46588,16 +46585,16 @@
     </row>
     <row r="214" spans="2:64" ht="150">
       <c r="B214" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C214" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H214" t="s">
         <v>483</v>
@@ -46729,7 +46726,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR214" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AV214" s="4" t="s">
         <v>29</v>
@@ -46801,10 +46798,10 @@
         <v>275</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J215" t="s">
         <v>490</v>
@@ -46924,7 +46921,7 @@
         <v/>
       </c>
       <c r="AR215" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AV215" t="s">
         <v>29</v>
@@ -46993,13 +46990,13 @@
         <v>220</v>
       </c>
       <c r="C216" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J216" t="s">
         <v>493</v>
@@ -47119,7 +47116,7 @@
         <v/>
       </c>
       <c r="AR216" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AV216" t="s">
         <v>29</v>
@@ -47191,37 +47188,37 @@
         <v>315</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K217" t="s">
         <v>485</v>
       </c>
       <c r="L217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M217" t="s">
         <v>485</v>
       </c>
       <c r="N217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O217" t="s">
         <v>485</v>
       </c>
       <c r="P217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q217" t="s">
         <v>485</v>
       </c>
       <c r="R217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S217" t="s">
         <v>485</v>
@@ -47314,7 +47311,7 @@
         <v/>
       </c>
       <c r="AR217" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AV217" t="s">
         <v>29</v>
@@ -47386,10 +47383,10 @@
         <v>315</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J218" t="s">
         <v>490</v>
@@ -47509,7 +47506,7 @@
         <v/>
       </c>
       <c r="AR218" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AV218" s="17" t="s">
         <v>29</v>
@@ -47581,10 +47578,10 @@
         <v>275</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H219" t="s">
         <v>483</v>
@@ -47716,7 +47713,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR219" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AV219" s="4" t="s">
         <v>29</v>
@@ -47787,7 +47784,7 @@
         <v>338</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G220" s="17" t="s">
         <v>294</v>
@@ -47885,7 +47882,7 @@
         <v/>
       </c>
       <c r="AR220" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS220" t="s">
         <v>480</v>
@@ -47959,7 +47956,7 @@
         <v>276</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>282</v>
@@ -48131,10 +48128,10 @@
         <v>308</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G222" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H222" t="s">
         <v>483</v>
@@ -48266,7 +48263,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR222" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AV222" s="4" t="s">
         <v>29</v>
@@ -48337,10 +48334,10 @@
         <v>315</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J223" t="s">
         <v>490</v>
@@ -48460,7 +48457,7 @@
         <v/>
       </c>
       <c r="AR223" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AV223" s="17" t="s">
         <v>29</v>
@@ -48528,13 +48525,13 @@
         <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J224" t="s">
         <v>483</v>
@@ -48654,7 +48651,7 @@
         <v/>
       </c>
       <c r="AR224" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AV224" s="17" t="s">
         <v>29</v>
@@ -48725,10 +48722,10 @@
         <v>313</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J225" s="17" t="s">
         <v>493</v>
@@ -48850,7 +48847,7 @@
         <v/>
       </c>
       <c r="AR225" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AV225" s="17" t="s">
         <v>29</v>
@@ -48921,10 +48918,10 @@
         <v>351</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H226">
         <v>1500</v>
@@ -48969,7 +48966,7 @@
         <v>1800</v>
       </c>
       <c r="V226" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W226" s="17">
         <f t="shared" si="99"/>
@@ -49056,7 +49053,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR226" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AV226" s="4" t="s">
         <v>29</v>
@@ -49124,13 +49121,13 @@
         <v>151</v>
       </c>
       <c r="C227" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H227" t="s">
         <v>483</v>
@@ -49258,7 +49255,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR227" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AV227" s="4" t="s">
         <v>29</v>
@@ -49326,13 +49323,13 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J228" t="s">
         <v>490</v>
@@ -49452,7 +49449,7 @@
         <v/>
       </c>
       <c r="AR228" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AV228" s="17" t="s">
         <v>29</v>
@@ -49520,13 +49517,13 @@
         <v>152</v>
       </c>
       <c r="C229" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H229" t="s">
         <v>493</v>
@@ -49658,7 +49655,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR229" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AS229" t="s">
         <v>480</v>
@@ -49726,16 +49723,16 @@
     </row>
     <row r="230" spans="2:64" ht="120">
       <c r="B230" t="s">
+        <v>961</v>
+      </c>
+      <c r="C230" t="s">
+        <v>897</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G230" s="16" t="s">
         <v>962</v>
-      </c>
-      <c r="C230" t="s">
-        <v>898</v>
-      </c>
-      <c r="E230" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G230" s="16" t="s">
-        <v>963</v>
       </c>
       <c r="N230" s="17"/>
       <c r="O230" s="17"/>
@@ -49830,7 +49827,7 @@
         <v/>
       </c>
       <c r="AR230" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AV230" s="4" t="s">
         <v>30</v>
@@ -49900,10 +49897,10 @@
         <v>338</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J231" s="17" t="s">
         <v>483</v>
@@ -50025,7 +50022,7 @@
         <v/>
       </c>
       <c r="AR231" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AV231" s="17" t="s">
         <v>29</v>
@@ -50093,13 +50090,13 @@
         <v>154</v>
       </c>
       <c r="C232" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J232" t="s">
         <v>483</v>
@@ -50219,7 +50216,7 @@
         <v/>
       </c>
       <c r="AR232" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AS232" t="s">
         <v>480</v>
@@ -50293,10 +50290,10 @@
         <v>351</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J233" t="s">
         <v>493</v>
@@ -50416,7 +50413,7 @@
         <v/>
       </c>
       <c r="AR233" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AV233" s="4" t="s">
         <v>29</v>
@@ -50487,10 +50484,10 @@
         <v>315</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J234" t="s">
         <v>483</v>
@@ -50610,7 +50607,7 @@
         <v/>
       </c>
       <c r="AR234" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AV234" s="17" t="s">
         <v>29</v>
@@ -50681,10 +50678,10 @@
         <v>315</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J235" s="17" t="s">
         <v>483</v>
@@ -50806,7 +50803,7 @@
         <v/>
       </c>
       <c r="AR235" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AV235" s="17" t="s">
         <v>29</v>
@@ -50877,10 +50874,10 @@
         <v>308</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J236" t="s">
         <v>483</v>
@@ -51000,7 +50997,7 @@
         <v/>
       </c>
       <c r="AR236" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AV236" s="17" t="s">
         <v>29</v>
@@ -51071,10 +51068,10 @@
         <v>351</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J237" s="17" t="s">
         <v>490</v>
@@ -51196,7 +51193,7 @@
         <v/>
       </c>
       <c r="AR237" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AV237" s="17" t="s">
         <v>29</v>
@@ -51264,13 +51261,13 @@
         <v>157</v>
       </c>
       <c r="C238" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H238" t="s">
         <v>490</v>
@@ -51402,7 +51399,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR238" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AV238" s="17" t="s">
         <v>29</v>
@@ -51473,10 +51470,10 @@
         <v>315</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V239" s="8" t="s">
         <v>456</v>
@@ -51566,7 +51563,7 @@
         <v/>
       </c>
       <c r="AR239" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AV239" s="17" t="s">
         <v>29</v>
@@ -51631,16 +51628,16 @@
     </row>
     <row r="240" spans="2:64" ht="150">
       <c r="B240" t="s">
+        <v>916</v>
+      </c>
+      <c r="C240" t="s">
+        <v>901</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G240" s="16" t="s">
         <v>917</v>
-      </c>
-      <c r="C240" t="s">
-        <v>902</v>
-      </c>
-      <c r="E240" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G240" s="16" t="s">
-        <v>918</v>
       </c>
       <c r="H240">
         <v>1500</v>
@@ -51685,7 +51682,7 @@
         <v>1800</v>
       </c>
       <c r="V240" s="20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W240" s="17">
         <f t="shared" si="99"/>
@@ -51772,7 +51769,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR240" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AV240" s="4" t="s">
         <v>29</v>
@@ -51836,16 +51833,16 @@
     </row>
     <row r="241" spans="2:64" ht="165">
       <c r="B241" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C241" t="s">
         <v>416</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H241">
         <v>1600</v>
@@ -51890,7 +51887,7 @@
         <v>1800</v>
       </c>
       <c r="V241" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W241" s="17">
         <f t="shared" si="99"/>
@@ -51977,7 +51974,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR241" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AV241" s="4" t="s">
         <v>29</v>
@@ -52047,10 +52044,10 @@
         <v>315</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J242" s="17"/>
       <c r="K242" s="17"/>
@@ -52168,7 +52165,7 @@
         <v/>
       </c>
       <c r="AR242" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AV242" s="17" t="s">
         <v>29</v>
@@ -52233,16 +52230,16 @@
     </row>
     <row r="243" spans="2:64" ht="180">
       <c r="B243" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C243" t="s">
         <v>313</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J243" s="17">
         <v>1500</v>
@@ -52281,7 +52278,7 @@
         <v>1700</v>
       </c>
       <c r="V243" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="W243" s="17" t="str">
         <f t="shared" si="99"/>
@@ -52368,7 +52365,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR243" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AV243" s="4" t="s">
         <v>29</v>
@@ -52432,16 +52429,16 @@
     </row>
     <row r="244" spans="2:64" ht="14.1" customHeight="1">
       <c r="B244" t="s">
+        <v>990</v>
+      </c>
+      <c r="C244" t="s">
+        <v>899</v>
+      </c>
+      <c r="E244" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G244" s="16" t="s">
         <v>991</v>
-      </c>
-      <c r="C244" t="s">
-        <v>900</v>
-      </c>
-      <c r="E244" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G244" s="16" t="s">
-        <v>992</v>
       </c>
       <c r="J244">
         <v>1500</v>
@@ -52558,7 +52555,7 @@
         <v/>
       </c>
       <c r="AR244" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AV244" s="4" t="s">
         <v>29</v>
@@ -52622,16 +52619,16 @@
     </row>
     <row r="245" spans="2:64" ht="135">
       <c r="B245" t="s">
+        <v>910</v>
+      </c>
+      <c r="C245" t="s">
+        <v>901</v>
+      </c>
+      <c r="E245" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G245" s="17" t="s">
         <v>911</v>
-      </c>
-      <c r="C245" t="s">
-        <v>902</v>
-      </c>
-      <c r="E245" s="17" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G245" s="17" t="s">
-        <v>912</v>
       </c>
       <c r="H245">
         <v>1600</v>
@@ -52676,7 +52673,7 @@
         <v>1900</v>
       </c>
       <c r="V245" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W245" s="17">
         <f t="shared" si="99"/>
@@ -52763,7 +52760,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR245" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AV245" s="4" t="s">
         <v>29</v>
@@ -52833,7 +52830,7 @@
         <v>276</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G246" s="17" t="s">
         <v>283</v>
@@ -52871,7 +52868,7 @@
       <c r="T246" s="17"/>
       <c r="U246" s="17"/>
       <c r="V246" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="W246" s="17" t="str">
         <f t="shared" si="99"/>
@@ -53026,16 +53023,16 @@
     </row>
     <row r="247" spans="2:64" ht="23.45" customHeight="1">
       <c r="B247" t="s">
+        <v>945</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="E247" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G247" s="16" t="s">
         <v>946</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="E247" s="17" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G247" s="16" t="s">
-        <v>947</v>
       </c>
       <c r="H247">
         <v>1500</v>
@@ -53080,7 +53077,7 @@
         <v>1900</v>
       </c>
       <c r="V247" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="W247" s="17">
         <f t="shared" si="99"/>
@@ -53167,7 +53164,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR247" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AV247" s="4" t="s">
         <v>29</v>
@@ -53231,16 +53228,16 @@
     </row>
     <row r="248" spans="2:64" ht="150">
       <c r="B248" t="s">
+        <v>998</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="E248" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G248" s="16" t="s">
         <v>999</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="E248" s="17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G248" s="16" t="s">
-        <v>1000</v>
       </c>
       <c r="H248">
         <v>1500</v>
@@ -53285,7 +53282,7 @@
         <v>1800</v>
       </c>
       <c r="V248" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="W248" s="17">
         <f t="shared" si="99"/>
@@ -53372,7 +53369,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR248" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AV248" s="4" t="s">
         <v>29</v>
@@ -53442,10 +53439,10 @@
         <v>315</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H249" t="s">
         <v>487</v>
@@ -53571,7 +53568,7 @@
         <v/>
       </c>
       <c r="AR249" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AT249" t="s">
         <v>481</v>
@@ -53639,16 +53636,16 @@
     </row>
     <row r="250" spans="2:64" ht="15.6" customHeight="1">
       <c r="B250" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>416</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G250" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H250">
         <v>1500</v>
@@ -53693,7 +53690,7 @@
         <v>1900</v>
       </c>
       <c r="V250" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W250" s="17">
         <f t="shared" si="99"/>
@@ -53780,7 +53777,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR250" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AV250" s="4" t="s">
         <v>29</v>
@@ -53844,16 +53841,16 @@
     </row>
     <row r="251" spans="2:64" ht="409.5">
       <c r="B251" t="s">
+        <v>959</v>
+      </c>
+      <c r="C251" t="s">
+        <v>897</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G251" s="16" t="s">
         <v>960</v>
-      </c>
-      <c r="C251" t="s">
-        <v>898</v>
-      </c>
-      <c r="E251" s="17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G251" s="16" t="s">
-        <v>961</v>
       </c>
       <c r="J251">
         <v>1700</v>
@@ -53892,7 +53889,7 @@
         <v>1830</v>
       </c>
       <c r="V251" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W251" s="17" t="str">
         <f t="shared" si="99"/>
@@ -53979,7 +53976,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR251" s="17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AV251" s="4" t="s">
         <v>29</v>
@@ -54046,13 +54043,13 @@
         <v>159</v>
       </c>
       <c r="C252" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G252" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H252" t="s">
         <v>483</v>
@@ -54097,7 +54094,7 @@
         <v>485</v>
       </c>
       <c r="V252" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="W252" s="17">
         <f t="shared" si="99"/>
@@ -54184,7 +54181,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR252" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AV252" s="4" t="s">
         <v>29</v>
@@ -54252,10 +54249,10 @@
         <v>247</v>
       </c>
       <c r="C253" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G253" s="17" t="s">
         <v>278</v>
@@ -54303,7 +54300,7 @@
         <v>485</v>
       </c>
       <c r="V253" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W253" s="17">
         <f t="shared" si="99"/>
@@ -54390,7 +54387,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR253" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AS253" t="s">
         <v>480</v>
@@ -54461,13 +54458,13 @@
         <v>160</v>
       </c>
       <c r="C254" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H254" t="s">
         <v>483</v>
@@ -54599,7 +54596,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR254" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AV254" s="4" t="s">
         <v>29</v>
@@ -54670,10 +54667,10 @@
         <v>315</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J255" t="s">
         <v>483</v>
@@ -54793,7 +54790,7 @@
         <v/>
       </c>
       <c r="AR255" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AV255" s="4" t="s">
         <v>29</v>
@@ -54861,13 +54858,13 @@
         <v>231</v>
       </c>
       <c r="C256" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L256" s="17"/>
       <c r="M256" s="17"/>
@@ -54964,7 +54961,7 @@
         <v/>
       </c>
       <c r="AR256" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AV256" s="17" t="s">
         <v>30</v>
@@ -55032,13 +55029,13 @@
         <v>232</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J257" t="s">
         <v>483</v>
@@ -55155,7 +55152,7 @@
         <v/>
       </c>
       <c r="AR257" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AV257" s="17" t="s">
         <v>30</v>
@@ -55227,13 +55224,13 @@
         <v>162</v>
       </c>
       <c r="C258" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J258" t="s">
         <v>490</v>
@@ -55349,7 +55346,7 @@
         <v/>
       </c>
       <c r="AR258" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AV258" s="4" t="s">
         <v>29</v>
@@ -55414,16 +55411,16 @@
     </row>
     <row r="259" spans="2:64" ht="120">
       <c r="B259" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C259" t="s">
         <v>416</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G259" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L259" s="17"/>
       <c r="M259" s="17"/>
@@ -55582,10 +55579,10 @@
         <v>315</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G260" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H260" t="s">
         <v>487</v>
@@ -55711,7 +55708,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR260" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AV260" s="17" t="s">
         <v>29</v>
@@ -55776,16 +55773,16 @@
     </row>
     <row r="261" spans="2:64" ht="135">
       <c r="B261" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C261" t="s">
         <v>416</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G261" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="W261" s="17" t="str">
         <f t="shared" si="131"/>
@@ -55872,7 +55869,7 @@
         <v/>
       </c>
       <c r="AR261" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AV261" s="4" t="s">
         <v>30</v>
@@ -55942,10 +55939,10 @@
         <v>315</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J262" t="s">
         <v>483</v>
@@ -56067,7 +56064,7 @@
         <v/>
       </c>
       <c r="AR262" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AV262" s="17" t="s">
         <v>29</v>
@@ -56138,10 +56135,10 @@
         <v>315</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G263" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J263" t="s">
         <v>483</v>
@@ -56261,7 +56258,7 @@
         <v/>
       </c>
       <c r="AR263" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AV263" s="4" t="s">
         <v>29</v>
@@ -56332,10 +56329,10 @@
         <v>338</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G264" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J264" t="s">
         <v>490</v>
@@ -56455,7 +56452,7 @@
         <v/>
       </c>
       <c r="AR264" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AS264" t="s">
         <v>480</v>
@@ -56526,13 +56523,13 @@
         <v>235</v>
       </c>
       <c r="C265" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J265" t="s">
         <v>490</v>
@@ -56652,7 +56649,7 @@
         <v/>
       </c>
       <c r="AR265" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AV265" s="17" t="s">
         <v>29</v>
@@ -56723,10 +56720,10 @@
         <v>276</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J266" t="s">
         <v>490</v>
@@ -56846,7 +56843,7 @@
         <v/>
       </c>
       <c r="AR266" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AV266" s="17" t="s">
         <v>29</v>
@@ -56914,13 +56911,13 @@
         <v>165</v>
       </c>
       <c r="C267" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G267" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H267" t="s">
         <v>487</v>
@@ -57044,7 +57041,7 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR267" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AT267" t="s">
         <v>481</v>
@@ -57115,13 +57112,13 @@
         <v>166</v>
       </c>
       <c r="C268" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H268" t="s">
         <v>493</v>
@@ -57253,7 +57250,7 @@
         <v>2pm-10pm</v>
       </c>
       <c r="AR268" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AV268" s="4" t="s">
         <v>29</v>
@@ -57318,16 +57315,16 @@
     </row>
     <row r="269" spans="2:64" ht="409.5">
       <c r="B269" t="s">
+        <v>965</v>
+      </c>
+      <c r="C269" t="s">
+        <v>897</v>
+      </c>
+      <c r="E269" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G269" s="16" t="s">
         <v>966</v>
-      </c>
-      <c r="C269" t="s">
-        <v>898</v>
-      </c>
-      <c r="E269" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G269" s="16" t="s">
-        <v>967</v>
       </c>
       <c r="H269">
         <v>1200</v>
@@ -57372,7 +57369,7 @@
         <v>1800</v>
       </c>
       <c r="V269" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W269" s="17">
         <f t="shared" si="131"/>
@@ -57459,7 +57456,7 @@
         <v>12pm-6pm</v>
       </c>
       <c r="AR269" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AV269" s="4" t="s">
         <v>29</v>
@@ -57529,7 +57526,7 @@
         <v>338</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G270" s="17" t="s">
         <v>292</v>
@@ -57619,7 +57616,7 @@
         <v/>
       </c>
       <c r="AR270" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AS270" t="s">
         <v>480</v>
@@ -57687,16 +57684,16 @@
     </row>
     <row r="271" spans="2:64" ht="16.5" customHeight="1">
       <c r="B271" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C271" s="17" t="s">
         <v>416</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G271" s="16" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H271">
         <v>1500</v>
@@ -57825,7 +57822,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR271" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AV271" s="4" t="s">
         <v>29</v>
@@ -57892,15 +57889,15 @@
         <v>167</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D272" s="8"/>
       <c r="E272" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F272" s="8"/>
       <c r="G272" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H272" s="8"/>
       <c r="I272" s="8"/>
@@ -58004,7 +58001,7 @@
         <v/>
       </c>
       <c r="AR272" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AS272" s="8"/>
       <c r="AT272" s="8"/>
@@ -58072,16 +58069,16 @@
     </row>
     <row r="273" spans="2:64" ht="150">
       <c r="B273" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H273">
         <v>1600</v>
@@ -58122,7 +58119,7 @@
       <c r="T273" s="17"/>
       <c r="U273" s="17"/>
       <c r="V273" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="W273" s="17">
         <f t="shared" si="131"/>
@@ -58209,7 +58206,7 @@
         <v/>
       </c>
       <c r="AR273" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV273" s="4" t="s">
         <v>29</v>
@@ -58276,13 +58273,13 @@
         <v>237</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J274" s="17"/>
       <c r="K274" s="17"/>
@@ -58404,7 +58401,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR274" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AV274" s="17" t="s">
         <v>29</v>
@@ -58469,16 +58466,16 @@
     </row>
     <row r="275" spans="2:64" ht="180">
       <c r="B275" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H275">
         <v>1600</v>
@@ -58523,7 +58520,7 @@
         <v>1700</v>
       </c>
       <c r="V275" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="W275" s="17">
         <f t="shared" si="131"/>
@@ -58610,7 +58607,7 @@
         <v>4pm-5pm</v>
       </c>
       <c r="AR275" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AV275" s="4" t="s">
         <v>29</v>
@@ -58677,13 +58674,13 @@
         <v>168</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J276" t="s">
         <v>483</v>
@@ -58803,7 +58800,7 @@
         <v/>
       </c>
       <c r="AR276" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AV276" s="4" t="s">
         <v>30</v>
@@ -58874,10 +58871,10 @@
         <v>313</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H277" t="s">
         <v>489</v>
@@ -59009,7 +59006,7 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR277" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AV277" s="17" t="s">
         <v>29</v>
@@ -59074,16 +59071,16 @@
     </row>
     <row r="278" spans="2:64" ht="165">
       <c r="B278" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="E278" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G278" s="16" t="s">
         <v>1001</v>
-      </c>
-      <c r="C278" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="E278" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G278" s="16" t="s">
-        <v>1002</v>
       </c>
       <c r="H278">
         <v>1500</v>
@@ -59128,7 +59125,7 @@
         <v>1730</v>
       </c>
       <c r="V278" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="W278" s="17">
         <f t="shared" si="131"/>
@@ -59215,7 +59212,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR278" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AV278" s="4" t="s">
         <v>29</v>
@@ -59285,7 +59282,7 @@
         <v>313</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G279" s="17" t="s">
         <v>295</v>
@@ -59387,7 +59384,7 @@
         <v/>
       </c>
       <c r="AR279" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AS279" t="s">
         <v>480</v>
@@ -59461,10 +59458,10 @@
         <v>338</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J280" s="17" t="s">
         <v>490</v>
@@ -59586,7 +59583,7 @@
         <v/>
       </c>
       <c r="AR280" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AV280" s="17" t="s">
         <v>29</v>
@@ -59689,7 +59686,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1">
       <c r="F1" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G1" s="17">
         <v>39.624346000000003</v>
@@ -59706,10 +59703,10 @@
         <v>-105.0354</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2">
         <v>39.623085000000003</v>
@@ -59726,10 +59723,10 @@
         <v>-104.98718700000001</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G3">
         <v>39.624425000000002</v>
@@ -59749,7 +59746,7 @@
         <v>313</v>
       </c>
       <c r="F4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G4">
         <v>39.617455999999997</v>
@@ -59766,10 +59763,10 @@
         <v>-104.94912100000001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G5">
         <v>39.618811000000001</v>
@@ -59789,7 +59786,7 @@
         <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G6">
         <v>39.623742999999997</v>
@@ -59806,10 +59803,10 @@
         <v>-104.97963799999999</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G7">
         <v>39.625340000000001</v>
@@ -59826,10 +59823,10 @@
         <v>-104.940943</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G8">
         <v>39.898896999999998</v>
@@ -59846,10 +59843,10 @@
         <v>-105.013485</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G9">
         <v>39.867482000000003</v>
@@ -59869,7 +59866,7 @@
         <v>338</v>
       </c>
       <c r="F10" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G10">
         <v>39.883797999999999</v>
@@ -59889,7 +59886,7 @@
         <v>315</v>
       </c>
       <c r="F11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G11">
         <v>39.962471000000001</v>
@@ -59906,10 +59903,10 @@
         <v>-104.989178</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G12">
         <v>39.893236000000002</v>
@@ -59926,10 +59923,10 @@
         <v>-105.043755</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G13">
         <v>39.879528000000001</v>
@@ -59949,7 +59946,7 @@
         <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G14">
         <v>39.908419000000002</v>
@@ -59966,10 +59963,10 @@
         <v>-105.008472</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F15" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G15">
         <v>39.913105000000002</v>
@@ -59986,10 +59983,10 @@
         <v>-105.008503</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G16">
         <v>39.927202999999999</v>
@@ -60006,10 +60003,10 @@
         <v>-104.98612</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G17">
         <v>39.909483999999999</v>
@@ -60026,10 +60023,10 @@
         <v>-104.902855</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G18">
         <v>39.841503000000003</v>
@@ -60046,7 +60043,7 @@
         <v>-104.961451</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -60057,7 +60054,7 @@
         <v>-104.988311</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -60068,7 +60065,7 @@
         <v>-104.94586700000001</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -60090,7 +60087,7 @@
         <v>-104.984549</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -60101,7 +60098,7 @@
         <v>-104.89540599999999</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -60134,7 +60131,7 @@
         <v>-104.92959999999999</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -60156,7 +60153,7 @@
         <v>-105.02446500000001</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -60178,7 +60175,7 @@
         <v>-104.980572</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -60189,7 +60186,7 @@
         <v>-104.987831</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -60200,7 +60197,7 @@
         <v>-105.01134</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -60244,7 +60241,7 @@
         <v>-104.94860300000001</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -60255,7 +60252,7 @@
         <v>-104.982012</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -60277,7 +60274,7 @@
         <v>-105.01330299999999</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -60288,7 +60285,7 @@
         <v>-105.00390299999999</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -60310,7 +60307,7 @@
         <v>-104.969341</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -60343,7 +60340,7 @@
         <v>-104.99881000000001</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -60365,7 +60362,7 @@
         <v>-104.971879</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -60398,7 +60395,7 @@
         <v>-104.938931</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -60420,7 +60417,7 @@
         <v>-104.972336</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -60431,7 +60428,7 @@
         <v>-104.95560399999999</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -60464,7 +60461,7 @@
         <v>-104.988668</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -60486,7 +60483,7 @@
         <v>-104.90545400000001</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -60508,7 +60505,7 @@
         <v>-105.01090600000001</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -60519,7 +60516,7 @@
         <v>-105.010822</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -60530,7 +60527,7 @@
         <v>-104.8963</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -60563,7 +60560,7 @@
         <v>-104.87091100000001</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -60574,7 +60571,7 @@
         <v>-104.953124</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -60618,7 +60615,7 @@
         <v>-104.961383</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -60629,7 +60626,7 @@
         <v>-104.948808</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -60673,7 +60670,7 @@
         <v>-104.97563599999999</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -60684,7 +60681,7 @@
         <v>-104.877948</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -60706,7 +60703,7 @@
         <v>-105.01049500000001</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -60728,7 +60725,7 @@
         <v>-104.980605</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -60816,7 +60813,7 @@
         <v>-104.87889</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -60827,7 +60824,7 @@
         <v>-105.005565</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -60838,7 +60835,7 @@
         <v>-104.95613400000001</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -60860,7 +60857,7 @@
         <v>-105.041906</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -60904,7 +60901,7 @@
         <v>-104.959621</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -60915,7 +60912,7 @@
         <v>-104.99946</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -60937,7 +60934,7 @@
         <v>-104.98064100000001</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -60970,7 +60967,7 @@
         <v>-104.986622</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -60992,7 +60989,7 @@
         <v>-105.00387000000001</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -61003,7 +61000,7 @@
         <v>-104.957384</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -61025,7 +61022,7 @@
         <v>-104.960009</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -61058,7 +61055,7 @@
         <v>-104.961474</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -61069,7 +61066,7 @@
         <v>-105.05743099999999</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -61080,7 +61077,7 @@
         <v>-104.878952</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -61091,7 +61088,7 @@
         <v>-104.96260100000001</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -61168,7 +61165,7 @@
         <v>-105.044303</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -61201,7 +61198,7 @@
         <v>-104.940437</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -61223,7 +61220,7 @@
         <v>-104.877388</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -61245,7 +61242,7 @@
         <v>-104.877388</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -61278,7 +61275,7 @@
         <v>-104.99886600000001</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -61311,7 +61308,7 @@
         <v>-105.013965</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -61366,7 +61363,7 @@
         <v>-105.01092800000001</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -61377,7 +61374,7 @@
         <v>-105.03431999999999</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -61410,7 +61407,7 @@
         <v>-105.04373200000001</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -61443,7 +61440,7 @@
         <v>-105.011383</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -61454,7 +61451,7 @@
         <v>-105.043755</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -61476,7 +61473,7 @@
         <v>-104.94472500000001</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -61487,7 +61484,7 @@
         <v>-104.954297</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -61542,7 +61539,7 @@
         <v>-104.999083</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -61553,7 +61550,7 @@
         <v>-104.975987</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -61575,7 +61572,7 @@
         <v>-104.989041</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -61619,7 +61616,7 @@
         <v>-104.96195299999999</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -61630,7 +61627,7 @@
         <v>-104.999121</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -61652,7 +61649,7 @@
         <v>-104.987872</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -61663,7 +61660,7 @@
         <v>-104.95562099999999</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -61707,7 +61704,7 @@
         <v>-104.986439</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -61729,7 +61726,7 @@
         <v>-104.999334</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -61784,7 +61781,7 @@
         <v>-104.96820700000001</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -61795,7 +61792,7 @@
         <v>-105.032044</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -61828,7 +61825,7 @@
         <v>-104.980251</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -61850,7 +61847,7 @@
         <v>-104.981644</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -61872,7 +61869,7 @@
         <v>-104.971554</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -61883,7 +61880,7 @@
         <v>-104.980825</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -61894,7 +61891,7 @@
         <v>-104.98459699999999</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -61916,7 +61913,7 @@
         <v>-105.0115</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -61927,7 +61924,7 @@
         <v>-105.00613</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -61938,7 +61935,7 @@
         <v>-105.00921700000001</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -61960,7 +61957,7 @@
         <v>-104.96300599999999</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -61971,7 +61968,7 @@
         <v>-104.999161</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -61993,7 +61990,7 @@
         <v>-105.007323</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -62004,7 +62001,7 @@
         <v>-105.01049500000001</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -62037,7 +62034,7 @@
         <v>-104.86783200000001</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -62048,7 +62045,7 @@
         <v>-104.96127300000001</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -62070,7 +62067,7 @@
         <v>-104.97815</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -62081,7 +62078,7 @@
         <v>-104.975893</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -62092,7 +62089,7 @@
         <v>-105.044828</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -62103,7 +62100,7 @@
         <v>-104.984477</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -62114,7 +62111,7 @@
         <v>-105.020359</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -62125,7 +62122,7 @@
         <v>-104.957275</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -62180,7 +62177,7 @@
         <v>-104.985001</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -62191,7 +62188,7 @@
         <v>-105.009308</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -62213,7 +62210,7 @@
         <v>-105.003967</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -62235,7 +62232,7 @@
         <v>-105.0012</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -62246,7 +62243,7 @@
         <v>-104.897385</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -62257,7 +62254,7 @@
         <v>-105.002073</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -62268,7 +62265,7 @@
         <v>-104.80994099999999</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -62279,7 +62276,7 @@
         <v>-104.793802</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -62290,7 +62287,7 @@
         <v>-104.707764</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -62301,7 +62298,7 @@
         <v>-104.864138</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -62312,7 +62309,7 @@
         <v>-104.84568</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -62323,7 +62320,7 @@
         <v>-104.864948</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -62334,7 +62331,7 @@
         <v>-104.845961</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -62345,7 +62342,7 @@
         <v>-104.68707000000001</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -62356,7 +62353,7 @@
         <v>-104.708513</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -62367,7 +62364,7 @@
         <v>-104.89504100000001</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -62378,7 +62375,7 @@
         <v>-104.80638500000001</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -62389,7 +62386,7 @@
         <v>-104.877388</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -62400,7 +62397,7 @@
         <v>-104.83219200000001</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -62411,7 +62408,7 @@
         <v>-104.86867599999999</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -62433,7 +62430,7 @@
         <v>-104.771021</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -62444,7 +62441,7 @@
         <v>-104.89708</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -62455,7 +62452,7 @@
         <v>-104.8963</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -62466,7 +62463,7 @@
         <v>-104.900999</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -62477,7 +62474,7 @@
         <v>-104.917292</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -62488,7 +62485,7 @@
         <v>-104.921684</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -62499,7 +62496,7 @@
         <v>-104.928431</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -62510,7 +62507,7 @@
         <v>-104.88911</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -62521,7 +62518,7 @@
         <v>-104.868858</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -62532,7 +62529,7 @@
         <v>-104.892036</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -62543,7 +62540,7 @@
         <v>-104.868493</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -62554,7 +62551,7 @@
         <v>-104.865118</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -62565,7 +62562,7 @@
         <v>-104.868493</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -62576,7 +62573,7 @@
         <v>-105.04432300000001</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -62587,7 +62584,7 @@
         <v>-105.04366400000001</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -62598,7 +62595,7 @@
         <v>-105.03209699999999</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -62609,7 +62606,7 @@
         <v>-105.044258</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -62620,7 +62617,7 @@
         <v>-104.98612</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -62642,7 +62639,7 @@
         <v>-104.991437</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -62664,7 +62661,7 @@
         <v>-104.98540800000001</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -62686,7 +62683,7 @@
         <v>-104.979404</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="260" spans="1:3">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB6BFF-8049-4901-8E21-D8ACB230BD41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$281</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$282</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1150">
   <si>
     <t>Name</t>
   </si>
@@ -3487,8 +3488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4067,12 +4068,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -4091,11 +4092,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -4124,7 +4125,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4436,40 +4437,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V46" sqref="V46"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U219" sqref="U219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.7265625" customWidth="1"/>
     <col min="8" max="21" width="6" customWidth="1"/>
     <col min="22" max="22" width="6" style="8" customWidth="1"/>
     <col min="23" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" customWidth="1"/>
-    <col min="44" max="49" width="8.7109375" customWidth="1"/>
-    <col min="50" max="50" width="90.5703125" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" customWidth="1"/>
-    <col min="52" max="52" width="8.7109375" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" customWidth="1"/>
-    <col min="54" max="55" width="8.7109375" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" customWidth="1"/>
-    <col min="57" max="57" width="53.5703125" customWidth="1"/>
-    <col min="58" max="58" width="18.5703125" customWidth="1"/>
+    <col min="40" max="42" width="10.26953125" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" customWidth="1"/>
+    <col min="44" max="49" width="8.7265625" customWidth="1"/>
+    <col min="50" max="50" width="90.54296875" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" customWidth="1"/>
+    <col min="52" max="52" width="8.7265625" customWidth="1"/>
+    <col min="53" max="53" width="10.1796875" customWidth="1"/>
+    <col min="54" max="55" width="8.7265625" customWidth="1"/>
+    <col min="56" max="56" width="11.453125" customWidth="1"/>
+    <col min="57" max="57" width="53.54296875" customWidth="1"/>
+    <col min="58" max="58" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64">
+    <row r="1" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="150">
+    <row r="2" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>171</v>
       </c>
@@ -4842,7 +4843,7 @@
       </c>
       <c r="BL2" s="7"/>
     </row>
-    <row r="3" spans="2:64" ht="150">
+    <row r="3" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>979</v>
       </c>
@@ -5040,7 +5041,7 @@
       </c>
       <c r="BL3" s="17"/>
     </row>
-    <row r="4" spans="2:64" ht="135">
+    <row r="4" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>908</v>
       </c>
@@ -5247,7 +5248,7 @@
       </c>
       <c r="BL4" s="17"/>
     </row>
-    <row r="5" spans="2:64" ht="165">
+    <row r="5" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>172</v>
       </c>
@@ -5451,7 +5452,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="6" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>60</v>
       </c>
@@ -5663,7 +5664,7 @@
       </c>
       <c r="BL6" s="7"/>
     </row>
-    <row r="7" spans="2:64" ht="150">
+    <row r="7" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>238</v>
       </c>
@@ -5828,7 +5829,7 @@
       </c>
       <c r="BL7" s="7"/>
     </row>
-    <row r="8" spans="2:64" ht="135">
+    <row r="8" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>255</v>
       </c>
@@ -6038,7 +6039,7 @@
       </c>
       <c r="BL8" s="7"/>
     </row>
-    <row r="9" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="9" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>245</v>
       </c>
@@ -6252,7 +6253,7 @@
       </c>
       <c r="BL9" s="7"/>
     </row>
-    <row r="10" spans="2:64" ht="150">
+    <row r="10" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>955</v>
       </c>
@@ -6447,7 +6448,7 @@
       </c>
       <c r="BL10" s="17"/>
     </row>
-    <row r="11" spans="2:64" s="17" customFormat="1" ht="120">
+    <row r="11" spans="2:64" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>875</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="12" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>887</v>
       </c>
@@ -6809,7 +6810,7 @@
       </c>
       <c r="BL12" s="17"/>
     </row>
-    <row r="13" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="13" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>61</v>
       </c>
@@ -7021,7 +7022,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="409.5">
+    <row r="14" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>967</v>
       </c>
@@ -7226,7 +7227,7 @@
       </c>
       <c r="BL14" s="17"/>
     </row>
-    <row r="15" spans="2:64" ht="120">
+    <row r="15" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -7407,7 +7408,7 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="120">
+    <row r="16" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>244</v>
       </c>
@@ -7572,7 +7573,7 @@
       </c>
       <c r="BL16" s="7"/>
     </row>
-    <row r="17" spans="2:64" ht="150">
+    <row r="17" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>63</v>
       </c>
@@ -7779,7 +7780,7 @@
       </c>
       <c r="BL17" s="7"/>
     </row>
-    <row r="18" spans="2:64" ht="120">
+    <row r="18" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>891</v>
       </c>
@@ -7939,7 +7940,7 @@
       </c>
       <c r="BL18" s="17"/>
     </row>
-    <row r="19" spans="2:64" ht="150">
+    <row r="19" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>64</v>
       </c>
@@ -8146,7 +8147,7 @@
       </c>
       <c r="BL19" s="7"/>
     </row>
-    <row r="20" spans="2:64" ht="150">
+    <row r="20" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
@@ -8358,7 +8359,7 @@
       </c>
       <c r="BL20" s="7"/>
     </row>
-    <row r="21" spans="2:64" ht="150">
+    <row r="21" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -8565,7 +8566,7 @@
       </c>
       <c r="BL21" s="7"/>
     </row>
-    <row r="22" spans="2:64" ht="150">
+    <row r="22" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>933</v>
       </c>
@@ -8760,7 +8761,7 @@
       </c>
       <c r="BL22" s="17"/>
     </row>
-    <row r="23" spans="2:64" ht="165">
+    <row r="23" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>953</v>
       </c>
@@ -8955,7 +8956,7 @@
       </c>
       <c r="BL23" s="17"/>
     </row>
-    <row r="24" spans="2:64" s="8" customFormat="1" ht="135">
+    <row r="24" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
         <v>929</v>
       </c>
@@ -9136,7 +9137,7 @@
       </c>
       <c r="BL24" s="17"/>
     </row>
-    <row r="25" spans="2:64" s="8" customFormat="1" ht="135">
+    <row r="25" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
         <v>173</v>
       </c>
@@ -9340,7 +9341,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" s="8" customFormat="1" ht="120">
+    <row r="26" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
         <v>257</v>
       </c>
@@ -9523,7 +9524,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="27" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
         <v>174</v>
       </c>
@@ -9727,7 +9728,7 @@
       </c>
       <c r="BL27" s="7"/>
     </row>
-    <row r="28" spans="2:64" ht="135">
+    <row r="28" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B28" s="17" t="s">
         <v>175</v>
       </c>
@@ -9931,7 +9932,7 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="29" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B29" s="17" t="s">
         <v>248</v>
       </c>
@@ -10145,7 +10146,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="165">
+    <row r="30" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>970</v>
       </c>
@@ -10352,7 +10353,7 @@
       </c>
       <c r="BL30" s="17"/>
     </row>
-    <row r="31" spans="2:64" ht="165">
+    <row r="31" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
@@ -10547,7 +10548,7 @@
       </c>
       <c r="BL31" s="7"/>
     </row>
-    <row r="32" spans="2:64" ht="150">
+    <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>176</v>
       </c>
@@ -10751,7 +10752,7 @@
       </c>
       <c r="BL32" s="7"/>
     </row>
-    <row r="33" spans="2:64" ht="255">
+    <row r="33" spans="2:64" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>68</v>
       </c>
@@ -10955,7 +10956,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="150">
+    <row r="34" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>177</v>
       </c>
@@ -11159,7 +11160,7 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="135">
+    <row r="35" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -11348,7 +11349,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="150">
+    <row r="36" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>69</v>
       </c>
@@ -11560,7 +11561,7 @@
       </c>
       <c r="BL36" s="7"/>
     </row>
-    <row r="37" spans="2:64" ht="135">
+    <row r="37" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>70</v>
       </c>
@@ -11761,7 +11762,7 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="120">
+    <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>879</v>
       </c>
@@ -11923,7 +11924,7 @@
       </c>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="2:64" ht="135">
+    <row r="39" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>259</v>
       </c>
@@ -12091,7 +12092,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="120">
+    <row r="40" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>261</v>
       </c>
@@ -12256,7 +12257,7 @@
       </c>
       <c r="BL40" s="7"/>
     </row>
-    <row r="41" spans="2:64" ht="120">
+    <row r="41" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>71</v>
       </c>
@@ -12418,7 +12419,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="165">
+    <row r="42" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>72</v>
       </c>
@@ -12625,7 +12626,7 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="135">
+    <row r="43" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>73</v>
       </c>
@@ -12832,7 +12833,7 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="135">
+    <row r="44" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>873</v>
       </c>
@@ -13027,7 +13028,7 @@
       </c>
       <c r="BL44" s="17"/>
     </row>
-    <row r="45" spans="2:64" s="8" customFormat="1" ht="135">
+    <row r="45" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B45" s="17" t="s">
         <v>74</v>
       </c>
@@ -13241,7 +13242,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5">
+    <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B46" s="17" t="s">
         <v>914</v>
       </c>
@@ -13445,7 +13446,7 @@
       </c>
       <c r="BL46" s="17"/>
     </row>
-    <row r="47" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="47" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B47" s="17" t="s">
         <v>179</v>
       </c>
@@ -13649,7 +13650,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" s="8" customFormat="1" ht="120">
+    <row r="48" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B48" s="17" t="s">
         <v>272</v>
       </c>
@@ -13832,7 +13833,7 @@
       </c>
       <c r="BL48" s="7"/>
     </row>
-    <row r="49" spans="2:64" s="8" customFormat="1" ht="165">
+    <row r="49" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
@@ -14040,7 +14041,7 @@
       </c>
       <c r="BL49" s="7"/>
     </row>
-    <row r="50" spans="2:64" s="8" customFormat="1" ht="135">
+    <row r="50" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B50" s="17" t="s">
         <v>180</v>
       </c>
@@ -14244,7 +14245,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="51" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B51" s="17" t="s">
         <v>900</v>
       </c>
@@ -14456,7 +14457,7 @@
       </c>
       <c r="BL51" s="17"/>
     </row>
-    <row r="52" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="52" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B52" s="17" t="s">
         <v>76</v>
       </c>
@@ -14660,7 +14661,7 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" s="8" customFormat="1" ht="165">
+    <row r="53" spans="2:64" s="8" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B53" s="17" t="s">
         <v>883</v>
       </c>
@@ -14864,7 +14865,7 @@
       </c>
       <c r="BL53" s="17"/>
     </row>
-    <row r="54" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="54" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B54" s="17" t="s">
         <v>181</v>
       </c>
@@ -15068,7 +15069,7 @@
       </c>
       <c r="BL54" s="7"/>
     </row>
-    <row r="55" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="55" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
         <v>77</v>
       </c>
@@ -15280,7 +15281,7 @@
       </c>
       <c r="BL55" s="7"/>
     </row>
-    <row r="56" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="56" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B56" s="17" t="s">
         <v>78</v>
       </c>
@@ -15492,7 +15493,7 @@
       </c>
       <c r="BL56" s="7"/>
     </row>
-    <row r="57" spans="2:64" ht="150">
+    <row r="57" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B57" s="17" t="s">
         <v>182</v>
       </c>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="BL57" s="7"/>
     </row>
-    <row r="58" spans="2:64" ht="165">
+    <row r="58" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B58" s="17" t="s">
         <v>183</v>
       </c>
@@ -15902,7 +15903,7 @@
       </c>
       <c r="BL58" s="7"/>
     </row>
-    <row r="59" spans="2:64" ht="255">
+    <row r="59" spans="2:64" ht="232" x14ac:dyDescent="0.35">
       <c r="B59" s="17" t="s">
         <v>918</v>
       </c>
@@ -16114,7 +16115,7 @@
       </c>
       <c r="BL59" s="17"/>
     </row>
-    <row r="60" spans="2:64" ht="150">
+    <row r="60" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>184</v>
       </c>
@@ -16318,7 +16319,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="165">
+    <row r="61" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>256</v>
       </c>
@@ -16528,7 +16529,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="135">
+    <row r="62" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B62" s="17" t="s">
         <v>185</v>
       </c>
@@ -16732,7 +16733,7 @@
       </c>
       <c r="BL62" s="7"/>
     </row>
-    <row r="63" spans="2:64" ht="165">
+    <row r="63" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>937</v>
       </c>
@@ -16939,7 +16940,7 @@
       </c>
       <c r="BL63" s="17"/>
     </row>
-    <row r="64" spans="2:64" ht="165">
+    <row r="64" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>885</v>
       </c>
@@ -17134,7 +17135,7 @@
       </c>
       <c r="BL64" s="17"/>
     </row>
-    <row r="65" spans="2:64" ht="150">
+    <row r="65" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>79</v>
       </c>
@@ -17350,7 +17351,7 @@
       </c>
       <c r="BL65" s="7"/>
     </row>
-    <row r="66" spans="2:64" ht="135">
+    <row r="66" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
         <v>80</v>
       </c>
@@ -17550,7 +17551,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="120">
+    <row r="67" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>250</v>
       </c>
@@ -17718,7 +17719,7 @@
       </c>
       <c r="BL67" s="7"/>
     </row>
-    <row r="68" spans="2:64" ht="165">
+    <row r="68" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>186</v>
       </c>
@@ -17913,7 +17914,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="120">
+    <row r="69" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>262</v>
       </c>
@@ -18078,7 +18079,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="135">
+    <row r="70" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>187</v>
       </c>
@@ -18273,7 +18274,7 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" s="17" customFormat="1" ht="165">
+    <row r="71" spans="2:64" s="17" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B71" s="17" t="s">
         <v>188</v>
       </c>
@@ -18467,7 +18468,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="150">
+    <row r="72" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>189</v>
       </c>
@@ -18662,7 +18663,7 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="135">
+    <row r="73" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>190</v>
       </c>
@@ -18857,7 +18858,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="195">
+    <row r="74" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>258</v>
       </c>
@@ -19070,7 +19071,7 @@
       </c>
       <c r="BL74" s="7"/>
     </row>
-    <row r="75" spans="2:64" ht="165">
+    <row r="75" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B75" s="8" t="s">
         <v>81</v>
       </c>
@@ -19284,7 +19285,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="150">
+    <row r="76" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>191</v>
       </c>
@@ -19479,7 +19480,7 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="165">
+    <row r="77" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>59</v>
       </c>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" s="17" customFormat="1" ht="135">
+    <row r="78" spans="2:64" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B78" s="17" t="s">
         <v>243</v>
       </c>
@@ -19869,7 +19870,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="135">
+    <row r="79" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>82</v>
       </c>
@@ -20073,7 +20074,7 @@
       </c>
       <c r="BL79" s="7"/>
     </row>
-    <row r="80" spans="2:64" ht="165">
+    <row r="80" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -20283,7 +20284,7 @@
       </c>
       <c r="BL80" s="7"/>
     </row>
-    <row r="81" spans="2:64" ht="150">
+    <row r="81" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>975</v>
       </c>
@@ -20478,7 +20479,7 @@
       </c>
       <c r="BL81" s="17"/>
     </row>
-    <row r="82" spans="2:64" ht="165">
+    <row r="82" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>84</v>
       </c>
@@ -20685,7 +20686,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="180">
+    <row r="83" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>904</v>
       </c>
@@ -20892,7 +20893,7 @@
       </c>
       <c r="BL83" s="17"/>
     </row>
-    <row r="84" spans="2:64" ht="135">
+    <row r="84" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>85</v>
       </c>
@@ -21099,7 +21100,7 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="165">
+    <row r="85" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>274</v>
       </c>
@@ -21278,7 +21279,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="150">
+    <row r="86" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
@@ -21490,7 +21491,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="120">
+    <row r="87" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>264</v>
       </c>
@@ -21655,7 +21656,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="165">
+    <row r="88" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>87</v>
       </c>
@@ -21865,7 +21866,7 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="120">
+    <row r="89" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>935</v>
       </c>
@@ -22027,7 +22028,7 @@
       </c>
       <c r="BL89" s="17"/>
     </row>
-    <row r="90" spans="2:64" ht="120">
+    <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>895</v>
       </c>
@@ -22189,7 +22190,7 @@
       </c>
       <c r="BL90" s="17"/>
     </row>
-    <row r="91" spans="2:64" s="17" customFormat="1" ht="135">
+    <row r="91" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B91" s="17" t="s">
         <v>88</v>
       </c>
@@ -22401,7 +22402,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="150">
+    <row r="92" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>192</v>
       </c>
@@ -22590,7 +22591,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="150">
+    <row r="93" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>89</v>
       </c>
@@ -22797,7 +22798,7 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="135">
+    <row r="94" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>193</v>
       </c>
@@ -22992,7 +22993,7 @@
       </c>
       <c r="BL94" s="7"/>
     </row>
-    <row r="95" spans="2:64" ht="135">
+    <row r="95" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>90</v>
       </c>
@@ -23154,7 +23155,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" s="8" customFormat="1" ht="135">
+    <row r="96" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B96" s="17" t="s">
         <v>254</v>
       </c>
@@ -23368,7 +23369,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="120">
+    <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>91</v>
       </c>
@@ -23531,7 +23532,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="135">
+    <row r="98" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>924</v>
       </c>
@@ -23726,7 +23727,7 @@
       </c>
       <c r="BL98" s="17"/>
     </row>
-    <row r="99" spans="2:64" ht="150">
+    <row r="99" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>92</v>
       </c>
@@ -23933,7 +23934,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="150">
+    <row r="100" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>93</v>
       </c>
@@ -24137,7 +24138,7 @@
       </c>
       <c r="BL100" s="7"/>
     </row>
-    <row r="101" spans="2:64" ht="150">
+    <row r="101" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>963</v>
       </c>
@@ -24344,7 +24345,7 @@
       </c>
       <c r="BL101" s="17"/>
     </row>
-    <row r="102" spans="2:64" ht="150">
+    <row r="102" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>194</v>
       </c>
@@ -24539,7 +24540,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="70.5" customHeight="1">
+    <row r="103" spans="2:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>239</v>
       </c>
@@ -24727,7 +24728,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="150">
+    <row r="104" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>195</v>
       </c>
@@ -24923,7 +24924,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" s="8" customFormat="1" ht="150">
+    <row r="105" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B105" s="17" t="s">
         <v>94</v>
       </c>
@@ -25127,7 +25128,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="165">
+    <row r="106" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>95</v>
       </c>
@@ -25325,7 +25326,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="150">
+    <row r="107" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>96</v>
       </c>
@@ -25535,7 +25536,7 @@
       </c>
       <c r="BL107" s="7"/>
     </row>
-    <row r="108" spans="2:64" ht="180">
+    <row r="108" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>249</v>
       </c>
@@ -25733,7 +25734,7 @@
       </c>
       <c r="BL108" s="7"/>
     </row>
-    <row r="109" spans="2:64" ht="150">
+    <row r="109" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>196</v>
       </c>
@@ -25934,7 +25935,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" s="8" customFormat="1" ht="135">
+    <row r="110" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B110" s="17" t="s">
         <v>197</v>
       </c>
@@ -26138,7 +26139,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="135">
+    <row r="111" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>97</v>
       </c>
@@ -26345,7 +26346,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="19.5" customHeight="1">
+    <row r="112" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="17" t="s">
         <v>939</v>
       </c>
@@ -26526,7 +26527,7 @@
       </c>
       <c r="BL112" s="17"/>
     </row>
-    <row r="113" spans="2:64" s="17" customFormat="1" ht="19.5" customHeight="1">
+    <row r="113" spans="2:64" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="17" t="s">
         <v>98</v>
       </c>
@@ -26732,7 +26733,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="15.6" customHeight="1">
+    <row r="114" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>99</v>
       </c>
@@ -26927,7 +26928,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="150">
+    <row r="115" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>100</v>
       </c>
@@ -27137,7 +27138,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="120">
+    <row r="116" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>893</v>
       </c>
@@ -27299,7 +27300,7 @@
       </c>
       <c r="BL116" s="17"/>
     </row>
-    <row r="117" spans="2:64" ht="150">
+    <row r="117" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>101</v>
       </c>
@@ -27506,7 +27507,7 @@
       </c>
       <c r="BL117" s="7"/>
     </row>
-    <row r="118" spans="2:64" ht="135">
+    <row r="118" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>102</v>
       </c>
@@ -27701,7 +27702,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="150">
+    <row r="119" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>103</v>
       </c>
@@ -27911,7 +27912,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" s="17" customFormat="1" ht="165">
+    <row r="120" spans="2:64" s="17" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B120" s="17" t="s">
         <v>240</v>
       </c>
@@ -28108,7 +28109,7 @@
       </c>
       <c r="BL120" s="7"/>
     </row>
-    <row r="121" spans="2:64" s="17" customFormat="1" ht="120">
+    <row r="121" spans="2:64" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B121" s="17" t="s">
         <v>104</v>
       </c>
@@ -28272,7 +28273,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" s="17" customFormat="1" ht="166.5">
+    <row r="122" spans="2:64" s="17" customFormat="1" ht="160.5" x14ac:dyDescent="0.45">
       <c r="B122" s="13" t="s">
         <v>105</v>
       </c>
@@ -28485,7 +28486,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="165">
+    <row r="123" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B123" s="8" t="s">
         <v>106</v>
       </c>
@@ -28697,7 +28698,7 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="150">
+    <row r="124" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B124" s="8" t="s">
         <v>107</v>
       </c>
@@ -28909,7 +28910,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="150">
+    <row r="125" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B125" s="8" t="s">
         <v>108</v>
       </c>
@@ -29121,7 +29122,7 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="150">
+    <row r="126" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>198</v>
       </c>
@@ -29298,7 +29299,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" s="17" customFormat="1" ht="135">
+    <row r="127" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B127" s="8" t="s">
         <v>109</v>
       </c>
@@ -29501,7 +29502,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="135">
+    <row r="128" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
         <v>110</v>
       </c>
@@ -29713,7 +29714,7 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="165">
+    <row r="129" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B129" s="17" t="s">
         <v>949</v>
       </c>
@@ -29925,7 +29926,7 @@
       </c>
       <c r="BL129" s="17"/>
     </row>
-    <row r="130" spans="2:64" ht="409.5">
+    <row r="130" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>869</v>
       </c>
@@ -30126,7 +30127,7 @@
       </c>
       <c r="BL130" s="17"/>
     </row>
-    <row r="131" spans="2:64" s="17" customFormat="1" ht="150">
+    <row r="131" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B131" s="17" t="s">
         <v>889</v>
       </c>
@@ -30331,7 +30332,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="135">
+    <row r="132" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B132" s="8" t="s">
         <v>111</v>
       </c>
@@ -30543,7 +30544,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="135">
+    <row r="133" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B133" s="17" t="s">
         <v>199</v>
       </c>
@@ -30736,7 +30737,7 @@
       </c>
       <c r="BL133" s="7"/>
     </row>
-    <row r="134" spans="2:64" ht="150">
+    <row r="134" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>200</v>
       </c>
@@ -30934,7 +30935,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="180">
+    <row r="135" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B135" s="8" t="s">
         <v>112</v>
       </c>
@@ -31142,7 +31143,7 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="135">
+    <row r="136" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B136" s="17" t="s">
         <v>201</v>
       </c>
@@ -31348,7 +31349,7 @@
       </c>
       <c r="BL136" s="7"/>
     </row>
-    <row r="137" spans="2:64" ht="255">
+    <row r="137" spans="2:64" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B137" s="8" t="s">
         <v>113</v>
       </c>
@@ -31554,7 +31555,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="150">
+    <row r="138" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B138" s="8" t="s">
         <v>114</v>
       </c>
@@ -31758,7 +31759,7 @@
       </c>
       <c r="BL138" s="7"/>
     </row>
-    <row r="139" spans="2:64" ht="150">
+    <row r="139" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B139" s="8" t="s">
         <v>115</v>
       </c>
@@ -31962,7 +31963,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="165">
+    <row r="140" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B140" s="8" t="s">
         <v>116</v>
       </c>
@@ -32170,7 +32171,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="150">
+    <row r="141" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>202</v>
       </c>
@@ -32368,7 +32369,7 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="135">
+    <row r="142" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B142" s="17" t="s">
         <v>203</v>
       </c>
@@ -32572,7 +32573,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="150">
+    <row r="143" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B143" s="17" t="s">
         <v>117</v>
       </c>
@@ -32784,7 +32785,7 @@
       </c>
       <c r="BL143" s="7"/>
     </row>
-    <row r="144" spans="2:64" ht="135">
+    <row r="144" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B144" s="17" t="s">
         <v>1015</v>
       </c>
@@ -32988,7 +32989,7 @@
       </c>
       <c r="BL144" s="17"/>
     </row>
-    <row r="145" spans="2:64" ht="150">
+    <row r="145" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B145" s="8" t="s">
         <v>118</v>
       </c>
@@ -33194,7 +33195,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="150">
+    <row r="146" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B146" s="17" t="s">
         <v>119</v>
       </c>
@@ -33406,7 +33407,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="150">
+    <row r="147" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B147" s="17" t="s">
         <v>204</v>
       </c>
@@ -33610,7 +33611,7 @@
       </c>
       <c r="BL147" s="7"/>
     </row>
-    <row r="148" spans="2:64" ht="150">
+    <row r="148" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B148" s="17" t="s">
         <v>205</v>
       </c>
@@ -33814,7 +33815,7 @@
       </c>
       <c r="BL148" s="7"/>
     </row>
-    <row r="149" spans="2:64" ht="150">
+    <row r="149" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B149" s="17" t="s">
         <v>120</v>
       </c>
@@ -34026,7 +34027,7 @@
       </c>
       <c r="BL149" s="7"/>
     </row>
-    <row r="150" spans="2:64" ht="150">
+    <row r="150" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B150" s="17" t="s">
         <v>121</v>
       </c>
@@ -34238,7 +34239,7 @@
       </c>
       <c r="BL150" s="7"/>
     </row>
-    <row r="151" spans="2:64" ht="150">
+    <row r="151" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B151" s="17" t="s">
         <v>122</v>
       </c>
@@ -34450,7 +34451,7 @@
       </c>
       <c r="BL151" s="7"/>
     </row>
-    <row r="152" spans="2:64" ht="150">
+    <row r="152" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B152" s="17" t="s">
         <v>123</v>
       </c>
@@ -34662,7 +34663,7 @@
       </c>
       <c r="BL152" s="7"/>
     </row>
-    <row r="153" spans="2:64" ht="150">
+    <row r="153" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B153" s="17" t="s">
         <v>124</v>
       </c>
@@ -34874,7 +34875,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="150">
+    <row r="154" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B154" s="17" t="s">
         <v>125</v>
       </c>
@@ -35078,7 +35079,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="150">
+    <row r="155" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B155" s="17" t="s">
         <v>206</v>
       </c>
@@ -35282,7 +35283,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="150">
+    <row r="156" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B156" s="17" t="s">
         <v>267</v>
       </c>
@@ -35496,7 +35497,7 @@
       </c>
       <c r="BL156" s="7"/>
     </row>
-    <row r="157" spans="2:64" ht="165">
+    <row r="157" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B157" s="17" t="s">
         <v>126</v>
       </c>
@@ -35708,7 +35709,7 @@
       </c>
       <c r="BL157" s="7"/>
     </row>
-    <row r="158" spans="2:64" ht="150">
+    <row r="158" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>207</v>
       </c>
@@ -35903,7 +35904,7 @@
       </c>
       <c r="BL158" s="7"/>
     </row>
-    <row r="159" spans="2:64" ht="135">
+    <row r="159" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>127</v>
       </c>
@@ -36110,7 +36111,7 @@
       </c>
       <c r="BL159" s="7"/>
     </row>
-    <row r="160" spans="2:64" ht="150">
+    <row r="160" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>208</v>
       </c>
@@ -36305,7 +36306,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="150">
+    <row r="161" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>128</v>
       </c>
@@ -36512,7 +36513,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="135">
+    <row r="162" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>268</v>
       </c>
@@ -36710,7 +36711,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="409.5">
+    <row r="163" spans="2:64" ht="362.5" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>902</v>
       </c>
@@ -36899,7 +36900,7 @@
       </c>
       <c r="BL163" s="17"/>
     </row>
-    <row r="164" spans="2:64" ht="165">
+    <row r="164" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>910</v>
       </c>
@@ -37106,7 +37107,7 @@
       </c>
       <c r="BL164" s="17"/>
     </row>
-    <row r="165" spans="2:64" ht="150">
+    <row r="165" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>129</v>
       </c>
@@ -37313,7 +37314,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="150">
+    <row r="166" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>241</v>
       </c>
@@ -37508,7 +37509,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="135">
+    <row r="167" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>273</v>
       </c>
@@ -37694,7 +37695,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="135">
+    <row r="168" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>981</v>
       </c>
@@ -37901,7 +37902,7 @@
       </c>
       <c r="BL168" s="17"/>
     </row>
-    <row r="169" spans="2:64" ht="120">
+    <row r="169" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>916</v>
       </c>
@@ -38060,7 +38061,7 @@
       </c>
       <c r="BL169" s="17"/>
     </row>
-    <row r="170" spans="2:64" ht="165">
+    <row r="170" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>209</v>
       </c>
@@ -38261,7 +38262,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="409.5">
+    <row r="171" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>897</v>
       </c>
@@ -38468,7 +38469,7 @@
       </c>
       <c r="BL171" s="17"/>
     </row>
-    <row r="172" spans="2:64" ht="135">
+    <row r="172" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>210</v>
       </c>
@@ -38663,7 +38664,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="165">
+    <row r="173" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B173" s="6" t="s">
         <v>211</v>
       </c>
@@ -38858,7 +38859,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="165">
+    <row r="174" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>212</v>
       </c>
@@ -39053,7 +39054,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="165">
+    <row r="175" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>213</v>
       </c>
@@ -39248,7 +39249,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="150">
+    <row r="176" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>214</v>
       </c>
@@ -39443,7 +39444,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="150">
+    <row r="177" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>130</v>
       </c>
@@ -39638,7 +39639,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="180">
+    <row r="178" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>941</v>
       </c>
@@ -39833,7 +39834,7 @@
       </c>
       <c r="BL178" s="17"/>
     </row>
-    <row r="179" spans="2:64" ht="135">
+    <row r="179" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>131</v>
       </c>
@@ -40034,7 +40035,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="135">
+    <row r="180" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>867</v>
       </c>
@@ -40226,7 +40227,7 @@
       </c>
       <c r="BL180" s="17"/>
     </row>
-    <row r="181" spans="2:64" ht="150">
+    <row r="181" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>132</v>
       </c>
@@ -40427,7 +40428,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="150">
+    <row r="182" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>133</v>
       </c>
@@ -40634,7 +40635,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="135">
+    <row r="183" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>246</v>
       </c>
@@ -40826,7 +40827,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="120">
+    <row r="184" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>134</v>
       </c>
@@ -40991,7 +40992,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="135">
+    <row r="185" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -41186,7 +41187,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="150">
+    <row r="186" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>215</v>
       </c>
@@ -41381,7 +41382,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="120">
+    <row r="187" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>270</v>
       </c>
@@ -41546,7 +41547,7 @@
       </c>
       <c r="BL187" s="7"/>
     </row>
-    <row r="188" spans="2:64" ht="135">
+    <row r="188" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>136</v>
       </c>
@@ -41741,7 +41742,7 @@
       </c>
       <c r="BL188" s="7"/>
     </row>
-    <row r="189" spans="2:64" ht="150">
+    <row r="189" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>137</v>
       </c>
@@ -41948,7 +41949,7 @@
       </c>
       <c r="BL189" s="7"/>
     </row>
-    <row r="190" spans="2:64" ht="210">
+    <row r="190" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>912</v>
       </c>
@@ -42155,7 +42156,7 @@
       </c>
       <c r="BL190" s="17"/>
     </row>
-    <row r="191" spans="2:64" ht="150">
+    <row r="191" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>138</v>
       </c>
@@ -42362,7 +42363,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="135">
+    <row r="192" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>260</v>
       </c>
@@ -42563,7 +42564,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="120">
+    <row r="193" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>977</v>
       </c>
@@ -42729,7 +42730,7 @@
       </c>
       <c r="BL193" s="17"/>
     </row>
-    <row r="194" spans="2:64" ht="120">
+    <row r="194" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>269</v>
       </c>
@@ -42894,7 +42895,7 @@
       </c>
       <c r="BL194" s="7"/>
     </row>
-    <row r="195" spans="2:64" ht="409.5">
+    <row r="195" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>251</v>
       </c>
@@ -43093,7 +43094,7 @@
       </c>
       <c r="BL195" s="7"/>
     </row>
-    <row r="196" spans="2:64" ht="150">
+    <row r="196" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>139</v>
       </c>
@@ -43294,7 +43295,7 @@
       </c>
       <c r="BL196" s="7"/>
     </row>
-    <row r="197" spans="2:64" ht="135">
+    <row r="197" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>140</v>
       </c>
@@ -43501,7 +43502,7 @@
       </c>
       <c r="BL197" s="7"/>
     </row>
-    <row r="198" spans="2:64" ht="150">
+    <row r="198" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>216</v>
       </c>
@@ -43696,7 +43697,7 @@
       </c>
       <c r="BL198" s="7"/>
     </row>
-    <row r="199" spans="2:64" ht="135">
+    <row r="199" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>141</v>
       </c>
@@ -43903,7 +43904,7 @@
       </c>
       <c r="BL199" s="7"/>
     </row>
-    <row r="200" spans="2:64" ht="120">
+    <row r="200" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>945</v>
       </c>
@@ -44065,7 +44066,7 @@
       </c>
       <c r="BL200" s="17"/>
     </row>
-    <row r="201" spans="2:64" ht="15.95" customHeight="1">
+    <row r="201" spans="2:64" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>142</v>
       </c>
@@ -44266,7 +44267,7 @@
       </c>
       <c r="BL201" s="7"/>
     </row>
-    <row r="202" spans="2:64" ht="150">
+    <row r="202" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>143</v>
       </c>
@@ -44473,7 +44474,7 @@
       </c>
       <c r="BL202" s="7"/>
     </row>
-    <row r="203" spans="2:64" ht="135">
+    <row r="203" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>144</v>
       </c>
@@ -44680,7 +44681,7 @@
       </c>
       <c r="BL203" s="7"/>
     </row>
-    <row r="204" spans="2:64" ht="135">
+    <row r="204" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>271</v>
       </c>
@@ -44845,7 +44846,7 @@
       </c>
       <c r="BL204" s="7"/>
     </row>
-    <row r="205" spans="2:64" ht="150">
+    <row r="205" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>145</v>
       </c>
@@ -45043,7 +45044,7 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="165">
+    <row r="206" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>881</v>
       </c>
@@ -45250,7 +45251,7 @@
       </c>
       <c r="BL206" s="17"/>
     </row>
-    <row r="207" spans="2:64" ht="150">
+    <row r="207" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>217</v>
       </c>
@@ -45445,7 +45446,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="120">
+    <row r="208" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>957</v>
       </c>
@@ -45607,7 +45608,7 @@
       </c>
       <c r="BL208" s="17"/>
     </row>
-    <row r="209" spans="2:64" ht="165">
+    <row r="209" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>218</v>
       </c>
@@ -45805,7 +45806,7 @@
       </c>
       <c r="BL209" s="7"/>
     </row>
-    <row r="210" spans="2:64" ht="150">
+    <row r="210" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>146</v>
       </c>
@@ -46006,7 +46007,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="150">
+    <row r="211" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>931</v>
       </c>
@@ -46213,7 +46214,7 @@
       </c>
       <c r="BL211" s="17"/>
     </row>
-    <row r="212" spans="2:64" ht="150">
+    <row r="212" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>147</v>
       </c>
@@ -46420,7 +46421,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="120">
+    <row r="213" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>947</v>
       </c>
@@ -46579,7 +46580,7 @@
       </c>
       <c r="BL213" s="17"/>
     </row>
-    <row r="214" spans="2:64" ht="150">
+    <row r="214" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>919</v>
       </c>
@@ -46786,7 +46787,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="150">
+    <row r="215" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>219</v>
       </c>
@@ -46981,7 +46982,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="150">
+    <row r="216" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>220</v>
       </c>
@@ -47176,7 +47177,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="135">
+    <row r="217" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>221</v>
       </c>
@@ -47371,7 +47372,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="165">
+    <row r="218" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>222</v>
       </c>
@@ -47566,7 +47567,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="135">
+    <row r="219" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>148</v>
       </c>
@@ -47582,44 +47583,44 @@
       <c r="H219" t="s">
         <v>445</v>
       </c>
-      <c r="I219" t="s">
-        <v>448</v>
+      <c r="I219">
+        <v>1800</v>
       </c>
       <c r="J219" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="K219" s="17" t="s">
-        <v>448</v>
+      <c r="K219" s="17">
+        <v>1800</v>
       </c>
       <c r="L219" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="M219" s="17" t="s">
-        <v>448</v>
+      <c r="M219" s="17">
+        <v>1800</v>
       </c>
       <c r="N219" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="O219" s="17" t="s">
-        <v>448</v>
+      <c r="O219" s="17">
+        <v>1800</v>
       </c>
       <c r="P219" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="Q219" s="17" t="s">
-        <v>448</v>
+      <c r="Q219" s="17">
+        <v>1800</v>
       </c>
       <c r="R219" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="S219" s="17" t="s">
-        <v>448</v>
+      <c r="S219" s="17">
+        <v>1800</v>
       </c>
       <c r="T219" t="s">
         <v>445</v>
       </c>
-      <c r="U219" t="s">
-        <v>448</v>
+      <c r="U219" s="17">
+        <v>1800</v>
       </c>
       <c r="V219" s="8" t="s">
         <v>365</v>
@@ -47630,7 +47631,7 @@
       </c>
       <c r="X219" s="17">
         <f t="shared" si="100"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y219" s="17">
         <f t="shared" si="101"/>
@@ -47638,7 +47639,7 @@
       </c>
       <c r="Z219" s="17">
         <f t="shared" si="102"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA219" s="17">
         <f t="shared" si="103"/>
@@ -47646,7 +47647,7 @@
       </c>
       <c r="AB219" s="17">
         <f t="shared" si="104"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC219" s="17">
         <f t="shared" si="105"/>
@@ -47654,7 +47655,7 @@
       </c>
       <c r="AD219" s="17">
         <f t="shared" si="106"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE219" s="17">
         <f t="shared" si="107"/>
@@ -47662,7 +47663,7 @@
       </c>
       <c r="AF219" s="17">
         <f t="shared" si="108"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG219" s="17">
         <f t="shared" si="109"/>
@@ -47670,7 +47671,7 @@
       </c>
       <c r="AH219" s="17">
         <f t="shared" si="110"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI219" s="17">
         <f t="shared" si="111"/>
@@ -47678,35 +47679,35 @@
       </c>
       <c r="AJ219" s="17">
         <f t="shared" si="112"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK219" s="17" t="str">
         <f t="shared" si="113"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AL219" s="17" t="str">
         <f t="shared" si="114"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM219" s="17" t="str">
         <f t="shared" si="115"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN219" s="17" t="str">
         <f t="shared" si="116"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO219" s="17" t="str">
         <f t="shared" si="117"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP219" s="17" t="str">
         <f t="shared" si="118"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ219" s="17" t="str">
         <f t="shared" si="119"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AR219" s="17" t="s">
         <v>743</v>
@@ -47722,7 +47723,7 @@
         <v>{
     'name': "Sputnik",
     'area': "Baker",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "$5 wines by the glass, $3 wells and $2 PBRs and Lost Lakes", 'link':"http://www.sputnikdenver.com", 'pricing':"low",   'phone-number': "", 'address': "3 S. Broadway Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$5 wines by the glass, $3 wells and $2 PBRs and Lost Lakes", 'link':"http://www.sputnikdenver.com", 'pricing':"low",   'phone-number': "", 'address': "3 S. Broadway Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY219" s="17" t="str">
         <f t="shared" si="121"/>
@@ -47772,7 +47773,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="120">
+    <row r="220" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>265</v>
       </c>
@@ -47944,7 +47945,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="11.45" customHeight="1">
+    <row r="221" spans="2:64" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>252</v>
       </c>
@@ -48116,7 +48117,7 @@
       </c>
       <c r="BL221" s="7"/>
     </row>
-    <row r="222" spans="2:64" ht="150">
+    <row r="222" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>149</v>
       </c>
@@ -48322,7 +48323,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="150">
+    <row r="223" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>223</v>
       </c>
@@ -48516,7 +48517,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="150">
+    <row r="224" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>224</v>
       </c>
@@ -48710,7 +48711,7 @@
       </c>
       <c r="BL224" s="7"/>
     </row>
-    <row r="225" spans="2:64" ht="150">
+    <row r="225" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>225</v>
       </c>
@@ -48906,7 +48907,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="135">
+    <row r="226" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>150</v>
       </c>
@@ -49112,7 +49113,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="135">
+    <row r="227" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>151</v>
       </c>
@@ -49314,7 +49315,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="150">
+    <row r="228" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>226</v>
       </c>
@@ -49508,7 +49509,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="150">
+    <row r="229" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>152</v>
       </c>
@@ -49717,7 +49718,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="120">
+    <row r="230" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>922</v>
       </c>
@@ -49885,7 +49886,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:64" ht="150">
+    <row r="231" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>153</v>
       </c>
@@ -50081,7 +50082,7 @@
       </c>
       <c r="BL231" s="7"/>
     </row>
-    <row r="232" spans="2:64" ht="150">
+    <row r="232" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B232" s="17" t="s">
         <v>154</v>
       </c>
@@ -50278,7 +50279,7 @@
       </c>
       <c r="BL232" s="7"/>
     </row>
-    <row r="233" spans="2:64" ht="165">
+    <row r="233" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B233" s="17" t="s">
         <v>155</v>
       </c>
@@ -50472,7 +50473,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="150">
+    <row r="234" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>227</v>
       </c>
@@ -50666,7 +50667,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="27.95" customHeight="1">
+    <row r="235" spans="2:64" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>228</v>
       </c>
@@ -50862,7 +50863,7 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="150">
+    <row r="236" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>156</v>
       </c>
@@ -51056,7 +51057,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="150">
+    <row r="237" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>229</v>
       </c>
@@ -51252,7 +51253,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="15.6" customHeight="1">
+    <row r="238" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="17" t="s">
         <v>157</v>
       </c>
@@ -51458,7 +51459,7 @@
       </c>
       <c r="BL238" s="7"/>
     </row>
-    <row r="239" spans="2:64" ht="150">
+    <row r="239" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>230</v>
       </c>
@@ -51622,7 +51623,7 @@
       </c>
       <c r="BL239" s="7"/>
     </row>
-    <row r="240" spans="2:64" ht="150">
+    <row r="240" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>877</v>
       </c>
@@ -51827,7 +51828,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:64" ht="165">
+    <row r="241" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>983</v>
       </c>
@@ -52032,7 +52033,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:64" ht="150">
+    <row r="242" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>242</v>
       </c>
@@ -52224,7 +52225,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="180">
+    <row r="243" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>943</v>
       </c>
@@ -52423,7 +52424,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:64" ht="14.1" customHeight="1">
+    <row r="244" spans="2:64" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>951</v>
       </c>
@@ -52613,7 +52614,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:64" ht="135">
+    <row r="245" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>871</v>
       </c>
@@ -52818,7 +52819,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:64" ht="150">
+    <row r="246" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>253</v>
       </c>
@@ -53017,7 +53018,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="23.45" customHeight="1">
+    <row r="247" spans="2:64" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>906</v>
       </c>
@@ -53222,7 +53223,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:64" ht="150">
+    <row r="248" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>959</v>
       </c>
@@ -53427,7 +53428,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:64" ht="135">
+    <row r="249" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>158</v>
       </c>
@@ -53630,7 +53631,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="15.6" customHeight="1">
+    <row r="250" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>985</v>
       </c>
@@ -53835,7 +53836,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:64" ht="409.5">
+    <row r="251" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>920</v>
       </c>
@@ -54034,7 +54035,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:64" ht="165">
+    <row r="252" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>159</v>
       </c>
@@ -54240,7 +54241,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="135">
+    <row r="253" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>247</v>
       </c>
@@ -54449,7 +54450,7 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="165">
+    <row r="254" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>160</v>
       </c>
@@ -54655,7 +54656,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="165">
+    <row r="255" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>161</v>
       </c>
@@ -54849,7 +54850,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="120">
+    <row r="256" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>231</v>
       </c>
@@ -55020,7 +55021,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="135">
+    <row r="257" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>232</v>
       </c>
@@ -55215,7 +55216,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="135">
+    <row r="258" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>162</v>
       </c>
@@ -55405,7 +55406,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="120">
+    <row r="259" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>969</v>
       </c>
@@ -55567,7 +55568,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="2:64" ht="165">
+    <row r="260" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>163</v>
       </c>
@@ -55767,7 +55768,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="135">
+    <row r="261" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>965</v>
       </c>
@@ -55927,7 +55928,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="2:64" ht="150">
+    <row r="262" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>233</v>
       </c>
@@ -56123,7 +56124,7 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="150">
+    <row r="263" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>164</v>
       </c>
@@ -56317,7 +56318,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="150">
+    <row r="264" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>234</v>
       </c>
@@ -56514,7 +56515,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="135">
+    <row r="265" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>235</v>
       </c>
@@ -56708,7 +56709,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="150">
+    <row r="266" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>236</v>
       </c>
@@ -56902,7 +56903,7 @@
       </c>
       <c r="BL266" s="7"/>
     </row>
-    <row r="267" spans="2:64" ht="165">
+    <row r="267" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>165</v>
       </c>
@@ -57103,7 +57104,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="135">
+    <row r="268" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>166</v>
       </c>
@@ -57309,7 +57310,7 @@
       </c>
       <c r="BL268" s="7"/>
     </row>
-    <row r="269" spans="2:64" ht="409.5">
+    <row r="269" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>926</v>
       </c>
@@ -57514,7 +57515,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="2:64" ht="120">
+    <row r="270" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>263</v>
       </c>
@@ -57678,7 +57679,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="16.5" customHeight="1">
+    <row r="271" spans="2:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>973</v>
       </c>
@@ -57880,7 +57881,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:64" ht="165">
+    <row r="272" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B272" s="8" t="s">
         <v>167</v>
       </c>
@@ -58063,7 +58064,7 @@
       </c>
       <c r="BL272" s="7"/>
     </row>
-    <row r="273" spans="2:64" ht="150">
+    <row r="273" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>990</v>
       </c>
@@ -58264,7 +58265,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="2:64" ht="135">
+    <row r="274" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>237</v>
       </c>
@@ -58460,7 +58461,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="180">
+    <row r="275" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>928</v>
       </c>
@@ -58665,7 +58666,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="2:64" ht="135">
+    <row r="276" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>168</v>
       </c>
@@ -58859,7 +58860,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="135">
+    <row r="277" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>169</v>
       </c>
@@ -59065,7 +59066,7 @@
       </c>
       <c r="BL277" s="7"/>
     </row>
-    <row r="278" spans="2:64" ht="165">
+    <row r="278" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>961</v>
       </c>
@@ -59270,7 +59271,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:64" ht="120">
+    <row r="279" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>266</v>
       </c>
@@ -59446,7 +59447,7 @@
       </c>
       <c r="BL279" s="7"/>
     </row>
-    <row r="280" spans="2:64" ht="150">
+    <row r="280" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>170</v>
       </c>
@@ -59642,25 +59643,25 @@
       </c>
       <c r="BL280" s="7"/>
     </row>
-    <row r="281" spans="2:64">
+    <row r="281" spans="2:64" x14ac:dyDescent="0.35">
       <c r="AX281" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C281"/>
+  <autoFilter ref="C1:C281" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B2:BL282">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AR185" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://www.yelp.com/biz/backstreet-tavern-and-grill-aurora?osq=Happy+Hour"/>
-    <hyperlink ref="B116" r:id="rId3" display="https://www.yelp.com/biz/improper-city-denver?osq=Happy+Hour"/>
-    <hyperlink ref="B163" r:id="rId4" display="https://www.yelp.com/biz/neighbors-denver?osq=Happy+Hour"/>
-    <hyperlink ref="AR245" r:id="rId5"/>
-    <hyperlink ref="AR64" r:id="rId6"/>
-    <hyperlink ref="AR275" r:id="rId7"/>
-    <hyperlink ref="AR243" r:id="rId8"/>
-    <hyperlink ref="AR168" r:id="rId9"/>
-    <hyperlink ref="AR250" r:id="rId10"/>
+    <hyperlink ref="AR185" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" display="https://www.yelp.com/biz/backstreet-tavern-and-grill-aurora?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B116" r:id="rId3" display="https://www.yelp.com/biz/improper-city-denver?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B163" r:id="rId4" display="https://www.yelp.com/biz/neighbors-denver?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR245" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR64" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR275" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR243" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR168" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR250" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -59668,19 +59669,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="17"/>
+    <col min="1" max="1" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1">
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F1" s="17" t="s">
         <v>952</v>
       </c>
@@ -59691,7 +59692,7 @@
         <v>-104.89925700000001</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>39.762000999999998</v>
       </c>
@@ -59711,7 +59712,7 @@
         <v>-104.896202</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>39.693313000000003</v>
       </c>
@@ -59731,7 +59732,7 @@
         <v>-104.90736800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>39.744377999999998</v>
       </c>
@@ -59751,7 +59752,7 @@
         <v>-104.900052</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>39.740309000000003</v>
       </c>
@@ -59771,7 +59772,7 @@
         <v>-104.90113700000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>39.743088999999998</v>
       </c>
@@ -59791,7 +59792,7 @@
         <v>-104.890957</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>39.737243999999997</v>
       </c>
@@ -59811,7 +59812,7 @@
         <v>-104.893152</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>39.729456999999996</v>
       </c>
@@ -59831,7 +59832,7 @@
         <v>-105.053961</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>39.762216000000002</v>
       </c>
@@ -59851,7 +59852,7 @@
         <v>-105.087872</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>39.757525000000001</v>
       </c>
@@ -59871,7 +59872,7 @@
         <v>-105.074556</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>39.748451000000003</v>
       </c>
@@ -59891,7 +59892,7 @@
         <v>-104.99174499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>39.580275999999998</v>
       </c>
@@ -59911,7 +59912,7 @@
         <v>-105.082871</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>39.775143</v>
       </c>
@@ -59931,7 +59932,7 @@
         <v>-105.096981</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>39.750148000000003</v>
       </c>
@@ -59951,7 +59952,7 @@
         <v>-105.07514999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>39.759230000000002</v>
       </c>
@@ -59971,7 +59972,7 @@
         <v>-105.042728</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>39.757385999999997</v>
       </c>
@@ -59991,7 +59992,7 @@
         <v>-105.03295</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>39.757652999999998</v>
       </c>
@@ -60011,7 +60012,7 @@
         <v>-105.100269</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>39.758181999999998</v>
       </c>
@@ -60031,7 +60032,7 @@
         <v>-105.05287199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>39.697816000000003</v>
       </c>
@@ -60042,7 +60043,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>39.730746000000003</v>
       </c>
@@ -60053,7 +60054,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>39.714894000000001</v>
       </c>
@@ -60064,7 +60065,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>39.753149000000001</v>
       </c>
@@ -60075,7 +60076,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>39.736646999999998</v>
       </c>
@@ -60086,7 +60087,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>39.627025000000003</v>
       </c>
@@ -60097,7 +60098,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>39.746347999999998</v>
       </c>
@@ -60108,7 +60109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>39.743907999999998</v>
       </c>
@@ -60119,7 +60120,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>39.740367999999997</v>
       </c>
@@ -60130,7 +60131,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>39.749684000000002</v>
       </c>
@@ -60141,7 +60142,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>39.776845000000002</v>
       </c>
@@ -60152,7 +60153,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>39.747732999999997</v>
       </c>
@@ -60163,7 +60164,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>39.709715000000003</v>
       </c>
@@ -60174,7 +60175,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>39.735475999999998</v>
       </c>
@@ -60185,7 +60186,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>39.757776</v>
       </c>
@@ -60196,7 +60197,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>39.749901999999999</v>
       </c>
@@ -60207,7 +60208,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>39.71311</v>
       </c>
@@ -60218,7 +60219,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>39.753261999999999</v>
       </c>
@@ -60229,7 +60230,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>39.739961000000001</v>
       </c>
@@ -60240,7 +60241,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>39.726928000000001</v>
       </c>
@@ -60251,7 +60252,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>39.753548000000002</v>
       </c>
@@ -60262,7 +60263,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>39.762279999999997</v>
       </c>
@@ -60273,7 +60274,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>39.764588000000003</v>
       </c>
@@ -60284,7 +60285,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>39.718100999999997</v>
       </c>
@@ -60295,7 +60296,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>39.743485</v>
       </c>
@@ -60306,7 +60307,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>39.754244</v>
       </c>
@@ -60317,7 +60318,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>39.75423</v>
       </c>
@@ -60328,7 +60329,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>39.732211</v>
       </c>
@@ -60339,7 +60340,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>39.715550999999998</v>
       </c>
@@ -60350,7 +60351,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>39.740233000000003</v>
       </c>
@@ -60361,7 +60362,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>39.754506999999997</v>
       </c>
@@ -60372,7 +60373,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>39.752104000000003</v>
       </c>
@@ -60383,7 +60384,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>39.705559000000001</v>
       </c>
@@ -60394,7 +60395,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>39.722323000000003</v>
       </c>
@@ -60405,7 +60406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>39.740251999999998</v>
       </c>
@@ -60416,7 +60417,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>39.720790000000001</v>
       </c>
@@ -60427,7 +60428,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>39.752896999999997</v>
       </c>
@@ -60438,7 +60439,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>39.711931999999997</v>
       </c>
@@ -60449,7 +60450,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>39.753444000000002</v>
       </c>
@@ -60460,7 +60461,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>39.753259999999997</v>
       </c>
@@ -60471,7 +60472,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>39.562533000000002</v>
       </c>
@@ -60482,7 +60483,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>39.886087000000003</v>
       </c>
@@ -60493,7 +60494,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>39.759230000000002</v>
       </c>
@@ -60504,7 +60505,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>39.759247000000002</v>
       </c>
@@ -60515,7 +60516,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>39.720298</v>
       </c>
@@ -60526,7 +60527,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>39.751266000000001</v>
       </c>
@@ -60537,7 +60538,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>39.754505999999999</v>
       </c>
@@ -60548,7 +60549,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <v>39.579492999999999</v>
       </c>
@@ -60559,7 +60560,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <v>39.719656000000001</v>
       </c>
@@ -60570,7 +60571,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>39.751446000000001</v>
       </c>
@@ -60581,7 +60582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <v>39.746012999999998</v>
       </c>
@@ -60592,7 +60593,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <v>39.750191000000001</v>
       </c>
@@ -60603,7 +60604,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
         <v>39.697411000000002</v>
       </c>
@@ -60614,7 +60615,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>39.739936</v>
       </c>
@@ -60625,7 +60626,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>39.753041000000003</v>
       </c>
@@ -60636,7 +60637,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>39.746029</v>
       </c>
@@ -60647,7 +60648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>39.744244000000002</v>
       </c>
@@ -60658,7 +60659,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>39.733856000000003</v>
       </c>
@@ -60669,7 +60670,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
         <v>39.561844999999998</v>
       </c>
@@ -60680,7 +60681,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>39.756714000000002</v>
       </c>
@@ -60691,7 +60692,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>39.761527999999998</v>
       </c>
@@ -60702,7 +60703,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>39.748671999999999</v>
       </c>
@@ -60713,7 +60714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>39.696491000000002</v>
       </c>
@@ -60724,7 +60725,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>39.753753000000003</v>
       </c>
@@ -60735,7 +60736,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>39.717928999999998</v>
       </c>
@@ -60746,7 +60747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>39.748474999999999</v>
       </c>
@@ -60757,7 +60758,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
         <v>39.753697000000003</v>
       </c>
@@ -60768,7 +60769,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
         <v>39.753298000000001</v>
       </c>
@@ -60779,7 +60780,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
         <v>39.748373000000001</v>
       </c>
@@ -60790,7 +60791,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
         <v>39.746763999999999</v>
       </c>
@@ -60801,7 +60802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
         <v>39.554721000000001</v>
       </c>
@@ -60812,7 +60813,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
         <v>39.763044000000001</v>
       </c>
@@ -60823,7 +60824,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
         <v>39.735013000000002</v>
       </c>
@@ -60834,7 +60835,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
         <v>39.726702000000003</v>
       </c>
@@ -60845,7 +60846,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
         <v>39.742266000000001</v>
       </c>
@@ -60856,7 +60857,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
         <v>39.716388999999999</v>
       </c>
@@ -60867,7 +60868,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>39.743614000000001</v>
       </c>
@@ -60878,7 +60879,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>39.739877999999997</v>
       </c>
@@ -60889,7 +60890,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>39.740278000000004</v>
       </c>
@@ -60900,7 +60901,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>39.747244999999999</v>
       </c>
@@ -60911,7 +60912,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>39.753545000000003</v>
       </c>
@@ -60922,7 +60923,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>39.689847</v>
       </c>
@@ -60933,7 +60934,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>39.747022999999999</v>
       </c>
@@ -60944,7 +60945,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>39.740172000000001</v>
       </c>
@@ -60955,7 +60956,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>39.731243999999997</v>
       </c>
@@ -60966,7 +60967,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>39.748874000000001</v>
       </c>
@@ -60977,7 +60978,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>39.763078</v>
       </c>
@@ -60988,7 +60989,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>39.719614</v>
       </c>
@@ -60999,7 +61000,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="17">
         <v>39.752319</v>
       </c>
@@ -61010,7 +61011,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>39.740265999999998</v>
       </c>
@@ -61021,7 +61022,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="17">
         <v>39.753529</v>
       </c>
@@ -61032,7 +61033,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="17">
         <v>39.752625999999999</v>
       </c>
@@ -61043,7 +61044,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="17">
         <v>39.696769000000003</v>
       </c>
@@ -61054,7 +61055,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="17">
         <v>39.758243</v>
       </c>
@@ -61065,7 +61066,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="17">
         <v>39.562100000000001</v>
       </c>
@@ -61076,7 +61077,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="17">
         <v>39.737001999999997</v>
       </c>
@@ -61087,7 +61088,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="17">
         <v>39.742311000000001</v>
       </c>
@@ -61098,7 +61099,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="17">
         <v>39.753321999999997</v>
       </c>
@@ -61109,7 +61110,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="17">
         <v>39.741810999999998</v>
       </c>
@@ -61120,7 +61121,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="17">
         <v>39.743558</v>
       </c>
@@ -61131,7 +61132,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="17">
         <v>39.744467</v>
       </c>
@@ -61142,7 +61143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>39.715843999999997</v>
       </c>
@@ -61153,7 +61154,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>39.774205000000002</v>
       </c>
@@ -61164,7 +61165,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="17">
         <v>39.749842000000001</v>
       </c>
@@ -61175,7 +61176,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="17">
         <v>39.708105000000003</v>
       </c>
@@ -61186,7 +61187,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>39.567087000000001</v>
       </c>
@@ -61197,7 +61198,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="17">
         <v>39.747915999999996</v>
       </c>
@@ -61208,7 +61209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>39.753048</v>
       </c>
@@ -61219,7 +61220,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="17">
         <v>39.887169999999998</v>
       </c>
@@ -61230,7 +61231,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>39.753048</v>
       </c>
@@ -61241,7 +61242,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="17">
         <v>39.768611</v>
       </c>
@@ -61252,7 +61253,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="17">
         <v>39.745508999999998</v>
       </c>
@@ -61263,7 +61264,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="17">
         <v>39.747855000000001</v>
       </c>
@@ -61274,7 +61275,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="17">
         <v>39.755369000000002</v>
       </c>
@@ -61285,7 +61286,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="17">
         <v>39.764783000000001</v>
       </c>
@@ -61296,7 +61297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="17">
         <v>39.751938000000003</v>
       </c>
@@ -61307,7 +61308,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="17">
         <v>39.716735</v>
       </c>
@@ -61318,7 +61319,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="17">
         <v>39.748604</v>
       </c>
@@ -61329,7 +61330,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="17">
         <v>39.746630000000003</v>
       </c>
@@ -61340,7 +61341,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="17">
         <v>39.746867999999999</v>
       </c>
@@ -61351,7 +61352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="17">
         <v>39.769083000000002</v>
       </c>
@@ -61362,7 +61363,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="17">
         <v>39.548974000000001</v>
       </c>
@@ -61373,7 +61374,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="17">
         <v>39.747703999999999</v>
       </c>
@@ -61384,7 +61385,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="17">
         <v>39.753656999999997</v>
       </c>
@@ -61395,7 +61396,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="17">
         <v>39.771388000000002</v>
       </c>
@@ -61406,7 +61407,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="17">
         <v>39.744905000000003</v>
       </c>
@@ -61417,7 +61418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="17">
         <v>39.743535999999999</v>
       </c>
@@ -61428,7 +61429,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="17">
         <v>39.759523999999999</v>
       </c>
@@ -61439,7 +61440,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="17">
         <v>39.779904999999999</v>
       </c>
@@ -61450,7 +61451,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="17">
         <v>39.624664000000003</v>
       </c>
@@ -61461,7 +61462,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="17">
         <v>39.739994000000003</v>
       </c>
@@ -61472,7 +61473,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="17">
         <v>39.721240000000002</v>
       </c>
@@ -61483,7 +61484,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="17">
         <v>39.752943999999999</v>
       </c>
@@ -61494,7 +61495,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="17">
         <v>39.744129999999998</v>
       </c>
@@ -61505,7 +61506,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="17">
         <v>39.748451000000003</v>
       </c>
@@ -61516,7 +61517,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="17">
         <v>39.765416000000002</v>
       </c>
@@ -61527,7 +61528,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="17">
         <v>39.748308999999999</v>
       </c>
@@ -61538,7 +61539,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="17">
         <v>39.714562999999998</v>
       </c>
@@ -61549,7 +61550,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="17">
         <v>39.650627</v>
       </c>
@@ -61560,7 +61561,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="17">
         <v>39.571725999999998</v>
       </c>
@@ -61571,7 +61572,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="17">
         <v>39.717309999999998</v>
       </c>
@@ -61582,7 +61583,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="17">
         <v>39.752623</v>
       </c>
@@ -61593,7 +61594,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="17">
         <v>39.739866999999997</v>
       </c>
@@ -61604,7 +61605,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="17">
         <v>39.696883</v>
       </c>
@@ -61615,7 +61616,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="17">
         <v>39.747565999999999</v>
       </c>
@@ -61626,7 +61627,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="17">
         <v>39.625109999999999</v>
       </c>
@@ -61637,7 +61638,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="17">
         <v>39.713577999999998</v>
       </c>
@@ -61648,7 +61649,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="17">
         <v>39.718888</v>
       </c>
@@ -61659,7 +61660,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="17">
         <v>39.748978999999999</v>
       </c>
@@ -61670,7 +61671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="17">
         <v>39.753664000000001</v>
       </c>
@@ -61681,7 +61682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="17">
         <v>39.749408000000003</v>
       </c>
@@ -61692,7 +61693,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="17">
         <v>39.734262000000001</v>
       </c>
@@ -61703,7 +61704,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="17">
         <v>39.744083000000003</v>
       </c>
@@ -61714,7 +61715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="17">
         <v>39.748137999999997</v>
       </c>
@@ -61725,7 +61726,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="17">
         <v>39.752966000000001</v>
       </c>
@@ -61736,7 +61737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="17">
         <v>39.753988</v>
       </c>
@@ -61747,7 +61748,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="17">
         <v>39.633947999999997</v>
       </c>
@@ -61758,7 +61759,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="17">
         <v>39.752338000000002</v>
       </c>
@@ -61769,7 +61770,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="17">
         <v>39.743079000000002</v>
       </c>
@@ -61780,7 +61781,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="17">
         <v>39.761834</v>
       </c>
@@ -61791,7 +61792,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="17">
         <v>39.752079999999999</v>
       </c>
@@ -61802,7 +61803,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="17">
         <v>39.754089</v>
       </c>
@@ -61813,7 +61814,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="17">
         <v>39.692846000000003</v>
       </c>
@@ -61824,7 +61825,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="17">
         <v>39.764623</v>
       </c>
@@ -61835,7 +61836,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="17">
         <v>39.743389999999998</v>
       </c>
@@ -61846,7 +61847,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="17">
         <v>39.712662999999999</v>
       </c>
@@ -61857,7 +61858,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="17">
         <v>39.689124</v>
       </c>
@@ -61868,7 +61869,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="17">
         <v>39.689574999999998</v>
       </c>
@@ -61879,7 +61880,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="17">
         <v>39.759624000000002</v>
       </c>
@@ -61890,7 +61891,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="17">
         <v>39.747588</v>
       </c>
@@ -61901,7 +61902,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="17">
         <v>39.759112999999999</v>
       </c>
@@ -61912,7 +61913,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="17">
         <v>39.762264999999999</v>
       </c>
@@ -61923,7 +61924,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="17">
         <v>39.758626</v>
       </c>
@@ -61934,7 +61935,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="17">
         <v>39.764195999999998</v>
       </c>
@@ -61945,7 +61946,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="17">
         <v>39.74342</v>
       </c>
@@ -61956,7 +61957,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="17">
         <v>39.747605</v>
       </c>
@@ -61967,7 +61968,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="17">
         <v>39.717194999999997</v>
       </c>
@@ -61978,7 +61979,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="17">
         <v>39.758265999999999</v>
       </c>
@@ -61989,7 +61990,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="17">
         <v>39.761527999999998</v>
       </c>
@@ -62000,7 +62001,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="17">
         <v>39.76153</v>
       </c>
@@ -62011,7 +62012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="17">
         <v>39.764136000000001</v>
       </c>
@@ -62022,7 +62023,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="17">
         <v>39.687908999999998</v>
       </c>
@@ -62033,7 +62034,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="17">
         <v>39.696708999999998</v>
       </c>
@@ -62044,7 +62045,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="17">
         <v>39.770651000000001</v>
       </c>
@@ -62055,7 +62056,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="17">
         <v>39.743442999999999</v>
       </c>
@@ -62066,7 +62067,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="17">
         <v>39.756242</v>
       </c>
@@ -62077,7 +62078,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="17">
         <v>39.769196999999998</v>
       </c>
@@ -62088,7 +62089,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="17">
         <v>39.726602999999997</v>
       </c>
@@ -62099,7 +62100,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="17">
         <v>39.751067999999997</v>
       </c>
@@ -62110,7 +62111,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="17">
         <v>39.720252000000002</v>
       </c>
@@ -62121,7 +62122,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="17">
         <v>39.758603999999998</v>
       </c>
@@ -62132,7 +62133,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="17">
         <v>39.761971000000003</v>
       </c>
@@ -62143,7 +62144,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="17">
         <v>39.75461</v>
       </c>
@@ -62154,7 +62155,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="17">
         <v>39.751987</v>
       </c>
@@ -62165,7 +62166,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="17">
         <v>39.759079999999997</v>
       </c>
@@ -62176,7 +62177,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="17">
         <v>39.756174000000001</v>
       </c>
@@ -62187,7 +62188,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="17">
         <v>39.761485999999998</v>
       </c>
@@ -62198,7 +62199,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="17">
         <v>39.760278</v>
       </c>
@@ -62209,7 +62210,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="17">
         <v>39.747579000000002</v>
       </c>
@@ -62220,7 +62221,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="17">
         <v>39.699542999999998</v>
       </c>
@@ -62231,7 +62232,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="17">
         <v>39.719448</v>
       </c>
@@ -62242,7 +62243,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="17">
         <v>39.770215</v>
       </c>
@@ -62253,7 +62254,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="17">
         <v>39.611553999999998</v>
       </c>
@@ -62264,7 +62265,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="17">
         <v>39.674106000000002</v>
       </c>
@@ -62275,7 +62276,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="17">
         <v>39.601990000000001</v>
       </c>
@@ -62286,7 +62287,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="17">
         <v>39.668801999999999</v>
       </c>
@@ -62297,7 +62298,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="17">
         <v>39.675908</v>
       </c>
@@ -62308,7 +62309,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="17">
         <v>39.681429999999999</v>
       </c>
@@ -62319,7 +62320,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="17">
         <v>39.675198999999999</v>
       </c>
@@ -62330,7 +62331,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="17">
         <v>39.586047999999998</v>
       </c>
@@ -62341,7 +62342,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="17">
         <v>39.605943000000003</v>
       </c>
@@ -62352,7 +62353,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="17">
         <v>39.595573999999999</v>
       </c>
@@ -62363,7 +62364,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="17">
         <v>39.594088999999997</v>
       </c>
@@ -62374,7 +62375,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="17">
         <v>39.753048</v>
       </c>
@@ -62385,7 +62386,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="17">
         <v>39.674323999999999</v>
       </c>
@@ -62396,7 +62397,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="17">
         <v>39.695515</v>
       </c>
@@ -62407,7 +62408,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="17">
         <v>39.765352</v>
       </c>
@@ -62418,7 +62419,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="17">
         <v>39.651457999999998</v>
       </c>
@@ -62429,7 +62430,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="17">
         <v>39.719270999999999</v>
       </c>
@@ -62440,7 +62441,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="17">
         <v>39.720298</v>
       </c>
@@ -62451,7 +62452,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="17">
         <v>39.720934</v>
       </c>
@@ -62462,7 +62463,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="17">
         <v>39.749504999999999</v>
       </c>
@@ -62473,7 +62474,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="17">
         <v>39.681569000000003</v>
       </c>
@@ -62484,7 +62485,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="17">
         <v>39.739950999999998</v>
       </c>
@@ -62495,7 +62496,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="17">
         <v>39.740448999999998</v>
       </c>
@@ -62506,7 +62507,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="17">
         <v>39.759636</v>
       </c>
@@ -62517,7 +62518,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="17">
         <v>39.760672</v>
       </c>
@@ -62528,7 +62529,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="17">
         <v>39.75929</v>
       </c>
@@ -62539,7 +62540,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="17">
         <v>39.777763999999998</v>
       </c>
@@ -62550,7 +62551,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="17">
         <v>39.75929</v>
       </c>
@@ -62561,7 +62562,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="17">
         <v>39.772289000000001</v>
       </c>
@@ -62572,7 +62573,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="17">
         <v>39.772125000000003</v>
       </c>
@@ -62583,7 +62584,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="17">
         <v>39.769289000000001</v>
       </c>
@@ -62594,7 +62595,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="17">
         <v>39.771968000000001</v>
       </c>
@@ -62605,7 +62606,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="17">
         <v>39.757652999999998</v>
       </c>
@@ -62616,7 +62617,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="17">
         <v>39.761282000000001</v>
       </c>
@@ -62627,7 +62628,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="17">
         <v>39.753430000000002</v>
       </c>
@@ -62638,7 +62639,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="17">
         <v>39.763458</v>
       </c>
@@ -62649,7 +62650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="17">
         <v>39.758861000000003</v>
       </c>
@@ -62660,7 +62661,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="17">
         <v>39.745914999999997</v>
       </c>
@@ -62671,7 +62672,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="17">
         <v>39.737020000000001</v>
       </c>
@@ -62682,7 +62683,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="17">
         <v>39.743422000000002</v>
       </c>
@@ -62693,7 +62694,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="17">
         <v>39.741211999999997</v>
       </c>
@@ -62704,7 +62705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="17">
         <v>39.746059000000002</v>
       </c>
@@ -62715,7 +62716,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="17">
         <v>39.744874000000003</v>
       </c>
@@ -62726,7 +62727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="17">
         <v>39.740530999999997</v>
       </c>
@@ -62737,62 +62738,62 @@
         <v>305</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C266" s="17"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C267" s="17"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C270" s="17"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C273" s="17"/>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C274" s="17"/>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C278" s="17"/>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C282" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C282"/>
+  <autoFilter ref="C1:C282" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="SSC_SHEET_GUID" r:id="rId1"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB6BFF-8049-4901-8E21-D8ACB230BD41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7B7D8-81ED-4E86-94B6-3880067E584E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="1150">
   <si>
     <t>Name</t>
   </si>
@@ -3489,7 +3489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4441,11 +4441,11 @@
   <dimension ref="B1:BL281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U219" sqref="U219"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
@@ -4470,7 +4470,7 @@
     <col min="58" max="58" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="145">
       <c r="B2" t="s">
         <v>171</v>
       </c>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="BL2" s="7"/>
     </row>
-    <row r="3" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="130.5">
       <c r="B3" t="s">
         <v>979</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="BL3" s="17"/>
     </row>
-    <row r="4" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="130.5">
       <c r="B4" t="s">
         <v>908</v>
       </c>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="BL4" s="17"/>
     </row>
-    <row r="5" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="159.5">
       <c r="B5" t="s">
         <v>172</v>
       </c>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B6" s="17" t="s">
         <v>60</v>
       </c>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="BL6" s="7"/>
     </row>
-    <row r="7" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="130.5">
       <c r="B7" t="s">
         <v>238</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="BL7" s="7"/>
     </row>
-    <row r="8" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="130.5">
       <c r="B8" t="s">
         <v>255</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="BL8" s="7"/>
     </row>
-    <row r="9" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B9" s="17" t="s">
         <v>245</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="BL9" s="7"/>
     </row>
-    <row r="10" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="130.5">
       <c r="B10" t="s">
         <v>955</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="BL10" s="17"/>
     </row>
-    <row r="11" spans="2:64" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" s="17" customFormat="1" ht="116">
       <c r="B11" s="17" t="s">
         <v>875</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B12" s="17" t="s">
         <v>887</v>
       </c>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="BL12" s="17"/>
     </row>
-    <row r="13" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B13" s="17" t="s">
         <v>61</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="409.5">
       <c r="B14" t="s">
         <v>967</v>
       </c>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="BL14" s="17"/>
     </row>
-    <row r="15" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="116">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="116">
       <c r="B16" t="s">
         <v>244</v>
       </c>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="BL16" s="7"/>
     </row>
-    <row r="17" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="145">
       <c r="B17" t="s">
         <v>63</v>
       </c>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="BL17" s="7"/>
     </row>
-    <row r="18" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="116">
       <c r="B18" s="1" t="s">
         <v>891</v>
       </c>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="BL18" s="17"/>
     </row>
-    <row r="19" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="145">
       <c r="B19" t="s">
         <v>64</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="BL19" s="7"/>
     </row>
-    <row r="20" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="130.5">
       <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="BL20" s="7"/>
     </row>
-    <row r="21" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="145">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="BL21" s="7"/>
     </row>
-    <row r="22" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="145">
       <c r="B22" t="s">
         <v>933</v>
       </c>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="BL22" s="17"/>
     </row>
-    <row r="23" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="145">
       <c r="B23" t="s">
         <v>953</v>
       </c>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="BL23" s="17"/>
     </row>
-    <row r="24" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" s="8" customFormat="1" ht="116">
       <c r="B24" s="17" t="s">
         <v>929</v>
       </c>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="BL24" s="17"/>
     </row>
-    <row r="25" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B25" s="17" t="s">
         <v>173</v>
       </c>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" s="8" customFormat="1" ht="116">
       <c r="B26" s="17" t="s">
         <v>257</v>
       </c>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B27" s="17" t="s">
         <v>174</v>
       </c>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="BL27" s="7"/>
     </row>
-    <row r="28" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="130.5">
       <c r="B28" s="17" t="s">
         <v>175</v>
       </c>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B29" s="17" t="s">
         <v>248</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="159.5">
       <c r="B30" t="s">
         <v>970</v>
       </c>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="BL30" s="17"/>
     </row>
-    <row r="31" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="145">
       <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="BL31" s="7"/>
     </row>
-    <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="130.5">
       <c r="B32" s="17" t="s">
         <v>176</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="BL32" s="7"/>
     </row>
-    <row r="33" spans="2:64" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="246.5">
       <c r="B33" s="8" t="s">
         <v>68</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="145">
       <c r="B34" s="8" t="s">
         <v>177</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="130.5">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="130.5">
       <c r="B36" s="8" t="s">
         <v>69</v>
       </c>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="BL36" s="7"/>
     </row>
-    <row r="37" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="130.5">
       <c r="B37" t="s">
         <v>70</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="116">
       <c r="B38" t="s">
         <v>879</v>
       </c>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="116">
       <c r="B39" t="s">
         <v>259</v>
       </c>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="116">
       <c r="B40" t="s">
         <v>261</v>
       </c>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="BL40" s="7"/>
     </row>
-    <row r="41" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="116">
       <c r="B41" t="s">
         <v>71</v>
       </c>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="145">
       <c r="B42" t="s">
         <v>72</v>
       </c>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="130.5">
       <c r="B43" t="s">
         <v>73</v>
       </c>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="130.5">
       <c r="B44" t="s">
         <v>873</v>
       </c>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="BL44" s="17"/>
     </row>
-    <row r="45" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B45" s="17" t="s">
         <v>74</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5">
       <c r="B46" s="17" t="s">
         <v>914</v>
       </c>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="BL46" s="17"/>
     </row>
-    <row r="47" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B47" s="17" t="s">
         <v>179</v>
       </c>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" s="8" customFormat="1" ht="116">
       <c r="B48" s="17" t="s">
         <v>272</v>
       </c>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="BL48" s="7"/>
     </row>
-    <row r="49" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="BL49" s="7"/>
     </row>
-    <row r="50" spans="2:64" s="8" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" s="8" customFormat="1" ht="116">
       <c r="B50" s="17" t="s">
         <v>180</v>
       </c>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B51" s="17" t="s">
         <v>900</v>
       </c>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="BL51" s="17"/>
     </row>
-    <row r="52" spans="2:64" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" s="8" customFormat="1" ht="145">
       <c r="B52" s="17" t="s">
         <v>76</v>
       </c>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" s="8" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" s="8" customFormat="1" ht="159.5">
       <c r="B53" s="17" t="s">
         <v>883</v>
       </c>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="BL53" s="17"/>
     </row>
-    <row r="54" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B54" s="17" t="s">
         <v>181</v>
       </c>
@@ -15069,7 +15069,7 @@
       </c>
       <c r="BL54" s="7"/>
     </row>
-    <row r="55" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B55" s="17" t="s">
         <v>77</v>
       </c>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BL55" s="7"/>
     </row>
-    <row r="56" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B56" s="17" t="s">
         <v>78</v>
       </c>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="BL56" s="7"/>
     </row>
-    <row r="57" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="145">
       <c r="B57" s="17" t="s">
         <v>182</v>
       </c>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="BL57" s="7"/>
     </row>
-    <row r="58" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="145">
       <c r="B58" s="17" t="s">
         <v>183</v>
       </c>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="BL58" s="7"/>
     </row>
-    <row r="59" spans="2:64" ht="232" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="232">
       <c r="B59" s="17" t="s">
         <v>918</v>
       </c>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="BL59" s="17"/>
     </row>
-    <row r="60" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="130.5">
       <c r="B60" s="8" t="s">
         <v>184</v>
       </c>
@@ -16319,7 +16319,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="159.5">
       <c r="B61" t="s">
         <v>256</v>
       </c>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="130.5">
       <c r="B62" s="17" t="s">
         <v>185</v>
       </c>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="BL62" s="7"/>
     </row>
-    <row r="63" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="159.5">
       <c r="B63" t="s">
         <v>937</v>
       </c>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="BL63" s="17"/>
     </row>
-    <row r="64" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="145">
       <c r="B64" t="s">
         <v>885</v>
       </c>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="BL64" s="17"/>
     </row>
-    <row r="65" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="130.5">
       <c r="B65" s="8" t="s">
         <v>79</v>
       </c>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="BL65" s="7"/>
     </row>
-    <row r="66" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="116">
       <c r="B66" s="8" t="s">
         <v>80</v>
       </c>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="116">
       <c r="B67" t="s">
         <v>250</v>
       </c>
@@ -17719,7 +17719,7 @@
       </c>
       <c r="BL67" s="7"/>
     </row>
-    <row r="68" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="145">
       <c r="B68" t="s">
         <v>186</v>
       </c>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="116">
       <c r="B69" t="s">
         <v>262</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="130.5">
       <c r="B70" t="s">
         <v>187</v>
       </c>
@@ -18095,32 +18095,32 @@
       <c r="J70" t="s">
         <v>445</v>
       </c>
-      <c r="K70" t="s">
-        <v>448</v>
+      <c r="K70">
+        <v>1800</v>
       </c>
       <c r="L70" t="s">
         <v>445</v>
       </c>
-      <c r="M70" t="s">
-        <v>448</v>
+      <c r="M70" s="17">
+        <v>1800</v>
       </c>
       <c r="N70" t="s">
         <v>445</v>
       </c>
-      <c r="O70" t="s">
-        <v>448</v>
+      <c r="O70" s="17">
+        <v>1800</v>
       </c>
       <c r="P70" t="s">
         <v>445</v>
       </c>
-      <c r="Q70" t="s">
-        <v>448</v>
+      <c r="Q70" s="17">
+        <v>1800</v>
       </c>
       <c r="R70" t="s">
         <v>445</v>
       </c>
-      <c r="S70" t="s">
-        <v>448</v>
+      <c r="S70" s="17">
+        <v>1800</v>
       </c>
       <c r="V70" s="8" t="s">
         <v>391</v>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="Z70" s="17">
         <f t="shared" si="38"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA70" s="17">
         <f t="shared" si="39"/>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="AB70" s="17">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC70" s="17">
         <f t="shared" si="41"/>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="AD70" s="17">
         <f t="shared" si="42"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE70" s="17">
         <f t="shared" si="43"/>
@@ -18163,7 +18163,7 @@
       </c>
       <c r="AF70" s="17">
         <f t="shared" si="44"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG70" s="17">
         <f t="shared" si="45"/>
@@ -18171,7 +18171,7 @@
       </c>
       <c r="AH70" s="17">
         <f t="shared" si="46"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI70" s="17" t="str">
         <f t="shared" si="47"/>
@@ -18187,23 +18187,23 @@
       </c>
       <c r="AL70" s="17" t="str">
         <f t="shared" si="50"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM70" s="17" t="str">
         <f t="shared" si="51"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN70" s="17" t="str">
         <f t="shared" si="52"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO70" s="17" t="str">
         <f t="shared" si="53"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP70" s="17" t="str">
         <f t="shared" si="54"/>
-        <v>3pm-7pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ70" s="17" t="str">
         <f t="shared" si="55"/>
@@ -18223,7 +18223,7 @@
         <v>{
     'name': "Dio Mio",
     'area': "RiNo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Two beers for $5, Two wines for $6, and all cocktails $7; $5 apps and $10 pasta", 'link':"http://www.diomiopasta.com/", 'pricing':"med",   'phone-number': "", 'address': "3264 Larimer St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Two beers for $5, Two wines for $6, and all cocktails $7; $5 apps and $10 pasta", 'link':"http://www.diomiopasta.com/", 'pricing':"med",   'phone-number': "", 'address': "3264 Larimer St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY70" s="17" t="str">
         <f t="shared" si="57"/>
@@ -18274,7 +18274,7 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" s="17" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" s="17" customFormat="1" ht="159.5">
       <c r="B71" s="17" t="s">
         <v>188</v>
       </c>
@@ -18468,7 +18468,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="130.5">
       <c r="B72" t="s">
         <v>189</v>
       </c>
@@ -18663,7 +18663,7 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="116">
       <c r="B73" t="s">
         <v>190</v>
       </c>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="174">
       <c r="B74" t="s">
         <v>258</v>
       </c>
@@ -19071,7 +19071,7 @@
       </c>
       <c r="BL74" s="7"/>
     </row>
-    <row r="75" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="145">
       <c r="B75" s="8" t="s">
         <v>81</v>
       </c>
@@ -19285,7 +19285,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="130.5">
       <c r="B76" t="s">
         <v>191</v>
       </c>
@@ -19480,7 +19480,7 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="145">
       <c r="B77" t="s">
         <v>59</v>
       </c>
@@ -19687,7 +19687,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" s="17" customFormat="1" ht="116">
       <c r="B78" s="17" t="s">
         <v>243</v>
       </c>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="130.5">
       <c r="B79" s="8" t="s">
         <v>82</v>
       </c>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="BL79" s="7"/>
     </row>
-    <row r="80" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="145">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -20284,7 +20284,7 @@
       </c>
       <c r="BL80" s="7"/>
     </row>
-    <row r="81" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="130.5">
       <c r="B81" t="s">
         <v>975</v>
       </c>
@@ -20479,7 +20479,7 @@
       </c>
       <c r="BL81" s="17"/>
     </row>
-    <row r="82" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="145">
       <c r="B82" t="s">
         <v>84</v>
       </c>
@@ -20686,7 +20686,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="174">
       <c r="B83" t="s">
         <v>904</v>
       </c>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="BL83" s="17"/>
     </row>
-    <row r="84" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="130.5">
       <c r="B84" t="s">
         <v>85</v>
       </c>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="145">
       <c r="B85" t="s">
         <v>274</v>
       </c>
@@ -21279,7 +21279,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="145">
       <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
@@ -21491,7 +21491,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="116">
       <c r="B87" t="s">
         <v>264</v>
       </c>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="145">
       <c r="B88" t="s">
         <v>87</v>
       </c>
@@ -21866,7 +21866,7 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="116">
       <c r="B89" t="s">
         <v>935</v>
       </c>
@@ -22028,7 +22028,7 @@
       </c>
       <c r="BL89" s="17"/>
     </row>
-    <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="116">
       <c r="B90" t="s">
         <v>895</v>
       </c>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="BL90" s="17"/>
     </row>
-    <row r="91" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" s="17" customFormat="1" ht="130.5">
       <c r="B91" s="17" t="s">
         <v>88</v>
       </c>
@@ -22402,7 +22402,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="145">
       <c r="B92" t="s">
         <v>192</v>
       </c>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="145">
       <c r="B93" t="s">
         <v>89</v>
       </c>
@@ -22798,7 +22798,7 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="130.5">
       <c r="B94" t="s">
         <v>193</v>
       </c>
@@ -22993,7 +22993,7 @@
       </c>
       <c r="BL94" s="7"/>
     </row>
-    <row r="95" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="116">
       <c r="B95" t="s">
         <v>90</v>
       </c>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B96" s="17" t="s">
         <v>254</v>
       </c>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="116">
       <c r="B97" t="s">
         <v>91</v>
       </c>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="130.5">
       <c r="B98" t="s">
         <v>924</v>
       </c>
@@ -23727,7 +23727,7 @@
       </c>
       <c r="BL98" s="17"/>
     </row>
-    <row r="99" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="130.5">
       <c r="B99" t="s">
         <v>92</v>
       </c>
@@ -23934,7 +23934,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="130.5">
       <c r="B100" t="s">
         <v>93</v>
       </c>
@@ -24138,7 +24138,7 @@
       </c>
       <c r="BL100" s="7"/>
     </row>
-    <row r="101" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="145">
       <c r="B101" t="s">
         <v>963</v>
       </c>
@@ -24345,7 +24345,7 @@
       </c>
       <c r="BL101" s="17"/>
     </row>
-    <row r="102" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="130.5">
       <c r="B102" t="s">
         <v>194</v>
       </c>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="70.5" customHeight="1">
       <c r="B103" t="s">
         <v>239</v>
       </c>
@@ -24728,7 +24728,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="145">
       <c r="B104" t="s">
         <v>195</v>
       </c>
@@ -24924,7 +24924,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B105" s="17" t="s">
         <v>94</v>
       </c>
@@ -25128,7 +25128,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="145">
       <c r="B106" t="s">
         <v>95</v>
       </c>
@@ -25326,7 +25326,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="130.5">
       <c r="B107" t="s">
         <v>96</v>
       </c>
@@ -25536,7 +25536,7 @@
       </c>
       <c r="BL107" s="7"/>
     </row>
-    <row r="108" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="174">
       <c r="B108" t="s">
         <v>249</v>
       </c>
@@ -25734,7 +25734,7 @@
       </c>
       <c r="BL108" s="7"/>
     </row>
-    <row r="109" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="130.5">
       <c r="B109" t="s">
         <v>196</v>
       </c>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" s="8" customFormat="1" ht="130.5">
       <c r="B110" s="17" t="s">
         <v>197</v>
       </c>
@@ -26139,7 +26139,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="130.5">
       <c r="B111" t="s">
         <v>97</v>
       </c>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="19.5" customHeight="1">
       <c r="B112" s="17" t="s">
         <v>939</v>
       </c>
@@ -26527,7 +26527,7 @@
       </c>
       <c r="BL112" s="17"/>
     </row>
-    <row r="113" spans="2:64" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" s="17" customFormat="1" ht="19.5" customHeight="1">
       <c r="B113" s="17" t="s">
         <v>98</v>
       </c>
@@ -26733,7 +26733,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="15.65" customHeight="1">
       <c r="B114" t="s">
         <v>99</v>
       </c>
@@ -26928,7 +26928,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="145">
       <c r="B115" t="s">
         <v>100</v>
       </c>
@@ -27138,7 +27138,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="116">
       <c r="B116" s="1" t="s">
         <v>893</v>
       </c>
@@ -27300,7 +27300,7 @@
       </c>
       <c r="BL116" s="17"/>
     </row>
-    <row r="117" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="145">
       <c r="B117" t="s">
         <v>101</v>
       </c>
@@ -27507,7 +27507,7 @@
       </c>
       <c r="BL117" s="7"/>
     </row>
-    <row r="118" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="130.5">
       <c r="B118" t="s">
         <v>102</v>
       </c>
@@ -27702,7 +27702,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="145">
       <c r="B119" t="s">
         <v>103</v>
       </c>
@@ -27912,7 +27912,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" s="17" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" s="17" customFormat="1" ht="159.5">
       <c r="B120" s="17" t="s">
         <v>240</v>
       </c>
@@ -28109,7 +28109,7 @@
       </c>
       <c r="BL120" s="7"/>
     </row>
-    <row r="121" spans="2:64" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" s="17" customFormat="1" ht="116">
       <c r="B121" s="17" t="s">
         <v>104</v>
       </c>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" s="17" customFormat="1" ht="160.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:64" s="17" customFormat="1" ht="160.5">
       <c r="B122" s="13" t="s">
         <v>105</v>
       </c>
@@ -28486,7 +28486,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="145">
       <c r="B123" s="8" t="s">
         <v>106</v>
       </c>
@@ -28698,7 +28698,7 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="145">
       <c r="B124" s="8" t="s">
         <v>107</v>
       </c>
@@ -28910,7 +28910,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="145">
       <c r="B125" s="8" t="s">
         <v>108</v>
       </c>
@@ -29122,7 +29122,7 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="130.5">
       <c r="B126" t="s">
         <v>198</v>
       </c>
@@ -29299,7 +29299,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" s="17" customFormat="1" ht="130.5">
       <c r="B127" s="8" t="s">
         <v>109</v>
       </c>
@@ -29502,7 +29502,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="130.5">
       <c r="B128" s="8" t="s">
         <v>110</v>
       </c>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="145">
       <c r="B129" s="17" t="s">
         <v>949</v>
       </c>
@@ -29926,7 +29926,7 @@
       </c>
       <c r="BL129" s="17"/>
     </row>
-    <row r="130" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="409.5">
       <c r="B130" t="s">
         <v>869</v>
       </c>
@@ -30127,7 +30127,7 @@
       </c>
       <c r="BL130" s="17"/>
     </row>
-    <row r="131" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" s="17" customFormat="1" ht="130.5">
       <c r="B131" s="17" t="s">
         <v>889</v>
       </c>
@@ -30332,7 +30332,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="130.5">
       <c r="B132" s="8" t="s">
         <v>111</v>
       </c>
@@ -30544,7 +30544,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="116">
       <c r="B133" s="17" t="s">
         <v>199</v>
       </c>
@@ -30737,7 +30737,7 @@
       </c>
       <c r="BL133" s="7"/>
     </row>
-    <row r="134" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="130.5">
       <c r="B134" t="s">
         <v>200</v>
       </c>
@@ -30935,7 +30935,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="159.5">
       <c r="B135" s="8" t="s">
         <v>112</v>
       </c>
@@ -31143,7 +31143,7 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="130.5">
       <c r="B136" s="17" t="s">
         <v>201</v>
       </c>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="BL136" s="7"/>
     </row>
-    <row r="137" spans="2:64" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="217.5">
       <c r="B137" s="8" t="s">
         <v>113</v>
       </c>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="130.5">
       <c r="B138" s="8" t="s">
         <v>114</v>
       </c>
@@ -31759,7 +31759,7 @@
       </c>
       <c r="BL138" s="7"/>
     </row>
-    <row r="139" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="130.5">
       <c r="B139" s="8" t="s">
         <v>115</v>
       </c>
@@ -31963,7 +31963,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="145">
       <c r="B140" s="8" t="s">
         <v>116</v>
       </c>
@@ -32171,7 +32171,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="130.5">
       <c r="B141" t="s">
         <v>202</v>
       </c>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="116">
       <c r="B142" s="17" t="s">
         <v>203</v>
       </c>
@@ -32573,7 +32573,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="145">
       <c r="B143" s="17" t="s">
         <v>117</v>
       </c>
@@ -32785,7 +32785,7 @@
       </c>
       <c r="BL143" s="7"/>
     </row>
-    <row r="144" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="130.5">
       <c r="B144" s="17" t="s">
         <v>1015</v>
       </c>
@@ -32989,7 +32989,7 @@
       </c>
       <c r="BL144" s="17"/>
     </row>
-    <row r="145" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="130.5">
       <c r="B145" s="8" t="s">
         <v>118</v>
       </c>
@@ -33195,7 +33195,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="145">
       <c r="B146" s="17" t="s">
         <v>119</v>
       </c>
@@ -33407,7 +33407,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="145">
       <c r="B147" s="17" t="s">
         <v>204</v>
       </c>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="BL147" s="7"/>
     </row>
-    <row r="148" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="145">
       <c r="B148" s="17" t="s">
         <v>205</v>
       </c>
@@ -33815,7 +33815,7 @@
       </c>
       <c r="BL148" s="7"/>
     </row>
-    <row r="149" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="130.5">
       <c r="B149" s="17" t="s">
         <v>120</v>
       </c>
@@ -34027,7 +34027,7 @@
       </c>
       <c r="BL149" s="7"/>
     </row>
-    <row r="150" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="145">
       <c r="B150" s="17" t="s">
         <v>121</v>
       </c>
@@ -34239,7 +34239,7 @@
       </c>
       <c r="BL150" s="7"/>
     </row>
-    <row r="151" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="130.5">
       <c r="B151" s="17" t="s">
         <v>122</v>
       </c>
@@ -34451,7 +34451,7 @@
       </c>
       <c r="BL151" s="7"/>
     </row>
-    <row r="152" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="130.5">
       <c r="B152" s="17" t="s">
         <v>123</v>
       </c>
@@ -34663,7 +34663,7 @@
       </c>
       <c r="BL152" s="7"/>
     </row>
-    <row r="153" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="130.5">
       <c r="B153" s="17" t="s">
         <v>124</v>
       </c>
@@ -34875,7 +34875,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="145">
       <c r="B154" s="17" t="s">
         <v>125</v>
       </c>
@@ -35079,7 +35079,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="145">
       <c r="B155" s="17" t="s">
         <v>206</v>
       </c>
@@ -35283,7 +35283,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="145">
       <c r="B156" s="17" t="s">
         <v>267</v>
       </c>
@@ -35497,7 +35497,7 @@
       </c>
       <c r="BL156" s="7"/>
     </row>
-    <row r="157" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="145">
       <c r="B157" s="17" t="s">
         <v>126</v>
       </c>
@@ -35709,7 +35709,7 @@
       </c>
       <c r="BL157" s="7"/>
     </row>
-    <row r="158" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="130.5">
       <c r="B158" t="s">
         <v>207</v>
       </c>
@@ -35904,7 +35904,7 @@
       </c>
       <c r="BL158" s="7"/>
     </row>
-    <row r="159" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="130.5">
       <c r="B159" t="s">
         <v>127</v>
       </c>
@@ -36111,7 +36111,7 @@
       </c>
       <c r="BL159" s="7"/>
     </row>
-    <row r="160" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="130.5">
       <c r="B160" t="s">
         <v>208</v>
       </c>
@@ -36306,7 +36306,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="145">
       <c r="B161" t="s">
         <v>128</v>
       </c>
@@ -36513,7 +36513,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="130.5">
       <c r="B162" t="s">
         <v>268</v>
       </c>
@@ -36711,7 +36711,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="362.5">
       <c r="B163" s="1" t="s">
         <v>902</v>
       </c>
@@ -36900,7 +36900,7 @@
       </c>
       <c r="BL163" s="17"/>
     </row>
-    <row r="164" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="145">
       <c r="B164" t="s">
         <v>910</v>
       </c>
@@ -37107,7 +37107,7 @@
       </c>
       <c r="BL164" s="17"/>
     </row>
-    <row r="165" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="145">
       <c r="B165" t="s">
         <v>129</v>
       </c>
@@ -37314,7 +37314,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="145">
       <c r="B166" t="s">
         <v>241</v>
       </c>
@@ -37509,7 +37509,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="116">
       <c r="B167" t="s">
         <v>273</v>
       </c>
@@ -37695,7 +37695,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="130.5">
       <c r="B168" t="s">
         <v>981</v>
       </c>
@@ -37902,7 +37902,7 @@
       </c>
       <c r="BL168" s="17"/>
     </row>
-    <row r="169" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="116">
       <c r="B169" t="s">
         <v>916</v>
       </c>
@@ -38061,7 +38061,7 @@
       </c>
       <c r="BL169" s="17"/>
     </row>
-    <row r="170" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="145">
       <c r="B170" t="s">
         <v>209</v>
       </c>
@@ -38262,7 +38262,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="409.5">
       <c r="B171" t="s">
         <v>897</v>
       </c>
@@ -38469,7 +38469,7 @@
       </c>
       <c r="BL171" s="17"/>
     </row>
-    <row r="172" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="130.5">
       <c r="B172" t="s">
         <v>210</v>
       </c>
@@ -38664,7 +38664,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="145">
       <c r="B173" s="6" t="s">
         <v>211</v>
       </c>
@@ -38859,7 +38859,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="145">
       <c r="B174" t="s">
         <v>212</v>
       </c>
@@ -39054,7 +39054,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="145">
       <c r="B175" t="s">
         <v>213</v>
       </c>
@@ -39249,7 +39249,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="130.5">
       <c r="B176" t="s">
         <v>214</v>
       </c>
@@ -39444,7 +39444,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:64" ht="145">
       <c r="B177" t="s">
         <v>130</v>
       </c>
@@ -39639,7 +39639,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:64" ht="174">
       <c r="B178" t="s">
         <v>941</v>
       </c>
@@ -39834,7 +39834,7 @@
       </c>
       <c r="BL178" s="17"/>
     </row>
-    <row r="179" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:64" ht="130.5">
       <c r="B179" t="s">
         <v>131</v>
       </c>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:64" ht="116">
       <c r="B180" t="s">
         <v>867</v>
       </c>
@@ -40227,7 +40227,7 @@
       </c>
       <c r="BL180" s="17"/>
     </row>
-    <row r="181" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:64" ht="145">
       <c r="B181" t="s">
         <v>132</v>
       </c>
@@ -40428,7 +40428,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:64" ht="145">
       <c r="B182" t="s">
         <v>133</v>
       </c>
@@ -40635,7 +40635,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:64" ht="130.5">
       <c r="B183" t="s">
         <v>246</v>
       </c>
@@ -40827,7 +40827,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:64" ht="116">
       <c r="B184" t="s">
         <v>134</v>
       </c>
@@ -40992,7 +40992,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:64" ht="130.5">
       <c r="B185" t="s">
         <v>135</v>
       </c>
@@ -41187,7 +41187,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:64" ht="130.5">
       <c r="B186" t="s">
         <v>215</v>
       </c>
@@ -41382,7 +41382,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:64" ht="116">
       <c r="B187" t="s">
         <v>270</v>
       </c>
@@ -41547,7 +41547,7 @@
       </c>
       <c r="BL187" s="7"/>
     </row>
-    <row r="188" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:64" ht="130.5">
       <c r="B188" t="s">
         <v>136</v>
       </c>
@@ -41742,7 +41742,7 @@
       </c>
       <c r="BL188" s="7"/>
     </row>
-    <row r="189" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:64" ht="145">
       <c r="B189" t="s">
         <v>137</v>
       </c>
@@ -41949,7 +41949,7 @@
       </c>
       <c r="BL189" s="7"/>
     </row>
-    <row r="190" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:64" ht="188.5">
       <c r="B190" t="s">
         <v>912</v>
       </c>
@@ -42156,7 +42156,7 @@
       </c>
       <c r="BL190" s="17"/>
     </row>
-    <row r="191" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:64" ht="145">
       <c r="B191" t="s">
         <v>138</v>
       </c>
@@ -42363,7 +42363,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:64" ht="130.5">
       <c r="B192" t="s">
         <v>260</v>
       </c>
@@ -42564,7 +42564,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:64" ht="116">
       <c r="B193" t="s">
         <v>977</v>
       </c>
@@ -42730,7 +42730,7 @@
       </c>
       <c r="BL193" s="17"/>
     </row>
-    <row r="194" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:64" ht="116">
       <c r="B194" t="s">
         <v>269</v>
       </c>
@@ -42895,7 +42895,7 @@
       </c>
       <c r="BL194" s="7"/>
     </row>
-    <row r="195" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:64" ht="409.5">
       <c r="B195" t="s">
         <v>251</v>
       </c>
@@ -43094,7 +43094,7 @@
       </c>
       <c r="BL195" s="7"/>
     </row>
-    <row r="196" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:64" ht="130.5">
       <c r="B196" t="s">
         <v>139</v>
       </c>
@@ -43295,7 +43295,7 @@
       </c>
       <c r="BL196" s="7"/>
     </row>
-    <row r="197" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:64" ht="130.5">
       <c r="B197" t="s">
         <v>140</v>
       </c>
@@ -43502,7 +43502,7 @@
       </c>
       <c r="BL197" s="7"/>
     </row>
-    <row r="198" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:64" ht="130.5">
       <c r="B198" t="s">
         <v>216</v>
       </c>
@@ -43697,7 +43697,7 @@
       </c>
       <c r="BL198" s="7"/>
     </row>
-    <row r="199" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:64" ht="130.5">
       <c r="B199" t="s">
         <v>141</v>
       </c>
@@ -43904,7 +43904,7 @@
       </c>
       <c r="BL199" s="7"/>
     </row>
-    <row r="200" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:64" ht="116">
       <c r="B200" t="s">
         <v>945</v>
       </c>
@@ -44066,7 +44066,7 @@
       </c>
       <c r="BL200" s="17"/>
     </row>
-    <row r="201" spans="2:64" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:64" ht="16" customHeight="1">
       <c r="B201" t="s">
         <v>142</v>
       </c>
@@ -44267,7 +44267,7 @@
       </c>
       <c r="BL201" s="7"/>
     </row>
-    <row r="202" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:64" ht="130.5">
       <c r="B202" t="s">
         <v>143</v>
       </c>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="BL202" s="7"/>
     </row>
-    <row r="203" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:64" ht="130.5">
       <c r="B203" t="s">
         <v>144</v>
       </c>
@@ -44681,7 +44681,7 @@
       </c>
       <c r="BL203" s="7"/>
     </row>
-    <row r="204" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:64" ht="116">
       <c r="B204" t="s">
         <v>271</v>
       </c>
@@ -44846,7 +44846,7 @@
       </c>
       <c r="BL204" s="7"/>
     </row>
-    <row r="205" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:64" ht="130.5">
       <c r="B205" t="s">
         <v>145</v>
       </c>
@@ -45044,7 +45044,7 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:64" ht="145">
       <c r="B206" t="s">
         <v>881</v>
       </c>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="BL206" s="17"/>
     </row>
-    <row r="207" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:64" ht="130.5">
       <c r="B207" t="s">
         <v>217</v>
       </c>
@@ -45446,7 +45446,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:64" ht="116">
       <c r="B208" t="s">
         <v>957</v>
       </c>
@@ -45608,7 +45608,7 @@
       </c>
       <c r="BL208" s="17"/>
     </row>
-    <row r="209" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:64" ht="145">
       <c r="B209" t="s">
         <v>218</v>
       </c>
@@ -45806,7 +45806,7 @@
       </c>
       <c r="BL209" s="7"/>
     </row>
-    <row r="210" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:64" ht="145">
       <c r="B210" t="s">
         <v>146</v>
       </c>
@@ -46007,7 +46007,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:64" ht="145">
       <c r="B211" t="s">
         <v>931</v>
       </c>
@@ -46214,7 +46214,7 @@
       </c>
       <c r="BL211" s="17"/>
     </row>
-    <row r="212" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:64" ht="145">
       <c r="B212" t="s">
         <v>147</v>
       </c>
@@ -46421,7 +46421,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:64" ht="116">
       <c r="B213" t="s">
         <v>947</v>
       </c>
@@ -46580,7 +46580,7 @@
       </c>
       <c r="BL213" s="17"/>
     </row>
-    <row r="214" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:64" ht="145">
       <c r="B214" t="s">
         <v>919</v>
       </c>
@@ -46787,7 +46787,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:64" ht="145">
       <c r="B215" t="s">
         <v>219</v>
       </c>
@@ -46982,7 +46982,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:64" ht="145">
       <c r="B216" t="s">
         <v>220</v>
       </c>
@@ -47177,7 +47177,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:64" ht="116">
       <c r="B217" t="s">
         <v>221</v>
       </c>
@@ -47372,7 +47372,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:64" ht="145">
       <c r="B218" t="s">
         <v>222</v>
       </c>
@@ -47567,7 +47567,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:64" ht="130.5">
       <c r="B219" t="s">
         <v>148</v>
       </c>
@@ -47773,7 +47773,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:64" ht="116">
       <c r="B220" t="s">
         <v>265</v>
       </c>
@@ -47945,7 +47945,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:64" ht="11.5" customHeight="1">
       <c r="B221" t="s">
         <v>252</v>
       </c>
@@ -48117,7 +48117,7 @@
       </c>
       <c r="BL221" s="7"/>
     </row>
-    <row r="222" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:64" ht="145">
       <c r="B222" t="s">
         <v>149</v>
       </c>
@@ -48323,7 +48323,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:64" ht="130.5">
       <c r="B223" t="s">
         <v>223</v>
       </c>
@@ -48517,7 +48517,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:64" ht="130.5">
       <c r="B224" t="s">
         <v>224</v>
       </c>
@@ -48711,7 +48711,7 @@
       </c>
       <c r="BL224" s="7"/>
     </row>
-    <row r="225" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:64" ht="130.5">
       <c r="B225" t="s">
         <v>225</v>
       </c>
@@ -48907,7 +48907,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:64" ht="130.5">
       <c r="B226" t="s">
         <v>150</v>
       </c>
@@ -49113,7 +49113,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:64" ht="130.5">
       <c r="B227" t="s">
         <v>151</v>
       </c>
@@ -49315,7 +49315,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:64" ht="130.5">
       <c r="B228" t="s">
         <v>226</v>
       </c>
@@ -49509,7 +49509,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:64" ht="145">
       <c r="B229" t="s">
         <v>152</v>
       </c>
@@ -49718,7 +49718,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:64" ht="116">
       <c r="B230" t="s">
         <v>922</v>
       </c>
@@ -49886,7 +49886,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:64" ht="130.5">
       <c r="B231" t="s">
         <v>153</v>
       </c>
@@ -50082,7 +50082,7 @@
       </c>
       <c r="BL231" s="7"/>
     </row>
-    <row r="232" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:64" ht="145">
       <c r="B232" s="17" t="s">
         <v>154</v>
       </c>
@@ -50279,7 +50279,7 @@
       </c>
       <c r="BL232" s="7"/>
     </row>
-    <row r="233" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:64" ht="145">
       <c r="B233" s="17" t="s">
         <v>155</v>
       </c>
@@ -50473,7 +50473,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:64" ht="130.5">
       <c r="B234" t="s">
         <v>227</v>
       </c>
@@ -50667,7 +50667,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:64" ht="28" customHeight="1">
       <c r="B235" t="s">
         <v>228</v>
       </c>
@@ -50863,7 +50863,7 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:64" ht="145">
       <c r="B236" t="s">
         <v>156</v>
       </c>
@@ -51057,7 +51057,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:64" ht="130.5">
       <c r="B237" t="s">
         <v>229</v>
       </c>
@@ -51253,7 +51253,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:64" ht="15.65" customHeight="1">
       <c r="B238" s="17" t="s">
         <v>157</v>
       </c>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="BL238" s="7"/>
     </row>
-    <row r="239" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:64" ht="130.5">
       <c r="B239" t="s">
         <v>230</v>
       </c>
@@ -51623,7 +51623,7 @@
       </c>
       <c r="BL239" s="7"/>
     </row>
-    <row r="240" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:64" ht="130.5">
       <c r="B240" t="s">
         <v>877</v>
       </c>
@@ -51828,7 +51828,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:64" ht="159.5">
       <c r="B241" t="s">
         <v>983</v>
       </c>
@@ -52033,7 +52033,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:64" ht="145">
       <c r="B242" t="s">
         <v>242</v>
       </c>
@@ -52225,7 +52225,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:64" ht="159.5">
       <c r="B243" t="s">
         <v>943</v>
       </c>
@@ -52424,7 +52424,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:64" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:64" ht="14.15" customHeight="1">
       <c r="B244" t="s">
         <v>951</v>
       </c>
@@ -52614,7 +52614,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:64" ht="130.5">
       <c r="B245" t="s">
         <v>871</v>
       </c>
@@ -52819,7 +52819,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:64" ht="130.5">
       <c r="B246" t="s">
         <v>253</v>
       </c>
@@ -53018,7 +53018,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:64" ht="23.5" customHeight="1">
       <c r="B247" t="s">
         <v>906</v>
       </c>
@@ -53223,7 +53223,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:64" ht="145">
       <c r="B248" t="s">
         <v>959</v>
       </c>
@@ -53428,7 +53428,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:64" ht="130.5">
       <c r="B249" t="s">
         <v>158</v>
       </c>
@@ -53631,7 +53631,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:64" ht="15.65" customHeight="1">
       <c r="B250" t="s">
         <v>985</v>
       </c>
@@ -53836,7 +53836,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:64" ht="409.5">
       <c r="B251" t="s">
         <v>920</v>
       </c>
@@ -54035,7 +54035,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:64" ht="145">
       <c r="B252" t="s">
         <v>159</v>
       </c>
@@ -54241,7 +54241,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:64" ht="130.5">
       <c r="B253" t="s">
         <v>247</v>
       </c>
@@ -54450,7 +54450,7 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:64" ht="145">
       <c r="B254" t="s">
         <v>160</v>
       </c>
@@ -54656,7 +54656,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:64" ht="145">
       <c r="B255" t="s">
         <v>161</v>
       </c>
@@ -54850,7 +54850,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:64" ht="116">
       <c r="B256" t="s">
         <v>231</v>
       </c>
@@ -55021,7 +55021,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:64" ht="116">
       <c r="B257" t="s">
         <v>232</v>
       </c>
@@ -55216,7 +55216,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:64" ht="130.5">
       <c r="B258" t="s">
         <v>162</v>
       </c>
@@ -55406,7 +55406,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:64" ht="116">
       <c r="B259" t="s">
         <v>969</v>
       </c>
@@ -55568,7 +55568,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:64" ht="145">
       <c r="B260" t="s">
         <v>163</v>
       </c>
@@ -55768,7 +55768,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:64" ht="116">
       <c r="B261" t="s">
         <v>965</v>
       </c>
@@ -55928,7 +55928,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:64" ht="130.5">
       <c r="B262" t="s">
         <v>233</v>
       </c>
@@ -56124,7 +56124,7 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:64" ht="145">
       <c r="B263" t="s">
         <v>164</v>
       </c>
@@ -56318,7 +56318,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:64" ht="145">
       <c r="B264" t="s">
         <v>234</v>
       </c>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:64" ht="130.5">
       <c r="B265" t="s">
         <v>235</v>
       </c>
@@ -56709,7 +56709,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:64" ht="145">
       <c r="B266" t="s">
         <v>236</v>
       </c>
@@ -56903,7 +56903,7 @@
       </c>
       <c r="BL266" s="7"/>
     </row>
-    <row r="267" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:64" ht="159.5">
       <c r="B267" t="s">
         <v>165</v>
       </c>
@@ -57104,7 +57104,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:64" ht="130.5">
       <c r="B268" t="s">
         <v>166</v>
       </c>
@@ -57310,7 +57310,7 @@
       </c>
       <c r="BL268" s="7"/>
     </row>
-    <row r="269" spans="2:64" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:64" ht="409.5">
       <c r="B269" t="s">
         <v>926</v>
       </c>
@@ -57515,7 +57515,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:64" ht="116">
       <c r="B270" t="s">
         <v>263</v>
       </c>
@@ -57679,7 +57679,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:64" ht="16.5" customHeight="1">
       <c r="B271" t="s">
         <v>973</v>
       </c>
@@ -57881,7 +57881,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:64" ht="145">
       <c r="B272" s="8" t="s">
         <v>167</v>
       </c>
@@ -58064,7 +58064,7 @@
       </c>
       <c r="BL272" s="7"/>
     </row>
-    <row r="273" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:64" ht="145">
       <c r="B273" t="s">
         <v>990</v>
       </c>
@@ -58265,7 +58265,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:64" ht="130.5">
       <c r="B274" t="s">
         <v>237</v>
       </c>
@@ -58461,7 +58461,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:64" ht="159.5">
       <c r="B275" t="s">
         <v>928</v>
       </c>
@@ -58666,7 +58666,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:64" ht="116">
       <c r="B276" t="s">
         <v>168</v>
       </c>
@@ -58860,7 +58860,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:64" ht="130.5">
       <c r="B277" t="s">
         <v>169</v>
       </c>
@@ -59066,7 +59066,7 @@
       </c>
       <c r="BL277" s="7"/>
     </row>
-    <row r="278" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:64" ht="145">
       <c r="B278" t="s">
         <v>961</v>
       </c>
@@ -59271,7 +59271,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:64" ht="116">
       <c r="B279" t="s">
         <v>266</v>
       </c>
@@ -59447,7 +59447,7 @@
       </c>
       <c r="BL279" s="7"/>
     </row>
-    <row r="280" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:64" ht="145">
       <c r="B280" t="s">
         <v>170</v>
       </c>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="BL280" s="7"/>
     </row>
-    <row r="281" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:64">
       <c r="AX281" s="16"/>
     </row>
   </sheetData>
@@ -59676,12 +59676,12 @@
       <selection activeCell="G1" sqref="G1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="17" customFormat="1">
       <c r="F1" s="17" t="s">
         <v>952</v>
       </c>
@@ -59692,7 +59692,7 @@
         <v>-104.89925700000001</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="17">
         <v>39.762000999999998</v>
       </c>
@@ -59712,7 +59712,7 @@
         <v>-104.896202</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="17">
         <v>39.693313000000003</v>
       </c>
@@ -59732,7 +59732,7 @@
         <v>-104.90736800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="17">
         <v>39.744377999999998</v>
       </c>
@@ -59752,7 +59752,7 @@
         <v>-104.900052</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="17">
         <v>39.740309000000003</v>
       </c>
@@ -59772,7 +59772,7 @@
         <v>-104.90113700000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="17">
         <v>39.743088999999998</v>
       </c>
@@ -59792,7 +59792,7 @@
         <v>-104.890957</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="17">
         <v>39.737243999999997</v>
       </c>
@@ -59812,7 +59812,7 @@
         <v>-104.893152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="17">
         <v>39.729456999999996</v>
       </c>
@@ -59832,7 +59832,7 @@
         <v>-105.053961</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="17">
         <v>39.762216000000002</v>
       </c>
@@ -59852,7 +59852,7 @@
         <v>-105.087872</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="17">
         <v>39.757525000000001</v>
       </c>
@@ -59872,7 +59872,7 @@
         <v>-105.074556</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="17">
         <v>39.748451000000003</v>
       </c>
@@ -59892,7 +59892,7 @@
         <v>-104.99174499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="17">
         <v>39.580275999999998</v>
       </c>
@@ -59912,7 +59912,7 @@
         <v>-105.082871</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="17">
         <v>39.775143</v>
       </c>
@@ -59932,7 +59932,7 @@
         <v>-105.096981</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="17">
         <v>39.750148000000003</v>
       </c>
@@ -59952,7 +59952,7 @@
         <v>-105.07514999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="17">
         <v>39.759230000000002</v>
       </c>
@@ -59972,7 +59972,7 @@
         <v>-105.042728</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="17">
         <v>39.757385999999997</v>
       </c>
@@ -59992,7 +59992,7 @@
         <v>-105.03295</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="17">
         <v>39.757652999999998</v>
       </c>
@@ -60012,7 +60012,7 @@
         <v>-105.100269</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="17">
         <v>39.758181999999998</v>
       </c>
@@ -60032,7 +60032,7 @@
         <v>-105.05287199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="17">
         <v>39.697816000000003</v>
       </c>
@@ -60043,7 +60043,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="17">
         <v>39.730746000000003</v>
       </c>
@@ -60054,7 +60054,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="17">
         <v>39.714894000000001</v>
       </c>
@@ -60065,7 +60065,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="17">
         <v>39.753149000000001</v>
       </c>
@@ -60076,7 +60076,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="17">
         <v>39.736646999999998</v>
       </c>
@@ -60087,7 +60087,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="17">
         <v>39.627025000000003</v>
       </c>
@@ -60098,7 +60098,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="17">
         <v>39.746347999999998</v>
       </c>
@@ -60109,7 +60109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="17">
         <v>39.743907999999998</v>
       </c>
@@ -60120,7 +60120,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="17">
         <v>39.740367999999997</v>
       </c>
@@ -60131,7 +60131,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="17">
         <v>39.749684000000002</v>
       </c>
@@ -60142,7 +60142,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="17">
         <v>39.776845000000002</v>
       </c>
@@ -60153,7 +60153,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" s="17">
         <v>39.747732999999997</v>
       </c>
@@ -60164,7 +60164,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="17">
         <v>39.709715000000003</v>
       </c>
@@ -60175,7 +60175,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="17">
         <v>39.735475999999998</v>
       </c>
@@ -60186,7 +60186,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="17">
         <v>39.757776</v>
       </c>
@@ -60197,7 +60197,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="17">
         <v>39.749901999999999</v>
       </c>
@@ -60208,7 +60208,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="17">
         <v>39.71311</v>
       </c>
@@ -60219,7 +60219,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="17">
         <v>39.753261999999999</v>
       </c>
@@ -60230,7 +60230,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="17">
         <v>39.739961000000001</v>
       </c>
@@ -60241,7 +60241,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="17">
         <v>39.726928000000001</v>
       </c>
@@ -60252,7 +60252,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="17">
         <v>39.753548000000002</v>
       </c>
@@ -60263,7 +60263,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="17">
         <v>39.762279999999997</v>
       </c>
@@ -60274,7 +60274,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="17">
         <v>39.764588000000003</v>
       </c>
@@ -60285,7 +60285,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="17">
         <v>39.718100999999997</v>
       </c>
@@ -60296,7 +60296,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="17">
         <v>39.743485</v>
       </c>
@@ -60307,7 +60307,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" s="17">
         <v>39.754244</v>
       </c>
@@ -60318,7 +60318,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" s="17">
         <v>39.75423</v>
       </c>
@@ -60329,7 +60329,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" s="17">
         <v>39.732211</v>
       </c>
@@ -60340,7 +60340,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" s="17">
         <v>39.715550999999998</v>
       </c>
@@ -60351,7 +60351,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" s="17">
         <v>39.740233000000003</v>
       </c>
@@ -60362,7 +60362,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" s="17">
         <v>39.754506999999997</v>
       </c>
@@ -60373,7 +60373,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="17">
         <v>39.752104000000003</v>
       </c>
@@ -60384,7 +60384,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" s="17">
         <v>39.705559000000001</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" s="17">
         <v>39.722323000000003</v>
       </c>
@@ -60406,7 +60406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" s="17">
         <v>39.740251999999998</v>
       </c>
@@ -60417,7 +60417,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" s="17">
         <v>39.720790000000001</v>
       </c>
@@ -60428,7 +60428,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="17">
         <v>39.752896999999997</v>
       </c>
@@ -60439,7 +60439,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" s="17">
         <v>39.711931999999997</v>
       </c>
@@ -60450,7 +60450,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" s="17">
         <v>39.753444000000002</v>
       </c>
@@ -60461,7 +60461,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" s="17">
         <v>39.753259999999997</v>
       </c>
@@ -60472,7 +60472,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="17">
         <v>39.562533000000002</v>
       </c>
@@ -60483,7 +60483,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" s="17">
         <v>39.886087000000003</v>
       </c>
@@ -60494,7 +60494,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" s="17">
         <v>39.759230000000002</v>
       </c>
@@ -60505,7 +60505,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" s="17">
         <v>39.759247000000002</v>
       </c>
@@ -60516,7 +60516,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" s="17">
         <v>39.720298</v>
       </c>
@@ -60527,7 +60527,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" s="17">
         <v>39.751266000000001</v>
       </c>
@@ -60538,7 +60538,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" s="17">
         <v>39.754505999999999</v>
       </c>
@@ -60549,7 +60549,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" s="17">
         <v>39.579492999999999</v>
       </c>
@@ -60560,7 +60560,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" s="17">
         <v>39.719656000000001</v>
       </c>
@@ -60571,7 +60571,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" s="17">
         <v>39.751446000000001</v>
       </c>
@@ -60582,7 +60582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" s="17">
         <v>39.746012999999998</v>
       </c>
@@ -60593,7 +60593,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" s="17">
         <v>39.750191000000001</v>
       </c>
@@ -60604,7 +60604,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" s="17">
         <v>39.697411000000002</v>
       </c>
@@ -60615,7 +60615,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" s="17">
         <v>39.739936</v>
       </c>
@@ -60626,7 +60626,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" s="17">
         <v>39.753041000000003</v>
       </c>
@@ -60637,7 +60637,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" s="17">
         <v>39.746029</v>
       </c>
@@ -60648,7 +60648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" s="17">
         <v>39.744244000000002</v>
       </c>
@@ -60659,7 +60659,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" s="17">
         <v>39.733856000000003</v>
       </c>
@@ -60670,7 +60670,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" s="17">
         <v>39.561844999999998</v>
       </c>
@@ -60681,7 +60681,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" s="17">
         <v>39.756714000000002</v>
       </c>
@@ -60692,7 +60692,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" s="17">
         <v>39.761527999999998</v>
       </c>
@@ -60703,7 +60703,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="17">
         <v>39.748671999999999</v>
       </c>
@@ -60714,7 +60714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="17">
         <v>39.696491000000002</v>
       </c>
@@ -60725,7 +60725,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="17">
         <v>39.753753000000003</v>
       </c>
@@ -60736,7 +60736,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="17">
         <v>39.717928999999998</v>
       </c>
@@ -60747,7 +60747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="17">
         <v>39.748474999999999</v>
       </c>
@@ -60758,7 +60758,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="17">
         <v>39.753697000000003</v>
       </c>
@@ -60769,7 +60769,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" s="17">
         <v>39.753298000000001</v>
       </c>
@@ -60780,7 +60780,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" s="17">
         <v>39.748373000000001</v>
       </c>
@@ -60791,7 +60791,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="17">
         <v>39.746763999999999</v>
       </c>
@@ -60802,7 +60802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="17">
         <v>39.554721000000001</v>
       </c>
@@ -60813,7 +60813,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" s="17">
         <v>39.763044000000001</v>
       </c>
@@ -60824,7 +60824,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" s="17">
         <v>39.735013000000002</v>
       </c>
@@ -60835,7 +60835,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" s="17">
         <v>39.726702000000003</v>
       </c>
@@ -60846,7 +60846,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" s="17">
         <v>39.742266000000001</v>
       </c>
@@ -60857,7 +60857,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="17">
         <v>39.716388999999999</v>
       </c>
@@ -60868,7 +60868,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" s="17">
         <v>39.743614000000001</v>
       </c>
@@ -60879,7 +60879,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" s="17">
         <v>39.739877999999997</v>
       </c>
@@ -60890,7 +60890,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" s="17">
         <v>39.740278000000004</v>
       </c>
@@ -60901,7 +60901,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" s="17">
         <v>39.747244999999999</v>
       </c>
@@ -60912,7 +60912,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" s="17">
         <v>39.753545000000003</v>
       </c>
@@ -60923,7 +60923,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" s="17">
         <v>39.689847</v>
       </c>
@@ -60934,7 +60934,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" s="17">
         <v>39.747022999999999</v>
       </c>
@@ -60945,7 +60945,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" s="17">
         <v>39.740172000000001</v>
       </c>
@@ -60956,7 +60956,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" s="17">
         <v>39.731243999999997</v>
       </c>
@@ -60967,7 +60967,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" s="17">
         <v>39.748874000000001</v>
       </c>
@@ -60978,7 +60978,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" s="17">
         <v>39.763078</v>
       </c>
@@ -60989,7 +60989,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" s="17">
         <v>39.719614</v>
       </c>
@@ -61000,7 +61000,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" s="17">
         <v>39.752319</v>
       </c>
@@ -61011,7 +61011,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" s="17">
         <v>39.740265999999998</v>
       </c>
@@ -61022,7 +61022,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" s="17">
         <v>39.753529</v>
       </c>
@@ -61033,7 +61033,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" s="17">
         <v>39.752625999999999</v>
       </c>
@@ -61044,7 +61044,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" s="17">
         <v>39.696769000000003</v>
       </c>
@@ -61055,7 +61055,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" s="17">
         <v>39.758243</v>
       </c>
@@ -61066,7 +61066,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" s="17">
         <v>39.562100000000001</v>
       </c>
@@ -61077,7 +61077,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" s="17">
         <v>39.737001999999997</v>
       </c>
@@ -61088,7 +61088,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" s="17">
         <v>39.742311000000001</v>
       </c>
@@ -61099,7 +61099,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" s="17">
         <v>39.753321999999997</v>
       </c>
@@ -61110,7 +61110,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" s="17">
         <v>39.741810999999998</v>
       </c>
@@ -61121,7 +61121,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" s="17">
         <v>39.743558</v>
       </c>
@@ -61132,7 +61132,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" s="17">
         <v>39.744467</v>
       </c>
@@ -61143,7 +61143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" s="17">
         <v>39.715843999999997</v>
       </c>
@@ -61154,7 +61154,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" s="17">
         <v>39.774205000000002</v>
       </c>
@@ -61165,7 +61165,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" s="17">
         <v>39.749842000000001</v>
       </c>
@@ -61176,7 +61176,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" s="17">
         <v>39.708105000000003</v>
       </c>
@@ -61187,7 +61187,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" s="17">
         <v>39.567087000000001</v>
       </c>
@@ -61198,7 +61198,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" s="17">
         <v>39.747915999999996</v>
       </c>
@@ -61209,7 +61209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" s="17">
         <v>39.753048</v>
       </c>
@@ -61220,7 +61220,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" s="17">
         <v>39.887169999999998</v>
       </c>
@@ -61231,7 +61231,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" s="17">
         <v>39.753048</v>
       </c>
@@ -61242,7 +61242,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" s="17">
         <v>39.768611</v>
       </c>
@@ -61253,7 +61253,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" s="17">
         <v>39.745508999999998</v>
       </c>
@@ -61264,7 +61264,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" s="17">
         <v>39.747855000000001</v>
       </c>
@@ -61275,7 +61275,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" s="17">
         <v>39.755369000000002</v>
       </c>
@@ -61286,7 +61286,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" s="17">
         <v>39.764783000000001</v>
       </c>
@@ -61297,7 +61297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" s="17">
         <v>39.751938000000003</v>
       </c>
@@ -61308,7 +61308,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" s="17">
         <v>39.716735</v>
       </c>
@@ -61319,7 +61319,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" s="17">
         <v>39.748604</v>
       </c>
@@ -61330,7 +61330,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" s="17">
         <v>39.746630000000003</v>
       </c>
@@ -61341,7 +61341,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" s="17">
         <v>39.746867999999999</v>
       </c>
@@ -61352,7 +61352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" s="17">
         <v>39.769083000000002</v>
       </c>
@@ -61363,7 +61363,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" s="17">
         <v>39.548974000000001</v>
       </c>
@@ -61374,7 +61374,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" s="17">
         <v>39.747703999999999</v>
       </c>
@@ -61385,7 +61385,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" s="17">
         <v>39.753656999999997</v>
       </c>
@@ -61396,7 +61396,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" s="17">
         <v>39.771388000000002</v>
       </c>
@@ -61407,7 +61407,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" s="17">
         <v>39.744905000000003</v>
       </c>
@@ -61418,7 +61418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" s="17">
         <v>39.743535999999999</v>
       </c>
@@ -61429,7 +61429,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" s="17">
         <v>39.759523999999999</v>
       </c>
@@ -61440,7 +61440,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" s="17">
         <v>39.779904999999999</v>
       </c>
@@ -61451,7 +61451,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" s="17">
         <v>39.624664000000003</v>
       </c>
@@ -61462,7 +61462,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" s="17">
         <v>39.739994000000003</v>
       </c>
@@ -61473,7 +61473,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" s="17">
         <v>39.721240000000002</v>
       </c>
@@ -61484,7 +61484,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" s="17">
         <v>39.752943999999999</v>
       </c>
@@ -61495,7 +61495,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" s="17">
         <v>39.744129999999998</v>
       </c>
@@ -61506,7 +61506,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" s="17">
         <v>39.748451000000003</v>
       </c>
@@ -61517,7 +61517,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" s="17">
         <v>39.765416000000002</v>
       </c>
@@ -61528,7 +61528,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" s="17">
         <v>39.748308999999999</v>
       </c>
@@ -61539,7 +61539,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" s="17">
         <v>39.714562999999998</v>
       </c>
@@ -61550,7 +61550,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" s="17">
         <v>39.650627</v>
       </c>
@@ -61561,7 +61561,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" s="17">
         <v>39.571725999999998</v>
       </c>
@@ -61572,7 +61572,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" s="17">
         <v>39.717309999999998</v>
       </c>
@@ -61583,7 +61583,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" s="17">
         <v>39.752623</v>
       </c>
@@ -61594,7 +61594,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" s="17">
         <v>39.739866999999997</v>
       </c>
@@ -61605,7 +61605,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" s="17">
         <v>39.696883</v>
       </c>
@@ -61616,7 +61616,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" s="17">
         <v>39.747565999999999</v>
       </c>
@@ -61627,7 +61627,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" s="17">
         <v>39.625109999999999</v>
       </c>
@@ -61638,7 +61638,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" s="17">
         <v>39.713577999999998</v>
       </c>
@@ -61649,7 +61649,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" s="17">
         <v>39.718888</v>
       </c>
@@ -61660,7 +61660,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" s="17">
         <v>39.748978999999999</v>
       </c>
@@ -61671,7 +61671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" s="17">
         <v>39.753664000000001</v>
       </c>
@@ -61682,7 +61682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" s="17">
         <v>39.749408000000003</v>
       </c>
@@ -61693,7 +61693,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" s="17">
         <v>39.734262000000001</v>
       </c>
@@ -61704,7 +61704,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" s="17">
         <v>39.744083000000003</v>
       </c>
@@ -61715,7 +61715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" s="17">
         <v>39.748137999999997</v>
       </c>
@@ -61726,7 +61726,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" s="17">
         <v>39.752966000000001</v>
       </c>
@@ -61737,7 +61737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" s="17">
         <v>39.753988</v>
       </c>
@@ -61748,7 +61748,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" s="17">
         <v>39.633947999999997</v>
       </c>
@@ -61759,7 +61759,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" s="17">
         <v>39.752338000000002</v>
       </c>
@@ -61770,7 +61770,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" s="17">
         <v>39.743079000000002</v>
       </c>
@@ -61781,7 +61781,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" s="17">
         <v>39.761834</v>
       </c>
@@ -61792,7 +61792,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" s="17">
         <v>39.752079999999999</v>
       </c>
@@ -61803,7 +61803,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" s="17">
         <v>39.754089</v>
       </c>
@@ -61814,7 +61814,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" s="17">
         <v>39.692846000000003</v>
       </c>
@@ -61825,7 +61825,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" s="17">
         <v>39.764623</v>
       </c>
@@ -61836,7 +61836,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" s="17">
         <v>39.743389999999998</v>
       </c>
@@ -61847,7 +61847,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" s="17">
         <v>39.712662999999999</v>
       </c>
@@ -61858,7 +61858,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" s="17">
         <v>39.689124</v>
       </c>
@@ -61869,7 +61869,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" s="17">
         <v>39.689574999999998</v>
       </c>
@@ -61880,7 +61880,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" s="17">
         <v>39.759624000000002</v>
       </c>
@@ -61891,7 +61891,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" s="17">
         <v>39.747588</v>
       </c>
@@ -61902,7 +61902,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" s="17">
         <v>39.759112999999999</v>
       </c>
@@ -61913,7 +61913,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" s="17">
         <v>39.762264999999999</v>
       </c>
@@ -61924,7 +61924,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" s="17">
         <v>39.758626</v>
       </c>
@@ -61935,7 +61935,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" s="17">
         <v>39.764195999999998</v>
       </c>
@@ -61946,7 +61946,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" s="17">
         <v>39.74342</v>
       </c>
@@ -61957,7 +61957,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" s="17">
         <v>39.747605</v>
       </c>
@@ -61968,7 +61968,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" s="17">
         <v>39.717194999999997</v>
       </c>
@@ -61979,7 +61979,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" s="17">
         <v>39.758265999999999</v>
       </c>
@@ -61990,7 +61990,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" s="17">
         <v>39.761527999999998</v>
       </c>
@@ -62001,7 +62001,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" s="17">
         <v>39.76153</v>
       </c>
@@ -62012,7 +62012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" s="17">
         <v>39.764136000000001</v>
       </c>
@@ -62023,7 +62023,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="17">
         <v>39.687908999999998</v>
       </c>
@@ -62034,7 +62034,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="17">
         <v>39.696708999999998</v>
       </c>
@@ -62045,7 +62045,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="17">
         <v>39.770651000000001</v>
       </c>
@@ -62056,7 +62056,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="17">
         <v>39.743442999999999</v>
       </c>
@@ -62067,7 +62067,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="17">
         <v>39.756242</v>
       </c>
@@ -62078,7 +62078,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="17">
         <v>39.769196999999998</v>
       </c>
@@ -62089,7 +62089,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="17">
         <v>39.726602999999997</v>
       </c>
@@ -62100,7 +62100,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="17">
         <v>39.751067999999997</v>
       </c>
@@ -62111,7 +62111,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="17">
         <v>39.720252000000002</v>
       </c>
@@ -62122,7 +62122,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="17">
         <v>39.758603999999998</v>
       </c>
@@ -62133,7 +62133,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="17">
         <v>39.761971000000003</v>
       </c>
@@ -62144,7 +62144,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="17">
         <v>39.75461</v>
       </c>
@@ -62155,7 +62155,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="17">
         <v>39.751987</v>
       </c>
@@ -62166,7 +62166,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="17">
         <v>39.759079999999997</v>
       </c>
@@ -62177,7 +62177,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="17">
         <v>39.756174000000001</v>
       </c>
@@ -62188,7 +62188,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="17">
         <v>39.761485999999998</v>
       </c>
@@ -62199,7 +62199,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="17">
         <v>39.760278</v>
       </c>
@@ -62210,7 +62210,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="17">
         <v>39.747579000000002</v>
       </c>
@@ -62221,7 +62221,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="17">
         <v>39.699542999999998</v>
       </c>
@@ -62232,7 +62232,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="17">
         <v>39.719448</v>
       </c>
@@ -62243,7 +62243,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="17">
         <v>39.770215</v>
       </c>
@@ -62254,7 +62254,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="17">
         <v>39.611553999999998</v>
       </c>
@@ -62265,7 +62265,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="17">
         <v>39.674106000000002</v>
       </c>
@@ -62276,7 +62276,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="17">
         <v>39.601990000000001</v>
       </c>
@@ -62287,7 +62287,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="17">
         <v>39.668801999999999</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="17">
         <v>39.675908</v>
       </c>
@@ -62309,7 +62309,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="17">
         <v>39.681429999999999</v>
       </c>
@@ -62320,7 +62320,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="17">
         <v>39.675198999999999</v>
       </c>
@@ -62331,7 +62331,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="17">
         <v>39.586047999999998</v>
       </c>
@@ -62342,7 +62342,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="17">
         <v>39.605943000000003</v>
       </c>
@@ -62353,7 +62353,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="17">
         <v>39.595573999999999</v>
       </c>
@@ -62364,7 +62364,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="17">
         <v>39.594088999999997</v>
       </c>
@@ -62375,7 +62375,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="17">
         <v>39.753048</v>
       </c>
@@ -62386,7 +62386,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="17">
         <v>39.674323999999999</v>
       </c>
@@ -62397,7 +62397,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="17">
         <v>39.695515</v>
       </c>
@@ -62408,7 +62408,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="17">
         <v>39.765352</v>
       </c>
@@ -62419,7 +62419,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="17">
         <v>39.651457999999998</v>
       </c>
@@ -62430,7 +62430,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="17">
         <v>39.719270999999999</v>
       </c>
@@ -62441,7 +62441,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="17">
         <v>39.720298</v>
       </c>
@@ -62452,7 +62452,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="17">
         <v>39.720934</v>
       </c>
@@ -62463,7 +62463,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="17">
         <v>39.749504999999999</v>
       </c>
@@ -62474,7 +62474,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" s="17">
         <v>39.681569000000003</v>
       </c>
@@ -62485,7 +62485,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" s="17">
         <v>39.739950999999998</v>
       </c>
@@ -62496,7 +62496,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" s="17">
         <v>39.740448999999998</v>
       </c>
@@ -62507,7 +62507,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" s="17">
         <v>39.759636</v>
       </c>
@@ -62518,7 +62518,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" s="17">
         <v>39.760672</v>
       </c>
@@ -62529,7 +62529,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" s="17">
         <v>39.75929</v>
       </c>
@@ -62540,7 +62540,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" s="17">
         <v>39.777763999999998</v>
       </c>
@@ -62551,7 +62551,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3">
       <c r="A248" s="17">
         <v>39.75929</v>
       </c>
@@ -62562,7 +62562,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3">
       <c r="A249" s="17">
         <v>39.772289000000001</v>
       </c>
@@ -62573,7 +62573,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3">
       <c r="A250" s="17">
         <v>39.772125000000003</v>
       </c>
@@ -62584,7 +62584,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3">
       <c r="A251" s="17">
         <v>39.769289000000001</v>
       </c>
@@ -62595,7 +62595,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3">
       <c r="A252" s="17">
         <v>39.771968000000001</v>
       </c>
@@ -62606,7 +62606,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3">
       <c r="A253" s="17">
         <v>39.757652999999998</v>
       </c>
@@ -62617,7 +62617,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3">
       <c r="A254" s="17">
         <v>39.761282000000001</v>
       </c>
@@ -62628,7 +62628,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3">
       <c r="A255" s="17">
         <v>39.753430000000002</v>
       </c>
@@ -62639,7 +62639,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3">
       <c r="A256" s="17">
         <v>39.763458</v>
       </c>
@@ -62650,7 +62650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3">
       <c r="A257" s="17">
         <v>39.758861000000003</v>
       </c>
@@ -62661,7 +62661,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3">
       <c r="A258" s="17">
         <v>39.745914999999997</v>
       </c>
@@ -62672,7 +62672,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3">
       <c r="A259" s="17">
         <v>39.737020000000001</v>
       </c>
@@ -62683,7 +62683,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3">
       <c r="A260" s="17">
         <v>39.743422000000002</v>
       </c>
@@ -62694,7 +62694,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3">
       <c r="A261" s="17">
         <v>39.741211999999997</v>
       </c>
@@ -62705,7 +62705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3">
       <c r="A262" s="17">
         <v>39.746059000000002</v>
       </c>
@@ -62716,7 +62716,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3">
       <c r="A263" s="17">
         <v>39.744874000000003</v>
       </c>
@@ -62727,7 +62727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3">
       <c r="A264" s="17">
         <v>39.740530999999997</v>
       </c>
@@ -62738,58 +62738,58 @@
         <v>305</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3">
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3">
       <c r="C266" s="17"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3">
       <c r="C267" s="17"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3">
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3">
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3">
       <c r="C270" s="17"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3">
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3">
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:3">
       <c r="C273" s="17"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:3">
       <c r="C274" s="17"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:3">
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:3">
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:3">
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:3">
       <c r="C278" s="17"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:3">
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:3">
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:3">
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:3">
       <c r="C282" s="17"/>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0283275F-8DD4-4F30-83B0-08B1353877EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533DBCD1-CD4C-4004-A463-994929F1A6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2995,9 +2995,6 @@
     <t>7990 Sheridan Blvd Westminster CO</t>
   </si>
   <si>
-    <t>Do you have a stein, MaS, or boot from your trip to Munich or your last Oktoberfest celebration? Get some use out of it! Bring it in every Wednesday for steeply discounted fills.&lt;br&gt;0.5l = $5-$8&lt;br&gt;1l = $10-$16&lt;br&gt;2l = $20-$32</t>
-  </si>
-  <si>
     <t>https://www.wildefirebistro.com/</t>
   </si>
   <si>
@@ -3504,6 +3501,9 @@
   </si>
   <si>
     <t>http://www.brownpalace.com/Dining/Ship-Tavern</t>
+  </si>
+  <si>
+    <t>Do you have a stein, MaS, or boot from your trip to Munich or your last Oktoberfest celebration? Get some use out of it! Bring it in every Wednesday for steeply discounted fills.&lt;br&gt;0.5l = $5-$8&lt;br&gt;1l = $10-$16&lt;br&gt;2l = $20-$32&lt;br&gt;Daily teachers and nurses deal: Discounts all  day every day for teachers nurses when you show your badge or ID.</t>
   </si>
 </sst>
 </file>
@@ -4468,9 +4468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH212" sqref="BH212"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4681,7 +4681,7 @@
         <v>309</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>579</v>
@@ -4717,7 +4717,7 @@
         <v>447</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="W2" s="17" t="str">
         <f t="shared" ref="W2:AJ2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -4879,7 +4879,7 @@
         <v>385</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>980</v>
@@ -4915,7 +4915,7 @@
         <v>1830</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W3" s="17" t="str">
         <f t="shared" ref="W3:W64" si="3">IF(H3&gt;0,H3/100,"")</f>
@@ -5002,7 +5002,7 @@
         <v/>
       </c>
       <c r="AR3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>29</v>
@@ -5077,7 +5077,7 @@
         <v>864</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>909</v>
@@ -5125,7 +5125,7 @@
         <v>1900</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="3"/>
@@ -5212,7 +5212,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV4" s="4" t="s">
         <v>29</v>
@@ -5284,7 +5284,7 @@
         <v>305</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>580</v>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
@@ -5538,7 +5538,7 @@
         <v>447</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="W6" s="17">
         <f t="shared" si="3"/>
@@ -5700,13 +5700,13 @@
         <v>275</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>645</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W7" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5865,7 +5865,7 @@
         <v>653</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>285</v>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
@@ -6125,7 +6125,7 @@
         <v>447</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="3"/>
@@ -6289,7 +6289,7 @@
         <v>860</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>956</v>
@@ -6325,7 +6325,7 @@
         <v>1830</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W10" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6412,7 +6412,7 @@
         <v/>
       </c>
       <c r="AR10" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>29</v>
@@ -6484,7 +6484,7 @@
         <v>862</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>876</v>
@@ -6575,7 +6575,7 @@
         <v/>
       </c>
       <c r="AR11" s="21" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>30</v>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
@@ -6684,7 +6684,7 @@
         <v>1500</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="W12" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6771,7 +6771,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AR12" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
@@ -6896,7 +6896,7 @@
         <v>447</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="W13" s="17">
         <f t="shared" si="3"/>
@@ -7058,7 +7058,7 @@
         <v>385</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>968</v>
@@ -7106,7 +7106,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="W14" s="17">
         <f t="shared" si="3"/>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="17" t="s">
@@ -7444,7 +7444,7 @@
         <v>858</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>651</v>
@@ -7609,7 +7609,7 @@
         <v>305</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>471</v>
@@ -7816,7 +7816,7 @@
         <v>862</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>892</v>
@@ -7973,10 +7973,10 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>472</v>
@@ -8024,7 +8024,7 @@
         <v>449</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="W19" s="17">
         <f t="shared" si="3"/>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="17" t="s">
@@ -8395,7 +8395,7 @@
         <v>858</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>474</v>
@@ -8602,7 +8602,7 @@
         <v>276</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>934</v>
@@ -8638,7 +8638,7 @@
         <v>1800</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W22" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8725,7 +8725,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AV22" s="4" t="s">
         <v>29</v>
@@ -8797,7 +8797,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>954</v>
@@ -8833,7 +8833,7 @@
         <v>1900</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="W23" s="17" t="str">
         <f t="shared" si="3"/>
@@ -8920,7 +8920,7 @@
         <v/>
       </c>
       <c r="AR23" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AV23" s="4" t="s">
         <v>29</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
@@ -9098,7 +9098,7 @@
         <v/>
       </c>
       <c r="AR24" s="17" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
@@ -9374,11 +9374,11 @@
         <v>257</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
@@ -9806,7 +9806,7 @@
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W28" s="17" t="str">
         <f t="shared" si="3"/>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
@@ -10018,7 +10018,7 @@
         <v>449</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" si="3"/>
@@ -10182,7 +10182,7 @@
         <v>385</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>972</v>
@@ -10230,7 +10230,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="3"/>
@@ -10317,7 +10317,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AV30" s="4" t="s">
         <v>29</v>
@@ -10389,7 +10389,7 @@
         <v>326</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>475</v>
@@ -10425,7 +10425,7 @@
         <v>447</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="W31" s="17" t="str">
         <f t="shared" si="3"/>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="17" t="s">
@@ -10830,7 +10830,7 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="W33" s="17" t="str">
         <f t="shared" si="3"/>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="17" t="s">
@@ -11034,7 +11034,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="W34" s="17" t="str">
         <f t="shared" si="3"/>
@@ -11196,7 +11196,7 @@
         <v>857</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>586</v>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="17" t="s">
@@ -11597,7 +11597,7 @@
         <v>858</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>478</v>
@@ -11798,7 +11798,7 @@
         <v>862</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>880</v>
@@ -11888,7 +11888,7 @@
         <v/>
       </c>
       <c r="AR38" s="21" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AV38" s="4" t="s">
         <v>30</v>
@@ -11960,7 +11960,7 @@
         <v>858</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>289</v>
@@ -12128,7 +12128,7 @@
         <v>858</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>291</v>
@@ -12293,7 +12293,7 @@
         <v>309</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>479</v>
@@ -12455,7 +12455,7 @@
         <v>858</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>480</v>
@@ -12662,7 +12662,7 @@
         <v>863</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>481</v>
@@ -12710,7 +12710,7 @@
         <v>447</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="W43" s="17">
         <f t="shared" si="3"/>
@@ -12869,7 +12869,7 @@
         <v>862</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>874</v>
@@ -12905,7 +12905,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="W44" s="17" t="str">
         <f t="shared" si="3"/>
@@ -12992,7 +12992,7 @@
         <v/>
       </c>
       <c r="AR44" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>29</v>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17" t="s">
@@ -13267,7 +13267,7 @@
         <v/>
       </c>
       <c r="BL45" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="46" spans="2:64" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="16" t="s">
@@ -13320,7 +13320,7 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="W46" s="17" t="str">
         <f t="shared" si="3"/>
@@ -13407,7 +13407,7 @@
         <v/>
       </c>
       <c r="AR46" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17" t="s">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="16" t="s">
@@ -14331,7 +14331,7 @@
         <v>1800</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="W51" s="17">
         <f t="shared" si="3"/>
@@ -14418,7 +14418,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR51" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
@@ -14494,7 +14494,7 @@
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
@@ -14535,7 +14535,7 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="W52" s="17" t="str">
         <f t="shared" si="3"/>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
@@ -14739,7 +14739,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W53" s="17" t="str">
         <f t="shared" si="3"/>
@@ -14826,7 +14826,7 @@
         <v/>
       </c>
       <c r="AR53" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17" t="s">
@@ -15314,11 +15314,11 @@
         <v>78</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
@@ -15367,7 +15367,7 @@
         <v>447</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="W56" s="17">
         <f t="shared" si="3"/>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
@@ -15734,7 +15734,7 @@
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="16" t="s">
@@ -15989,7 +15989,7 @@
         <v>1800</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W59" s="17">
         <f t="shared" si="3"/>
@@ -16076,7 +16076,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR59" s="17" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="17" t="s">
@@ -16355,7 +16355,7 @@
         <v>276</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>430</v>
@@ -16403,7 +16403,7 @@
         <v>455</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" si="3"/>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17" t="s">
@@ -16769,7 +16769,7 @@
         <v>305</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>938</v>
@@ -16817,7 +16817,7 @@
         <v>1800</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="W63" s="17">
         <f t="shared" si="3"/>
@@ -16904,7 +16904,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR63" s="17" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AV63" s="4" t="s">
         <v>29</v>
@@ -16976,7 +16976,7 @@
         <v>862</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>886</v>
@@ -17012,7 +17012,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="W64" s="17" t="str">
         <f t="shared" si="3"/>
@@ -17099,7 +17099,7 @@
         <v/>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AV64" s="4" t="s">
         <v>29</v>
@@ -17172,7 +17172,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="17" t="s">
@@ -17221,7 +17221,7 @@
         <v>447</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="W65" s="17">
         <f t="shared" ref="W65:W129" si="35">IF(H65&gt;0,H65/100,"")</f>
@@ -17388,7 +17388,7 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="17" t="s">
@@ -17587,7 +17587,7 @@
         <v>858</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>281</v>
@@ -17755,7 +17755,7 @@
         <v>310</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>593</v>
@@ -17944,16 +17944,16 @@
     </row>
     <row r="69" spans="2:64" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B69" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>275</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H69" s="17">
         <v>1500</v>
@@ -17992,7 +17992,7 @@
         <v>1800</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W69" s="17">
         <f t="shared" ref="W69" si="65">IF(H69&gt;0,H69/100,"")</f>
@@ -18079,7 +18079,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AV69" s="4" t="s">
         <v>29</v>
@@ -18146,7 +18146,7 @@
         <v>652</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>432</v>
@@ -18311,7 +18311,7 @@
         <v>276</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>594</v>
@@ -18506,7 +18506,7 @@
         <v>858</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>595</v>
@@ -18700,7 +18700,7 @@
         <v>275</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>596</v>
@@ -18895,7 +18895,7 @@
         <v>310</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>597</v>
@@ -19090,7 +19090,7 @@
         <v>863</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>288</v>
@@ -19138,7 +19138,7 @@
         <v>446</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="W75" s="17">
         <f t="shared" si="35"/>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="17" t="s">
@@ -19353,7 +19353,7 @@
         <v>447</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="W76" s="17">
         <f t="shared" si="35"/>
@@ -19517,7 +19517,7 @@
         <v>309</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>598</v>
@@ -19712,7 +19712,7 @@
         <v>858</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>467</v>
@@ -19760,7 +19760,7 @@
         <v>446</v>
       </c>
       <c r="V78" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="W78" s="17">
         <f t="shared" si="35"/>
@@ -19919,7 +19919,7 @@
         <v>858</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>650</v>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="17" t="s">
@@ -20306,7 +20306,7 @@
         <v>309</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>491</v>
@@ -20516,7 +20516,7 @@
         <v>385</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>976</v>
@@ -20552,7 +20552,7 @@
         <v>1800</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W82" s="17" t="str">
         <f t="shared" si="35"/>
@@ -20639,7 +20639,7 @@
         <v/>
       </c>
       <c r="AR82" s="17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AV82" s="4" t="s">
         <v>29</v>
@@ -20711,7 +20711,7 @@
         <v>858</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>492</v>
@@ -20918,7 +20918,7 @@
         <v>864</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>905</v>
@@ -20966,7 +20966,7 @@
         <v>2400</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W84" s="17">
         <f t="shared" si="35"/>
@@ -21053,7 +21053,7 @@
         <v>10am-12am</v>
       </c>
       <c r="AR84" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AV84" s="4" t="s">
         <v>29</v>
@@ -21125,7 +21125,7 @@
         <v>310</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>493</v>
@@ -21332,7 +21332,7 @@
         <v>858</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>304</v>
@@ -21341,12 +21341,12 @@
         <v>1600</v>
       </c>
       <c r="O86">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="R86" s="17"/>
       <c r="S86" s="17"/>
       <c r="V86" s="8" t="s">
-        <v>987</v>
+        <v>1156</v>
       </c>
       <c r="W86" s="17" t="str">
         <f t="shared" si="35"/>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="AD86" s="17">
         <f t="shared" si="42"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE86" s="17" t="str">
         <f t="shared" si="43"/>
@@ -21418,7 +21418,7 @@
       </c>
       <c r="AN86" s="17" t="str">
         <f t="shared" si="52"/>
-        <v>4pm-8pm</v>
+        <v>4pm-10pm</v>
       </c>
       <c r="AO86" s="17" t="str">
         <f t="shared" si="53"/>
@@ -21452,7 +21452,7 @@
         <v>{
     'name': "Factotum Brewhouse",
     'area': "highlands",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2000", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Do you have a stein, MaS, or boot from your trip to Munich or your last Oktoberfest celebration? Get some use out of it! Bring it in every Wednesday for steeply discounted fills.&lt;br&gt;0.5l = $5-$8&lt;br&gt;1l = $10-$16&lt;br&gt;2l = $20-$32", 'link':"http://www.factotumbrewhouse.com/", 'pricing':"low",   'phone-number': "", 'address': "3845 Lipan St, Denver, CO ", 'other-amenities': ['outside','pet',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2200", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Do you have a stein, MaS, or boot from your trip to Munich or your last Oktoberfest celebration? Get some use out of it! Bring it in every Wednesday for steeply discounted fills.&lt;br&gt;0.5l = $5-$8&lt;br&gt;1l = $10-$16&lt;br&gt;2l = $20-$32&lt;br&gt;Daily teachers and nurses deal: Discounts all  day every day for teachers nurses when you show your badge or ID.", 'link':"http://www.factotumbrewhouse.com/", 'pricing':"low",   'phone-number': "", 'address': "3845 Lipan St, Denver, CO ", 'other-amenities': ['outside','pet',''], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY86" s="17" t="str">
         <f t="shared" si="57"/>
@@ -21512,7 +21512,7 @@
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="17" t="s">
@@ -21723,7 +21723,7 @@
         <v>276</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>293</v>
@@ -21885,10 +21885,10 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>495</v>
@@ -22098,7 +22098,7 @@
         <v>863</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>936</v>
@@ -22188,7 +22188,7 @@
         <v/>
       </c>
       <c r="AR90" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AV90" s="4" t="s">
         <v>30</v>
@@ -22260,7 +22260,7 @@
         <v>862</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>896</v>
@@ -22350,7 +22350,7 @@
         <v/>
       </c>
       <c r="AR91" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AV91" s="4" t="s">
         <v>30</v>
@@ -22422,7 +22422,7 @@
         <v>858</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>496</v>
@@ -22634,7 +22634,7 @@
         <v>309</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G93" s="17" t="s">
         <v>599</v>
@@ -22823,7 +22823,7 @@
         <v>310</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>497</v>
@@ -23030,7 +23030,7 @@
         <v>858</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>600</v>
@@ -23066,7 +23066,7 @@
         <v>447</v>
       </c>
       <c r="V95" s="17" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="W95" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23225,7 +23225,7 @@
         <v>275</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>498</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17" t="s">
@@ -23437,7 +23437,7 @@
         <v>448</v>
       </c>
       <c r="V97" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="W97" s="17">
         <f t="shared" si="35"/>
@@ -23601,7 +23601,7 @@
         <v>326</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>499</v>
@@ -23764,7 +23764,7 @@
         <v>858</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>925</v>
@@ -23800,7 +23800,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W99" s="17" t="str">
         <f t="shared" si="35"/>
@@ -23887,7 +23887,7 @@
         <v/>
       </c>
       <c r="AR99" s="17" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AV99" s="4" t="s">
         <v>29</v>
@@ -23959,7 +23959,7 @@
         <v>655</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>500</v>
@@ -24163,10 +24163,10 @@
         <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>501</v>
@@ -24211,7 +24211,7 @@
         <v>448</v>
       </c>
       <c r="V101" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="W101" s="17">
         <f t="shared" si="35"/>
@@ -24370,7 +24370,7 @@
         <v>860</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>964</v>
@@ -24418,7 +24418,7 @@
         <v>1900</v>
       </c>
       <c r="V102" s="23" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="W102" s="17">
         <f t="shared" si="35"/>
@@ -24505,7 +24505,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR102" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AV102" s="4" t="s">
         <v>29</v>
@@ -24577,7 +24577,7 @@
         <v>857</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>601</v>
@@ -24772,7 +24772,7 @@
         <v>653</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>646</v>
@@ -24960,7 +24960,7 @@
         <v>309</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G105" s="17" t="s">
         <v>602</v>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="17" t="s">
@@ -25198,7 +25198,7 @@
       <c r="T106" s="17"/>
       <c r="U106" s="17"/>
       <c r="V106" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="W106" s="17" t="str">
         <f t="shared" si="35"/>
@@ -25360,7 +25360,7 @@
         <v>858</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>503</v>
@@ -25396,7 +25396,7 @@
         <v>446</v>
       </c>
       <c r="V107" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W107" s="17" t="str">
         <f t="shared" si="35"/>
@@ -25558,7 +25558,7 @@
         <v>858</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>504</v>
@@ -25768,7 +25768,7 @@
         <v>275</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G109" s="17" t="s">
         <v>280</v>
@@ -25804,7 +25804,7 @@
         <v>448</v>
       </c>
       <c r="V109" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="W109" s="17" t="str">
         <f t="shared" si="35"/>
@@ -25966,7 +25966,7 @@
         <v>310</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>603</v>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="17" t="s">
@@ -26371,7 +26371,7 @@
         <v>275</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G112" s="17" t="s">
         <v>505</v>
@@ -26419,7 +26419,7 @@
         <v>447</v>
       </c>
       <c r="V112" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="W112" s="17">
         <f t="shared" si="35"/>
@@ -26575,11 +26575,11 @@
         <v>939</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="16" t="s">
@@ -26684,7 +26684,7 @@
         <v/>
       </c>
       <c r="AR113" s="17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AS113" s="17"/>
       <c r="AT113" s="17"/>
@@ -26759,7 +26759,7 @@
         <v>655</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>506</v>
@@ -26965,7 +26965,7 @@
         <v>310</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G115" s="17" t="s">
         <v>507</v>
@@ -27160,7 +27160,7 @@
         <v>326</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G116" s="17" t="s">
         <v>508</v>
@@ -27370,7 +27370,7 @@
         <v>276</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>894</v>
@@ -27460,7 +27460,7 @@
         <v/>
       </c>
       <c r="AR117" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AV117" s="4" t="s">
         <v>30</v>
@@ -27529,10 +27529,10 @@
         <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>509</v>
@@ -27580,7 +27580,7 @@
         <v>447</v>
       </c>
       <c r="V118" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W118" s="17">
         <f t="shared" si="35"/>
@@ -27739,7 +27739,7 @@
         <v>275</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>510</v>
@@ -27775,7 +27775,7 @@
         <v>448</v>
       </c>
       <c r="V119" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="W119" s="17" t="str">
         <f t="shared" si="35"/>
@@ -27934,7 +27934,7 @@
         <v>655</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G120" s="17" t="s">
         <v>511</v>
@@ -27982,7 +27982,7 @@
         <v>448</v>
       </c>
       <c r="V120" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="W120" s="17">
         <f t="shared" si="35"/>
@@ -28144,7 +28144,7 @@
         <v>653</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>647</v>
@@ -28341,7 +28341,7 @@
         <v>310</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G122" s="17" t="s">
         <v>512</v>
@@ -28506,7 +28506,7 @@
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="17" t="s">
@@ -28719,7 +28719,7 @@
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="17" t="s">
@@ -28768,7 +28768,7 @@
         <v>447</v>
       </c>
       <c r="V124" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="W124" s="17">
         <f t="shared" si="35"/>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="17" t="s">
@@ -29143,7 +29143,7 @@
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="17" t="s">
@@ -29354,7 +29354,7 @@
         <v>309</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G127" s="17" t="s">
         <v>605</v>
@@ -29532,7 +29532,7 @@
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="17" t="s">
@@ -29735,7 +29735,7 @@
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="17" t="s">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="16" t="s">
@@ -29992,7 +29992,7 @@
         <v>1900</v>
       </c>
       <c r="V130" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="W130" s="17" t="str">
         <f t="shared" ref="W130:W193" si="97">IF(H130&gt;0,H130/100,"")</f>
@@ -30079,7 +30079,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR130" s="17" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AS130" s="17"/>
       <c r="AT130" s="17"/>
@@ -30158,7 +30158,7 @@
         <v>862</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>870</v>
@@ -30200,7 +30200,7 @@
         <v>1800</v>
       </c>
       <c r="V131" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="W131" s="17">
         <f t="shared" si="97"/>
@@ -30287,7 +30287,7 @@
         <v/>
       </c>
       <c r="AR131" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AV131" s="4" t="s">
         <v>29</v>
@@ -30359,7 +30359,7 @@
         <v>862</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>890</v>
@@ -30407,7 +30407,7 @@
         <v>1830</v>
       </c>
       <c r="V132" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="W132" s="17">
         <f t="shared" si="97"/>
@@ -30494,7 +30494,7 @@
         <v>2pm-6.3pm</v>
       </c>
       <c r="AR132" s="21" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AV132" s="4" t="s">
         <v>29</v>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="17" t="s">
@@ -30776,7 +30776,7 @@
         <v>309</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>606</v>
@@ -30969,7 +30969,7 @@
         <v>858</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G135" s="17" t="s">
         <v>607</v>
@@ -31168,7 +31168,7 @@
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="17" t="s">
@@ -31213,7 +31213,7 @@
         <v>446</v>
       </c>
       <c r="V136" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="W136" s="17">
         <f t="shared" si="97"/>
@@ -31376,7 +31376,7 @@
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="17" t="s">
@@ -31582,7 +31582,7 @@
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="17" t="s">
@@ -31788,7 +31788,7 @@
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="17" t="s">
@@ -31992,7 +31992,7 @@
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="17" t="s">
@@ -32196,7 +32196,7 @@
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="17" t="s">
@@ -32403,7 +32403,7 @@
         <v>860</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G142" s="17" t="s">
         <v>609</v>
@@ -32602,7 +32602,7 @@
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17" t="s">
@@ -32806,7 +32806,7 @@
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17" t="s">
@@ -33011,14 +33011,14 @@
     </row>
     <row r="145" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B145" s="17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C145" s="17" t="s">
         <v>864</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="16" t="s">
@@ -33059,7 +33059,7 @@
       <c r="T145" s="17"/>
       <c r="U145" s="17"/>
       <c r="V145" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="W145" s="17" t="str">
         <f t="shared" si="97"/>
@@ -33146,7 +33146,7 @@
         <v/>
       </c>
       <c r="AR145" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AS145" s="17"/>
       <c r="AT145" s="17"/>
@@ -33222,7 +33222,7 @@
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="17" t="s">
@@ -33428,7 +33428,7 @@
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17" t="s">
@@ -33640,7 +33640,7 @@
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="17" t="s">
@@ -33681,7 +33681,7 @@
       <c r="T148" s="17"/>
       <c r="U148" s="17"/>
       <c r="V148" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W148" s="17" t="str">
         <f t="shared" si="97"/>
@@ -33844,7 +33844,7 @@
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17" t="s">
@@ -33885,7 +33885,7 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
       <c r="V149" s="17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W149" s="17" t="str">
         <f t="shared" si="97"/>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17" t="s">
@@ -34260,7 +34260,7 @@
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="17" t="s">
@@ -34472,7 +34472,7 @@
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17" t="s">
@@ -34684,7 +34684,7 @@
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="17" t="s">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17" t="s">
@@ -35108,7 +35108,7 @@
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17" t="s">
@@ -35312,7 +35312,7 @@
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="17" t="s">
@@ -35516,7 +35516,7 @@
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17" t="s">
@@ -35565,7 +35565,7 @@
         <v>459</v>
       </c>
       <c r="V157" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="W157" s="17">
         <f t="shared" si="97"/>
@@ -35730,11 +35730,11 @@
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="17" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H158" s="17" t="s">
         <v>445</v>
@@ -35941,7 +35941,7 @@
         <v>310</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G159" s="17" t="s">
         <v>614</v>
@@ -36136,7 +36136,7 @@
         <v>655</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G160" s="17" t="s">
         <v>534</v>
@@ -36343,7 +36343,7 @@
         <v>276</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G161" s="17" t="s">
         <v>615</v>
@@ -36538,7 +36538,7 @@
         <v>310</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G162" s="17" t="s">
         <v>535</v>
@@ -36745,7 +36745,7 @@
         <v>858</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G163" s="17" t="s">
         <v>297</v>
@@ -36781,7 +36781,7 @@
         <v>446</v>
       </c>
       <c r="V163" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="W163" s="17" t="str">
         <f t="shared" si="97"/>
@@ -36943,7 +36943,7 @@
         <v>864</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G164" s="20" t="s">
         <v>903</v>
@@ -36973,7 +36973,7 @@
         <v>1900</v>
       </c>
       <c r="V164" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W164" s="17" t="str">
         <f t="shared" si="97"/>
@@ -37060,7 +37060,7 @@
         <v/>
       </c>
       <c r="AR164" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV164" s="4" t="s">
         <v>29</v>
@@ -37132,7 +37132,7 @@
         <v>859</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G165" s="16" t="s">
         <v>911</v>
@@ -37180,7 +37180,7 @@
         <v>1800</v>
       </c>
       <c r="V165" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="W165" s="17">
         <f t="shared" si="97"/>
@@ -37267,7 +37267,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR165" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV165" s="4" t="s">
         <v>29</v>
@@ -37339,7 +37339,7 @@
         <v>309</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>536</v>
@@ -37546,7 +37546,7 @@
         <v>863</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>648</v>
@@ -37741,7 +37741,7 @@
         <v>864</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G168" s="17" t="s">
         <v>302</v>
@@ -37927,7 +37927,7 @@
         <v>385</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>982</v>
@@ -38062,7 +38062,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR169" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AV169" s="4" t="s">
         <v>29</v>
@@ -38134,7 +38134,7 @@
         <v>859</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>917</v>
@@ -38293,7 +38293,7 @@
         <v>656</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G171" s="17" t="s">
         <v>616</v>
@@ -38494,7 +38494,7 @@
         <v>864</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G172" s="20" t="s">
         <v>898</v>
@@ -38542,7 +38542,7 @@
         <v>1800</v>
       </c>
       <c r="V172" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W172" s="17">
         <f t="shared" si="97"/>
@@ -38629,7 +38629,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR172" s="21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AV172" s="4" t="s">
         <v>29</v>
@@ -38701,7 +38701,7 @@
         <v>653</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G173" s="17" t="s">
         <v>617</v>
@@ -38896,7 +38896,7 @@
         <v>332</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G174" s="17" t="s">
         <v>618</v>
@@ -39091,7 +39091,7 @@
         <v>857</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G175" s="17" t="s">
         <v>619</v>
@@ -39286,7 +39286,7 @@
         <v>332</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G176" s="17" t="s">
         <v>620</v>
@@ -39481,7 +39481,7 @@
         <v>326</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G177" s="17" t="s">
         <v>621</v>
@@ -39676,7 +39676,7 @@
         <v>309</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G178" s="17" t="s">
         <v>537</v>
@@ -39712,7 +39712,7 @@
         <v>447</v>
       </c>
       <c r="V178" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="W178" s="17" t="str">
         <f t="shared" si="97"/>
@@ -39871,7 +39871,7 @@
         <v>305</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G179" s="16" t="s">
         <v>942</v>
@@ -39907,7 +39907,7 @@
         <v>1800</v>
       </c>
       <c r="V179" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W179" s="17" t="str">
         <f t="shared" si="97"/>
@@ -39994,7 +39994,7 @@
         <v/>
       </c>
       <c r="AR179" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AV179" s="4" t="s">
         <v>29</v>
@@ -40063,10 +40063,10 @@
         <v>131</v>
       </c>
       <c r="C180" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G180" s="17" t="s">
         <v>538</v>
@@ -40267,7 +40267,7 @@
         <v>862</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>868</v>
@@ -40387,7 +40387,7 @@
         <v/>
       </c>
       <c r="AR181" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AV181" s="4" t="s">
         <v>29</v>
@@ -40459,7 +40459,7 @@
         <v>865</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G182" s="17" t="s">
         <v>539</v>
@@ -40660,7 +40660,7 @@
         <v>310</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G183" s="17" t="s">
         <v>540</v>
@@ -40708,7 +40708,7 @@
         <v>447</v>
       </c>
       <c r="V183" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W183" s="17">
         <f t="shared" si="97"/>
@@ -40867,7 +40867,7 @@
         <v>276</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G184" s="17" t="s">
         <v>277</v>
@@ -41059,7 +41059,7 @@
         <v>858</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G185" s="17" t="s">
         <v>541</v>
@@ -41224,7 +41224,7 @@
         <v>310</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G186" s="17" t="s">
         <v>542</v>
@@ -41419,7 +41419,7 @@
         <v>305</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G187" s="17" t="s">
         <v>622</v>
@@ -41455,7 +41455,7 @@
         <v>447</v>
       </c>
       <c r="V187" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W187" s="17" t="str">
         <f t="shared" si="97"/>
@@ -41614,7 +41614,7 @@
         <v>858</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G188" s="17" t="s">
         <v>299</v>
@@ -41779,7 +41779,7 @@
         <v>653</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G189" s="17" t="s">
         <v>543</v>
@@ -41974,7 +41974,7 @@
         <v>310</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G190" s="17" t="s">
         <v>544</v>
@@ -42022,7 +42022,7 @@
         <v>448</v>
       </c>
       <c r="V190" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W190" s="17">
         <f t="shared" si="97"/>
@@ -42181,7 +42181,7 @@
         <v>859</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>913</v>
@@ -42229,7 +42229,7 @@
         <v>1800</v>
       </c>
       <c r="V191" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="W191" s="17">
         <f t="shared" si="97"/>
@@ -42316,7 +42316,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR191" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AV191" s="4" t="s">
         <v>29</v>
@@ -42388,7 +42388,7 @@
         <v>275</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G192" s="17" t="s">
         <v>545</v>
@@ -42592,10 +42592,10 @@
         <v>260</v>
       </c>
       <c r="C193" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G193" s="17" t="s">
         <v>431</v>
@@ -42796,7 +42796,7 @@
         <v>385</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>978</v>
@@ -42886,7 +42886,7 @@
         <v/>
       </c>
       <c r="AR194" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AV194" s="4" t="s">
         <v>30</v>
@@ -42962,7 +42962,7 @@
         <v>276</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G195" s="17" t="s">
         <v>298</v>
@@ -43127,7 +43127,7 @@
         <v>858</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G196" s="17" t="s">
         <v>429</v>
@@ -43163,7 +43163,7 @@
         <v>448</v>
       </c>
       <c r="V196" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W196" s="17" t="str">
         <f t="shared" si="129"/>
@@ -43326,7 +43326,7 @@
         <v>310</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G197" s="17" t="s">
         <v>546</v>
@@ -43368,7 +43368,7 @@
         <v>448</v>
       </c>
       <c r="V197" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W197" s="17">
         <f t="shared" si="129"/>
@@ -43527,7 +43527,7 @@
         <v>310</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G198" s="17" t="s">
         <v>547</v>
@@ -43734,7 +43734,7 @@
         <v>653</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G199" s="17" t="s">
         <v>623</v>
@@ -43929,7 +43929,7 @@
         <v>326</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G200" s="17" t="s">
         <v>548</v>
@@ -43977,7 +43977,7 @@
         <v>448</v>
       </c>
       <c r="V200" s="17" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W200" s="17">
         <f t="shared" si="129"/>
@@ -44136,7 +44136,7 @@
         <v>305</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>946</v>
@@ -44226,7 +44226,7 @@
         <v/>
       </c>
       <c r="AR201" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AV201" s="4" t="s">
         <v>30</v>
@@ -44298,7 +44298,7 @@
         <v>310</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G202" s="17" t="s">
         <v>549</v>
@@ -44340,7 +44340,7 @@
         <v>447</v>
       </c>
       <c r="V202" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W202" s="17">
         <f t="shared" si="129"/>
@@ -44499,7 +44499,7 @@
         <v>309</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G203" s="17" t="s">
         <v>550</v>
@@ -44706,7 +44706,7 @@
         <v>857</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G204" s="17" t="s">
         <v>551</v>
@@ -44913,7 +44913,7 @@
         <v>309</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G205" s="17" t="s">
         <v>300</v>
@@ -45078,7 +45078,7 @@
         <v>858</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G206" s="17" t="s">
         <v>552</v>
@@ -45276,7 +45276,7 @@
         <v>862</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>882</v>
@@ -45324,7 +45324,7 @@
         <v>1800</v>
       </c>
       <c r="V207" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W207" s="17">
         <f t="shared" si="129"/>
@@ -45411,7 +45411,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR207" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AV207" s="4" t="s">
         <v>29</v>
@@ -45483,7 +45483,7 @@
         <v>656</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G208" s="17" t="s">
         <v>624</v>
@@ -45678,7 +45678,7 @@
         <v>860</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>958</v>
@@ -45768,7 +45768,7 @@
         <v/>
       </c>
       <c r="AR209" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AV209" s="4" t="s">
         <v>30</v>
@@ -45840,7 +45840,7 @@
         <v>860</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G210" s="17" t="s">
         <v>625</v>
@@ -46038,7 +46038,7 @@
         <v>655</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G211" s="17" t="s">
         <v>553</v>
@@ -46233,16 +46233,16 @@
     </row>
     <row r="212" spans="2:64" s="17" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B212" s="17" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>309</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G212" s="24" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="W212" s="17" t="str">
         <f t="shared" ref="W212" si="159">IF(H212&gt;0,H212/100,"")</f>
@@ -46329,7 +46329,7 @@
         <v/>
       </c>
       <c r="AR212" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AV212" s="4" t="s">
         <v>30</v>
@@ -46400,7 +46400,7 @@
         <v>863</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>932</v>
@@ -46448,7 +46448,7 @@
         <v>1900</v>
       </c>
       <c r="V213" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="W213" s="17">
         <f t="shared" si="129"/>
@@ -46535,7 +46535,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR213" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AV213" s="4" t="s">
         <v>29</v>
@@ -46607,7 +46607,7 @@
         <v>332</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G214" s="17" t="s">
         <v>554</v>
@@ -46814,7 +46814,7 @@
         <v>309</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>948</v>
@@ -46973,7 +46973,7 @@
         <v>858</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G216" s="17" t="s">
         <v>555</v>
@@ -47180,7 +47180,7 @@
         <v>275</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G217" s="17" t="s">
         <v>626</v>
@@ -47375,7 +47375,7 @@
         <v>652</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G218" s="17" t="s">
         <v>627</v>
@@ -47570,7 +47570,7 @@
         <v>310</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G219" s="17" t="s">
         <v>628</v>
@@ -47765,7 +47765,7 @@
         <v>310</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G220" s="17" t="s">
         <v>629</v>
@@ -47801,7 +47801,7 @@
         <v>447</v>
       </c>
       <c r="V220" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="W220" s="17" t="str">
         <f t="shared" si="129"/>
@@ -47960,7 +47960,7 @@
         <v>275</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>556</v>
@@ -48166,7 +48166,7 @@
         <v>326</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G222" s="17" t="s">
         <v>294</v>
@@ -48338,7 +48338,7 @@
         <v>276</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G223" s="17" t="s">
         <v>282</v>
@@ -48510,7 +48510,7 @@
         <v>305</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G224" t="s">
         <v>557</v>
@@ -48558,7 +48558,7 @@
         <v>447</v>
       </c>
       <c r="V224" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="W224" s="17">
         <f t="shared" si="129"/>
@@ -48716,7 +48716,7 @@
         <v>310</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G225" s="17" t="s">
         <v>630</v>
@@ -48907,10 +48907,10 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G226" s="17" t="s">
         <v>631</v>
@@ -49104,7 +49104,7 @@
         <v>309</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G227" s="17" t="s">
         <v>632</v>
@@ -49300,7 +49300,7 @@
         <v>332</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G228" s="17" t="s">
         <v>558</v>
@@ -49348,7 +49348,7 @@
         <v>1800</v>
       </c>
       <c r="V228" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="W228" s="17">
         <f t="shared" si="129"/>
@@ -49506,7 +49506,7 @@
         <v>655</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G229" s="17" t="s">
         <v>559</v>
@@ -49708,7 +49708,7 @@
         <v>656</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G230" s="17" t="s">
         <v>633</v>
@@ -49902,7 +49902,7 @@
         <v>656</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G231" s="17" t="s">
         <v>560</v>
@@ -50111,7 +50111,7 @@
         <v>858</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>923</v>
@@ -50209,7 +50209,7 @@
         <v/>
       </c>
       <c r="AR232" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV232" s="4" t="s">
         <v>30</v>
@@ -50279,7 +50279,7 @@
         <v>326</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G233" s="17" t="s">
         <v>561</v>
@@ -50475,7 +50475,7 @@
         <v>653</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G234" s="17" t="s">
         <v>562</v>
@@ -50672,7 +50672,7 @@
         <v>332</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G235" s="17" t="s">
         <v>563</v>
@@ -50866,7 +50866,7 @@
         <v>310</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G236" s="17" t="s">
         <v>634</v>
@@ -51060,7 +51060,7 @@
         <v>310</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G237" s="17" t="s">
         <v>635</v>
@@ -51256,7 +51256,7 @@
         <v>305</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G238" s="17" t="s">
         <v>564</v>
@@ -51450,7 +51450,7 @@
         <v>332</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G239" s="17" t="s">
         <v>636</v>
@@ -51488,7 +51488,7 @@
       <c r="T239" s="17"/>
       <c r="U239" s="17"/>
       <c r="V239" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="W239" s="17" t="str">
         <f t="shared" si="129"/>
@@ -51643,10 +51643,10 @@
         <v>157</v>
       </c>
       <c r="C240" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G240" s="17" t="s">
         <v>565</v>
@@ -51852,7 +51852,7 @@
         <v>310</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G241" s="17" t="s">
         <v>637</v>
@@ -52016,7 +52016,7 @@
         <v>862</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>878</v>
@@ -52064,7 +52064,7 @@
         <v>1800</v>
       </c>
       <c r="V242" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="W242" s="17">
         <f t="shared" si="129"/>
@@ -52151,7 +52151,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR242" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AV242" s="4" t="s">
         <v>29</v>
@@ -52221,7 +52221,7 @@
         <v>385</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>984</v>
@@ -52269,7 +52269,7 @@
         <v>1800</v>
       </c>
       <c r="V243" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="W243" s="17">
         <f t="shared" si="129"/>
@@ -52356,7 +52356,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR243" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AV243" s="4" t="s">
         <v>29</v>
@@ -52426,7 +52426,7 @@
         <v>310</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G244" s="17" t="s">
         <v>649</v>
@@ -52618,7 +52618,7 @@
         <v>309</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>944</v>
@@ -52660,7 +52660,7 @@
         <v>1700</v>
       </c>
       <c r="V245" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="W245" s="17" t="str">
         <f t="shared" si="129"/>
@@ -52747,7 +52747,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR245" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AV245" s="4" t="s">
         <v>29</v>
@@ -52817,7 +52817,7 @@
         <v>860</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>952</v>
@@ -52937,7 +52937,7 @@
         <v/>
       </c>
       <c r="AR246" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AV246" s="4" t="s">
         <v>29</v>
@@ -53007,7 +53007,7 @@
         <v>862</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G247" s="17" t="s">
         <v>872</v>
@@ -53055,7 +53055,7 @@
         <v>1900</v>
       </c>
       <c r="V247" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="W247" s="17">
         <f t="shared" si="129"/>
@@ -53142,7 +53142,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR247" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AV247" s="4" t="s">
         <v>29</v>
@@ -53212,7 +53212,7 @@
         <v>276</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G248" s="17" t="s">
         <v>283</v>
@@ -53250,7 +53250,7 @@
       <c r="T248" s="17"/>
       <c r="U248" s="17"/>
       <c r="V248" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="W248" s="17" t="str">
         <f t="shared" si="129"/>
@@ -53411,7 +53411,7 @@
         <v>864</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>907</v>
@@ -53459,7 +53459,7 @@
         <v>1900</v>
       </c>
       <c r="V249" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W249" s="17">
         <f t="shared" si="129"/>
@@ -53546,7 +53546,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR249" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV249" s="4" t="s">
         <v>29</v>
@@ -53616,7 +53616,7 @@
         <v>860</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>960</v>
@@ -53664,7 +53664,7 @@
         <v>1800</v>
       </c>
       <c r="V250" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W250" s="17">
         <f t="shared" si="129"/>
@@ -53751,7 +53751,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR250" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AV250" s="4" t="s">
         <v>29</v>
@@ -53821,7 +53821,7 @@
         <v>310</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G251" s="17" t="s">
         <v>566</v>
@@ -54024,7 +54024,7 @@
         <v>385</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>986</v>
@@ -54072,7 +54072,7 @@
         <v>1900</v>
       </c>
       <c r="V252" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W252" s="17">
         <f t="shared" si="129"/>
@@ -54159,7 +54159,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR252" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AV252" s="4" t="s">
         <v>29</v>
@@ -54229,7 +54229,7 @@
         <v>858</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>921</v>
@@ -54271,7 +54271,7 @@
         <v>1830</v>
       </c>
       <c r="V253" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="W253" s="17" t="str">
         <f t="shared" si="129"/>
@@ -54358,7 +54358,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR253" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AV253" s="4" t="s">
         <v>29</v>
@@ -54428,7 +54428,7 @@
         <v>858</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G254" s="17" t="s">
         <v>567</v>
@@ -54476,7 +54476,7 @@
         <v>447</v>
       </c>
       <c r="V254" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="W254" s="17">
         <f t="shared" si="129"/>
@@ -54634,7 +54634,7 @@
         <v>655</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G255" s="17" t="s">
         <v>278</v>
@@ -54682,7 +54682,7 @@
         <v>447</v>
       </c>
       <c r="V255" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W255" s="17">
         <f t="shared" si="129"/>
@@ -54843,7 +54843,7 @@
         <v>652</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G256" s="17" t="s">
         <v>568</v>
@@ -54891,7 +54891,7 @@
         <v>447</v>
       </c>
       <c r="V256" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W256" s="17">
         <f t="shared" si="129"/>
@@ -55049,7 +55049,7 @@
         <v>310</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G257" s="17" t="s">
         <v>569</v>
@@ -55085,7 +55085,7 @@
         <v>448</v>
       </c>
       <c r="V257" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W257" s="17" t="str">
         <f t="shared" si="129"/>
@@ -55243,7 +55243,7 @@
         <v>655</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G258" s="17" t="s">
         <v>638</v>
@@ -55414,7 +55414,7 @@
         <v>858</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G259" s="17" t="s">
         <v>639</v>
@@ -55609,7 +55609,7 @@
         <v>655</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G260" s="17" t="s">
         <v>570</v>
@@ -55641,7 +55641,7 @@
       <c r="R260" s="17"/>
       <c r="S260" s="17"/>
       <c r="V260" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W260" s="17" t="str">
         <f t="shared" si="190"/>
@@ -55799,7 +55799,7 @@
         <v>385</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>971</v>
@@ -55961,7 +55961,7 @@
         <v>310</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G262" s="17" t="s">
         <v>571</v>
@@ -56161,7 +56161,7 @@
         <v>385</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G263" s="16" t="s">
         <v>966</v>
@@ -56251,7 +56251,7 @@
         <v/>
       </c>
       <c r="AR263" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AV263" s="4" t="s">
         <v>30</v>
@@ -56321,7 +56321,7 @@
         <v>310</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G264" s="17" t="s">
         <v>640</v>
@@ -56517,7 +56517,7 @@
         <v>310</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G265" s="17" t="s">
         <v>572</v>
@@ -56711,7 +56711,7 @@
         <v>326</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G266" s="17" t="s">
         <v>641</v>
@@ -56747,7 +56747,7 @@
         <v>447</v>
       </c>
       <c r="V266" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="W266" s="17" t="str">
         <f t="shared" si="190"/>
@@ -56908,7 +56908,7 @@
         <v>653</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G267" s="17" t="s">
         <v>642</v>
@@ -56944,7 +56944,7 @@
         <v>448</v>
       </c>
       <c r="V267" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="W267" s="17" t="str">
         <f t="shared" si="190"/>
@@ -57102,7 +57102,7 @@
         <v>276</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G268" s="17" t="s">
         <v>643</v>
@@ -57296,7 +57296,7 @@
         <v>653</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G269" s="17" t="s">
         <v>573</v>
@@ -57336,7 +57336,7 @@
         <v>448</v>
       </c>
       <c r="V269" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W269" s="17">
         <f t="shared" si="190"/>
@@ -57497,7 +57497,7 @@
         <v>858</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G270" s="17" t="s">
         <v>574</v>
@@ -57703,7 +57703,7 @@
         <v>858</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G271" s="16" t="s">
         <v>927</v>
@@ -57751,7 +57751,7 @@
         <v>1800</v>
       </c>
       <c r="V271" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="W271" s="17">
         <f t="shared" si="190"/>
@@ -57838,7 +57838,7 @@
         <v>12pm-6pm</v>
       </c>
       <c r="AR271" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AV271" s="4" t="s">
         <v>29</v>
@@ -57908,7 +57908,7 @@
         <v>326</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G272" s="17" t="s">
         <v>292</v>
@@ -58072,7 +58072,7 @@
         <v>385</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G273" s="16" t="s">
         <v>974</v>
@@ -58204,7 +58204,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR273" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AV273" s="4" t="s">
         <v>29</v>
@@ -58275,7 +58275,7 @@
       </c>
       <c r="D274" s="8"/>
       <c r="E274" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="17" t="s">
@@ -58451,13 +58451,13 @@
     </row>
     <row r="275" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C275" s="17" t="s">
         <v>862</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G275" s="16" t="s">
         <v>866</v>
@@ -58501,7 +58501,7 @@
       <c r="T275" s="17"/>
       <c r="U275" s="17"/>
       <c r="V275" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="W275" s="17">
         <f t="shared" si="190"/>
@@ -58588,7 +58588,7 @@
         <v/>
       </c>
       <c r="AR275" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AV275" s="4" t="s">
         <v>29</v>
@@ -58655,10 +58655,10 @@
         <v>237</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G276" s="17" t="s">
         <v>644</v>
@@ -58854,7 +58854,7 @@
         <v>863</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G277" s="16" t="s">
         <v>481</v>
@@ -58902,7 +58902,7 @@
         <v>1700</v>
       </c>
       <c r="V277" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W277" s="17">
         <f t="shared" si="190"/>
@@ -58989,7 +58989,7 @@
         <v>4pm-5pm</v>
       </c>
       <c r="AR277" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AV277" s="4" t="s">
         <v>29</v>
@@ -59059,7 +59059,7 @@
         <v>655</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G278" s="17" t="s">
         <v>576</v>
@@ -59253,7 +59253,7 @@
         <v>309</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G279" s="17" t="s">
         <v>577</v>
@@ -59301,7 +59301,7 @@
         <v>448</v>
       </c>
       <c r="V279" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W279" s="17">
         <f t="shared" si="190"/>
@@ -59459,7 +59459,7 @@
         <v>860</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G280" s="16" t="s">
         <v>962</v>
@@ -59507,7 +59507,7 @@
         <v>1730</v>
       </c>
       <c r="V280" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="W280" s="17">
         <f t="shared" si="190"/>
@@ -59594,7 +59594,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR280" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AV280" s="4" t="s">
         <v>29</v>
@@ -59664,7 +59664,7 @@
         <v>309</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G281" s="17" t="s">
         <v>295</v>
@@ -59840,7 +59840,7 @@
         <v>326</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G282" s="17" t="s">
         <v>578</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -4481,7 +4481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BM5" sqref="BM5"/>
+      <selection pane="bottomLeft" activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="BL4" s="17"/>
     </row>
-    <row r="5" spans="2:64" s="17" customFormat="1" ht="120">
+    <row r="5" spans="2:64" s="17" customFormat="1" ht="150">
       <c r="B5" s="17" t="s">
         <v>1157</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>29</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX5" s="16" t="str">
         <f t="shared" ref="AX5" si="54">CONCATENATE("{
@@ -5447,7 +5447,7 @@
         <v>{
     'name': "715 Club",
     'area': "five",'hours': {
-      'sunday-start':"1200", 'sunday-end':"2000", 'monday-start':"1600", 'monday-end':"2000", 'tuesday-start':"1600", 'tuesday-end':"2000", 'wednesday-start':"1600", 'wednesday-end':"2000", 'thursday-start':"1600", 'thursday-end':"2000", 'friday-start':"1600", 'friday-end':"2000", 'saturday-start':"1200", 'saturday-end':"2000"},  'description': "Beer and a shot for $6 (Tecate, Coors Banquet or Miller High Life and Jamison, Jim Beam or Espolon)&lt;br&gt;$1 off all taps&lt;br&gt;$3 wells&lt;br&gt;$3 wines", 'link':"https://www.715club.com/", 'pricing':"med",   'phone-number': "", 'address': "715 E 26th Ave Denver, CO, 80205", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1200", 'sunday-end':"2000", 'monday-start':"1600", 'monday-end':"2000", 'tuesday-start':"1600", 'tuesday-end':"2000", 'wednesday-start':"1600", 'wednesday-end':"2000", 'thursday-start':"1600", 'thursday-end':"2000", 'friday-start':"1600", 'friday-end':"2000", 'saturday-start':"1200", 'saturday-end':"2000"},  'description': "Beer and a shot for $6 (Tecate, Coors Banquet or Miller High Life and Jamison, Jim Beam or Espolon)&lt;br&gt;$1 off all taps&lt;br&gt;$3 wells&lt;br&gt;$3 wines", 'link':"https://www.715club.com/", 'pricing':"med",   'phone-number': "", 'address': "715 E 26th Ave Denver, CO, 80205", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY5" s="17" t="str">
         <f t="shared" ref="AY5" si="55">IF(AS5&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -5467,15 +5467,15 @@
       </c>
       <c r="BC5" s="17" t="str">
         <f t="shared" ref="BC5" si="59">IF(AW5="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD5" s="17" t="str">
         <f t="shared" ref="BD5" si="60">CONCATENATE(AY5,AZ5,BA5,BB5,BC5,BK5)</f>
-        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE5" s="17" t="str">
         <f t="shared" ref="BE5" si="61">CONCATENATE(IF(AS5&gt;0,"outdoor ",""),IF(AT5&gt;0,"pet ",""),IF(AV5="true","drink ",""),IF(AW5="true","food ",""),AU5," ",E5," ",C5,IF(BJ5=TRUE," kid",""))</f>
-        <v>drink  med five</v>
+        <v>drink food  med five</v>
       </c>
       <c r="BF5" s="17" t="str">
         <f t="shared" ref="BF5" si="62">IF(C5="highlands","Highlands",IF(C5="Washington","Washington Park",IF(C5="Downtown","Downtown",IF(C5="city","City Park",IF(C5="Uptown","Uptown",IF(C5="capital","Capital Hill",IF(C5="Ballpark","Ballpark",IF(C5="LoDo","LoDo",IF(C5="ranch","Highlands Ranch",IF(C5="five","Five Points",IF(C5="stapleton","Stapleton",IF(C5="Cherry","Cherry Creek",IF(C5="dtc","DTC",IF(C5="Baker","Baker",IF(C5="Lakewood","Lakewood",IF(C5="Westminster","Westminster",IF(C5="lowery","Lowery",IF(C5="meadows","Park Meadows",IF(C5="larimer","Larimer Square",IF(C5="RiNo","RiNo",IF(C5="aurora","Aurora","")))))))))))))))))))))</f>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3039,9 +3039,6 @@
     <t>http://www.breweria.com</t>
   </si>
   <si>
-    <t>Drinks:&lt;br&gt;$3 Pints&lt;br&gt;$5 Beer &amp; Bump – one topping slice pizza, jager, fireball or well shot&lt;br&gt;Food - $5:&lt;br&gt;Poppers, Small Nachos, Sliders (3), Bombers, Green Chili, Dude’s Fries</t>
-  </si>
-  <si>
     <t>http://www.annettescratchtotable.com/</t>
   </si>
   <si>
@@ -3175,9 +3172,6 @@
   </si>
   <si>
     <t>http://www.parkandcodenver.com/</t>
-  </si>
-  <si>
-    <t>$1 Off All Beer and Wine&lt;br&gt;$5 Blue Collar – PBR and Jim Beam&lt;br&gt;$5 El Chilango – Tecate and Patron XO&lt;br&gt;$10 Cheeseman Park – IMT Rose and Sweet Revenge&lt;br&gt;$5 Belgian Waffle – Stella &amp; Cabin Feaver&lt;br&gt;$5 Curtis Park – Coors &amp; Fireball&lt;br&gt;$5 Cherry Brandy Lime-aid&lt;br&gt;$5 Verano Blanco Sangria&lt;br&gt;$2 Pork Sliders&lt;br&gt;$7 Spinach Dip</t>
   </si>
   <si>
     <t>http://thegreedyhamster.com/</t>
@@ -3679,9 +3673,6 @@
     <t>2413 W 32nd Ave Denver CO</t>
   </si>
   <si>
-    <t>Drinks –&lt;br&gt;$6 Select Wine&lt;br&gt;$6 Specialty Cocktails&lt;br&gt;$2 Select Beer&lt;br&gt;$2 Well Cocktails&lt;br&gt;&lt;br&gt;Food – $6 Apps, Soups and Salads</t>
-  </si>
-  <si>
     <t>http://duorestaurants.com</t>
   </si>
   <si>
@@ -3691,9 +3682,6 @@
     <t>1453 Larimer St Denver CO</t>
   </si>
   <si>
-    <t>Drinks –&lt;br&gt;$4 Drafts&lt;br&gt;$4 House Red and White Wines&lt;br&gt;$4 Well Cocktails&lt;br&gt;&lt;br&gt;Food –&lt;br&gt;$4 Mozzarella&lt;br&gt;$5 Cheese Pizzas&lt;br&gt;$7 Chicken Ceasar Salad</t>
-  </si>
-  <si>
     <t>osteriamarco.com</t>
   </si>
   <si>
@@ -3736,10 +3724,6 @@
     <t>Acorn</t>
   </si>
   <si>
-    <t>Drinks –&lt;br&gt;$2 Coors and Coors Light&lt;br&gt;$3.5 Avery IPA&lt;br&gt;$6 Classic Cocktail – whiskey sour, blood and sand, negroni, vodka collins, sidecar&lt;br&gt;$8 Wine on Tap&lt;br&gt;&lt;br&gt;Food –&lt;br&gt;$13 Oak Grilled Double Cheeseburger – harissa aioli, gruyere cheese, add avocado, fried pickle, or tender belly bacon $1&lt;br&gt;$5 Crispy Fried Pickles – green goddess aioli&lt;br&gt;12 Kale &amp; Apple Salad – candied almonds, parmesan, togarashi
-$15 Duck Ramen Noodle Bowl – house-made ramen noodles, duck breast, soft-poached egg&lt;br&gt;$14 Lamb “Shawarma” Sandwich – piquillo peppers, giardiniera, feta cheese, tzatziki sauce&lt;br&gt;$14 Tomato Braised Meatballs – anson mills stone ground grits, burrata, basil</t>
-  </si>
-  <si>
     <t>3350 Brighton Blvd, Denver, CO 80216</t>
   </si>
   <si>
@@ -3828,6 +3812,21 @@
   </si>
   <si>
     <t>3390 E 1st Ave, Denver, CO 80206</t>
+  </si>
+  <si>
+    <t>Drinks -&lt;br&gt;$2 Coors and Coors Light&lt;br&gt;$3.5 Avery IPA&lt;br&gt;$6 Classic Cocktail - whiskey sour, blood and sand, negroni, vodka collins, sidecar&lt;br&gt;$8 Wine on Tap&lt;br&gt;&lt;br&gt;Food -&lt;br&gt;$13 Oak Grilled Double Cheeseburger - harissa aioli, gruyere cheese, add avocado, fried pickle, or tender belly bacon $1&lt;br&gt;$5 Crispy Fried Pickles - green goddess aioli&lt;br&gt;12 Kale &amp; Apple Salad - candied almonds, parmesan, togarashi&lt;br&gt;$15 Duck Ramen Noodle Bowl - house-made ramen noodles, duck breast, soft-poached egg&lt;br&gt;$14 Lamb “Shawarma” Sandwich - piquillo peppers, giardiniera, feta cheese, tzatziki sauce&lt;br&gt;$14 Tomato Braised Meatballs - anson mills stone ground grits, burrata, basil</t>
+  </si>
+  <si>
+    <t>Drinks:&lt;br&gt;$3 Pints&lt;br&gt;$5 Beer &amp; Bump - one topping slice pizza, jager, fireball or well shot&lt;br&gt;Food - $5:&lt;br&gt;Poppers, Small Nachos, Sliders (3), Bombers, Green Chili, Dude’s Fries</t>
+  </si>
+  <si>
+    <t>Drinks -&lt;br&gt;$6 Select Wine&lt;br&gt;$6 Specialty Cocktails&lt;br&gt;$2 Select Beer&lt;br&gt;$2 Well Cocktails&lt;br&gt;&lt;br&gt;Food - $6 Apps, Soups and Salads</t>
+  </si>
+  <si>
+    <t>Drinks -&lt;br&gt;$4 Drafts&lt;br&gt;$4 House Red and White Wines&lt;br&gt;$4 Well Cocktails&lt;br&gt;&lt;br&gt;Food -&lt;br&gt;$4 Mozzarella&lt;br&gt;$5 Cheese Pizzas&lt;br&gt;$7 Chicken Ceasar Salad</t>
+  </si>
+  <si>
+    <t>$1 Off All Beer and Wine&lt;br&gt;$5 Blue Collar - PBR and Jim Beam&lt;br&gt;$5 El Chilango - Tecate and Patron XO&lt;br&gt;$10 Cheeseman Park - IMT Rose and Sweet Revenge&lt;br&gt;$5 Belgian Waffle - Stella &amp; Cabin Feaver&lt;br&gt;$5 Curtis Park - Coors &amp; Fireball&lt;br&gt;$5 Cherry Brandy Lime-aid&lt;br&gt;$5 Verano Blanco Sangria&lt;br&gt;$2 Pork Sliders&lt;br&gt;$7 Spinach Dip</t>
   </si>
 </sst>
 </file>
@@ -4821,9 +4820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF129" sqref="BF129"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5035,7 +5034,7 @@
         <v>309</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>577</v>
@@ -5071,7 +5070,7 @@
         <v>445</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="W2" s="17" t="str">
         <f t="shared" ref="W2:W65" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5178,35 +5177,35 @@
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 draft beers, $5 wells, and $6 house wines; $5 and $6 select shareables", 'link':"http://www.sheratondenverdowntown.com/16-mix-downtown-denver-bars", 'pricing':"med",   'phone-number': "", 'address': "1550 Court Place Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY2" s="17" t="str">
-        <f t="shared" ref="AY2:AY7" si="22">IF(AS2&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
+        <f t="shared" ref="AY2" si="22">IF(AS2&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
         <v/>
       </c>
       <c r="AZ2" s="17" t="str">
-        <f t="shared" ref="AZ2:AZ7" si="23">IF(AT2&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
+        <f t="shared" ref="AZ2" si="23">IF(AT2&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
         <v/>
       </c>
       <c r="BA2" s="17" t="str">
-        <f t="shared" ref="BA2:BA7" si="24">IF(AU2="hard","&lt;img src=@img/hard.png@&gt;",IF(AU2="medium","&lt;img src=@img/medium.png@&gt;",IF(AU2="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
+        <f t="shared" ref="BA2" si="24">IF(AU2="hard","&lt;img src=@img/hard.png@&gt;",IF(AU2="medium","&lt;img src=@img/medium.png@&gt;",IF(AU2="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
         <v/>
       </c>
       <c r="BB2" s="17" t="str">
-        <f t="shared" ref="BB2:BB65" si="25">IF(AV2="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
+        <f t="shared" ref="BB2" si="25">IF(AV2="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
         <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC2" s="17" t="str">
-        <f t="shared" ref="BC2:BC65" si="26">IF(AW2="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
+        <f t="shared" ref="BC2" si="26">IF(AW2="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
         <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD2" s="17" t="str">
-        <f t="shared" ref="BD2:BD7" si="27">CONCATENATE(AY2,AZ2,BA2,BB2,BC2,BK2)</f>
+        <f t="shared" ref="BD2" si="27">CONCATENATE(AY2,AZ2,BA2,BB2,BC2,BK2)</f>
         <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE2" s="17" t="str">
-        <f t="shared" ref="BE2:BE65" si="28">CONCATENATE(IF(AS2&gt;0,"outdoor ",""),IF(AT2&gt;0,"pet ",""),IF(AV2="true","drink ",""),IF(AW2="true","food ",""),AU2," ",E2," ",C2,IF(BJ2=TRUE," kid",""))</f>
+        <f t="shared" ref="BE2" si="28">CONCATENATE(IF(AS2&gt;0,"outdoor ",""),IF(AT2&gt;0,"pet ",""),IF(AV2="true","drink ",""),IF(AW2="true","food ",""),AU2," ",E2," ",C2,IF(BJ2=TRUE," kid",""))</f>
         <v>drink food  med Downtown</v>
       </c>
       <c r="BF2" s="17" t="str">
-        <f t="shared" ref="BF2:BF65" si="29">IF(C2="highlands","Highlands",IF(C2="Washington","Washington Park",IF(C2="Downtown","Downtown",IF(C2="city","City Park",IF(C2="Uptown","Uptown",IF(C2="capital","Capital Hill",IF(C2="Ballpark","Ballpark",IF(C2="LoDo","LoDo",IF(C2="ranch","Highlands Ranch",IF(C2="five","Five Points",IF(C2="stapleton","Stapleton",IF(C2="Cherry","Cherry Creek",IF(C2="dtc","DTC",IF(C2="Baker","Baker",IF(C2="Lakewood","Lakewood",IF(C2="Westminster","Westminster",IF(C2="lowery","Lowery",IF(C2="meadows","Park Meadows",IF(C2="larimer","Larimer Square",IF(C2="RiNo","RiNo",IF(C2="aurora","Aurora","")))))))))))))))))))))</f>
+        <f t="shared" ref="BF2" si="29">IF(C2="highlands","Highlands",IF(C2="Washington","Washington Park",IF(C2="Downtown","Downtown",IF(C2="city","City Park",IF(C2="Uptown","Uptown",IF(C2="capital","Capital Hill",IF(C2="Ballpark","Ballpark",IF(C2="LoDo","LoDo",IF(C2="ranch","Highlands Ranch",IF(C2="five","Five Points",IF(C2="stapleton","Stapleton",IF(C2="Cherry","Cherry Creek",IF(C2="dtc","DTC",IF(C2="Baker","Baker",IF(C2="Lakewood","Lakewood",IF(C2="Westminster","Westminster",IF(C2="lowery","Lowery",IF(C2="meadows","Park Meadows",IF(C2="larimer","Larimer Square",IF(C2="RiNo","RiNo",IF(C2="aurora","Aurora","")))))))))))))))))))))</f>
         <v>Downtown</v>
       </c>
       <c r="BG2">
@@ -5227,16 +5226,16 @@
     </row>
     <row r="3" spans="2:64" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>854</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="J3" s="17">
         <v>1500</v>
@@ -5269,7 +5268,7 @@
         <v>1800</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="W3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5356,7 +5355,7 @@
         <v/>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>29</v>
@@ -5423,7 +5422,7 @@
         <v>383</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>976</v>
@@ -5459,7 +5458,7 @@
         <v>1830</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="W4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5546,7 +5545,7 @@
         <v/>
       </c>
       <c r="AR4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AV4" s="4" t="s">
         <v>29</v>
@@ -5617,7 +5616,7 @@
         <v>860</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>905</v>
@@ -5665,7 +5664,7 @@
         <v>1900</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="W5" s="17">
         <f t="shared" si="0"/>
@@ -5752,7 +5751,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR5" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV5" s="4" t="s">
         <v>29</v>
@@ -5818,16 +5817,16 @@
     </row>
     <row r="6" spans="2:64" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>859</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H6" s="17">
         <v>1200</v>
@@ -5872,7 +5871,7 @@
         <v>2000</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="W6" s="17">
         <f t="shared" si="0"/>
@@ -5959,7 +5958,7 @@
         <v>12pm-8pm</v>
       </c>
       <c r="AR6" s="17" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AV6" s="4" t="s">
         <v>29</v>
@@ -6025,7 +6024,7 @@
         <v>305</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>578</v>
@@ -6223,18 +6222,18 @@
     </row>
     <row r="8" spans="2:64" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>859</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="H8" s="17">
         <v>1430</v>
@@ -6279,7 +6278,7 @@
         <v>1730</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1234</v>
+        <v>1260</v>
       </c>
       <c r="W8" s="17">
         <f t="shared" si="0"/>
@@ -6366,7 +6365,7 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AS8" s="17"/>
       <c r="AT8" s="17"/>
@@ -6382,8 +6381,7 @@
         <v>{
     'name': "Acorn",
     'area': "five",'hours': {
-      'sunday-start':"1430", 'sunday-end':"1730", 'monday-start':"1430", 'monday-end':"1730", 'tuesday-start':"1430", 'tuesday-end':"1730", 'wednesday-start':"1430", 'wednesday-end':"1730", 'thursday-start':"1430", 'thursday-end':"1730", 'friday-start':"1430", 'friday-end':"1730", 'saturday-start':"1430", 'saturday-end':"1730"},  'description': "Drinks –&lt;br&gt;$2 Coors and Coors Light&lt;br&gt;$3.5 Avery IPA&lt;br&gt;$6 Classic Cocktail – whiskey sour, blood and sand, negroni, vodka collins, sidecar&lt;br&gt;$8 Wine on Tap&lt;br&gt;&lt;br&gt;Food –&lt;br&gt;$13 Oak Grilled Double Cheeseburger – harissa aioli, gruyere cheese, add avocado, fried pickle, or tender belly bacon $1&lt;br&gt;$5 Crispy Fried Pickles – green goddess aioli&lt;br&gt;12 Kale &amp; Apple Salad – candied almonds, parmesan, togarashi
-$15 Duck Ramen Noodle Bowl – house-made ramen noodles, duck breast, soft-poached egg&lt;br&gt;$14 Lamb “Shawarma” Sandwich – piquillo peppers, giardiniera, feta cheese, tzatziki sauce&lt;br&gt;$14 Tomato Braised Meatballs – anson mills stone ground grits, burrata, basil", 'link':"denveracorn.com", 'pricing':"med",   'phone-number': "", 'address': "3350 Brighton Blvd, Denver, CO 80216", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1430", 'sunday-end':"1730", 'monday-start':"1430", 'monday-end':"1730", 'tuesday-start':"1430", 'tuesday-end':"1730", 'wednesday-start':"1430", 'wednesday-end':"1730", 'thursday-start':"1430", 'thursday-end':"1730", 'friday-start':"1430", 'friday-end':"1730", 'saturday-start':"1430", 'saturday-end':"1730"},  'description': "Drinks -&lt;br&gt;$2 Coors and Coors Light&lt;br&gt;$3.5 Avery IPA&lt;br&gt;$6 Classic Cocktail - whiskey sour, blood and sand, negroni, vodka collins, sidecar&lt;br&gt;$8 Wine on Tap&lt;br&gt;&lt;br&gt;Food -&lt;br&gt;$13 Oak Grilled Double Cheeseburger - harissa aioli, gruyere cheese, add avocado, fried pickle, or tender belly bacon $1&lt;br&gt;$5 Crispy Fried Pickles - green goddess aioli&lt;br&gt;12 Kale &amp; Apple Salad - candied almonds, parmesan, togarashi&lt;br&gt;$15 Duck Ramen Noodle Bowl - house-made ramen noodles, duck breast, soft-poached egg&lt;br&gt;$14 Lamb “Shawarma” Sandwich - piquillo peppers, giardiniera, feta cheese, tzatziki sauce&lt;br&gt;$14 Tomato Braised Meatballs - anson mills stone ground grits, burrata, basil", 'link':"denveracorn.com", 'pricing':"med",   'phone-number': "", 'address': "3350 Brighton Blvd, Denver, CO 80216", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY8" s="17" t="str">
         <f t="shared" si="31"/>
@@ -6439,7 +6437,7 @@
         <v>651</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>466</v>
@@ -6487,7 +6485,7 @@
         <v>445</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="0"/>
@@ -6646,13 +6644,13 @@
         <v>275</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>643</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="W10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6812,7 +6810,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
@@ -7025,7 +7023,7 @@
         <v>855</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>426</v>
@@ -7073,7 +7071,7 @@
         <v>445</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="W12" s="17">
         <f t="shared" si="0"/>
@@ -7229,16 +7227,16 @@
     </row>
     <row r="13" spans="2:64" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H13" s="17">
         <v>1200</v>
@@ -7283,7 +7281,7 @@
         <v>2200</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="W13" s="17">
         <f t="shared" si="0"/>
@@ -7370,7 +7368,7 @@
         <v>12pm-10pm</v>
       </c>
       <c r="AR13" s="17" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AV13" s="4" t="s">
         <v>29</v>
@@ -7437,7 +7435,7 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="16" t="s">
@@ -7478,7 +7476,7 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="W14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7565,7 +7563,7 @@
         <v/>
       </c>
       <c r="AR14" s="17" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
@@ -7634,18 +7632,18 @@
     </row>
     <row r="15" spans="2:64" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="27" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H15" s="17">
         <v>1500</v>
@@ -7690,7 +7688,7 @@
         <v>1800</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="W15" s="17">
         <f t="shared" si="0"/>
@@ -7777,7 +7775,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR15" s="17" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
@@ -7850,7 +7848,7 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="16" t="s">
@@ -8031,7 +8029,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="16" t="s">
@@ -8072,7 +8070,7 @@
         <v>1700</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="W17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -8159,7 +8157,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR17" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AS17" s="17"/>
       <c r="AT17" s="17"/>
@@ -8234,7 +8232,7 @@
         <v>309</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>467</v>
@@ -8282,7 +8280,7 @@
         <v>445</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="W18" s="17">
         <f t="shared" si="0"/>
@@ -8441,7 +8439,7 @@
         <v>383</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>964</v>
@@ -8489,7 +8487,7 @@
         <v>1800</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="W19" s="17">
         <f t="shared" si="0"/>
@@ -8647,7 +8645,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="17" t="s">
@@ -8828,7 +8826,7 @@
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
@@ -9011,7 +9009,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
@@ -9222,7 +9220,7 @@
         <v>858</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>888</v>
@@ -9379,10 +9377,10 @@
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>470</v>
@@ -9430,7 +9428,7 @@
         <v>447</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="W24" s="17">
         <f t="shared" si="0"/>
@@ -9590,7 +9588,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="17" t="s">
@@ -9802,7 +9800,7 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
@@ -10014,7 +10012,7 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="16" t="s">
@@ -10055,7 +10053,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W27" s="17" t="str">
         <f t="shared" si="0"/>
@@ -10142,7 +10140,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR27" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
@@ -10218,7 +10216,7 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="16" t="s">
@@ -10259,7 +10257,7 @@
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="W28" s="17" t="str">
         <f t="shared" si="0"/>
@@ -10346,7 +10344,7 @@
         <v/>
       </c>
       <c r="AR28" s="17" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
@@ -10422,7 +10420,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="16" t="s">
@@ -10527,7 +10525,7 @@
         <v/>
       </c>
       <c r="AR29" s="17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AS29" s="17"/>
       <c r="AT29" s="17"/>
@@ -10603,7 +10601,7 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
@@ -10803,11 +10801,11 @@
         <v>257</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17" t="s">
@@ -10989,7 +10987,7 @@
         <v>275</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>580</v>
@@ -11178,16 +11176,16 @@
     </row>
     <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C33" t="s">
         <v>858</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="W33" s="17" t="str">
         <f t="shared" si="0"/>
@@ -11274,7 +11272,7 @@
         <v/>
       </c>
       <c r="AR33" s="17" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AV33" s="4" t="s">
         <v>30</v>
@@ -11344,7 +11342,7 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
@@ -11385,7 +11383,7 @@
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
       <c r="V34" s="12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="W34" s="17" t="str">
         <f t="shared" si="0"/>
@@ -11548,7 +11546,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17" t="s">
@@ -11597,7 +11595,7 @@
         <v>447</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="W35" s="17">
         <f t="shared" si="0"/>
@@ -11762,7 +11760,7 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="16" t="s">
@@ -11811,7 +11809,7 @@
         <v>1800</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="W36" s="17">
         <f t="shared" si="0"/>
@@ -11898,7 +11896,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR36" s="17" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AS36" s="17"/>
       <c r="AT36" s="17"/>
@@ -11974,7 +11972,7 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17" t="s">
@@ -12015,7 +12013,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="W37" s="17" t="str">
         <f t="shared" si="0"/>
@@ -12178,7 +12176,7 @@
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
@@ -12382,7 +12380,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="17" t="s">
@@ -12423,7 +12421,7 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="W39" s="17" t="str">
         <f t="shared" si="0"/>
@@ -12586,7 +12584,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="17" t="s">
@@ -12627,7 +12625,7 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="W40" s="17" t="str">
         <f t="shared" si="0"/>
@@ -12789,7 +12787,7 @@
         <v>854</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>584</v>
@@ -12972,16 +12970,16 @@
     </row>
     <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C42" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="H42">
         <v>1200</v>
@@ -13026,7 +13024,7 @@
         <v>1830</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="W42" s="17">
         <f t="shared" si="0"/>
@@ -13113,7 +13111,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR42" s="17" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="AV42" s="4" t="s">
         <v>29</v>
@@ -13183,7 +13181,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="17" t="s">
@@ -13388,16 +13386,16 @@
     </row>
     <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C44" t="s">
         <v>856</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="W44" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13484,7 +13482,7 @@
         <v/>
       </c>
       <c r="AR44" s="17" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>30</v>
@@ -13553,7 +13551,7 @@
         <v>855</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>476</v>
@@ -13754,7 +13752,7 @@
         <v>858</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>876</v>
@@ -13917,7 +13915,7 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
@@ -14102,7 +14100,7 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
@@ -14285,7 +14283,7 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17" t="s">
@@ -14459,18 +14457,18 @@
     </row>
     <row r="50" spans="2:64" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -14591,7 +14589,7 @@
         <v/>
       </c>
       <c r="AR50" s="17" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
@@ -14657,18 +14655,18 @@
     </row>
     <row r="51" spans="2:64" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>651</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="28" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -14705,7 +14703,7 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="29" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="W51" s="17" t="str">
         <f t="shared" si="0"/>
@@ -14792,7 +14790,7 @@
         <v/>
       </c>
       <c r="AR51" s="17" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
@@ -14865,7 +14863,7 @@
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
@@ -15077,7 +15075,7 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17" t="s">
@@ -15126,7 +15124,7 @@
         <v>445</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="W53" s="17">
         <f t="shared" si="0"/>
@@ -15289,7 +15287,7 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="16" t="s">
@@ -15493,7 +15491,7 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17" t="s">
@@ -15695,7 +15693,7 @@
         <v/>
       </c>
       <c r="BL55" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="56" spans="2:64" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15707,7 +15705,7 @@
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="16" t="s">
@@ -15748,7 +15746,7 @@
       <c r="T56" s="17"/>
       <c r="U56" s="17"/>
       <c r="V56" s="12" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="W56" s="17" t="str">
         <f t="shared" si="0"/>
@@ -15835,7 +15833,7 @@
         <v/>
       </c>
       <c r="AR56" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
@@ -15911,7 +15909,7 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
@@ -16115,7 +16113,7 @@
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
@@ -16298,7 +16296,7 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
@@ -16506,7 +16504,7 @@
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
@@ -16703,18 +16701,18 @@
     </row>
     <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>651</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="16" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -16815,7 +16813,7 @@
         <v/>
       </c>
       <c r="AR61" s="17" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AS61" s="17"/>
       <c r="AT61" s="17"/>
@@ -16888,7 +16886,7 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="16" t="s">
@@ -16937,7 +16935,7 @@
         <v>1800</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="W62" s="17">
         <f t="shared" si="0"/>
@@ -17024,7 +17022,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR62" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AS62" s="17"/>
       <c r="AT62" s="17"/>
@@ -17100,7 +17098,7 @@
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17" t="s">
@@ -17141,7 +17139,7 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="W63" s="17" t="str">
         <f t="shared" si="0"/>
@@ -17304,7 +17302,7 @@
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="16" t="s">
@@ -17507,7 +17505,7 @@
         <v>383</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G65" s="17" t="s">
         <v>587</v>
@@ -17702,7 +17700,7 @@
         <v>310</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>483</v>
@@ -17910,11 +17908,11 @@
         <v>78</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17" t="s">
@@ -17963,7 +17961,7 @@
         <v>445</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="W67" s="17">
         <f t="shared" si="51"/>
@@ -18126,7 +18124,7 @@
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17" t="s">
@@ -18330,7 +18328,7 @@
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17" t="s">
@@ -18535,7 +18533,7 @@
         <v>856</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>911</v>
@@ -18583,7 +18581,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="W70" s="17">
         <f t="shared" si="51"/>
@@ -18670,7 +18668,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR70" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV70" s="4" t="s">
         <v>29</v>
@@ -18743,7 +18741,7 @@
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="17" t="s">
@@ -18945,7 +18943,7 @@
         <v>276</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>428</v>
@@ -18993,7 +18991,7 @@
         <v>453</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="W72" s="17">
         <f t="shared" si="51"/>
@@ -19155,7 +19153,7 @@
         <v>653</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>590</v>
@@ -19350,7 +19348,7 @@
         <v>305</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>934</v>
@@ -19398,7 +19396,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="W74" s="17">
         <f t="shared" si="51"/>
@@ -19485,7 +19483,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR74" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AV74" s="4" t="s">
         <v>29</v>
@@ -19555,7 +19553,7 @@
         <v>858</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>882</v>
@@ -19591,7 +19589,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>1002</v>
+        <v>1261</v>
       </c>
       <c r="W75" s="17" t="str">
         <f t="shared" si="51"/>
@@ -19691,7 +19689,7 @@
         <v>{
     'name': "Dad and Dudes Breweria",
     'area': "aurora",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks:&lt;br&gt;$3 Pints&lt;br&gt;$5 Beer &amp; Bump – one topping slice pizza, jager, fireball or well shot&lt;br&gt;Food - $5:&lt;br&gt;Poppers, Small Nachos, Sliders (3), Bombers, Green Chili, Dude’s Fries", 'link':"http://www.breweria.com", 'pricing':"med",   'phone-number': "", 'address': "6730 S Cornerstar Way Aurora, CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks:&lt;br&gt;$3 Pints&lt;br&gt;$5 Beer &amp; Bump - one topping slice pizza, jager, fireball or well shot&lt;br&gt;Food - $5:&lt;br&gt;Poppers, Small Nachos, Sliders (3), Bombers, Green Chili, Dude’s Fries", 'link':"http://www.breweria.com", 'pricing':"med",   'phone-number': "", 'address': "6730 S Cornerstar Way Aurora, CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY75" s="17" t="str">
         <f t="shared" si="74"/>
@@ -19751,7 +19749,7 @@
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="17" t="s">
@@ -19800,7 +19798,7 @@
         <v>445</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="W76" s="17">
         <f t="shared" si="51"/>
@@ -19963,7 +19961,7 @@
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="17" t="s">
@@ -20163,7 +20161,7 @@
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F78" s="17"/>
       <c r="G78" s="17" t="s">
@@ -20348,7 +20346,7 @@
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17" t="s">
@@ -20545,18 +20543,18 @@
     </row>
     <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>275</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H80" s="17">
         <v>1500</v>
@@ -20597,7 +20595,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="W80" s="17">
         <f t="shared" si="51"/>
@@ -20684,7 +20682,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AS80" s="17"/>
       <c r="AT80" s="17"/>
@@ -20756,7 +20754,7 @@
         <v>650</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>430</v>
@@ -20922,7 +20920,7 @@
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="17" t="s">
@@ -21126,7 +21124,7 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -21323,18 +21321,18 @@
     </row>
     <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="17" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>651</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -21435,7 +21433,7 @@
         <v/>
       </c>
       <c r="AR84" s="17" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AS84" s="17"/>
       <c r="AT84" s="17"/>
@@ -21507,7 +21505,7 @@
         <v>275</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>594</v>
@@ -21702,7 +21700,7 @@
         <v>310</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>595</v>
@@ -21897,7 +21895,7 @@
         <v>859</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>288</v>
@@ -21945,7 +21943,7 @@
         <v>444</v>
       </c>
       <c r="V87" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="W87" s="17">
         <f t="shared" si="51"/>
@@ -22104,16 +22102,16 @@
     </row>
     <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C88" t="s">
         <v>855</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H88">
         <v>1700</v>
@@ -22158,7 +22156,7 @@
         <v>1830</v>
       </c>
       <c r="V88" s="12" t="s">
-        <v>1215</v>
+        <v>1262</v>
       </c>
       <c r="W88" s="17">
         <f t="shared" si="51"/>
@@ -22245,7 +22243,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR88" s="17" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="AV88" s="4" t="s">
         <v>29</v>
@@ -22258,7 +22256,7 @@
         <v>{
     'name': "Duo Restaurant",
     'area': "highlands",'hours': {
-      'sunday-start':"1700", 'sunday-end':"1830", 'monday-start':"1700", 'monday-end':"1830", 'tuesday-start':"1700", 'tuesday-end':"1830", 'wednesday-start':"1700", 'wednesday-end':"1830", 'thursday-start':"1700", 'thursday-end':"1830", 'friday-start':"1700", 'friday-end':"1830", 'saturday-start':"1700", 'saturday-end':"1830"},  'description': "Drinks –&lt;br&gt;$6 Select Wine&lt;br&gt;$6 Specialty Cocktails&lt;br&gt;$2 Select Beer&lt;br&gt;$2 Well Cocktails&lt;br&gt;&lt;br&gt;Food – $6 Apps, Soups and Salads", 'link':"http://duorestaurants.com", 'pricing':"med",   'phone-number': "", 'address': "2413 W 32nd Ave Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1700", 'sunday-end':"1830", 'monday-start':"1700", 'monday-end':"1830", 'tuesday-start':"1700", 'tuesday-end':"1830", 'wednesday-start':"1700", 'wednesday-end':"1830", 'thursday-start':"1700", 'thursday-end':"1830", 'friday-start':"1700", 'friday-end':"1830", 'saturday-start':"1700", 'saturday-end':"1830"},  'description': "Drinks -&lt;br&gt;$6 Select Wine&lt;br&gt;$6 Specialty Cocktails&lt;br&gt;$2 Select Beer&lt;br&gt;$2 Well Cocktails&lt;br&gt;&lt;br&gt;Food - $6 Apps, Soups and Salads", 'link':"http://duorestaurants.com", 'pricing':"med",   'phone-number': "", 'address': "2413 W 32nd Ave Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY88" s="17" t="str">
         <f t="shared" si="74"/>
@@ -22315,7 +22313,7 @@
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="17" t="s">
@@ -22364,7 +22362,7 @@
         <v>445</v>
       </c>
       <c r="V89" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="W89" s="17">
         <f t="shared" si="51"/>
@@ -22529,7 +22527,7 @@
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="17" t="s">
@@ -22733,7 +22731,7 @@
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17" t="s">
@@ -22782,7 +22780,7 @@
         <v>444</v>
       </c>
       <c r="V91" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="W91" s="17">
         <f t="shared" si="51"/>
@@ -22944,7 +22942,7 @@
         <v>855</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>648</v>
@@ -23146,7 +23144,7 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="17" t="s">
@@ -23349,7 +23347,7 @@
         <v>309</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>489</v>
@@ -23558,7 +23556,7 @@
         <v>383</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>972</v>
@@ -23594,7 +23592,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="8" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="W95" s="17" t="str">
         <f t="shared" si="51"/>
@@ -23681,7 +23679,7 @@
         <v/>
       </c>
       <c r="AR95" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AV95" s="4" t="s">
         <v>29</v>
@@ -23753,7 +23751,7 @@
         <v>855</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>490</v>
@@ -23960,7 +23958,7 @@
         <v>860</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>901</v>
@@ -24008,7 +24006,7 @@
         <v>2400</v>
       </c>
       <c r="V97" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="W97" s="17">
         <f t="shared" si="51"/>
@@ -24095,7 +24093,7 @@
         <v>10am-12am</v>
       </c>
       <c r="AR97" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AV97" s="4" t="s">
         <v>29</v>
@@ -24167,7 +24165,7 @@
         <v>310</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>491</v>
@@ -24375,7 +24373,7 @@
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="17" t="s">
@@ -24400,7 +24398,7 @@
       <c r="T99" s="17"/>
       <c r="U99" s="17"/>
       <c r="V99" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="W99" s="17" t="str">
         <f t="shared" si="51"/>
@@ -24567,7 +24565,7 @@
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="17" t="s">
@@ -24778,7 +24776,7 @@
         <v>276</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>293</v>
@@ -24940,10 +24938,10 @@
         <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>493</v>
@@ -25153,7 +25151,7 @@
         <v>859</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>932</v>
@@ -25243,7 +25241,7 @@
         <v/>
       </c>
       <c r="AR103" s="17" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AV103" s="4" t="s">
         <v>30</v>
@@ -25315,7 +25313,7 @@
         <v>858</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>892</v>
@@ -25405,7 +25403,7 @@
         <v/>
       </c>
       <c r="AR104" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AV104" s="4" t="s">
         <v>30</v>
@@ -25477,7 +25475,7 @@
         <v>855</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G105" s="17" t="s">
         <v>494</v>
@@ -25690,7 +25688,7 @@
         <v>309</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>597</v>
@@ -25881,7 +25879,7 @@
         <v>310</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>495</v>
@@ -26090,7 +26088,7 @@
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="17" t="s">
@@ -26131,7 +26129,7 @@
       <c r="T108" s="17"/>
       <c r="U108" s="17"/>
       <c r="V108" s="17" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="W108" s="17" t="str">
         <f t="shared" si="51"/>
@@ -26293,7 +26291,7 @@
         <v>275</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G109" s="17" t="s">
         <v>496</v>
@@ -26456,7 +26454,7 @@
         <v>858</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>284</v>
@@ -26504,7 +26502,7 @@
         <v>446</v>
       </c>
       <c r="V110" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="W110" s="17">
         <f t="shared" si="51"/>
@@ -26666,7 +26664,7 @@
         <v>326</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>497</v>
@@ -26829,7 +26827,7 @@
         <v>855</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>921</v>
@@ -26865,7 +26863,7 @@
         <v>1800</v>
       </c>
       <c r="V112" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W112" s="17" t="str">
         <f t="shared" si="51"/>
@@ -26952,7 +26950,7 @@
         <v/>
       </c>
       <c r="AR112" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV112" s="4" t="s">
         <v>29</v>
@@ -27025,7 +27023,7 @@
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="17" t="s">
@@ -27233,10 +27231,10 @@
         <v>93</v>
       </c>
       <c r="C114" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>499</v>
@@ -27281,7 +27279,7 @@
         <v>446</v>
       </c>
       <c r="V114" s="8" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="W114" s="17">
         <f t="shared" si="51"/>
@@ -27441,7 +27439,7 @@
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="16" t="s">
@@ -27490,7 +27488,7 @@
         <v>1900</v>
       </c>
       <c r="V115" s="23" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="W115" s="17">
         <f t="shared" si="51"/>
@@ -27577,7 +27575,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR115" s="17" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AS115" s="17"/>
       <c r="AT115" s="17"/>
@@ -27652,7 +27650,7 @@
         <v>854</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G116" s="17" t="s">
         <v>599</v>
@@ -27846,7 +27844,7 @@
         <v>651</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G117" s="17" t="s">
         <v>644</v>
@@ -28032,7 +28030,7 @@
         <v>309</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>600</v>
@@ -28228,7 +28226,7 @@
         <v>326</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>500</v>
@@ -28264,7 +28262,7 @@
         <v>445</v>
       </c>
       <c r="V119" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="W119" s="17" t="str">
         <f t="shared" si="51"/>
@@ -28423,7 +28421,7 @@
         <v>855</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G120" s="17" t="s">
         <v>501</v>
@@ -28459,7 +28457,7 @@
         <v>444</v>
       </c>
       <c r="V120" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="W120" s="17" t="str">
         <f t="shared" si="51"/>
@@ -28621,7 +28619,7 @@
         <v>855</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>502</v>
@@ -28831,7 +28829,7 @@
         <v>275</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G122" s="17" t="s">
         <v>280</v>
@@ -28867,7 +28865,7 @@
         <v>446</v>
       </c>
       <c r="V122" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="W122" s="17" t="str">
         <f t="shared" si="51"/>
@@ -29029,7 +29027,7 @@
         <v>310</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G123" s="17" t="s">
         <v>601</v>
@@ -29229,7 +29227,7 @@
         <v>855</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G124" s="17" t="s">
         <v>602</v>
@@ -29423,7 +29421,7 @@
         <v>275</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>503</v>
@@ -29471,7 +29469,7 @@
         <v>445</v>
       </c>
       <c r="V125" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="W125" s="17">
         <f t="shared" si="51"/>
@@ -29626,11 +29624,11 @@
         <v>935</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="16" t="s">
@@ -29735,7 +29733,7 @@
         <v/>
       </c>
       <c r="AR126" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AS126" s="17"/>
       <c r="AT126" s="17"/>
@@ -29811,7 +29809,7 @@
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="17" t="s">
@@ -30023,7 +30021,7 @@
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="17" t="s">
@@ -30220,18 +30218,18 @@
     </row>
     <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="17" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="26" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H129" s="17">
         <v>1400</v>
@@ -30276,7 +30274,7 @@
         <v>2130</v>
       </c>
       <c r="V129" s="8" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="W129" s="17">
         <f t="shared" si="51"/>
@@ -30363,7 +30361,7 @@
         <v>2pm-9.3pm</v>
       </c>
       <c r="AR129" s="17" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AS129" s="17"/>
       <c r="AT129" s="17"/>
@@ -30435,7 +30433,7 @@
         <v>326</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G130" s="17" t="s">
         <v>506</v>
@@ -30649,7 +30647,7 @@
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="16" t="s">
@@ -30754,7 +30752,7 @@
         <v/>
       </c>
       <c r="AR131" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AS131" s="17"/>
       <c r="AT131" s="17"/>
@@ -30826,11 +30824,11 @@
         <v>101</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="17" t="s">
@@ -30879,7 +30877,7 @@
         <v>445</v>
       </c>
       <c r="V132" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="W132" s="17">
         <f t="shared" si="83"/>
@@ -31042,7 +31040,7 @@
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="17" t="s">
@@ -31083,7 +31081,7 @@
       <c r="T133" s="17"/>
       <c r="U133" s="17"/>
       <c r="V133" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="W133" s="17" t="str">
         <f t="shared" si="83"/>
@@ -31245,7 +31243,7 @@
         <v>652</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>509</v>
@@ -31293,7 +31291,7 @@
         <v>446</v>
       </c>
       <c r="V134" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="W134" s="17">
         <f t="shared" si="83"/>
@@ -31455,7 +31453,7 @@
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="17" t="s">
@@ -31661,7 +31659,7 @@
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17" t="s">
@@ -31845,7 +31843,7 @@
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="17" t="s">
@@ -32059,7 +32057,7 @@
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="17" t="s">
@@ -32108,7 +32106,7 @@
         <v>445</v>
       </c>
       <c r="V138" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="W138" s="17">
         <f t="shared" si="83"/>
@@ -32271,7 +32269,7 @@
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="17" t="s">
@@ -32476,18 +32474,18 @@
     </row>
     <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="17" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="17" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H140" s="17">
         <v>1500</v>
@@ -32532,7 +32530,7 @@
         <v>1800</v>
       </c>
       <c r="V140" s="8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="W140" s="17">
         <f t="shared" si="83"/>
@@ -32619,7 +32617,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR140" s="17" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AS140" s="17"/>
       <c r="AT140" s="17"/>
@@ -32692,7 +32690,7 @@
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="17" t="s">
@@ -32904,7 +32902,7 @@
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17" t="s">
@@ -33096,7 +33094,7 @@
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="17" t="s">
@@ -33300,7 +33298,7 @@
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="17" t="s">
@@ -33512,7 +33510,7 @@
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="16" t="s">
@@ -33557,7 +33555,7 @@
         <v>1900</v>
       </c>
       <c r="V145" s="8" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="W145" s="17" t="str">
         <f t="shared" si="83"/>
@@ -33644,7 +33642,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR145" s="17" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AS145" s="17"/>
       <c r="AT145" s="17"/>
@@ -33720,7 +33718,7 @@
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="16" t="s">
@@ -33928,7 +33926,7 @@
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="16" t="s">
@@ -33977,7 +33975,7 @@
         <v>1830</v>
       </c>
       <c r="V147" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="W147" s="17">
         <f t="shared" si="83"/>
@@ -34064,7 +34062,7 @@
         <v>2pm-6.3pm</v>
       </c>
       <c r="AR147" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AS147" s="17"/>
       <c r="AT147" s="17"/>
@@ -34140,7 +34138,7 @@
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="17" t="s">
@@ -34352,7 +34350,7 @@
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17" t="s">
@@ -34554,7 +34552,7 @@
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17" t="s">
@@ -34760,7 +34758,7 @@
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="17" t="s">
@@ -34805,7 +34803,7 @@
         <v>444</v>
       </c>
       <c r="V151" s="8" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="W151" s="17">
         <f t="shared" si="83"/>
@@ -34968,7 +34966,7 @@
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17" t="s">
@@ -35174,7 +35172,7 @@
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="17" t="s">
@@ -35380,7 +35378,7 @@
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="17" t="s">
@@ -35584,7 +35582,7 @@
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="17" t="s">
@@ -35788,7 +35786,7 @@
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="17" t="s">
@@ -35996,7 +35994,7 @@
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17" t="s">
@@ -36202,7 +36200,7 @@
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="17" t="s">
@@ -36406,7 +36404,7 @@
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="17" t="s">
@@ -36611,14 +36609,14 @@
     </row>
     <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>860</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="16" t="s">
@@ -36659,7 +36657,7 @@
       <c r="T160" s="17"/>
       <c r="U160" s="17"/>
       <c r="V160" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="W160" s="17" t="str">
         <f t="shared" si="83"/>
@@ -36746,7 +36744,7 @@
         <v/>
       </c>
       <c r="AR160" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AS160" s="17"/>
       <c r="AT160" s="17"/>
@@ -36822,7 +36820,7 @@
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="17" t="s">
@@ -37027,7 +37025,7 @@
         <v>310</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G162" s="17" t="s">
         <v>525</v>
@@ -37234,7 +37232,7 @@
         <v>650</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G163" s="17" t="s">
         <v>609</v>
@@ -37270,7 +37268,7 @@
         <v>445</v>
       </c>
       <c r="V163" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="W163" s="17" t="str">
         <f t="shared" si="83"/>
@@ -37429,7 +37427,7 @@
         <v>310</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G164" s="17" t="s">
         <v>610</v>
@@ -37465,7 +37463,7 @@
         <v>445</v>
       </c>
       <c r="V164" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="W164" s="17" t="str">
         <f t="shared" si="83"/>
@@ -37624,7 +37622,7 @@
         <v>326</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G165" s="17" t="s">
         <v>526</v>
@@ -37831,7 +37829,7 @@
         <v>861</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>527</v>
@@ -38038,7 +38036,7 @@
         <v>650</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>528</v>
@@ -38245,7 +38243,7 @@
         <v>310</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G168" s="17" t="s">
         <v>529</v>
@@ -38452,7 +38450,7 @@
         <v>305</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G169" s="17" t="s">
         <v>530</v>
@@ -38659,7 +38657,7 @@
         <v>310</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G170" s="17" t="s">
         <v>531</v>
@@ -38854,7 +38852,7 @@
         <v>309</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G171" s="17" t="s">
         <v>611</v>
@@ -39049,7 +39047,7 @@
         <v>859</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G172" s="17" t="s">
         <v>296</v>
@@ -39097,7 +39095,7 @@
         <v>457</v>
       </c>
       <c r="V172" s="8" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="W172" s="17">
         <f t="shared" si="83"/>
@@ -39259,10 +39257,10 @@
         <v>651</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H173" t="s">
         <v>443</v>
@@ -39466,7 +39464,7 @@
         <v>310</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G174" s="17" t="s">
         <v>612</v>
@@ -39661,7 +39659,7 @@
         <v>652</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G175" s="17" t="s">
         <v>532</v>
@@ -39868,7 +39866,7 @@
         <v>276</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G176" s="17" t="s">
         <v>613</v>
@@ -40063,7 +40061,7 @@
         <v>310</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G177" s="17" t="s">
         <v>533</v>
@@ -40270,7 +40268,7 @@
         <v>855</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G178" s="17" t="s">
         <v>297</v>
@@ -40306,7 +40304,7 @@
         <v>444</v>
       </c>
       <c r="V178" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="W178" s="17" t="str">
         <f t="shared" si="83"/>
@@ -40468,7 +40466,7 @@
         <v>860</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G179" s="20" t="s">
         <v>899</v>
@@ -40498,7 +40496,7 @@
         <v>1900</v>
       </c>
       <c r="V179" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="W179" s="17" t="str">
         <f t="shared" si="83"/>
@@ -40585,7 +40583,7 @@
         <v/>
       </c>
       <c r="AR179" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AV179" s="4" t="s">
         <v>29</v>
@@ -40657,7 +40655,7 @@
         <v>856</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>907</v>
@@ -40705,7 +40703,7 @@
         <v>1800</v>
       </c>
       <c r="V180" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="W180" s="17">
         <f t="shared" si="83"/>
@@ -40792,7 +40790,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR180" s="21" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AV180" s="4" t="s">
         <v>29</v>
@@ -40864,7 +40862,7 @@
         <v>309</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G181" s="17" t="s">
         <v>534</v>
@@ -41071,7 +41069,7 @@
         <v>859</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G182" s="17" t="s">
         <v>646</v>
@@ -41266,7 +41264,7 @@
         <v>860</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G183" s="17" t="s">
         <v>302</v>
@@ -41452,7 +41450,7 @@
         <v>383</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>978</v>
@@ -41587,7 +41585,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AV184" s="4" t="s">
         <v>29</v>
@@ -41659,7 +41657,7 @@
         <v>856</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>913</v>
@@ -41819,7 +41817,7 @@
         <v>653</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G186" s="17" t="s">
         <v>614</v>
@@ -42014,16 +42012,16 @@
     </row>
     <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C187" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W187" s="17" t="str">
         <f t="shared" si="83"/>
@@ -42110,7 +42108,7 @@
         <v/>
       </c>
       <c r="AR187" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AV187" s="4" t="s">
         <v>30</v>
@@ -42179,7 +42177,7 @@
         <v>860</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G188" s="20" t="s">
         <v>894</v>
@@ -42227,7 +42225,7 @@
         <v>1800</v>
       </c>
       <c r="V188" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="W188" s="17">
         <f t="shared" si="83"/>
@@ -42314,7 +42312,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR188" s="21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AV188" s="4" t="s">
         <v>29</v>
@@ -42386,7 +42384,7 @@
         <v>651</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G189" s="17" t="s">
         <v>615</v>
@@ -42580,7 +42578,7 @@
         <v>332</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G190" s="17" t="s">
         <v>616</v>
@@ -42775,7 +42773,7 @@
         <v>854</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G191" s="17" t="s">
         <v>617</v>
@@ -42970,7 +42968,7 @@
         <v>332</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G192" s="17" t="s">
         <v>618</v>
@@ -43159,16 +43157,16 @@
     </row>
     <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C193" t="s">
         <v>855</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="H193">
         <v>1600</v>
@@ -43195,7 +43193,7 @@
         <v>1800</v>
       </c>
       <c r="V193" s="8" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="W193" s="17">
         <f t="shared" si="83"/>
@@ -43282,7 +43280,7 @@
         <v/>
       </c>
       <c r="AR193" s="17" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AV193" s="4" t="s">
         <v>29</v>
@@ -43345,16 +43343,16 @@
     </row>
     <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C194" t="s">
         <v>650</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="H194">
         <v>1500</v>
@@ -43399,7 +43397,7 @@
         <v>1800</v>
       </c>
       <c r="V194" s="8" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="W194" s="17">
         <f t="shared" ref="W194:W257" si="116">IF(H194&gt;0,H194/100,"")</f>
@@ -43486,7 +43484,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR194" s="1" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AV194" s="4" t="s">
         <v>29</v>
@@ -43559,7 +43557,7 @@
         <v>326</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G195" s="17" t="s">
         <v>619</v>
@@ -43748,16 +43746,16 @@
     </row>
     <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C196" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="J196">
         <v>1500</v>
@@ -43790,7 +43788,7 @@
         <v>1800</v>
       </c>
       <c r="V196" s="8" t="s">
-        <v>1219</v>
+        <v>1263</v>
       </c>
       <c r="W196" s="17" t="str">
         <f t="shared" si="116"/>
@@ -43877,7 +43875,7 @@
         <v/>
       </c>
       <c r="AR196" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="AV196" s="4" t="s">
         <v>29</v>
@@ -43890,7 +43888,7 @@
         <v>{
     'name': "Osteria Marco",
     'area': "lodo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks –&lt;br&gt;$4 Drafts&lt;br&gt;$4 House Red and White Wines&lt;br&gt;$4 Well Cocktails&lt;br&gt;&lt;br&gt;Food –&lt;br&gt;$4 Mozzarella&lt;br&gt;$5 Cheese Pizzas&lt;br&gt;$7 Chicken Ceasar Salad", 'link':"osteriamarco.com", 'pricing':"med",   'phone-number': "", 'address': "1453 Larimer St Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks -&lt;br&gt;$4 Drafts&lt;br&gt;$4 House Red and White Wines&lt;br&gt;$4 Well Cocktails&lt;br&gt;&lt;br&gt;Food -&lt;br&gt;$4 Mozzarella&lt;br&gt;$5 Cheese Pizzas&lt;br&gt;$7 Chicken Ceasar Salad", 'link':"osteriamarco.com", 'pricing':"med",   'phone-number': "", 'address': "1453 Larimer St Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY196" s="17" t="str">
         <f t="shared" si="107"/>
@@ -43946,7 +43944,7 @@
         <v>309</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G197" s="17" t="s">
         <v>535</v>
@@ -43982,7 +43980,7 @@
         <v>445</v>
       </c>
       <c r="V197" s="8" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="W197" s="17" t="str">
         <f t="shared" si="116"/>
@@ -44141,7 +44139,7 @@
         <v>305</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>938</v>
@@ -44177,7 +44175,7 @@
         <v>1800</v>
       </c>
       <c r="V198" s="8" t="s">
-        <v>1048</v>
+        <v>1264</v>
       </c>
       <c r="W198" s="17" t="str">
         <f t="shared" si="116"/>
@@ -44264,7 +44262,7 @@
         <v/>
       </c>
       <c r="AR198" s="17" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AV198" s="4" t="s">
         <v>29</v>
@@ -44277,7 +44275,7 @@
         <v>{
     'name': "Park and Co",
     'area': "Uptown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off All Beer and Wine&lt;br&gt;$5 Blue Collar – PBR and Jim Beam&lt;br&gt;$5 El Chilango – Tecate and Patron XO&lt;br&gt;$10 Cheeseman Park – IMT Rose and Sweet Revenge&lt;br&gt;$5 Belgian Waffle – Stella &amp; Cabin Feaver&lt;br&gt;$5 Curtis Park – Coors &amp; Fireball&lt;br&gt;$5 Cherry Brandy Lime-aid&lt;br&gt;$5 Verano Blanco Sangria&lt;br&gt;$2 Pork Sliders&lt;br&gt;$7 Spinach Dip", 'link':"http://www.parkandcodenver.com/", 'pricing':"med",   'phone-number': "", 'address': "439 E 17th Ave Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off All Beer and Wine&lt;br&gt;$5 Blue Collar - PBR and Jim Beam&lt;br&gt;$5 El Chilango - Tecate and Patron XO&lt;br&gt;$10 Cheeseman Park - IMT Rose and Sweet Revenge&lt;br&gt;$5 Belgian Waffle - Stella &amp; Cabin Feaver&lt;br&gt;$5 Curtis Park - Coors &amp; Fireball&lt;br&gt;$5 Cherry Brandy Lime-aid&lt;br&gt;$5 Verano Blanco Sangria&lt;br&gt;$2 Pork Sliders&lt;br&gt;$7 Spinach Dip", 'link':"http://www.parkandcodenver.com/", 'pricing':"med",   'phone-number': "", 'address': "439 E 17th Ave Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY198" s="17" t="str">
         <f t="shared" si="107"/>
@@ -44330,16 +44328,16 @@
     </row>
     <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C199" t="s">
         <v>276</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="J199">
         <v>1500</v>
@@ -44372,7 +44370,7 @@
         <v>1800</v>
       </c>
       <c r="V199" s="8" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="W199" s="17" t="str">
         <f t="shared" si="116"/>
@@ -44459,7 +44457,7 @@
         <v/>
       </c>
       <c r="AR199" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AV199" s="4" t="s">
         <v>29</v>
@@ -44525,10 +44523,10 @@
         <v>131</v>
       </c>
       <c r="C200" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G200" s="17" t="s">
         <v>536</v>
@@ -44729,7 +44727,7 @@
         <v>858</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>864</v>
@@ -44921,7 +44919,7 @@
         <v>861</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G202" s="17" t="s">
         <v>537</v>
@@ -45122,7 +45120,7 @@
         <v>310</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G203" s="17" t="s">
         <v>538</v>
@@ -45170,7 +45168,7 @@
         <v>445</v>
       </c>
       <c r="V203" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="W203" s="17">
         <f t="shared" si="116"/>
@@ -45323,16 +45321,16 @@
     </row>
     <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C204" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J204">
         <v>1600</v>
@@ -45449,7 +45447,7 @@
         <v/>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AV204" s="4" t="s">
         <v>29</v>
@@ -45518,7 +45516,7 @@
         <v>276</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G205" s="17" t="s">
         <v>277</v>
@@ -45710,7 +45708,7 @@
         <v>855</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G206" s="17" t="s">
         <v>539</v>
@@ -45875,7 +45873,7 @@
         <v>310</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G207" s="17" t="s">
         <v>540</v>
@@ -46070,7 +46068,7 @@
         <v>305</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G208" s="17" t="s">
         <v>620</v>
@@ -46106,7 +46104,7 @@
         <v>445</v>
       </c>
       <c r="V208" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="W208" s="17" t="str">
         <f t="shared" si="116"/>
@@ -46265,7 +46263,7 @@
         <v>855</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G209" s="17" t="s">
         <v>299</v>
@@ -46430,7 +46428,7 @@
         <v>651</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G210" s="17" t="s">
         <v>541</v>
@@ -46625,7 +46623,7 @@
         <v>310</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G211" s="17" t="s">
         <v>542</v>
@@ -46673,7 +46671,7 @@
         <v>446</v>
       </c>
       <c r="V211" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="W211" s="17">
         <f t="shared" si="116"/>
@@ -46832,7 +46830,7 @@
         <v>856</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>909</v>
@@ -46880,7 +46878,7 @@
         <v>1800</v>
       </c>
       <c r="V212" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W212" s="17">
         <f t="shared" si="116"/>
@@ -46967,7 +46965,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR212" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV212" s="4" t="s">
         <v>29</v>
@@ -47039,7 +47037,7 @@
         <v>275</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G213" s="17" t="s">
         <v>543</v>
@@ -47243,10 +47241,10 @@
         <v>260</v>
       </c>
       <c r="C214" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G214" s="17" t="s">
         <v>429</v>
@@ -47447,7 +47445,7 @@
         <v>383</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>974</v>
@@ -47538,7 +47536,7 @@
         <v/>
       </c>
       <c r="AR215" s="17" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AV215" s="4" t="s">
         <v>30</v>
@@ -47608,7 +47606,7 @@
         <v>276</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G216" s="17" t="s">
         <v>298</v>
@@ -47773,7 +47771,7 @@
         <v>855</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G217" s="17" t="s">
         <v>427</v>
@@ -47809,7 +47807,7 @@
         <v>446</v>
       </c>
       <c r="V217" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="W217" s="17" t="str">
         <f t="shared" si="116"/>
@@ -47972,7 +47970,7 @@
         <v>310</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G218" s="17" t="s">
         <v>544</v>
@@ -48014,7 +48012,7 @@
         <v>446</v>
       </c>
       <c r="V218" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="W218" s="17">
         <f t="shared" si="116"/>
@@ -48173,7 +48171,7 @@
         <v>310</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G219" s="17" t="s">
         <v>545</v>
@@ -48380,7 +48378,7 @@
         <v>651</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G220" s="17" t="s">
         <v>621</v>
@@ -48575,7 +48573,7 @@
         <v>326</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>546</v>
@@ -48623,7 +48621,7 @@
         <v>446</v>
       </c>
       <c r="V221" s="17" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="W221" s="17">
         <f t="shared" si="116"/>
@@ -48782,7 +48780,7 @@
         <v>305</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>942</v>
@@ -48872,7 +48870,7 @@
         <v/>
       </c>
       <c r="AR222" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AV222" s="4" t="s">
         <v>30</v>
@@ -48944,7 +48942,7 @@
         <v>310</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G223" s="17" t="s">
         <v>547</v>
@@ -48986,7 +48984,7 @@
         <v>445</v>
       </c>
       <c r="V223" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="W223" s="17">
         <f t="shared" si="116"/>
@@ -49145,7 +49143,7 @@
         <v>309</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G224" s="17" t="s">
         <v>548</v>
@@ -49351,7 +49349,7 @@
         <v>854</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G225" s="17" t="s">
         <v>549</v>
@@ -49557,7 +49555,7 @@
         <v>309</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G226" s="17" t="s">
         <v>300</v>
@@ -49729,7 +49727,7 @@
         <v>855</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G227" t="s">
         <v>550</v>
@@ -49928,7 +49926,7 @@
         <v>858</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>878</v>
@@ -50134,7 +50132,7 @@
         <v>653</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G229" s="17" t="s">
         <v>622</v>
@@ -50328,7 +50326,7 @@
         <v>857</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>954</v>
@@ -50430,7 +50428,7 @@
         <v/>
       </c>
       <c r="AR230" s="17" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AV230" s="4" t="s">
         <v>30</v>
@@ -50495,16 +50493,16 @@
     </row>
     <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C231" t="s">
         <v>859</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
@@ -50603,7 +50601,7 @@
         <v/>
       </c>
       <c r="AR231" s="17" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV231" s="4" t="s">
         <v>30</v>
@@ -50671,7 +50669,7 @@
         <v>857</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G232" s="17" t="s">
         <v>623</v>
@@ -50870,7 +50868,7 @@
         <v>652</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G233" s="17" t="s">
         <v>551</v>
@@ -51064,16 +51062,16 @@
     </row>
     <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C234" t="s">
         <v>309</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G234" s="24" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
@@ -51169,7 +51167,7 @@
         <v/>
       </c>
       <c r="AR234" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AV234" s="4" t="s">
         <v>30</v>
@@ -51237,7 +51235,7 @@
         <v>859</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>928</v>
@@ -51285,7 +51283,7 @@
         <v>1900</v>
       </c>
       <c r="V235" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="W235" s="17">
         <f t="shared" si="116"/>
@@ -51372,7 +51370,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR235" s="17" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AV235" s="4" t="s">
         <v>29</v>
@@ -51443,7 +51441,7 @@
         <v>332</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G236" s="17" t="s">
         <v>552</v>
@@ -51649,7 +51647,7 @@
         <v>309</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G237" s="16" t="s">
         <v>944</v>
@@ -51808,7 +51806,7 @@
         <v>855</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G238" s="17" t="s">
         <v>553</v>
@@ -52014,7 +52012,7 @@
         <v>275</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G239" s="17" t="s">
         <v>624</v>
@@ -52208,7 +52206,7 @@
         <v>650</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G240" s="17" t="s">
         <v>625</v>
@@ -52404,7 +52402,7 @@
         <v>310</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G241" s="17" t="s">
         <v>626</v>
@@ -52598,7 +52596,7 @@
         <v>310</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G242" s="17" t="s">
         <v>627</v>
@@ -52636,7 +52634,7 @@
       <c r="T242" s="17"/>
       <c r="U242" s="17"/>
       <c r="V242" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="W242" s="17" t="str">
         <f t="shared" si="116"/>
@@ -52794,7 +52792,7 @@
         <v>275</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G243" s="17" t="s">
         <v>554</v>
@@ -53000,7 +52998,7 @@
         <v>326</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G244" s="17" t="s">
         <v>294</v>
@@ -53164,7 +53162,7 @@
         <v>276</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G245" s="17" t="s">
         <v>282</v>
@@ -53340,7 +53338,7 @@
         <v>305</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G246" s="17" t="s">
         <v>555</v>
@@ -53388,7 +53386,7 @@
         <v>445</v>
       </c>
       <c r="V246" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="W246" s="17">
         <f t="shared" si="116"/>
@@ -53546,7 +53544,7 @@
         <v>310</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G247" s="17" t="s">
         <v>628</v>
@@ -53736,16 +53734,16 @@
     </row>
     <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C248" t="s">
         <v>326</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H248">
         <v>1400</v>
@@ -53786,7 +53784,7 @@
       <c r="T248" s="17"/>
       <c r="U248" s="17"/>
       <c r="V248" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="W248" s="17">
         <f t="shared" si="116"/>
@@ -53873,7 +53871,7 @@
         <v/>
       </c>
       <c r="AR248" s="17" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AV248" s="4" t="s">
         <v>29</v>
@@ -53938,10 +53936,10 @@
         <v>224</v>
       </c>
       <c r="C249" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G249" s="17" t="s">
         <v>629</v>
@@ -54135,7 +54133,7 @@
         <v>309</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G250" s="17" t="s">
         <v>630</v>
@@ -54329,7 +54327,7 @@
         <v>332</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G251" s="17" t="s">
         <v>556</v>
@@ -54377,7 +54375,7 @@
         <v>1800</v>
       </c>
       <c r="V251" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="W251" s="17">
         <f t="shared" si="116"/>
@@ -54535,7 +54533,7 @@
         <v>652</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G252" s="17" t="s">
         <v>557</v>
@@ -54736,7 +54734,7 @@
         <v>653</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G253" s="17" t="s">
         <v>631</v>
@@ -54930,7 +54928,7 @@
         <v>653</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G254" s="17" t="s">
         <v>558</v>
@@ -55139,7 +55137,7 @@
         <v>855</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G255" s="16" t="s">
         <v>919</v>
@@ -55237,7 +55235,7 @@
         <v/>
       </c>
       <c r="AR255" s="17" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AV255" s="4" t="s">
         <v>30</v>
@@ -55307,7 +55305,7 @@
         <v>326</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G256" s="17" t="s">
         <v>559</v>
@@ -55503,7 +55501,7 @@
         <v>651</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G257" s="17" t="s">
         <v>560</v>
@@ -55700,7 +55698,7 @@
         <v>332</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G258" s="17" t="s">
         <v>561</v>
@@ -55834,7 +55832,7 @@
         <v>29</v>
       </c>
       <c r="AX258" s="16" t="str">
-        <f t="shared" ref="AX258:AX321" si="171">CONCATENATE("{
+        <f t="shared" ref="AX258:AX307" si="171">CONCATENATE("{
     'name': """,B258,""",
     'area': ","""",C258,""",",
 "'hours': {
@@ -55883,7 +55881,7 @@
         <v>-105.14188</v>
       </c>
       <c r="BI258" s="17" t="str">
-        <f t="shared" ref="BI258:BI321" si="172">CONCATENATE("[",BG258,",",BH258,"],")</f>
+        <f t="shared" ref="BI258:BI307" si="172">CONCATENATE("[",BG258,",",BH258,"],")</f>
         <v>[39.747023,-105.14188],</v>
       </c>
       <c r="BK258" s="17" t="str">
@@ -55894,16 +55892,16 @@
     </row>
     <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C259" t="s">
         <v>855</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="N259" s="17"/>
       <c r="O259" s="17"/>
@@ -55998,7 +55996,7 @@
         <v/>
       </c>
       <c r="AR259" s="17" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AV259" s="4" t="s">
         <v>30</v>
@@ -56066,7 +56064,7 @@
         <v>310</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G260" s="17" t="s">
         <v>632</v>
@@ -56260,7 +56258,7 @@
         <v>310</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G261" s="17" t="s">
         <v>633</v>
@@ -56456,7 +56454,7 @@
         <v>305</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G262" s="17" t="s">
         <v>562</v>
@@ -56650,7 +56648,7 @@
         <v>332</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G263" s="17" t="s">
         <v>634</v>
@@ -56686,7 +56684,7 @@
         <v>445</v>
       </c>
       <c r="V263" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="W263" s="17" t="str">
         <f t="shared" si="150"/>
@@ -56841,10 +56839,10 @@
         <v>157</v>
       </c>
       <c r="C264" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G264" s="17" t="s">
         <v>563</v>
@@ -57050,7 +57048,7 @@
         <v>310</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G265" s="17" t="s">
         <v>635</v>
@@ -57214,7 +57212,7 @@
         <v>858</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G266" s="16" t="s">
         <v>874</v>
@@ -57420,7 +57418,7 @@
         <v>383</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G267" s="16" t="s">
         <v>980</v>
@@ -57468,7 +57466,7 @@
         <v>1800</v>
       </c>
       <c r="V267" s="8" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="W267" s="17">
         <f t="shared" si="150"/>
@@ -57555,7 +57553,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR267" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AV267" s="4" t="s">
         <v>29</v>
@@ -57626,7 +57624,7 @@
         <v>310</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G268" s="17" t="s">
         <v>647</v>
@@ -57814,7 +57812,7 @@
         <v>309</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G269" s="16" t="s">
         <v>940</v>
@@ -57856,7 +57854,7 @@
         <v>1700</v>
       </c>
       <c r="V269" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="W269" s="17" t="str">
         <f t="shared" si="150"/>
@@ -57943,7 +57941,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR269" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AV269" s="4" t="s">
         <v>29</v>
@@ -58014,7 +58012,7 @@
         <v>857</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G270" s="16" t="s">
         <v>948</v>
@@ -58134,7 +58132,7 @@
         <v/>
       </c>
       <c r="AR270" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AV270" s="4" t="s">
         <v>29</v>
@@ -58205,7 +58203,7 @@
         <v>858</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G271" s="17" t="s">
         <v>868</v>
@@ -58411,7 +58409,7 @@
         <v>276</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G272" s="17" t="s">
         <v>283</v>
@@ -58449,7 +58447,7 @@
       <c r="T272" s="17"/>
       <c r="U272" s="17"/>
       <c r="V272" s="8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="W272" s="17" t="str">
         <f t="shared" si="150"/>
@@ -58610,7 +58608,7 @@
         <v>860</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G273" s="16" t="s">
         <v>903</v>
@@ -58658,7 +58656,7 @@
         <v>1900</v>
       </c>
       <c r="V273" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W273" s="17">
         <f t="shared" si="150"/>
@@ -58745,7 +58743,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR273" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV273" s="4" t="s">
         <v>29</v>
@@ -58816,7 +58814,7 @@
         <v>857</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G274" s="16" t="s">
         <v>956</v>
@@ -58864,7 +58862,7 @@
         <v>1800</v>
       </c>
       <c r="V274" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="W274" s="17">
         <f t="shared" si="150"/>
@@ -58951,7 +58949,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR274" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AV274" s="4" t="s">
         <v>29</v>
@@ -59022,7 +59020,7 @@
         <v>310</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G275" s="17" t="s">
         <v>564</v>
@@ -59225,7 +59223,7 @@
         <v>383</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G276" s="16" t="s">
         <v>982</v>
@@ -59273,7 +59271,7 @@
         <v>1900</v>
       </c>
       <c r="V276" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="W276" s="17">
         <f t="shared" si="150"/>
@@ -59360,7 +59358,7 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR276" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AV276" s="4" t="s">
         <v>29</v>
@@ -59432,7 +59430,7 @@
       </c>
       <c r="D277" s="17"/>
       <c r="E277" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F277" s="17"/>
       <c r="G277" s="16" t="s">
@@ -59477,7 +59475,7 @@
         <v>1830</v>
       </c>
       <c r="V277" s="12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="W277" s="17" t="str">
         <f t="shared" si="150"/>
@@ -59564,7 +59562,7 @@
         <v>4pm-6.3pm</v>
       </c>
       <c r="AR277" s="17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AS277" s="17"/>
       <c r="AT277" s="17"/>
@@ -59638,7 +59636,7 @@
         <v>855</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G278" s="17" t="s">
         <v>565</v>
@@ -59686,7 +59684,7 @@
         <v>445</v>
       </c>
       <c r="V278" s="8" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W278" s="17">
         <f t="shared" si="150"/>
@@ -59844,7 +59842,7 @@
         <v>652</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G279" s="17" t="s">
         <v>278</v>
@@ -59892,7 +59890,7 @@
         <v>445</v>
       </c>
       <c r="V279" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="W279" s="17">
         <f t="shared" si="150"/>
@@ -60053,7 +60051,7 @@
         <v>650</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G280" s="17" t="s">
         <v>566</v>
@@ -60101,7 +60099,7 @@
         <v>445</v>
       </c>
       <c r="V280" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="W280" s="17">
         <f t="shared" si="150"/>
@@ -60259,7 +60257,7 @@
         <v>310</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G281" s="17" t="s">
         <v>567</v>
@@ -60295,7 +60293,7 @@
         <v>446</v>
       </c>
       <c r="V281" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="W281" s="17" t="str">
         <f t="shared" si="150"/>
@@ -60454,7 +60452,7 @@
       </c>
       <c r="D282" s="17"/>
       <c r="E282" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F282" s="17"/>
       <c r="G282" s="17" t="s">
@@ -60633,7 +60631,7 @@
         <v>855</v>
       </c>
       <c r="E283" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G283" s="17" t="s">
         <v>637</v>
@@ -60826,7 +60824,7 @@
         <v>652</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G284" s="17" t="s">
         <v>568</v>
@@ -60860,7 +60858,7 @@
       <c r="T284" s="17"/>
       <c r="U284" s="17"/>
       <c r="V284" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="W284" s="17" t="str">
         <f t="shared" si="150"/>
@@ -61018,7 +61016,7 @@
         <v>383</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G285" s="16" t="s">
         <v>967</v>
@@ -61185,7 +61183,7 @@
         <v>310</v>
       </c>
       <c r="E286" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G286" s="17" t="s">
         <v>569</v>
@@ -61385,7 +61383,7 @@
         <v>383</v>
       </c>
       <c r="E287" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G287" s="16" t="s">
         <v>962</v>
@@ -61475,7 +61473,7 @@
         <v/>
       </c>
       <c r="AR287" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AV287" s="4" t="s">
         <v>30</v>
@@ -61546,7 +61544,7 @@
         <v>310</v>
       </c>
       <c r="E288" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G288" s="17" t="s">
         <v>638</v>
@@ -61734,16 +61732,16 @@
     </row>
     <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C289" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E289" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G289" s="17" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="H289">
         <v>1600</v>
@@ -61788,7 +61786,7 @@
         <v>2400</v>
       </c>
       <c r="V289" s="8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="W289" s="17">
         <f t="shared" si="150"/>
@@ -61875,7 +61873,7 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR289" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="AV289" s="4" t="s">
         <v>29</v>
@@ -61942,7 +61940,7 @@
         <v>310</v>
       </c>
       <c r="E290" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G290" s="17" t="s">
         <v>570</v>
@@ -62136,7 +62134,7 @@
         <v>326</v>
       </c>
       <c r="E291" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G291" s="17" t="s">
         <v>639</v>
@@ -62172,7 +62170,7 @@
         <v>445</v>
       </c>
       <c r="V291" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="W291" s="17" t="str">
         <f t="shared" si="150"/>
@@ -62333,7 +62331,7 @@
         <v>651</v>
       </c>
       <c r="E292" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G292" s="17" t="s">
         <v>640</v>
@@ -62369,7 +62367,7 @@
         <v>446</v>
       </c>
       <c r="V292" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="W292" s="17" t="str">
         <f t="shared" si="150"/>
@@ -62527,7 +62525,7 @@
         <v>276</v>
       </c>
       <c r="E293" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G293" s="17" t="s">
         <v>641</v>
@@ -62723,7 +62721,7 @@
         <v>651</v>
       </c>
       <c r="E294" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G294" t="s">
         <v>571</v>
@@ -62763,7 +62761,7 @@
         <v>446</v>
       </c>
       <c r="V294" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="W294" s="17">
         <f t="shared" si="150"/>
@@ -62924,7 +62922,7 @@
         <v>855</v>
       </c>
       <c r="E295" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G295" t="s">
         <v>572</v>
@@ -63130,7 +63128,7 @@
         <v>855</v>
       </c>
       <c r="E296" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G296" s="16" t="s">
         <v>923</v>
@@ -63178,7 +63176,7 @@
         <v>1800</v>
       </c>
       <c r="V296" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="W296" s="17">
         <f t="shared" si="150"/>
@@ -63265,7 +63263,7 @@
         <v>12pm-6pm</v>
       </c>
       <c r="AR296" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AV296" s="4" t="s">
         <v>29</v>
@@ -63335,7 +63333,7 @@
         <v>326</v>
       </c>
       <c r="E297" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G297" s="17" t="s">
         <v>292</v>
@@ -63511,7 +63509,7 @@
         <v>383</v>
       </c>
       <c r="E298" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G298" s="16" t="s">
         <v>970</v>
@@ -63643,7 +63641,7 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR298" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AV298" s="4" t="s">
         <v>29</v>
@@ -63714,7 +63712,7 @@
       </c>
       <c r="D299" s="8"/>
       <c r="E299" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F299" s="8"/>
       <c r="G299" s="17" t="s">
@@ -63896,7 +63894,7 @@
         <v>858</v>
       </c>
       <c r="E300" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G300" s="16" t="s">
         <v>862</v>
@@ -64094,10 +64092,10 @@
         <v>237</v>
       </c>
       <c r="C301" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E301" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G301" t="s">
         <v>642</v>
@@ -64293,7 +64291,7 @@
         <v>859</v>
       </c>
       <c r="E302" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G302" s="16" t="s">
         <v>479</v>
@@ -64341,7 +64339,7 @@
         <v>1700</v>
       </c>
       <c r="V302" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="W302" s="17">
         <f t="shared" si="150"/>
@@ -64428,7 +64426,7 @@
         <v>4pm-5pm</v>
       </c>
       <c r="AR302" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AV302" s="4" t="s">
         <v>29</v>
@@ -64498,7 +64496,7 @@
         <v>652</v>
       </c>
       <c r="E303" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G303" t="s">
         <v>574</v>
@@ -64694,7 +64692,7 @@
         <v>309</v>
       </c>
       <c r="E304" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G304" t="s">
         <v>575</v>
@@ -64742,7 +64740,7 @@
         <v>446</v>
       </c>
       <c r="V304" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="W304" s="17">
         <f t="shared" si="150"/>
@@ -64900,7 +64898,7 @@
         <v>857</v>
       </c>
       <c r="E305" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G305" s="16" t="s">
         <v>958</v>
@@ -64948,7 +64946,7 @@
         <v>1730</v>
       </c>
       <c r="V305" s="8" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="W305" s="17">
         <f t="shared" si="150"/>
@@ -65035,7 +65033,7 @@
         <v>3pm-5.3pm</v>
       </c>
       <c r="AR305" s="17" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AV305" s="4" t="s">
         <v>29</v>
@@ -65105,7 +65103,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G306" t="s">
         <v>295</v>
@@ -65279,7 +65277,7 @@
         <v>326</v>
       </c>
       <c r="E307" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G307" t="s">
         <v>576</v>
@@ -65509,25 +65507,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1245</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>1246</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -65538,16 +65536,16 @@
         <v>-104.99021</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F2" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G2" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -65558,16 +65556,16 @@
         <v>-105.00512999999999</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F3" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -65578,16 +65576,16 @@
         <v>-104.99066000000001</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="F4" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -65598,16 +65596,16 @@
         <v>-104.97929000000001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D5" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F5" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G5" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -65618,16 +65616,16 @@
         <v>-104.99643</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D6" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="F6" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G6" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -65638,16 +65636,16 @@
         <v>-104.98058</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D7" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F7" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G7" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -65658,16 +65656,16 @@
         <v>-105.01622999999999</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="F8" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G8" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -65678,16 +65676,16 @@
         <v>-104.99897</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D9" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F9" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G9" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -65698,16 +65696,16 @@
         <v>-104.98604</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D10" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="F10" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G10" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -65718,16 +65716,16 @@
         <v>-104.98388</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D11" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F11" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G11" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -65738,16 +65736,16 @@
         <v>-105.01106</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D12" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="F12" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G12" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -65758,16 +65756,16 @@
         <v>-104.9798</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D13" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F13" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G13" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -65778,16 +65776,16 @@
         <v>-105.00048</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="D14" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F14" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G14" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -65798,16 +65796,16 @@
         <v>-104.94761</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D15" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F15" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G15" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="1266">
   <si>
     <t>Name</t>
   </si>
@@ -3827,6 +3827,9 @@
   </si>
   <si>
     <t>$1 Off All Beer and Wine&lt;br&gt;$5 Blue Collar - PBR and Jim Beam&lt;br&gt;$5 El Chilango - Tecate and Patron XO&lt;br&gt;$10 Cheeseman Park - IMT Rose and Sweet Revenge&lt;br&gt;$5 Belgian Waffle - Stella &amp; Cabin Feaver&lt;br&gt;$5 Curtis Park - Coors &amp; Fireball&lt;br&gt;$5 Cherry Brandy Lime-aid&lt;br&gt;$5 Verano Blanco Sangria&lt;br&gt;$2 Pork Sliders&lt;br&gt;$7 Spinach Dip</t>
+  </si>
+  <si>
+    <t>$1 off house wines, well drinks and specialty cocktails&lt;br&gt;$1 spitfire wings &lt;br&gt; $1 house made crisps</t>
   </si>
 </sst>
 </file>
@@ -4821,8 +4824,8 @@
   <dimension ref="B1:BL307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P215" sqref="P215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45362,6 +45365,9 @@
       <c r="S204">
         <v>1800</v>
       </c>
+      <c r="V204" s="8" t="s">
+        <v>1265</v>
+      </c>
       <c r="W204" s="17" t="str">
         <f t="shared" si="116"/>
         <v/>
@@ -45460,7 +45466,7 @@
         <v>{
     'name': "Pints Pub",
     'area': "capital",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.pintspub.com", 'pricing':"med",   'phone-number': "", 'address': "221 West 13th Avenue Denver, CO 80204", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off house wines, well drinks and specialty cocktails&lt;br&gt;$1 spitfire wings &lt;br&gt; $1 house made crisps", 'link':"http://www.pintspub.com", 'pricing':"med",   'phone-number': "", 'address': "221 West 13th Avenue Denver, CO 80204", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY204" s="17" t="str">
         <f t="shared" si="139"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593301E-CAE9-4E38-925E-BB792FB9B697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F7CC5-378E-4E9A-8421-B19C4DCDE989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4727" uniqueCount="1267">
   <si>
     <t>Name</t>
   </si>
@@ -3832,6 +3832,9 @@
   </si>
   <si>
     <t>Ale House</t>
+  </si>
+  <si>
+    <t>$5 Beer and Wine Specials</t>
   </si>
 </sst>
 </file>
@@ -4825,9 +4828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV206" sqref="AV206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -45721,89 +45724,134 @@
       <c r="G206" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="W206" s="17" t="str">
+      <c r="H206">
+        <v>900</v>
+      </c>
+      <c r="I206">
+        <v>1700</v>
+      </c>
+      <c r="J206">
+        <v>1100</v>
+      </c>
+      <c r="K206">
+        <v>1700</v>
+      </c>
+      <c r="L206" s="17">
+        <v>1100</v>
+      </c>
+      <c r="M206" s="17">
+        <v>1700</v>
+      </c>
+      <c r="N206" s="17">
+        <v>1100</v>
+      </c>
+      <c r="O206" s="17">
+        <v>1700</v>
+      </c>
+      <c r="P206" s="17">
+        <v>1100</v>
+      </c>
+      <c r="Q206" s="17">
+        <v>1700</v>
+      </c>
+      <c r="R206" s="17">
+        <v>1100</v>
+      </c>
+      <c r="S206" s="17">
+        <v>1700</v>
+      </c>
+      <c r="T206">
+        <v>900</v>
+      </c>
+      <c r="U206">
+        <v>1700</v>
+      </c>
+      <c r="V206" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="W206" s="17">
         <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="X206" s="17" t="str">
+        <v>9</v>
+      </c>
+      <c r="X206" s="17">
         <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="Y206" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="Y206" s="17">
         <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="Z206" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="Z206" s="17">
         <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="AA206" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="AA206" s="17">
         <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="AB206" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="AB206" s="17">
         <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="AC206" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="AC206" s="17">
         <f t="shared" si="122"/>
-        <v/>
-      </c>
-      <c r="AD206" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="AD206" s="17">
         <f t="shared" si="123"/>
-        <v/>
-      </c>
-      <c r="AE206" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="AE206" s="17">
         <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AF206" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="AF206" s="17">
         <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="AG206" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="AG206" s="17">
         <f t="shared" si="126"/>
-        <v/>
-      </c>
-      <c r="AH206" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="AH206" s="17">
         <f t="shared" si="127"/>
-        <v/>
-      </c>
-      <c r="AI206" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="AI206" s="17">
         <f t="shared" si="128"/>
-        <v/>
-      </c>
-      <c r="AJ206" s="17" t="str">
+        <v>9</v>
+      </c>
+      <c r="AJ206" s="17">
         <f t="shared" si="129"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AK206" s="17" t="str">
         <f t="shared" si="130"/>
-        <v/>
+        <v>9am-5pm</v>
       </c>
       <c r="AL206" s="17" t="str">
         <f t="shared" si="131"/>
-        <v/>
+        <v>11am-5pm</v>
       </c>
       <c r="AM206" s="17" t="str">
         <f t="shared" si="132"/>
-        <v/>
+        <v>11am-5pm</v>
       </c>
       <c r="AN206" s="17" t="str">
         <f t="shared" si="133"/>
-        <v/>
+        <v>11am-5pm</v>
       </c>
       <c r="AO206" s="17" t="str">
         <f t="shared" si="134"/>
-        <v/>
+        <v>11am-5pm</v>
       </c>
       <c r="AP206" s="17" t="str">
         <f t="shared" si="135"/>
-        <v/>
+        <v>11am-5pm</v>
       </c>
       <c r="AQ206" s="17" t="str">
         <f t="shared" si="136"/>
-        <v/>
+        <v>9am-5pm</v>
       </c>
       <c r="AR206" s="1" t="s">
         <v>725</v>
@@ -45812,7 +45860,7 @@
         <v>439</v>
       </c>
       <c r="AV206" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW206" s="4" t="s">
         <v>30</v>
@@ -45822,7 +45870,7 @@
         <v>{
     'name': "Postino",
     'area': "highlands",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.postinowinecafe.com/", 'pricing':"med",   'phone-number': "", 'address': "2715 17th St. Denver CO", 'other-amenities': ['outside','',''], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"900", 'sunday-end':"1700", 'monday-start':"1100", 'monday-end':"1700", 'tuesday-start':"1100", 'tuesday-end':"1700", 'wednesday-start':"1100", 'wednesday-end':"1700", 'thursday-start':"1100", 'thursday-end':"1700", 'friday-start':"1100", 'friday-end':"1700", 'saturday-start':"900", 'saturday-end':"1700"},  'description': "$5 Beer and Wine Specials", 'link':"http://www.postinowinecafe.com/", 'pricing':"med",   'phone-number': "", 'address': "2715 17th St. Denver CO", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY206" s="17" t="str">
         <f t="shared" si="139"/>
@@ -45838,7 +45886,7 @@
       </c>
       <c r="BB206" s="17" t="str">
         <f t="shared" si="142"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC206" s="17" t="str">
         <f t="shared" si="143"/>
@@ -45846,11 +45894,11 @@
       </c>
       <c r="BD206" s="17" t="str">
         <f t="shared" si="144"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE206" s="17" t="str">
         <f t="shared" si="145"/>
-        <v>outdoor  med highlands</v>
+        <v>outdoor drink  med highlands</v>
       </c>
       <c r="BF206" s="17" t="str">
         <f t="shared" si="146"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3860,7 +3860,7 @@
     <t>3480 Park Ave West Denver, CO 80216</t>
   </si>
   <si>
-    <t>$3 Craft Drafts&lt;br&gt;$2.50 Domestic Drafts&lt;br&gt;$3 Well Drinks &amp; House Wines &lt;br&gt;$5 Select Appetizers&lt;br&gt;&lt;b&gt;Monday: &lt;/b&gt;&lt;br&gt;All Day Happy Hour &lt;br&gt;&lt;b&gt;Tuesday: &lt;/b&gt;&lt;br&gt;Taco Tuesday $1.25 beef, $2.25 fish tacos&lt;br&gt;Tall Boy Tuesdays $3.50 Pabst &amp; Schlitz Tallboys &lt;br&gt;&lt;b&gt;Wednesday: &lt;/b&gt;&lt;br&gt;11a-7p $5 Bratwurst and Fries +$1 for additonal toppings&lt;br&gt;All You Can Eat Wings and Fries 7-10pm&lt;br&gt;Team Trivia Starting at 8pm - Get here early as seats fill up fast!&lt;br&gt;&lt;b&gt;Thursday: &lt;/b&gt;&lt;br&gt;$5 Burger &amp; Fries +$1 for additional Toppings &lt;br&gt;&lt;b&gt;Friday: &lt;b&gt;&lt;br&gt;Fish Fry - Alaskan Cod plate: $13.95, All you can eat plate: $16.95 &lt;br&gt;Walleye plate: $16.95 (Not available for All You Can Eat)&lt;br&gt;&lt;b&gt;Sunday: &lt;/b&gt;&lt;br&gt;Bottomless Booze - 11am-3pm - $12 for bottomless screwdrivers, mimosas &amp; bloody marys&lt;br&gt;(Not available during NFL Games)</t>
+    <t>$3 Craft Drafts&lt;br&gt;$2.50 Domestic Drafts&lt;br&gt;$3 Well Drinks &amp; House Wines &lt;br&gt;$5 Select Appetizers&lt;br&gt;&lt;b&gt;Monday: &lt;/b&gt;&lt;br&gt;All Day Happy Hour &lt;br&gt;&lt;b&gt;Tuesday: &lt;/b&gt;&lt;br&gt;Taco Tuesday $1.25 beef, $2.25 fish tacos&lt;br&gt;Tall Boy Tuesdays $3.50 Pabst &amp; Schlitz Tallboys &lt;br&gt;&lt;b&gt;Wednesday: &lt;/b&gt;&lt;br&gt;11a-7p $5 Bratwurst and Fries +$1 for additonal toppings&lt;br&gt;All You Can Eat Wings and Fries 7-10pm&lt;br&gt;Team Trivia Starting at 8pm - Get here early as seats fill up fast!&lt;br&gt;&lt;b&gt;Thursday: &lt;/b&gt;&lt;br&gt;$5 Burger &amp; Fries +$1 for additional Toppings &lt;br&gt;&lt;b&gt;Friday: &lt;/b&gt;&lt;br&gt;Fish Fry - Alaskan Cod plate: $13.95, All you can eat plate: $16.95 &lt;br&gt;Walleye plate: $16.95 (Not available for All You Can Eat)&lt;br&gt;&lt;b&gt;Sunday: &lt;/b&gt;&lt;br&gt;Bottomless Booze - 11am-3pm - $12 for bottomless screwdrivers, mimosas &amp; bloody marys&lt;br&gt;(Not available during NFL Games)</t>
   </si>
 </sst>
 </file>
@@ -49938,7 +49938,7 @@
         <v>{
     'name': "Roo Bar",
     'area': "RiNo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3 Craft Drafts&lt;br&gt;$2.50 Domestic Drafts&lt;br&gt;$3 Well Drinks &amp; House Wines &lt;br&gt;$5 Select Appetizers&lt;br&gt;&lt;b&gt;Monday: &lt;/b&gt;&lt;br&gt;All Day Happy Hour &lt;br&gt;&lt;b&gt;Tuesday: &lt;/b&gt;&lt;br&gt;Taco Tuesday $1.25 beef, $2.25 fish tacos&lt;br&gt;Tall Boy Tuesdays $3.50 Pabst &amp; Schlitz Tallboys &lt;br&gt;&lt;b&gt;Wednesday: &lt;/b&gt;&lt;br&gt;11a-7p $5 Bratwurst and Fries +$1 for additonal toppings&lt;br&gt;All You Can Eat Wings and Fries 7-10pm&lt;br&gt;Team Trivia Starting at 8pm - Get here early as seats fill up fast!&lt;br&gt;&lt;b&gt;Thursday: &lt;/b&gt;&lt;br&gt;$5 Burger &amp; Fries +$1 for additional Toppings &lt;br&gt;&lt;b&gt;Friday: &lt;b&gt;&lt;br&gt;Fish Fry - Alaskan Cod plate: $13.95, All you can eat plate: $16.95 &lt;br&gt;Walleye plate: $16.95 (Not available for All You Can Eat)&lt;br&gt;&lt;b&gt;Sunday: &lt;/b&gt;&lt;br&gt;Bottomless Booze - 11am-3pm - $12 for bottomless screwdrivers, mimosas &amp; bloody marys&lt;br&gt;(Not available during NFL Games)", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "3480 Park Ave West Denver, CO 80216", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3 Craft Drafts&lt;br&gt;$2.50 Domestic Drafts&lt;br&gt;$3 Well Drinks &amp; House Wines &lt;br&gt;$5 Select Appetizers&lt;br&gt;&lt;b&gt;Monday: &lt;/b&gt;&lt;br&gt;All Day Happy Hour &lt;br&gt;&lt;b&gt;Tuesday: &lt;/b&gt;&lt;br&gt;Taco Tuesday $1.25 beef, $2.25 fish tacos&lt;br&gt;Tall Boy Tuesdays $3.50 Pabst &amp; Schlitz Tallboys &lt;br&gt;&lt;b&gt;Wednesday: &lt;/b&gt;&lt;br&gt;11a-7p $5 Bratwurst and Fries +$1 for additonal toppings&lt;br&gt;All You Can Eat Wings and Fries 7-10pm&lt;br&gt;Team Trivia Starting at 8pm - Get here early as seats fill up fast!&lt;br&gt;&lt;b&gt;Thursday: &lt;/b&gt;&lt;br&gt;$5 Burger &amp; Fries +$1 for additional Toppings &lt;br&gt;&lt;b&gt;Friday: &lt;/b&gt;&lt;br&gt;Fish Fry - Alaskan Cod plate: $13.95, All you can eat plate: $16.95 &lt;br&gt;Walleye plate: $16.95 (Not available for All You Can Eat)&lt;br&gt;&lt;b&gt;Sunday: &lt;/b&gt;&lt;br&gt;Bottomless Booze - 11am-3pm - $12 for bottomless screwdrivers, mimosas &amp; bloody marys&lt;br&gt;(Not available during NFL Games)", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "3480 Park Ave West Denver, CO 80216", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY227" s="17" t="str">
         <f t="shared" ref="AY227" si="261">IF(AS227&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="1285">
   <si>
     <t>Name</t>
   </si>
@@ -3885,6 +3885,9 @@
   </si>
   <si>
     <t>http://northfieldstapleton.doghaus.com/</t>
+  </si>
+  <si>
+    <t>$5 Whiskey Cocktails</t>
   </si>
 </sst>
 </file>
@@ -4894,9 +4897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T86" sqref="T86:U86"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV235" sqref="AV235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -51202,107 +51205,140 @@
       <c r="G234" s="17" t="s">
         <v>1152</v>
       </c>
-      <c r="J234" s="17"/>
-      <c r="K234" s="17"/>
-      <c r="L234" s="17"/>
-      <c r="M234" s="17"/>
-      <c r="N234" s="17"/>
-      <c r="O234" s="17"/>
-      <c r="P234" s="17"/>
-      <c r="Q234" s="17"/>
-      <c r="R234" s="17"/>
-      <c r="S234" s="17"/>
-      <c r="T234" s="17"/>
-      <c r="U234" s="17"/>
-      <c r="W234" s="17" t="str">
+      <c r="H234">
+        <v>1500</v>
+      </c>
+      <c r="I234">
+        <v>2000</v>
+      </c>
+      <c r="J234" s="17">
+        <v>1500</v>
+      </c>
+      <c r="K234" s="17">
+        <v>2000</v>
+      </c>
+      <c r="L234" s="17">
+        <v>1500</v>
+      </c>
+      <c r="M234" s="17">
+        <v>2000</v>
+      </c>
+      <c r="N234" s="17">
+        <v>1500</v>
+      </c>
+      <c r="O234" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P234" s="17">
+        <v>1500</v>
+      </c>
+      <c r="Q234" s="17">
+        <v>2000</v>
+      </c>
+      <c r="R234" s="17">
+        <v>1500</v>
+      </c>
+      <c r="S234" s="17">
+        <v>2000</v>
+      </c>
+      <c r="T234" s="17">
+        <v>1500</v>
+      </c>
+      <c r="U234" s="17">
+        <v>2000</v>
+      </c>
+      <c r="V234" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="W234" s="17">
         <f t="shared" si="265"/>
-        <v/>
-      </c>
-      <c r="X234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="X234" s="17">
         <f t="shared" si="266"/>
-        <v/>
-      </c>
-      <c r="Y234" s="17" t="str">
+        <v>20</v>
+      </c>
+      <c r="Y234" s="17">
         <f t="shared" si="267"/>
-        <v/>
-      </c>
-      <c r="Z234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="Z234" s="17">
         <f t="shared" si="268"/>
-        <v/>
-      </c>
-      <c r="AA234" s="17" t="str">
+        <v>20</v>
+      </c>
+      <c r="AA234" s="17">
         <f t="shared" si="269"/>
-        <v/>
-      </c>
-      <c r="AB234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="AB234" s="17">
         <f t="shared" si="270"/>
-        <v/>
-      </c>
-      <c r="AC234" s="17" t="str">
+        <v>20</v>
+      </c>
+      <c r="AC234" s="17">
         <f t="shared" si="271"/>
-        <v/>
-      </c>
-      <c r="AD234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="AD234" s="17">
         <f t="shared" si="272"/>
-        <v/>
-      </c>
-      <c r="AE234" s="17" t="str">
+        <v>20</v>
+      </c>
+      <c r="AE234" s="17">
         <f t="shared" si="273"/>
-        <v/>
-      </c>
-      <c r="AF234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="AF234" s="17">
         <f t="shared" si="274"/>
-        <v/>
-      </c>
-      <c r="AG234" s="17" t="str">
+        <v>20</v>
+      </c>
+      <c r="AG234" s="17">
         <f t="shared" si="275"/>
-        <v/>
-      </c>
-      <c r="AH234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="AH234" s="17">
         <f t="shared" si="276"/>
-        <v/>
-      </c>
-      <c r="AI234" s="17" t="str">
+        <v>20</v>
+      </c>
+      <c r="AI234" s="17">
         <f t="shared" si="277"/>
-        <v/>
-      </c>
-      <c r="AJ234" s="17" t="str">
+        <v>15</v>
+      </c>
+      <c r="AJ234" s="17">
         <f t="shared" si="278"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AK234" s="17" t="str">
         <f t="shared" si="279"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AL234" s="17" t="str">
         <f t="shared" si="280"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AM234" s="17" t="str">
         <f t="shared" si="281"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AN234" s="17" t="str">
         <f t="shared" si="282"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AO234" s="17" t="str">
         <f t="shared" si="283"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AP234" s="17" t="str">
         <f t="shared" si="284"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AQ234" s="17" t="str">
         <f t="shared" si="285"/>
-        <v/>
+        <v>3pm-8pm</v>
       </c>
       <c r="AR234" s="17" t="s">
         <v>1148</v>
       </c>
       <c r="AV234" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW234" s="4" t="s">
         <v>30</v>
@@ -51312,7 +51348,7 @@
         <v>{
     'name': "Seven Grand",
     'area': "five",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://sevengrandbars.com/denver/", 'pricing':"high",   'phone-number': "", 'address': "1855 Blake StreetDenver CO", 'other-amenities': ['','',''], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"2000", 'monday-start':"1500", 'monday-end':"2000", 'tuesday-start':"1500", 'tuesday-end':"2000", 'wednesday-start':"1500", 'wednesday-end':"2000", 'thursday-start':"1500", 'thursday-end':"2000", 'friday-start':"1500", 'friday-end':"2000", 'saturday-start':"1500", 'saturday-end':"2000"},  'description': "$5 Whiskey Cocktails", 'link':"http://sevengrandbars.com/denver/", 'pricing':"high",   'phone-number': "", 'address': "1855 Blake StreetDenver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY234" s="17" t="str">
         <f t="shared" si="288"/>
@@ -51328,7 +51364,7 @@
       </c>
       <c r="BB234" s="17" t="str">
         <f t="shared" si="291"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC234" s="17" t="str">
         <f t="shared" si="292"/>
@@ -51336,11 +51372,11 @@
       </c>
       <c r="BD234" s="17" t="str">
         <f t="shared" si="293"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE234" s="17" t="str">
         <f t="shared" si="294"/>
-        <v xml:space="preserve"> high five</v>
+        <v>drink  high five</v>
       </c>
       <c r="BF234" s="17" t="str">
         <f t="shared" si="295"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B3B3F4-7AD1-4D94-B843-D6990E02770A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB7E2B-507D-4877-84D8-5E78086935A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="1295">
   <si>
     <t>Name</t>
   </si>
@@ -4925,7 +4925,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
+      <selection pane="bottomLeft" activeCell="U98" sqref="U98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -23567,44 +23567,44 @@
       <c r="H98" t="s">
         <v>428</v>
       </c>
-      <c r="I98" t="s">
-        <v>430</v>
+      <c r="I98">
+        <v>1700</v>
       </c>
       <c r="J98" t="s">
         <v>428</v>
       </c>
-      <c r="K98" t="s">
-        <v>430</v>
+      <c r="K98">
+        <v>1700</v>
       </c>
       <c r="L98" t="s">
         <v>428</v>
       </c>
-      <c r="M98" t="s">
-        <v>430</v>
+      <c r="M98">
+        <v>1700</v>
       </c>
       <c r="N98" t="s">
         <v>428</v>
       </c>
-      <c r="O98" t="s">
-        <v>430</v>
+      <c r="O98">
+        <v>1700</v>
       </c>
       <c r="P98" t="s">
         <v>428</v>
       </c>
-      <c r="Q98" t="s">
-        <v>430</v>
+      <c r="Q98">
+        <v>1700</v>
       </c>
       <c r="R98" t="s">
         <v>428</v>
       </c>
-      <c r="S98" t="s">
-        <v>430</v>
+      <c r="S98">
+        <v>1700</v>
       </c>
       <c r="T98" t="s">
         <v>428</v>
       </c>
-      <c r="U98" t="s">
-        <v>430</v>
+      <c r="U98">
+        <v>1700</v>
       </c>
       <c r="V98" t="s">
         <v>312</v>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="X98">
         <f t="shared" si="36"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y98">
         <f t="shared" si="37"/>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="Z98">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA98">
         <f t="shared" si="39"/>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="AB98">
         <f t="shared" si="40"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC98">
         <f t="shared" si="41"/>
@@ -23639,7 +23639,7 @@
       </c>
       <c r="AD98">
         <f t="shared" si="42"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE98">
         <f t="shared" si="43"/>
@@ -23647,7 +23647,7 @@
       </c>
       <c r="AF98">
         <f t="shared" si="44"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG98">
         <f t="shared" si="45"/>
@@ -23655,7 +23655,7 @@
       </c>
       <c r="AH98">
         <f t="shared" si="46"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI98">
         <f t="shared" si="47"/>
@@ -23663,35 +23663,35 @@
       </c>
       <c r="AJ98">
         <f t="shared" si="48"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK98" t="str">
         <f t="shared" si="49"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AL98" t="str">
         <f t="shared" si="50"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AM98" t="str">
         <f t="shared" si="51"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AN98" t="str">
         <f t="shared" si="52"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AO98" t="str">
         <f t="shared" si="53"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AP98" t="str">
         <f t="shared" si="54"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AQ98" t="str">
         <f t="shared" si="55"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AR98" s="11" t="s">
         <v>658</v>
@@ -23707,7 +23707,7 @@
         <v>{
     'name': "Euclid Hall",
     'area': "LoDo",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 select drafts, house wines and well liquors; $3-7 food menu", 'link':"http://www.euclidhall.com", 'pricing':"med",   'phone-number': "", 'address': "1317 14th Street Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1700", 'monday-start':"1500", 'monday-end':"1700", 'tuesday-start':"1500", 'tuesday-end':"1700", 'wednesday-start':"1500", 'wednesday-end':"1700", 'thursday-start':"1500", 'thursday-end':"1700", 'friday-start':"1500", 'friday-end':"1700", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "$4 select drafts, house wines and well liquors; $3-7 food menu", 'link':"http://www.euclidhall.com", 'pricing':"med",   'phone-number': "", 'address': "1317 14th Street Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY98" t="str">
         <f t="shared" si="57"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB7E2B-507D-4877-84D8-5E78086935A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA316B0-8CF2-4515-AC8E-B3273720B1B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="1295">
   <si>
     <t>Name</t>
   </si>
@@ -3333,9 +3333,6 @@
     <t xml:space="preserve">$3 U-Call-Its </t>
   </si>
   <si>
-    <t xml:space="preserve">$4 select drafts and house wines and $5 well cocktails; $4-7 food menu </t>
-  </si>
-  <si>
     <t>$3 domestic drafts and Fireball shots, $4.50 wells and drafts, $5 Svedka Red Bull cocktails, and $10 domestic pitchers; $5 single topping pizza Last Call ( 10:00 pm - 1:00 am</t>
   </si>
   <si>
@@ -3919,13 +3916,16 @@
   </si>
   <si>
     <t>$2.75 wells, Coors and Coors Light bottles, $3.50 Guinness, $4.50 house wines and and select whiskeys, $1 off all drafts, $4.50 Buffalo Trace, $4.50 Tullamore D.E.W., $5 Tito's Handmade Vodka</t>
+  </si>
+  <si>
+    <t>$4 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$9 Cheddarwurst Sausage Sliders&lt;br&gt;$9 Chicken Schnitzel Sliders&lt;br&gt;$11 Rhein Haus Burger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4923,12 +4923,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U98" sqref="U98"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX224" sqref="AX224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
@@ -4952,7 +4952,7 @@
     <col min="58" max="58" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>166</v>
       </c>
@@ -5318,9 +5318,9 @@
       </c>
       <c r="BL2" s="7"/>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C3" t="s">
         <v>827</v>
@@ -5329,7 +5329,7 @@
         <v>1070</v>
       </c>
       <c r="G3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J3">
         <v>1500</v>
@@ -5362,7 +5362,7 @@
         <v>1800</v>
       </c>
       <c r="V3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="0"/>
@@ -5449,7 +5449,7 @@
         <v/>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>28</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>948</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>877</v>
       </c>
@@ -5906,9 +5906,9 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C6" t="s">
         <v>832</v>
@@ -5917,7 +5917,7 @@
         <v>1070</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H6">
         <v>1200</v>
@@ -5962,7 +5962,7 @@
         <v>2000</v>
       </c>
       <c r="V6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
@@ -6049,7 +6049,7 @@
         <v>12pm-8pm</v>
       </c>
       <c r="AR6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AV6" s="4" t="s">
         <v>28</v>
@@ -6107,7 +6107,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -6310,9 +6310,9 @@
       </c>
       <c r="BL7" s="7"/>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C8" t="s">
         <v>832</v>
@@ -6321,7 +6321,7 @@
         <v>1070</v>
       </c>
       <c r="G8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H8">
         <v>1430</v>
@@ -6366,7 +6366,7 @@
         <v>1730</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
@@ -6453,7 +6453,7 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AV8" s="4" t="s">
         <v>28</v>
@@ -6511,7 +6511,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>59</v>
       </c>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="BL9" s="7"/>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>232</v>
       </c>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>247</v>
       </c>
@@ -7090,9 +7090,9 @@
       </c>
       <c r="BL11" s="7"/>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C12" t="s">
         <v>828</v>
@@ -7146,7 +7146,7 @@
         <v>430</v>
       </c>
       <c r="V12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
@@ -7299,9 +7299,9 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C13" t="s">
         <v>316</v>
@@ -7310,7 +7310,7 @@
         <v>1070</v>
       </c>
       <c r="G13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H13">
         <v>1200</v>
@@ -7355,7 +7355,7 @@
         <v>2200</v>
       </c>
       <c r="V13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
@@ -7442,7 +7442,7 @@
         <v>12pm-10pm</v>
       </c>
       <c r="AR13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AV13" s="4" t="s">
         <v>28</v>
@@ -7500,7 +7500,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>924</v>
       </c>
@@ -7693,9 +7693,9 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C15" t="s">
         <v>1051</v>
@@ -7704,7 +7704,7 @@
         <v>1070</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H15">
         <v>1500</v>
@@ -7749,7 +7749,7 @@
         <v>1800</v>
       </c>
       <c r="V15" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
@@ -7836,7 +7836,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AV15" s="4" t="s">
         <v>28</v>
@@ -7894,7 +7894,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>844</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>856</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="BL18" s="7"/>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>936</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="BL20" s="7"/>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>237</v>
       </c>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="BL21" s="7"/>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="BL22" s="7"/>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>860</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>63</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>902</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>922</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>898</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>168</v>
       </c>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="BL30" s="7"/>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>249</v>
       </c>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="BL31" s="7"/>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>169</v>
       </c>
@@ -11059,9 +11059,9 @@
       </c>
       <c r="BL32" s="7"/>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C33" t="s">
         <v>831</v>
@@ -11070,7 +11070,7 @@
         <v>1070</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="0"/>
@@ -11157,7 +11157,7 @@
         <v/>
       </c>
       <c r="AR33" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AV33" s="4" t="s">
         <v>29</v>
@@ -11215,7 +11215,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>170</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="0"/>
@@ -11409,9 +11409,9 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C35" t="s">
         <v>268</v>
@@ -11420,7 +11420,7 @@
         <v>1070</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H35">
         <v>1600</v>
@@ -11453,7 +11453,7 @@
         <v>1900</v>
       </c>
       <c r="V35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W35">
         <f t="shared" si="0"/>
@@ -11595,7 +11595,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>240</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="BL36" s="7"/>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>939</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>66</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>430</v>
       </c>
       <c r="V38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="0"/>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="BL38" s="7"/>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>171</v>
       </c>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>172</v>
       </c>
@@ -12585,18 +12585,18 @@
       </c>
       <c r="BL40" s="7"/>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1">
+    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C41" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E41" t="s">
         <v>1070</v>
       </c>
       <c r="G41" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H41">
         <v>1200</v>
@@ -12641,7 +12641,7 @@
         <v>1830</v>
       </c>
       <c r="V41" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="W41">
         <f t="shared" si="0"/>
@@ -12728,7 +12728,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR41" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AV41" s="4" t="s">
         <v>28</v>
@@ -12786,7 +12786,7 @@
         <v>[39.75134,-105.00048],</v>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="18.75" customHeight="1">
+    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>67</v>
       </c>
@@ -12992,9 +12992,9 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="18.75" customHeight="1">
+    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C43" t="s">
         <v>829</v>
@@ -13003,7 +13003,7 @@
         <v>1070</v>
       </c>
       <c r="G43" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="0"/>
@@ -13090,7 +13090,7 @@
         <v/>
       </c>
       <c r="AR43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AV43" s="4" t="s">
         <v>29</v>
@@ -13148,7 +13148,7 @@
         <v>[39.781885,-104.891501],</v>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="18.75" customHeight="1">
+    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>68</v>
       </c>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="BL44" s="7"/>
     </row>
-    <row r="45" spans="2:64" ht="18.75" customHeight="1">
+    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>848</v>
       </c>
@@ -13508,9 +13508,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="18.75" customHeight="1">
+    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -13519,7 +13519,7 @@
         <v>1070</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H46">
         <v>1500</v>
@@ -13564,7 +13564,7 @@
         <v>1800</v>
       </c>
       <c r="V46" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="W46">
         <f t="shared" si="0"/>
@@ -13709,7 +13709,7 @@
         <v>[39.7499044,-104.9997273],</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="18.75" customHeight="1">
+    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>251</v>
       </c>
@@ -13876,7 +13876,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" ht="18.75" customHeight="1">
+    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>253</v>
       </c>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="BL48" s="7"/>
     </row>
-    <row r="49" spans="2:64" ht="18.75" customHeight="1">
+    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -14201,9 +14201,9 @@
       </c>
       <c r="BL49" s="7"/>
     </row>
-    <row r="50" spans="2:64" ht="18.75" customHeight="1">
+    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C50" t="s">
         <v>1051</v>
@@ -14212,7 +14212,7 @@
         <v>1070</v>
       </c>
       <c r="G50" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J50">
         <v>1500</v>
@@ -14329,7 +14329,7 @@
         <v/>
       </c>
       <c r="AR50" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AV50" s="4" t="s">
         <v>28</v>
@@ -14387,9 +14387,9 @@
         <v>[39.73225,-105.00513],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="18.75" customHeight="1">
+    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C51" t="s">
         <v>629</v>
@@ -14398,7 +14398,7 @@
         <v>1070</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J51">
         <v>1600</v>
@@ -14431,7 +14431,7 @@
         <v>1900</v>
       </c>
       <c r="V51" s="21" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="0"/>
@@ -14518,7 +14518,7 @@
         <v/>
       </c>
       <c r="AR51" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AV51" s="4" t="s">
         <v>28</v>
@@ -14576,7 +14576,7 @@
         <v>[39.7096,-104.98058],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="18.75" customHeight="1">
+    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>70</v>
       </c>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" ht="18.75" customHeight="1">
+    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>71</v>
       </c>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="BL53" s="7"/>
     </row>
-    <row r="54" spans="2:64" ht="18.75" customHeight="1">
+    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>842</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="18.75" customHeight="1">
+    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>72</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="18.75" customHeight="1">
+    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>883</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="0"/>
@@ -15582,7 +15582,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="18.75" customHeight="1">
+    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>173</v>
       </c>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="BL57" s="7"/>
     </row>
-    <row r="58" spans="2:64" ht="18.75" customHeight="1">
+    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>264</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="BL58" s="7"/>
     </row>
-    <row r="59" spans="2:64" ht="18.75" customHeight="1">
+    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>73</v>
       </c>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="BL59" s="7"/>
     </row>
-    <row r="60" spans="2:64" ht="18.75" customHeight="1">
+    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>174</v>
       </c>
@@ -16334,9 +16334,9 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="18.75" customHeight="1">
+    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C61" t="s">
         <v>629</v>
@@ -16345,7 +16345,7 @@
         <v>1070</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="0"/>
@@ -16432,7 +16432,7 @@
         <v/>
       </c>
       <c r="AR61" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AV61" s="4" t="s">
         <v>29</v>
@@ -16490,7 +16490,7 @@
         <v>[39.692846,-104.980251],</v>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="18.75" customHeight="1">
+    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>869</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="18.75" customHeight="1">
+    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="BL63" s="7"/>
     </row>
-    <row r="64" spans="2:64" ht="18.75" customHeight="1">
+    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>852</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="18.75" customHeight="1">
+    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>175</v>
       </c>
@@ -17280,7 +17280,7 @@
       </c>
       <c r="BL65" s="7"/>
     </row>
-    <row r="66" spans="2:64" ht="18.75" customHeight="1">
+    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>75</v>
       </c>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="18.75" customHeight="1">
+    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>76</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>430</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W67">
         <f t="shared" si="35"/>
@@ -17692,7 +17692,7 @@
       </c>
       <c r="BL67" s="7"/>
     </row>
-    <row r="68" spans="2:64" ht="18.75" customHeight="1">
+    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>176</v>
       </c>
@@ -17886,7 +17886,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="18.75" customHeight="1">
+    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>177</v>
       </c>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="18.75" customHeight="1">
+    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>887</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="18.75" customHeight="1">
+    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>178</v>
       </c>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="18.75" customHeight="1">
+    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>248</v>
       </c>
@@ -18691,9 +18691,9 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="18.75" customHeight="1">
+    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C73" t="s">
         <v>267</v>
@@ -18702,7 +18702,7 @@
         <v>1070</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J73">
         <v>1200</v>
@@ -18741,7 +18741,7 @@
         <v>1300</v>
       </c>
       <c r="V73" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="35"/>
@@ -18828,7 +18828,7 @@
         <v>12pm-1pm</v>
       </c>
       <c r="AR73" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AV73" s="4" t="s">
         <v>28</v>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="18.75" customHeight="1">
+    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>179</v>
       </c>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="BL74" s="7"/>
     </row>
-    <row r="75" spans="2:64" ht="18.75" customHeight="1">
+    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>906</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="18.75" customHeight="1">
+    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>854</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>1800</v>
       </c>
       <c r="V76" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W76" t="str">
         <f t="shared" si="35"/>
@@ -19479,7 +19479,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="18.75" customHeight="1">
+    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>77</v>
       </c>
@@ -19685,7 +19685,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" ht="18.75" customHeight="1">
+    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>78</v>
       </c>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="18.75" customHeight="1">
+    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>242</v>
       </c>
@@ -20040,7 +20040,7 @@
       </c>
       <c r="BL79" s="7"/>
     </row>
-    <row r="80" spans="2:64" ht="18.75" customHeight="1">
+    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -20234,9 +20234,9 @@
       </c>
       <c r="BL80" s="7"/>
     </row>
-    <row r="81" spans="2:64" ht="18.75" customHeight="1">
+    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C81" t="s">
         <v>267</v>
@@ -20245,7 +20245,7 @@
         <v>1070</v>
       </c>
       <c r="G81" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H81">
         <v>1500</v>
@@ -20284,7 +20284,7 @@
         <v>1800</v>
       </c>
       <c r="V81" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="W81">
         <f t="shared" si="35"/>
@@ -20371,7 +20371,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR81" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV81" s="4" t="s">
         <v>28</v>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="BL81" s="7"/>
     </row>
-    <row r="82" spans="2:64" ht="18.75" customHeight="1">
+    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>254</v>
       </c>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="18.75" customHeight="1">
+    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>181</v>
       </c>
@@ -20788,7 +20788,7 @@
       </c>
       <c r="BL83" s="7"/>
     </row>
-    <row r="84" spans="2:64" ht="18.75" customHeight="1">
+    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>182</v>
       </c>
@@ -20982,9 +20982,9 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="18.75" customHeight="1">
+    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C85" t="s">
         <v>829</v>
@@ -20993,7 +20993,7 @@
         <v>1070</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H85">
         <v>1500</v>
@@ -21032,7 +21032,7 @@
         <v>1800</v>
       </c>
       <c r="V85" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W85">
         <f t="shared" si="35"/>
@@ -21119,7 +21119,7 @@
         <v/>
       </c>
       <c r="AR85" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AS85" t="s">
         <v>425</v>
@@ -21184,9 +21184,9 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="18.75" customHeight="1">
+    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C86" t="s">
         <v>629</v>
@@ -21195,7 +21195,7 @@
         <v>1070</v>
       </c>
       <c r="G86" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W86" t="str">
         <f t="shared" si="35"/>
@@ -21282,7 +21282,7 @@
         <v/>
       </c>
       <c r="AR86" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AV86" s="4" t="s">
         <v>29</v>
@@ -21340,7 +21340,7 @@
         <v>[39.694056,-104.987055],</v>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="18.75" customHeight="1">
+    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>183</v>
       </c>
@@ -21534,7 +21534,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="18.75" customHeight="1">
+    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>184</v>
       </c>
@@ -21728,7 +21728,7 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="18.75" customHeight="1">
+    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>250</v>
       </c>
@@ -21940,9 +21940,9 @@
       </c>
       <c r="BL89" s="7"/>
     </row>
-    <row r="90" spans="2:64" ht="18.75" customHeight="1">
+    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C90" t="s">
         <v>828</v>
@@ -21951,7 +21951,7 @@
         <v>1070</v>
       </c>
       <c r="G90" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H90">
         <v>1700</v>
@@ -21996,7 +21996,7 @@
         <v>1830</v>
       </c>
       <c r="V90" s="8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W90">
         <f t="shared" si="35"/>
@@ -22083,7 +22083,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR90" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AV90" s="4" t="s">
         <v>28</v>
@@ -22141,7 +22141,7 @@
         <v>[39.76211,-105.01623],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="18.75" customHeight="1">
+    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>79</v>
       </c>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="18.75" customHeight="1">
+    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>185</v>
       </c>
@@ -22544,7 +22544,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="18.75" customHeight="1">
+    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>58</v>
       </c>
@@ -22750,7 +22750,7 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="18.75" customHeight="1">
+    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>80</v>
       </c>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="BL94" s="7"/>
     </row>
-    <row r="95" spans="2:64" ht="18.75" customHeight="1">
+    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>81</v>
       </c>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" ht="18.75" customHeight="1">
+    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>944</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="18.75" customHeight="1">
+    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>873</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="18.75" customHeight="1">
+    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>82</v>
       </c>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="BL98" s="7"/>
     </row>
-    <row r="99" spans="2:64" ht="18.75" customHeight="1">
+    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>266</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>2200</v>
       </c>
       <c r="V99" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="W99" t="str">
         <f t="shared" si="35"/>
@@ -23933,7 +23933,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="18.75" customHeight="1">
+    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>83</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>431</v>
       </c>
       <c r="V100" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="W100">
         <f t="shared" si="35"/>
@@ -24139,7 +24139,7 @@
       </c>
       <c r="BL100" s="7"/>
     </row>
-    <row r="101" spans="2:64" ht="18.75" customHeight="1">
+    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>256</v>
       </c>
@@ -24303,7 +24303,7 @@
       </c>
       <c r="BL101" s="7"/>
     </row>
-    <row r="102" spans="2:64" ht="18.75" customHeight="1">
+    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>84</v>
       </c>
@@ -24512,7 +24512,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="18.75" customHeight="1">
+    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>904</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="18.75" customHeight="1">
+    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>864</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="18.75" customHeight="1">
+    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>85</v>
       </c>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="18.75" customHeight="1">
+    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>186</v>
       </c>
@@ -25232,7 +25232,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="18.75" customHeight="1">
+    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>86</v>
       </c>
@@ -25438,7 +25438,7 @@
       </c>
       <c r="BL107" s="7"/>
     </row>
-    <row r="108" spans="2:64" ht="18.75" customHeight="1">
+    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>187</v>
       </c>
@@ -25632,7 +25632,7 @@
       </c>
       <c r="BL108" s="7"/>
     </row>
-    <row r="109" spans="2:64" ht="18.75" customHeight="1">
+    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>87</v>
       </c>
@@ -25793,7 +25793,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" ht="18.75" customHeight="1">
+    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>246</v>
       </c>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="18.75" customHeight="1">
+    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>88</v>
       </c>
@@ -26163,7 +26163,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="18.75" customHeight="1">
+    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>893</v>
       </c>
@@ -26213,7 +26213,7 @@
         <v>1800</v>
       </c>
       <c r="V112" s="8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="W112" t="str">
         <f t="shared" si="35"/>
@@ -26362,7 +26362,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="18.75" customHeight="1">
+    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>89</v>
       </c>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="18.75" customHeight="1">
+    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>90</v>
       </c>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="18.75" customHeight="1">
+    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>932</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="18.75" customHeight="1">
+    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>188</v>
       </c>
@@ -27170,7 +27170,7 @@
       </c>
       <c r="BL116" s="7"/>
     </row>
-    <row r="117" spans="2:64" ht="18.75" customHeight="1">
+    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>233</v>
       </c>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="BL117" s="7"/>
     </row>
-    <row r="118" spans="2:64" ht="18.75" customHeight="1">
+    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>189</v>
       </c>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="18.75" customHeight="1">
+    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>91</v>
       </c>
@@ -27744,7 +27744,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" ht="18.75" customHeight="1">
+    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>92</v>
       </c>
@@ -27941,7 +27941,7 @@
       </c>
       <c r="BL120" s="7"/>
     </row>
-    <row r="121" spans="2:64" ht="18.75" customHeight="1">
+    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>93</v>
       </c>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" ht="18.75" customHeight="1">
+    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>241</v>
       </c>
@@ -28347,7 +28347,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="18.75" customHeight="1">
+    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>190</v>
       </c>
@@ -28547,7 +28547,7 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="18.75" customHeight="1">
+    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>191</v>
       </c>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="18.75" customHeight="1">
+    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>94</v>
       </c>
@@ -28947,7 +28947,7 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="18.75" customHeight="1">
+    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>908</v>
       </c>
@@ -29107,7 +29107,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="18.75" customHeight="1">
+    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>95</v>
       </c>
@@ -29317,7 +29317,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="18.75" customHeight="1">
+    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>96</v>
       </c>
@@ -29511,9 +29511,9 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="18.75" customHeight="1">
+    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C129" t="s">
         <v>316</v>
@@ -29522,7 +29522,7 @@
         <v>1070</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H129">
         <v>1400</v>
@@ -29567,7 +29567,7 @@
         <v>2130</v>
       </c>
       <c r="V129" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="W129">
         <f t="shared" si="68"/>
@@ -29654,7 +29654,7 @@
         <v>2pm-9.3pm</v>
       </c>
       <c r="AR129" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AV129" s="4" t="s">
         <v>28</v>
@@ -29712,7 +29712,7 @@
         <v>[39.75576,-104.99021],</v>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="18.75" customHeight="1">
+    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>97</v>
       </c>
@@ -29921,7 +29921,7 @@
       </c>
       <c r="BL130" s="7"/>
     </row>
-    <row r="131" spans="2:64" ht="18.75" customHeight="1">
+    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>862</v>
       </c>
@@ -30081,7 +30081,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="18.75" customHeight="1">
+    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>98</v>
       </c>
@@ -30287,7 +30287,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="18.75" customHeight="1">
+    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>99</v>
       </c>
@@ -30481,7 +30481,7 @@
       </c>
       <c r="BL133" s="7"/>
     </row>
-    <row r="134" spans="2:64" ht="18.75" customHeight="1">
+    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>100</v>
       </c>
@@ -30690,9 +30690,9 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="18.75" customHeight="1">
+    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C135" t="s">
         <v>268</v>
@@ -30701,7 +30701,7 @@
         <v>1070</v>
       </c>
       <c r="G135" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="J135">
         <v>1500</v>
@@ -30728,7 +30728,7 @@
         <v>1800</v>
       </c>
       <c r="V135" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="W135" t="str">
         <f t="shared" si="68"/>
@@ -30815,7 +30815,7 @@
         <v/>
       </c>
       <c r="AR135" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AS135" t="s">
         <v>425</v>
@@ -30880,7 +30880,7 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="18.75" customHeight="1">
+    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>234</v>
       </c>
@@ -31077,7 +31077,7 @@
       </c>
       <c r="BL136" s="7"/>
     </row>
-    <row r="137" spans="2:64" ht="18.75" customHeight="1">
+    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>101</v>
       </c>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="18.75" customHeight="1">
+    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="9" t="s">
         <v>102</v>
       </c>
@@ -31450,7 +31450,7 @@
       </c>
       <c r="BL138" s="7"/>
     </row>
-    <row r="139" spans="2:64" ht="18.75" customHeight="1">
+    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>103</v>
       </c>
@@ -31656,7 +31656,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="18.75" customHeight="1">
+    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>104</v>
       </c>
@@ -31862,18 +31862,18 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="18.75" customHeight="1">
+    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C141" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E141" t="s">
         <v>1070</v>
       </c>
       <c r="G141" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H141">
         <v>1500</v>
@@ -31918,7 +31918,7 @@
         <v>1800</v>
       </c>
       <c r="V141" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="W141">
         <f t="shared" si="68"/>
@@ -32005,7 +32005,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR141" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AV141" s="4" t="s">
         <v>28</v>
@@ -32063,7 +32063,7 @@
         <v>[39.75382,-104.99643],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="18.75" customHeight="1">
+    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>105</v>
       </c>
@@ -32269,9 +32269,9 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="18.75" customHeight="1">
+    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C143" t="s">
         <v>268</v>
@@ -32280,7 +32280,7 @@
         <v>1070</v>
       </c>
       <c r="G143" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H143">
         <v>1100</v>
@@ -32325,7 +32325,7 @@
         <v>1900</v>
       </c>
       <c r="V143" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W143">
         <f t="shared" si="68"/>
@@ -32467,7 +32467,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="18.75" customHeight="1">
+    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>192</v>
       </c>
@@ -32643,7 +32643,7 @@
       </c>
       <c r="BL144" s="7"/>
     </row>
-    <row r="145" spans="2:64" ht="18.75" customHeight="1">
+    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>106</v>
       </c>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="18.75" customHeight="1">
+    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>107</v>
       </c>
@@ -33043,7 +33043,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="18.75" customHeight="1">
+    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>918</v>
       </c>
@@ -33242,7 +33242,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="18.75" customHeight="1">
+    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>838</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="18.75" customHeight="1">
+    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>858</v>
       </c>
@@ -33646,18 +33646,18 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="18.75" customHeight="1">
+    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C150" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E150" t="s">
         <v>1070</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J150">
         <v>1400</v>
@@ -33696,7 +33696,7 @@
         <v>1700</v>
       </c>
       <c r="V150" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W150" t="str">
         <f t="shared" si="68"/>
@@ -33783,7 +33783,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AV150" s="4" t="s">
         <v>28</v>
@@ -33841,7 +33841,7 @@
         <v>[39.7505999,-104.9994734],</v>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="18.75" customHeight="1">
+    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>108</v>
       </c>
@@ -34047,7 +34047,7 @@
       </c>
       <c r="BL151" s="7"/>
     </row>
-    <row r="152" spans="2:64" ht="18.75" customHeight="1">
+    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>193</v>
       </c>
@@ -34238,7 +34238,7 @@
       </c>
       <c r="BL152" s="7"/>
     </row>
-    <row r="153" spans="2:64" ht="18.75" customHeight="1">
+    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>194</v>
       </c>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="18.75" customHeight="1">
+    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>109</v>
       </c>
@@ -34635,7 +34635,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="18.75" customHeight="1">
+    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>195</v>
       </c>
@@ -34832,7 +34832,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="18.75" customHeight="1">
+    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>110</v>
       </c>
@@ -35029,7 +35029,7 @@
       </c>
       <c r="BL156" s="7"/>
     </row>
-    <row r="157" spans="2:64" ht="18.75" customHeight="1">
+    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>111</v>
       </c>
@@ -35223,7 +35223,7 @@
       </c>
       <c r="BL157" s="7"/>
     </row>
-    <row r="158" spans="2:64" ht="18.75" customHeight="1">
+    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>112</v>
       </c>
@@ -35417,7 +35417,7 @@
       </c>
       <c r="BL158" s="7"/>
     </row>
-    <row r="159" spans="2:64" ht="18.75" customHeight="1">
+    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>113</v>
       </c>
@@ -35617,7 +35617,7 @@
       </c>
       <c r="BL159" s="7"/>
     </row>
-    <row r="160" spans="2:64" ht="18.75" customHeight="1">
+    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>196</v>
       </c>
@@ -35814,7 +35814,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="18.75" customHeight="1">
+    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>197</v>
       </c>
@@ -36008,7 +36008,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="18.75" customHeight="1">
+    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>982</v>
       </c>
@@ -36201,7 +36201,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="18.75" customHeight="1">
+    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>114</v>
       </c>
@@ -36407,7 +36407,7 @@
       </c>
       <c r="BL163" s="7"/>
     </row>
-    <row r="164" spans="2:64" ht="18.75" customHeight="1">
+    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>198</v>
       </c>
@@ -36601,7 +36601,7 @@
       </c>
       <c r="BL164" s="7"/>
     </row>
-    <row r="165" spans="2:64" ht="18.75" customHeight="1">
+    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>199</v>
       </c>
@@ -36795,7 +36795,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="18.75" customHeight="1">
+    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>115</v>
       </c>
@@ -37001,7 +37001,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="18.75" customHeight="1">
+    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>116</v>
       </c>
@@ -37207,7 +37207,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="18.75" customHeight="1">
+    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>117</v>
       </c>
@@ -37413,7 +37413,7 @@
       </c>
       <c r="BL168" s="7"/>
     </row>
-    <row r="169" spans="2:64" ht="18.75" customHeight="1">
+    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>118</v>
       </c>
@@ -37619,7 +37619,7 @@
       </c>
       <c r="BL169" s="7"/>
     </row>
-    <row r="170" spans="2:64" ht="18.75" customHeight="1">
+    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>119</v>
       </c>
@@ -37825,7 +37825,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="18.75" customHeight="1">
+    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>120</v>
       </c>
@@ -38019,7 +38019,7 @@
       </c>
       <c r="BL171" s="7"/>
     </row>
-    <row r="172" spans="2:64" ht="18.75" customHeight="1">
+    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>200</v>
       </c>
@@ -38213,7 +38213,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="18.75" customHeight="1">
+    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>259</v>
       </c>
@@ -38422,7 +38422,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="18.75" customHeight="1">
+    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>121</v>
       </c>
@@ -38628,7 +38628,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="18.75" customHeight="1">
+    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>201</v>
       </c>
@@ -38822,7 +38822,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="18.75" customHeight="1">
+    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>122</v>
       </c>
@@ -39028,7 +39028,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="18.75" customHeight="1">
+    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>202</v>
       </c>
@@ -39222,7 +39222,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="18.75" customHeight="1">
+    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>123</v>
       </c>
@@ -39428,7 +39428,7 @@
       </c>
       <c r="BL178" s="7"/>
     </row>
-    <row r="179" spans="2:64" ht="18.75" customHeight="1">
+    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>260</v>
       </c>
@@ -39625,7 +39625,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="18.75" customHeight="1">
+    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
         <v>871</v>
       </c>
@@ -39812,7 +39812,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:64" ht="18.75" customHeight="1">
+    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>879</v>
       </c>
@@ -40017,7 +40017,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:64" ht="18.75" customHeight="1">
+    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>124</v>
       </c>
@@ -40223,7 +40223,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="18.75" customHeight="1">
+    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>235</v>
       </c>
@@ -40417,7 +40417,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="18.75" customHeight="1">
+    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>265</v>
       </c>
@@ -40602,7 +40602,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="18.75" customHeight="1">
+    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>950</v>
       </c>
@@ -40807,7 +40807,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:64" ht="18.75" customHeight="1">
+    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>885</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:64" ht="18.75" customHeight="1">
+    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>203</v>
       </c>
@@ -41164,9 +41164,9 @@
       </c>
       <c r="BL187" s="7"/>
     </row>
-    <row r="188" spans="2:64" ht="18.75" customHeight="1">
+    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C188" t="s">
         <v>1051</v>
@@ -41175,7 +41175,7 @@
         <v>1070</v>
       </c>
       <c r="G188" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W188" t="str">
         <f t="shared" si="68"/>
@@ -41262,7 +41262,7 @@
         <v/>
       </c>
       <c r="AR188" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AV188" s="4" t="s">
         <v>29</v>
@@ -41320,7 +41320,7 @@
         <v>[39.677478,-104.914182],</v>
       </c>
     </row>
-    <row r="189" spans="2:64" ht="18.75" customHeight="1">
+    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>866</v>
       </c>
@@ -41525,7 +41525,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="18.75" customHeight="1">
+    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>204</v>
       </c>
@@ -41719,7 +41719,7 @@
       </c>
       <c r="BL190" s="7"/>
     </row>
-    <row r="191" spans="2:64" ht="18.75" customHeight="1">
+    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="6" t="s">
         <v>205</v>
       </c>
@@ -41917,7 +41917,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="18.75" customHeight="1">
+    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>206</v>
       </c>
@@ -42111,7 +42111,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="18.75" customHeight="1">
+    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>207</v>
       </c>
@@ -42305,9 +42305,9 @@
       </c>
       <c r="BL193" s="7"/>
     </row>
-    <row r="194" spans="2:64" ht="18.75" customHeight="1">
+    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C194" t="s">
         <v>828</v>
@@ -42316,7 +42316,7 @@
         <v>1070</v>
       </c>
       <c r="G194" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H194">
         <v>1600</v>
@@ -42343,7 +42343,7 @@
         <v>1800</v>
       </c>
       <c r="V194" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="W194">
         <f t="shared" si="101"/>
@@ -42430,7 +42430,7 @@
         <v/>
       </c>
       <c r="AR194" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AV194" s="4" t="s">
         <v>28</v>
@@ -42488,9 +42488,9 @@
         <v>[39.76354,-105.01106],</v>
       </c>
     </row>
-    <row r="195" spans="2:64" ht="18.75" customHeight="1">
+    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C195" t="s">
         <v>628</v>
@@ -42499,7 +42499,7 @@
         <v>1070</v>
       </c>
       <c r="G195" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H195">
         <v>1500</v>
@@ -42544,7 +42544,7 @@
         <v>1800</v>
       </c>
       <c r="V195" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="W195">
         <f t="shared" si="101"/>
@@ -42631,7 +42631,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR195" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AV195" s="4" t="s">
         <v>28</v>
@@ -42689,7 +42689,7 @@
         <v>[39.71761,-104.94761],</v>
       </c>
     </row>
-    <row r="196" spans="2:64" ht="18.75" customHeight="1">
+    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>208</v>
       </c>
@@ -42883,18 +42883,18 @@
       </c>
       <c r="BL196" s="7"/>
     </row>
-    <row r="197" spans="2:64" ht="18.75" customHeight="1">
+    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C197" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E197" t="s">
         <v>1070</v>
       </c>
       <c r="G197" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J197">
         <v>1500</v>
@@ -42927,7 +42927,7 @@
         <v>1800</v>
       </c>
       <c r="V197" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W197" t="str">
         <f t="shared" si="101"/>
@@ -43014,7 +43014,7 @@
         <v/>
       </c>
       <c r="AR197" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV197" s="4" t="s">
         <v>28</v>
@@ -43072,7 +43072,7 @@
         <v>[39.74819,-104.99897],</v>
       </c>
     </row>
-    <row r="198" spans="2:64" ht="18.75" customHeight="1">
+    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>125</v>
       </c>
@@ -43266,7 +43266,7 @@
       </c>
       <c r="BL198" s="7"/>
     </row>
-    <row r="199" spans="2:64" ht="18.75" customHeight="1">
+    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>910</v>
       </c>
@@ -43310,7 +43310,7 @@
         <v>1800</v>
       </c>
       <c r="V199" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W199" t="str">
         <f t="shared" si="101"/>
@@ -43459,9 +43459,9 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:64" ht="18.75" customHeight="1">
+    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C200" t="s">
         <v>268</v>
@@ -43470,7 +43470,7 @@
         <v>1070</v>
       </c>
       <c r="G200" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J200">
         <v>1500</v>
@@ -43503,7 +43503,7 @@
         <v>1800</v>
       </c>
       <c r="V200" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="W200" t="str">
         <f t="shared" si="101"/>
@@ -43590,7 +43590,7 @@
         <v/>
       </c>
       <c r="AR200" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AV200" s="4" t="s">
         <v>28</v>
@@ -43648,7 +43648,7 @@
         <v>[39.75959,-104.98604],</v>
       </c>
     </row>
-    <row r="201" spans="2:64" ht="18.75" customHeight="1">
+    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>126</v>
       </c>
@@ -43848,7 +43848,7 @@
       </c>
       <c r="BL201" s="7"/>
     </row>
-    <row r="202" spans="2:64" ht="18.75" customHeight="1">
+    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>836</v>
       </c>
@@ -44038,7 +44038,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:64" ht="18.75" customHeight="1">
+    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>127</v>
       </c>
@@ -44238,7 +44238,7 @@
       </c>
       <c r="BL203" s="7"/>
     </row>
-    <row r="204" spans="2:64" ht="18.75" customHeight="1">
+    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>128</v>
       </c>
@@ -44444,9 +44444,9 @@
       </c>
       <c r="BL204" s="7"/>
     </row>
-    <row r="205" spans="2:64" ht="18.75" customHeight="1">
+    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C205" t="s">
         <v>1051</v>
@@ -44455,7 +44455,7 @@
         <v>1070</v>
       </c>
       <c r="G205" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J205">
         <v>1600</v>
@@ -44488,7 +44488,7 @@
         <v>1800</v>
       </c>
       <c r="V205" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W205" t="str">
         <f t="shared" si="101"/>
@@ -44575,7 +44575,7 @@
         <v/>
       </c>
       <c r="AR205" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV205" s="4" t="s">
         <v>28</v>
@@ -44634,7 +44634,7 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="18.75" customHeight="1">
+    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>238</v>
       </c>
@@ -44672,7 +44672,7 @@
         <v>431</v>
       </c>
       <c r="V206" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W206" t="str">
         <f t="shared" si="101"/>
@@ -44825,7 +44825,7 @@
       </c>
       <c r="BL206" s="7"/>
     </row>
-    <row r="207" spans="2:64" ht="18.75" customHeight="1">
+    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>129</v>
       </c>
@@ -44881,7 +44881,7 @@
         <v>1700</v>
       </c>
       <c r="V207" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W207">
         <f t="shared" si="101"/>
@@ -45034,7 +45034,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="18.75" customHeight="1">
+    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>130</v>
       </c>
@@ -45228,7 +45228,7 @@
       </c>
       <c r="BL208" s="7"/>
     </row>
-    <row r="209" spans="2:64" ht="18.75" customHeight="1">
+    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>209</v>
       </c>
@@ -45422,7 +45422,7 @@
       </c>
       <c r="BL209" s="7"/>
     </row>
-    <row r="210" spans="2:64" ht="18.75" customHeight="1">
+    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>262</v>
       </c>
@@ -45586,7 +45586,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="18.75" customHeight="1">
+    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>131</v>
       </c>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="BL211" s="7"/>
     </row>
-    <row r="212" spans="2:64" ht="18.75" customHeight="1">
+    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>132</v>
       </c>
@@ -45986,7 +45986,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="18.75" customHeight="1">
+    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>881</v>
       </c>
@@ -46191,7 +46191,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:64" ht="18.75" customHeight="1">
+    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>133</v>
       </c>
@@ -46397,7 +46397,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="18.75" customHeight="1">
+    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>252</v>
       </c>
@@ -46597,7 +46597,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="18.75" customHeight="1">
+    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>946</v>
       </c>
@@ -46757,7 +46757,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:64" ht="18.75" customHeight="1">
+    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>261</v>
       </c>
@@ -46921,7 +46921,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="18.75" customHeight="1">
+    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>243</v>
       </c>
@@ -47119,7 +47119,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="18.75" customHeight="1">
+    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>134</v>
       </c>
@@ -47319,7 +47319,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="18.75" customHeight="1">
+    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>135</v>
       </c>
@@ -47525,7 +47525,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="18.75" customHeight="1">
+    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>210</v>
       </c>
@@ -47719,7 +47719,7 @@
       </c>
       <c r="BL221" s="7"/>
     </row>
-    <row r="222" spans="2:64" ht="18.75" customHeight="1">
+    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>136</v>
       </c>
@@ -47925,7 +47925,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="18.75" customHeight="1">
+    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>914</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:64" ht="18.75" customHeight="1">
+    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>137</v>
       </c>
@@ -48098,72 +48098,66 @@
       <c r="G224" t="s">
         <v>527</v>
       </c>
-      <c r="H224" t="s">
-        <v>428</v>
-      </c>
-      <c r="I224" t="s">
-        <v>430</v>
-      </c>
-      <c r="J224" t="s">
-        <v>428</v>
-      </c>
-      <c r="K224" t="s">
-        <v>430</v>
-      </c>
-      <c r="N224" t="s">
-        <v>428</v>
-      </c>
-      <c r="O224" t="s">
-        <v>430</v>
-      </c>
-      <c r="P224" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>430</v>
-      </c>
-      <c r="R224" t="s">
-        <v>428</v>
-      </c>
-      <c r="S224" t="s">
-        <v>430</v>
-      </c>
-      <c r="T224" t="s">
-        <v>428</v>
-      </c>
-      <c r="U224" t="s">
-        <v>430</v>
+      <c r="J224">
+        <v>1600</v>
+      </c>
+      <c r="K224">
+        <v>1800</v>
+      </c>
+      <c r="L224">
+        <v>1600</v>
+      </c>
+      <c r="M224">
+        <v>1800</v>
+      </c>
+      <c r="N224">
+        <v>1600</v>
+      </c>
+      <c r="O224">
+        <v>1800</v>
+      </c>
+      <c r="P224">
+        <v>1600</v>
+      </c>
+      <c r="Q224">
+        <v>1800</v>
+      </c>
+      <c r="R224">
+        <v>1600</v>
+      </c>
+      <c r="S224">
+        <v>1800</v>
       </c>
       <c r="V224" t="s">
-        <v>1099</v>
-      </c>
-      <c r="W224">
+        <v>1294</v>
+      </c>
+      <c r="W224" t="str">
         <f t="shared" si="101"/>
-        <v>15</v>
-      </c>
-      <c r="X224">
+        <v/>
+      </c>
+      <c r="X224" t="str">
         <f t="shared" si="102"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="Y224">
         <f t="shared" si="103"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z224">
         <f t="shared" si="104"/>
         <v>18</v>
       </c>
-      <c r="AA224" t="str">
+      <c r="AA224">
         <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="AB224" t="str">
+        <v>16</v>
+      </c>
+      <c r="AB224">
         <f t="shared" si="106"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC224">
         <f t="shared" si="107"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD224">
         <f t="shared" si="108"/>
@@ -48171,7 +48165,7 @@
       </c>
       <c r="AE224">
         <f t="shared" si="109"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF224">
         <f t="shared" si="110"/>
@@ -48179,47 +48173,47 @@
       </c>
       <c r="AG224">
         <f t="shared" si="111"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH224">
         <f t="shared" si="112"/>
         <v>18</v>
       </c>
-      <c r="AI224">
+      <c r="AI224" t="str">
         <f t="shared" si="113"/>
-        <v>15</v>
-      </c>
-      <c r="AJ224">
+        <v/>
+      </c>
+      <c r="AJ224" t="str">
         <f t="shared" si="114"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="AK224" t="str">
         <f t="shared" si="115"/>
-        <v>3pm-6pm</v>
+        <v/>
       </c>
       <c r="AL224" t="str">
         <f t="shared" si="116"/>
-        <v>3pm-6pm</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM224" t="str">
         <f t="shared" si="117"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AN224" t="str">
         <f t="shared" si="118"/>
-        <v>3pm-6pm</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AO224" t="str">
         <f t="shared" si="119"/>
-        <v>3pm-6pm</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AP224" t="str">
         <f t="shared" si="120"/>
-        <v>3pm-6pm</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AQ224" t="str">
         <f t="shared" si="121"/>
-        <v>3pm-6pm</v>
+        <v/>
       </c>
       <c r="AR224" t="s">
         <v>707</v>
@@ -48235,7 +48229,7 @@
         <v>{
     'name': "Rhein Haus",
     'area': "LoDo",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 select drafts and house wines and $5 well cocktails; $4-7 food menu ", 'link':"http://www.rheinhausdenver.com/", 'pricing':"med",   'phone-number': "", 'address': "1415 Market St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$9 Cheddarwurst Sausage Sliders&lt;br&gt;$9 Chicken Schnitzel Sliders&lt;br&gt;$11 Rhein Haus Burger", 'link':"http://www.rheinhausdenver.com/", 'pricing':"med",   'phone-number': "", 'address': "1415 Market St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY224" t="str">
         <f t="shared" si="123"/>
@@ -48285,7 +48279,7 @@
       </c>
       <c r="BL224" s="7"/>
     </row>
-    <row r="225" spans="2:64" ht="18.75" customHeight="1">
+    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>138</v>
       </c>
@@ -48491,7 +48485,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="18.75" customHeight="1">
+    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>139</v>
       </c>
@@ -48697,7 +48691,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="18.75" customHeight="1">
+    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>263</v>
       </c>
@@ -48861,9 +48855,9 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="18.75" customHeight="1">
+    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C228" t="s">
         <v>268</v>
@@ -48872,7 +48866,7 @@
         <v>1070</v>
       </c>
       <c r="G228" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J228">
         <v>1600</v>
@@ -48905,7 +48899,7 @@
         <v>1900</v>
       </c>
       <c r="V228" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="W228" t="str">
         <f t="shared" si="101"/>
@@ -49048,7 +49042,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="18.75" customHeight="1">
+    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>140</v>
       </c>
@@ -49245,7 +49239,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="18.75" customHeight="1">
+    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>850</v>
       </c>
@@ -49450,7 +49444,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:64" ht="18.75" customHeight="1">
+    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>211</v>
       </c>
@@ -49644,7 +49638,7 @@
       </c>
       <c r="BL231" s="7"/>
     </row>
-    <row r="232" spans="2:64" ht="18.75" customHeight="1">
+    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>926</v>
       </c>
@@ -49804,9 +49798,9 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:64" ht="18.75" customHeight="1">
+    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C233" t="s">
         <v>832</v>
@@ -49815,7 +49809,7 @@
         <v>1071</v>
       </c>
       <c r="G233" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H233">
         <v>1500</v>
@@ -49860,7 +49854,7 @@
         <v>2000</v>
       </c>
       <c r="V233" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W233">
         <f t="shared" si="101"/>
@@ -49947,7 +49941,7 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR233" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AV233" s="4" t="s">
         <v>28</v>
@@ -50005,7 +49999,7 @@
         <v>[39.753306,-104.996116],</v>
       </c>
     </row>
-    <row r="234" spans="2:64" ht="18.75" customHeight="1">
+    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>212</v>
       </c>
@@ -50202,7 +50196,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="18.75" customHeight="1">
+    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>141</v>
       </c>
@@ -50402,9 +50396,9 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="18.75" customHeight="1">
+    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C236" t="s">
         <v>301</v>
@@ -50413,7 +50407,7 @@
         <v>1070</v>
       </c>
       <c r="G236" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="W236" t="str">
         <f t="shared" si="101"/>
@@ -50500,7 +50494,7 @@
         <v/>
       </c>
       <c r="AR236" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AV236" s="4" t="s">
         <v>29</v>
@@ -50559,7 +50553,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="18.75" customHeight="1">
+    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>900</v>
       </c>
@@ -50764,7 +50758,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:64" ht="18.75" customHeight="1">
+    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>142</v>
       </c>
@@ -50970,7 +50964,7 @@
       </c>
       <c r="BL238" s="7"/>
     </row>
-    <row r="239" spans="2:64" ht="18.75" customHeight="1">
+    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>916</v>
       </c>
@@ -51127,7 +51121,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:64" ht="18.75" customHeight="1">
+    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>888</v>
       </c>
@@ -51333,7 +51327,7 @@
       </c>
       <c r="BL240" s="7"/>
     </row>
-    <row r="241" spans="2:64" ht="18.75" customHeight="1">
+    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>213</v>
       </c>
@@ -51527,7 +51521,7 @@
       </c>
       <c r="BL241" s="7"/>
     </row>
-    <row r="242" spans="2:64" ht="18.75" customHeight="1">
+    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>214</v>
       </c>
@@ -51721,7 +51715,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="18.75" customHeight="1">
+    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>215</v>
       </c>
@@ -51915,9 +51909,9 @@
       </c>
       <c r="BL243" s="7"/>
     </row>
-    <row r="244" spans="2:64" ht="18.75" customHeight="1">
+    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C244" t="s">
         <v>628</v>
@@ -51926,7 +51920,7 @@
         <v>1070</v>
       </c>
       <c r="G244" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J244">
         <v>1500</v>
@@ -51959,7 +51953,7 @@
         <v>1800</v>
       </c>
       <c r="V244" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W244" t="str">
         <f t="shared" si="101"/>
@@ -52046,7 +52040,7 @@
         <v/>
       </c>
       <c r="AR244" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AV244" s="4" t="s">
         <v>28</v>
@@ -52105,7 +52099,7 @@
       </c>
       <c r="BL244" s="7"/>
     </row>
-    <row r="245" spans="2:64" ht="18.75" customHeight="1">
+    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>216</v>
       </c>
@@ -52149,7 +52143,7 @@
         <v>430</v>
       </c>
       <c r="V245" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="W245" t="str">
         <f t="shared" si="101"/>
@@ -52299,7 +52293,7 @@
       </c>
       <c r="BL245" s="7"/>
     </row>
-    <row r="246" spans="2:64" ht="18.75" customHeight="1">
+    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>143</v>
       </c>
@@ -52505,7 +52499,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="18.75" customHeight="1">
+    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>257</v>
       </c>
@@ -52669,7 +52663,7 @@
       </c>
       <c r="BL247" s="7"/>
     </row>
-    <row r="248" spans="2:64" ht="18.75" customHeight="1">
+    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>244</v>
       </c>
@@ -52833,7 +52827,7 @@
       </c>
       <c r="BL248" s="7"/>
     </row>
-    <row r="249" spans="2:64" ht="18.75" customHeight="1">
+    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>144</v>
       </c>
@@ -52889,7 +52883,7 @@
         <v>430</v>
       </c>
       <c r="V249" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="W249">
         <f t="shared" si="101"/>
@@ -53039,7 +53033,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="18.75" customHeight="1">
+    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>217</v>
       </c>
@@ -53233,9 +53227,9 @@
       </c>
       <c r="BL250" s="7"/>
     </row>
-    <row r="251" spans="2:64" ht="18.75" customHeight="1">
+    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C251" t="s">
         <v>316</v>
@@ -53244,7 +53238,7 @@
         <v>1070</v>
       </c>
       <c r="G251" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H251">
         <v>1400</v>
@@ -53283,7 +53277,7 @@
         <v>1800</v>
       </c>
       <c r="V251" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="W251">
         <f t="shared" si="101"/>
@@ -53370,7 +53364,7 @@
         <v/>
       </c>
       <c r="AR251" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV251" s="4" t="s">
         <v>28</v>
@@ -53428,7 +53422,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="252" spans="2:64" ht="18.75" customHeight="1">
+    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>218</v>
       </c>
@@ -53622,7 +53616,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="18.75" customHeight="1">
+    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>219</v>
       </c>
@@ -53816,9 +53810,9 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="18.75" customHeight="1">
+    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C254" t="s">
         <v>828</v>
@@ -53827,7 +53821,7 @@
         <v>1070</v>
       </c>
       <c r="G254" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H254">
         <v>1500</v>
@@ -53872,7 +53866,7 @@
         <v>1800</v>
       </c>
       <c r="V254" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="W254">
         <f t="shared" si="101"/>
@@ -53959,7 +53953,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR254" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AV254" t="s">
         <v>28</v>
@@ -54018,9 +54012,9 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="18.75" customHeight="1">
+    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C255" t="s">
         <v>268</v>
@@ -54029,7 +54023,7 @@
         <v>1070</v>
       </c>
       <c r="G255" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J255">
         <v>1500</v>
@@ -54062,7 +54056,7 @@
         <v>1800</v>
       </c>
       <c r="V255" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W255" t="str">
         <f t="shared" ref="W255:W315" si="135">IF(H255&gt;0,H255/100,"")</f>
@@ -54149,7 +54143,7 @@
         <v/>
       </c>
       <c r="AR255" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AV255" t="s">
         <v>28</v>
@@ -54212,7 +54206,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="18.75" customHeight="1">
+    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>145</v>
       </c>
@@ -54418,7 +54412,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="18.75" customHeight="1">
+    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>146</v>
       </c>
@@ -54624,7 +54618,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="18.75" customHeight="1">
+    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>220</v>
       </c>
@@ -54818,7 +54812,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="18.75" customHeight="1">
+    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>147</v>
       </c>
@@ -55027,7 +55021,7 @@
       </c>
       <c r="BL259" s="7"/>
     </row>
-    <row r="260" spans="2:64" ht="18.75" customHeight="1">
+    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>891</v>
       </c>
@@ -55187,7 +55181,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="2:64" ht="18.75" customHeight="1">
+    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>148</v>
       </c>
@@ -55381,7 +55375,7 @@
       </c>
       <c r="BL261" s="7"/>
     </row>
-    <row r="262" spans="2:64" ht="18.75" customHeight="1">
+    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>149</v>
       </c>
@@ -55425,7 +55419,7 @@
         <v>431</v>
       </c>
       <c r="V262" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="W262" t="str">
         <f t="shared" si="135"/>
@@ -55578,7 +55572,7 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="18.75" customHeight="1">
+    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>150</v>
       </c>
@@ -55772,9 +55766,9 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="18.75" customHeight="1">
+    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C264" t="s">
         <v>828</v>
@@ -55783,7 +55777,7 @@
         <v>1070</v>
       </c>
       <c r="G264" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="W264" t="str">
         <f t="shared" si="135"/>
@@ -55870,7 +55864,7 @@
         <v/>
       </c>
       <c r="AR264" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AV264" s="4" t="s">
         <v>29</v>
@@ -55928,7 +55922,7 @@
         <v>[39.77126,-105.044258],</v>
       </c>
     </row>
-    <row r="265" spans="2:64" ht="18.75" customHeight="1">
+    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>221</v>
       </c>
@@ -56122,7 +56116,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="18.75" customHeight="1">
+    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>222</v>
       </c>
@@ -56316,7 +56310,7 @@
       </c>
       <c r="BL266" s="7"/>
     </row>
-    <row r="267" spans="2:64" ht="18.75" customHeight="1">
+    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>151</v>
       </c>
@@ -56510,7 +56504,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="18.75" customHeight="1">
+    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>223</v>
       </c>
@@ -56554,7 +56548,7 @@
         <v>430</v>
       </c>
       <c r="V268" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W268" t="str">
         <f t="shared" si="135"/>
@@ -56704,7 +56698,7 @@
       </c>
       <c r="BL268" s="7"/>
     </row>
-    <row r="269" spans="2:64" ht="18.75" customHeight="1">
+    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>152</v>
       </c>
@@ -56910,7 +56904,7 @@
       </c>
       <c r="BL269" s="7"/>
     </row>
-    <row r="270" spans="2:64" ht="18.75" customHeight="1">
+    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>224</v>
       </c>
@@ -57074,7 +57068,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="18.75" customHeight="1">
+    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>846</v>
       </c>
@@ -57279,7 +57273,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:64" ht="18.75" customHeight="1">
+    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>952</v>
       </c>
@@ -57484,9 +57478,9 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="2:64" ht="18.75" customHeight="1">
+    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C273" t="s">
         <v>301</v>
@@ -57495,7 +57489,7 @@
         <v>1070</v>
       </c>
       <c r="G273" s="24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H273">
         <v>1600</v>
@@ -57540,7 +57534,7 @@
         <v>1830</v>
       </c>
       <c r="V273" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W273">
         <f t="shared" si="135"/>
@@ -57682,7 +57676,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="274" spans="2:64" ht="18.75" customHeight="1">
+    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>236</v>
       </c>
@@ -57870,7 +57864,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="18.75" customHeight="1">
+    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>912</v>
       </c>
@@ -58069,7 +58063,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="2:64" ht="18.75" customHeight="1">
+    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>920</v>
       </c>
@@ -58259,7 +58253,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="2:64" ht="18.75" customHeight="1">
+    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>840</v>
       </c>
@@ -58464,7 +58458,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="2:64" ht="18.75" customHeight="1">
+    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>245</v>
       </c>
@@ -58661,7 +58655,7 @@
       </c>
       <c r="BL278" s="7"/>
     </row>
-    <row r="279" spans="2:64" ht="18.75" customHeight="1">
+    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>875</v>
       </c>
@@ -58866,7 +58860,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:64" ht="18.75" customHeight="1">
+    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>928</v>
       </c>
@@ -59071,7 +59065,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:64" ht="18.75" customHeight="1">
+    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>153</v>
       </c>
@@ -59274,7 +59268,7 @@
       </c>
       <c r="BL281" s="7"/>
     </row>
-    <row r="282" spans="2:64" ht="18.75" customHeight="1">
+    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>954</v>
       </c>
@@ -59479,7 +59473,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="2:64" ht="18.75" customHeight="1">
+    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>889</v>
       </c>
@@ -59678,7 +59672,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:64" ht="18.75" customHeight="1">
+    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>154</v>
       </c>
@@ -59884,7 +59878,7 @@
       </c>
       <c r="BL284" s="7"/>
     </row>
-    <row r="285" spans="2:64" ht="18.75" customHeight="1">
+    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>239</v>
       </c>
@@ -60093,7 +60087,7 @@
       </c>
       <c r="BL285" s="7"/>
     </row>
-    <row r="286" spans="2:64" ht="18.75" customHeight="1">
+    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>155</v>
       </c>
@@ -60149,7 +60143,7 @@
         <v>430</v>
       </c>
       <c r="V286" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="W286">
         <f t="shared" si="135"/>
@@ -60299,7 +60293,7 @@
       </c>
       <c r="BL286" s="7"/>
     </row>
-    <row r="287" spans="2:64" ht="18.75" customHeight="1">
+    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>156</v>
       </c>
@@ -60343,7 +60337,7 @@
         <v>431</v>
       </c>
       <c r="V287" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W287" t="str">
         <f t="shared" si="135"/>
@@ -60493,7 +60487,7 @@
       </c>
       <c r="BL287" s="7"/>
     </row>
-    <row r="288" spans="2:64" ht="18.75" customHeight="1">
+    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>225</v>
       </c>
@@ -60654,7 +60648,7 @@
       </c>
       <c r="BL288" s="7"/>
     </row>
-    <row r="289" spans="2:64" ht="18.75" customHeight="1">
+    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>226</v>
       </c>
@@ -60845,7 +60839,7 @@
       </c>
       <c r="BL289" s="7"/>
     </row>
-    <row r="290" spans="2:64" ht="18.75" customHeight="1">
+    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>157</v>
       </c>
@@ -60883,7 +60877,7 @@
         <v>431</v>
       </c>
       <c r="V290" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="W290" t="str">
         <f t="shared" si="135"/>
@@ -61033,7 +61027,7 @@
       </c>
       <c r="BL290" s="7"/>
     </row>
-    <row r="291" spans="2:64" ht="18.75" customHeight="1">
+    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>938</v>
       </c>
@@ -61184,7 +61178,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:64" ht="18.75" customHeight="1">
+    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>158</v>
       </c>
@@ -61384,7 +61378,7 @@
       </c>
       <c r="BL292" s="7"/>
     </row>
-    <row r="293" spans="2:64" ht="18.75" customHeight="1">
+    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>934</v>
       </c>
@@ -61544,7 +61538,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:64" ht="18.75" customHeight="1">
+    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>227</v>
       </c>
@@ -61738,9 +61732,9 @@
       </c>
       <c r="BL294" s="7"/>
     </row>
-    <row r="295" spans="2:64" ht="18.75" customHeight="1">
+    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C295" t="s">
         <v>1051</v>
@@ -61749,7 +61743,7 @@
         <v>1070</v>
       </c>
       <c r="G295" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H295">
         <v>1600</v>
@@ -61794,7 +61788,7 @@
         <v>2400</v>
       </c>
       <c r="V295" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="W295">
         <f t="shared" si="135"/>
@@ -61881,7 +61875,7 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR295" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AV295" s="4" t="s">
         <v>28</v>
@@ -61939,7 +61933,7 @@
         <v>[39.72741,-104.98388],</v>
       </c>
     </row>
-    <row r="296" spans="2:64" ht="18.75" customHeight="1">
+    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>159</v>
       </c>
@@ -62133,7 +62127,7 @@
       </c>
       <c r="BL296" s="7"/>
     </row>
-    <row r="297" spans="2:64" ht="18.75" customHeight="1">
+    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>228</v>
       </c>
@@ -62177,7 +62171,7 @@
         <v>430</v>
       </c>
       <c r="V297" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="W297" t="str">
         <f t="shared" si="135"/>
@@ -62330,7 +62324,7 @@
       </c>
       <c r="BL297" s="7"/>
     </row>
-    <row r="298" spans="2:64" ht="18.75" customHeight="1">
+    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>229</v>
       </c>
@@ -62374,7 +62368,7 @@
         <v>431</v>
       </c>
       <c r="V298" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="W298" t="str">
         <f t="shared" si="135"/>
@@ -62524,9 +62518,9 @@
       </c>
       <c r="BL298" s="7"/>
     </row>
-    <row r="299" spans="2:64" ht="18.75" customHeight="1">
+    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C299" t="s">
         <v>828</v>
@@ -62535,7 +62529,7 @@
         <v>1070</v>
       </c>
       <c r="G299" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H299">
         <v>1500</v>
@@ -62574,7 +62568,7 @@
         <v>1800</v>
       </c>
       <c r="V299" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W299">
         <f t="shared" si="135"/>
@@ -62716,7 +62710,7 @@
         <v>[39.77142,-105.04415],</v>
       </c>
     </row>
-    <row r="300" spans="2:64" ht="18.75" customHeight="1">
+    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>230</v>
       </c>
@@ -62910,7 +62904,7 @@
       </c>
       <c r="BL300" s="7"/>
     </row>
-    <row r="301" spans="2:64" ht="18.75" customHeight="1">
+    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>160</v>
       </c>
@@ -62954,7 +62948,7 @@
         <v>431</v>
       </c>
       <c r="V301" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="W301">
         <f t="shared" si="135"/>
@@ -63107,7 +63101,7 @@
       </c>
       <c r="BL301" s="7"/>
     </row>
-    <row r="302" spans="2:64" ht="18.75" customHeight="1">
+    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>161</v>
       </c>
@@ -63313,7 +63307,7 @@
       </c>
       <c r="BL302" s="7"/>
     </row>
-    <row r="303" spans="2:64" ht="18.75" customHeight="1">
+    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>895</v>
       </c>
@@ -63518,7 +63512,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:64" ht="18.75" customHeight="1">
+    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>255</v>
       </c>
@@ -63682,7 +63676,7 @@
       </c>
       <c r="BL304" s="7"/>
     </row>
-    <row r="305" spans="2:64" ht="18.75" customHeight="1">
+    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>942</v>
       </c>
@@ -63884,7 +63878,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="2:64" ht="18.75" customHeight="1">
+    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>162</v>
       </c>
@@ -64048,9 +64042,9 @@
       </c>
       <c r="BL306" s="7"/>
     </row>
-    <row r="307" spans="2:64" ht="18.75" customHeight="1">
+    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C307" t="s">
         <v>1051</v>
@@ -64059,7 +64053,7 @@
         <v>1070</v>
       </c>
       <c r="G307" s="24" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L307">
         <v>1700</v>
@@ -64086,7 +64080,7 @@
         <v>1800</v>
       </c>
       <c r="V307" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W307" t="str">
         <f t="shared" si="135"/>
@@ -64228,7 +64222,7 @@
         <v>[39.74352,-104.96954],</v>
       </c>
     </row>
-    <row r="308" spans="2:64" ht="18.75" customHeight="1">
+    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>958</v>
       </c>
@@ -64427,7 +64421,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:64" ht="18.75" customHeight="1">
+    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>231</v>
       </c>
@@ -64621,7 +64615,7 @@
       </c>
       <c r="BL309" s="7"/>
     </row>
-    <row r="310" spans="2:64" ht="18.75" customHeight="1">
+    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>897</v>
       </c>
@@ -64826,7 +64820,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:64" ht="18.75" customHeight="1">
+    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>163</v>
       </c>
@@ -65020,7 +65014,7 @@
       </c>
       <c r="BL311" s="7"/>
     </row>
-    <row r="312" spans="2:64" ht="18.75" customHeight="1">
+    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>164</v>
       </c>
@@ -65076,7 +65070,7 @@
         <v>431</v>
       </c>
       <c r="V312" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="W312">
         <f t="shared" si="135"/>
@@ -65226,7 +65220,7 @@
       </c>
       <c r="BL312" s="7"/>
     </row>
-    <row r="313" spans="2:64" ht="18.75" customHeight="1">
+    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>930</v>
       </c>
@@ -65431,7 +65425,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:64" ht="18.75" customHeight="1">
+    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>258</v>
       </c>
@@ -65595,7 +65589,7 @@
       </c>
       <c r="BL314" s="7"/>
     </row>
-    <row r="315" spans="2:64" ht="18.75" customHeight="1">
+    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>165</v>
       </c>
@@ -65827,32 +65821,32 @@
       <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1" t="s">
         <v>1209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1210</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1211</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1213</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1214</v>
       </c>
-      <c r="G1" t="s">
-        <v>1215</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>39.755760000000002</v>
       </c>
@@ -65860,40 +65854,40 @@
         <v>-104.99021</v>
       </c>
       <c r="C2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G2" t="s">
         <v>1216</v>
       </c>
-      <c r="G2" t="s">
-        <v>1217</v>
-      </c>
       <c r="J2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K2" t="s">
         <v>1209</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1210</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1211</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1212</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>1213</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1214</v>
       </c>
-      <c r="P2" t="s">
-        <v>1215</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>39.732250000000001</v>
       </c>
@@ -65901,16 +65895,16 @@
         <v>-105.00512999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G3" t="s">
         <v>1216</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1217</v>
       </c>
       <c r="J3">
         <v>39.771419999999999</v>
@@ -65919,19 +65913,19 @@
         <v>-105.04415</v>
       </c>
       <c r="L3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="M3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="O3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P3" t="s">
         <v>1216</v>
       </c>
-      <c r="P3" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>39.754260000000002</v>
       </c>
@@ -65939,16 +65933,16 @@
         <v>-104.99066000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G4" t="s">
         <v>1216</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1217</v>
       </c>
       <c r="J4">
         <v>39.769440000000003</v>
@@ -65957,19 +65951,19 @@
         <v>-104.97676</v>
       </c>
       <c r="L4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P4" t="s">
         <v>1216</v>
       </c>
-      <c r="P4" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>39.725490000000001</v>
       </c>
@@ -65977,16 +65971,16 @@
         <v>-104.97929000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G5" t="s">
         <v>1216</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1217</v>
       </c>
       <c r="J5">
         <v>39.761319999999998</v>
@@ -65995,19 +65989,19 @@
         <v>-104.98376</v>
       </c>
       <c r="L5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="M5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="O5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P5" t="s">
         <v>1216</v>
       </c>
-      <c r="P5" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>39.753819999999997</v>
       </c>
@@ -66015,16 +66009,16 @@
         <v>-104.99643</v>
       </c>
       <c r="C6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G6" t="s">
         <v>1216</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1217</v>
       </c>
       <c r="J6">
         <v>39.743519999999997</v>
@@ -66033,19 +66027,19 @@
         <v>-104.96953999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="M6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P6" t="s">
         <v>1216</v>
       </c>
-      <c r="P6" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>39.709600000000002</v>
       </c>
@@ -66053,16 +66047,16 @@
         <v>-104.98058</v>
       </c>
       <c r="C7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G7" t="s">
         <v>1216</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1217</v>
       </c>
       <c r="J7">
         <v>39.753050000000002</v>
@@ -66071,19 +66065,19 @@
         <v>-104.99995</v>
       </c>
       <c r="L7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P7" t="s">
         <v>1216</v>
       </c>
-      <c r="P7" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>39.76211</v>
       </c>
@@ -66091,16 +66085,16 @@
         <v>-105.01622999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G8" t="s">
         <v>1216</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1217</v>
       </c>
       <c r="J8">
         <v>39.769440000000003</v>
@@ -66109,19 +66103,19 @@
         <v>-104.97676</v>
       </c>
       <c r="L8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P8" t="s">
         <v>1216</v>
       </c>
-      <c r="P8" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>39.748190000000001</v>
       </c>
@@ -66129,19 +66123,19 @@
         <v>-104.99897</v>
       </c>
       <c r="C9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G9" t="s">
         <v>1216</v>
       </c>
-      <c r="G9" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>39.759590000000003</v>
       </c>
@@ -66149,19 +66143,19 @@
         <v>-104.98604</v>
       </c>
       <c r="C10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G10" t="s">
         <v>1216</v>
       </c>
-      <c r="G10" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>39.727409999999999</v>
       </c>
@@ -66169,19 +66163,19 @@
         <v>-104.98388</v>
       </c>
       <c r="C11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G11" t="s">
         <v>1216</v>
       </c>
-      <c r="G11" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>39.763539999999999</v>
       </c>
@@ -66189,19 +66183,19 @@
         <v>-105.01106</v>
       </c>
       <c r="C12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G12" t="s">
         <v>1216</v>
       </c>
-      <c r="G12" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>39.768740000000001</v>
       </c>
@@ -66209,19 +66203,19 @@
         <v>-104.9798</v>
       </c>
       <c r="C13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G13" t="s">
         <v>1216</v>
       </c>
-      <c r="G13" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>39.751339999999999</v>
       </c>
@@ -66229,19 +66223,19 @@
         <v>-105.00048</v>
       </c>
       <c r="C14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G14" t="s">
         <v>1216</v>
       </c>
-      <c r="G14" t="s">
-        <v>1217</v>
-      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>39.717610000000001</v>
       </c>
@@ -66249,16 +66243,16 @@
         <v>-104.94761</v>
       </c>
       <c r="C15" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G15" t="s">
         <v>1216</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1217</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B753521-E5B0-48FB-86E5-66F7A62A68F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$282</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3902,10 +3904,6 @@
     <t>$4 draft specials and $6 specialty 'Tails and select wines; $6 small plates or $15 for three (served at the Counter)</t>
   </si>
   <si>
-    <t>Half off all glasses of wine &lt;br&gt; Diebolt Brewery Anton Francois French Ale 3.00 &lt;br&gt; Cocktail of the day  6.00 &lt;br&gt;Moules 9.50&lt;br&gt;Cheese Burger 9.50&lt;br&gt;Pate Maison 5.50&lt;br&gt;Chicken Liver Mousse 6.50&lt;br&gt;
-Soupe a lOignon 5.00&lt;br&gt;Pommes Frites 3.00&lt;br&gt;Oozy and Boozy 9.00&lt;br&gt;Just Oozy 6.00&lt;br&gt;Socca Frites 3.50&lt;br&gt;Crispy Shrimp 5.00&lt;br&gt;</t>
-  </si>
-  <si>
     <t>4151 E. County Line Rd. Unit G Centennial CO</t>
   </si>
   <si>
@@ -3928,13 +3926,16 @@
   </si>
   <si>
     <t>2-for-1 wells, house wines and select domestic drafts, $1 off all craft and imported draft beers, and $4 Fireball shots; $7 snack menu &lt;br&gt;Daily food specials&lt;br&gt;Weekend drink specials 1pm-10pm</t>
+  </si>
+  <si>
+    <t>Half off all glasses of wine &lt;br&gt; Diebolt Brewery Anton Francois French Ale 3.00 &lt;br&gt; Cocktail of the day  6.00 &lt;br&gt;Moules 9.50&lt;br&gt;Cheese Burger 9.50&lt;br&gt;Pate Maison 5.50&lt;br&gt;Chicken Liver Mousse 6.50&lt;br&gt;Soupe a lOignon 5.00&lt;br&gt;Pommes Frites 3.00&lt;br&gt;Oozy and Boozy 9.00&lt;br&gt;Just Oozy 6.00&lt;br&gt;Socca Frites 3.50&lt;br&gt;Crispy Shrimp 5.00&lt;br&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4560,12 +4561,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -4584,11 +4585,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -4617,7 +4618,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4929,39 +4930,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.7265625" customWidth="1"/>
     <col min="8" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="10.28515625" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
+    <col min="36" max="36" width="10.26953125" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" customWidth="1"/>
-    <col min="44" max="49" width="8.7109375" customWidth="1"/>
-    <col min="50" max="50" width="90.5703125" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" customWidth="1"/>
-    <col min="52" max="52" width="8.7109375" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" customWidth="1"/>
-    <col min="54" max="55" width="8.7109375" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" customWidth="1"/>
-    <col min="57" max="57" width="53.5703125" customWidth="1"/>
-    <col min="58" max="58" width="18.5703125" customWidth="1"/>
+    <col min="40" max="42" width="10.26953125" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" customWidth="1"/>
+    <col min="44" max="49" width="8.7265625" customWidth="1"/>
+    <col min="50" max="50" width="90.54296875" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" customWidth="1"/>
+    <col min="52" max="52" width="8.7265625" customWidth="1"/>
+    <col min="53" max="53" width="10.1796875" customWidth="1"/>
+    <col min="54" max="55" width="8.7265625" customWidth="1"/>
+    <col min="56" max="56" width="11.453125" customWidth="1"/>
+    <col min="57" max="57" width="53.54296875" customWidth="1"/>
+    <col min="58" max="58" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1">
       <c r="B2" t="s">
         <v>165</v>
       </c>
@@ -5327,7 +5328,7 @@
       </c>
       <c r="BL2" s="7"/>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1">
       <c r="B3" t="s">
         <v>1129</v>
       </c>
@@ -5517,7 +5518,7 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1">
       <c r="B4" t="s">
         <v>938</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1">
       <c r="B5" t="s">
         <v>938</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1">
       <c r="B6" t="s">
         <v>867</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1">
       <c r="B7" t="s">
         <v>1104</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1">
       <c r="B8" t="s">
         <v>166</v>
       </c>
@@ -6522,7 +6523,7 @@
       </c>
       <c r="BL8" s="7"/>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1">
       <c r="B9" t="s">
         <v>1180</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -6929,7 +6930,7 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1">
       <c r="B11" t="s">
         <v>231</v>
       </c>
@@ -7123,7 +7124,7 @@
       </c>
       <c r="BL11" s="7"/>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1">
       <c r="B12" t="s">
         <v>246</v>
       </c>
@@ -7332,7 +7333,7 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1">
       <c r="B13" t="s">
         <v>1217</v>
       </c>
@@ -7541,7 +7542,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1">
       <c r="B14" t="s">
         <v>1146</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1">
       <c r="B15" t="s">
         <v>914</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1">
       <c r="B16" t="s">
         <v>1150</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1">
       <c r="B17" t="s">
         <v>834</v>
       </c>
@@ -8296,7 +8297,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1">
       <c r="B18" t="s">
         <v>846</v>
       </c>
@@ -8489,7 +8490,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1">
       <c r="B19" t="s">
         <v>60</v>
       </c>
@@ -8695,7 +8696,7 @@
       </c>
       <c r="BL19" s="7"/>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1">
       <c r="B20" t="s">
         <v>926</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1">
       <c r="B21" t="s">
         <v>61</v>
       </c>
@@ -9058,7 +9059,7 @@
       </c>
       <c r="BL21" s="7"/>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1">
       <c r="B22" t="s">
         <v>236</v>
       </c>
@@ -9222,7 +9223,7 @@
       </c>
       <c r="BL22" s="7"/>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1">
       <c r="B23" t="s">
         <v>62</v>
       </c>
@@ -9428,7 +9429,7 @@
       </c>
       <c r="BL23" s="7"/>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>850</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1">
       <c r="B25" t="s">
         <v>63</v>
       </c>
@@ -9791,7 +9792,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -9997,7 +9998,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -10203,7 +10204,7 @@
       </c>
       <c r="BL27" s="7"/>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1">
       <c r="B28" t="s">
         <v>892</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1">
       <c r="B29" t="s">
         <v>912</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1">
       <c r="B30" t="s">
         <v>888</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1">
       <c r="B31" t="s">
         <v>167</v>
       </c>
@@ -10949,7 +10950,7 @@
       </c>
       <c r="BL31" s="7"/>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1">
       <c r="B32" t="s">
         <v>248</v>
       </c>
@@ -11113,7 +11114,7 @@
       </c>
       <c r="BL32" s="7"/>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -11307,7 +11308,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1">
       <c r="B34" t="s">
         <v>1123</v>
       </c>
@@ -11463,7 +11464,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1">
       <c r="B35" t="s">
         <v>169</v>
       </c>
@@ -11657,7 +11658,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1">
       <c r="B36" t="s">
         <v>1260</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1">
       <c r="B37" t="s">
         <v>239</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>423</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="W37">
         <f t="shared" si="0"/>
@@ -12002,8 +12003,7 @@
         <v>{
     'name': "Bistro Vendome",
     'area': "larimer",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1700", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "Half off all glasses of wine &lt;br&gt; Diebolt Brewery Anton Francois French Ale 3.00 &lt;br&gt; Cocktail of the day  6.00 &lt;br&gt;Moules 9.50&lt;br&gt;Cheese Burger 9.50&lt;br&gt;Pate Maison 5.50&lt;br&gt;Chicken Liver Mousse 6.50&lt;br&gt;
-Soupe a lOignon 5.00&lt;br&gt;Pommes Frites 3.00&lt;br&gt;Oozy and Boozy 9.00&lt;br&gt;Just Oozy 6.00&lt;br&gt;Socca Frites 3.50&lt;br&gt;Crispy Shrimp 5.00&lt;br&gt;", 'link':"http://www.bistrovendome.com/", 'pricing':"med",   'phone-number': "", 'address': "1705, 1420 Larimer St, Denver, CO ", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1700", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "Half off all glasses of wine &lt;br&gt; Diebolt Brewery Anton Francois French Ale 3.00 &lt;br&gt; Cocktail of the day  6.00 &lt;br&gt;Moules 9.50&lt;br&gt;Cheese Burger 9.50&lt;br&gt;Pate Maison 5.50&lt;br&gt;Chicken Liver Mousse 6.50&lt;br&gt;Soupe a lOignon 5.00&lt;br&gt;Pommes Frites 3.00&lt;br&gt;Oozy and Boozy 9.00&lt;br&gt;Just Oozy 6.00&lt;br&gt;Socca Frites 3.50&lt;br&gt;Crispy Shrimp 5.00&lt;br&gt;", 'link':"http://www.bistrovendome.com/", 'pricing':"med",   'phone-number': "", 'address': "1705, 1420 Larimer St, Denver, CO ", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY37" t="str">
         <f t="shared" si="22"/>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1">
       <c r="B38" t="s">
         <v>929</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1">
       <c r="B39" t="s">
         <v>66</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1">
       <c r="B40" t="s">
         <v>170</v>
       </c>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="BL40" s="7"/>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="18.75" customHeight="1">
       <c r="B41" t="s">
         <v>171</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>1061</v>
       </c>
       <c r="G41" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J41">
         <v>1500</v>
@@ -12690,7 +12690,7 @@
         <v>1800</v>
       </c>
       <c r="V41" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="0"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="18.75" customHeight="1">
       <c r="B42" t="s">
         <v>1183</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>[39.75134,-105.00048],</v>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="18.75" customHeight="1">
       <c r="B43" t="s">
         <v>67</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>421</v>
       </c>
       <c r="V43" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="W43">
         <f t="shared" si="0"/>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="18.75" customHeight="1">
       <c r="B44" t="s">
         <v>1108</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>[39.781885,-104.891501],</v>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="18.75" customHeight="1">
       <c r="B45" t="s">
         <v>68</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>421</v>
       </c>
       <c r="V45" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="0"/>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="BL45" s="7"/>
     </row>
-    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="18.75" customHeight="1">
       <c r="B46" t="s">
         <v>838</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="18.75" customHeight="1">
       <c r="B47" t="s">
         <v>1227</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>[39.7499044,-104.9997273],</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="18.75" customHeight="1">
       <c r="B48" t="s">
         <v>250</v>
       </c>
@@ -14161,7 +14161,7 @@
       </c>
       <c r="BL48" s="7"/>
     </row>
-    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="18.75" customHeight="1">
       <c r="B49" t="s">
         <v>252</v>
       </c>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="BL49" s="7"/>
     </row>
-    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="18.75" customHeight="1">
       <c r="B50" t="s">
         <v>69</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="18.75" customHeight="1">
       <c r="B51" t="s">
         <v>1143</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>[39.73225,-105.00513],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="18.75" customHeight="1">
       <c r="B52" t="s">
         <v>1160</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>1900</v>
       </c>
       <c r="V52" s="21" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="0"/>
@@ -14861,7 +14861,7 @@
         <v>[39.7096,-104.98058],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="18.75" customHeight="1">
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>421</v>
       </c>
       <c r="V53" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W53">
         <f t="shared" si="0"/>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="BL53" s="7"/>
     </row>
-    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="18.75" customHeight="1">
       <c r="B54" t="s">
         <v>71</v>
       </c>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="BL54" s="7"/>
     </row>
-    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="18.75" customHeight="1">
       <c r="B55" t="s">
         <v>832</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="18.75" customHeight="1">
       <c r="B56" t="s">
         <v>72</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="18.75" customHeight="1">
       <c r="B57" t="s">
         <v>873</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:64" ht="18.75" customHeight="1">
       <c r="B58" t="s">
         <v>172</v>
       </c>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="BL58" s="7"/>
     </row>
-    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="18.75" customHeight="1">
       <c r="B59" t="s">
         <v>263</v>
       </c>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="BL59" s="7"/>
     </row>
-    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="18.75" customHeight="1">
       <c r="B60" t="s">
         <v>73</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>421</v>
       </c>
       <c r="V60" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W60">
         <f t="shared" si="0"/>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="18.75" customHeight="1">
       <c r="B61" t="s">
         <v>173</v>
       </c>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="18.75" customHeight="1">
       <c r="B62" t="s">
         <v>1126</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>[39.692846,-104.980251],</v>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="18.75" customHeight="1">
       <c r="B63" t="s">
         <v>859</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="18.75" customHeight="1">
       <c r="B64" t="s">
         <v>74</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>422</v>
       </c>
       <c r="V64" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="0"/>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="BL64" s="7"/>
     </row>
-    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="18.75" customHeight="1">
       <c r="B65" t="s">
         <v>842</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="18.75" customHeight="1">
       <c r="B66" t="s">
         <v>174</v>
       </c>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="18.75" customHeight="1">
       <c r="B67" t="s">
         <v>75</v>
       </c>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="BL67" s="7"/>
     </row>
-    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="18.75" customHeight="1">
       <c r="B68" t="s">
         <v>76</v>
       </c>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="18.75" customHeight="1">
       <c r="B69" t="s">
         <v>1278</v>
       </c>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="18.75" customHeight="1">
       <c r="B70" t="s">
         <v>175</v>
       </c>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="18.75" customHeight="1">
       <c r="B71" t="s">
         <v>176</v>
       </c>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="18.75" customHeight="1">
       <c r="B72" t="s">
         <v>877</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="18.75" customHeight="1">
       <c r="B73" t="s">
         <v>177</v>
       </c>
@@ -18979,7 +18979,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="18.75" customHeight="1">
       <c r="B74" t="s">
         <v>247</v>
       </c>
@@ -19188,7 +19188,7 @@
       </c>
       <c r="BL74" s="7"/>
     </row>
-    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="18.75" customHeight="1">
       <c r="B75" t="s">
         <v>1234</v>
       </c>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="18.75" customHeight="1">
       <c r="B76" t="s">
         <v>178</v>
       </c>
@@ -19578,7 +19578,7 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="18.75" customHeight="1">
       <c r="B77" t="s">
         <v>896</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="18.75" customHeight="1">
       <c r="B78" t="s">
         <v>844</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="18.75" customHeight="1">
       <c r="B79" t="s">
         <v>77</v>
       </c>
@@ -20182,7 +20182,7 @@
       </c>
       <c r="BL79" s="7"/>
     </row>
-    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="18.75" customHeight="1">
       <c r="B80" t="s">
         <v>78</v>
       </c>
@@ -20370,7 +20370,7 @@
       </c>
       <c r="BL80" s="7"/>
     </row>
-    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="18.75" customHeight="1">
       <c r="B81" t="s">
         <v>241</v>
       </c>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="BL81" s="7"/>
     </row>
-    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="18.75" customHeight="1">
       <c r="B82" t="s">
         <v>179</v>
       </c>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="18.75" customHeight="1">
       <c r="B83" t="s">
         <v>1096</v>
       </c>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="BL83" s="7"/>
     </row>
-    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="18.75" customHeight="1">
       <c r="B84" t="s">
         <v>253</v>
       </c>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="18.75" customHeight="1">
       <c r="B85" t="s">
         <v>180</v>
       </c>
@@ -21285,7 +21285,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="18.75" customHeight="1">
       <c r="B86" t="s">
         <v>181</v>
       </c>
@@ -21479,7 +21479,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="18.75" customHeight="1">
       <c r="B87" t="s">
         <v>1246</v>
       </c>
@@ -21681,7 +21681,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="18.75" customHeight="1">
       <c r="B88" t="s">
         <v>1109</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>[39.694056,-104.987055],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="18.75" customHeight="1">
       <c r="B89" t="s">
         <v>182</v>
       </c>
@@ -22031,7 +22031,7 @@
       </c>
       <c r="BL89" s="7"/>
     </row>
-    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="18.75" customHeight="1">
       <c r="B90" t="s">
         <v>183</v>
       </c>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="BL90" s="7"/>
     </row>
-    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="18.75" customHeight="1">
       <c r="B91" t="s">
         <v>249</v>
       </c>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="18.75" customHeight="1">
       <c r="B92" t="s">
         <v>1162</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>[39.76211,-105.01623],</v>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="18.75" customHeight="1">
       <c r="B93" t="s">
         <v>79</v>
       </c>
@@ -22847,7 +22847,7 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="18.75" customHeight="1">
       <c r="B94" t="s">
         <v>184</v>
       </c>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="BL94" s="7"/>
     </row>
-    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="18.75" customHeight="1">
       <c r="B95" t="s">
         <v>58</v>
       </c>
@@ -23247,7 +23247,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="18.75" customHeight="1">
       <c r="B96" t="s">
         <v>80</v>
       </c>
@@ -23441,7 +23441,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="18.75" customHeight="1">
       <c r="B97" t="s">
         <v>81</v>
       </c>
@@ -23650,7 +23650,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="18.75" customHeight="1">
       <c r="B98" t="s">
         <v>934</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="18.75" customHeight="1">
       <c r="B99" t="s">
         <v>863</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="18.75" customHeight="1">
       <c r="B100" t="s">
         <v>82</v>
       </c>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="BL100" s="7"/>
     </row>
-    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="18.75" customHeight="1">
       <c r="B101" t="s">
         <v>265</v>
       </c>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="BL101" s="7"/>
     </row>
-    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="18.75" customHeight="1">
       <c r="B102" t="s">
         <v>83</v>
       </c>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="18.75" customHeight="1">
       <c r="B103" t="s">
         <v>255</v>
       </c>
@@ -24800,7 +24800,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="18.75" customHeight="1">
       <c r="B104" t="s">
         <v>84</v>
       </c>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="18.75" customHeight="1">
       <c r="B105" t="s">
         <v>894</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="18.75" customHeight="1">
       <c r="B106" t="s">
         <v>854</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="18.75" customHeight="1">
       <c r="B107" t="s">
         <v>85</v>
       </c>
@@ -25541,7 +25541,7 @@
       </c>
       <c r="BL107" s="7"/>
     </row>
-    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="18.75" customHeight="1">
       <c r="B108" t="s">
         <v>185</v>
       </c>
@@ -25729,7 +25729,7 @@
       </c>
       <c r="BL108" s="7"/>
     </row>
-    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="18.75" customHeight="1">
       <c r="B109" t="s">
         <v>86</v>
       </c>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="18.75" customHeight="1">
       <c r="B110" t="s">
         <v>186</v>
       </c>
@@ -26129,7 +26129,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="18.75" customHeight="1">
       <c r="B111" t="s">
         <v>87</v>
       </c>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="18.75" customHeight="1">
       <c r="B112" t="s">
         <v>245</v>
       </c>
@@ -26499,7 +26499,7 @@
       </c>
       <c r="BL112" s="7"/>
     </row>
-    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="18.75" customHeight="1">
       <c r="B113" t="s">
         <v>88</v>
       </c>
@@ -26660,7 +26660,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="18.75" customHeight="1">
       <c r="B114" t="s">
         <v>883</v>
       </c>
@@ -26859,7 +26859,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="18.75" customHeight="1">
       <c r="B115" t="s">
         <v>89</v>
       </c>
@@ -27065,7 +27065,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="18.75" customHeight="1">
       <c r="B116" t="s">
         <v>90</v>
       </c>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="BL116" s="7"/>
     </row>
-    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="18.75" customHeight="1">
       <c r="B117" t="s">
         <v>922</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="18.75" customHeight="1">
       <c r="B118" t="s">
         <v>187</v>
       </c>
@@ -27667,7 +27667,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="18.75" customHeight="1">
       <c r="B119" t="s">
         <v>232</v>
       </c>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="18.75" customHeight="1">
       <c r="B120" t="s">
         <v>188</v>
       </c>
@@ -28047,7 +28047,7 @@
       </c>
       <c r="BL120" s="7"/>
     </row>
-    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="18.75" customHeight="1">
       <c r="B121" t="s">
         <v>91</v>
       </c>
@@ -28241,7 +28241,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="18.75" customHeight="1">
       <c r="B122" t="s">
         <v>92</v>
       </c>
@@ -28438,7 +28438,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="18.75" customHeight="1">
       <c r="B123" t="s">
         <v>93</v>
       </c>
@@ -28647,7 +28647,7 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="18.75" customHeight="1">
       <c r="B124" t="s">
         <v>240</v>
       </c>
@@ -28844,7 +28844,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="18.75" customHeight="1">
       <c r="B125" t="s">
         <v>189</v>
       </c>
@@ -29044,7 +29044,7 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="18.75" customHeight="1">
       <c r="B126" t="s">
         <v>190</v>
       </c>
@@ -29238,7 +29238,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="18.75" customHeight="1">
       <c r="B127" t="s">
         <v>94</v>
       </c>
@@ -29444,7 +29444,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="18.75" customHeight="1">
       <c r="B128" t="s">
         <v>898</v>
       </c>
@@ -29604,7 +29604,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="18.75" customHeight="1">
       <c r="B129" t="s">
         <v>95</v>
       </c>
@@ -29814,7 +29814,7 @@
       </c>
       <c r="BL129" s="7"/>
     </row>
-    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="18.75" customHeight="1">
       <c r="B130" t="s">
         <v>96</v>
       </c>
@@ -30008,7 +30008,7 @@
       </c>
       <c r="BL130" s="7"/>
     </row>
-    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="18.75" customHeight="1">
       <c r="B131" t="s">
         <v>1135</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>[39.75576,-104.99021],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="18.75" customHeight="1">
       <c r="B132" t="s">
         <v>97</v>
       </c>
@@ -30418,7 +30418,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="18.75" customHeight="1">
       <c r="B133" s="1" t="s">
         <v>852</v>
       </c>
@@ -30578,7 +30578,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="18.75" customHeight="1">
       <c r="B134" t="s">
         <v>98</v>
       </c>
@@ -30784,7 +30784,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="18.75" customHeight="1">
       <c r="B135" t="s">
         <v>99</v>
       </c>
@@ -30978,7 +30978,7 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="18.75" customHeight="1">
       <c r="B136" t="s">
         <v>100</v>
       </c>
@@ -31187,7 +31187,7 @@
       </c>
       <c r="BL136" s="7"/>
     </row>
-    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="18.75" customHeight="1">
       <c r="B137" t="s">
         <v>1242</v>
       </c>
@@ -31377,7 +31377,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="18.75" customHeight="1">
       <c r="B138" t="s">
         <v>233</v>
       </c>
@@ -31574,7 +31574,7 @@
       </c>
       <c r="BL138" s="7"/>
     </row>
-    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="18.75" customHeight="1">
       <c r="B139" t="s">
         <v>101</v>
       </c>
@@ -31738,7 +31738,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="18.75" customHeight="1">
       <c r="B140" s="9" t="s">
         <v>102</v>
       </c>
@@ -31947,7 +31947,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="18.75" customHeight="1">
       <c r="B141" t="s">
         <v>103</v>
       </c>
@@ -32153,7 +32153,7 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="18.75" customHeight="1">
       <c r="B142" t="s">
         <v>104</v>
       </c>
@@ -32359,7 +32359,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="18.75" customHeight="1">
       <c r="B143" t="s">
         <v>1154</v>
       </c>
@@ -32560,7 +32560,7 @@
         <v>[39.75382,-104.99643],</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="18.75" customHeight="1">
       <c r="B144" t="s">
         <v>105</v>
       </c>
@@ -32766,7 +32766,7 @@
       </c>
       <c r="BL144" s="7"/>
     </row>
-    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="18.75" customHeight="1">
       <c r="B145" t="s">
         <v>1263</v>
       </c>
@@ -32964,7 +32964,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="18.75" customHeight="1">
       <c r="B146" t="s">
         <v>191</v>
       </c>
@@ -33140,7 +33140,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="18.75" customHeight="1">
       <c r="B147" t="s">
         <v>106</v>
       </c>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="BL147" s="7"/>
     </row>
-    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="18.75" customHeight="1">
       <c r="B148" t="s">
         <v>107</v>
       </c>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="BL148" s="7"/>
     </row>
-    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="18.75" customHeight="1">
       <c r="B149" t="s">
         <v>908</v>
       </c>
@@ -33739,7 +33739,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="18.75" customHeight="1">
       <c r="B150" t="s">
         <v>828</v>
       </c>
@@ -33938,7 +33938,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="18.75" customHeight="1">
       <c r="B151" t="s">
         <v>848</v>
       </c>
@@ -34143,7 +34143,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="18.75" customHeight="1">
       <c r="B152" t="s">
         <v>1230</v>
       </c>
@@ -34338,7 +34338,7 @@
         <v>[39.7505999,-104.9994734],</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="18.75" customHeight="1">
       <c r="B153" t="s">
         <v>108</v>
       </c>
@@ -34544,7 +34544,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="18.75" customHeight="1">
       <c r="B154" t="s">
         <v>192</v>
       </c>
@@ -34735,7 +34735,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="18.75" customHeight="1">
       <c r="B155" t="s">
         <v>193</v>
       </c>
@@ -34932,7 +34932,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="18.75" customHeight="1">
       <c r="B156" t="s">
         <v>109</v>
       </c>
@@ -35132,7 +35132,7 @@
       </c>
       <c r="BL156" s="7"/>
     </row>
-    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="18.75" customHeight="1">
       <c r="B157" t="s">
         <v>194</v>
       </c>
@@ -35329,7 +35329,7 @@
       </c>
       <c r="BL157" s="7"/>
     </row>
-    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="18.75" customHeight="1">
       <c r="B158" t="s">
         <v>110</v>
       </c>
@@ -35526,7 +35526,7 @@
       </c>
       <c r="BL158" s="7"/>
     </row>
-    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="18.75" customHeight="1">
       <c r="B159" t="s">
         <v>111</v>
       </c>
@@ -35720,7 +35720,7 @@
       </c>
       <c r="BL159" s="7"/>
     </row>
-    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="18.75" customHeight="1">
       <c r="B160" t="s">
         <v>112</v>
       </c>
@@ -35914,7 +35914,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="18.75" customHeight="1">
       <c r="B161" t="s">
         <v>113</v>
       </c>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="18.75" customHeight="1">
       <c r="B162" t="s">
         <v>195</v>
       </c>
@@ -36311,7 +36311,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="18.75" customHeight="1">
       <c r="B163" t="s">
         <v>196</v>
       </c>
@@ -36505,7 +36505,7 @@
       </c>
       <c r="BL163" s="7"/>
     </row>
-    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="18.75" customHeight="1">
       <c r="B164" t="s">
         <v>972</v>
       </c>
@@ -36698,7 +36698,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="18.75" customHeight="1">
       <c r="B165" t="s">
         <v>114</v>
       </c>
@@ -36904,7 +36904,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="18.75" customHeight="1">
       <c r="B166" t="s">
         <v>197</v>
       </c>
@@ -37098,7 +37098,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="18.75" customHeight="1">
       <c r="B167" t="s">
         <v>198</v>
       </c>
@@ -37292,7 +37292,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="18.75" customHeight="1">
       <c r="B168" t="s">
         <v>115</v>
       </c>
@@ -37498,7 +37498,7 @@
       </c>
       <c r="BL168" s="7"/>
     </row>
-    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="18.75" customHeight="1">
       <c r="B169" t="s">
         <v>116</v>
       </c>
@@ -37704,7 +37704,7 @@
       </c>
       <c r="BL169" s="7"/>
     </row>
-    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="18.75" customHeight="1">
       <c r="B170" t="s">
         <v>117</v>
       </c>
@@ -37910,7 +37910,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="18.75" customHeight="1">
       <c r="B171" t="s">
         <v>118</v>
       </c>
@@ -38116,7 +38116,7 @@
       </c>
       <c r="BL171" s="7"/>
     </row>
-    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="18.75" customHeight="1">
       <c r="B172" t="s">
         <v>119</v>
       </c>
@@ -38322,7 +38322,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="18.75" customHeight="1">
       <c r="B173" t="s">
         <v>120</v>
       </c>
@@ -38516,7 +38516,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="18.75" customHeight="1">
       <c r="B174" t="s">
         <v>199</v>
       </c>
@@ -38710,7 +38710,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="18.75" customHeight="1">
       <c r="B175" t="s">
         <v>258</v>
       </c>
@@ -38919,7 +38919,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="18.75" customHeight="1">
       <c r="B176" t="s">
         <v>121</v>
       </c>
@@ -39125,7 +39125,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:64" ht="18.75" customHeight="1">
       <c r="B177" t="s">
         <v>200</v>
       </c>
@@ -39319,7 +39319,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:64" ht="18.75" customHeight="1">
       <c r="B178" t="s">
         <v>122</v>
       </c>
@@ -39525,7 +39525,7 @@
       </c>
       <c r="BL178" s="7"/>
     </row>
-    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:64" ht="18.75" customHeight="1">
       <c r="B179" t="s">
         <v>201</v>
       </c>
@@ -39719,7 +39719,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:64" ht="18.75" customHeight="1">
       <c r="B180" t="s">
         <v>123</v>
       </c>
@@ -39925,7 +39925,7 @@
       </c>
       <c r="BL180" s="7"/>
     </row>
-    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:64" ht="18.75" customHeight="1">
       <c r="B181" t="s">
         <v>259</v>
       </c>
@@ -40122,7 +40122,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:64" ht="18.75" customHeight="1">
       <c r="B182" s="1" t="s">
         <v>861</v>
       </c>
@@ -40309,7 +40309,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:64" ht="18.75" customHeight="1">
       <c r="B183" t="s">
         <v>869</v>
       </c>
@@ -40514,7 +40514,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:64" ht="18.75" customHeight="1">
       <c r="B184" t="s">
         <v>124</v>
       </c>
@@ -40720,7 +40720,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:64" ht="18.75" customHeight="1">
       <c r="B185" t="s">
         <v>234</v>
       </c>
@@ -40914,7 +40914,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:64" ht="18.75" customHeight="1">
       <c r="B186" t="s">
         <v>264</v>
       </c>
@@ -41099,7 +41099,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:64" ht="18.75" customHeight="1">
       <c r="B187" t="s">
         <v>940</v>
       </c>
@@ -41304,7 +41304,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:64" ht="18.75" customHeight="1">
       <c r="B188" t="s">
         <v>875</v>
       </c>
@@ -41461,7 +41461,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:64" ht="18.75" customHeight="1">
       <c r="B189" t="s">
         <v>202</v>
       </c>
@@ -41661,7 +41661,7 @@
       </c>
       <c r="BL189" s="7"/>
     </row>
-    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:64" ht="18.75" customHeight="1">
       <c r="B190" t="s">
         <v>1110</v>
       </c>
@@ -41817,7 +41817,7 @@
         <v>[39.677478,-104.914182],</v>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:64" ht="18.75" customHeight="1">
       <c r="B191" t="s">
         <v>856</v>
       </c>
@@ -42022,7 +42022,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:64" ht="18.75" customHeight="1">
       <c r="B192" t="s">
         <v>203</v>
       </c>
@@ -42216,7 +42216,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:64" ht="18.75" customHeight="1">
       <c r="B193" s="6" t="s">
         <v>204</v>
       </c>
@@ -42414,7 +42414,7 @@
       </c>
       <c r="BL193" s="7"/>
     </row>
-    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:64" ht="18.75" customHeight="1">
       <c r="B194" t="s">
         <v>205</v>
       </c>
@@ -42608,7 +42608,7 @@
       </c>
       <c r="BL194" s="7"/>
     </row>
-    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:64" ht="18.75" customHeight="1">
       <c r="B195" t="s">
         <v>206</v>
       </c>
@@ -42802,7 +42802,7 @@
       </c>
       <c r="BL195" s="7"/>
     </row>
-    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:64" ht="18.75" customHeight="1">
       <c r="B196" t="s">
         <v>1176</v>
       </c>
@@ -42985,7 +42985,7 @@
         <v>[39.76354,-105.01106],</v>
       </c>
     </row>
-    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:64" ht="18.75" customHeight="1">
       <c r="B197" t="s">
         <v>1187</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>[39.71761,-104.94761],</v>
       </c>
     </row>
-    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:64" ht="18.75" customHeight="1">
       <c r="B198" t="s">
         <v>207</v>
       </c>
@@ -43380,7 +43380,7 @@
       </c>
       <c r="BL198" s="7"/>
     </row>
-    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:64" ht="18.75" customHeight="1">
       <c r="B199" t="s">
         <v>1165</v>
       </c>
@@ -43569,7 +43569,7 @@
         <v>[39.74819,-104.99897],</v>
       </c>
     </row>
-    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:64" ht="18.75" customHeight="1">
       <c r="B200" t="s">
         <v>125</v>
       </c>
@@ -43763,7 +43763,7 @@
       </c>
       <c r="BL200" s="7"/>
     </row>
-    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:64" ht="18.75" customHeight="1">
       <c r="B201" t="s">
         <v>900</v>
       </c>
@@ -43956,7 +43956,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:64" ht="18.75" customHeight="1">
       <c r="B202" t="s">
         <v>1168</v>
       </c>
@@ -44145,7 +44145,7 @@
         <v>[39.75959,-104.98604],</v>
       </c>
     </row>
-    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:64" ht="18.75" customHeight="1">
       <c r="B203" t="s">
         <v>126</v>
       </c>
@@ -44345,7 +44345,7 @@
       </c>
       <c r="BL203" s="7"/>
     </row>
-    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:64" ht="18.75" customHeight="1">
       <c r="B204" t="s">
         <v>826</v>
       </c>
@@ -44535,7 +44535,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:64" ht="18.75" customHeight="1">
       <c r="B205" t="s">
         <v>127</v>
       </c>
@@ -44735,7 +44735,7 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:64" ht="18.75" customHeight="1">
       <c r="B206" t="s">
         <v>128</v>
       </c>
@@ -44941,7 +44941,7 @@
       </c>
       <c r="BL206" s="7"/>
     </row>
-    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:64" ht="18.75" customHeight="1">
       <c r="B207" t="s">
         <v>1132</v>
       </c>
@@ -45131,7 +45131,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:64" ht="18.75" customHeight="1">
       <c r="B208" t="s">
         <v>237</v>
       </c>
@@ -45322,7 +45322,7 @@
       </c>
       <c r="BL208" s="7"/>
     </row>
-    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:64" ht="18.75" customHeight="1">
       <c r="B209" t="s">
         <v>129</v>
       </c>
@@ -45531,7 +45531,7 @@
       </c>
       <c r="BL209" s="7"/>
     </row>
-    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:64" ht="18.75" customHeight="1">
       <c r="B210" t="s">
         <v>130</v>
       </c>
@@ -45725,7 +45725,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:64" ht="18.75" customHeight="1">
       <c r="B211" t="s">
         <v>208</v>
       </c>
@@ -45919,7 +45919,7 @@
       </c>
       <c r="BL211" s="7"/>
     </row>
-    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:64" ht="18.75" customHeight="1">
       <c r="B212" t="s">
         <v>261</v>
       </c>
@@ -46083,7 +46083,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:64" ht="18.75" customHeight="1">
       <c r="B213" t="s">
         <v>131</v>
       </c>
@@ -46277,7 +46277,7 @@
       </c>
       <c r="BL213" s="7"/>
     </row>
-    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:64" ht="18.75" customHeight="1">
       <c r="B214" t="s">
         <v>132</v>
       </c>
@@ -46483,7 +46483,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:64" ht="18.75" customHeight="1">
       <c r="B215" t="s">
         <v>871</v>
       </c>
@@ -46688,7 +46688,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:64" ht="18.75" customHeight="1">
       <c r="B216" t="s">
         <v>133</v>
       </c>
@@ -46894,7 +46894,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:64" ht="18.75" customHeight="1">
       <c r="B217" t="s">
         <v>251</v>
       </c>
@@ -47094,7 +47094,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:64" ht="18.75" customHeight="1">
       <c r="B218" t="s">
         <v>936</v>
       </c>
@@ -47254,7 +47254,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:64" ht="18.75" customHeight="1">
       <c r="B219" t="s">
         <v>260</v>
       </c>
@@ -47418,7 +47418,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:64" ht="18.75" customHeight="1">
       <c r="B220" t="s">
         <v>242</v>
       </c>
@@ -47616,7 +47616,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:64" ht="18.75" customHeight="1">
       <c r="B221" t="s">
         <v>134</v>
       </c>
@@ -47816,7 +47816,7 @@
       </c>
       <c r="BL221" s="7"/>
     </row>
-    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:64" ht="18.75" customHeight="1">
       <c r="B222" t="s">
         <v>135</v>
       </c>
@@ -48022,7 +48022,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:64" ht="18.75" customHeight="1">
       <c r="B223" t="s">
         <v>209</v>
       </c>
@@ -48216,7 +48216,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:64" ht="18.75" customHeight="1">
       <c r="B224" t="s">
         <v>136</v>
       </c>
@@ -48422,7 +48422,7 @@
       </c>
       <c r="BL224" s="7"/>
     </row>
-    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:64" ht="18.75" customHeight="1">
       <c r="B225" t="s">
         <v>904</v>
       </c>
@@ -48582,7 +48582,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:64" ht="18.75" customHeight="1">
       <c r="B226" t="s">
         <v>137</v>
       </c>
@@ -48776,7 +48776,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:64" ht="18.75" customHeight="1">
       <c r="B227" t="s">
         <v>138</v>
       </c>
@@ -48982,7 +48982,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:64" ht="18.75" customHeight="1">
       <c r="B228" t="s">
         <v>139</v>
       </c>
@@ -49188,7 +49188,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:64" ht="18.75" customHeight="1">
       <c r="B229" t="s">
         <v>262</v>
       </c>
@@ -49352,7 +49352,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:64" ht="18.75" customHeight="1">
       <c r="B230" t="s">
         <v>1239</v>
       </c>
@@ -49539,7 +49539,7 @@
       </c>
       <c r="BL230" s="7"/>
     </row>
-    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:64" ht="18.75" customHeight="1">
       <c r="B231" t="s">
         <v>140</v>
       </c>
@@ -49736,7 +49736,7 @@
       </c>
       <c r="BL231" s="7"/>
     </row>
-    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:64" ht="18.75" customHeight="1">
       <c r="B232" t="s">
         <v>840</v>
       </c>
@@ -49941,7 +49941,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:64" ht="18.75" customHeight="1">
       <c r="B233" t="s">
         <v>210</v>
       </c>
@@ -50135,7 +50135,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:64" ht="18.75" customHeight="1">
       <c r="B234" t="s">
         <v>916</v>
       </c>
@@ -50295,7 +50295,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:64" ht="18.75" customHeight="1">
       <c r="B235" t="s">
         <v>1111</v>
       </c>
@@ -50496,7 +50496,7 @@
         <v>[39.753306,-104.996116],</v>
       </c>
     </row>
-    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:64" ht="18.75" customHeight="1">
       <c r="B236" t="s">
         <v>211</v>
       </c>
@@ -50693,7 +50693,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:64" ht="18.75" customHeight="1">
       <c r="B237" t="s">
         <v>141</v>
       </c>
@@ -50893,7 +50893,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:64" ht="18.75" customHeight="1">
       <c r="B238" t="s">
         <v>1100</v>
       </c>
@@ -51050,7 +51050,7 @@
       </c>
       <c r="BL238" s="7"/>
     </row>
-    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:64" ht="18.75" customHeight="1">
       <c r="B239" t="s">
         <v>890</v>
       </c>
@@ -51255,7 +51255,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:64" ht="18.75" customHeight="1">
       <c r="B240" t="s">
         <v>142</v>
       </c>
@@ -51461,7 +51461,7 @@
       </c>
       <c r="BL240" s="7"/>
     </row>
-    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:64" ht="18.75" customHeight="1">
       <c r="B241" t="s">
         <v>906</v>
       </c>
@@ -51618,7 +51618,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:64" ht="18.75" customHeight="1">
       <c r="B242" t="s">
         <v>878</v>
       </c>
@@ -51824,7 +51824,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:64" ht="18.75" customHeight="1">
       <c r="B243" t="s">
         <v>212</v>
       </c>
@@ -52018,7 +52018,7 @@
       </c>
       <c r="BL243" s="7"/>
     </row>
-    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:64" ht="18.75" customHeight="1">
       <c r="B244" t="s">
         <v>213</v>
       </c>
@@ -52212,7 +52212,7 @@
       </c>
       <c r="BL244" s="7"/>
     </row>
-    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:64" ht="18.75" customHeight="1">
       <c r="B245" t="s">
         <v>214</v>
       </c>
@@ -52406,7 +52406,7 @@
       </c>
       <c r="BL245" s="7"/>
     </row>
-    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:64" ht="18.75" customHeight="1">
       <c r="B246" t="s">
         <v>1254</v>
       </c>
@@ -52596,7 +52596,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:64" ht="18.75" customHeight="1">
       <c r="B247" t="s">
         <v>215</v>
       </c>
@@ -52790,7 +52790,7 @@
       </c>
       <c r="BL247" s="7"/>
     </row>
-    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:64" ht="18.75" customHeight="1">
       <c r="B248" t="s">
         <v>143</v>
       </c>
@@ -52996,7 +52996,7 @@
       </c>
       <c r="BL248" s="7"/>
     </row>
-    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:64" ht="18.75" customHeight="1">
       <c r="B249" t="s">
         <v>256</v>
       </c>
@@ -53160,7 +53160,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:64" ht="18.75" customHeight="1">
       <c r="B250" t="s">
         <v>243</v>
       </c>
@@ -53324,7 +53324,7 @@
       </c>
       <c r="BL250" s="7"/>
     </row>
-    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:64" ht="18.75" customHeight="1">
       <c r="B251" t="s">
         <v>144</v>
       </c>
@@ -53530,7 +53530,7 @@
       </c>
       <c r="BL251" s="7"/>
     </row>
-    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:64" ht="18.75" customHeight="1">
       <c r="B252" t="s">
         <v>216</v>
       </c>
@@ -53724,7 +53724,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:64" ht="18.75" customHeight="1">
       <c r="B253" t="s">
         <v>1139</v>
       </c>
@@ -53919,7 +53919,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:64" ht="18.75" customHeight="1">
       <c r="B254" t="s">
         <v>217</v>
       </c>
@@ -54113,7 +54113,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:64" ht="18.75" customHeight="1">
       <c r="B255" t="s">
         <v>218</v>
       </c>
@@ -54307,7 +54307,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:64" ht="18.75" customHeight="1">
       <c r="B256" t="s">
         <v>1224</v>
       </c>
@@ -54509,7 +54509,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:64" ht="18.75" customHeight="1">
       <c r="B257" t="s">
         <v>1222</v>
       </c>
@@ -54703,7 +54703,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:64" ht="18.75" customHeight="1">
       <c r="B258" t="s">
         <v>145</v>
       </c>
@@ -54909,7 +54909,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:64" ht="18.75" customHeight="1">
       <c r="B259" t="s">
         <v>146</v>
       </c>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="BL259" s="7"/>
     </row>
-    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:64" ht="18.75" customHeight="1">
       <c r="B260" t="s">
         <v>219</v>
       </c>
@@ -55309,7 +55309,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:64" ht="18.75" customHeight="1">
       <c r="B261" t="s">
         <v>147</v>
       </c>
@@ -55518,7 +55518,7 @@
       </c>
       <c r="BL261" s="7"/>
     </row>
-    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:64" ht="18.75" customHeight="1">
       <c r="B262" t="s">
         <v>881</v>
       </c>
@@ -55678,7 +55678,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:64" ht="18.75" customHeight="1">
       <c r="B263" t="s">
         <v>148</v>
       </c>
@@ -55872,7 +55872,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:64" ht="18.75" customHeight="1">
       <c r="B264" t="s">
         <v>149</v>
       </c>
@@ -56069,7 +56069,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:64" ht="18.75" customHeight="1">
       <c r="B265" t="s">
         <v>150</v>
       </c>
@@ -56263,7 +56263,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:64" ht="18.75" customHeight="1">
       <c r="B266" t="s">
         <v>1112</v>
       </c>
@@ -56419,7 +56419,7 @@
         <v>[39.77126,-105.044258],</v>
       </c>
     </row>
-    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:64" ht="18.75" customHeight="1">
       <c r="B267" t="s">
         <v>220</v>
       </c>
@@ -56613,7 +56613,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:64" ht="18.75" customHeight="1">
       <c r="B268" t="s">
         <v>221</v>
       </c>
@@ -56807,7 +56807,7 @@
       </c>
       <c r="BL268" s="7"/>
     </row>
-    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:64" ht="18.75" customHeight="1">
       <c r="B269" t="s">
         <v>151</v>
       </c>
@@ -57001,7 +57001,7 @@
       </c>
       <c r="BL269" s="7"/>
     </row>
-    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:64" ht="18.75" customHeight="1">
       <c r="B270" t="s">
         <v>222</v>
       </c>
@@ -57195,7 +57195,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:64" ht="18.75" customHeight="1">
       <c r="B271" t="s">
         <v>152</v>
       </c>
@@ -57401,7 +57401,7 @@
       </c>
       <c r="BL271" s="7"/>
     </row>
-    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:64" ht="18.75" customHeight="1">
       <c r="B272" t="s">
         <v>223</v>
       </c>
@@ -57565,7 +57565,7 @@
       </c>
       <c r="BL272" s="7"/>
     </row>
-    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:64" ht="18.75" customHeight="1">
       <c r="B273" t="s">
         <v>836</v>
       </c>
@@ -57770,7 +57770,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:64" ht="18.75" customHeight="1">
       <c r="B274" t="s">
         <v>942</v>
       </c>
@@ -57975,7 +57975,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:64" ht="18.75" customHeight="1">
       <c r="B275" t="s">
         <v>1256</v>
       </c>
@@ -58173,7 +58173,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:64" ht="18.75" customHeight="1">
       <c r="B276" t="s">
         <v>235</v>
       </c>
@@ -58361,7 +58361,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:64" ht="18.75" customHeight="1">
       <c r="B277" t="s">
         <v>902</v>
       </c>
@@ -58560,7 +58560,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:64" ht="18.75" customHeight="1">
       <c r="B278" t="s">
         <v>910</v>
       </c>
@@ -58750,7 +58750,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:64" ht="18.75" customHeight="1">
       <c r="B279" t="s">
         <v>830</v>
       </c>
@@ -58955,7 +58955,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:64" ht="18.75" customHeight="1">
       <c r="B280" t="s">
         <v>244</v>
       </c>
@@ -59152,7 +59152,7 @@
       </c>
       <c r="BL280" s="7"/>
     </row>
-    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:64" ht="18.75" customHeight="1">
       <c r="B281" t="s">
         <v>865</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:64" ht="18.75" customHeight="1">
       <c r="B282" t="s">
         <v>918</v>
       </c>
@@ -59562,7 +59562,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:64" ht="18.75" customHeight="1">
       <c r="B283" t="s">
         <v>153</v>
       </c>
@@ -59765,7 +59765,7 @@
       </c>
       <c r="BL283" s="7"/>
     </row>
-    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:64" ht="18.75" customHeight="1">
       <c r="B284" t="s">
         <v>944</v>
       </c>
@@ -59970,7 +59970,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:64" ht="18.75" customHeight="1">
       <c r="B285" t="s">
         <v>879</v>
       </c>
@@ -60169,7 +60169,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:64" ht="18.75" customHeight="1">
       <c r="B286" t="s">
         <v>154</v>
       </c>
@@ -60375,7 +60375,7 @@
       </c>
       <c r="BL286" s="7"/>
     </row>
-    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:64" ht="18.75" customHeight="1">
       <c r="B287" t="s">
         <v>238</v>
       </c>
@@ -60584,7 +60584,7 @@
       </c>
       <c r="BL287" s="7"/>
     </row>
-    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:64" ht="18.75" customHeight="1">
       <c r="B288" t="s">
         <v>155</v>
       </c>
@@ -60790,7 +60790,7 @@
       </c>
       <c r="BL288" s="7"/>
     </row>
-    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:64" ht="18.75" customHeight="1">
       <c r="B289" t="s">
         <v>156</v>
       </c>
@@ -60984,7 +60984,7 @@
       </c>
       <c r="BL289" s="7"/>
     </row>
-    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:64" ht="18.75" customHeight="1">
       <c r="B290" t="s">
         <v>224</v>
       </c>
@@ -61145,7 +61145,7 @@
       </c>
       <c r="BL290" s="7"/>
     </row>
-    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:64" ht="18.75" customHeight="1">
       <c r="B291" t="s">
         <v>225</v>
       </c>
@@ -61336,7 +61336,7 @@
       </c>
       <c r="BL291" s="7"/>
     </row>
-    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:64" ht="18.75" customHeight="1">
       <c r="B292" t="s">
         <v>928</v>
       </c>
@@ -61487,7 +61487,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:64" ht="18.75" customHeight="1">
       <c r="B293" t="s">
         <v>157</v>
       </c>
@@ -61687,7 +61687,7 @@
       </c>
       <c r="BL293" s="7"/>
     </row>
-    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:64" ht="18.75" customHeight="1">
       <c r="B294" t="s">
         <v>924</v>
       </c>
@@ -61847,7 +61847,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:64" ht="18.75" customHeight="1">
       <c r="B295" t="s">
         <v>226</v>
       </c>
@@ -62041,7 +62041,7 @@
       </c>
       <c r="BL295" s="7"/>
     </row>
-    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:64" ht="18.75" customHeight="1">
       <c r="B296" t="s">
         <v>1172</v>
       </c>
@@ -62242,7 +62242,7 @@
         <v>[39.72741,-104.98388],</v>
       </c>
     </row>
-    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:64" ht="18.75" customHeight="1">
       <c r="B297" t="s">
         <v>158</v>
       </c>
@@ -62436,7 +62436,7 @@
       </c>
       <c r="BL297" s="7"/>
     </row>
-    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:64" ht="18.75" customHeight="1">
       <c r="B298" t="s">
         <v>227</v>
       </c>
@@ -62633,7 +62633,7 @@
       </c>
       <c r="BL298" s="7"/>
     </row>
-    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:64" ht="18.75" customHeight="1">
       <c r="B299" t="s">
         <v>228</v>
       </c>
@@ -62827,7 +62827,7 @@
       </c>
       <c r="BL299" s="7"/>
     </row>
-    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:64" ht="18.75" customHeight="1">
       <c r="B300" t="s">
         <v>1257</v>
       </c>
@@ -63019,7 +63019,7 @@
         <v>[39.77142,-105.04415],</v>
       </c>
     </row>
-    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:64" ht="18.75" customHeight="1">
       <c r="B301" t="s">
         <v>229</v>
       </c>
@@ -63213,7 +63213,7 @@
       </c>
       <c r="BL301" s="7"/>
     </row>
-    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:64" ht="18.75" customHeight="1">
       <c r="B302" t="s">
         <v>159</v>
       </c>
@@ -63410,7 +63410,7 @@
       </c>
       <c r="BL302" s="7"/>
     </row>
-    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:64" ht="18.75" customHeight="1">
       <c r="B303" t="s">
         <v>160</v>
       </c>
@@ -63616,7 +63616,7 @@
       </c>
       <c r="BL303" s="7"/>
     </row>
-    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:64" ht="18.75" customHeight="1">
       <c r="B304" t="s">
         <v>885</v>
       </c>
@@ -63821,7 +63821,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:64" ht="18.75" customHeight="1">
       <c r="B305" t="s">
         <v>254</v>
       </c>
@@ -63985,7 +63985,7 @@
       </c>
       <c r="BL305" s="7"/>
     </row>
-    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:64" ht="18.75" customHeight="1">
       <c r="B306" t="s">
         <v>932</v>
       </c>
@@ -64187,7 +64187,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:64" ht="18.75" customHeight="1">
       <c r="B307" t="s">
         <v>161</v>
       </c>
@@ -64351,7 +64351,7 @@
       </c>
       <c r="BL307" s="7"/>
     </row>
-    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:64" ht="18.75" customHeight="1">
       <c r="B308" t="s">
         <v>1255</v>
       </c>
@@ -64531,7 +64531,7 @@
         <v>[39.74352,-104.96954],</v>
       </c>
     </row>
-    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:64" ht="18.75" customHeight="1">
       <c r="B309" t="s">
         <v>948</v>
       </c>
@@ -64730,7 +64730,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:64" ht="18.75" customHeight="1">
       <c r="B310" t="s">
         <v>230</v>
       </c>
@@ -64924,7 +64924,7 @@
       </c>
       <c r="BL310" s="7"/>
     </row>
-    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:64" ht="18.75" customHeight="1">
       <c r="B311" t="s">
         <v>887</v>
       </c>
@@ -65129,7 +65129,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:64" ht="18.75" customHeight="1">
       <c r="B312" t="s">
         <v>162</v>
       </c>
@@ -65323,7 +65323,7 @@
       </c>
       <c r="BL312" s="7"/>
     </row>
-    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:64" ht="18.75" customHeight="1">
       <c r="B313" t="s">
         <v>163</v>
       </c>
@@ -65529,7 +65529,7 @@
       </c>
       <c r="BL313" s="7"/>
     </row>
-    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:64" ht="18.75" customHeight="1">
       <c r="B314" t="s">
         <v>920</v>
       </c>
@@ -65734,7 +65734,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:64" ht="18.75" customHeight="1">
       <c r="B315" t="s">
         <v>257</v>
       </c>
@@ -65898,7 +65898,7 @@
       </c>
       <c r="BL315" s="7"/>
     </row>
-    <row r="316" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:64" ht="18.75" customHeight="1">
       <c r="B316" t="s">
         <v>164</v>
       </c>
@@ -66093,29 +66093,29 @@
       <c r="BL316" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C290"/>
-  <sortState ref="B2:BL315">
+  <autoFilter ref="C1:C290" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL315">
     <sortCondition ref="B2:B315"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AR210" r:id="rId1"/>
-    <hyperlink ref="B24" r:id="rId2" display="https://www.yelp.com/biz/backstreet-tavern-and-grill-aurora?osq=Happy+Hour"/>
-    <hyperlink ref="B133" r:id="rId3" display="https://www.yelp.com/biz/improper-city-denver?osq=Happy+Hour"/>
-    <hyperlink ref="B182" r:id="rId4" display="https://www.yelp.com/biz/neighbors-denver?osq=Happy+Hour"/>
-    <hyperlink ref="AR279" r:id="rId5"/>
-    <hyperlink ref="AR78" r:id="rId6"/>
-    <hyperlink ref="AR311" r:id="rId7"/>
-    <hyperlink ref="AR277" r:id="rId8"/>
-    <hyperlink ref="AR187" r:id="rId9"/>
-    <hyperlink ref="AR284" r:id="rId10"/>
-    <hyperlink ref="G52" r:id="rId11" display="https://www.google.com/maps/place/Candlelight+Tavern/@39.709632,-104.9828235,17z/data=!4m5!3m4!1s0x876c7ee345a86e4d:0x6a6cf93c603a839b!8m2!3d39.709632!4d-104.9806348"/>
-    <hyperlink ref="AR199" r:id="rId12" tooltip="Osteria Marco" display="http://www.osteriamarco.com/"/>
-    <hyperlink ref="AR202" r:id="rId13" tooltip="Park Burger" display="http://parkburger.com/"/>
-    <hyperlink ref="AR9" r:id="rId14" tooltip="Acorn" display="http://www.denveracorn.com/"/>
-    <hyperlink ref="AR197" r:id="rId15"/>
-    <hyperlink ref="AR152" r:id="rId16"/>
-    <hyperlink ref="AR137" r:id="rId17"/>
-    <hyperlink ref="AR87" r:id="rId18"/>
+    <hyperlink ref="AR210" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" r:id="rId2" display="https://www.yelp.com/biz/backstreet-tavern-and-grill-aurora?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B133" r:id="rId3" display="https://www.yelp.com/biz/improper-city-denver?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B182" r:id="rId4" display="https://www.yelp.com/biz/neighbors-denver?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR279" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR78" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR311" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR277" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR187" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR284" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G52" r:id="rId11" display="https://www.google.com/maps/place/Candlelight+Tavern/@39.709632,-104.9828235,17z/data=!4m5!3m4!1s0x876c7ee345a86e4d:0x6a6cf93c603a839b!8m2!3d39.709632!4d-104.9806348" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR199" r:id="rId12" tooltip="Osteria Marco" display="http://www.osteriamarco.com/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR202" r:id="rId13" tooltip="Park Burger" display="http://parkburger.com/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR9" r:id="rId14" tooltip="Acorn" display="http://www.denveracorn.com/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR197" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR152" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR137" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR87" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -66123,16 +66123,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1191</v>
       </c>
@@ -66155,7 +66155,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>39.755760000000002</v>
       </c>
@@ -66196,7 +66196,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>39.732250000000001</v>
       </c>
@@ -66234,7 +66234,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>39.754260000000002</v>
       </c>
@@ -66272,7 +66272,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>39.725490000000001</v>
       </c>
@@ -66310,7 +66310,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>39.753819999999997</v>
       </c>
@@ -66348,7 +66348,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>39.709600000000002</v>
       </c>
@@ -66386,7 +66386,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>39.76211</v>
       </c>
@@ -66424,7 +66424,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>39.748190000000001</v>
       </c>
@@ -66444,7 +66444,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>39.759590000000003</v>
       </c>
@@ -66464,7 +66464,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>39.727409999999999</v>
       </c>
@@ -66484,7 +66484,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>39.763539999999999</v>
       </c>
@@ -66504,7 +66504,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>39.768740000000001</v>
       </c>
@@ -66524,7 +66524,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>39.751339999999999</v>
       </c>
@@ -66544,7 +66544,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>39.717610000000001</v>
       </c>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="1309">
   <si>
     <t>Name</t>
   </si>
@@ -3158,9 +3158,6 @@
   </si>
   <si>
     <t>&lt;b&gt;Sunday&lt;/b&gt;&lt;br&gt;Kids under 10 eat free with the purchase of an adult meal.</t>
-  </si>
-  <si>
-    <t>Drinks:&lt;br&gt;$2.5 Drafts&lt;br&gt;$3 Wells&lt;br&gt;$4 House Wines&lt;br&gt;&lt;br&gt;Appetizers:&lt;br&gt;$6 Historians Kabobs&lt;br&gt;$6 Pizza Sliders&lt;br&gt;$6 Green Chili Fries&lt;br&gt;$6 Jalapeno Basket&lt;br&gt;$6 Hummus Plate&lt;br&gt;$6 Pulled Pork Sliders&lt;br&gt;$6 Housemade Fried Pickles&lt;br&gt;$6 Brisket ravy Fries&lt;br&gt;$4 Chips and Salsa, add Guacamole $1.5, add Queso $2</t>
   </si>
   <si>
     <t>$2 off Entire Dining Room Dinner Menu&lt;br&gt;$2 off Wells, Wine by the Glass and Select Drafts.&lt;br&gt;&lt;br&gt;Bar Specials&lt;br&gt;Daily Specials Available Only in Bar &amp; Cocktail Areas&lt;br&gt;Monday - Homemade Spaghetti &amp; Spicy East-Coast Meatballs, Red (Gravy), the Best Garlic Cheese Bread:$12&lt;br&gt;Tuesday - Bistro Steak and Fries, Teres Major Steak with Stout Beer Demi Glace, Steakhouse Wedge Salad with Heirloom Tomatoes, Red Onion, Pecan Smoked Bacon Bits, Black Pepper Maytag Blue Cheese Dressing and Crispy Shoestring Fries: $16&lt;br&gt;Wednesday - Sterlings Lowry Famous Jalapeno and Bacon Mac and Cheese:$12&lt;br&gt;Thursday - Roasted Half Chicken, Country Chicken Gravy, Roasted Garlic Mashed Potatoes, Southwest Corn and Heirloom Tomato Salad: $14&lt;br&gt; Friday and Saturday Nights - 8 oz cut Prime Rib, Roasted Garlic Mashed Potatoes, Creamed Spinach, Black Pepper Horseradish Cream and Salty Au Jus: $16&lt;br&gt; Sunday - Half Pound Alaskan Queen Crab Legs with Drawn Butter and Lemon, Roasted Garlic Mashed Potatoes and Creamed Spinach: $16</t>
@@ -3960,6 +3957,9 @@
   </si>
   <si>
     <t>12543 S Parker Road Parker, CO 80134</t>
+  </si>
+  <si>
+    <t>$1 off Drinks&lt;br&gt;$2 Off Snacks&lt;br&gt;Monday - Happy Hour All Day&lt;br&gt;Tuesday - $5 pints 7pm to close&lt;br&gt;Wed - 20% off all whiskey, $2 BBQ pork or beer sliders&lt;br&gt;Thur - 20% off all tequila, $2 street tacos&lt;br&gt;Fri - $9.95 fish and chips with a 10oz beer&lt;br&gt;Sat and Sun - $5 Bloody Mary Bar, $10 bottomless mimosas</t>
   </si>
 </sst>
 </file>
@@ -4964,9 +4964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW128" sqref="AW128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5169,7 +5169,7 @@
         <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G2" t="s">
         <v>547</v>
@@ -5205,7 +5205,7 @@
         <v>420</v>
       </c>
       <c r="V2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:W65" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5361,16 +5361,16 @@
     </row>
     <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C3" t="s">
         <v>819</v>
       </c>
       <c r="E3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H3">
         <v>800</v>
@@ -5415,7 +5415,7 @@
         <v>1200</v>
       </c>
       <c r="V3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3" si="31">IF(H3&gt;0,H3/100,"")</f>
@@ -5565,16 +5565,16 @@
     </row>
     <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C4" t="s">
         <v>816</v>
       </c>
       <c r="E4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J4">
         <v>1500</v>
@@ -5607,7 +5607,7 @@
         <v>1800</v>
       </c>
       <c r="V4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
@@ -5694,7 +5694,7 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AV4" s="4" t="s">
         <v>28</v>
@@ -5761,7 +5761,7 @@
         <v>359</v>
       </c>
       <c r="E5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>938</v>
@@ -5958,10 +5958,10 @@
         <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J6">
         <v>1500</v>
@@ -6151,7 +6151,7 @@
         <v>822</v>
       </c>
       <c r="E7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>867</v>
@@ -6350,16 +6350,16 @@
     </row>
     <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C8" t="s">
         <v>821</v>
       </c>
       <c r="E8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H8">
         <v>1200</v>
@@ -6404,7 +6404,7 @@
         <v>2000</v>
       </c>
       <c r="V8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
@@ -6491,7 +6491,7 @@
         <v>12pm-8pm</v>
       </c>
       <c r="AR8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AV8" s="4" t="s">
         <v>28</v>
@@ -6557,7 +6557,7 @@
         <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G9" t="s">
         <v>548</v>
@@ -6605,7 +6605,7 @@
         <v>1800</v>
       </c>
       <c r="V9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
@@ -6760,16 +6760,16 @@
     </row>
     <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C10" t="s">
         <v>821</v>
       </c>
       <c r="E10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H10">
         <v>1430</v>
@@ -6814,7 +6814,7 @@
         <v>1730</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
@@ -6901,7 +6901,7 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>28</v>
@@ -6967,7 +6967,7 @@
         <v>618</v>
       </c>
       <c r="E11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G11" t="s">
         <v>440</v>
@@ -7015,7 +7015,7 @@
         <v>420</v>
       </c>
       <c r="V11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
@@ -7173,7 +7173,7 @@
         <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G12" t="s">
         <v>611</v>
@@ -7209,7 +7209,7 @@
         <v>1900</v>
       </c>
       <c r="V12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="0"/>
@@ -7367,7 +7367,7 @@
         <v>618</v>
       </c>
       <c r="E13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G13" t="s">
         <v>276</v>
@@ -7570,13 +7570,13 @@
     </row>
     <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C14" t="s">
         <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G14" t="s">
         <v>402</v>
@@ -7624,7 +7624,7 @@
         <v>420</v>
       </c>
       <c r="V14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
@@ -7779,16 +7779,16 @@
     </row>
     <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C15" t="s">
         <v>310</v>
       </c>
       <c r="E15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G15" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H15">
         <v>1200</v>
@@ -7833,7 +7833,7 @@
         <v>2200</v>
       </c>
       <c r="V15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
@@ -7920,7 +7920,7 @@
         <v>12pm-10pm</v>
       </c>
       <c r="AR15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AV15" s="4" t="s">
         <v>28</v>
@@ -7986,7 +7986,7 @@
         <v>819</v>
       </c>
       <c r="E16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>914</v>
@@ -8173,16 +8173,16 @@
     </row>
     <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C17" t="s">
         <v>1040</v>
       </c>
       <c r="E17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H17">
         <v>1500</v>
@@ -8227,7 +8227,7 @@
         <v>1800</v>
       </c>
       <c r="V17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="W17">
         <f t="shared" si="0"/>
@@ -8314,7 +8314,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV17" s="4" t="s">
         <v>28</v>
@@ -8380,7 +8380,7 @@
         <v>820</v>
       </c>
       <c r="E18" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>834</v>
@@ -8540,7 +8540,7 @@
         <v>820</v>
       </c>
       <c r="E19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>846</v>
@@ -8733,7 +8733,7 @@
         <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G20" t="s">
         <v>441</v>
@@ -8781,7 +8781,7 @@
         <v>420</v>
       </c>
       <c r="V20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="W20">
         <f t="shared" si="0"/>
@@ -8939,7 +8939,7 @@
         <v>359</v>
       </c>
       <c r="E21" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>926</v>
@@ -9141,7 +9141,7 @@
         <v>619</v>
       </c>
       <c r="E22" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G22" t="s">
         <v>442</v>
@@ -9302,7 +9302,7 @@
         <v>817</v>
       </c>
       <c r="E23" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G23" t="s">
         <v>616</v>
@@ -9466,7 +9466,7 @@
         <v>296</v>
       </c>
       <c r="E24" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G24" t="s">
         <v>443</v>
@@ -9672,7 +9672,7 @@
         <v>820</v>
       </c>
       <c r="E25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>850</v>
@@ -9829,7 +9829,7 @@
         <v>1040</v>
       </c>
       <c r="E26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G26" t="s">
         <v>444</v>
@@ -9877,7 +9877,7 @@
         <v>1800</v>
       </c>
       <c r="V26" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
@@ -10035,7 +10035,7 @@
         <v>619</v>
       </c>
       <c r="E27" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G27" t="s">
         <v>445</v>
@@ -10083,7 +10083,7 @@
         <v>421</v>
       </c>
       <c r="V27" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
@@ -10241,7 +10241,7 @@
         <v>817</v>
       </c>
       <c r="E28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G28" t="s">
         <v>446</v>
@@ -10447,7 +10447,7 @@
         <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>892</v>
@@ -10640,7 +10640,7 @@
         <v>819</v>
       </c>
       <c r="E30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>912</v>
@@ -10833,7 +10833,7 @@
         <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>888</v>
@@ -10993,7 +10993,7 @@
         <v>299</v>
       </c>
       <c r="E32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G32" t="s">
         <v>549</v>
@@ -11035,7 +11035,7 @@
         <v>1700</v>
       </c>
       <c r="V32" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="0"/>
@@ -11193,7 +11193,7 @@
         <v>1040</v>
       </c>
       <c r="E33" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G33" t="s">
         <v>278</v>
@@ -11357,7 +11357,7 @@
         <v>266</v>
       </c>
       <c r="E34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G34" t="s">
         <v>550</v>
@@ -11393,7 +11393,7 @@
         <v>1830</v>
       </c>
       <c r="V34" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="0"/>
@@ -11545,16 +11545,16 @@
     </row>
     <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C35" t="s">
         <v>820</v>
       </c>
       <c r="E35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="0"/>
@@ -11641,7 +11641,7 @@
         <v/>
       </c>
       <c r="AR35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AV35" s="4" t="s">
         <v>29</v>
@@ -11707,7 +11707,7 @@
         <v>817</v>
       </c>
       <c r="E36" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G36" t="s">
         <v>551</v>
@@ -11743,7 +11743,7 @@
         <v>1800</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="0"/>
@@ -11895,16 +11895,16 @@
     </row>
     <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C37" t="s">
         <v>267</v>
       </c>
       <c r="E37" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H37">
         <v>1600</v>
@@ -11937,7 +11937,7 @@
         <v>1900</v>
       </c>
       <c r="V37" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="W37">
         <f t="shared" si="0"/>
@@ -12087,7 +12087,7 @@
         <v>620</v>
       </c>
       <c r="E38" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G38" t="s">
         <v>270</v>
@@ -12135,7 +12135,7 @@
         <v>422</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W38">
         <f t="shared" si="0"/>
@@ -12296,7 +12296,7 @@
         <v>359</v>
       </c>
       <c r="E39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>930</v>
@@ -12501,7 +12501,7 @@
         <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G40" t="s">
         <v>447</v>
@@ -12537,7 +12537,7 @@
         <v>420</v>
       </c>
       <c r="V40" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="0"/>
@@ -12695,7 +12695,7 @@
         <v>266</v>
       </c>
       <c r="E41" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G41" t="s">
         <v>552</v>
@@ -12731,7 +12731,7 @@
         <v>420</v>
       </c>
       <c r="V41" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="0"/>
@@ -12889,10 +12889,10 @@
         <v>816</v>
       </c>
       <c r="E42" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G42" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J42">
         <v>1500</v>
@@ -12925,7 +12925,7 @@
         <v>1800</v>
       </c>
       <c r="V42" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="0"/>
@@ -13077,16 +13077,16 @@
     </row>
     <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C43" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E43" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G43" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H43">
         <v>1200</v>
@@ -13131,7 +13131,7 @@
         <v>1830</v>
       </c>
       <c r="V43" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="W43">
         <f t="shared" si="0"/>
@@ -13218,7 +13218,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR43" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AV43" s="4" t="s">
         <v>28</v>
@@ -13284,7 +13284,7 @@
         <v>816</v>
       </c>
       <c r="E44" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G44" t="s">
         <v>448</v>
@@ -13332,7 +13332,7 @@
         <v>420</v>
       </c>
       <c r="V44" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W44">
         <f t="shared" si="0"/>
@@ -13484,16 +13484,16 @@
     </row>
     <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C45" t="s">
         <v>818</v>
       </c>
       <c r="E45" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G45" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="0"/>
@@ -13580,7 +13580,7 @@
         <v/>
       </c>
       <c r="AR45" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AV45" s="4" t="s">
         <v>29</v>
@@ -13646,7 +13646,7 @@
         <v>817</v>
       </c>
       <c r="E46" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G46" t="s">
         <v>449</v>
@@ -13688,7 +13688,7 @@
         <v>420</v>
       </c>
       <c r="V46" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="0"/>
@@ -13846,7 +13846,7 @@
         <v>820</v>
       </c>
       <c r="E47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>838</v>
@@ -14030,16 +14030,16 @@
     </row>
     <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C48" t="s">
         <v>300</v>
       </c>
       <c r="E48" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H48">
         <v>1500</v>
@@ -14084,7 +14084,7 @@
         <v>1800</v>
       </c>
       <c r="V48" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="W48">
         <f t="shared" si="0"/>
@@ -14237,7 +14237,7 @@
         <v>817</v>
       </c>
       <c r="E49" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G49" t="s">
         <v>280</v>
@@ -14404,7 +14404,7 @@
         <v>817</v>
       </c>
       <c r="E50" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G50" t="s">
         <v>282</v>
@@ -14568,7 +14568,7 @@
         <v>299</v>
       </c>
       <c r="E51" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G51" t="s">
         <v>450</v>
@@ -14723,16 +14723,16 @@
     </row>
     <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C52" t="s">
         <v>1040</v>
       </c>
       <c r="E52" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G52" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J52">
         <v>1500</v>
@@ -14849,7 +14849,7 @@
         <v/>
       </c>
       <c r="AR52" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AV52" s="4" t="s">
         <v>28</v>
@@ -14909,16 +14909,16 @@
     </row>
     <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C53" t="s">
         <v>618</v>
       </c>
       <c r="E53" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J53">
         <v>1600</v>
@@ -14951,7 +14951,7 @@
         <v>1900</v>
       </c>
       <c r="V53" s="21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="0"/>
@@ -15038,7 +15038,7 @@
         <v/>
       </c>
       <c r="AR53" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AV53" s="4" t="s">
         <v>28</v>
@@ -15104,7 +15104,7 @@
         <v>817</v>
       </c>
       <c r="E54" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G54" t="s">
         <v>451</v>
@@ -15152,7 +15152,7 @@
         <v>420</v>
       </c>
       <c r="V54" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="W54">
         <f t="shared" si="0"/>
@@ -15310,7 +15310,7 @@
         <v>821</v>
       </c>
       <c r="E55" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G55" t="s">
         <v>452</v>
@@ -15358,7 +15358,7 @@
         <v>420</v>
       </c>
       <c r="V55" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W55">
         <f t="shared" si="0"/>
@@ -15516,7 +15516,7 @@
         <v>820</v>
       </c>
       <c r="E56" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>832</v>
@@ -15709,7 +15709,7 @@
         <v>818</v>
       </c>
       <c r="E57" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G57" t="s">
         <v>453</v>
@@ -15917,7 +15917,7 @@
         <v>818</v>
       </c>
       <c r="E58" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>873</v>
@@ -15959,7 +15959,7 @@
         <v>1800</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="W58">
         <f t="shared" si="0"/>
@@ -16116,7 +16116,7 @@
         <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G59" t="s">
         <v>553</v>
@@ -16310,7 +16310,7 @@
         <v>618</v>
       </c>
       <c r="E60" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G60" t="s">
         <v>292</v>
@@ -16474,7 +16474,7 @@
         <v>618</v>
       </c>
       <c r="E61" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G61" t="s">
         <v>454</v>
@@ -16516,7 +16516,7 @@
         <v>420</v>
       </c>
       <c r="V61" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W61">
         <f t="shared" si="0"/>
@@ -16674,7 +16674,7 @@
         <v>818</v>
       </c>
       <c r="E62" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G62" t="s">
         <v>554</v>
@@ -16862,16 +16862,16 @@
     </row>
     <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C63" t="s">
         <v>618</v>
       </c>
       <c r="E63" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="0"/>
@@ -16958,7 +16958,7 @@
         <v/>
       </c>
       <c r="AR63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AV63" s="4" t="s">
         <v>29</v>
@@ -17024,7 +17024,7 @@
         <v>822</v>
       </c>
       <c r="E64" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>859</v>
@@ -17229,7 +17229,7 @@
         <v>617</v>
       </c>
       <c r="E65" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G65" t="s">
         <v>455</v>
@@ -17265,7 +17265,7 @@
         <v>421</v>
       </c>
       <c r="V65" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="0"/>
@@ -17423,7 +17423,7 @@
         <v>820</v>
       </c>
       <c r="E66" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>842</v>
@@ -17620,7 +17620,7 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G67" t="s">
         <v>555</v>
@@ -17814,7 +17814,7 @@
         <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G68" t="s">
         <v>456</v>
@@ -18020,7 +18020,7 @@
         <v>1040</v>
       </c>
       <c r="E69" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G69" t="s">
         <v>457</v>
@@ -18068,7 +18068,7 @@
         <v>420</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W69">
         <f t="shared" si="97"/>
@@ -18220,13 +18220,13 @@
     </row>
     <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C70" t="s">
         <v>619</v>
       </c>
       <c r="E70" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G70" t="s">
         <v>538</v>
@@ -18274,7 +18274,7 @@
         <v>1900</v>
       </c>
       <c r="V70" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="W70">
         <f t="shared" si="97"/>
@@ -18432,7 +18432,7 @@
         <v>818</v>
       </c>
       <c r="E71" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G71" t="s">
         <v>554</v>
@@ -18626,7 +18626,7 @@
         <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G72" t="s">
         <v>556</v>
@@ -18823,7 +18823,7 @@
         <v>818</v>
       </c>
       <c r="E73" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>873</v>
@@ -19028,7 +19028,7 @@
         <v>299</v>
       </c>
       <c r="E74" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G74" t="s">
         <v>557</v>
@@ -19222,7 +19222,7 @@
         <v>267</v>
       </c>
       <c r="E75" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G75" t="s">
         <v>404</v>
@@ -19270,7 +19270,7 @@
         <v>428</v>
       </c>
       <c r="V75" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="W75">
         <f t="shared" si="97"/>
@@ -19425,16 +19425,16 @@
     </row>
     <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C76" t="s">
         <v>266</v>
       </c>
       <c r="E76" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J76">
         <v>1200</v>
@@ -19473,7 +19473,7 @@
         <v>1300</v>
       </c>
       <c r="V76" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W76" t="str">
         <f t="shared" si="97"/>
@@ -19560,7 +19560,7 @@
         <v>12pm-1pm</v>
       </c>
       <c r="AR76" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AV76" s="4" t="s">
         <v>28</v>
@@ -19627,7 +19627,7 @@
         <v>620</v>
       </c>
       <c r="E77" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G77" t="s">
         <v>558</v>
@@ -19821,7 +19821,7 @@
         <v>296</v>
       </c>
       <c r="E78" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>896</v>
@@ -20026,7 +20026,7 @@
         <v>820</v>
       </c>
       <c r="E79" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>844</v>
@@ -20062,7 +20062,7 @@
         <v>1800</v>
       </c>
       <c r="V79" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W79" t="str">
         <f t="shared" si="97"/>
@@ -20219,7 +20219,7 @@
         <v>819</v>
       </c>
       <c r="E80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G80" t="s">
         <v>458</v>
@@ -20267,7 +20267,7 @@
         <v>420</v>
       </c>
       <c r="V80" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="W80">
         <f t="shared" si="97"/>
@@ -20425,7 +20425,7 @@
         <v>299</v>
       </c>
       <c r="E81" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G81" t="s">
         <v>459</v>
@@ -20613,7 +20613,7 @@
         <v>817</v>
       </c>
       <c r="E82" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G82" t="s">
         <v>272</v>
@@ -20780,7 +20780,7 @@
         <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G83" t="s">
         <v>559</v>
@@ -20968,16 +20968,16 @@
     </row>
     <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C84" t="s">
         <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G84" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H84">
         <v>1500</v>
@@ -21016,7 +21016,7 @@
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="W84">
         <f t="shared" si="97"/>
@@ -21103,7 +21103,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AV84" s="4" t="s">
         <v>28</v>
@@ -21170,7 +21170,7 @@
         <v>617</v>
       </c>
       <c r="E85" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G85" t="s">
         <v>406</v>
@@ -21334,7 +21334,7 @@
         <v>267</v>
       </c>
       <c r="E86" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G86" t="s">
         <v>560</v>
@@ -21528,7 +21528,7 @@
         <v>817</v>
       </c>
       <c r="E87" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G87" t="s">
         <v>561</v>
@@ -21716,16 +21716,16 @@
     </row>
     <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C88" t="s">
         <v>818</v>
       </c>
       <c r="E88" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H88">
         <v>1500</v>
@@ -21764,7 +21764,7 @@
         <v>1800</v>
       </c>
       <c r="V88" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="W88">
         <f t="shared" si="97"/>
@@ -21851,7 +21851,7 @@
         <v/>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AS88" t="s">
         <v>415</v>
@@ -21918,16 +21918,16 @@
     </row>
     <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C89" t="s">
         <v>618</v>
       </c>
       <c r="E89" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G89" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="W89" t="str">
         <f t="shared" si="97"/>
@@ -22014,7 +22014,7 @@
         <v/>
       </c>
       <c r="AR89" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AV89" s="4" t="s">
         <v>29</v>
@@ -22080,7 +22080,7 @@
         <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G90" t="s">
         <v>562</v>
@@ -22274,7 +22274,7 @@
         <v>300</v>
       </c>
       <c r="E91" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G91" t="s">
         <v>563</v>
@@ -22468,7 +22468,7 @@
         <v>821</v>
       </c>
       <c r="E92" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G92" t="s">
         <v>279</v>
@@ -22516,7 +22516,7 @@
         <v>419</v>
       </c>
       <c r="V92" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="W92">
         <f t="shared" si="97"/>
@@ -22674,16 +22674,16 @@
     </row>
     <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C93" t="s">
         <v>817</v>
       </c>
       <c r="E93" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G93" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H93">
         <v>1700</v>
@@ -22728,7 +22728,7 @@
         <v>1830</v>
       </c>
       <c r="V93" s="8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="W93">
         <f t="shared" si="97"/>
@@ -22815,7 +22815,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR93" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AV93" s="4" t="s">
         <v>28</v>
@@ -22881,7 +22881,7 @@
         <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G94" t="s">
         <v>460</v>
@@ -22929,7 +22929,7 @@
         <v>420</v>
       </c>
       <c r="V94" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="W94">
         <f t="shared" si="97"/>
@@ -23090,7 +23090,7 @@
         <v>299</v>
       </c>
       <c r="E95" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G95" t="s">
         <v>564</v>
@@ -23284,7 +23284,7 @@
         <v>817</v>
       </c>
       <c r="E96" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G96" t="s">
         <v>439</v>
@@ -23332,7 +23332,7 @@
         <v>419</v>
       </c>
       <c r="V96" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W96">
         <f t="shared" si="97"/>
@@ -23490,7 +23490,7 @@
         <v>619</v>
       </c>
       <c r="E97" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G97" t="s">
         <v>461</v>
@@ -23684,7 +23684,7 @@
         <v>299</v>
       </c>
       <c r="E98" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G98" t="s">
         <v>462</v>
@@ -23893,7 +23893,7 @@
         <v>359</v>
       </c>
       <c r="E99" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>934</v>
@@ -24086,7 +24086,7 @@
         <v>822</v>
       </c>
       <c r="E100" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>863</v>
@@ -24291,7 +24291,7 @@
         <v>300</v>
       </c>
       <c r="E101" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G101" t="s">
         <v>463</v>
@@ -24497,7 +24497,7 @@
         <v>817</v>
       </c>
       <c r="E102" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G102" t="s">
         <v>295</v>
@@ -24509,7 +24509,7 @@
         <v>2200</v>
       </c>
       <c r="V102" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="97"/>
@@ -24673,7 +24673,7 @@
         <v>618</v>
       </c>
       <c r="E103" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G103" t="s">
         <v>464</v>
@@ -24721,7 +24721,7 @@
         <v>421</v>
       </c>
       <c r="V103" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W103">
         <f t="shared" si="97"/>
@@ -24879,7 +24879,7 @@
         <v>267</v>
       </c>
       <c r="E104" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G104" t="s">
         <v>284</v>
@@ -25043,7 +25043,7 @@
         <v>1040</v>
       </c>
       <c r="E105" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G105" t="s">
         <v>465</v>
@@ -25252,7 +25252,7 @@
         <v>821</v>
       </c>
       <c r="E106" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>894</v>
@@ -25412,7 +25412,7 @@
         <v>820</v>
       </c>
       <c r="E107" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>854</v>
@@ -25572,7 +25572,7 @@
         <v>817</v>
       </c>
       <c r="E108" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G108" t="s">
         <v>466</v>
@@ -25784,7 +25784,7 @@
         <v>299</v>
       </c>
       <c r="E109" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G109" t="s">
         <v>565</v>
@@ -25972,7 +25972,7 @@
         <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G110" t="s">
         <v>467</v>
@@ -26178,7 +26178,7 @@
         <v>817</v>
       </c>
       <c r="E111" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G111" t="s">
         <v>566</v>
@@ -26214,7 +26214,7 @@
         <v>420</v>
       </c>
       <c r="V111" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="W111" t="str">
         <f t="shared" si="97"/>
@@ -26372,7 +26372,7 @@
         <v>266</v>
       </c>
       <c r="E112" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G112" t="s">
         <v>468</v>
@@ -26533,7 +26533,7 @@
         <v>820</v>
       </c>
       <c r="E113" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G113" t="s">
         <v>275</v>
@@ -26581,7 +26581,7 @@
         <v>421</v>
       </c>
       <c r="V113" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="W113">
         <f t="shared" si="97"/>
@@ -26742,7 +26742,7 @@
         <v>310</v>
       </c>
       <c r="E114" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G114" t="s">
         <v>469</v>
@@ -26903,7 +26903,7 @@
         <v>817</v>
       </c>
       <c r="E115" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>883</v>
@@ -26945,7 +26945,7 @@
         <v>1800</v>
       </c>
       <c r="V115" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W115" t="str">
         <f t="shared" si="97"/>
@@ -27102,7 +27102,7 @@
         <v>619</v>
       </c>
       <c r="E116" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G116" t="s">
         <v>470</v>
@@ -27308,7 +27308,7 @@
         <v>1040</v>
       </c>
       <c r="E117" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G117" t="s">
         <v>471</v>
@@ -27353,7 +27353,7 @@
         <v>421</v>
       </c>
       <c r="V117" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="W117">
         <f t="shared" si="97"/>
@@ -27511,7 +27511,7 @@
         <v>819</v>
       </c>
       <c r="E118" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>922</v>
@@ -27716,7 +27716,7 @@
         <v>816</v>
       </c>
       <c r="E119" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G119" t="s">
         <v>567</v>
@@ -27910,7 +27910,7 @@
         <v>618</v>
       </c>
       <c r="E120" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G120" t="s">
         <v>612</v>
@@ -28095,7 +28095,7 @@
         <v>299</v>
       </c>
       <c r="E121" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G121" t="s">
         <v>568</v>
@@ -28284,16 +28284,16 @@
     </row>
     <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C122" t="s">
         <v>310</v>
       </c>
       <c r="E122" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G122" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H122">
         <v>1530</v>
@@ -28338,7 +28338,7 @@
         <v>1700</v>
       </c>
       <c r="V122" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="W122">
         <f t="shared" ref="W122" si="130">IF(H122&gt;0,H122/100,"")</f>
@@ -28425,7 +28425,7 @@
         <v>3.3pm-5pm</v>
       </c>
       <c r="AR122" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AU122" s="4"/>
       <c r="AV122" s="4" t="s">
@@ -28497,7 +28497,7 @@
         <v>310</v>
       </c>
       <c r="E123" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G123" t="s">
         <v>472</v>
@@ -28533,7 +28533,7 @@
         <v>420</v>
       </c>
       <c r="V123" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" si="97"/>
@@ -28685,16 +28685,16 @@
     </row>
     <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C124" t="s">
         <v>310</v>
       </c>
       <c r="E124" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G124" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H124">
         <v>1630</v>
@@ -28739,7 +28739,7 @@
         <v>1800</v>
       </c>
       <c r="V124" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="W124">
         <f t="shared" ref="W124" si="161">IF(H124&gt;0,H124/100,"")</f>
@@ -28826,7 +28826,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AV124" s="4" t="s">
         <v>28</v>
@@ -28897,7 +28897,7 @@
         <v>817</v>
       </c>
       <c r="E125" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G125" t="s">
         <v>473</v>
@@ -28933,7 +28933,7 @@
         <v>419</v>
       </c>
       <c r="V125" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="W125" t="str">
         <f t="shared" si="97"/>
@@ -29094,7 +29094,7 @@
         <v>817</v>
       </c>
       <c r="E126" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G126" t="s">
         <v>474</v>
@@ -29303,16 +29303,22 @@
         <v>266</v>
       </c>
       <c r="E127" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G127" t="s">
         <v>271</v>
       </c>
+      <c r="H127">
+        <v>1000</v>
+      </c>
+      <c r="I127">
+        <v>1400</v>
+      </c>
       <c r="J127" t="s">
         <v>424</v>
       </c>
-      <c r="K127" t="s">
-        <v>421</v>
+      <c r="K127">
+        <v>2400</v>
       </c>
       <c r="L127" t="s">
         <v>424</v>
@@ -29338,16 +29344,22 @@
       <c r="S127" t="s">
         <v>421</v>
       </c>
+      <c r="T127">
+        <v>1000</v>
+      </c>
+      <c r="U127">
+        <v>1400</v>
+      </c>
       <c r="V127" t="s">
-        <v>1042</v>
-      </c>
-      <c r="W127" t="str">
+        <v>1308</v>
+      </c>
+      <c r="W127">
         <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="X127" t="str">
+        <v>10</v>
+      </c>
+      <c r="X127">
         <f t="shared" si="98"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="Y127">
         <f t="shared" si="99"/>
@@ -29355,7 +29367,7 @@
       </c>
       <c r="Z127">
         <f t="shared" si="100"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA127">
         <f t="shared" si="101"/>
@@ -29389,21 +29401,21 @@
         <f t="shared" si="108"/>
         <v>19</v>
       </c>
-      <c r="AI127" t="str">
+      <c r="AI127">
         <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AJ127" t="str">
+        <v>10</v>
+      </c>
+      <c r="AJ127">
         <f t="shared" si="110"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AK127" t="str">
         <f t="shared" si="111"/>
-        <v/>
+        <v>10am-2pm</v>
       </c>
       <c r="AL127" t="str">
         <f t="shared" si="112"/>
-        <v>11am-7pm</v>
+        <v>11am-12am</v>
       </c>
       <c r="AM127" t="str">
         <f t="shared" si="113"/>
@@ -29423,7 +29435,7 @@
       </c>
       <c r="AQ127" t="str">
         <f t="shared" si="117"/>
-        <v/>
+        <v>10am-2pm</v>
       </c>
       <c r="AR127" t="s">
         <v>409</v>
@@ -29434,15 +29446,15 @@
       <c r="AV127" t="s">
         <v>28</v>
       </c>
-      <c r="AW127" t="s">
-        <v>29</v>
+      <c r="AW127" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="AX127" s="8" t="str">
         <f t="shared" si="118"/>
         <v>{
     'name': "Historians Ale House",
     'area': "Baker",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1100", 'monday-end':"1900", 'tuesday-start':"1100", 'tuesday-end':"1900", 'wednesday-start':"1100", 'wednesday-end':"1900", 'thursday-start':"1100", 'thursday-end':"1900", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks:&lt;br&gt;$2.5 Drafts&lt;br&gt;$3 Wells&lt;br&gt;$4 House Wines&lt;br&gt;&lt;br&gt;Appetizers:&lt;br&gt;$6 Historians Kabobs&lt;br&gt;$6 Pizza Sliders&lt;br&gt;$6 Green Chili Fries&lt;br&gt;$6 Jalapeno Basket&lt;br&gt;$6 Hummus Plate&lt;br&gt;$6 Pulled Pork Sliders&lt;br&gt;$6 Housemade Fried Pickles&lt;br&gt;$6 Brisket ravy Fries&lt;br&gt;$4 Chips and Salsa, add Guacamole $1.5, add Queso $2", 'link':"https://historiansalehouse.com", 'pricing':"med",   'phone-number': "", 'address': "24 Broadway #102, Denver, CO", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1000", 'sunday-end':"1400", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"1900", 'wednesday-start':"1100", 'wednesday-end':"1900", 'thursday-start':"1100", 'thursday-end':"1900", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"1000", 'saturday-end':"1400"},  'description': "$1 off Drinks&lt;br&gt;$2 Off Snacks&lt;br&gt;Monday - Happy Hour All Day&lt;br&gt;Tuesday - $5 pints 7pm to close&lt;br&gt;Wed - 20% off all whiskey, $2 BBQ pork or beer sliders&lt;br&gt;Thur - 20% off all tequila, $2 street tacos&lt;br&gt;Fri - $9.95 fish and chips with a 10oz beer&lt;br&gt;Sat and Sun - $5 Bloody Mary Bar, $10 bottomless mimosas", 'link':"https://historiansalehouse.com", 'pricing':"med",   'phone-number': "", 'address': "24 Broadway #102, Denver, CO", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY127" t="str">
         <f t="shared" si="119"/>
@@ -29462,15 +29474,15 @@
       </c>
       <c r="BC127" t="str">
         <f t="shared" si="123"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD127" t="str">
         <f t="shared" si="124"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE127" t="str">
         <f t="shared" si="125"/>
-        <v>outdoor drink  med Baker</v>
+        <v>outdoor drink food  med Baker</v>
       </c>
       <c r="BF127" t="str">
         <f t="shared" si="126"/>
@@ -29500,7 +29512,7 @@
         <v>300</v>
       </c>
       <c r="E128" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G128" t="s">
         <v>569</v>
@@ -29700,7 +29712,7 @@
         <v>817</v>
       </c>
       <c r="E129" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G129" t="s">
         <v>570</v>
@@ -29894,7 +29906,7 @@
         <v>266</v>
       </c>
       <c r="E130" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G130" t="s">
         <v>475</v>
@@ -29942,7 +29954,7 @@
         <v>420</v>
       </c>
       <c r="V130" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="W130">
         <f t="shared" si="97"/>
@@ -30100,7 +30112,7 @@
         <v>1040</v>
       </c>
       <c r="E131" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>898</v>
@@ -30260,7 +30272,7 @@
         <v>619</v>
       </c>
       <c r="E132" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G132" t="s">
         <v>476</v>
@@ -30470,7 +30482,7 @@
         <v>300</v>
       </c>
       <c r="E133" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G133" t="s">
         <v>477</v>
@@ -30658,16 +30670,16 @@
     </row>
     <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C134" t="s">
         <v>310</v>
       </c>
       <c r="E134" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H134">
         <v>1400</v>
@@ -30712,7 +30724,7 @@
         <v>2130</v>
       </c>
       <c r="V134" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W134">
         <f t="shared" si="192"/>
@@ -30799,7 +30811,7 @@
         <v>2pm-9.3pm</v>
       </c>
       <c r="AR134" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AV134" s="4" t="s">
         <v>28</v>
@@ -30865,7 +30877,7 @@
         <v>310</v>
       </c>
       <c r="E135" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G135" t="s">
         <v>478</v>
@@ -31074,7 +31086,7 @@
         <v>267</v>
       </c>
       <c r="E136" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>852</v>
@@ -31234,7 +31246,7 @@
         <v>1040</v>
       </c>
       <c r="E137" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G137" t="s">
         <v>479</v>
@@ -31282,7 +31294,7 @@
         <v>420</v>
       </c>
       <c r="V137" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="W137">
         <f t="shared" si="192"/>
@@ -31440,7 +31452,7 @@
         <v>266</v>
       </c>
       <c r="E138" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G138" t="s">
         <v>480</v>
@@ -31476,7 +31488,7 @@
         <v>421</v>
       </c>
       <c r="V138" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="W138" t="str">
         <f t="shared" si="192"/>
@@ -31634,7 +31646,7 @@
         <v>619</v>
       </c>
       <c r="E139" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G139" t="s">
         <v>481</v>
@@ -31682,7 +31694,7 @@
         <v>421</v>
       </c>
       <c r="V139" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W139">
         <f t="shared" si="192"/>
@@ -31837,16 +31849,16 @@
     </row>
     <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C140" t="s">
         <v>267</v>
       </c>
       <c r="E140" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G140" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J140">
         <v>1500</v>
@@ -31873,7 +31885,7 @@
         <v>1800</v>
       </c>
       <c r="V140" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W140" t="str">
         <f t="shared" si="192"/>
@@ -31960,7 +31972,7 @@
         <v/>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AS140" t="s">
         <v>415</v>
@@ -32033,7 +32045,7 @@
         <v>618</v>
       </c>
       <c r="E141" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G141" t="s">
         <v>613</v>
@@ -32230,7 +32242,7 @@
         <v>300</v>
       </c>
       <c r="E142" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G142" t="s">
         <v>482</v>
@@ -32394,7 +32406,7 @@
         <v>300</v>
       </c>
       <c r="E143" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G143" t="s">
         <v>483</v>
@@ -32603,7 +32615,7 @@
         <v>617</v>
       </c>
       <c r="E144" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G144" t="s">
         <v>484</v>
@@ -32651,7 +32663,7 @@
         <v>420</v>
       </c>
       <c r="V144" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W144">
         <f t="shared" si="192"/>
@@ -32809,7 +32821,7 @@
         <v>316</v>
       </c>
       <c r="E145" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G145" t="s">
         <v>485</v>
@@ -33009,16 +33021,16 @@
     </row>
     <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G146" t="s">
         <v>1153</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G146" t="s">
-        <v>1154</v>
       </c>
       <c r="H146">
         <v>1500</v>
@@ -33063,7 +33075,7 @@
         <v>1800</v>
       </c>
       <c r="V146" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="W146">
         <f t="shared" si="192"/>
@@ -33150,7 +33162,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR146" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AV146" s="4" t="s">
         <v>28</v>
@@ -33216,7 +33228,7 @@
         <v>619</v>
       </c>
       <c r="E147" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G147" t="s">
         <v>486</v>
@@ -33416,16 +33428,16 @@
     </row>
     <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C148" t="s">
         <v>267</v>
       </c>
       <c r="E148" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G148" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H148">
         <v>1100</v>
@@ -33470,7 +33482,7 @@
         <v>1900</v>
       </c>
       <c r="V148" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W148">
         <f t="shared" si="192"/>
@@ -33620,7 +33632,7 @@
         <v>299</v>
       </c>
       <c r="E149" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G149" t="s">
         <v>571</v>
@@ -33796,7 +33808,7 @@
         <v>617</v>
       </c>
       <c r="E150" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G150" t="s">
         <v>487</v>
@@ -33990,7 +34002,7 @@
         <v>310</v>
       </c>
       <c r="E151" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G151" t="s">
         <v>488</v>
@@ -34196,7 +34208,7 @@
         <v>296</v>
       </c>
       <c r="E152" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>908</v>
@@ -34395,7 +34407,7 @@
         <v>820</v>
       </c>
       <c r="E153" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>828</v>
@@ -34594,7 +34606,7 @@
         <v>820</v>
       </c>
       <c r="E154" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>848</v>
@@ -34793,16 +34805,16 @@
     </row>
     <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G155" s="8" t="s">
         <v>1229</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>1230</v>
       </c>
       <c r="J155">
         <v>1400</v>
@@ -34841,7 +34853,7 @@
         <v>1700</v>
       </c>
       <c r="V155" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W155" t="str">
         <f t="shared" si="192"/>
@@ -34928,7 +34940,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR155" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AV155" s="4" t="s">
         <v>28</v>
@@ -34994,7 +35006,7 @@
         <v>266</v>
       </c>
       <c r="E156" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G156" t="s">
         <v>489</v>
@@ -35200,7 +35212,7 @@
         <v>299</v>
       </c>
       <c r="E157" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G157" t="s">
         <v>572</v>
@@ -35391,7 +35403,7 @@
         <v>817</v>
       </c>
       <c r="E158" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G158" t="s">
         <v>573</v>
@@ -35588,7 +35600,7 @@
         <v>821</v>
       </c>
       <c r="E159" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G159" t="s">
         <v>490</v>
@@ -35630,7 +35642,7 @@
         <v>419</v>
       </c>
       <c r="V159" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="W159">
         <f t="shared" si="192"/>
@@ -35788,7 +35800,7 @@
         <v>817</v>
       </c>
       <c r="E160" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G160" t="s">
         <v>574</v>
@@ -35985,7 +35997,7 @@
         <v>300</v>
       </c>
       <c r="E161" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G161" t="s">
         <v>491</v>
@@ -36182,7 +36194,7 @@
         <v>816</v>
       </c>
       <c r="E162" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G162" t="s">
         <v>492</v>
@@ -36376,7 +36388,7 @@
         <v>359</v>
       </c>
       <c r="E163" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G163" t="s">
         <v>493</v>
@@ -36570,7 +36582,7 @@
         <v>817</v>
       </c>
       <c r="E164" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G164" t="s">
         <v>494</v>
@@ -36770,7 +36782,7 @@
         <v>819</v>
       </c>
       <c r="E165" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G165" t="s">
         <v>575</v>
@@ -36967,7 +36979,7 @@
         <v>619</v>
       </c>
       <c r="E166" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G166" t="s">
         <v>576</v>
@@ -37161,7 +37173,7 @@
         <v>822</v>
       </c>
       <c r="E167" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>857</v>
@@ -37354,7 +37366,7 @@
         <v>300</v>
       </c>
       <c r="E168" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G168" t="s">
         <v>495</v>
@@ -37560,7 +37572,7 @@
         <v>617</v>
       </c>
       <c r="E169" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G169" t="s">
         <v>577</v>
@@ -37596,7 +37608,7 @@
         <v>420</v>
       </c>
       <c r="V169" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W169" t="str">
         <f t="shared" si="192"/>
@@ -37754,7 +37766,7 @@
         <v>300</v>
       </c>
       <c r="E170" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G170" t="s">
         <v>578</v>
@@ -37790,7 +37802,7 @@
         <v>420</v>
       </c>
       <c r="V170" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W170" t="str">
         <f t="shared" si="192"/>
@@ -37948,7 +37960,7 @@
         <v>310</v>
       </c>
       <c r="E171" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G171" t="s">
         <v>496</v>
@@ -38154,7 +38166,7 @@
         <v>823</v>
       </c>
       <c r="E172" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G172" t="s">
         <v>497</v>
@@ -38360,7 +38372,7 @@
         <v>617</v>
       </c>
       <c r="E173" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G173" t="s">
         <v>498</v>
@@ -38566,7 +38578,7 @@
         <v>300</v>
       </c>
       <c r="E174" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G174" t="s">
         <v>499</v>
@@ -38772,7 +38784,7 @@
         <v>296</v>
       </c>
       <c r="E175" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G175" t="s">
         <v>500</v>
@@ -38978,7 +38990,7 @@
         <v>300</v>
       </c>
       <c r="E176" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G176" t="s">
         <v>501</v>
@@ -39172,7 +39184,7 @@
         <v>299</v>
       </c>
       <c r="E177" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G177" t="s">
         <v>579</v>
@@ -39366,7 +39378,7 @@
         <v>821</v>
       </c>
       <c r="E178" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G178" t="s">
         <v>287</v>
@@ -39414,7 +39426,7 @@
         <v>432</v>
       </c>
       <c r="V178" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="W178">
         <f t="shared" si="192"/>
@@ -39575,10 +39587,10 @@
         <v>618</v>
       </c>
       <c r="E179" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G179" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H179" t="s">
         <v>418</v>
@@ -39781,7 +39793,7 @@
         <v>300</v>
       </c>
       <c r="E180" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G180" t="s">
         <v>580</v>
@@ -39975,7 +39987,7 @@
         <v>619</v>
       </c>
       <c r="E181" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G181" t="s">
         <v>502</v>
@@ -40181,7 +40193,7 @@
         <v>267</v>
       </c>
       <c r="E182" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G182" t="s">
         <v>581</v>
@@ -40375,7 +40387,7 @@
         <v>300</v>
       </c>
       <c r="E183" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G183" t="s">
         <v>503</v>
@@ -40581,7 +40593,7 @@
         <v>817</v>
       </c>
       <c r="E184" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G184" t="s">
         <v>288</v>
@@ -40617,7 +40629,7 @@
         <v>419</v>
       </c>
       <c r="V184" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W184" t="str">
         <f t="shared" si="192"/>
@@ -40778,7 +40790,7 @@
         <v>822</v>
       </c>
       <c r="E185" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G185" s="12" t="s">
         <v>861</v>
@@ -40965,7 +40977,7 @@
         <v>818</v>
       </c>
       <c r="E186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>869</v>
@@ -41170,7 +41182,7 @@
         <v>299</v>
       </c>
       <c r="E187" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G187" t="s">
         <v>504</v>
@@ -41376,7 +41388,7 @@
         <v>821</v>
       </c>
       <c r="E188" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G188" t="s">
         <v>614</v>
@@ -41570,7 +41582,7 @@
         <v>822</v>
       </c>
       <c r="E189" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G189" t="s">
         <v>293</v>
@@ -41755,7 +41767,7 @@
         <v>359</v>
       </c>
       <c r="E190" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>940</v>
@@ -41960,7 +41972,7 @@
         <v>818</v>
       </c>
       <c r="E191" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>875</v>
@@ -42117,7 +42129,7 @@
         <v>620</v>
       </c>
       <c r="E192" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G192" t="s">
         <v>582</v>
@@ -42311,16 +42323,16 @@
     </row>
     <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C193" t="s">
         <v>1040</v>
       </c>
       <c r="E193" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G193" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="W193" t="str">
         <f t="shared" si="192"/>
@@ -42407,7 +42419,7 @@
         <v/>
       </c>
       <c r="AR193" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AV193" s="4" t="s">
         <v>29</v>
@@ -42473,7 +42485,7 @@
         <v>822</v>
       </c>
       <c r="E194" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G194" s="12" t="s">
         <v>856</v>
@@ -42521,7 +42533,7 @@
         <v>1800</v>
       </c>
       <c r="V194" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="W194">
         <f t="shared" si="192"/>
@@ -42678,7 +42690,7 @@
         <v>618</v>
       </c>
       <c r="E195" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G195" t="s">
         <v>583</v>
@@ -42872,7 +42884,7 @@
         <v>316</v>
       </c>
       <c r="E196" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G196" t="s">
         <v>584</v>
@@ -43070,7 +43082,7 @@
         <v>816</v>
       </c>
       <c r="E197" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G197" t="s">
         <v>585</v>
@@ -43264,7 +43276,7 @@
         <v>316</v>
       </c>
       <c r="E198" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G198" t="s">
         <v>586</v>
@@ -43452,16 +43464,16 @@
     </row>
     <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C199" t="s">
         <v>817</v>
       </c>
       <c r="E199" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G199" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H199">
         <v>1600</v>
@@ -43488,7 +43500,7 @@
         <v>1800</v>
       </c>
       <c r="V199" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="W199">
         <f t="shared" si="225"/>
@@ -43575,7 +43587,7 @@
         <v/>
       </c>
       <c r="AR199" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AV199" s="4" t="s">
         <v>28</v>
@@ -43635,16 +43647,16 @@
     </row>
     <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C200" t="s">
         <v>617</v>
       </c>
       <c r="E200" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G200" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H200">
         <v>1500</v>
@@ -43689,7 +43701,7 @@
         <v>1800</v>
       </c>
       <c r="V200" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="W200">
         <f t="shared" si="225"/>
@@ -43776,7 +43788,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR200" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AV200" s="4" t="s">
         <v>28</v>
@@ -43842,7 +43854,7 @@
         <v>310</v>
       </c>
       <c r="E201" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G201" t="s">
         <v>587</v>
@@ -44030,16 +44042,16 @@
     </row>
     <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G202" t="s">
         <v>1164</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G202" t="s">
-        <v>1165</v>
       </c>
       <c r="J202">
         <v>1500</v>
@@ -44072,7 +44084,7 @@
         <v>1800</v>
       </c>
       <c r="V202" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="W202" t="str">
         <f t="shared" si="225"/>
@@ -44159,7 +44171,7 @@
         <v/>
       </c>
       <c r="AR202" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AV202" s="4" t="s">
         <v>28</v>
@@ -44225,7 +44237,7 @@
         <v>299</v>
       </c>
       <c r="E203" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G203" t="s">
         <v>505</v>
@@ -44261,7 +44273,7 @@
         <v>420</v>
       </c>
       <c r="V203" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W203" t="str">
         <f t="shared" si="225"/>
@@ -44419,7 +44431,7 @@
         <v>296</v>
       </c>
       <c r="E204" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>900</v>
@@ -44455,7 +44467,7 @@
         <v>1800</v>
       </c>
       <c r="V204" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W204" t="str">
         <f t="shared" si="225"/>
@@ -44606,16 +44618,16 @@
     </row>
     <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C205" t="s">
         <v>267</v>
       </c>
       <c r="E205" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G205" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J205">
         <v>1500</v>
@@ -44648,7 +44660,7 @@
         <v>1800</v>
       </c>
       <c r="V205" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W205" t="str">
         <f t="shared" si="225"/>
@@ -44735,7 +44747,7 @@
         <v/>
       </c>
       <c r="AR205" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AV205" s="4" t="s">
         <v>28</v>
@@ -44801,7 +44813,7 @@
         <v>1040</v>
       </c>
       <c r="E206" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G206" t="s">
         <v>506</v>
@@ -45001,7 +45013,7 @@
         <v>820</v>
       </c>
       <c r="E207" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>826</v>
@@ -45191,7 +45203,7 @@
         <v>823</v>
       </c>
       <c r="E208" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G208" t="s">
         <v>507</v>
@@ -45391,7 +45403,7 @@
         <v>300</v>
       </c>
       <c r="E209" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G209" t="s">
         <v>508</v>
@@ -45439,7 +45451,7 @@
         <v>420</v>
       </c>
       <c r="V209" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W209">
         <f t="shared" si="225"/>
@@ -45591,16 +45603,16 @@
     </row>
     <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C210" t="s">
         <v>1040</v>
       </c>
       <c r="E210" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G210" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J210">
         <v>1600</v>
@@ -45633,7 +45645,7 @@
         <v>1800</v>
       </c>
       <c r="V210" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="W210" t="str">
         <f t="shared" si="225"/>
@@ -45720,7 +45732,7 @@
         <v/>
       </c>
       <c r="AR210" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AV210" s="4" t="s">
         <v>28</v>
@@ -45787,7 +45799,7 @@
         <v>267</v>
       </c>
       <c r="E211" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G211" t="s">
         <v>268</v>
@@ -45817,7 +45829,7 @@
         <v>421</v>
       </c>
       <c r="V211" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="W211" t="str">
         <f t="shared" si="225"/>
@@ -45978,7 +45990,7 @@
         <v>817</v>
       </c>
       <c r="E212" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G212" t="s">
         <v>509</v>
@@ -46026,7 +46038,7 @@
         <v>1700</v>
       </c>
       <c r="V212" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="W212">
         <f t="shared" si="225"/>
@@ -46187,7 +46199,7 @@
         <v>300</v>
       </c>
       <c r="E213" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G213" t="s">
         <v>510</v>
@@ -46381,7 +46393,7 @@
         <v>296</v>
       </c>
       <c r="E214" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G214" t="s">
         <v>588</v>
@@ -46417,7 +46429,7 @@
         <v>1900</v>
       </c>
       <c r="V214" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="W214" t="str">
         <f t="shared" si="225"/>
@@ -46575,7 +46587,7 @@
         <v>817</v>
       </c>
       <c r="E215" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G215" t="s">
         <v>290</v>
@@ -46739,7 +46751,7 @@
         <v>618</v>
       </c>
       <c r="E216" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G216" t="s">
         <v>511</v>
@@ -46933,7 +46945,7 @@
         <v>300</v>
       </c>
       <c r="E217" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G217" t="s">
         <v>512</v>
@@ -46981,7 +46993,7 @@
         <v>421</v>
       </c>
       <c r="V217" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W217">
         <f t="shared" si="225"/>
@@ -47139,7 +47151,7 @@
         <v>818</v>
       </c>
       <c r="E218" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>871</v>
@@ -47344,7 +47356,7 @@
         <v>266</v>
       </c>
       <c r="E219" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G219" t="s">
         <v>513</v>
@@ -47550,7 +47562,7 @@
         <v>1040</v>
       </c>
       <c r="E220" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G220" t="s">
         <v>405</v>
@@ -47750,7 +47762,7 @@
         <v>359</v>
       </c>
       <c r="E221" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>936</v>
@@ -47910,7 +47922,7 @@
         <v>267</v>
       </c>
       <c r="E222" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G222" t="s">
         <v>289</v>
@@ -48074,7 +48086,7 @@
         <v>817</v>
       </c>
       <c r="E223" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G223" t="s">
         <v>403</v>
@@ -48110,7 +48122,7 @@
         <v>421</v>
       </c>
       <c r="V223" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="W223" t="str">
         <f t="shared" si="225"/>
@@ -48272,7 +48284,7 @@
         <v>300</v>
       </c>
       <c r="E224" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G224" t="s">
         <v>514</v>
@@ -48314,7 +48326,7 @@
         <v>421</v>
       </c>
       <c r="V224" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W224">
         <f t="shared" si="225"/>
@@ -48472,7 +48484,7 @@
         <v>300</v>
       </c>
       <c r="E225" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G225" t="s">
         <v>515</v>
@@ -48678,7 +48690,7 @@
         <v>618</v>
       </c>
       <c r="E226" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G226" t="s">
         <v>589</v>
@@ -48872,7 +48884,7 @@
         <v>310</v>
       </c>
       <c r="E227" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G227" t="s">
         <v>516</v>
@@ -48920,7 +48932,7 @@
         <v>421</v>
       </c>
       <c r="V227" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="W227">
         <f t="shared" si="225"/>
@@ -49078,7 +49090,7 @@
         <v>296</v>
       </c>
       <c r="E228" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>904</v>
@@ -49238,7 +49250,7 @@
         <v>300</v>
       </c>
       <c r="E229" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G229" t="s">
         <v>517</v>
@@ -49274,7 +49286,7 @@
         <v>1800</v>
       </c>
       <c r="V229" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W229" t="str">
         <f t="shared" si="225"/>
@@ -49432,7 +49444,7 @@
         <v>299</v>
       </c>
       <c r="E230" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G230" t="s">
         <v>518</v>
@@ -49638,7 +49650,7 @@
         <v>816</v>
       </c>
       <c r="E231" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G231" t="s">
         <v>519</v>
@@ -49844,7 +49856,7 @@
         <v>299</v>
       </c>
       <c r="E232" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G232" t="s">
         <v>291</v>
@@ -50002,16 +50014,16 @@
     </row>
     <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C233" t="s">
         <v>267</v>
       </c>
       <c r="E233" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G233" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J233">
         <v>1600</v>
@@ -50044,7 +50056,7 @@
         <v>1900</v>
       </c>
       <c r="V233" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="W233" t="str">
         <f t="shared" si="225"/>
@@ -50195,7 +50207,7 @@
         <v>817</v>
       </c>
       <c r="E234" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G234" t="s">
         <v>520</v>
@@ -50392,7 +50404,7 @@
         <v>820</v>
       </c>
       <c r="E235" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>840</v>
@@ -50597,7 +50609,7 @@
         <v>620</v>
       </c>
       <c r="E236" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G236" t="s">
         <v>590</v>
@@ -50791,7 +50803,7 @@
         <v>819</v>
       </c>
       <c r="E237" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G237" s="8" t="s">
         <v>916</v>
@@ -50945,16 +50957,16 @@
     </row>
     <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C238" t="s">
         <v>821</v>
       </c>
       <c r="E238" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G238" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H238">
         <v>1500</v>
@@ -50999,7 +51011,7 @@
         <v>2000</v>
       </c>
       <c r="V238" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="W238">
         <f t="shared" si="225"/>
@@ -51086,7 +51098,7 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR238" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AV238" s="4" t="s">
         <v>28</v>
@@ -51152,7 +51164,7 @@
         <v>819</v>
       </c>
       <c r="E239" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G239" t="s">
         <v>591</v>
@@ -51349,7 +51361,7 @@
         <v>619</v>
       </c>
       <c r="E240" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G240" t="s">
         <v>521</v>
@@ -51543,16 +51555,16 @@
     </row>
     <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C241" t="s">
         <v>299</v>
       </c>
       <c r="E241" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="W241" t="str">
         <f t="shared" si="225"/>
@@ -51639,7 +51651,7 @@
         <v/>
       </c>
       <c r="AR241" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AV241" s="4" t="s">
         <v>29</v>
@@ -51706,7 +51718,7 @@
         <v>821</v>
       </c>
       <c r="E242" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G242" s="8" t="s">
         <v>890</v>
@@ -51911,7 +51923,7 @@
         <v>316</v>
       </c>
       <c r="E243" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G243" t="s">
         <v>522</v>
@@ -52117,7 +52129,7 @@
         <v>299</v>
       </c>
       <c r="E244" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G244" s="8" t="s">
         <v>906</v>
@@ -52274,7 +52286,7 @@
         <v>817</v>
       </c>
       <c r="E245" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G245" t="s">
         <v>523</v>
@@ -52480,7 +52492,7 @@
         <v>266</v>
       </c>
       <c r="E246" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G246" t="s">
         <v>592</v>
@@ -52674,7 +52686,7 @@
         <v>617</v>
       </c>
       <c r="E247" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G247" t="s">
         <v>593</v>
@@ -52868,7 +52880,7 @@
         <v>300</v>
       </c>
       <c r="E248" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G248" t="s">
         <v>594</v>
@@ -53056,16 +53068,16 @@
     </row>
     <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C249" t="s">
         <v>617</v>
       </c>
       <c r="E249" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G249" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J249">
         <v>1500</v>
@@ -53098,7 +53110,7 @@
         <v>1800</v>
       </c>
       <c r="V249" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="W249" t="str">
         <f t="shared" si="225"/>
@@ -53185,7 +53197,7 @@
         <v/>
       </c>
       <c r="AR249" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AV249" s="4" t="s">
         <v>28</v>
@@ -53252,7 +53264,7 @@
         <v>300</v>
       </c>
       <c r="E250" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G250" t="s">
         <v>595</v>
@@ -53288,7 +53300,7 @@
         <v>420</v>
       </c>
       <c r="V250" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="W250" t="str">
         <f t="shared" si="225"/>
@@ -53446,7 +53458,7 @@
         <v>266</v>
       </c>
       <c r="E251" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G251" t="s">
         <v>524</v>
@@ -53652,7 +53664,7 @@
         <v>310</v>
       </c>
       <c r="E252" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G252" t="s">
         <v>285</v>
@@ -53816,7 +53828,7 @@
         <v>267</v>
       </c>
       <c r="E253" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G253" t="s">
         <v>273</v>
@@ -53980,7 +53992,7 @@
         <v>296</v>
       </c>
       <c r="E254" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G254" t="s">
         <v>525</v>
@@ -54028,7 +54040,7 @@
         <v>420</v>
       </c>
       <c r="V254" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W254">
         <f t="shared" si="225"/>
@@ -54186,7 +54198,7 @@
         <v>300</v>
       </c>
       <c r="E255" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G255" t="s">
         <v>596</v>
@@ -54374,16 +54386,16 @@
     </row>
     <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C256" t="s">
         <v>310</v>
       </c>
       <c r="E256" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G256" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H256">
         <v>1400</v>
@@ -54422,7 +54434,7 @@
         <v>1800</v>
       </c>
       <c r="V256" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="W256">
         <f t="shared" si="225"/>
@@ -54509,7 +54521,7 @@
         <v/>
       </c>
       <c r="AR256" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AV256" s="4" t="s">
         <v>28</v>
@@ -54575,7 +54587,7 @@
         <v>1040</v>
       </c>
       <c r="E257" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G257" t="s">
         <v>597</v>
@@ -54769,7 +54781,7 @@
         <v>299</v>
       </c>
       <c r="E258" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G258" t="s">
         <v>598</v>
@@ -54957,16 +54969,16 @@
     </row>
     <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C259" t="s">
         <v>817</v>
       </c>
       <c r="E259" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G259" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H259">
         <v>1500</v>
@@ -55011,7 +55023,7 @@
         <v>1800</v>
       </c>
       <c r="V259" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="W259">
         <f t="shared" si="225"/>
@@ -55098,7 +55110,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR259" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AV259" t="s">
         <v>28</v>
@@ -55159,16 +55171,16 @@
     </row>
     <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C260" t="s">
         <v>267</v>
       </c>
       <c r="E260" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G260" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J260">
         <v>1500</v>
@@ -55201,7 +55213,7 @@
         <v>1800</v>
       </c>
       <c r="V260" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W260" t="str">
         <f t="shared" ref="W260:W319" si="259">IF(H260&gt;0,H260/100,"")</f>
@@ -55288,7 +55300,7 @@
         <v/>
       </c>
       <c r="AR260" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AV260" t="s">
         <v>28</v>
@@ -55359,7 +55371,7 @@
         <v>316</v>
       </c>
       <c r="E261" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G261" t="s">
         <v>526</v>
@@ -55407,7 +55419,7 @@
         <v>1800</v>
       </c>
       <c r="V261" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="W261">
         <f t="shared" si="259"/>
@@ -55565,7 +55577,7 @@
         <v>619</v>
       </c>
       <c r="E262" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G262" t="s">
         <v>527</v>
@@ -55771,7 +55783,7 @@
         <v>620</v>
       </c>
       <c r="E263" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G263" t="s">
         <v>599</v>
@@ -55965,7 +55977,7 @@
         <v>620</v>
       </c>
       <c r="E264" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G264" t="s">
         <v>528</v>
@@ -56174,7 +56186,7 @@
         <v>817</v>
       </c>
       <c r="E265" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G265" s="8" t="s">
         <v>881</v>
@@ -56334,7 +56346,7 @@
         <v>310</v>
       </c>
       <c r="E266" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G266" t="s">
         <v>529</v>
@@ -56382,7 +56394,7 @@
         <v>1900</v>
       </c>
       <c r="V266" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W266">
         <f t="shared" si="259"/>
@@ -56540,7 +56552,7 @@
         <v>618</v>
       </c>
       <c r="E267" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G267" t="s">
         <v>530</v>
@@ -56576,7 +56588,7 @@
         <v>421</v>
       </c>
       <c r="V267" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W267" t="str">
         <f t="shared" si="259"/>
@@ -56737,7 +56749,7 @@
         <v>316</v>
       </c>
       <c r="E268" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G268" t="s">
         <v>531</v>
@@ -56925,16 +56937,16 @@
     </row>
     <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C269" t="s">
         <v>817</v>
       </c>
       <c r="E269" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G269" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="W269" t="str">
         <f t="shared" si="259"/>
@@ -57021,7 +57033,7 @@
         <v/>
       </c>
       <c r="AR269" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV269" s="4" t="s">
         <v>29</v>
@@ -57087,7 +57099,7 @@
         <v>300</v>
       </c>
       <c r="E270" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G270" t="s">
         <v>600</v>
@@ -57281,7 +57293,7 @@
         <v>300</v>
       </c>
       <c r="E271" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G271" t="s">
         <v>601</v>
@@ -57475,7 +57487,7 @@
         <v>296</v>
       </c>
       <c r="E272" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G272" t="s">
         <v>532</v>
@@ -57669,7 +57681,7 @@
         <v>316</v>
       </c>
       <c r="E273" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G273" t="s">
         <v>602</v>
@@ -57705,7 +57717,7 @@
         <v>420</v>
       </c>
       <c r="V273" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W273" t="str">
         <f t="shared" si="259"/>
@@ -57863,7 +57875,7 @@
         <v>1040</v>
       </c>
       <c r="E274" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G274" t="s">
         <v>533</v>
@@ -58069,7 +58081,7 @@
         <v>300</v>
       </c>
       <c r="E275" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G275" t="s">
         <v>603</v>
@@ -58233,7 +58245,7 @@
         <v>820</v>
       </c>
       <c r="E276" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G276" s="8" t="s">
         <v>836</v>
@@ -58438,7 +58450,7 @@
         <v>359</v>
       </c>
       <c r="E277" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G277" s="8" t="s">
         <v>942</v>
@@ -58637,16 +58649,16 @@
     </row>
     <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C278" t="s">
         <v>299</v>
       </c>
       <c r="E278" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G278" s="24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H278">
         <v>1600</v>
@@ -58691,7 +58703,7 @@
         <v>1830</v>
       </c>
       <c r="V278" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W278">
         <f t="shared" si="259"/>
@@ -58841,7 +58853,7 @@
         <v>300</v>
       </c>
       <c r="E279" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G279" t="s">
         <v>615</v>
@@ -59029,7 +59041,7 @@
         <v>299</v>
       </c>
       <c r="E280" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G280" s="8" t="s">
         <v>902</v>
@@ -59228,7 +59240,7 @@
         <v>819</v>
       </c>
       <c r="E281" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G281" s="8" t="s">
         <v>910</v>
@@ -59418,7 +59430,7 @@
         <v>820</v>
       </c>
       <c r="E282" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G282" t="s">
         <v>830</v>
@@ -59623,7 +59635,7 @@
         <v>267</v>
       </c>
       <c r="E283" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G283" t="s">
         <v>274</v>
@@ -59659,7 +59671,7 @@
         <v>422</v>
       </c>
       <c r="V283" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="W283" t="str">
         <f t="shared" si="259"/>
@@ -59820,7 +59832,7 @@
         <v>822</v>
       </c>
       <c r="E284" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G284" s="8" t="s">
         <v>865</v>
@@ -60025,7 +60037,7 @@
         <v>819</v>
       </c>
       <c r="E285" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G285" s="8" t="s">
         <v>918</v>
@@ -60230,7 +60242,7 @@
         <v>300</v>
       </c>
       <c r="E286" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G286" t="s">
         <v>534</v>
@@ -60433,7 +60445,7 @@
         <v>359</v>
       </c>
       <c r="E287" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G287" s="8" t="s">
         <v>944</v>
@@ -60638,7 +60650,7 @@
         <v>817</v>
       </c>
       <c r="E288" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G288" s="8" t="s">
         <v>879</v>
@@ -60680,7 +60692,7 @@
         <v>1830</v>
       </c>
       <c r="V288" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="W288" t="str">
         <f t="shared" si="259"/>
@@ -60837,7 +60849,7 @@
         <v>817</v>
       </c>
       <c r="E289" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G289" t="s">
         <v>535</v>
@@ -60885,7 +60897,7 @@
         <v>420</v>
       </c>
       <c r="V289" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="W289">
         <f t="shared" si="259"/>
@@ -61043,7 +61055,7 @@
         <v>619</v>
       </c>
       <c r="E290" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G290" t="s">
         <v>269</v>
@@ -61091,7 +61103,7 @@
         <v>420</v>
       </c>
       <c r="V290" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="W290">
         <f t="shared" si="259"/>
@@ -61252,7 +61264,7 @@
         <v>617</v>
       </c>
       <c r="E291" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G291" t="s">
         <v>536</v>
@@ -61300,7 +61312,7 @@
         <v>420</v>
       </c>
       <c r="V291" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="W291">
         <f t="shared" si="259"/>
@@ -61458,7 +61470,7 @@
         <v>300</v>
       </c>
       <c r="E292" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G292" t="s">
         <v>537</v>
@@ -61494,7 +61506,7 @@
         <v>421</v>
       </c>
       <c r="V292" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="W292" t="str">
         <f t="shared" si="259"/>
@@ -61652,7 +61664,7 @@
         <v>619</v>
       </c>
       <c r="E293" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G293" t="s">
         <v>604</v>
@@ -61813,7 +61825,7 @@
         <v>817</v>
       </c>
       <c r="E294" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G294" t="s">
         <v>605</v>
@@ -62004,7 +62016,7 @@
         <v>359</v>
       </c>
       <c r="E295" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G295" s="8" t="s">
         <v>929</v>
@@ -62155,7 +62167,7 @@
         <v>300</v>
       </c>
       <c r="E296" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G296" t="s">
         <v>539</v>
@@ -62355,7 +62367,7 @@
         <v>359</v>
       </c>
       <c r="E297" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G297" s="8" t="s">
         <v>924</v>
@@ -62515,7 +62527,7 @@
         <v>300</v>
       </c>
       <c r="E298" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G298" t="s">
         <v>606</v>
@@ -62703,16 +62715,16 @@
     </row>
     <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C299" t="s">
         <v>1040</v>
       </c>
       <c r="E299" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G299" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H299">
         <v>1600</v>
@@ -62757,7 +62769,7 @@
         <v>2400</v>
       </c>
       <c r="V299" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="W299">
         <f t="shared" si="259"/>
@@ -62844,7 +62856,7 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR299" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AV299" s="4" t="s">
         <v>28</v>
@@ -62910,7 +62922,7 @@
         <v>300</v>
       </c>
       <c r="E300" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G300" t="s">
         <v>540</v>
@@ -63104,7 +63116,7 @@
         <v>310</v>
       </c>
       <c r="E301" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G301" t="s">
         <v>607</v>
@@ -63140,7 +63152,7 @@
         <v>420</v>
       </c>
       <c r="V301" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="W301" t="str">
         <f t="shared" si="259"/>
@@ -63301,7 +63313,7 @@
         <v>618</v>
       </c>
       <c r="E302" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G302" t="s">
         <v>608</v>
@@ -63337,7 +63349,7 @@
         <v>421</v>
       </c>
       <c r="V302" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W302" t="str">
         <f t="shared" si="259"/>
@@ -63489,16 +63501,16 @@
     </row>
     <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C303" t="s">
         <v>817</v>
       </c>
       <c r="E303" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G303" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H303">
         <v>1500</v>
@@ -63537,7 +63549,7 @@
         <v>1800</v>
       </c>
       <c r="V303" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="W303">
         <f t="shared" si="259"/>
@@ -63687,7 +63699,7 @@
         <v>267</v>
       </c>
       <c r="E304" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G304" t="s">
         <v>609</v>
@@ -63881,7 +63893,7 @@
         <v>618</v>
       </c>
       <c r="E305" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G305" t="s">
         <v>541</v>
@@ -63917,7 +63929,7 @@
         <v>421</v>
       </c>
       <c r="V305" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="W305">
         <f t="shared" si="259"/>
@@ -64078,7 +64090,7 @@
         <v>817</v>
       </c>
       <c r="E306" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G306" t="s">
         <v>542</v>
@@ -64284,7 +64296,7 @@
         <v>817</v>
       </c>
       <c r="E307" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G307" s="8" t="s">
         <v>885</v>
@@ -64489,7 +64501,7 @@
         <v>310</v>
       </c>
       <c r="E308" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G308" t="s">
         <v>283</v>
@@ -64653,7 +64665,7 @@
         <v>359</v>
       </c>
       <c r="E309" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G309" s="8" t="s">
         <v>932</v>
@@ -64855,7 +64867,7 @@
         <v>823</v>
       </c>
       <c r="E310" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G310" t="s">
         <v>543</v>
@@ -65013,16 +65025,16 @@
     </row>
     <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C311" t="s">
         <v>1040</v>
       </c>
       <c r="E311" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G311" s="24" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L311">
         <v>1700</v>
@@ -65049,7 +65061,7 @@
         <v>1800</v>
       </c>
       <c r="V311" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W311" t="str">
         <f t="shared" si="259"/>
@@ -65199,7 +65211,7 @@
         <v>820</v>
       </c>
       <c r="E312" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G312" s="8" t="s">
         <v>824</v>
@@ -65398,7 +65410,7 @@
         <v>1040</v>
       </c>
       <c r="E313" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G313" t="s">
         <v>610</v>
@@ -65592,7 +65604,7 @@
         <v>821</v>
       </c>
       <c r="E314" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G314" s="8" t="s">
         <v>452</v>
@@ -65797,7 +65809,7 @@
         <v>619</v>
       </c>
       <c r="E315" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G315" t="s">
         <v>544</v>
@@ -65991,7 +66003,7 @@
         <v>299</v>
       </c>
       <c r="E316" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G316" t="s">
         <v>545</v>
@@ -66039,7 +66051,7 @@
         <v>421</v>
       </c>
       <c r="V316" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W316">
         <f t="shared" si="259"/>
@@ -66197,7 +66209,7 @@
         <v>819</v>
       </c>
       <c r="E317" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>920</v>
@@ -66402,7 +66414,7 @@
         <v>299</v>
       </c>
       <c r="E318" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G318" t="s">
         <v>286</v>
@@ -66566,7 +66578,7 @@
         <v>310</v>
       </c>
       <c r="E319" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G319" t="s">
         <v>546</v>
@@ -66796,25 +66808,25 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1" t="s">
         <v>1190</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1191</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1192</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1193</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1194</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1195</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -66825,37 +66837,37 @@
         <v>-104.99021</v>
       </c>
       <c r="C2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2" t="s">
         <v>1197</v>
       </c>
-      <c r="G2" t="s">
-        <v>1198</v>
-      </c>
       <c r="J2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K2" t="s">
         <v>1190</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1191</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1192</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1193</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>1194</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1195</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -66866,16 +66878,16 @@
         <v>-105.00512999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G3" t="s">
         <v>1197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1198</v>
       </c>
       <c r="J3">
         <v>39.771419999999999</v>
@@ -66884,16 +66896,16 @@
         <v>-105.04415</v>
       </c>
       <c r="L3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="M3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P3" t="s">
         <v>1197</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -66904,16 +66916,16 @@
         <v>-104.99066000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G4" t="s">
         <v>1197</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1198</v>
       </c>
       <c r="J4">
         <v>39.769440000000003</v>
@@ -66922,16 +66934,16 @@
         <v>-104.97676</v>
       </c>
       <c r="L4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P4" t="s">
         <v>1197</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -66942,16 +66954,16 @@
         <v>-104.97929000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G5" t="s">
         <v>1197</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1198</v>
       </c>
       <c r="J5">
         <v>39.761319999999998</v>
@@ -66960,16 +66972,16 @@
         <v>-104.98376</v>
       </c>
       <c r="L5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="M5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="O5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P5" t="s">
         <v>1197</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -66980,16 +66992,16 @@
         <v>-104.99643</v>
       </c>
       <c r="C6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G6" t="s">
         <v>1197</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1198</v>
       </c>
       <c r="J6">
         <v>39.743519999999997</v>
@@ -66998,16 +67010,16 @@
         <v>-104.96953999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="O6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P6" t="s">
         <v>1197</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -67018,16 +67030,16 @@
         <v>-104.98058</v>
       </c>
       <c r="C7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G7" t="s">
         <v>1197</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1198</v>
       </c>
       <c r="J7">
         <v>39.753050000000002</v>
@@ -67036,16 +67048,16 @@
         <v>-104.99995</v>
       </c>
       <c r="L7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="M7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P7" t="s">
         <v>1197</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -67056,16 +67068,16 @@
         <v>-105.01622999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G8" t="s">
         <v>1197</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1198</v>
       </c>
       <c r="J8">
         <v>39.769440000000003</v>
@@ -67074,16 +67086,16 @@
         <v>-104.97676</v>
       </c>
       <c r="L8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P8" t="s">
         <v>1197</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -67094,16 +67106,16 @@
         <v>-104.99897</v>
       </c>
       <c r="C9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G9" t="s">
         <v>1197</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -67114,16 +67126,16 @@
         <v>-104.98604</v>
       </c>
       <c r="C10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G10" t="s">
         <v>1197</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -67134,16 +67146,16 @@
         <v>-104.98388</v>
       </c>
       <c r="C11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G11" t="s">
         <v>1197</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -67154,16 +67166,16 @@
         <v>-105.01106</v>
       </c>
       <c r="C12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D12" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G12" t="s">
         <v>1197</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -67174,16 +67186,16 @@
         <v>-104.9798</v>
       </c>
       <c r="C13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G13" t="s">
         <v>1197</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -67194,16 +67206,16 @@
         <v>-105.00048</v>
       </c>
       <c r="C14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F14" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G14" t="s">
         <v>1197</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -67214,16 +67226,16 @@
         <v>-104.94761</v>
       </c>
       <c r="C15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D15" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F15" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G15" t="s">
         <v>1197</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1198</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="1309">
   <si>
     <t>Name</t>
   </si>
@@ -4964,9 +4964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW128" sqref="AW128"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5502,6 +5502,12 @@
         <v>8am-12pm</v>
       </c>
       <c r="AR3" s="1"/>
+      <c r="AS3" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>416</v>
+      </c>
       <c r="AV3" s="4" t="s">
         <v>28</v>
       </c>
@@ -5517,15 +5523,15 @@
         <v>{
     'name': "20 Mile Tap House",
     'area': "dtc",'hours': {
-      'sunday-start':"800", 'sunday-end':"1200", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"800", 'saturday-end':"1200"},  'description': "Monday - Friday&lt;br&gt; $1.00 off All Wine, Well and all Beer&lt;br&gt;Sat and Sun&lt;br&gt;2 for 1 Bloodys, Mimosa Marys, Greyhounds, Screwdrivers and Domestic Pints", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "12543 S Parker Road Parker, CO 80134", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"800", 'sunday-end':"1200", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"800", 'saturday-end':"1200"},  'description': "Monday - Friday&lt;br&gt; $1.00 off All Wine, Well and all Beer&lt;br&gt;Sat and Sun&lt;br&gt;2 for 1 Bloodys, Mimosa Marys, Greyhounds, Screwdrivers and Domestic Pints", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "12543 S Parker Road Parker, CO 80134", 'other-amenities': ['outside','pet',''], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY3" t="str">
         <f t="shared" ref="AY3" si="53">IF(AS3&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
-        <v/>
+        <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
       <c r="AZ3" t="str">
         <f t="shared" ref="AZ3" si="54">IF(AT3&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
-        <v/>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BA3" t="str">
         <f t="shared" ref="BA3" si="55">IF(AU3="hard","&lt;img src=@img/hard.png@&gt;",IF(AU3="medium","&lt;img src=@img/medium.png@&gt;",IF(AU3="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
@@ -5541,11 +5547,11 @@
       </c>
       <c r="BD3" t="str">
         <f t="shared" ref="BD3" si="58">CONCATENATE(AY3,AZ3,BA3,BB3,BC3,BK3)</f>
-        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE3" t="str">
         <f t="shared" ref="BE3" si="59">CONCATENATE(IF(AS3&gt;0,"outdoor ",""),IF(AT3&gt;0,"pet ",""),IF(AV3="true","drink ",""),IF(AW3="true","food ",""),AU3," ",E3," ",C3,IF(BJ3=TRUE," kid",""))</f>
-        <v>drink  med dtc</v>
+        <v>outdoor pet drink  med dtc</v>
       </c>
       <c r="BF3" t="str">
         <f t="shared" ref="BF3" si="60">IF(C3="highlands","Highlands",IF(C3="Washington","Washington Park",IF(C3="Downtown","Downtown",IF(C3="city","City Park",IF(C3="Uptown","Uptown",IF(C3="capital","Capital Hill",IF(C3="Ballpark","Ballpark",IF(C3="LoDo","LoDo",IF(C3="ranch","Highlands Ranch",IF(C3="five","Five Points",IF(C3="stapleton","Stapleton",IF(C3="Cherry","Cherry Creek",IF(C3="dtc","DTC",IF(C3="Baker","Baker",IF(C3="Lakewood","Lakewood",IF(C3="Westminster","Westminster",IF(C3="lowery","Lowery",IF(C3="meadows","Park Meadows",IF(C3="larimer","Larimer Square",IF(C3="RiNo","RiNo",IF(C3="aurora","Aurora","")))))))))))))))))))))</f>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3467,9 +3467,6 @@
     <t>620 E 6th Ave Denver CO</t>
   </si>
   <si>
-    <t>Bites&lt;br&gt;$1 Oysters on The Half Shell&lt;br&gt;$2 Grilled Oysters&lt;br&gt;$2 Meatball, Sausage or Caprese Sliders&lt;br&gt;$5 House, Caesar or Spinach Salads&lt;br&gt;$5.75 Toasted Ravioli (4 with side of marinara)&lt;br&gt;$6 One Topping 8” Pizzas (add. toppings $1)&lt;br&gt;&lt;br&gt;Beverages&lt;br&gt;$1 off Draft Beer&lt;br&gt;$2 off Wines on Tap&lt;br&gt;$4 Well Drinks</t>
-  </si>
-  <si>
     <t>https://angelostaverna.com</t>
   </si>
   <si>
@@ -3969,6 +3966,9 @@
   </si>
   <si>
     <t>$1 Off Draft Beer&lt;br&gt;$1 Off House Wine&lt;br&gt;$1 Off Cocktails&lt;br&gt;$2 Off Double Cocktails&lt;br&gt;$40 Docktail Buckets&lt;br&gt;$6 Chipped Cheese Plate&lt;br&gt;$5 Chopped Salad&lt;br&gt;$5 Ham-Dog&lt;br&gt;$4 Chili con Queso</t>
+  </si>
+  <si>
+    <t>Bites&lt;br&gt;$1 Oysters on The Half Shell&lt;br&gt;$2 Chargrilled Oysters&lt;br&gt;$2 Meatball, Sausage or Caprese Sliders&lt;br&gt;$5 House, Caesar or Spinach Salads&lt;br&gt;$5.75 Toasted Ravioli (4 with side of marinara)&lt;br&gt;$6 One Topping 8” Pizzas (add. toppings $1)&lt;br&gt;$4 Crab Cake Sliders&lt;br&gt;&lt;br&gt;Beverages&lt;br&gt;$1 off Draft Beer&lt;br&gt;$2 off Wines on Tap&lt;br&gt;$4 Well Drinks</t>
   </si>
 </sst>
 </file>
@@ -4974,8 +4974,8 @@
   <dimension ref="B1:BL320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:XFD96"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C2" t="s">
         <v>1034</v>
@@ -5181,7 +5181,7 @@
         <v>1051</v>
       </c>
       <c r="G2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2">
         <v>1400</v>
@@ -5226,7 +5226,7 @@
         <v>1800</v>
       </c>
       <c r="V2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5313,7 +5313,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>28</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C4" t="s">
         <v>813</v>
@@ -5584,7 +5584,7 @@
         <v>1051</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H4">
         <v>800</v>
@@ -5629,7 +5629,7 @@
         <v>1200</v>
       </c>
       <c r="V4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4" si="62">IF(H4&gt;0,H4/100,"")</f>
@@ -5827,7 +5827,7 @@
         <v>1800</v>
       </c>
       <c r="V5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="31"/>
@@ -6181,7 +6181,7 @@
         <v>1051</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J7">
         <v>1500</v>
@@ -6825,7 +6825,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C11" t="s">
         <v>815</v>
@@ -6989,7 +6989,7 @@
         <v>1051</v>
       </c>
       <c r="G11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H11">
         <v>1430</v>
@@ -7034,7 +7034,7 @@
         <v>1730</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="W11">
         <f t="shared" si="31"/>
@@ -7121,7 +7121,7 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>28</v>
@@ -7235,7 +7235,7 @@
         <v>414</v>
       </c>
       <c r="V12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="W12">
         <f t="shared" si="31"/>
@@ -7429,7 +7429,7 @@
         <v>1900</v>
       </c>
       <c r="V13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="31"/>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C15" t="s">
         <v>811</v>
@@ -7844,7 +7844,7 @@
         <v>414</v>
       </c>
       <c r="V15" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="W15">
         <f t="shared" si="31"/>
@@ -8447,7 +8447,7 @@
         <v>1800</v>
       </c>
       <c r="V18" t="s">
-        <v>1144</v>
+        <v>1311</v>
       </c>
       <c r="W18">
         <f t="shared" si="31"/>
@@ -8534,7 +8534,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AV18" s="4" t="s">
         <v>28</v>
@@ -8547,7 +8547,7 @@
         <v>{
     'name': "Angelos Taverna",
     'area': "capital",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Bites&lt;br&gt;$1 Oysters on The Half Shell&lt;br&gt;$2 Grilled Oysters&lt;br&gt;$2 Meatball, Sausage or Caprese Sliders&lt;br&gt;$5 House, Caesar or Spinach Salads&lt;br&gt;$5.75 Toasted Ravioli (4 with side of marinara)&lt;br&gt;$6 One Topping 8” Pizzas (add. toppings $1)&lt;br&gt;&lt;br&gt;Beverages&lt;br&gt;$1 off Draft Beer&lt;br&gt;$2 off Wines on Tap&lt;br&gt;$4 Well Drinks", 'link':"https://angelostaverna.com", 'pricing':"med",   'phone-number': "", 'address': "620 E 6th Ave Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Bites&lt;br&gt;$1 Oysters on The Half Shell&lt;br&gt;$2 Chargrilled Oysters&lt;br&gt;$2 Meatball, Sausage or Caprese Sliders&lt;br&gt;$5 House, Caesar or Spinach Salads&lt;br&gt;$5.75 Toasted Ravioli (4 with side of marinara)&lt;br&gt;$6 One Topping 8” Pizzas (add. toppings $1)&lt;br&gt;$4 Crab Cake Sliders&lt;br&gt;&lt;br&gt;Beverages&lt;br&gt;$1 off Draft Beer&lt;br&gt;$2 off Wines on Tap&lt;br&gt;$4 Well Drinks", 'link':"https://angelostaverna.com", 'pricing':"med",   'phone-number': "", 'address': "620 E 6th Ave Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY18" t="str">
         <f t="shared" si="53"/>
@@ -9001,7 +9001,7 @@
         <v>414</v>
       </c>
       <c r="V21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="W21">
         <f t="shared" si="31"/>
@@ -10303,7 +10303,7 @@
         <v>415</v>
       </c>
       <c r="V28" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W28">
         <f t="shared" si="31"/>
@@ -11255,7 +11255,7 @@
         <v>1700</v>
       </c>
       <c r="V33" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="31"/>
@@ -11613,7 +11613,7 @@
         <v>1830</v>
       </c>
       <c r="V35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="31"/>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C38" t="s">
         <v>266</v>
@@ -12124,7 +12124,7 @@
         <v>1051</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H38">
         <v>1600</v>
@@ -12157,7 +12157,7 @@
         <v>1900</v>
       </c>
       <c r="V38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W38">
         <f t="shared" si="31"/>
@@ -12355,7 +12355,7 @@
         <v>416</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W39">
         <f t="shared" si="31"/>
@@ -13112,7 +13112,7 @@
         <v>1053</v>
       </c>
       <c r="G43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J43">
         <v>1500</v>
@@ -13145,7 +13145,7 @@
         <v>1800</v>
       </c>
       <c r="V43" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="31"/>
@@ -13297,16 +13297,16 @@
     </row>
     <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C44" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E44" t="s">
         <v>1051</v>
       </c>
       <c r="G44" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H44">
         <v>1200</v>
@@ -13351,7 +13351,7 @@
         <v>1830</v>
       </c>
       <c r="V44" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="W44">
         <f t="shared" si="31"/>
@@ -13438,7 +13438,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR44" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>28</v>
@@ -13552,7 +13552,7 @@
         <v>414</v>
       </c>
       <c r="V45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W45">
         <f t="shared" si="31"/>
@@ -13908,7 +13908,7 @@
         <v>414</v>
       </c>
       <c r="V47" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="31"/>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C49" t="s">
         <v>298</v>
@@ -14259,7 +14259,7 @@
         <v>1051</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H49">
         <v>1500</v>
@@ -14304,7 +14304,7 @@
         <v>1800</v>
       </c>
       <c r="V49" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C54" t="s">
         <v>612</v>
@@ -15138,7 +15138,7 @@
         <v>1051</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J54">
         <v>1600</v>
@@ -15171,7 +15171,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="31"/>
@@ -15258,7 +15258,7 @@
         <v/>
       </c>
       <c r="AR54" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AV54" s="4" t="s">
         <v>28</v>
@@ -15372,7 +15372,7 @@
         <v>414</v>
       </c>
       <c r="V55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W55">
         <f t="shared" si="31"/>
@@ -16736,7 +16736,7 @@
         <v>414</v>
       </c>
       <c r="V62" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="W62">
         <f t="shared" si="31"/>
@@ -17485,7 +17485,7 @@
         <v>415</v>
       </c>
       <c r="V66" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="31"/>
@@ -18288,7 +18288,7 @@
         <v>414</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="W70">
         <f t="shared" si="128"/>
@@ -18440,7 +18440,7 @@
     </row>
     <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C71" t="s">
         <v>613</v>
@@ -18494,7 +18494,7 @@
         <v>1900</v>
       </c>
       <c r="V71" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W71">
         <f t="shared" si="128"/>
@@ -19645,7 +19645,7 @@
     </row>
     <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C77" t="s">
         <v>265</v>
@@ -19654,7 +19654,7 @@
         <v>1051</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J77">
         <v>1200</v>
@@ -19693,7 +19693,7 @@
         <v>1300</v>
       </c>
       <c r="V77" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="128"/>
@@ -19780,7 +19780,7 @@
         <v>12pm-1pm</v>
       </c>
       <c r="AR77" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AV77" s="4" t="s">
         <v>28</v>
@@ -20282,7 +20282,7 @@
         <v>1800</v>
       </c>
       <c r="V80" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="W80" t="str">
         <f t="shared" si="128"/>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C89" t="s">
         <v>812</v>
@@ -21945,7 +21945,7 @@
         <v>1051</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H89">
         <v>1500</v>
@@ -21984,7 +21984,7 @@
         <v>1800</v>
       </c>
       <c r="V89" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W89">
         <f t="shared" si="128"/>
@@ -22071,7 +22071,7 @@
         <v/>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AS89" t="s">
         <v>409</v>
@@ -22894,7 +22894,7 @@
     </row>
     <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C94" t="s">
         <v>811</v>
@@ -22903,7 +22903,7 @@
         <v>1051</v>
       </c>
       <c r="G94" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H94">
         <v>1700</v>
@@ -22948,7 +22948,7 @@
         <v>1830</v>
       </c>
       <c r="V94" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="W94">
         <f t="shared" si="128"/>
@@ -23035,7 +23035,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR94" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AV94" s="4" t="s">
         <v>28</v>
@@ -24941,7 +24941,7 @@
         <v>415</v>
       </c>
       <c r="V104" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="W104">
         <f t="shared" si="128"/>
@@ -27165,7 +27165,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="128"/>
@@ -28351,7 +28351,7 @@
         <v>413</v>
       </c>
       <c r="V122" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W122" t="str">
         <f t="shared" si="128"/>
@@ -28504,7 +28504,7 @@
     </row>
     <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C123" t="s">
         <v>308</v>
@@ -28513,7 +28513,7 @@
         <v>1051</v>
       </c>
       <c r="G123" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H123">
         <v>1530</v>
@@ -28558,7 +28558,7 @@
         <v>1700</v>
       </c>
       <c r="V123" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W123">
         <f t="shared" ref="W123" si="161">IF(H123&gt;0,H123/100,"")</f>
@@ -28645,7 +28645,7 @@
         <v>3.3pm-5pm</v>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AU123" s="4"/>
       <c r="AV123" s="4" t="s">
@@ -28905,7 +28905,7 @@
     </row>
     <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
@@ -28914,7 +28914,7 @@
         <v>1051</v>
       </c>
       <c r="G125" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H125">
         <v>1630</v>
@@ -28959,7 +28959,7 @@
         <v>1800</v>
       </c>
       <c r="V125" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W125">
         <f t="shared" ref="W125" si="192">IF(H125&gt;0,H125/100,"")</f>
@@ -29046,7 +29046,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AV125" s="4" t="s">
         <v>28</v>
@@ -29571,7 +29571,7 @@
         <v>1400</v>
       </c>
       <c r="V128" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="W128">
         <f t="shared" si="128"/>
@@ -30540,7 +30540,7 @@
         <v>414</v>
       </c>
       <c r="V133" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="W133">
         <f t="shared" ref="W133:W197" si="223">IF(H133&gt;0,H133/100,"")</f>
@@ -32069,7 +32069,7 @@
     </row>
     <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C141" t="s">
         <v>266</v>
@@ -32078,7 +32078,7 @@
         <v>1051</v>
       </c>
       <c r="G141" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J141">
         <v>1500</v>
@@ -32105,7 +32105,7 @@
         <v>1800</v>
       </c>
       <c r="V141" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W141" t="str">
         <f t="shared" si="223"/>
@@ -32192,7 +32192,7 @@
         <v/>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AS141" t="s">
         <v>409</v>
@@ -33241,16 +33241,16 @@
     </row>
     <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C147" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E147" t="s">
         <v>1051</v>
       </c>
       <c r="G147" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H147">
         <v>1500</v>
@@ -33295,7 +33295,7 @@
         <v>1800</v>
       </c>
       <c r="V147" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W147">
         <f t="shared" si="223"/>
@@ -33382,7 +33382,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR147" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AV147" s="4" t="s">
         <v>28</v>
@@ -33442,7 +33442,7 @@
     </row>
     <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C148" t="s">
         <v>612</v>
@@ -33451,7 +33451,7 @@
         <v>1051</v>
       </c>
       <c r="G148" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H148">
         <v>1400</v>
@@ -33580,7 +33580,7 @@
         <v>11.3am-5pm</v>
       </c>
       <c r="AR148" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AV148" s="4" t="s">
         <v>28</v>
@@ -33850,7 +33850,7 @@
     </row>
     <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C150" t="s">
         <v>266</v>
@@ -33859,7 +33859,7 @@
         <v>1051</v>
       </c>
       <c r="G150" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H150">
         <v>1100</v>
@@ -33904,7 +33904,7 @@
         <v>1900</v>
       </c>
       <c r="V150" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="W150">
         <f t="shared" si="223"/>
@@ -34090,7 +34090,7 @@
         <v>1800</v>
       </c>
       <c r="V151" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="W151" t="str">
         <f t="shared" si="223"/>
@@ -35245,16 +35245,16 @@
     </row>
     <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C157" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E157" t="s">
         <v>1051</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J157">
         <v>1400</v>
@@ -35293,7 +35293,7 @@
         <v>1800</v>
       </c>
       <c r="V157" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W157" t="str">
         <f t="shared" si="223"/>
@@ -35380,7 +35380,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR157" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AV157" s="4" t="s">
         <v>28</v>
@@ -43904,7 +43904,7 @@
     </row>
     <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C201" t="s">
         <v>811</v>
@@ -43913,7 +43913,7 @@
         <v>1051</v>
       </c>
       <c r="G201" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H201">
         <v>1600</v>
@@ -43940,7 +43940,7 @@
         <v>1800</v>
       </c>
       <c r="V201" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W201">
         <f t="shared" si="285"/>
@@ -44027,7 +44027,7 @@
         <v/>
       </c>
       <c r="AR201" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AV201" s="4" t="s">
         <v>28</v>
@@ -44087,7 +44087,7 @@
     </row>
     <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C202" t="s">
         <v>611</v>
@@ -44096,7 +44096,7 @@
         <v>1051</v>
       </c>
       <c r="G202" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H202">
         <v>1500</v>
@@ -44141,7 +44141,7 @@
         <v>1800</v>
       </c>
       <c r="V202" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="W202">
         <f t="shared" si="285"/>
@@ -44228,7 +44228,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR202" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AV202" s="4" t="s">
         <v>28</v>
@@ -44482,16 +44482,16 @@
     </row>
     <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C204" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E204" t="s">
         <v>1051</v>
       </c>
       <c r="G204" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J204">
         <v>1500</v>
@@ -44524,7 +44524,7 @@
         <v>1800</v>
       </c>
       <c r="V204" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="W204" t="str">
         <f t="shared" si="285"/>
@@ -44611,7 +44611,7 @@
         <v/>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV204" s="4" t="s">
         <v>28</v>
@@ -44907,7 +44907,7 @@
         <v>1800</v>
       </c>
       <c r="V206" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="W206" t="str">
         <f t="shared" si="285"/>
@@ -45058,7 +45058,7 @@
     </row>
     <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C207" t="s">
         <v>266</v>
@@ -45067,7 +45067,7 @@
         <v>1051</v>
       </c>
       <c r="G207" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J207">
         <v>1500</v>
@@ -45100,7 +45100,7 @@
         <v>1800</v>
       </c>
       <c r="V207" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="W207" t="str">
         <f t="shared" si="285"/>
@@ -45187,7 +45187,7 @@
         <v/>
       </c>
       <c r="AR207" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AV207" s="4" t="s">
         <v>28</v>
@@ -46085,7 +46085,7 @@
         <v>1800</v>
       </c>
       <c r="V212" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="W212" t="str">
         <f t="shared" si="285"/>
@@ -46287,7 +46287,7 @@
         <v>1700</v>
       </c>
       <c r="V213" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="W213">
         <f t="shared" si="285"/>
@@ -49535,7 +49535,7 @@
         <v>1800</v>
       </c>
       <c r="V230" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W230" t="str">
         <f t="shared" si="285"/>
@@ -50263,7 +50263,7 @@
     </row>
     <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C234" t="s">
         <v>266</v>
@@ -50272,7 +50272,7 @@
         <v>1051</v>
       </c>
       <c r="G234" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J234">
         <v>1600</v>
@@ -50305,7 +50305,7 @@
         <v>1900</v>
       </c>
       <c r="V234" s="8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W234" t="str">
         <f t="shared" si="285"/>
@@ -51260,7 +51260,7 @@
         <v>2000</v>
       </c>
       <c r="V239" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="W239">
         <f t="shared" si="285"/>
@@ -53317,7 +53317,7 @@
     </row>
     <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C250" t="s">
         <v>611</v>
@@ -53326,7 +53326,7 @@
         <v>1051</v>
       </c>
       <c r="G250" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J250">
         <v>1500</v>
@@ -53359,7 +53359,7 @@
         <v>1800</v>
       </c>
       <c r="V250" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="W250" t="str">
         <f t="shared" si="285"/>
@@ -53446,7 +53446,7 @@
         <v/>
       </c>
       <c r="AR250" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AV250" s="4" t="s">
         <v>28</v>
@@ -55218,7 +55218,7 @@
     </row>
     <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C260" t="s">
         <v>811</v>
@@ -55227,7 +55227,7 @@
         <v>1051</v>
       </c>
       <c r="G260" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H260">
         <v>1500</v>
@@ -55272,7 +55272,7 @@
         <v>1800</v>
       </c>
       <c r="V260" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="W260">
         <f t="shared" si="285"/>
@@ -55359,7 +55359,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR260" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AV260" t="s">
         <v>28</v>
@@ -55420,7 +55420,7 @@
     </row>
     <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C261" t="s">
         <v>266</v>
@@ -55429,7 +55429,7 @@
         <v>1051</v>
       </c>
       <c r="G261" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J261">
         <v>1500</v>
@@ -55462,7 +55462,7 @@
         <v>1800</v>
       </c>
       <c r="V261" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W261" t="str">
         <f t="shared" ref="W261:W320" si="319">IF(H261&gt;0,H261/100,"")</f>
@@ -55549,7 +55549,7 @@
         <v/>
       </c>
       <c r="AR261" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AV261" t="s">
         <v>28</v>
@@ -56643,7 +56643,7 @@
         <v>1900</v>
       </c>
       <c r="V267" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W267">
         <f t="shared" si="319"/>
@@ -56837,7 +56837,7 @@
         <v>415</v>
       </c>
       <c r="V268" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W268" t="str">
         <f t="shared" si="319"/>
@@ -58898,7 +58898,7 @@
     </row>
     <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C279" t="s">
         <v>297</v>
@@ -58952,7 +58952,7 @@
         <v>1830</v>
       </c>
       <c r="V279" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W279">
         <f t="shared" si="319"/>
@@ -62964,7 +62964,7 @@
     </row>
     <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C300" t="s">
         <v>1034</v>
@@ -62973,7 +62973,7 @@
         <v>1051</v>
       </c>
       <c r="G300" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H300">
         <v>1600</v>
@@ -63018,7 +63018,7 @@
         <v>2400</v>
       </c>
       <c r="V300" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="W300">
         <f t="shared" si="319"/>
@@ -63105,7 +63105,7 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR300" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AV300" s="4" t="s">
         <v>28</v>
@@ -63750,7 +63750,7 @@
     </row>
     <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C304" t="s">
         <v>811</v>
@@ -63759,7 +63759,7 @@
         <v>1051</v>
       </c>
       <c r="G304" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H304">
         <v>1500</v>
@@ -63798,7 +63798,7 @@
         <v>1800</v>
       </c>
       <c r="V304" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="W304">
         <f t="shared" si="319"/>
@@ -65274,7 +65274,7 @@
     </row>
     <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C312" t="s">
         <v>1034</v>
@@ -65283,7 +65283,7 @@
         <v>1051</v>
       </c>
       <c r="G312" s="24" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L312">
         <v>1700</v>
@@ -65310,7 +65310,7 @@
         <v>1800</v>
       </c>
       <c r="V312" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="W312" t="str">
         <f t="shared" si="319"/>
@@ -67059,25 +67059,25 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1" t="s">
         <v>1183</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1184</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1185</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1186</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1187</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1188</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -67094,31 +67094,31 @@
         <v>1132</v>
       </c>
       <c r="F2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G2" t="s">
         <v>1190</v>
       </c>
-      <c r="G2" t="s">
-        <v>1191</v>
-      </c>
       <c r="J2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K2" t="s">
         <v>1183</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1184</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1185</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1186</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>1187</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1188</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -67135,10 +67135,10 @@
         <v>1136</v>
       </c>
       <c r="F3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G3" t="s">
         <v>1190</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1191</v>
       </c>
       <c r="J3">
         <v>39.771419999999999</v>
@@ -67147,16 +67147,16 @@
         <v>-105.04415</v>
       </c>
       <c r="L3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P3" t="s">
         <v>1190</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -67170,13 +67170,13 @@
         <v>1139</v>
       </c>
       <c r="D4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G4" t="s">
         <v>1190</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1191</v>
       </c>
       <c r="J4">
         <v>39.769440000000003</v>
@@ -67185,16 +67185,16 @@
         <v>-104.97676</v>
       </c>
       <c r="L4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P4" t="s">
         <v>1190</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -67208,13 +67208,13 @@
         <v>1143</v>
       </c>
       <c r="D5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G5" t="s">
         <v>1190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1191</v>
       </c>
       <c r="J5">
         <v>39.761319999999998</v>
@@ -67223,16 +67223,16 @@
         <v>-104.98376</v>
       </c>
       <c r="L5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P5" t="s">
         <v>1190</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -67243,16 +67243,16 @@
         <v>-104.99643</v>
       </c>
       <c r="C6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G6" t="s">
         <v>1190</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1191</v>
       </c>
       <c r="J6">
         <v>39.743519999999997</v>
@@ -67261,16 +67261,16 @@
         <v>-104.96953999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="M6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P6" t="s">
         <v>1190</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -67281,16 +67281,16 @@
         <v>-104.98058</v>
       </c>
       <c r="C7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G7" t="s">
         <v>1190</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1191</v>
       </c>
       <c r="J7">
         <v>39.753050000000002</v>
@@ -67305,10 +67305,10 @@
         <v>1132</v>
       </c>
       <c r="O7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P7" t="s">
         <v>1190</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -67319,16 +67319,16 @@
         <v>-105.01622999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G8" t="s">
         <v>1190</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1191</v>
       </c>
       <c r="J8">
         <v>39.769440000000003</v>
@@ -67337,16 +67337,16 @@
         <v>-104.97676</v>
       </c>
       <c r="L8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P8" t="s">
         <v>1190</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -67357,16 +67357,16 @@
         <v>-104.99897</v>
       </c>
       <c r="C9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G9" t="s">
         <v>1190</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -67377,16 +67377,16 @@
         <v>-104.98604</v>
       </c>
       <c r="C10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G10" t="s">
         <v>1190</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -67397,16 +67397,16 @@
         <v>-104.98388</v>
       </c>
       <c r="C11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G11" t="s">
         <v>1190</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -67417,16 +67417,16 @@
         <v>-105.01106</v>
       </c>
       <c r="C12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D12" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G12" t="s">
         <v>1190</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -67437,16 +67437,16 @@
         <v>-104.9798</v>
       </c>
       <c r="C13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G13" t="s">
         <v>1190</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -67457,16 +67457,16 @@
         <v>-105.00048</v>
       </c>
       <c r="C14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G14" t="s">
         <v>1190</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -67477,16 +67477,16 @@
         <v>-104.94761</v>
       </c>
       <c r="C15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D15" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G15" t="s">
         <v>1190</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3845,9 +3845,6 @@
     <t>500 16th St Mall #160, Denver, CO 80202</t>
   </si>
   <si>
-    <t>$6 highballs, choose a spirit and soda to create your own highball&lt;br&gt;$5 Vietnamese Coffee Shot &lt;br&gt;$6 All Draft Beer&lt;br&gt;$2.50 Coors and Coors Light&lt;br&gt;$6 House Wine&lt;br&gt;$11 Ramen and a Drink&lt;br&gt;Range of appetizer deals</t>
-  </si>
-  <si>
     <t>Happy Hour 3pm-6pm and 9pm-Close&lt;br&gt;Monday: 2 for 1 House Margaritas&lt;br&gt;Tuesday: $1 Tacos (Dine in only)&lt;br&gt;Wednesday: $5 Chimichangas (Dine in only)&lt;br&gt;Thursday:$2 Tamales (Dine in only)&lt;br&gt;Friday Night Dinner Specials&lt;br&gt;Saturday and Sunday: Brunch 10am-3pm $6 Bloody Marias, $6 Bloody Marys, $12 Bottomless Mimosas</t>
   </si>
   <si>
@@ -3881,9 +3878,6 @@
     <t>$1 off all beers, $5 select wines by the glass and rail cocktails; $5 and $10 food menu</t>
   </si>
   <si>
-    <t>$5-6 select beers and wines by the glass, and $7-9 select cocktails; Food $7-$23</t>
-  </si>
-  <si>
     <t>2-for-1 wells, house wines and select domestic drafts, $1 off all craft and imported draft beers, and $4 Fireball shots; $7 snack menu &lt;br&gt;Daily food specials&lt;br&gt;Weekend drink specials 1pm-10pm</t>
   </si>
   <si>
@@ -3969,13 +3963,19 @@
   </si>
   <si>
     <t>Bites&lt;br&gt;$1 Oysters on The Half Shell&lt;br&gt;$2 Chargrilled Oysters&lt;br&gt;$2 Meatball, Sausage or Caprese Sliders&lt;br&gt;$5 House, Caesar or Spinach Salads&lt;br&gt;$5.75 Toasted Ravioli (4 with side of marinara)&lt;br&gt;$6 One Topping 8” Pizzas (add. toppings $1)&lt;br&gt;$4 Crab Cake Sliders&lt;br&gt;&lt;br&gt;Beverages&lt;br&gt;$1 off Draft Beer&lt;br&gt;$2 off Wines on Tap&lt;br&gt;$4 Well Drinks</t>
+  </si>
+  <si>
+    <t>$6 highballs, choose a spirit and soda to create your own highball&lt;br&gt;$5 Vietnamese Coffee Shot &lt;br&gt;$5 Montucky Cold Snack (16oz)&lt;br&gt;$6 All Draft Beer&lt;br&gt;$2.50 Coors and Coors Light&lt;br&gt;$6 House Wine&lt;br&gt;$11 Ramen and a Drink&lt;br&gt;Range of appetizer deals</t>
+  </si>
+  <si>
+    <t>$5-6 select beers and wines by the glass, and $7-9 select cocktails; Food $7-$23&lt;br&gt;Half priced wine by the glass on Tuesdays (with purchase of a meal)&lt;br&gt;$2 beers every Wednesday (with purchase of a meal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4974,11 +4974,11 @@
   <dimension ref="B1:BL320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -5002,7 +5002,7 @@
     <col min="58" max="58" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5170,9 +5170,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1">
       <c r="B2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C2" t="s">
         <v>1034</v>
@@ -5181,7 +5181,7 @@
         <v>1051</v>
       </c>
       <c r="G2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="H2">
         <v>1400</v>
@@ -5226,7 +5226,7 @@
         <v>1800</v>
       </c>
       <c r="V2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5313,7 +5313,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>28</v>
@@ -5375,7 +5375,7 @@
         <v>[39.7319054,-104.9863224],</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1">
       <c r="B3" t="s">
         <v>165</v>
       </c>
@@ -5573,9 +5573,9 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1">
       <c r="B4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C4" t="s">
         <v>813</v>
@@ -5584,7 +5584,7 @@
         <v>1051</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="H4">
         <v>800</v>
@@ -5629,7 +5629,7 @@
         <v>1200</v>
       </c>
       <c r="V4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4" si="62">IF(H4&gt;0,H4/100,"")</f>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="BL4" s="7"/>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1">
       <c r="B5" t="s">
         <v>1121</v>
       </c>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1">
       <c r="B6" t="s">
         <v>931</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1">
       <c r="B7" t="s">
         <v>931</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1">
       <c r="B8" t="s">
         <v>860</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1">
       <c r="B9" t="s">
         <v>1096</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1270</v>
+        <v>1310</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -6928,7 +6928,7 @@
         <v>{
     'name': "Ace Eat Serve",
     'area': "Uptown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "$6 highballs, choose a spirit and soda to create your own highball&lt;br&gt;$5 Vietnamese Coffee Shot &lt;br&gt;$6 All Draft Beer&lt;br&gt;$2.50 Coors and Coors Light&lt;br&gt;$6 House Wine&lt;br&gt;$11 Ramen and a Drink&lt;br&gt;Range of appetizer deals", 'link':"http://www.aceeatserve.com/", 'pricing':"med",   'phone-number': "", 'address': "501 E. 17th Avenue Denver CO", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "$6 highballs, choose a spirit and soda to create your own highball&lt;br&gt;$5 Vietnamese Coffee Shot &lt;br&gt;$5 Montucky Cold Snack (16oz)&lt;br&gt;$6 All Draft Beer&lt;br&gt;$2.50 Coors and Coors Light&lt;br&gt;$6 House Wine&lt;br&gt;$11 Ramen and a Drink&lt;br&gt;Range of appetizer deals", 'link':"http://www.aceeatserve.com/", 'pricing':"med",   'phone-number': "", 'address': "501 E. 17th Avenue Denver CO", 'other-amenities': ['outside','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY10" t="str">
         <f t="shared" si="53"/>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1">
       <c r="B11" t="s">
         <v>1171</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>414</v>
       </c>
       <c r="V12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W12">
         <f t="shared" si="31"/>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1">
       <c r="B13" t="s">
         <v>231</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1900</v>
       </c>
       <c r="V13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="31"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="BL14" s="7"/>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1">
       <c r="B15" t="s">
         <v>1208</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1">
       <c r="B16" t="s">
         <v>1138</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1">
       <c r="B17" t="s">
         <v>907</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1">
       <c r="B18" t="s">
         <v>1142</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>1800</v>
       </c>
       <c r="V18" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="W18">
         <f t="shared" si="31"/>
@@ -8592,7 +8592,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1">
       <c r="B19" t="s">
         <v>827</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1">
       <c r="B20" t="s">
         <v>839</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>414</v>
       </c>
       <c r="V21" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W21">
         <f t="shared" si="31"/>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="BL21" s="7"/>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1">
       <c r="B22" t="s">
         <v>919</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1">
       <c r="B23" t="s">
         <v>61</v>
       </c>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="BL23" s="7"/>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1">
       <c r="B24" t="s">
         <v>236</v>
       </c>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>843</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1">
       <c r="B27" t="s">
         <v>63</v>
       </c>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="BL27" s="7"/>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>415</v>
       </c>
       <c r="V28" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="W28">
         <f t="shared" si="31"/>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1">
       <c r="B30" t="s">
         <v>885</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1">
       <c r="B31" t="s">
         <v>905</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1">
       <c r="B32" t="s">
         <v>881</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1">
       <c r="B33" t="s">
         <v>167</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>1700</v>
       </c>
       <c r="V33" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="31"/>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1">
       <c r="B34" t="s">
         <v>247</v>
       </c>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1">
       <c r="B35" t="s">
         <v>168</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>1830</v>
       </c>
       <c r="V35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="31"/>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1">
       <c r="B36" t="s">
         <v>1115</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1">
       <c r="B37" t="s">
         <v>169</v>
       </c>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1">
       <c r="B38" t="s">
         <v>1249</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1">
       <c r="B39" t="s">
         <v>238</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>416</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="W39">
         <f t="shared" si="31"/>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1">
       <c r="B40" t="s">
         <v>922</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="18.75" customHeight="1">
       <c r="B41" t="s">
         <v>66</v>
       </c>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="18.75" customHeight="1">
       <c r="B42" t="s">
         <v>170</v>
       </c>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="18.75" customHeight="1">
       <c r="B43" t="s">
         <v>171</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>1053</v>
       </c>
       <c r="G43" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J43">
         <v>1500</v>
@@ -13145,7 +13145,7 @@
         <v>1800</v>
       </c>
       <c r="V43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="31"/>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="18.75" customHeight="1">
       <c r="B44" t="s">
         <v>1174</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>[39.75134,-105.00048],</v>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="18.75" customHeight="1">
       <c r="B45" t="s">
         <v>67</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>414</v>
       </c>
       <c r="V45" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="W45">
         <f t="shared" si="31"/>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="BL45" s="7"/>
     </row>
-    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="18.75" customHeight="1">
       <c r="B46" t="s">
         <v>1100</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>[39.781885,-104.891501],</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="18.75" customHeight="1">
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>414</v>
       </c>
       <c r="V47" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="31"/>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="18.75" customHeight="1">
       <c r="B48" t="s">
         <v>831</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="18.75" customHeight="1">
       <c r="B49" t="s">
         <v>1218</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>1800</v>
       </c>
       <c r="V49" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
@@ -14449,7 +14449,7 @@
         <v>[39.7499044,-104.9997273],</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="18.75" customHeight="1">
       <c r="B50" t="s">
         <v>249</v>
       </c>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="18.75" customHeight="1">
       <c r="B51" t="s">
         <v>251</v>
       </c>
@@ -14780,7 +14780,7 @@
       </c>
       <c r="BL51" s="7"/>
     </row>
-    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="18.75" customHeight="1">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="18.75" customHeight="1">
       <c r="B53" t="s">
         <v>1135</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>[39.73225,-105.00513],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="18.75" customHeight="1">
       <c r="B54" t="s">
         <v>1151</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="31"/>
@@ -15316,7 +15316,7 @@
         <v>[39.7096,-104.98058],</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="18.75" customHeight="1">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>414</v>
       </c>
       <c r="V55" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="W55">
         <f t="shared" si="31"/>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="BL55" s="7"/>
     </row>
-    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="18.75" customHeight="1">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="BL56" s="7"/>
     </row>
-    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="18.75" customHeight="1">
       <c r="B57" t="s">
         <v>825</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:64" ht="18.75" customHeight="1">
       <c r="B58" t="s">
         <v>72</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="18.75" customHeight="1">
       <c r="B59" t="s">
         <v>866</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="18.75" customHeight="1">
       <c r="B60" t="s">
         <v>172</v>
       </c>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="18.75" customHeight="1">
       <c r="B61" t="s">
         <v>262</v>
       </c>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="18.75" customHeight="1">
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>414</v>
       </c>
       <c r="V62" t="s">
-        <v>1282</v>
+        <v>1311</v>
       </c>
       <c r="W62">
         <f t="shared" si="31"/>
@@ -16836,7 +16836,7 @@
         <v>{
     'name': "Charcoal Bistro",
     'area': "Washington",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"2100", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$5-6 select beers and wines by the glass, and $7-9 select cocktails; Food $7-$23", 'link':"http://www.charcoalbistro.com", 'pricing':"med",   'phone-number': "", 'address': "1028 S. Gaylord St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"2100", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$5-6 select beers and wines by the glass, and $7-9 select cocktails; Food $7-$23&lt;br&gt;Half priced wine by the glass on Tuesdays (with purchase of a meal)&lt;br&gt;$2 beers every Wednesday (with purchase of a meal)", 'link':"http://www.charcoalbistro.com", 'pricing':"med",   'phone-number': "", 'address': "1028 S. Gaylord St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY62" t="str">
         <f t="shared" si="53"/>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="BL62" s="7"/>
     </row>
-    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="18.75" customHeight="1">
       <c r="B63" t="s">
         <v>173</v>
       </c>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="BL63" s="7"/>
     </row>
-    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="18.75" customHeight="1">
       <c r="B64" t="s">
         <v>1118</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>[39.692846,-104.980251],</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="18.75" customHeight="1">
       <c r="B65" t="s">
         <v>852</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="18.75" customHeight="1">
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>415</v>
       </c>
       <c r="V66" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="31"/>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="18.75" customHeight="1">
       <c r="B67" t="s">
         <v>835</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="18.75" customHeight="1">
       <c r="B68" t="s">
         <v>174</v>
       </c>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="18.75" customHeight="1">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="18.75" customHeight="1">
       <c r="B70" t="s">
         <v>76</v>
       </c>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="18.75" customHeight="1">
       <c r="B71" t="s">
         <v>1266</v>
       </c>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="18.75" customHeight="1">
       <c r="B72" t="s">
         <v>175</v>
       </c>
@@ -18838,7 +18838,7 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="18.75" customHeight="1">
       <c r="B73" t="s">
         <v>176</v>
       </c>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="18.75" customHeight="1">
       <c r="B74" t="s">
         <v>870</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="18.75" customHeight="1">
       <c r="B75" t="s">
         <v>177</v>
       </c>
@@ -19434,7 +19434,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="18.75" customHeight="1">
       <c r="B76" t="s">
         <v>246</v>
       </c>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="18.75" customHeight="1">
       <c r="B77" t="s">
         <v>1223</v>
       </c>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="18.75" customHeight="1">
       <c r="B78" t="s">
         <v>178</v>
       </c>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="18.75" customHeight="1">
       <c r="B79" t="s">
         <v>889</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="18.75" customHeight="1">
       <c r="B80" t="s">
         <v>837</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="18.75" customHeight="1">
       <c r="B81" t="s">
         <v>77</v>
       </c>
@@ -20637,7 +20637,7 @@
       </c>
       <c r="BL81" s="7"/>
     </row>
-    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="18.75" customHeight="1">
       <c r="B82" t="s">
         <v>78</v>
       </c>
@@ -20825,7 +20825,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="18.75" customHeight="1">
       <c r="B83" t="s">
         <v>240</v>
       </c>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="BL83" s="7"/>
     </row>
-    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="18.75" customHeight="1">
       <c r="B84" t="s">
         <v>179</v>
       </c>
@@ -21186,7 +21186,7 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="18.75" customHeight="1">
       <c r="B85" t="s">
         <v>1088</v>
       </c>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="18.75" customHeight="1">
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -21546,7 +21546,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="18.75" customHeight="1">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="18.75" customHeight="1">
       <c r="B88" t="s">
         <v>181</v>
       </c>
@@ -21934,7 +21934,7 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="18.75" customHeight="1">
       <c r="B89" t="s">
         <v>1235</v>
       </c>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="BL89" s="7"/>
     </row>
-    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="18.75" customHeight="1">
       <c r="B90" t="s">
         <v>1101</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>[39.694056,-104.987055],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="18.75" customHeight="1">
       <c r="B91" t="s">
         <v>182</v>
       </c>
@@ -22486,7 +22486,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="18.75" customHeight="1">
       <c r="B92" t="s">
         <v>183</v>
       </c>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="18.75" customHeight="1">
       <c r="B93" t="s">
         <v>248</v>
       </c>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="18.75" customHeight="1">
       <c r="B94" t="s">
         <v>1153</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>[39.76211,-105.01623],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="18.75" customHeight="1">
       <c r="B95" t="s">
         <v>79</v>
       </c>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="18.75" customHeight="1">
       <c r="B96" t="s">
         <v>184</v>
       </c>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="18.75" customHeight="1">
       <c r="B97" t="s">
         <v>58</v>
       </c>
@@ -23702,7 +23702,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="18.75" customHeight="1">
       <c r="B98" t="s">
         <v>80</v>
       </c>
@@ -23896,7 +23896,7 @@
       </c>
       <c r="BL98" s="7"/>
     </row>
-    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="18.75" customHeight="1">
       <c r="B99" t="s">
         <v>81</v>
       </c>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="18.75" customHeight="1">
       <c r="B100" t="s">
         <v>927</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="18.75" customHeight="1">
       <c r="B101" t="s">
         <v>856</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="18.75" customHeight="1">
       <c r="B102" t="s">
         <v>82</v>
       </c>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="18.75" customHeight="1">
       <c r="B103" t="s">
         <v>264</v>
       </c>
@@ -24885,7 +24885,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="18.75" customHeight="1">
       <c r="B104" t="s">
         <v>83</v>
       </c>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="18.75" customHeight="1">
       <c r="B105" t="s">
         <v>254</v>
       </c>
@@ -25255,7 +25255,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="18.75" customHeight="1">
       <c r="B106" t="s">
         <v>84</v>
       </c>
@@ -25464,7 +25464,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="18.75" customHeight="1">
       <c r="B107" t="s">
         <v>887</v>
       </c>
@@ -25624,7 +25624,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="18.75" customHeight="1">
       <c r="B108" t="s">
         <v>847</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="18.75" customHeight="1">
       <c r="B109" t="s">
         <v>85</v>
       </c>
@@ -25996,7 +25996,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="18.75" customHeight="1">
       <c r="B110" t="s">
         <v>185</v>
       </c>
@@ -26184,7 +26184,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="18.75" customHeight="1">
       <c r="B111" t="s">
         <v>86</v>
       </c>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="18.75" customHeight="1">
       <c r="B112" t="s">
         <v>186</v>
       </c>
@@ -26584,7 +26584,7 @@
       </c>
       <c r="BL112" s="7"/>
     </row>
-    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="18.75" customHeight="1">
       <c r="B113" t="s">
         <v>87</v>
       </c>
@@ -26745,7 +26745,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="18.75" customHeight="1">
       <c r="B114" t="s">
         <v>244</v>
       </c>
@@ -26954,7 +26954,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="18.75" customHeight="1">
       <c r="B115" t="s">
         <v>88</v>
       </c>
@@ -27115,7 +27115,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="18.75" customHeight="1">
       <c r="B116" t="s">
         <v>876</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="18.75" customHeight="1">
       <c r="B117" t="s">
         <v>89</v>
       </c>
@@ -27520,7 +27520,7 @@
       </c>
       <c r="BL117" s="7"/>
     </row>
-    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="18.75" customHeight="1">
       <c r="B118" t="s">
         <v>90</v>
       </c>
@@ -27723,7 +27723,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="18.75" customHeight="1">
       <c r="B119" t="s">
         <v>915</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="18.75" customHeight="1">
       <c r="B120" t="s">
         <v>187</v>
       </c>
@@ -28122,7 +28122,7 @@
       </c>
       <c r="BL120" s="7"/>
     </row>
-    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="18.75" customHeight="1">
       <c r="B121" t="s">
         <v>232</v>
       </c>
@@ -28307,7 +28307,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="18.75" customHeight="1">
       <c r="B122" t="s">
         <v>188</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>413</v>
       </c>
       <c r="V122" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="W122" t="str">
         <f t="shared" si="128"/>
@@ -28502,9 +28502,9 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="18.75" customHeight="1">
       <c r="B123" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C123" t="s">
         <v>308</v>
@@ -28513,7 +28513,7 @@
         <v>1051</v>
       </c>
       <c r="G123" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H123">
         <v>1530</v>
@@ -28558,7 +28558,7 @@
         <v>1700</v>
       </c>
       <c r="V123" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="W123">
         <f t="shared" ref="W123" si="161">IF(H123&gt;0,H123/100,"")</f>
@@ -28645,7 +28645,7 @@
         <v>3.3pm-5pm</v>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="AU123" s="4"/>
       <c r="AV123" s="4" t="s">
@@ -28709,7 +28709,7 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="18.75" customHeight="1">
       <c r="B124" t="s">
         <v>91</v>
       </c>
@@ -28903,9 +28903,9 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="18.75" customHeight="1">
       <c r="B125" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
@@ -28914,7 +28914,7 @@
         <v>1051</v>
       </c>
       <c r="G125" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H125">
         <v>1630</v>
@@ -28959,7 +28959,7 @@
         <v>1800</v>
       </c>
       <c r="V125" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="W125">
         <f t="shared" ref="W125" si="192">IF(H125&gt;0,H125/100,"")</f>
@@ -29046,7 +29046,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AV125" s="4" t="s">
         <v>28</v>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="18.75" customHeight="1">
       <c r="B126" t="s">
         <v>92</v>
       </c>
@@ -29306,7 +29306,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="18.75" customHeight="1">
       <c r="B127" t="s">
         <v>93</v>
       </c>
@@ -29515,7 +29515,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="18.75" customHeight="1">
       <c r="B128" t="s">
         <v>239</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>1400</v>
       </c>
       <c r="V128" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="W128">
         <f t="shared" si="128"/>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="18.75" customHeight="1">
       <c r="B129" t="s">
         <v>189</v>
       </c>
@@ -29924,7 +29924,7 @@
       </c>
       <c r="BL129" s="7"/>
     </row>
-    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="18.75" customHeight="1">
       <c r="B130" t="s">
         <v>190</v>
       </c>
@@ -30118,7 +30118,7 @@
       </c>
       <c r="BL130" s="7"/>
     </row>
-    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="18.75" customHeight="1">
       <c r="B131" t="s">
         <v>94</v>
       </c>
@@ -30324,7 +30324,7 @@
       </c>
       <c r="BL131" s="7"/>
     </row>
-    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="18.75" customHeight="1">
       <c r="B132" t="s">
         <v>891</v>
       </c>
@@ -30484,7 +30484,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="18.75" customHeight="1">
       <c r="B133" t="s">
         <v>95</v>
       </c>
@@ -30540,7 +30540,7 @@
         <v>414</v>
       </c>
       <c r="V133" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="W133">
         <f t="shared" ref="W133:W197" si="223">IF(H133&gt;0,H133/100,"")</f>
@@ -30694,7 +30694,7 @@
       </c>
       <c r="BL133" s="7"/>
     </row>
-    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="18.75" customHeight="1">
       <c r="B134" t="s">
         <v>96</v>
       </c>
@@ -30888,7 +30888,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="18.75" customHeight="1">
       <c r="B135" t="s">
         <v>1127</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>[39.75576,-104.99021],</v>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="18.75" customHeight="1">
       <c r="B136" t="s">
         <v>97</v>
       </c>
@@ -31298,7 +31298,7 @@
       </c>
       <c r="BL136" s="7"/>
     </row>
-    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="18.75" customHeight="1">
       <c r="B137" s="1" t="s">
         <v>845</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="18.75" customHeight="1">
       <c r="B138" t="s">
         <v>98</v>
       </c>
@@ -31664,7 +31664,7 @@
       </c>
       <c r="BL138" s="7"/>
     </row>
-    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="18.75" customHeight="1">
       <c r="B139" t="s">
         <v>99</v>
       </c>
@@ -31858,7 +31858,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="18.75" customHeight="1">
       <c r="B140" t="s">
         <v>100</v>
       </c>
@@ -32067,7 +32067,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="18.75" customHeight="1">
       <c r="B141" t="s">
         <v>1231</v>
       </c>
@@ -32257,7 +32257,7 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="18.75" customHeight="1">
       <c r="B142" t="s">
         <v>233</v>
       </c>
@@ -32454,7 +32454,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="18.75" customHeight="1">
       <c r="B143" t="s">
         <v>101</v>
       </c>
@@ -32618,7 +32618,7 @@
       </c>
       <c r="BL143" s="7"/>
     </row>
-    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="18.75" customHeight="1">
       <c r="B144" s="9" t="s">
         <v>102</v>
       </c>
@@ -32827,7 +32827,7 @@
       </c>
       <c r="BL144" s="7"/>
     </row>
-    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="18.75" customHeight="1">
       <c r="B145" t="s">
         <v>103</v>
       </c>
@@ -33033,7 +33033,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="18.75" customHeight="1">
       <c r="B146" t="s">
         <v>104</v>
       </c>
@@ -33239,7 +33239,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="18.75" customHeight="1">
       <c r="B147" t="s">
         <v>1145</v>
       </c>
@@ -33440,9 +33440,9 @@
         <v>[39.75382,-104.99643],</v>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="18.75" customHeight="1">
       <c r="B148" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C148" t="s">
         <v>612</v>
@@ -33451,7 +33451,7 @@
         <v>1051</v>
       </c>
       <c r="G148" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="H148">
         <v>1400</v>
@@ -33580,7 +33580,7 @@
         <v>11.3am-5pm</v>
       </c>
       <c r="AR148" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="AV148" s="4" t="s">
         <v>28</v>
@@ -33642,7 +33642,7 @@
         <v>[39.6905241,-104.9806818],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="18.75" customHeight="1">
       <c r="B149" t="s">
         <v>105</v>
       </c>
@@ -33848,7 +33848,7 @@
       </c>
       <c r="BL149" s="7"/>
     </row>
-    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="18.75" customHeight="1">
       <c r="B150" t="s">
         <v>1252</v>
       </c>
@@ -34046,7 +34046,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="18.75" customHeight="1">
       <c r="B151" t="s">
         <v>191</v>
       </c>
@@ -34090,7 +34090,7 @@
         <v>1800</v>
       </c>
       <c r="V151" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="W151" t="str">
         <f t="shared" si="223"/>
@@ -34240,7 +34240,7 @@
       </c>
       <c r="BL151" s="7"/>
     </row>
-    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="18.75" customHeight="1">
       <c r="B152" t="s">
         <v>106</v>
       </c>
@@ -34434,7 +34434,7 @@
       </c>
       <c r="BL152" s="7"/>
     </row>
-    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="18.75" customHeight="1">
       <c r="B153" t="s">
         <v>107</v>
       </c>
@@ -34640,7 +34640,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="18.75" customHeight="1">
       <c r="B154" t="s">
         <v>901</v>
       </c>
@@ -34839,7 +34839,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="18.75" customHeight="1">
       <c r="B155" t="s">
         <v>821</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="18.75" customHeight="1">
       <c r="B156" t="s">
         <v>841</v>
       </c>
@@ -35243,7 +35243,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="18.75" customHeight="1">
       <c r="B157" t="s">
         <v>1220</v>
       </c>
@@ -35293,7 +35293,7 @@
         <v>1800</v>
       </c>
       <c r="V157" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="W157" t="str">
         <f t="shared" si="223"/>
@@ -35438,7 +35438,7 @@
         <v>[39.7505999,-104.9994734],</v>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="18.75" customHeight="1">
       <c r="B158" t="s">
         <v>108</v>
       </c>
@@ -35644,7 +35644,7 @@
       </c>
       <c r="BL158" s="7"/>
     </row>
-    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="18.75" customHeight="1">
       <c r="B159" t="s">
         <v>192</v>
       </c>
@@ -35835,7 +35835,7 @@
       </c>
       <c r="BL159" s="7"/>
     </row>
-    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="18.75" customHeight="1">
       <c r="B160" t="s">
         <v>193</v>
       </c>
@@ -36032,7 +36032,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="18.75" customHeight="1">
       <c r="B161" t="s">
         <v>109</v>
       </c>
@@ -36232,7 +36232,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="18.75" customHeight="1">
       <c r="B162" t="s">
         <v>194</v>
       </c>
@@ -36429,7 +36429,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="18.75" customHeight="1">
       <c r="B163" t="s">
         <v>110</v>
       </c>
@@ -36626,7 +36626,7 @@
       </c>
       <c r="BL163" s="7"/>
     </row>
-    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="18.75" customHeight="1">
       <c r="B164" t="s">
         <v>111</v>
       </c>
@@ -36820,7 +36820,7 @@
       </c>
       <c r="BL164" s="7"/>
     </row>
-    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="18.75" customHeight="1">
       <c r="B165" t="s">
         <v>112</v>
       </c>
@@ -37014,7 +37014,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="18.75" customHeight="1">
       <c r="B166" t="s">
         <v>113</v>
       </c>
@@ -37214,7 +37214,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="18.75" customHeight="1">
       <c r="B167" t="s">
         <v>195</v>
       </c>
@@ -37411,7 +37411,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="18.75" customHeight="1">
       <c r="B168" t="s">
         <v>196</v>
       </c>
@@ -37605,7 +37605,7 @@
       </c>
       <c r="BL168" s="7"/>
     </row>
-    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="18.75" customHeight="1">
       <c r="B169" t="s">
         <v>965</v>
       </c>
@@ -37798,7 +37798,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="18.75" customHeight="1">
       <c r="B170" t="s">
         <v>114</v>
       </c>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="18.75" customHeight="1">
       <c r="B171" t="s">
         <v>197</v>
       </c>
@@ -38198,7 +38198,7 @@
       </c>
       <c r="BL171" s="7"/>
     </row>
-    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="18.75" customHeight="1">
       <c r="B172" t="s">
         <v>198</v>
       </c>
@@ -38392,7 +38392,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="18.75" customHeight="1">
       <c r="B173" t="s">
         <v>115</v>
       </c>
@@ -38598,7 +38598,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="18.75" customHeight="1">
       <c r="B174" t="s">
         <v>116</v>
       </c>
@@ -38804,7 +38804,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="18.75" customHeight="1">
       <c r="B175" t="s">
         <v>117</v>
       </c>
@@ -39010,7 +39010,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="18.75" customHeight="1">
       <c r="B176" t="s">
         <v>118</v>
       </c>
@@ -39216,7 +39216,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:64" ht="18.75" customHeight="1">
       <c r="B177" t="s">
         <v>119</v>
       </c>
@@ -39422,7 +39422,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:64" ht="18.75" customHeight="1">
       <c r="B178" t="s">
         <v>120</v>
       </c>
@@ -39616,7 +39616,7 @@
       </c>
       <c r="BL178" s="7"/>
     </row>
-    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:64" ht="18.75" customHeight="1">
       <c r="B179" t="s">
         <v>199</v>
       </c>
@@ -39810,7 +39810,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:64" ht="18.75" customHeight="1">
       <c r="B180" t="s">
         <v>257</v>
       </c>
@@ -40019,7 +40019,7 @@
       </c>
       <c r="BL180" s="7"/>
     </row>
-    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:64" ht="18.75" customHeight="1">
       <c r="B181" t="s">
         <v>121</v>
       </c>
@@ -40225,7 +40225,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:64" ht="18.75" customHeight="1">
       <c r="B182" t="s">
         <v>200</v>
       </c>
@@ -40419,7 +40419,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:64" ht="18.75" customHeight="1">
       <c r="B183" t="s">
         <v>122</v>
       </c>
@@ -40625,7 +40625,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:64" ht="18.75" customHeight="1">
       <c r="B184" t="s">
         <v>201</v>
       </c>
@@ -40819,7 +40819,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:64" ht="18.75" customHeight="1">
       <c r="B185" t="s">
         <v>123</v>
       </c>
@@ -41025,7 +41025,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:64" ht="18.75" customHeight="1">
       <c r="B186" t="s">
         <v>258</v>
       </c>
@@ -41222,7 +41222,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:64" ht="18.75" customHeight="1">
       <c r="B187" s="1" t="s">
         <v>854</v>
       </c>
@@ -41409,7 +41409,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:64" ht="18.75" customHeight="1">
       <c r="B188" t="s">
         <v>862</v>
       </c>
@@ -41614,7 +41614,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:64" ht="18.75" customHeight="1">
       <c r="B189" t="s">
         <v>124</v>
       </c>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="BL189" s="7"/>
     </row>
-    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:64" ht="18.75" customHeight="1">
       <c r="B190" t="s">
         <v>234</v>
       </c>
@@ -42014,7 +42014,7 @@
       </c>
       <c r="BL190" s="7"/>
     </row>
-    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:64" ht="18.75" customHeight="1">
       <c r="B191" t="s">
         <v>263</v>
       </c>
@@ -42199,7 +42199,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:64" ht="18.75" customHeight="1">
       <c r="B192" t="s">
         <v>933</v>
       </c>
@@ -42404,7 +42404,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:64" ht="18.75" customHeight="1">
       <c r="B193" t="s">
         <v>868</v>
       </c>
@@ -42561,7 +42561,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:64" ht="18.75" customHeight="1">
       <c r="B194" t="s">
         <v>202</v>
       </c>
@@ -42761,7 +42761,7 @@
       </c>
       <c r="BL194" s="7"/>
     </row>
-    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:64" ht="18.75" customHeight="1">
       <c r="B195" t="s">
         <v>1102</v>
       </c>
@@ -42917,7 +42917,7 @@
         <v>[39.677478,-104.914182],</v>
       </c>
     </row>
-    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:64" ht="18.75" customHeight="1">
       <c r="B196" t="s">
         <v>849</v>
       </c>
@@ -43122,7 +43122,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:64" ht="18.75" customHeight="1">
       <c r="B197" t="s">
         <v>203</v>
       </c>
@@ -43316,7 +43316,7 @@
       </c>
       <c r="BL197" s="7"/>
     </row>
-    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:64" ht="18.75" customHeight="1">
       <c r="B198" s="6" t="s">
         <v>204</v>
       </c>
@@ -43514,7 +43514,7 @@
       </c>
       <c r="BL198" s="7"/>
     </row>
-    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:64" ht="18.75" customHeight="1">
       <c r="B199" t="s">
         <v>205</v>
       </c>
@@ -43708,7 +43708,7 @@
       </c>
       <c r="BL199" s="7"/>
     </row>
-    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:64" ht="18.75" customHeight="1">
       <c r="B200" t="s">
         <v>206</v>
       </c>
@@ -43902,7 +43902,7 @@
       </c>
       <c r="BL200" s="7"/>
     </row>
-    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:64" ht="18.75" customHeight="1">
       <c r="B201" t="s">
         <v>1167</v>
       </c>
@@ -44085,7 +44085,7 @@
         <v>[39.76354,-105.01106],</v>
       </c>
     </row>
-    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:64" ht="18.75" customHeight="1">
       <c r="B202" t="s">
         <v>1178</v>
       </c>
@@ -44286,7 +44286,7 @@
         <v>[39.71761,-104.94761],</v>
       </c>
     </row>
-    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:64" ht="18.75" customHeight="1">
       <c r="B203" t="s">
         <v>207</v>
       </c>
@@ -44480,7 +44480,7 @@
       </c>
       <c r="BL203" s="7"/>
     </row>
-    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:64" ht="18.75" customHeight="1">
       <c r="B204" t="s">
         <v>1156</v>
       </c>
@@ -44669,7 +44669,7 @@
         <v>[39.74819,-104.99897],</v>
       </c>
     </row>
-    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:64" ht="18.75" customHeight="1">
       <c r="B205" t="s">
         <v>125</v>
       </c>
@@ -44863,7 +44863,7 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:64" ht="18.75" customHeight="1">
       <c r="B206" t="s">
         <v>893</v>
       </c>
@@ -45056,7 +45056,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:64" ht="18.75" customHeight="1">
       <c r="B207" t="s">
         <v>1159</v>
       </c>
@@ -45245,7 +45245,7 @@
         <v>[39.75959,-104.98604],</v>
       </c>
     </row>
-    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:64" ht="18.75" customHeight="1">
       <c r="B208" t="s">
         <v>126</v>
       </c>
@@ -45445,7 +45445,7 @@
       </c>
       <c r="BL208" s="7"/>
     </row>
-    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:64" ht="18.75" customHeight="1">
       <c r="B209" t="s">
         <v>819</v>
       </c>
@@ -45635,7 +45635,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:64" ht="18.75" customHeight="1">
       <c r="B210" t="s">
         <v>127</v>
       </c>
@@ -45835,7 +45835,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:64" ht="18.75" customHeight="1">
       <c r="B211" t="s">
         <v>128</v>
       </c>
@@ -46041,7 +46041,7 @@
       </c>
       <c r="BL211" s="7"/>
     </row>
-    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:64" ht="18.75" customHeight="1">
       <c r="B212" t="s">
         <v>1124</v>
       </c>
@@ -46231,7 +46231,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:64" ht="18.75" customHeight="1">
       <c r="B213" t="s">
         <v>129</v>
       </c>
@@ -46440,7 +46440,7 @@
       </c>
       <c r="BL213" s="7"/>
     </row>
-    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:64" ht="18.75" customHeight="1">
       <c r="B214" t="s">
         <v>130</v>
       </c>
@@ -46634,7 +46634,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:64" ht="18.75" customHeight="1">
       <c r="B215" t="s">
         <v>208</v>
       </c>
@@ -46828,7 +46828,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:64" ht="18.75" customHeight="1">
       <c r="B216" t="s">
         <v>260</v>
       </c>
@@ -46992,7 +46992,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:64" ht="18.75" customHeight="1">
       <c r="B217" t="s">
         <v>131</v>
       </c>
@@ -47186,7 +47186,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:64" ht="18.75" customHeight="1">
       <c r="B218" t="s">
         <v>132</v>
       </c>
@@ -47392,7 +47392,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:64" ht="18.75" customHeight="1">
       <c r="B219" t="s">
         <v>864</v>
       </c>
@@ -47597,7 +47597,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:64" ht="18.75" customHeight="1">
       <c r="B220" t="s">
         <v>133</v>
       </c>
@@ -47803,7 +47803,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:64" ht="18.75" customHeight="1">
       <c r="B221" t="s">
         <v>250</v>
       </c>
@@ -48003,7 +48003,7 @@
       </c>
       <c r="BL221" s="7"/>
     </row>
-    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:64" ht="18.75" customHeight="1">
       <c r="B222" t="s">
         <v>929</v>
       </c>
@@ -48163,7 +48163,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:64" ht="18.75" customHeight="1">
       <c r="B223" t="s">
         <v>259</v>
       </c>
@@ -48327,7 +48327,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:64" ht="18.75" customHeight="1">
       <c r="B224" t="s">
         <v>241</v>
       </c>
@@ -48525,7 +48525,7 @@
       </c>
       <c r="BL224" s="7"/>
     </row>
-    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:64" ht="18.75" customHeight="1">
       <c r="B225" t="s">
         <v>134</v>
       </c>
@@ -48725,7 +48725,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:64" ht="18.75" customHeight="1">
       <c r="B226" t="s">
         <v>135</v>
       </c>
@@ -48931,7 +48931,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:64" ht="18.75" customHeight="1">
       <c r="B227" t="s">
         <v>209</v>
       </c>
@@ -49125,7 +49125,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:64" ht="18.75" customHeight="1">
       <c r="B228" t="s">
         <v>136</v>
       </c>
@@ -49331,7 +49331,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:64" ht="18.75" customHeight="1">
       <c r="B229" t="s">
         <v>897</v>
       </c>
@@ -49491,7 +49491,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:64" ht="18.75" customHeight="1">
       <c r="B230" t="s">
         <v>137</v>
       </c>
@@ -49685,7 +49685,7 @@
       </c>
       <c r="BL230" s="7"/>
     </row>
-    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:64" ht="18.75" customHeight="1">
       <c r="B231" t="s">
         <v>138</v>
       </c>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="BL231" s="7"/>
     </row>
-    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:64" ht="18.75" customHeight="1">
       <c r="B232" t="s">
         <v>139</v>
       </c>
@@ -50097,7 +50097,7 @@
       </c>
       <c r="BL232" s="7"/>
     </row>
-    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:64" ht="18.75" customHeight="1">
       <c r="B233" t="s">
         <v>261</v>
       </c>
@@ -50261,7 +50261,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:64" ht="18.75" customHeight="1">
       <c r="B234" t="s">
         <v>1228</v>
       </c>
@@ -50448,7 +50448,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:64" ht="18.75" customHeight="1">
       <c r="B235" t="s">
         <v>140</v>
       </c>
@@ -50645,7 +50645,7 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:64" ht="18.75" customHeight="1">
       <c r="B236" t="s">
         <v>833</v>
       </c>
@@ -50850,7 +50850,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:64" ht="18.75" customHeight="1">
       <c r="B237" t="s">
         <v>210</v>
       </c>
@@ -51044,7 +51044,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:64" ht="18.75" customHeight="1">
       <c r="B238" t="s">
         <v>909</v>
       </c>
@@ -51204,7 +51204,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:64" ht="18.75" customHeight="1">
       <c r="B239" t="s">
         <v>1103</v>
       </c>
@@ -51405,7 +51405,7 @@
         <v>[39.753306,-104.996116],</v>
       </c>
     </row>
-    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:64" ht="18.75" customHeight="1">
       <c r="B240" t="s">
         <v>211</v>
       </c>
@@ -51602,7 +51602,7 @@
       </c>
       <c r="BL240" s="7"/>
     </row>
-    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:64" ht="18.75" customHeight="1">
       <c r="B241" t="s">
         <v>141</v>
       </c>
@@ -51802,7 +51802,7 @@
       </c>
       <c r="BL241" s="7"/>
     </row>
-    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:64" ht="18.75" customHeight="1">
       <c r="B242" t="s">
         <v>1092</v>
       </c>
@@ -51959,7 +51959,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:64" ht="18.75" customHeight="1">
       <c r="B243" t="s">
         <v>883</v>
       </c>
@@ -52164,7 +52164,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:64" ht="18.75" customHeight="1">
       <c r="B244" t="s">
         <v>142</v>
       </c>
@@ -52370,7 +52370,7 @@
       </c>
       <c r="BL244" s="7"/>
     </row>
-    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:64" ht="18.75" customHeight="1">
       <c r="B245" t="s">
         <v>899</v>
       </c>
@@ -52527,7 +52527,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:64" ht="18.75" customHeight="1">
       <c r="B246" t="s">
         <v>871</v>
       </c>
@@ -52733,7 +52733,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:64" ht="18.75" customHeight="1">
       <c r="B247" t="s">
         <v>212</v>
       </c>
@@ -52927,7 +52927,7 @@
       </c>
       <c r="BL247" s="7"/>
     </row>
-    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:64" ht="18.75" customHeight="1">
       <c r="B248" t="s">
         <v>213</v>
       </c>
@@ -53121,7 +53121,7 @@
       </c>
       <c r="BL248" s="7"/>
     </row>
-    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:64" ht="18.75" customHeight="1">
       <c r="B249" t="s">
         <v>214</v>
       </c>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:64" ht="18.75" customHeight="1">
       <c r="B250" t="s">
         <v>1243</v>
       </c>
@@ -53505,7 +53505,7 @@
       </c>
       <c r="BL250" s="7"/>
     </row>
-    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:64" ht="18.75" customHeight="1">
       <c r="B251" t="s">
         <v>215</v>
       </c>
@@ -53699,7 +53699,7 @@
       </c>
       <c r="BL251" s="7"/>
     </row>
-    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:64" ht="18.75" customHeight="1">
       <c r="B252" t="s">
         <v>143</v>
       </c>
@@ -53905,7 +53905,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:64" ht="18.75" customHeight="1">
       <c r="B253" t="s">
         <v>255</v>
       </c>
@@ -54069,7 +54069,7 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:64" ht="18.75" customHeight="1">
       <c r="B254" t="s">
         <v>242</v>
       </c>
@@ -54233,7 +54233,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:64" ht="18.75" customHeight="1">
       <c r="B255" t="s">
         <v>144</v>
       </c>
@@ -54439,7 +54439,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:64" ht="18.75" customHeight="1">
       <c r="B256" t="s">
         <v>216</v>
       </c>
@@ -54633,7 +54633,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:64" ht="18.75" customHeight="1">
       <c r="B257" t="s">
         <v>1131</v>
       </c>
@@ -54828,7 +54828,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:64" ht="18.75" customHeight="1">
       <c r="B258" t="s">
         <v>217</v>
       </c>
@@ -55022,7 +55022,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:64" ht="18.75" customHeight="1">
       <c r="B259" t="s">
         <v>218</v>
       </c>
@@ -55216,7 +55216,7 @@
       </c>
       <c r="BL259" s="7"/>
     </row>
-    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:64" ht="18.75" customHeight="1">
       <c r="B260" t="s">
         <v>1215</v>
       </c>
@@ -55418,7 +55418,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:64" ht="18.75" customHeight="1">
       <c r="B261" t="s">
         <v>1213</v>
       </c>
@@ -55612,7 +55612,7 @@
       </c>
       <c r="BL261" s="7"/>
     </row>
-    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:64" ht="18.75" customHeight="1">
       <c r="B262" t="s">
         <v>145</v>
       </c>
@@ -55818,7 +55818,7 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:64" ht="18.75" customHeight="1">
       <c r="B263" t="s">
         <v>146</v>
       </c>
@@ -56024,7 +56024,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:64" ht="18.75" customHeight="1">
       <c r="B264" t="s">
         <v>219</v>
       </c>
@@ -56218,7 +56218,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:64" ht="18.75" customHeight="1">
       <c r="B265" t="s">
         <v>147</v>
       </c>
@@ -56427,7 +56427,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:64" ht="18.75" customHeight="1">
       <c r="B266" t="s">
         <v>874</v>
       </c>
@@ -56587,7 +56587,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:64" ht="18.75" customHeight="1">
       <c r="B267" t="s">
         <v>148</v>
       </c>
@@ -56643,7 +56643,7 @@
         <v>1900</v>
       </c>
       <c r="V267" s="8" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="W267">
         <f t="shared" si="319"/>
@@ -56793,7 +56793,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:64" ht="18.75" customHeight="1">
       <c r="B268" t="s">
         <v>149</v>
       </c>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="BL268" s="7"/>
     </row>
-    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:64" ht="18.75" customHeight="1">
       <c r="B269" t="s">
         <v>150</v>
       </c>
@@ -57184,7 +57184,7 @@
       </c>
       <c r="BL269" s="7"/>
     </row>
-    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:64" ht="18.75" customHeight="1">
       <c r="B270" t="s">
         <v>1104</v>
       </c>
@@ -57340,7 +57340,7 @@
         <v>[39.77126,-105.044258],</v>
       </c>
     </row>
-    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:64" ht="18.75" customHeight="1">
       <c r="B271" t="s">
         <v>220</v>
       </c>
@@ -57534,7 +57534,7 @@
       </c>
       <c r="BL271" s="7"/>
     </row>
-    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:64" ht="18.75" customHeight="1">
       <c r="B272" t="s">
         <v>221</v>
       </c>
@@ -57728,7 +57728,7 @@
       </c>
       <c r="BL272" s="7"/>
     </row>
-    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:64" ht="18.75" customHeight="1">
       <c r="B273" t="s">
         <v>151</v>
       </c>
@@ -57922,7 +57922,7 @@
       </c>
       <c r="BL273" s="7"/>
     </row>
-    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:64" ht="18.75" customHeight="1">
       <c r="B274" t="s">
         <v>222</v>
       </c>
@@ -58116,7 +58116,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:64" ht="18.75" customHeight="1">
       <c r="B275" t="s">
         <v>152</v>
       </c>
@@ -58322,7 +58322,7 @@
       </c>
       <c r="BL275" s="7"/>
     </row>
-    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:64" ht="18.75" customHeight="1">
       <c r="B276" t="s">
         <v>223</v>
       </c>
@@ -58486,7 +58486,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:64" ht="18.75" customHeight="1">
       <c r="B277" t="s">
         <v>829</v>
       </c>
@@ -58691,7 +58691,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:64" ht="18.75" customHeight="1">
       <c r="B278" t="s">
         <v>935</v>
       </c>
@@ -58896,7 +58896,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:64" ht="18.75" customHeight="1">
       <c r="B279" t="s">
         <v>1245</v>
       </c>
@@ -59094,7 +59094,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:64" ht="18.75" customHeight="1">
       <c r="B280" t="s">
         <v>235</v>
       </c>
@@ -59282,7 +59282,7 @@
       </c>
       <c r="BL280" s="7"/>
     </row>
-    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:64" ht="18.75" customHeight="1">
       <c r="B281" t="s">
         <v>895</v>
       </c>
@@ -59481,7 +59481,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:64" ht="18.75" customHeight="1">
       <c r="B282" t="s">
         <v>903</v>
       </c>
@@ -59671,7 +59671,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:64" ht="18.75" customHeight="1">
       <c r="B283" t="s">
         <v>823</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:64" ht="18.75" customHeight="1">
       <c r="B284" t="s">
         <v>243</v>
       </c>
@@ -60073,7 +60073,7 @@
       </c>
       <c r="BL284" s="7"/>
     </row>
-    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:64" ht="18.75" customHeight="1">
       <c r="B285" t="s">
         <v>858</v>
       </c>
@@ -60278,7 +60278,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:64" ht="18.75" customHeight="1">
       <c r="B286" t="s">
         <v>911</v>
       </c>
@@ -60483,7 +60483,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:64" ht="18.75" customHeight="1">
       <c r="B287" t="s">
         <v>153</v>
       </c>
@@ -60686,7 +60686,7 @@
       </c>
       <c r="BL287" s="7"/>
     </row>
-    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:64" ht="18.75" customHeight="1">
       <c r="B288" t="s">
         <v>937</v>
       </c>
@@ -60891,7 +60891,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:64" ht="18.75" customHeight="1">
       <c r="B289" t="s">
         <v>872</v>
       </c>
@@ -61090,7 +61090,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:64" ht="18.75" customHeight="1">
       <c r="B290" t="s">
         <v>154</v>
       </c>
@@ -61296,7 +61296,7 @@
       </c>
       <c r="BL290" s="7"/>
     </row>
-    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:64" ht="18.75" customHeight="1">
       <c r="B291" t="s">
         <v>237</v>
       </c>
@@ -61505,7 +61505,7 @@
       </c>
       <c r="BL291" s="7"/>
     </row>
-    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:64" ht="18.75" customHeight="1">
       <c r="B292" t="s">
         <v>155</v>
       </c>
@@ -61711,7 +61711,7 @@
       </c>
       <c r="BL292" s="7"/>
     </row>
-    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:64" ht="18.75" customHeight="1">
       <c r="B293" t="s">
         <v>156</v>
       </c>
@@ -61905,7 +61905,7 @@
       </c>
       <c r="BL293" s="7"/>
     </row>
-    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:64" ht="18.75" customHeight="1">
       <c r="B294" t="s">
         <v>224</v>
       </c>
@@ -62066,7 +62066,7 @@
       </c>
       <c r="BL294" s="7"/>
     </row>
-    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:64" ht="18.75" customHeight="1">
       <c r="B295" t="s">
         <v>225</v>
       </c>
@@ -62257,7 +62257,7 @@
       </c>
       <c r="BL295" s="7"/>
     </row>
-    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:64" ht="18.75" customHeight="1">
       <c r="B296" t="s">
         <v>921</v>
       </c>
@@ -62408,7 +62408,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:64" ht="18.75" customHeight="1">
       <c r="B297" t="s">
         <v>157</v>
       </c>
@@ -62608,7 +62608,7 @@
       </c>
       <c r="BL297" s="7"/>
     </row>
-    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:64" ht="18.75" customHeight="1">
       <c r="B298" t="s">
         <v>917</v>
       </c>
@@ -62768,7 +62768,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:64" ht="18.75" customHeight="1">
       <c r="B299" t="s">
         <v>226</v>
       </c>
@@ -62962,7 +62962,7 @@
       </c>
       <c r="BL299" s="7"/>
     </row>
-    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:64" ht="18.75" customHeight="1">
       <c r="B300" t="s">
         <v>1163</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>[39.72741,-104.98388],</v>
       </c>
     </row>
-    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:64" ht="18.75" customHeight="1">
       <c r="B301" t="s">
         <v>158</v>
       </c>
@@ -63357,7 +63357,7 @@
       </c>
       <c r="BL301" s="7"/>
     </row>
-    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:64" ht="18.75" customHeight="1">
       <c r="B302" t="s">
         <v>227</v>
       </c>
@@ -63554,7 +63554,7 @@
       </c>
       <c r="BL302" s="7"/>
     </row>
-    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:64" ht="18.75" customHeight="1">
       <c r="B303" t="s">
         <v>228</v>
       </c>
@@ -63748,7 +63748,7 @@
       </c>
       <c r="BL303" s="7"/>
     </row>
-    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:64" ht="18.75" customHeight="1">
       <c r="B304" t="s">
         <v>1246</v>
       </c>
@@ -63940,7 +63940,7 @@
         <v>[39.77142,-105.04415],</v>
       </c>
     </row>
-    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:64" ht="18.75" customHeight="1">
       <c r="B305" t="s">
         <v>229</v>
       </c>
@@ -64134,7 +64134,7 @@
       </c>
       <c r="BL305" s="7"/>
     </row>
-    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:64" ht="18.75" customHeight="1">
       <c r="B306" t="s">
         <v>159</v>
       </c>
@@ -64331,7 +64331,7 @@
       </c>
       <c r="BL306" s="7"/>
     </row>
-    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:64" ht="18.75" customHeight="1">
       <c r="B307" t="s">
         <v>160</v>
       </c>
@@ -64537,7 +64537,7 @@
       </c>
       <c r="BL307" s="7"/>
     </row>
-    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:64" ht="18.75" customHeight="1">
       <c r="B308" t="s">
         <v>878</v>
       </c>
@@ -64742,7 +64742,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:64" ht="18.75" customHeight="1">
       <c r="B309" t="s">
         <v>253</v>
       </c>
@@ -64906,7 +64906,7 @@
       </c>
       <c r="BL309" s="7"/>
     </row>
-    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:64" ht="18.75" customHeight="1">
       <c r="B310" t="s">
         <v>925</v>
       </c>
@@ -65108,7 +65108,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:64" ht="18.75" customHeight="1">
       <c r="B311" t="s">
         <v>161</v>
       </c>
@@ -65272,7 +65272,7 @@
       </c>
       <c r="BL311" s="7"/>
     </row>
-    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:64" ht="18.75" customHeight="1">
       <c r="B312" t="s">
         <v>1244</v>
       </c>
@@ -65452,7 +65452,7 @@
         <v>[39.74352,-104.96954],</v>
       </c>
     </row>
-    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:64" ht="18.75" customHeight="1">
       <c r="B313" t="s">
         <v>941</v>
       </c>
@@ -65651,7 +65651,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:64" ht="18.75" customHeight="1">
       <c r="B314" t="s">
         <v>230</v>
       </c>
@@ -65845,7 +65845,7 @@
       </c>
       <c r="BL314" s="7"/>
     </row>
-    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:64" ht="18.75" customHeight="1">
       <c r="B315" t="s">
         <v>880</v>
       </c>
@@ -66050,7 +66050,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:64" ht="18.75" customHeight="1">
       <c r="B316" t="s">
         <v>162</v>
       </c>
@@ -66244,7 +66244,7 @@
       </c>
       <c r="BL316" s="7"/>
     </row>
-    <row r="317" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:64" ht="18.75" customHeight="1">
       <c r="B317" t="s">
         <v>163</v>
       </c>
@@ -66450,7 +66450,7 @@
       </c>
       <c r="BL317" s="7"/>
     </row>
-    <row r="318" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:64" ht="18.75" customHeight="1">
       <c r="B318" t="s">
         <v>913</v>
       </c>
@@ -66655,7 +66655,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:64" ht="18.75" customHeight="1">
       <c r="B319" t="s">
         <v>256</v>
       </c>
@@ -66819,7 +66819,7 @@
       </c>
       <c r="BL319" s="7"/>
     </row>
-    <row r="320" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:64" ht="18.75" customHeight="1">
       <c r="B320" t="s">
         <v>164</v>
       </c>
@@ -67055,9 +67055,9 @@
       <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1182</v>
       </c>
@@ -67080,7 +67080,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>39.755760000000002</v>
       </c>
@@ -67121,7 +67121,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>39.732250000000001</v>
       </c>
@@ -67159,7 +67159,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>39.754260000000002</v>
       </c>
@@ -67197,7 +67197,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>39.725490000000001</v>
       </c>
@@ -67235,7 +67235,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>39.753819999999997</v>
       </c>
@@ -67273,7 +67273,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>39.709600000000002</v>
       </c>
@@ -67311,7 +67311,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>39.76211</v>
       </c>
@@ -67349,7 +67349,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>39.748190000000001</v>
       </c>
@@ -67369,7 +67369,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>39.759590000000003</v>
       </c>
@@ -67389,7 +67389,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>39.727409999999999</v>
       </c>
@@ -67409,7 +67409,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>39.763539999999999</v>
       </c>
@@ -67429,7 +67429,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>39.768740000000001</v>
       </c>
@@ -67449,7 +67449,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>39.751339999999999</v>
       </c>
@@ -67469,7 +67469,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>39.717610000000001</v>
       </c>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3818,9 +3818,6 @@
     <t>$2.75 wells, Coors and Coors Light bottles, $3.50 Guinness, $4.50 house wines and and select whiskeys, $1 off all drafts, $4.50 Buffalo Trace, $4.50 Tullamore D.E.W., $5 Tito's Handmade Vodka</t>
   </si>
   <si>
-    <t>$4 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$9 Cheddarwurst Sausage Sliders&lt;br&gt;$9 Chicken Schnitzel Sliders&lt;br&gt;$11 Rhein Haus Burger</t>
-  </si>
-  <si>
     <t>Colfax Sports and Brew</t>
   </si>
   <si>
@@ -3981,13 +3978,16 @@
   </si>
   <si>
     <t>$3 Coors Light &amp; Banquet Bottles&lt;br&gt;Monday:&lt;br&gt;-$3.50 Coors Light&lt;br&gt;- $4.00 Jameson&lt;br&gt;- $4.00 Flavored Vodka&lt;br&gt;$4 Burger (6:30-11:30)&lt;br&gt;Tuesday:&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Wednesday:&lt;br&gt;- $3.50 PBR&lt;br&gt;- $4.00 Tequila&lt;br&gt;Thursday:&lt;br&gt;- $4.00 Jameson&lt;br&gt;- $3.50 PBR&lt;br&gt;Friday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Saturday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Sunday:&lt;br&gt;- $4 Hamburger (11am to 6pm)&lt;br&gt;- $4.50 Cheeseburger (11am to pm)&lt;br&gt;- $5.00 Bullet Bourbon&lt;br&gt;- $3.50 Coors Lt Draft&lt;br&gt;- $4 Bloody Marys (11am to 2pm)</t>
+  </si>
+  <si>
+    <t>$5 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$7 Cheddarwurst Sausage Sliders&lt;br&gt;$7 Chicken Schnitzel Sliders&lt;br&gt;$7 Miremberg Mini-Brats&lt;br&gt;$16 Flatbread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4987,10 +4987,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V232" sqref="V232"/>
+      <selection pane="bottomLeft" activeCell="V233" sqref="V233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -5014,7 +5014,7 @@
     <col min="58" max="58" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5182,9 +5182,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1">
       <c r="B2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C2" t="s">
         <v>1030</v>
@@ -5193,7 +5193,7 @@
         <v>1047</v>
       </c>
       <c r="G2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2">
         <v>1400</v>
@@ -5238,7 +5238,7 @@
         <v>1800</v>
       </c>
       <c r="V2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5325,7 +5325,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>28</v>
@@ -5387,7 +5387,7 @@
         <v>[39.7319054,-104.9863224],</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1">
       <c r="B3" t="s">
         <v>165</v>
       </c>
@@ -5585,9 +5585,9 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1">
       <c r="B4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C4" t="s">
         <v>812</v>
@@ -5596,7 +5596,7 @@
         <v>1047</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H4">
         <v>800</v>
@@ -5641,7 +5641,7 @@
         <v>1200</v>
       </c>
       <c r="V4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4" si="62">IF(H4&gt;0,H4/100,"")</f>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="BL4" s="7"/>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1">
       <c r="B5" t="s">
         <v>1117</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1800</v>
       </c>
       <c r="V5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="31"/>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1">
       <c r="B6" t="s">
         <v>929</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1">
       <c r="B7" t="s">
         <v>929</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1047</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J7">
         <v>1500</v>
@@ -6375,7 +6375,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1">
       <c r="B8" t="s">
         <v>859</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1">
       <c r="B9" t="s">
         <v>1092</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1">
       <c r="B11" t="s">
         <v>1167</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>413</v>
       </c>
       <c r="V12" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W12">
         <f t="shared" si="31"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1">
       <c r="B13" t="s">
         <v>231</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>1900</v>
       </c>
       <c r="V13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="31"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="BL14" s="7"/>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1">
       <c r="B15" t="s">
         <v>1204</v>
       </c>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1">
       <c r="B16" t="s">
         <v>1134</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1">
       <c r="B17" t="s">
         <v>905</v>
       </c>
@@ -8403,9 +8403,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1">
       <c r="B18" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C18" t="s">
         <v>810</v>
@@ -8414,7 +8414,7 @@
         <v>1047</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J18">
         <v>1600</v>
@@ -8590,7 +8590,7 @@
         <v>[39.7692999,-105.0413475],</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1">
       <c r="B19" t="s">
         <v>1138</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1800</v>
       </c>
       <c r="V19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="W19">
         <f t="shared" si="31"/>
@@ -8791,7 +8791,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1">
       <c r="B20" t="s">
         <v>826</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1">
       <c r="B21" t="s">
         <v>838</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>413</v>
       </c>
       <c r="V22" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W22">
         <f t="shared" si="31"/>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="BL22" s="7"/>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1">
       <c r="B23" t="s">
         <v>917</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1">
       <c r="B25" t="s">
         <v>236</v>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1">
       <c r="B26" t="s">
         <v>62</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>842</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1">
       <c r="B29" t="s">
         <v>64</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>414</v>
       </c>
       <c r="V29" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W29">
         <f t="shared" si="31"/>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="BL30" s="7"/>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1">
       <c r="B31" t="s">
         <v>903</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1">
       <c r="B32" t="s">
         <v>880</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1">
       <c r="B33" t="s">
         <v>167</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1700</v>
       </c>
       <c r="V33" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="31"/>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1">
       <c r="B34" t="s">
         <v>247</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1">
       <c r="B35" t="s">
         <v>168</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1830</v>
       </c>
       <c r="V35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="31"/>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1">
       <c r="B36" t="s">
         <v>1111</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1">
       <c r="B37" t="s">
         <v>169</v>
       </c>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1">
       <c r="B38" t="s">
         <v>1245</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1">
       <c r="B39" t="s">
         <v>238</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>415</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W39">
         <f t="shared" si="31"/>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1">
       <c r="B40" t="s">
         <v>920</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="18.75" customHeight="1">
       <c r="B41" t="s">
         <v>66</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="18.75" customHeight="1">
       <c r="B42" t="s">
         <v>170</v>
       </c>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="18.75" customHeight="1">
       <c r="B43" t="s">
         <v>171</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>1049</v>
       </c>
       <c r="G43" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J43">
         <v>1500</v>
@@ -13151,7 +13151,7 @@
         <v>1800</v>
       </c>
       <c r="V43" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="31"/>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="18.75" customHeight="1">
       <c r="B44" t="s">
         <v>1170</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>[39.75134,-105.00048],</v>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="18.75" customHeight="1">
       <c r="B45" t="s">
         <v>67</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>413</v>
       </c>
       <c r="V45" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="W45">
         <f t="shared" si="31"/>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="BL45" s="7"/>
     </row>
-    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="18.75" customHeight="1">
       <c r="B46" t="s">
         <v>1096</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>[39.781885,-104.891501],</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="18.75" customHeight="1">
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>413</v>
       </c>
       <c r="V47" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="31"/>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="18.75" customHeight="1">
       <c r="B48" t="s">
         <v>830</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="18.75" customHeight="1">
       <c r="B49" t="s">
         <v>1214</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>1800</v>
       </c>
       <c r="V49" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
@@ -14455,7 +14455,7 @@
         <v>[39.7499044,-104.9997273],</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="18.75" customHeight="1">
       <c r="B50" t="s">
         <v>249</v>
       </c>
@@ -14622,7 +14622,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="18.75" customHeight="1">
       <c r="B51" t="s">
         <v>251</v>
       </c>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="BL51" s="7"/>
     </row>
-    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="18.75" customHeight="1">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="18.75" customHeight="1">
       <c r="B53" t="s">
         <v>1131</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>[39.73225,-105.00513],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="18.75" customHeight="1">
       <c r="B54" t="s">
         <v>1147</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="31"/>
@@ -15322,7 +15322,7 @@
         <v>[39.7096,-104.98058],</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="18.75" customHeight="1">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>413</v>
       </c>
       <c r="V55" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W55">
         <f t="shared" si="31"/>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="BL55" s="7"/>
     </row>
-    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="18.75" customHeight="1">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="BL56" s="7"/>
     </row>
-    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="18.75" customHeight="1">
       <c r="B57" t="s">
         <v>824</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:64" ht="18.75" customHeight="1">
       <c r="B58" t="s">
         <v>72</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="18.75" customHeight="1">
       <c r="B59" t="s">
         <v>865</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="18.75" customHeight="1">
       <c r="B60" t="s">
         <v>172</v>
       </c>
@@ -16528,7 +16528,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="18.75" customHeight="1">
       <c r="B61" t="s">
         <v>262</v>
       </c>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="18.75" customHeight="1">
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>413</v>
       </c>
       <c r="V62" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="W62">
         <f t="shared" si="31"/>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="BL62" s="7"/>
     </row>
-    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="18.75" customHeight="1">
       <c r="B63" t="s">
         <v>173</v>
       </c>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="BL63" s="7"/>
     </row>
-    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="18.75" customHeight="1">
       <c r="B64" t="s">
         <v>1114</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>[39.692846,-104.980251],</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="18.75" customHeight="1">
       <c r="B65" t="s">
         <v>851</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="18.75" customHeight="1">
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>414</v>
       </c>
       <c r="V66" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="31"/>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="18.75" customHeight="1">
       <c r="B67" t="s">
         <v>834</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="18.75" customHeight="1">
       <c r="B68" t="s">
         <v>174</v>
       </c>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="18.75" customHeight="1">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -18238,7 +18238,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="18.75" customHeight="1">
       <c r="B70" t="s">
         <v>76</v>
       </c>
@@ -18444,9 +18444,9 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="18.75" customHeight="1">
       <c r="B71" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C71" t="s">
         <v>612</v>
@@ -18500,7 +18500,7 @@
         <v>1900</v>
       </c>
       <c r="V71" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W71">
         <f t="shared" si="158"/>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="18.75" customHeight="1">
       <c r="B72" t="s">
         <v>175</v>
       </c>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="18.75" customHeight="1">
       <c r="B73" t="s">
         <v>176</v>
       </c>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="18.75" customHeight="1">
       <c r="B74" t="s">
         <v>869</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="18.75" customHeight="1">
       <c r="B75" t="s">
         <v>177</v>
       </c>
@@ -19440,7 +19440,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="18.75" customHeight="1">
       <c r="B76" t="s">
         <v>246</v>
       </c>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="18.75" customHeight="1">
       <c r="B77" t="s">
         <v>1219</v>
       </c>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="18.75" customHeight="1">
       <c r="B78" t="s">
         <v>178</v>
       </c>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="18.75" customHeight="1">
       <c r="B79" t="s">
         <v>887</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="18.75" customHeight="1">
       <c r="B80" t="s">
         <v>836</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="18.75" customHeight="1">
       <c r="B81" t="s">
         <v>77</v>
       </c>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="BL81" s="7"/>
     </row>
-    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="18.75" customHeight="1">
       <c r="B82" t="s">
         <v>78</v>
       </c>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="18.75" customHeight="1">
       <c r="B83" t="s">
         <v>240</v>
       </c>
@@ -20998,7 +20998,7 @@
       </c>
       <c r="BL83" s="7"/>
     </row>
-    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="18.75" customHeight="1">
       <c r="B84" t="s">
         <v>179</v>
       </c>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="18.75" customHeight="1">
       <c r="B85" t="s">
         <v>1084</v>
       </c>
@@ -21388,7 +21388,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="18.75" customHeight="1">
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -21552,7 +21552,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="18.75" customHeight="1">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="18.75" customHeight="1">
       <c r="B88" t="s">
         <v>181</v>
       </c>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="18.75" customHeight="1">
       <c r="B89" t="s">
         <v>1231</v>
       </c>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="BL89" s="7"/>
     </row>
-    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="18.75" customHeight="1">
       <c r="B90" t="s">
         <v>1097</v>
       </c>
@@ -22298,7 +22298,7 @@
         <v>[39.694056,-104.987055],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="18.75" customHeight="1">
       <c r="B91" t="s">
         <v>182</v>
       </c>
@@ -22492,7 +22492,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="18.75" customHeight="1">
       <c r="B92" t="s">
         <v>183</v>
       </c>
@@ -22686,7 +22686,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="18.75" customHeight="1">
       <c r="B93" t="s">
         <v>248</v>
       </c>
@@ -22898,7 +22898,7 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="18.75" customHeight="1">
       <c r="B94" t="s">
         <v>1149</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>[39.76211,-105.01623],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="18.75" customHeight="1">
       <c r="B95" t="s">
         <v>79</v>
       </c>
@@ -23308,7 +23308,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="18.75" customHeight="1">
       <c r="B96" t="s">
         <v>184</v>
       </c>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="18.75" customHeight="1">
       <c r="B97" t="s">
         <v>58</v>
       </c>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="18.75" customHeight="1">
       <c r="B98" t="s">
         <v>80</v>
       </c>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="BL98" s="7"/>
     </row>
-    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="18.75" customHeight="1">
       <c r="B99" t="s">
         <v>81</v>
       </c>
@@ -24111,7 +24111,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="18.75" customHeight="1">
       <c r="B100" t="s">
         <v>925</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="18.75" customHeight="1">
       <c r="B101" t="s">
         <v>855</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="18.75" customHeight="1">
       <c r="B102" t="s">
         <v>82</v>
       </c>
@@ -24715,7 +24715,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="18.75" customHeight="1">
       <c r="B103" t="s">
         <v>264</v>
       </c>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="18.75" customHeight="1">
       <c r="B104" t="s">
         <v>83</v>
       </c>
@@ -25097,7 +25097,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="18.75" customHeight="1">
       <c r="B105" t="s">
         <v>254</v>
       </c>
@@ -25261,7 +25261,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="18.75" customHeight="1">
       <c r="B106" t="s">
         <v>84</v>
       </c>
@@ -25470,7 +25470,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="18.75" customHeight="1">
       <c r="B107" t="s">
         <v>885</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="18.75" customHeight="1">
       <c r="B108" t="s">
         <v>846</v>
       </c>
@@ -25790,7 +25790,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="18.75" customHeight="1">
       <c r="B109" t="s">
         <v>85</v>
       </c>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="18.75" customHeight="1">
       <c r="B110" t="s">
         <v>185</v>
       </c>
@@ -26190,7 +26190,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="18.75" customHeight="1">
       <c r="B111" t="s">
         <v>86</v>
       </c>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="18.75" customHeight="1">
       <c r="B112" t="s">
         <v>186</v>
       </c>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="BL112" s="7"/>
     </row>
-    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="18.75" customHeight="1">
       <c r="B113" t="s">
         <v>87</v>
       </c>
@@ -26751,7 +26751,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="18.75" customHeight="1">
       <c r="B114" t="s">
         <v>244</v>
       </c>
@@ -26960,7 +26960,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="18.75" customHeight="1">
       <c r="B115" t="s">
         <v>88</v>
       </c>
@@ -27121,7 +27121,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="18.75" customHeight="1">
       <c r="B116" t="s">
         <v>875</v>
       </c>
@@ -27320,9 +27320,9 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="18.75" customHeight="1">
       <c r="B117" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C117" t="s">
         <v>266</v>
@@ -27484,7 +27484,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="18.75" customHeight="1">
       <c r="B118" t="s">
         <v>89</v>
       </c>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="18.75" customHeight="1">
       <c r="B119" t="s">
         <v>90</v>
       </c>
@@ -27893,7 +27893,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="18.75" customHeight="1">
       <c r="B120" t="s">
         <v>913</v>
       </c>
@@ -28098,7 +28098,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="18.75" customHeight="1">
       <c r="B121" t="s">
         <v>187</v>
       </c>
@@ -28292,7 +28292,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="18.75" customHeight="1">
       <c r="B122" t="s">
         <v>232</v>
       </c>
@@ -28477,7 +28477,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="18.75" customHeight="1">
       <c r="B123" t="s">
         <v>188</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>412</v>
       </c>
       <c r="V123" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" si="158"/>
@@ -28672,9 +28672,9 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="18.75" customHeight="1">
       <c r="B124" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C124" t="s">
         <v>308</v>
@@ -28683,7 +28683,7 @@
         <v>1047</v>
       </c>
       <c r="G124" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H124">
         <v>1530</v>
@@ -28728,7 +28728,7 @@
         <v>1700</v>
       </c>
       <c r="V124" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W124">
         <f t="shared" ref="W124" si="192">IF(H124&gt;0,H124/100,"")</f>
@@ -28815,7 +28815,7 @@
         <v>3.3pm-5pm</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AU124" s="4"/>
       <c r="AV124" s="4" t="s">
@@ -28879,7 +28879,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="18.75" customHeight="1">
       <c r="B125" t="s">
         <v>91</v>
       </c>
@@ -29073,9 +29073,9 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="18.75" customHeight="1">
       <c r="B126" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C126" t="s">
         <v>308</v>
@@ -29084,7 +29084,7 @@
         <v>1047</v>
       </c>
       <c r="G126" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H126">
         <v>1630</v>
@@ -29129,7 +29129,7 @@
         <v>1800</v>
       </c>
       <c r="V126" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W126">
         <f t="shared" ref="W126" si="223">IF(H126&gt;0,H126/100,"")</f>
@@ -29216,7 +29216,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AV126" s="4" t="s">
         <v>28</v>
@@ -29279,7 +29279,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="18.75" customHeight="1">
       <c r="B127" t="s">
         <v>92</v>
       </c>
@@ -29476,7 +29476,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="18.75" customHeight="1">
       <c r="B128" t="s">
         <v>93</v>
       </c>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="18.75" customHeight="1">
       <c r="B129" t="s">
         <v>239</v>
       </c>
@@ -29741,7 +29741,7 @@
         <v>1400</v>
       </c>
       <c r="V129" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W129">
         <f t="shared" si="158"/>
@@ -29894,7 +29894,7 @@
       </c>
       <c r="BL129" s="7"/>
     </row>
-    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="18.75" customHeight="1">
       <c r="B130" t="s">
         <v>189</v>
       </c>
@@ -30094,7 +30094,7 @@
       </c>
       <c r="BL130" s="7"/>
     </row>
-    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="18.75" customHeight="1">
       <c r="B131" t="s">
         <v>190</v>
       </c>
@@ -30288,7 +30288,7 @@
       </c>
       <c r="BL131" s="7"/>
     </row>
-    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="18.75" customHeight="1">
       <c r="B132" t="s">
         <v>94</v>
       </c>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="18.75" customHeight="1">
       <c r="B133" t="s">
         <v>889</v>
       </c>
@@ -30654,7 +30654,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="18.75" customHeight="1">
       <c r="B134" t="s">
         <v>95</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>413</v>
       </c>
       <c r="V134" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="W134">
         <f t="shared" ref="W134:W199" si="254">IF(H134&gt;0,H134/100,"")</f>
@@ -30864,7 +30864,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="18.75" customHeight="1">
       <c r="B135" t="s">
         <v>96</v>
       </c>
@@ -31058,7 +31058,7 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="18.75" customHeight="1">
       <c r="B136" t="s">
         <v>1123</v>
       </c>
@@ -31259,7 +31259,7 @@
         <v>[39.75576,-104.99021],</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="18.75" customHeight="1">
       <c r="B137" t="s">
         <v>97</v>
       </c>
@@ -31468,7 +31468,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="18.75" customHeight="1">
       <c r="B138" s="1" t="s">
         <v>844</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="18.75" customHeight="1">
       <c r="B139" t="s">
         <v>98</v>
       </c>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="18.75" customHeight="1">
       <c r="B140" t="s">
         <v>99</v>
       </c>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="18.75" customHeight="1">
       <c r="B141" t="s">
         <v>100</v>
       </c>
@@ -32237,7 +32237,7 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="18.75" customHeight="1">
       <c r="B142" t="s">
         <v>1227</v>
       </c>
@@ -32427,7 +32427,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="18.75" customHeight="1">
       <c r="B143" t="s">
         <v>233</v>
       </c>
@@ -32624,7 +32624,7 @@
       </c>
       <c r="BL143" s="7"/>
     </row>
-    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="18.75" customHeight="1">
       <c r="B144" t="s">
         <v>101</v>
       </c>
@@ -32788,7 +32788,7 @@
       </c>
       <c r="BL144" s="7"/>
     </row>
-    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="18.75" customHeight="1">
       <c r="B145" s="9" t="s">
         <v>102</v>
       </c>
@@ -32997,7 +32997,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="18.75" customHeight="1">
       <c r="B146" t="s">
         <v>103</v>
       </c>
@@ -33203,7 +33203,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="18.75" customHeight="1">
       <c r="B147" t="s">
         <v>104</v>
       </c>
@@ -33409,7 +33409,7 @@
       </c>
       <c r="BL147" s="7"/>
     </row>
-    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="18.75" customHeight="1">
       <c r="B148" t="s">
         <v>1141</v>
       </c>
@@ -33610,9 +33610,9 @@
         <v>[39.75382,-104.99643],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="18.75" customHeight="1">
       <c r="B149" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C149" t="s">
         <v>611</v>
@@ -33621,7 +33621,7 @@
         <v>1047</v>
       </c>
       <c r="G149" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H149">
         <v>1400</v>
@@ -33750,7 +33750,7 @@
         <v>11.3am-5pm</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AV149" s="4" t="s">
         <v>28</v>
@@ -33812,7 +33812,7 @@
         <v>[39.6905241,-104.9806818],</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="18.75" customHeight="1">
       <c r="B150" t="s">
         <v>105</v>
       </c>
@@ -34018,7 +34018,7 @@
       </c>
       <c r="BL150" s="7"/>
     </row>
-    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="18.75" customHeight="1">
       <c r="B151" t="s">
         <v>1248</v>
       </c>
@@ -34216,15 +34216,15 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="18.75" customHeight="1">
       <c r="B152" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C152" t="s">
         <v>1311</v>
       </c>
-      <c r="C152" t="s">
+      <c r="G152" t="s">
         <v>1312</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1313</v>
       </c>
       <c r="H152">
         <v>2200</v>
@@ -34269,7 +34269,7 @@
         <v>2400</v>
       </c>
       <c r="V152" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="W152">
         <f t="shared" ref="W152" si="314">IF(H152&gt;0,H152/100,"")</f>
@@ -34415,7 +34415,7 @@
         <v>[39.7158537,-104.987401],</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="18.75" customHeight="1">
       <c r="B153" t="s">
         <v>191</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>1800</v>
       </c>
       <c r="V153" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W153" t="str">
         <f t="shared" si="254"/>
@@ -34609,7 +34609,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="18.75" customHeight="1">
       <c r="B154" t="s">
         <v>106</v>
       </c>
@@ -34803,7 +34803,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="18.75" customHeight="1">
       <c r="B155" t="s">
         <v>107</v>
       </c>
@@ -35009,7 +35009,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="18.75" customHeight="1">
       <c r="B156" t="s">
         <v>899</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="18.75" customHeight="1">
       <c r="B157" t="s">
         <v>820</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="18.75" customHeight="1">
       <c r="B158" t="s">
         <v>840</v>
       </c>
@@ -35612,7 +35612,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="18.75" customHeight="1">
       <c r="B159" t="s">
         <v>1216</v>
       </c>
@@ -35662,7 +35662,7 @@
         <v>1800</v>
       </c>
       <c r="V159" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="W159" t="str">
         <f t="shared" si="254"/>
@@ -35807,7 +35807,7 @@
         <v>[39.7505999,-104.9994734],</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="18.75" customHeight="1">
       <c r="B160" t="s">
         <v>108</v>
       </c>
@@ -36013,7 +36013,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="18.75" customHeight="1">
       <c r="B161" t="s">
         <v>192</v>
       </c>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="18.75" customHeight="1">
       <c r="B162" t="s">
         <v>193</v>
       </c>
@@ -36401,7 +36401,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="18.75" customHeight="1">
       <c r="B163" t="s">
         <v>109</v>
       </c>
@@ -36601,7 +36601,7 @@
       </c>
       <c r="BL163" s="7"/>
     </row>
-    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="18.75" customHeight="1">
       <c r="B164" t="s">
         <v>194</v>
       </c>
@@ -36798,7 +36798,7 @@
       </c>
       <c r="BL164" s="7"/>
     </row>
-    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="18.75" customHeight="1">
       <c r="B165" t="s">
         <v>110</v>
       </c>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="18.75" customHeight="1">
       <c r="B166" t="s">
         <v>111</v>
       </c>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="18.75" customHeight="1">
       <c r="B167" t="s">
         <v>112</v>
       </c>
@@ -37383,7 +37383,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="18.75" customHeight="1">
       <c r="B168" t="s">
         <v>113</v>
       </c>
@@ -37583,7 +37583,7 @@
       </c>
       <c r="BL168" s="7"/>
     </row>
-    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="18.75" customHeight="1">
       <c r="B169" t="s">
         <v>195</v>
       </c>
@@ -37780,7 +37780,7 @@
       </c>
       <c r="BL169" s="7"/>
     </row>
-    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="18.75" customHeight="1">
       <c r="B170" t="s">
         <v>196</v>
       </c>
@@ -37974,7 +37974,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="18.75" customHeight="1">
       <c r="B171" t="s">
         <v>963</v>
       </c>
@@ -38167,7 +38167,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="18.75" customHeight="1">
       <c r="B172" t="s">
         <v>114</v>
       </c>
@@ -38373,7 +38373,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="18.75" customHeight="1">
       <c r="B173" t="s">
         <v>197</v>
       </c>
@@ -38567,7 +38567,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="18.75" customHeight="1">
       <c r="B174" t="s">
         <v>198</v>
       </c>
@@ -38761,7 +38761,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="18.75" customHeight="1">
       <c r="B175" t="s">
         <v>115</v>
       </c>
@@ -38967,7 +38967,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="18.75" customHeight="1">
       <c r="B176" t="s">
         <v>116</v>
       </c>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:64" ht="18.75" customHeight="1">
       <c r="B177" t="s">
         <v>117</v>
       </c>
@@ -39379,7 +39379,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:64" ht="18.75" customHeight="1">
       <c r="B178" t="s">
         <v>118</v>
       </c>
@@ -39585,7 +39585,7 @@
       </c>
       <c r="BL178" s="7"/>
     </row>
-    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:64" ht="18.75" customHeight="1">
       <c r="B179" t="s">
         <v>119</v>
       </c>
@@ -39791,7 +39791,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:64" ht="18.75" customHeight="1">
       <c r="B180" t="s">
         <v>120</v>
       </c>
@@ -39985,7 +39985,7 @@
       </c>
       <c r="BL180" s="7"/>
     </row>
-    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:64" ht="18.75" customHeight="1">
       <c r="B181" t="s">
         <v>199</v>
       </c>
@@ -40179,7 +40179,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:64" ht="18.75" customHeight="1">
       <c r="B182" t="s">
         <v>257</v>
       </c>
@@ -40388,7 +40388,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:64" ht="18.75" customHeight="1">
       <c r="B183" t="s">
         <v>121</v>
       </c>
@@ -40594,7 +40594,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:64" ht="18.75" customHeight="1">
       <c r="B184" t="s">
         <v>200</v>
       </c>
@@ -40788,7 +40788,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:64" ht="18.75" customHeight="1">
       <c r="B185" t="s">
         <v>122</v>
       </c>
@@ -40994,7 +40994,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:64" ht="18.75" customHeight="1">
       <c r="B186" t="s">
         <v>201</v>
       </c>
@@ -41188,7 +41188,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:64" ht="18.75" customHeight="1">
       <c r="B187" t="s">
         <v>123</v>
       </c>
@@ -41394,7 +41394,7 @@
       </c>
       <c r="BL187" s="7"/>
     </row>
-    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:64" ht="18.75" customHeight="1">
       <c r="B188" t="s">
         <v>258</v>
       </c>
@@ -41591,7 +41591,7 @@
       </c>
       <c r="BL188" s="7"/>
     </row>
-    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:64" ht="18.75" customHeight="1">
       <c r="B189" s="1" t="s">
         <v>853</v>
       </c>
@@ -41778,7 +41778,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:64" ht="18.75" customHeight="1">
       <c r="B190" t="s">
         <v>861</v>
       </c>
@@ -41983,7 +41983,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:64" ht="18.75" customHeight="1">
       <c r="B191" t="s">
         <v>124</v>
       </c>
@@ -42189,7 +42189,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:64" ht="18.75" customHeight="1">
       <c r="B192" t="s">
         <v>234</v>
       </c>
@@ -42383,7 +42383,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:64" ht="18.75" customHeight="1">
       <c r="B193" t="s">
         <v>263</v>
       </c>
@@ -42568,7 +42568,7 @@
       </c>
       <c r="BL193" s="7"/>
     </row>
-    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:64" ht="18.75" customHeight="1">
       <c r="B194" t="s">
         <v>931</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:64" ht="18.75" customHeight="1">
       <c r="B195" t="s">
         <v>867</v>
       </c>
@@ -42930,7 +42930,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:64" ht="18.75" customHeight="1">
       <c r="B196" t="s">
         <v>202</v>
       </c>
@@ -43130,7 +43130,7 @@
       </c>
       <c r="BL196" s="7"/>
     </row>
-    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:64" ht="18.75" customHeight="1">
       <c r="B197" t="s">
         <v>1098</v>
       </c>
@@ -43286,7 +43286,7 @@
         <v>[39.677478,-104.914182],</v>
       </c>
     </row>
-    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:64" ht="18.75" customHeight="1">
       <c r="B198" t="s">
         <v>848</v>
       </c>
@@ -43491,7 +43491,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:64" ht="18.75" customHeight="1">
       <c r="B199" t="s">
         <v>203</v>
       </c>
@@ -43685,7 +43685,7 @@
       </c>
       <c r="BL199" s="7"/>
     </row>
-    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:64" ht="18.75" customHeight="1">
       <c r="B200" s="6" t="s">
         <v>204</v>
       </c>
@@ -43883,7 +43883,7 @@
       </c>
       <c r="BL200" s="7"/>
     </row>
-    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:64" ht="18.75" customHeight="1">
       <c r="B201" t="s">
         <v>205</v>
       </c>
@@ -44077,7 +44077,7 @@
       </c>
       <c r="BL201" s="7"/>
     </row>
-    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:64" ht="18.75" customHeight="1">
       <c r="B202" t="s">
         <v>206</v>
       </c>
@@ -44271,7 +44271,7 @@
       </c>
       <c r="BL202" s="7"/>
     </row>
-    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:64" ht="18.75" customHeight="1">
       <c r="B203" t="s">
         <v>1163</v>
       </c>
@@ -44454,7 +44454,7 @@
         <v>[39.76354,-105.01106],</v>
       </c>
     </row>
-    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:64" ht="18.75" customHeight="1">
       <c r="B204" t="s">
         <v>1174</v>
       </c>
@@ -44655,7 +44655,7 @@
         <v>[39.71761,-104.94761],</v>
       </c>
     </row>
-    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:64" ht="18.75" customHeight="1">
       <c r="B205" t="s">
         <v>207</v>
       </c>
@@ -44849,7 +44849,7 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:64" ht="18.75" customHeight="1">
       <c r="B206" t="s">
         <v>1152</v>
       </c>
@@ -45038,7 +45038,7 @@
         <v>[39.74819,-104.99897],</v>
       </c>
     </row>
-    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:64" ht="18.75" customHeight="1">
       <c r="B207" t="s">
         <v>125</v>
       </c>
@@ -45232,7 +45232,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:64" ht="18.75" customHeight="1">
       <c r="B208" t="s">
         <v>891</v>
       </c>
@@ -45425,7 +45425,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:64" ht="18.75" customHeight="1">
       <c r="B209" t="s">
         <v>1155</v>
       </c>
@@ -45614,7 +45614,7 @@
         <v>[39.75959,-104.98604],</v>
       </c>
     </row>
-    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:64" ht="18.75" customHeight="1">
       <c r="B210" t="s">
         <v>126</v>
       </c>
@@ -45814,7 +45814,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:64" ht="18.75" customHeight="1">
       <c r="B211" t="s">
         <v>818</v>
       </c>
@@ -46004,7 +46004,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:64" ht="18.75" customHeight="1">
       <c r="B212" t="s">
         <v>127</v>
       </c>
@@ -46204,7 +46204,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:64" ht="18.75" customHeight="1">
       <c r="B213" t="s">
         <v>128</v>
       </c>
@@ -46410,7 +46410,7 @@
       </c>
       <c r="BL213" s="7"/>
     </row>
-    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:64" ht="18.75" customHeight="1">
       <c r="B214" t="s">
         <v>1120</v>
       </c>
@@ -46600,7 +46600,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:64" ht="18.75" customHeight="1">
       <c r="B215" t="s">
         <v>129</v>
       </c>
@@ -46809,7 +46809,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:64" ht="18.75" customHeight="1">
       <c r="B216" t="s">
         <v>130</v>
       </c>
@@ -47003,7 +47003,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:64" ht="18.75" customHeight="1">
       <c r="B217" t="s">
         <v>208</v>
       </c>
@@ -47197,7 +47197,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:64" ht="18.75" customHeight="1">
       <c r="B218" t="s">
         <v>260</v>
       </c>
@@ -47361,7 +47361,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:64" ht="18.75" customHeight="1">
       <c r="B219" t="s">
         <v>131</v>
       </c>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:64" ht="18.75" customHeight="1">
       <c r="B220" t="s">
         <v>132</v>
       </c>
@@ -47761,7 +47761,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:64" ht="18.75" customHeight="1">
       <c r="B221" t="s">
         <v>863</v>
       </c>
@@ -47805,7 +47805,7 @@
         <v>1800</v>
       </c>
       <c r="V221" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="W221" t="str">
         <f t="shared" si="347"/>
@@ -47954,7 +47954,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:64" ht="18.75" customHeight="1">
       <c r="B222" t="s">
         <v>133</v>
       </c>
@@ -47998,7 +47998,7 @@
         <v>1900</v>
       </c>
       <c r="V222" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="W222" t="str">
         <f t="shared" si="347"/>
@@ -48148,7 +48148,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:64" ht="18.75" customHeight="1">
       <c r="B223" t="s">
         <v>250</v>
       </c>
@@ -48348,7 +48348,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:64" ht="18.75" customHeight="1">
       <c r="B224" t="s">
         <v>927</v>
       </c>
@@ -48508,7 +48508,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:64" ht="18.75" customHeight="1">
       <c r="B225" t="s">
         <v>259</v>
       </c>
@@ -48672,7 +48672,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:64" ht="18.75" customHeight="1">
       <c r="B226" t="s">
         <v>241</v>
       </c>
@@ -48870,7 +48870,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:64" ht="18.75" customHeight="1">
       <c r="B227" t="s">
         <v>134</v>
       </c>
@@ -49070,7 +49070,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:64" ht="18.75" customHeight="1">
       <c r="B228" t="s">
         <v>135</v>
       </c>
@@ -49276,7 +49276,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:64" ht="18.75" customHeight="1">
       <c r="B229" t="s">
         <v>209</v>
       </c>
@@ -49470,7 +49470,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:64" ht="18.75" customHeight="1">
       <c r="B230" t="s">
         <v>136</v>
       </c>
@@ -49676,7 +49676,7 @@
       </c>
       <c r="BL230" s="7"/>
     </row>
-    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:64" ht="18.75" customHeight="1">
       <c r="B231" t="s">
         <v>895</v>
       </c>
@@ -49836,7 +49836,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:64" ht="18.75" customHeight="1">
       <c r="B232" t="s">
         <v>137</v>
       </c>
@@ -49880,7 +49880,7 @@
         <v>1800</v>
       </c>
       <c r="V232" t="s">
-        <v>1261</v>
+        <v>1315</v>
       </c>
       <c r="W232" t="str">
         <f t="shared" si="347"/>
@@ -49980,7 +49980,7 @@
         <v>{
     'name': "Rhein Haus",
     'area': "LoDo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$9 Cheddarwurst Sausage Sliders&lt;br&gt;$9 Chicken Schnitzel Sliders&lt;br&gt;$11 Rhein Haus Burger", 'link':"http://www.rheinhausdenver.com/", 'pricing':"med",   'phone-number': "", 'address': "1415 Market St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$7 Cheddarwurst Sausage Sliders&lt;br&gt;$7 Chicken Schnitzel Sliders&lt;br&gt;$7 Miremberg Mini-Brats&lt;br&gt;$16 Flatbread", 'link':"http://www.rheinhausdenver.com/", 'pricing':"med",   'phone-number': "", 'address': "1415 Market St. Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY232" t="str">
         <f t="shared" si="369"/>
@@ -50030,7 +50030,7 @@
       </c>
       <c r="BL232" s="7"/>
     </row>
-    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:64" ht="18.75" customHeight="1">
       <c r="B233" t="s">
         <v>138</v>
       </c>
@@ -50236,7 +50236,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:64" ht="18.75" customHeight="1">
       <c r="B234" t="s">
         <v>139</v>
       </c>
@@ -50442,7 +50442,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:64" ht="18.75" customHeight="1">
       <c r="B235" t="s">
         <v>261</v>
       </c>
@@ -50606,7 +50606,7 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:64" ht="18.75" customHeight="1">
       <c r="B236" t="s">
         <v>1224</v>
       </c>
@@ -50793,7 +50793,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:64" ht="18.75" customHeight="1">
       <c r="B237" t="s">
         <v>140</v>
       </c>
@@ -50990,7 +50990,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:64" ht="18.75" customHeight="1">
       <c r="B238" t="s">
         <v>832</v>
       </c>
@@ -51195,7 +51195,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:64" ht="18.75" customHeight="1">
       <c r="B239" t="s">
         <v>210</v>
       </c>
@@ -51389,7 +51389,7 @@
       </c>
       <c r="BL239" s="7"/>
     </row>
-    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:64" ht="18.75" customHeight="1">
       <c r="B240" t="s">
         <v>907</v>
       </c>
@@ -51549,7 +51549,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:64" ht="18.75" customHeight="1">
       <c r="B241" t="s">
         <v>1099</v>
       </c>
@@ -51750,7 +51750,7 @@
         <v>[39.753306,-104.996116],</v>
       </c>
     </row>
-    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:64" ht="18.75" customHeight="1">
       <c r="B242" t="s">
         <v>211</v>
       </c>
@@ -51947,7 +51947,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:64" ht="18.75" customHeight="1">
       <c r="B243" t="s">
         <v>141</v>
       </c>
@@ -52147,7 +52147,7 @@
       </c>
       <c r="BL243" s="7"/>
     </row>
-    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:64" ht="18.75" customHeight="1">
       <c r="B244" t="s">
         <v>1088</v>
       </c>
@@ -52304,7 +52304,7 @@
       </c>
       <c r="BL244" s="7"/>
     </row>
-    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:64" ht="18.75" customHeight="1">
       <c r="B245" t="s">
         <v>882</v>
       </c>
@@ -52509,7 +52509,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:64" ht="18.75" customHeight="1">
       <c r="B246" t="s">
         <v>142</v>
       </c>
@@ -52715,7 +52715,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:64" ht="18.75" customHeight="1">
       <c r="B247" t="s">
         <v>897</v>
       </c>
@@ -52872,7 +52872,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:64" ht="18.75" customHeight="1">
       <c r="B248" t="s">
         <v>870</v>
       </c>
@@ -53078,7 +53078,7 @@
       </c>
       <c r="BL248" s="7"/>
     </row>
-    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:64" ht="18.75" customHeight="1">
       <c r="B249" t="s">
         <v>212</v>
       </c>
@@ -53272,7 +53272,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:64" ht="18.75" customHeight="1">
       <c r="B250" t="s">
         <v>213</v>
       </c>
@@ -53466,7 +53466,7 @@
       </c>
       <c r="BL250" s="7"/>
     </row>
-    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:64" ht="18.75" customHeight="1">
       <c r="B251" t="s">
         <v>214</v>
       </c>
@@ -53660,7 +53660,7 @@
       </c>
       <c r="BL251" s="7"/>
     </row>
-    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:64" ht="18.75" customHeight="1">
       <c r="B252" t="s">
         <v>1239</v>
       </c>
@@ -53850,7 +53850,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:64" ht="18.75" customHeight="1">
       <c r="B253" t="s">
         <v>215</v>
       </c>
@@ -54044,7 +54044,7 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:64" ht="18.75" customHeight="1">
       <c r="B254" t="s">
         <v>143</v>
       </c>
@@ -54250,7 +54250,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:64" ht="18.75" customHeight="1">
       <c r="B255" t="s">
         <v>255</v>
       </c>
@@ -54414,7 +54414,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:64" ht="18.75" customHeight="1">
       <c r="B256" t="s">
         <v>242</v>
       </c>
@@ -54578,7 +54578,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:64" ht="18.75" customHeight="1">
       <c r="B257" t="s">
         <v>144</v>
       </c>
@@ -54784,7 +54784,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:64" ht="18.75" customHeight="1">
       <c r="B258" t="s">
         <v>216</v>
       </c>
@@ -54978,7 +54978,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:64" ht="18.75" customHeight="1">
       <c r="B259" t="s">
         <v>1127</v>
       </c>
@@ -55173,7 +55173,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:64" ht="18.75" customHeight="1">
       <c r="B260" t="s">
         <v>217</v>
       </c>
@@ -55367,7 +55367,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:64" ht="18.75" customHeight="1">
       <c r="B261" t="s">
         <v>218</v>
       </c>
@@ -55561,7 +55561,7 @@
       </c>
       <c r="BL261" s="7"/>
     </row>
-    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:64" ht="18.75" customHeight="1">
       <c r="B262" t="s">
         <v>1211</v>
       </c>
@@ -55763,7 +55763,7 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:64" ht="18.75" customHeight="1">
       <c r="B263" t="s">
         <v>1209</v>
       </c>
@@ -55957,7 +55957,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:64" ht="18.75" customHeight="1">
       <c r="B264" t="s">
         <v>145</v>
       </c>
@@ -56163,7 +56163,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:64" ht="18.75" customHeight="1">
       <c r="B265" t="s">
         <v>146</v>
       </c>
@@ -56369,7 +56369,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:64" ht="18.75" customHeight="1">
       <c r="B266" t="s">
         <v>219</v>
       </c>
@@ -56563,7 +56563,7 @@
       </c>
       <c r="BL266" s="7"/>
     </row>
-    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:64" ht="18.75" customHeight="1">
       <c r="B267" t="s">
         <v>147</v>
       </c>
@@ -56772,7 +56772,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:64" ht="18.75" customHeight="1">
       <c r="B268" t="s">
         <v>873</v>
       </c>
@@ -56932,7 +56932,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:64" ht="18.75" customHeight="1">
       <c r="B269" t="s">
         <v>148</v>
       </c>
@@ -56988,7 +56988,7 @@
         <v>1900</v>
       </c>
       <c r="V269" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="W269">
         <f t="shared" si="381"/>
@@ -57138,7 +57138,7 @@
       </c>
       <c r="BL269" s="7"/>
     </row>
-    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:64" ht="18.75" customHeight="1">
       <c r="B270" t="s">
         <v>149</v>
       </c>
@@ -57335,7 +57335,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:64" ht="18.75" customHeight="1">
       <c r="B271" t="s">
         <v>150</v>
       </c>
@@ -57529,7 +57529,7 @@
       </c>
       <c r="BL271" s="7"/>
     </row>
-    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:64" ht="18.75" customHeight="1">
       <c r="B272" t="s">
         <v>1100</v>
       </c>
@@ -57685,7 +57685,7 @@
         <v>[39.77126,-105.044258],</v>
       </c>
     </row>
-    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:64" ht="18.75" customHeight="1">
       <c r="B273" t="s">
         <v>220</v>
       </c>
@@ -57879,7 +57879,7 @@
       </c>
       <c r="BL273" s="7"/>
     </row>
-    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:64" ht="18.75" customHeight="1">
       <c r="B274" t="s">
         <v>221</v>
       </c>
@@ -58073,7 +58073,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:64" ht="18.75" customHeight="1">
       <c r="B275" t="s">
         <v>151</v>
       </c>
@@ -58267,7 +58267,7 @@
       </c>
       <c r="BL275" s="7"/>
     </row>
-    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:64" ht="18.75" customHeight="1">
       <c r="B276" t="s">
         <v>222</v>
       </c>
@@ -58461,7 +58461,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:64" ht="18.75" customHeight="1">
       <c r="B277" t="s">
         <v>152</v>
       </c>
@@ -58667,7 +58667,7 @@
       </c>
       <c r="BL277" s="7"/>
     </row>
-    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:64" ht="18.75" customHeight="1">
       <c r="B278" t="s">
         <v>223</v>
       </c>
@@ -58831,7 +58831,7 @@
       </c>
       <c r="BL278" s="7"/>
     </row>
-    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:64" ht="18.75" customHeight="1">
       <c r="B279" t="s">
         <v>828</v>
       </c>
@@ -59036,7 +59036,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:64" ht="18.75" customHeight="1">
       <c r="B280" t="s">
         <v>933</v>
       </c>
@@ -59241,7 +59241,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:64" ht="18.75" customHeight="1">
       <c r="B281" t="s">
         <v>1241</v>
       </c>
@@ -59439,7 +59439,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:64" ht="18.75" customHeight="1">
       <c r="B282" t="s">
         <v>235</v>
       </c>
@@ -59627,7 +59627,7 @@
       </c>
       <c r="BL282" s="7"/>
     </row>
-    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:64" ht="18.75" customHeight="1">
       <c r="B283" t="s">
         <v>893</v>
       </c>
@@ -59826,7 +59826,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:64" ht="18.75" customHeight="1">
       <c r="B284" t="s">
         <v>901</v>
       </c>
@@ -60016,7 +60016,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:64" ht="18.75" customHeight="1">
       <c r="B285" t="s">
         <v>822</v>
       </c>
@@ -60221,7 +60221,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:64" ht="18.75" customHeight="1">
       <c r="B286" t="s">
         <v>243</v>
       </c>
@@ -60418,7 +60418,7 @@
       </c>
       <c r="BL286" s="7"/>
     </row>
-    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:64" ht="18.75" customHeight="1">
       <c r="B287" t="s">
         <v>857</v>
       </c>
@@ -60623,7 +60623,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:64" ht="18.75" customHeight="1">
       <c r="B288" t="s">
         <v>909</v>
       </c>
@@ -60828,7 +60828,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:64" ht="18.75" customHeight="1">
       <c r="B289" t="s">
         <v>153</v>
       </c>
@@ -61031,7 +61031,7 @@
       </c>
       <c r="BL289" s="7"/>
     </row>
-    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:64" ht="18.75" customHeight="1">
       <c r="B290" t="s">
         <v>935</v>
       </c>
@@ -61236,7 +61236,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:64" ht="18.75" customHeight="1">
       <c r="B291" t="s">
         <v>871</v>
       </c>
@@ -61435,7 +61435,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:64" ht="18.75" customHeight="1">
       <c r="B292" t="s">
         <v>154</v>
       </c>
@@ -61641,7 +61641,7 @@
       </c>
       <c r="BL292" s="7"/>
     </row>
-    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:64" ht="18.75" customHeight="1">
       <c r="B293" t="s">
         <v>237</v>
       </c>
@@ -61850,7 +61850,7 @@
       </c>
       <c r="BL293" s="7"/>
     </row>
-    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:64" ht="18.75" customHeight="1">
       <c r="B294" t="s">
         <v>155</v>
       </c>
@@ -62056,7 +62056,7 @@
       </c>
       <c r="BL294" s="7"/>
     </row>
-    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:64" ht="18.75" customHeight="1">
       <c r="B295" t="s">
         <v>156</v>
       </c>
@@ -62250,7 +62250,7 @@
       </c>
       <c r="BL295" s="7"/>
     </row>
-    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:64" ht="18.75" customHeight="1">
       <c r="B296" t="s">
         <v>224</v>
       </c>
@@ -62411,7 +62411,7 @@
       </c>
       <c r="BL296" s="7"/>
     </row>
-    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:64" ht="18.75" customHeight="1">
       <c r="B297" t="s">
         <v>225</v>
       </c>
@@ -62602,7 +62602,7 @@
       </c>
       <c r="BL297" s="7"/>
     </row>
-    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:64" ht="18.75" customHeight="1">
       <c r="B298" t="s">
         <v>919</v>
       </c>
@@ -62753,7 +62753,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:64" ht="18.75" customHeight="1">
       <c r="B299" t="s">
         <v>157</v>
       </c>
@@ -62953,7 +62953,7 @@
       </c>
       <c r="BL299" s="7"/>
     </row>
-    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:64" ht="18.75" customHeight="1">
       <c r="B300" t="s">
         <v>915</v>
       </c>
@@ -63113,7 +63113,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:64" ht="18.75" customHeight="1">
       <c r="B301" t="s">
         <v>226</v>
       </c>
@@ -63307,7 +63307,7 @@
       </c>
       <c r="BL301" s="7"/>
     </row>
-    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:64" ht="18.75" customHeight="1">
       <c r="B302" t="s">
         <v>1159</v>
       </c>
@@ -63508,7 +63508,7 @@
         <v>[39.72741,-104.98388],</v>
       </c>
     </row>
-    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:64" ht="18.75" customHeight="1">
       <c r="B303" t="s">
         <v>158</v>
       </c>
@@ -63702,7 +63702,7 @@
       </c>
       <c r="BL303" s="7"/>
     </row>
-    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:64" ht="18.75" customHeight="1">
       <c r="B304" t="s">
         <v>227</v>
       </c>
@@ -63899,7 +63899,7 @@
       </c>
       <c r="BL304" s="7"/>
     </row>
-    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:64" ht="18.75" customHeight="1">
       <c r="B305" t="s">
         <v>228</v>
       </c>
@@ -64093,7 +64093,7 @@
       </c>
       <c r="BL305" s="7"/>
     </row>
-    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:64" ht="18.75" customHeight="1">
       <c r="B306" t="s">
         <v>1242</v>
       </c>
@@ -64285,7 +64285,7 @@
         <v>[39.77142,-105.04415],</v>
       </c>
     </row>
-    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:64" ht="18.75" customHeight="1">
       <c r="B307" t="s">
         <v>229</v>
       </c>
@@ -64479,7 +64479,7 @@
       </c>
       <c r="BL307" s="7"/>
     </row>
-    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:64" ht="18.75" customHeight="1">
       <c r="B308" t="s">
         <v>159</v>
       </c>
@@ -64676,7 +64676,7 @@
       </c>
       <c r="BL308" s="7"/>
     </row>
-    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:64" ht="18.75" customHeight="1">
       <c r="B309" t="s">
         <v>160</v>
       </c>
@@ -64882,7 +64882,7 @@
       </c>
       <c r="BL309" s="7"/>
     </row>
-    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:64" ht="18.75" customHeight="1">
       <c r="B310" t="s">
         <v>877</v>
       </c>
@@ -65087,7 +65087,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:64" ht="18.75" customHeight="1">
       <c r="B311" t="s">
         <v>253</v>
       </c>
@@ -65251,7 +65251,7 @@
       </c>
       <c r="BL311" s="7"/>
     </row>
-    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:64" ht="18.75" customHeight="1">
       <c r="B312" t="s">
         <v>923</v>
       </c>
@@ -65453,7 +65453,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:64" ht="18.75" customHeight="1">
       <c r="B313" t="s">
         <v>161</v>
       </c>
@@ -65617,7 +65617,7 @@
       </c>
       <c r="BL313" s="7"/>
     </row>
-    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:64" ht="18.75" customHeight="1">
       <c r="B314" t="s">
         <v>1240</v>
       </c>
@@ -65797,7 +65797,7 @@
         <v>[39.74352,-104.96954],</v>
       </c>
     </row>
-    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:64" ht="18.75" customHeight="1">
       <c r="B315" t="s">
         <v>939</v>
       </c>
@@ -65996,7 +65996,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:64" ht="18.75" customHeight="1">
       <c r="B316" t="s">
         <v>230</v>
       </c>
@@ -66190,7 +66190,7 @@
       </c>
       <c r="BL316" s="7"/>
     </row>
-    <row r="317" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:64" ht="18.75" customHeight="1">
       <c r="B317" t="s">
         <v>879</v>
       </c>
@@ -66395,7 +66395,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:64" ht="18.75" customHeight="1">
       <c r="B318" t="s">
         <v>162</v>
       </c>
@@ -66589,7 +66589,7 @@
       </c>
       <c r="BL318" s="7"/>
     </row>
-    <row r="319" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:64" ht="18.75" customHeight="1">
       <c r="B319" t="s">
         <v>163</v>
       </c>
@@ -66795,7 +66795,7 @@
       </c>
       <c r="BL319" s="7"/>
     </row>
-    <row r="320" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:64" ht="18.75" customHeight="1">
       <c r="B320" t="s">
         <v>911</v>
       </c>
@@ -67000,7 +67000,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:64" ht="18.75" customHeight="1">
       <c r="B321" t="s">
         <v>256</v>
       </c>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="BL321" s="7"/>
     </row>
-    <row r="322" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:64" ht="18.75" customHeight="1">
       <c r="B322" t="s">
         <v>164</v>
       </c>
@@ -67400,9 +67400,9 @@
       <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1178</v>
       </c>
@@ -67425,7 +67425,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>39.755760000000002</v>
       </c>
@@ -67466,7 +67466,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>39.732250000000001</v>
       </c>
@@ -67504,7 +67504,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>39.754260000000002</v>
       </c>
@@ -67542,7 +67542,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>39.725490000000001</v>
       </c>
@@ -67580,7 +67580,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>39.753819999999997</v>
       </c>
@@ -67618,7 +67618,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>39.709600000000002</v>
       </c>
@@ -67656,7 +67656,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>39.76211</v>
       </c>
@@ -67694,7 +67694,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>39.748190000000001</v>
       </c>
@@ -67714,7 +67714,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>39.759590000000003</v>
       </c>
@@ -67734,7 +67734,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>39.727409999999999</v>
       </c>
@@ -67754,7 +67754,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>39.763539999999999</v>
       </c>
@@ -67774,7 +67774,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>39.768740000000001</v>
       </c>
@@ -67794,7 +67794,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>39.751339999999999</v>
       </c>
@@ -67814,7 +67814,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>39.717610000000001</v>
       </c>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3443,9 +3443,6 @@
     <t>2134 Larimer St Denver CO</t>
   </si>
   <si>
-    <t>All Day Every Day in the Bar! 3pm-6pm in the Dining Room&lt;br&gt;$5 Small Plates&lt;br&gt;$2.50 Singha Beer&lt;br&gt;$3 Can Beers&lt;br&gt;$4 Select Draft&lt;br&gt;$5 Select Cocktails&lt;br&gt;$7 Select Special Cocktails &lt;br&gt;$6 Select by Glass or $20 by the Bottle Wines</t>
-  </si>
-  <si>
     <t>https://www.aloymodernthai.com</t>
   </si>
   <si>
@@ -3981,13 +3978,16 @@
   </si>
   <si>
     <t>$5 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$7 Cheddarwurst Sausage Sliders&lt;br&gt;$7 Chicken Schnitzel Sliders&lt;br&gt;$7 Miremberg Mini-Brats&lt;br&gt;$16 Flatbread</t>
+  </si>
+  <si>
+    <t>All Day Every Day in the Bar! 3pm-6pm in the Dining Room&lt;br&gt;$6 Small Plates&lt;br&gt;$3 Singha Beer&lt;br&gt;$4 Can Beers&lt;br&gt;$6 Select Cocktails&lt;br&gt;$7 Select Special Cocktails &lt;br&gt;$7 Select by Glass or $28 by the Bottle Wines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4986,11 +4986,11 @@
   <dimension ref="B1:BL322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V233" sqref="V233"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -5014,7 +5014,7 @@
     <col min="58" max="58" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5182,9 +5182,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C2" t="s">
         <v>1030</v>
@@ -5193,7 +5193,7 @@
         <v>1047</v>
       </c>
       <c r="G2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2">
         <v>1400</v>
@@ -5238,7 +5238,7 @@
         <v>1800</v>
       </c>
       <c r="V2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5325,7 +5325,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>28</v>
@@ -5387,7 +5387,7 @@
         <v>[39.7319054,-104.9863224],</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>165</v>
       </c>
@@ -5585,9 +5585,9 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C4" t="s">
         <v>812</v>
@@ -5596,7 +5596,7 @@
         <v>1047</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H4">
         <v>800</v>
@@ -5641,7 +5641,7 @@
         <v>1200</v>
       </c>
       <c r="V4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4" si="62">IF(H4&gt;0,H4/100,"")</f>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="BL4" s="7"/>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1117</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1800</v>
       </c>
       <c r="V5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="31"/>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>929</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>929</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1047</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J7">
         <v>1500</v>
@@ -6375,7 +6375,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>859</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1092</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -6990,9 +6990,9 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C11" t="s">
         <v>814</v>
@@ -7001,7 +7001,7 @@
         <v>1047</v>
       </c>
       <c r="G11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H11">
         <v>1430</v>
@@ -7046,7 +7046,7 @@
         <v>1730</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W11">
         <f t="shared" si="31"/>
@@ -7133,7 +7133,7 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>28</v>
@@ -7191,7 +7191,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>413</v>
       </c>
       <c r="V12" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="W12">
         <f t="shared" si="31"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>231</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>1900</v>
       </c>
       <c r="V13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="31"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -7800,9 +7800,9 @@
       </c>
       <c r="BL14" s="7"/>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C15" t="s">
         <v>810</v>
@@ -7856,7 +7856,7 @@
         <v>413</v>
       </c>
       <c r="V15" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="W15">
         <f t="shared" si="31"/>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1134</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>2200</v>
       </c>
       <c r="V16" t="s">
-        <v>1136</v>
+        <v>1315</v>
       </c>
       <c r="W16">
         <f t="shared" si="31"/>
@@ -8152,7 +8152,7 @@
         <v>12pm-10pm</v>
       </c>
       <c r="AR16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AV16" s="4" t="s">
         <v>28</v>
@@ -8165,7 +8165,7 @@
         <v>{
     'name': "Aloy Modern Thai",
     'area': "Ballpark",'hours': {
-      'sunday-start':"1200", 'sunday-end':"2130", 'monday-start':"1100", 'monday-end':"930", 'tuesday-start':"1100", 'tuesday-end':"930", 'wednesday-start':"1100", 'wednesday-end':"930", 'thursday-start':"1100", 'thursday-end':"930", 'friday-start':"1100", 'friday-end':"2200", 'saturday-start':"1200", 'saturday-end':"2200"},  'description': "All Day Every Day in the Bar! 3pm-6pm in the Dining Room&lt;br&gt;$5 Small Plates&lt;br&gt;$2.50 Singha Beer&lt;br&gt;$3 Can Beers&lt;br&gt;$4 Select Draft&lt;br&gt;$5 Select Cocktails&lt;br&gt;$7 Select Special Cocktails &lt;br&gt;$6 Select by Glass or $20 by the Bottle Wines", 'link':"https://www.aloymodernthai.com", 'pricing':"med",   'phone-number': "", 'address': "2134 Larimer St Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1200", 'sunday-end':"2130", 'monday-start':"1100", 'monday-end':"930", 'tuesday-start':"1100", 'tuesday-end':"930", 'wednesday-start':"1100", 'wednesday-end':"930", 'thursday-start':"1100", 'thursday-end':"930", 'friday-start':"1100", 'friday-end':"2200", 'saturday-start':"1200", 'saturday-end':"2200"},  'description': "All Day Every Day in the Bar! 3pm-6pm in the Dining Room&lt;br&gt;$6 Small Plates&lt;br&gt;$3 Singha Beer&lt;br&gt;$4 Can Beers&lt;br&gt;$6 Select Cocktails&lt;br&gt;$7 Select Special Cocktails &lt;br&gt;$7 Select by Glass or $28 by the Bottle Wines", 'link':"https://www.aloymodernthai.com", 'pricing':"med",   'phone-number': "", 'address': "2134 Larimer St Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY16" t="str">
         <f t="shared" si="53"/>
@@ -8210,7 +8210,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>905</v>
       </c>
@@ -8403,9 +8403,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C18" t="s">
         <v>810</v>
@@ -8414,7 +8414,7 @@
         <v>1047</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J18">
         <v>1600</v>
@@ -8590,9 +8590,9 @@
         <v>[39.7692999,-105.0413475],</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C19" t="s">
         <v>1030</v>
@@ -8601,7 +8601,7 @@
         <v>1047</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H19">
         <v>1500</v>
@@ -8646,7 +8646,7 @@
         <v>1800</v>
       </c>
       <c r="V19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="W19">
         <f t="shared" si="31"/>
@@ -8733,7 +8733,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AV19" s="4" t="s">
         <v>28</v>
@@ -8791,7 +8791,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>826</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>838</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>413</v>
       </c>
       <c r="V22" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W22">
         <f t="shared" si="31"/>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="BL22" s="7"/>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>917</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>236</v>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>62</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>842</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>64</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>414</v>
       </c>
       <c r="V29" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W29">
         <f t="shared" si="31"/>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="BL30" s="7"/>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>903</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>880</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>167</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1700</v>
       </c>
       <c r="V33" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="31"/>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>247</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>168</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1830</v>
       </c>
       <c r="V35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="31"/>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>1111</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
@@ -12119,9 +12119,9 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C38" t="s">
         <v>266</v>
@@ -12130,7 +12130,7 @@
         <v>1047</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H38">
         <v>1600</v>
@@ -12163,7 +12163,7 @@
         <v>1900</v>
       </c>
       <c r="V38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="W38">
         <f t="shared" si="31"/>
@@ -12305,7 +12305,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>238</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>415</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W39">
         <f t="shared" si="31"/>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>920</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1">
+    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>66</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="18.75" customHeight="1">
+    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>170</v>
       </c>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="18.75" customHeight="1">
+    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>171</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>1049</v>
       </c>
       <c r="G43" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J43">
         <v>1500</v>
@@ -13151,7 +13151,7 @@
         <v>1800</v>
       </c>
       <c r="V43" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="31"/>
@@ -13301,18 +13301,18 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="18.75" customHeight="1">
+    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C44" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E44" t="s">
         <v>1047</v>
       </c>
       <c r="G44" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H44">
         <v>1200</v>
@@ -13357,7 +13357,7 @@
         <v>1830</v>
       </c>
       <c r="V44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="W44">
         <f t="shared" si="31"/>
@@ -13444,7 +13444,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>28</v>
@@ -13502,7 +13502,7 @@
         <v>[39.75134,-105.00048],</v>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="18.75" customHeight="1">
+    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>67</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>413</v>
       </c>
       <c r="V45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="W45">
         <f t="shared" si="31"/>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="BL45" s="7"/>
     </row>
-    <row r="46" spans="2:64" ht="18.75" customHeight="1">
+    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>1096</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>[39.781885,-104.891501],</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="18.75" customHeight="1">
+    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>413</v>
       </c>
       <c r="V47" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="31"/>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" ht="18.75" customHeight="1">
+    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>830</v>
       </c>
@@ -14254,9 +14254,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="18.75" customHeight="1">
+    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C49" t="s">
         <v>298</v>
@@ -14265,7 +14265,7 @@
         <v>1047</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H49">
         <v>1500</v>
@@ -14310,7 +14310,7 @@
         <v>1800</v>
       </c>
       <c r="V49" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
@@ -14455,7 +14455,7 @@
         <v>[39.7499044,-104.9997273],</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="18.75" customHeight="1">
+    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>249</v>
       </c>
@@ -14622,7 +14622,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" ht="18.75" customHeight="1">
+    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>251</v>
       </c>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="BL51" s="7"/>
     </row>
-    <row r="52" spans="2:64" ht="18.75" customHeight="1">
+    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" ht="18.75" customHeight="1">
+    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>1131</v>
       </c>
@@ -15133,9 +15133,9 @@
         <v>[39.73225,-105.00513],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="18.75" customHeight="1">
+    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C54" t="s">
         <v>611</v>
@@ -15144,7 +15144,7 @@
         <v>1047</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J54">
         <v>1600</v>
@@ -15177,7 +15177,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="31"/>
@@ -15264,7 +15264,7 @@
         <v/>
       </c>
       <c r="AR54" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AV54" s="4" t="s">
         <v>28</v>
@@ -15322,7 +15322,7 @@
         <v>[39.7096,-104.98058],</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="18.75" customHeight="1">
+    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>413</v>
       </c>
       <c r="V55" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="W55">
         <f t="shared" si="31"/>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="BL55" s="7"/>
     </row>
-    <row r="56" spans="2:64" ht="18.75" customHeight="1">
+    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="BL56" s="7"/>
     </row>
-    <row r="57" spans="2:64" ht="18.75" customHeight="1">
+    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>824</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="18.75" customHeight="1">
+    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>72</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="18.75" customHeight="1">
+    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>865</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="18.75" customHeight="1">
+    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>172</v>
       </c>
@@ -16528,7 +16528,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="18.75" customHeight="1">
+    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>262</v>
       </c>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="18.75" customHeight="1">
+    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>413</v>
       </c>
       <c r="V62" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="W62">
         <f t="shared" si="31"/>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="BL62" s="7"/>
     </row>
-    <row r="63" spans="2:64" ht="18.75" customHeight="1">
+    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>173</v>
       </c>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="BL63" s="7"/>
     </row>
-    <row r="64" spans="2:64" ht="18.75" customHeight="1">
+    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1114</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>[39.692846,-104.980251],</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="18.75" customHeight="1">
+    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>851</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="18.75" customHeight="1">
+    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>414</v>
       </c>
       <c r="V66" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="31"/>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="18.75" customHeight="1">
+    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>834</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="18.75" customHeight="1">
+    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>174</v>
       </c>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="18.75" customHeight="1">
+    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -18238,7 +18238,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="18.75" customHeight="1">
+    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>76</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>413</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="W70">
         <f t="shared" si="158"/>
@@ -18444,9 +18444,9 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" ht="18.75" customHeight="1">
+    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C71" t="s">
         <v>612</v>
@@ -18500,7 +18500,7 @@
         <v>1900</v>
       </c>
       <c r="V71" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="W71">
         <f t="shared" si="158"/>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="18.75" customHeight="1">
+    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>175</v>
       </c>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="18.75" customHeight="1">
+    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>176</v>
       </c>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="18.75" customHeight="1">
+    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>869</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="18.75" customHeight="1">
+    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>177</v>
       </c>
@@ -19440,7 +19440,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="18.75" customHeight="1">
+    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>246</v>
       </c>
@@ -19649,9 +19649,9 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="18.75" customHeight="1">
+    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C77" t="s">
         <v>265</v>
@@ -19660,7 +19660,7 @@
         <v>1047</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J77">
         <v>1200</v>
@@ -19699,7 +19699,7 @@
         <v>1300</v>
       </c>
       <c r="V77" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="158"/>
@@ -19786,7 +19786,7 @@
         <v>12pm-1pm</v>
       </c>
       <c r="AR77" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AV77" s="4" t="s">
         <v>28</v>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" ht="18.75" customHeight="1">
+    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>178</v>
       </c>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="18.75" customHeight="1">
+    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>887</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="18.75" customHeight="1">
+    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>836</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>1800</v>
       </c>
       <c r="V80" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W80" t="str">
         <f t="shared" si="158"/>
@@ -20437,7 +20437,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="18.75" customHeight="1">
+    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>77</v>
       </c>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="BL81" s="7"/>
     </row>
-    <row r="82" spans="2:64" ht="18.75" customHeight="1">
+    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>78</v>
       </c>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="18.75" customHeight="1">
+    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>240</v>
       </c>
@@ -20998,7 +20998,7 @@
       </c>
       <c r="BL83" s="7"/>
     </row>
-    <row r="84" spans="2:64" ht="18.75" customHeight="1">
+    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>179</v>
       </c>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="18.75" customHeight="1">
+    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>1084</v>
       </c>
@@ -21388,7 +21388,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="18.75" customHeight="1">
+    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -21552,7 +21552,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="18.75" customHeight="1">
+    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="18.75" customHeight="1">
+    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>181</v>
       </c>
@@ -21940,9 +21940,9 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="18.75" customHeight="1">
+    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C89" t="s">
         <v>811</v>
@@ -21951,7 +21951,7 @@
         <v>1047</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H89">
         <v>1500</v>
@@ -21990,7 +21990,7 @@
         <v>1800</v>
       </c>
       <c r="V89" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W89">
         <f t="shared" si="158"/>
@@ -22077,7 +22077,7 @@
         <v/>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AS89" t="s">
         <v>408</v>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="BL89" s="7"/>
     </row>
-    <row r="90" spans="2:64" ht="18.75" customHeight="1">
+    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>1097</v>
       </c>
@@ -22298,7 +22298,7 @@
         <v>[39.694056,-104.987055],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="18.75" customHeight="1">
+    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>182</v>
       </c>
@@ -22492,7 +22492,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="18.75" customHeight="1">
+    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>183</v>
       </c>
@@ -22686,7 +22686,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="18.75" customHeight="1">
+    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>248</v>
       </c>
@@ -22898,9 +22898,9 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="18.75" customHeight="1">
+    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C94" t="s">
         <v>810</v>
@@ -22909,7 +22909,7 @@
         <v>1047</v>
       </c>
       <c r="G94" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H94">
         <v>1700</v>
@@ -22954,7 +22954,7 @@
         <v>1830</v>
       </c>
       <c r="V94" s="8" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="W94">
         <f t="shared" si="158"/>
@@ -23041,7 +23041,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR94" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV94" s="4" t="s">
         <v>28</v>
@@ -23099,7 +23099,7 @@
         <v>[39.76211,-105.01623],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="18.75" customHeight="1">
+    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>79</v>
       </c>
@@ -23308,7 +23308,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" ht="18.75" customHeight="1">
+    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>184</v>
       </c>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="18.75" customHeight="1">
+    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>58</v>
       </c>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="18.75" customHeight="1">
+    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="BL98" s="7"/>
     </row>
-    <row r="99" spans="2:64" ht="18.75" customHeight="1">
+    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>81</v>
       </c>
@@ -24111,7 +24111,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="18.75" customHeight="1">
+    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>925</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="18.75" customHeight="1">
+    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>855</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="18.75" customHeight="1">
+    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>82</v>
       </c>
@@ -24715,7 +24715,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="18.75" customHeight="1">
+    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>264</v>
       </c>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="18.75" customHeight="1">
+    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>83</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>414</v>
       </c>
       <c r="V104" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="W104">
         <f t="shared" si="158"/>
@@ -25097,7 +25097,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" ht="18.75" customHeight="1">
+    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>254</v>
       </c>
@@ -25261,7 +25261,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="18.75" customHeight="1">
+    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>84</v>
       </c>
@@ -25470,7 +25470,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="18.75" customHeight="1">
+    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>885</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="18.75" customHeight="1">
+    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>846</v>
       </c>
@@ -25790,7 +25790,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="18.75" customHeight="1">
+    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>85</v>
       </c>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" ht="18.75" customHeight="1">
+    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>185</v>
       </c>
@@ -26190,7 +26190,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="18.75" customHeight="1">
+    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>86</v>
       </c>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="18.75" customHeight="1">
+    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>186</v>
       </c>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="BL112" s="7"/>
     </row>
-    <row r="113" spans="2:64" ht="18.75" customHeight="1">
+    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>87</v>
       </c>
@@ -26751,7 +26751,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="18.75" customHeight="1">
+    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>244</v>
       </c>
@@ -26960,7 +26960,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="18.75" customHeight="1">
+    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>88</v>
       </c>
@@ -27121,7 +27121,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="18.75" customHeight="1">
+    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>875</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="158"/>
@@ -27320,9 +27320,9 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="18.75" customHeight="1">
+    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C117" t="s">
         <v>266</v>
@@ -27484,7 +27484,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="18.75" customHeight="1">
+    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>89</v>
       </c>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="18.75" customHeight="1">
+    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>90</v>
       </c>
@@ -27893,7 +27893,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" ht="18.75" customHeight="1">
+    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>913</v>
       </c>
@@ -28098,7 +28098,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="18.75" customHeight="1">
+    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>187</v>
       </c>
@@ -28292,7 +28292,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" ht="18.75" customHeight="1">
+    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>232</v>
       </c>
@@ -28477,7 +28477,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="18.75" customHeight="1">
+    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>188</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>412</v>
       </c>
       <c r="V123" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" si="158"/>
@@ -28672,9 +28672,9 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="18.75" customHeight="1">
+    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C124" t="s">
         <v>308</v>
@@ -28683,7 +28683,7 @@
         <v>1047</v>
       </c>
       <c r="G124" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H124">
         <v>1530</v>
@@ -28728,7 +28728,7 @@
         <v>1700</v>
       </c>
       <c r="V124" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="W124">
         <f t="shared" ref="W124" si="192">IF(H124&gt;0,H124/100,"")</f>
@@ -28815,7 +28815,7 @@
         <v>3.3pm-5pm</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AU124" s="4"/>
       <c r="AV124" s="4" t="s">
@@ -28879,7 +28879,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="18.75" customHeight="1">
+    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>91</v>
       </c>
@@ -29073,9 +29073,9 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="18.75" customHeight="1">
+    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C126" t="s">
         <v>308</v>
@@ -29084,7 +29084,7 @@
         <v>1047</v>
       </c>
       <c r="G126" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H126">
         <v>1630</v>
@@ -29129,7 +29129,7 @@
         <v>1800</v>
       </c>
       <c r="V126" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W126">
         <f t="shared" ref="W126" si="223">IF(H126&gt;0,H126/100,"")</f>
@@ -29216,7 +29216,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AV126" s="4" t="s">
         <v>28</v>
@@ -29279,7 +29279,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" ht="18.75" customHeight="1">
+    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>92</v>
       </c>
@@ -29476,7 +29476,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="18.75" customHeight="1">
+    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>93</v>
       </c>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="18.75" customHeight="1">
+    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>239</v>
       </c>
@@ -29741,7 +29741,7 @@
         <v>1400</v>
       </c>
       <c r="V129" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W129">
         <f t="shared" si="158"/>
@@ -29894,7 +29894,7 @@
       </c>
       <c r="BL129" s="7"/>
     </row>
-    <row r="130" spans="2:64" ht="18.75" customHeight="1">
+    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>189</v>
       </c>
@@ -30094,7 +30094,7 @@
       </c>
       <c r="BL130" s="7"/>
     </row>
-    <row r="131" spans="2:64" ht="18.75" customHeight="1">
+    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>190</v>
       </c>
@@ -30288,7 +30288,7 @@
       </c>
       <c r="BL131" s="7"/>
     </row>
-    <row r="132" spans="2:64" ht="18.75" customHeight="1">
+    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>94</v>
       </c>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="18.75" customHeight="1">
+    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>889</v>
       </c>
@@ -30654,7 +30654,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="18.75" customHeight="1">
+    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>95</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>413</v>
       </c>
       <c r="V134" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="W134">
         <f t="shared" ref="W134:W199" si="254">IF(H134&gt;0,H134/100,"")</f>
@@ -30864,7 +30864,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="18.75" customHeight="1">
+    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>96</v>
       </c>
@@ -31058,7 +31058,7 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="18.75" customHeight="1">
+    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1123</v>
       </c>
@@ -31259,7 +31259,7 @@
         <v>[39.75576,-104.99021],</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="18.75" customHeight="1">
+    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>97</v>
       </c>
@@ -31468,7 +31468,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="18.75" customHeight="1">
+    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>844</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="18.75" customHeight="1">
+    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>98</v>
       </c>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="18.75" customHeight="1">
+    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>99</v>
       </c>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="18.75" customHeight="1">
+    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>100</v>
       </c>
@@ -32237,9 +32237,9 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="18.75" customHeight="1">
+    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C142" t="s">
         <v>266</v>
@@ -32248,7 +32248,7 @@
         <v>1047</v>
       </c>
       <c r="G142" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J142">
         <v>1500</v>
@@ -32275,7 +32275,7 @@
         <v>1800</v>
       </c>
       <c r="V142" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="W142" t="str">
         <f t="shared" si="254"/>
@@ -32362,7 +32362,7 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AS142" t="s">
         <v>408</v>
@@ -32427,7 +32427,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="18.75" customHeight="1">
+    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>233</v>
       </c>
@@ -32624,7 +32624,7 @@
       </c>
       <c r="BL143" s="7"/>
     </row>
-    <row r="144" spans="2:64" ht="18.75" customHeight="1">
+    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>101</v>
       </c>
@@ -32788,7 +32788,7 @@
       </c>
       <c r="BL144" s="7"/>
     </row>
-    <row r="145" spans="2:64" ht="18.75" customHeight="1">
+    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9" t="s">
         <v>102</v>
       </c>
@@ -32997,7 +32997,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="18.75" customHeight="1">
+    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>103</v>
       </c>
@@ -33203,7 +33203,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="18.75" customHeight="1">
+    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>104</v>
       </c>
@@ -33409,18 +33409,18 @@
       </c>
       <c r="BL147" s="7"/>
     </row>
-    <row r="148" spans="2:64" ht="18.75" customHeight="1">
+    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C148" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E148" t="s">
         <v>1047</v>
       </c>
       <c r="G148" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H148">
         <v>1500</v>
@@ -33465,7 +33465,7 @@
         <v>1800</v>
       </c>
       <c r="V148" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="W148">
         <f t="shared" si="254"/>
@@ -33552,7 +33552,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR148" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AV148" s="4" t="s">
         <v>28</v>
@@ -33610,9 +33610,9 @@
         <v>[39.75382,-104.99643],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="18.75" customHeight="1">
+    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C149" t="s">
         <v>611</v>
@@ -33621,7 +33621,7 @@
         <v>1047</v>
       </c>
       <c r="G149" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H149">
         <v>1400</v>
@@ -33750,7 +33750,7 @@
         <v>11.3am-5pm</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AV149" s="4" t="s">
         <v>28</v>
@@ -33812,7 +33812,7 @@
         <v>[39.6905241,-104.9806818],</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="18.75" customHeight="1">
+    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>105</v>
       </c>
@@ -34018,9 +34018,9 @@
       </c>
       <c r="BL150" s="7"/>
     </row>
-    <row r="151" spans="2:64" ht="18.75" customHeight="1">
+    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C151" t="s">
         <v>266</v>
@@ -34029,7 +34029,7 @@
         <v>1047</v>
       </c>
       <c r="G151" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H151">
         <v>1100</v>
@@ -34074,7 +34074,7 @@
         <v>1900</v>
       </c>
       <c r="V151" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="W151">
         <f t="shared" si="254"/>
@@ -34216,15 +34216,15 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="18.75" customHeight="1">
+    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C152" t="s">
         <v>1310</v>
       </c>
-      <c r="C152" t="s">
+      <c r="G152" t="s">
         <v>1311</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1312</v>
       </c>
       <c r="H152">
         <v>2200</v>
@@ -34269,7 +34269,7 @@
         <v>2400</v>
       </c>
       <c r="V152" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="W152">
         <f t="shared" ref="W152" si="314">IF(H152&gt;0,H152/100,"")</f>
@@ -34415,7 +34415,7 @@
         <v>[39.7158537,-104.987401],</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="18.75" customHeight="1">
+    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>191</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>1800</v>
       </c>
       <c r="V153" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W153" t="str">
         <f t="shared" si="254"/>
@@ -34609,7 +34609,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="18.75" customHeight="1">
+    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>106</v>
       </c>
@@ -34803,7 +34803,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="18.75" customHeight="1">
+    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>107</v>
       </c>
@@ -35009,7 +35009,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="18.75" customHeight="1">
+    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>899</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="18.75" customHeight="1">
+    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>820</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="18.75" customHeight="1">
+    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>840</v>
       </c>
@@ -35612,18 +35612,18 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="18.75" customHeight="1">
+    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C159" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E159" t="s">
         <v>1047</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J159">
         <v>1400</v>
@@ -35662,7 +35662,7 @@
         <v>1800</v>
       </c>
       <c r="V159" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="W159" t="str">
         <f t="shared" si="254"/>
@@ -35749,7 +35749,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR159" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AV159" s="4" t="s">
         <v>28</v>
@@ -35807,7 +35807,7 @@
         <v>[39.7505999,-104.9994734],</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="18.75" customHeight="1">
+    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>108</v>
       </c>
@@ -36013,7 +36013,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="18.75" customHeight="1">
+    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>192</v>
       </c>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="18.75" customHeight="1">
+    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>193</v>
       </c>
@@ -36401,7 +36401,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="18.75" customHeight="1">
+    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>109</v>
       </c>
@@ -36601,7 +36601,7 @@
       </c>
       <c r="BL163" s="7"/>
     </row>
-    <row r="164" spans="2:64" ht="18.75" customHeight="1">
+    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>194</v>
       </c>
@@ -36798,7 +36798,7 @@
       </c>
       <c r="BL164" s="7"/>
     </row>
-    <row r="165" spans="2:64" ht="18.75" customHeight="1">
+    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>110</v>
       </c>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="18.75" customHeight="1">
+    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>111</v>
       </c>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="18.75" customHeight="1">
+    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>112</v>
       </c>
@@ -37383,7 +37383,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="18.75" customHeight="1">
+    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>113</v>
       </c>
@@ -37583,7 +37583,7 @@
       </c>
       <c r="BL168" s="7"/>
     </row>
-    <row r="169" spans="2:64" ht="18.75" customHeight="1">
+    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>195</v>
       </c>
@@ -37780,7 +37780,7 @@
       </c>
       <c r="BL169" s="7"/>
     </row>
-    <row r="170" spans="2:64" ht="18.75" customHeight="1">
+    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>196</v>
       </c>
@@ -37974,7 +37974,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="18.75" customHeight="1">
+    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>963</v>
       </c>
@@ -38167,7 +38167,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="18.75" customHeight="1">
+    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>114</v>
       </c>
@@ -38373,7 +38373,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="18.75" customHeight="1">
+    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>197</v>
       </c>
@@ -38567,7 +38567,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="18.75" customHeight="1">
+    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>198</v>
       </c>
@@ -38761,7 +38761,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="18.75" customHeight="1">
+    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>115</v>
       </c>
@@ -38967,7 +38967,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="18.75" customHeight="1">
+    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>116</v>
       </c>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="18.75" customHeight="1">
+    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>117</v>
       </c>
@@ -39379,7 +39379,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="18.75" customHeight="1">
+    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>118</v>
       </c>
@@ -39585,7 +39585,7 @@
       </c>
       <c r="BL178" s="7"/>
     </row>
-    <row r="179" spans="2:64" ht="18.75" customHeight="1">
+    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>119</v>
       </c>
@@ -39791,7 +39791,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="18.75" customHeight="1">
+    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>120</v>
       </c>
@@ -39985,7 +39985,7 @@
       </c>
       <c r="BL180" s="7"/>
     </row>
-    <row r="181" spans="2:64" ht="18.75" customHeight="1">
+    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>199</v>
       </c>
@@ -40179,7 +40179,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="18.75" customHeight="1">
+    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>257</v>
       </c>
@@ -40388,7 +40388,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="18.75" customHeight="1">
+    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>121</v>
       </c>
@@ -40594,7 +40594,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="18.75" customHeight="1">
+    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>200</v>
       </c>
@@ -40788,7 +40788,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="18.75" customHeight="1">
+    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>122</v>
       </c>
@@ -40994,7 +40994,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="18.75" customHeight="1">
+    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>201</v>
       </c>
@@ -41188,7 +41188,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="18.75" customHeight="1">
+    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>123</v>
       </c>
@@ -41394,7 +41394,7 @@
       </c>
       <c r="BL187" s="7"/>
     </row>
-    <row r="188" spans="2:64" ht="18.75" customHeight="1">
+    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>258</v>
       </c>
@@ -41591,7 +41591,7 @@
       </c>
       <c r="BL188" s="7"/>
     </row>
-    <row r="189" spans="2:64" ht="18.75" customHeight="1">
+    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>853</v>
       </c>
@@ -41778,7 +41778,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="18.75" customHeight="1">
+    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>861</v>
       </c>
@@ -41983,7 +41983,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="18.75" customHeight="1">
+    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>124</v>
       </c>
@@ -42189,7 +42189,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="18.75" customHeight="1">
+    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>234</v>
       </c>
@@ -42383,7 +42383,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="18.75" customHeight="1">
+    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>263</v>
       </c>
@@ -42568,7 +42568,7 @@
       </c>
       <c r="BL193" s="7"/>
     </row>
-    <row r="194" spans="2:64" ht="18.75" customHeight="1">
+    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>931</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:64" ht="18.75" customHeight="1">
+    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>867</v>
       </c>
@@ -42930,7 +42930,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:64" ht="18.75" customHeight="1">
+    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>202</v>
       </c>
@@ -43130,7 +43130,7 @@
       </c>
       <c r="BL196" s="7"/>
     </row>
-    <row r="197" spans="2:64" ht="18.75" customHeight="1">
+    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>1098</v>
       </c>
@@ -43286,7 +43286,7 @@
         <v>[39.677478,-104.914182],</v>
       </c>
     </row>
-    <row r="198" spans="2:64" ht="18.75" customHeight="1">
+    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>848</v>
       </c>
@@ -43491,7 +43491,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:64" ht="18.75" customHeight="1">
+    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>203</v>
       </c>
@@ -43685,7 +43685,7 @@
       </c>
       <c r="BL199" s="7"/>
     </row>
-    <row r="200" spans="2:64" ht="18.75" customHeight="1">
+    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
         <v>204</v>
       </c>
@@ -43883,7 +43883,7 @@
       </c>
       <c r="BL200" s="7"/>
     </row>
-    <row r="201" spans="2:64" ht="18.75" customHeight="1">
+    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>205</v>
       </c>
@@ -44077,7 +44077,7 @@
       </c>
       <c r="BL201" s="7"/>
     </row>
-    <row r="202" spans="2:64" ht="18.75" customHeight="1">
+    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>206</v>
       </c>
@@ -44271,9 +44271,9 @@
       </c>
       <c r="BL202" s="7"/>
     </row>
-    <row r="203" spans="2:64" ht="18.75" customHeight="1">
+    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C203" t="s">
         <v>810</v>
@@ -44282,7 +44282,7 @@
         <v>1047</v>
       </c>
       <c r="G203" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H203">
         <v>1600</v>
@@ -44309,7 +44309,7 @@
         <v>1800</v>
       </c>
       <c r="V203" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="W203">
         <f t="shared" si="347"/>
@@ -44396,7 +44396,7 @@
         <v/>
       </c>
       <c r="AR203" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AV203" s="4" t="s">
         <v>28</v>
@@ -44454,9 +44454,9 @@
         <v>[39.76354,-105.01106],</v>
       </c>
     </row>
-    <row r="204" spans="2:64" ht="18.75" customHeight="1">
+    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C204" t="s">
         <v>610</v>
@@ -44465,7 +44465,7 @@
         <v>1047</v>
       </c>
       <c r="G204" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H204">
         <v>1500</v>
@@ -44510,7 +44510,7 @@
         <v>1800</v>
       </c>
       <c r="V204" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="W204">
         <f t="shared" si="347"/>
@@ -44597,7 +44597,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AV204" s="4" t="s">
         <v>28</v>
@@ -44655,7 +44655,7 @@
         <v>[39.71761,-104.94761],</v>
       </c>
     </row>
-    <row r="205" spans="2:64" ht="18.75" customHeight="1">
+    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>207</v>
       </c>
@@ -44849,18 +44849,18 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="18.75" customHeight="1">
+    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C206" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E206" t="s">
         <v>1047</v>
       </c>
       <c r="G206" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J206">
         <v>1500</v>
@@ -44893,7 +44893,7 @@
         <v>1800</v>
       </c>
       <c r="V206" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="W206" t="str">
         <f t="shared" si="347"/>
@@ -44980,7 +44980,7 @@
         <v/>
       </c>
       <c r="AR206" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV206" s="4" t="s">
         <v>28</v>
@@ -45038,7 +45038,7 @@
         <v>[39.74819,-104.99897],</v>
       </c>
     </row>
-    <row r="207" spans="2:64" ht="18.75" customHeight="1">
+    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>125</v>
       </c>
@@ -45232,7 +45232,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="18.75" customHeight="1">
+    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>891</v>
       </c>
@@ -45276,7 +45276,7 @@
         <v>1800</v>
       </c>
       <c r="V208" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="W208" t="str">
         <f t="shared" si="347"/>
@@ -45425,9 +45425,9 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:64" ht="18.75" customHeight="1">
+    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C209" t="s">
         <v>266</v>
@@ -45436,7 +45436,7 @@
         <v>1047</v>
       </c>
       <c r="G209" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J209">
         <v>1500</v>
@@ -45469,7 +45469,7 @@
         <v>1800</v>
       </c>
       <c r="V209" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W209" t="str">
         <f t="shared" si="347"/>
@@ -45556,7 +45556,7 @@
         <v/>
       </c>
       <c r="AR209" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AV209" s="4" t="s">
         <v>28</v>
@@ -45614,7 +45614,7 @@
         <v>[39.75959,-104.98604],</v>
       </c>
     </row>
-    <row r="210" spans="2:64" ht="18.75" customHeight="1">
+    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>126</v>
       </c>
@@ -45814,7 +45814,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="18.75" customHeight="1">
+    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>818</v>
       </c>
@@ -46004,7 +46004,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:64" ht="18.75" customHeight="1">
+    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>127</v>
       </c>
@@ -46204,7 +46204,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="18.75" customHeight="1">
+    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>128</v>
       </c>
@@ -46410,7 +46410,7 @@
       </c>
       <c r="BL213" s="7"/>
     </row>
-    <row r="214" spans="2:64" ht="18.75" customHeight="1">
+    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>1120</v>
       </c>
@@ -46454,7 +46454,7 @@
         <v>1800</v>
       </c>
       <c r="V214" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="W214" t="str">
         <f t="shared" si="347"/>
@@ -46600,7 +46600,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="18.75" customHeight="1">
+    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>129</v>
       </c>
@@ -46656,7 +46656,7 @@
         <v>1700</v>
       </c>
       <c r="V215" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="W215">
         <f t="shared" si="347"/>
@@ -46809,7 +46809,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="18.75" customHeight="1">
+    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>130</v>
       </c>
@@ -47003,7 +47003,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="18.75" customHeight="1">
+    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>208</v>
       </c>
@@ -47197,7 +47197,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="18.75" customHeight="1">
+    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>260</v>
       </c>
@@ -47361,7 +47361,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="18.75" customHeight="1">
+    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>131</v>
       </c>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="18.75" customHeight="1">
+    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>132</v>
       </c>
@@ -47761,7 +47761,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="18.75" customHeight="1">
+    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>863</v>
       </c>
@@ -47805,7 +47805,7 @@
         <v>1800</v>
       </c>
       <c r="V221" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="W221" t="str">
         <f t="shared" si="347"/>
@@ -47954,7 +47954,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:64" ht="18.75" customHeight="1">
+    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>133</v>
       </c>
@@ -47998,7 +47998,7 @@
         <v>1900</v>
       </c>
       <c r="V222" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="W222" t="str">
         <f t="shared" si="347"/>
@@ -48148,7 +48148,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="18.75" customHeight="1">
+    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>250</v>
       </c>
@@ -48348,7 +48348,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="18.75" customHeight="1">
+    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>927</v>
       </c>
@@ -48508,7 +48508,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:64" ht="18.75" customHeight="1">
+    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>259</v>
       </c>
@@ -48672,7 +48672,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="18.75" customHeight="1">
+    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>241</v>
       </c>
@@ -48870,7 +48870,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="18.75" customHeight="1">
+    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>134</v>
       </c>
@@ -49070,7 +49070,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="18.75" customHeight="1">
+    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>135</v>
       </c>
@@ -49276,7 +49276,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="18.75" customHeight="1">
+    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>209</v>
       </c>
@@ -49470,7 +49470,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="18.75" customHeight="1">
+    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>136</v>
       </c>
@@ -49676,7 +49676,7 @@
       </c>
       <c r="BL230" s="7"/>
     </row>
-    <row r="231" spans="2:64" ht="18.75" customHeight="1">
+    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>895</v>
       </c>
@@ -49836,7 +49836,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:64" ht="18.75" customHeight="1">
+    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>137</v>
       </c>
@@ -49880,7 +49880,7 @@
         <v>1800</v>
       </c>
       <c r="V232" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="W232" t="str">
         <f t="shared" si="347"/>
@@ -50030,7 +50030,7 @@
       </c>
       <c r="BL232" s="7"/>
     </row>
-    <row r="233" spans="2:64" ht="18.75" customHeight="1">
+    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>138</v>
       </c>
@@ -50236,7 +50236,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="18.75" customHeight="1">
+    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>139</v>
       </c>
@@ -50442,7 +50442,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="18.75" customHeight="1">
+    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>261</v>
       </c>
@@ -50606,9 +50606,9 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="18.75" customHeight="1">
+    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C236" t="s">
         <v>266</v>
@@ -50617,7 +50617,7 @@
         <v>1047</v>
       </c>
       <c r="G236" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J236">
         <v>1600</v>
@@ -50650,7 +50650,7 @@
         <v>1900</v>
       </c>
       <c r="V236" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="W236" t="str">
         <f t="shared" si="347"/>
@@ -50793,7 +50793,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="18.75" customHeight="1">
+    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>140</v>
       </c>
@@ -50990,7 +50990,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="18.75" customHeight="1">
+    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>832</v>
       </c>
@@ -51195,7 +51195,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:64" ht="18.75" customHeight="1">
+    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>210</v>
       </c>
@@ -51389,7 +51389,7 @@
       </c>
       <c r="BL239" s="7"/>
     </row>
-    <row r="240" spans="2:64" ht="18.75" customHeight="1">
+    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>907</v>
       </c>
@@ -51549,7 +51549,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:64" ht="18.75" customHeight="1">
+    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>1099</v>
       </c>
@@ -51605,7 +51605,7 @@
         <v>2000</v>
       </c>
       <c r="V241" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W241">
         <f t="shared" si="347"/>
@@ -51750,7 +51750,7 @@
         <v>[39.753306,-104.996116],</v>
       </c>
     </row>
-    <row r="242" spans="2:64" ht="18.75" customHeight="1">
+    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>211</v>
       </c>
@@ -51947,7 +51947,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="18.75" customHeight="1">
+    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>141</v>
       </c>
@@ -52147,7 +52147,7 @@
       </c>
       <c r="BL243" s="7"/>
     </row>
-    <row r="244" spans="2:64" ht="18.75" customHeight="1">
+    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>1088</v>
       </c>
@@ -52304,7 +52304,7 @@
       </c>
       <c r="BL244" s="7"/>
     </row>
-    <row r="245" spans="2:64" ht="18.75" customHeight="1">
+    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>882</v>
       </c>
@@ -52509,7 +52509,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:64" ht="18.75" customHeight="1">
+    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>142</v>
       </c>
@@ -52715,7 +52715,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="18.75" customHeight="1">
+    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>897</v>
       </c>
@@ -52872,7 +52872,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:64" ht="18.75" customHeight="1">
+    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>870</v>
       </c>
@@ -53078,7 +53078,7 @@
       </c>
       <c r="BL248" s="7"/>
     </row>
-    <row r="249" spans="2:64" ht="18.75" customHeight="1">
+    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>212</v>
       </c>
@@ -53272,7 +53272,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="18.75" customHeight="1">
+    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>213</v>
       </c>
@@ -53466,7 +53466,7 @@
       </c>
       <c r="BL250" s="7"/>
     </row>
-    <row r="251" spans="2:64" ht="18.75" customHeight="1">
+    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>214</v>
       </c>
@@ -53660,9 +53660,9 @@
       </c>
       <c r="BL251" s="7"/>
     </row>
-    <row r="252" spans="2:64" ht="18.75" customHeight="1">
+    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C252" t="s">
         <v>610</v>
@@ -53671,7 +53671,7 @@
         <v>1047</v>
       </c>
       <c r="G252" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J252">
         <v>1500</v>
@@ -53704,7 +53704,7 @@
         <v>1800</v>
       </c>
       <c r="V252" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W252" t="str">
         <f t="shared" si="347"/>
@@ -53791,7 +53791,7 @@
         <v/>
       </c>
       <c r="AR252" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AV252" s="4" t="s">
         <v>28</v>
@@ -53850,7 +53850,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="18.75" customHeight="1">
+    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>215</v>
       </c>
@@ -54044,7 +54044,7 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="18.75" customHeight="1">
+    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>143</v>
       </c>
@@ -54250,7 +54250,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="18.75" customHeight="1">
+    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>255</v>
       </c>
@@ -54414,7 +54414,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="18.75" customHeight="1">
+    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>242</v>
       </c>
@@ -54578,7 +54578,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="18.75" customHeight="1">
+    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>144</v>
       </c>
@@ -54784,7 +54784,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="18.75" customHeight="1">
+    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>216</v>
       </c>
@@ -54978,7 +54978,7 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="18.75" customHeight="1">
+    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>1127</v>
       </c>
@@ -55173,7 +55173,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="260" spans="2:64" ht="18.75" customHeight="1">
+    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>217</v>
       </c>
@@ -55367,7 +55367,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="18.75" customHeight="1">
+    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>218</v>
       </c>
@@ -55561,9 +55561,9 @@
       </c>
       <c r="BL261" s="7"/>
     </row>
-    <row r="262" spans="2:64" ht="18.75" customHeight="1">
+    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C262" t="s">
         <v>810</v>
@@ -55572,7 +55572,7 @@
         <v>1047</v>
       </c>
       <c r="G262" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H262">
         <v>1500</v>
@@ -55617,7 +55617,7 @@
         <v>1800</v>
       </c>
       <c r="V262" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W262">
         <f t="shared" si="347"/>
@@ -55704,7 +55704,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR262" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AV262" t="s">
         <v>28</v>
@@ -55763,9 +55763,9 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="18.75" customHeight="1">
+    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C263" t="s">
         <v>266</v>
@@ -55774,7 +55774,7 @@
         <v>1047</v>
       </c>
       <c r="G263" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J263">
         <v>1500</v>
@@ -55807,7 +55807,7 @@
         <v>1800</v>
       </c>
       <c r="V263" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="W263" t="str">
         <f t="shared" ref="W263:W322" si="381">IF(H263&gt;0,H263/100,"")</f>
@@ -55894,7 +55894,7 @@
         <v/>
       </c>
       <c r="AR263" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AV263" t="s">
         <v>28</v>
@@ -55957,7 +55957,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="18.75" customHeight="1">
+    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>145</v>
       </c>
@@ -56163,7 +56163,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="18.75" customHeight="1">
+    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>146</v>
       </c>
@@ -56369,7 +56369,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="18.75" customHeight="1">
+    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>219</v>
       </c>
@@ -56563,7 +56563,7 @@
       </c>
       <c r="BL266" s="7"/>
     </row>
-    <row r="267" spans="2:64" ht="18.75" customHeight="1">
+    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>147</v>
       </c>
@@ -56772,7 +56772,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="18.75" customHeight="1">
+    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>873</v>
       </c>
@@ -56932,7 +56932,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:64" ht="18.75" customHeight="1">
+    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>148</v>
       </c>
@@ -56988,7 +56988,7 @@
         <v>1900</v>
       </c>
       <c r="V269" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W269">
         <f t="shared" si="381"/>
@@ -57138,7 +57138,7 @@
       </c>
       <c r="BL269" s="7"/>
     </row>
-    <row r="270" spans="2:64" ht="18.75" customHeight="1">
+    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>149</v>
       </c>
@@ -57182,7 +57182,7 @@
         <v>414</v>
       </c>
       <c r="V270" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W270" t="str">
         <f t="shared" si="381"/>
@@ -57335,7 +57335,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="18.75" customHeight="1">
+    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>150</v>
       </c>
@@ -57529,7 +57529,7 @@
       </c>
       <c r="BL271" s="7"/>
     </row>
-    <row r="272" spans="2:64" ht="18.75" customHeight="1">
+    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>1100</v>
       </c>
@@ -57685,7 +57685,7 @@
         <v>[39.77126,-105.044258],</v>
       </c>
     </row>
-    <row r="273" spans="2:64" ht="18.75" customHeight="1">
+    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>220</v>
       </c>
@@ -57879,7 +57879,7 @@
       </c>
       <c r="BL273" s="7"/>
     </row>
-    <row r="274" spans="2:64" ht="18.75" customHeight="1">
+    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>221</v>
       </c>
@@ -58073,7 +58073,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="18.75" customHeight="1">
+    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>151</v>
       </c>
@@ -58267,7 +58267,7 @@
       </c>
       <c r="BL275" s="7"/>
     </row>
-    <row r="276" spans="2:64" ht="18.75" customHeight="1">
+    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>222</v>
       </c>
@@ -58461,7 +58461,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="18.75" customHeight="1">
+    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>152</v>
       </c>
@@ -58667,7 +58667,7 @@
       </c>
       <c r="BL277" s="7"/>
     </row>
-    <row r="278" spans="2:64" ht="18.75" customHeight="1">
+    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>223</v>
       </c>
@@ -58831,7 +58831,7 @@
       </c>
       <c r="BL278" s="7"/>
     </row>
-    <row r="279" spans="2:64" ht="18.75" customHeight="1">
+    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>828</v>
       </c>
@@ -59036,7 +59036,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:64" ht="18.75" customHeight="1">
+    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>933</v>
       </c>
@@ -59241,9 +59241,9 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:64" ht="18.75" customHeight="1">
+    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C281" t="s">
         <v>297</v>
@@ -59297,7 +59297,7 @@
         <v>1830</v>
       </c>
       <c r="V281" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="W281">
         <f t="shared" si="381"/>
@@ -59439,7 +59439,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="282" spans="2:64" ht="18.75" customHeight="1">
+    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>235</v>
       </c>
@@ -59627,7 +59627,7 @@
       </c>
       <c r="BL282" s="7"/>
     </row>
-    <row r="283" spans="2:64" ht="18.75" customHeight="1">
+    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>893</v>
       </c>
@@ -59826,7 +59826,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:64" ht="18.75" customHeight="1">
+    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>901</v>
       </c>
@@ -60016,7 +60016,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:64" ht="18.75" customHeight="1">
+    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>822</v>
       </c>
@@ -60221,7 +60221,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:64" ht="18.75" customHeight="1">
+    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>243</v>
       </c>
@@ -60418,7 +60418,7 @@
       </c>
       <c r="BL286" s="7"/>
     </row>
-    <row r="287" spans="2:64" ht="18.75" customHeight="1">
+    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>857</v>
       </c>
@@ -60623,7 +60623,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:64" ht="18.75" customHeight="1">
+    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>909</v>
       </c>
@@ -60828,7 +60828,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:64" ht="18.75" customHeight="1">
+    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>153</v>
       </c>
@@ -61031,7 +61031,7 @@
       </c>
       <c r="BL289" s="7"/>
     </row>
-    <row r="290" spans="2:64" ht="18.75" customHeight="1">
+    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>935</v>
       </c>
@@ -61236,7 +61236,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:64" ht="18.75" customHeight="1">
+    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>871</v>
       </c>
@@ -61435,7 +61435,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:64" ht="18.75" customHeight="1">
+    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>154</v>
       </c>
@@ -61641,7 +61641,7 @@
       </c>
       <c r="BL292" s="7"/>
     </row>
-    <row r="293" spans="2:64" ht="18.75" customHeight="1">
+    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>237</v>
       </c>
@@ -61850,7 +61850,7 @@
       </c>
       <c r="BL293" s="7"/>
     </row>
-    <row r="294" spans="2:64" ht="18.75" customHeight="1">
+    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>155</v>
       </c>
@@ -62056,7 +62056,7 @@
       </c>
       <c r="BL294" s="7"/>
     </row>
-    <row r="295" spans="2:64" ht="18.75" customHeight="1">
+    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>156</v>
       </c>
@@ -62250,7 +62250,7 @@
       </c>
       <c r="BL295" s="7"/>
     </row>
-    <row r="296" spans="2:64" ht="18.75" customHeight="1">
+    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>224</v>
       </c>
@@ -62411,7 +62411,7 @@
       </c>
       <c r="BL296" s="7"/>
     </row>
-    <row r="297" spans="2:64" ht="18.75" customHeight="1">
+    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>225</v>
       </c>
@@ -62602,7 +62602,7 @@
       </c>
       <c r="BL297" s="7"/>
     </row>
-    <row r="298" spans="2:64" ht="18.75" customHeight="1">
+    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>919</v>
       </c>
@@ -62753,7 +62753,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:64" ht="18.75" customHeight="1">
+    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>157</v>
       </c>
@@ -62953,7 +62953,7 @@
       </c>
       <c r="BL299" s="7"/>
     </row>
-    <row r="300" spans="2:64" ht="18.75" customHeight="1">
+    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>915</v>
       </c>
@@ -63113,7 +63113,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:64" ht="18.75" customHeight="1">
+    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>226</v>
       </c>
@@ -63307,9 +63307,9 @@
       </c>
       <c r="BL301" s="7"/>
     </row>
-    <row r="302" spans="2:64" ht="18.75" customHeight="1">
+    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C302" t="s">
         <v>1030</v>
@@ -63318,7 +63318,7 @@
         <v>1047</v>
       </c>
       <c r="G302" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H302">
         <v>1600</v>
@@ -63363,7 +63363,7 @@
         <v>2400</v>
       </c>
       <c r="V302" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="W302">
         <f t="shared" si="381"/>
@@ -63450,7 +63450,7 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR302" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AV302" s="4" t="s">
         <v>28</v>
@@ -63508,7 +63508,7 @@
         <v>[39.72741,-104.98388],</v>
       </c>
     </row>
-    <row r="303" spans="2:64" ht="18.75" customHeight="1">
+    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>158</v>
       </c>
@@ -63702,7 +63702,7 @@
       </c>
       <c r="BL303" s="7"/>
     </row>
-    <row r="304" spans="2:64" ht="18.75" customHeight="1">
+    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>227</v>
       </c>
@@ -63899,7 +63899,7 @@
       </c>
       <c r="BL304" s="7"/>
     </row>
-    <row r="305" spans="2:64" ht="18.75" customHeight="1">
+    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>228</v>
       </c>
@@ -64093,9 +64093,9 @@
       </c>
       <c r="BL305" s="7"/>
     </row>
-    <row r="306" spans="2:64" ht="18.75" customHeight="1">
+    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C306" t="s">
         <v>810</v>
@@ -64104,7 +64104,7 @@
         <v>1047</v>
       </c>
       <c r="G306" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H306">
         <v>1500</v>
@@ -64143,7 +64143,7 @@
         <v>1800</v>
       </c>
       <c r="V306" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W306">
         <f t="shared" si="381"/>
@@ -64285,7 +64285,7 @@
         <v>[39.77142,-105.04415],</v>
       </c>
     </row>
-    <row r="307" spans="2:64" ht="18.75" customHeight="1">
+    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>229</v>
       </c>
@@ -64479,7 +64479,7 @@
       </c>
       <c r="BL307" s="7"/>
     </row>
-    <row r="308" spans="2:64" ht="18.75" customHeight="1">
+    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>159</v>
       </c>
@@ -64676,7 +64676,7 @@
       </c>
       <c r="BL308" s="7"/>
     </row>
-    <row r="309" spans="2:64" ht="18.75" customHeight="1">
+    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>160</v>
       </c>
@@ -64882,7 +64882,7 @@
       </c>
       <c r="BL309" s="7"/>
     </row>
-    <row r="310" spans="2:64" ht="18.75" customHeight="1">
+    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>877</v>
       </c>
@@ -65087,7 +65087,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:64" ht="18.75" customHeight="1">
+    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>253</v>
       </c>
@@ -65251,7 +65251,7 @@
       </c>
       <c r="BL311" s="7"/>
     </row>
-    <row r="312" spans="2:64" ht="18.75" customHeight="1">
+    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>923</v>
       </c>
@@ -65453,7 +65453,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:64" ht="18.75" customHeight="1">
+    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>161</v>
       </c>
@@ -65617,9 +65617,9 @@
       </c>
       <c r="BL313" s="7"/>
     </row>
-    <row r="314" spans="2:64" ht="18.75" customHeight="1">
+    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C314" t="s">
         <v>1030</v>
@@ -65628,7 +65628,7 @@
         <v>1047</v>
       </c>
       <c r="G314" s="24" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="L314">
         <v>1700</v>
@@ -65655,7 +65655,7 @@
         <v>1800</v>
       </c>
       <c r="V314" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W314" t="str">
         <f t="shared" si="381"/>
@@ -65797,7 +65797,7 @@
         <v>[39.74352,-104.96954],</v>
       </c>
     </row>
-    <row r="315" spans="2:64" ht="18.75" customHeight="1">
+    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>939</v>
       </c>
@@ -65996,7 +65996,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:64" ht="18.75" customHeight="1">
+    <row r="316" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>230</v>
       </c>
@@ -66190,7 +66190,7 @@
       </c>
       <c r="BL316" s="7"/>
     </row>
-    <row r="317" spans="2:64" ht="18.75" customHeight="1">
+    <row r="317" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>879</v>
       </c>
@@ -66395,7 +66395,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:64" ht="18.75" customHeight="1">
+    <row r="318" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>162</v>
       </c>
@@ -66589,7 +66589,7 @@
       </c>
       <c r="BL318" s="7"/>
     </row>
-    <row r="319" spans="2:64" ht="18.75" customHeight="1">
+    <row r="319" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>163</v>
       </c>
@@ -66795,7 +66795,7 @@
       </c>
       <c r="BL319" s="7"/>
     </row>
-    <row r="320" spans="2:64" ht="18.75" customHeight="1">
+    <row r="320" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>911</v>
       </c>
@@ -67000,7 +67000,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="2:64" ht="18.75" customHeight="1">
+    <row r="321" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>256</v>
       </c>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="BL321" s="7"/>
     </row>
-    <row r="322" spans="2:64" ht="18.75" customHeight="1">
+    <row r="322" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>164</v>
       </c>
@@ -67400,32 +67400,32 @@
       <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1" t="s">
         <v>1178</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1179</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1180</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1181</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1182</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1183</v>
       </c>
-      <c r="G1" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39.755760000000002</v>
       </c>
@@ -67439,34 +67439,34 @@
         <v>1128</v>
       </c>
       <c r="F2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G2" t="s">
         <v>1185</v>
       </c>
-      <c r="G2" t="s">
-        <v>1186</v>
-      </c>
       <c r="J2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K2" t="s">
         <v>1178</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1179</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1180</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1181</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>1182</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1183</v>
       </c>
-      <c r="P2" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39.732250000000001</v>
       </c>
@@ -67480,10 +67480,10 @@
         <v>1132</v>
       </c>
       <c r="F3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G3" t="s">
         <v>1185</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1186</v>
       </c>
       <c r="J3">
         <v>39.771419999999999</v>
@@ -67492,19 +67492,19 @@
         <v>-105.04415</v>
       </c>
       <c r="L3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P3" t="s">
         <v>1185</v>
       </c>
-      <c r="P3" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39.754260000000002</v>
       </c>
@@ -67515,13 +67515,13 @@
         <v>1135</v>
       </c>
       <c r="D4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G4" t="s">
         <v>1185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1186</v>
       </c>
       <c r="J4">
         <v>39.769440000000003</v>
@@ -67530,19 +67530,19 @@
         <v>-104.97676</v>
       </c>
       <c r="L4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="M4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P4" t="s">
         <v>1185</v>
       </c>
-      <c r="P4" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39.725490000000001</v>
       </c>
@@ -67550,16 +67550,16 @@
         <v>-104.97929000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G5" t="s">
         <v>1185</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1186</v>
       </c>
       <c r="J5">
         <v>39.761319999999998</v>
@@ -67568,19 +67568,19 @@
         <v>-104.98376</v>
       </c>
       <c r="L5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P5" t="s">
         <v>1185</v>
       </c>
-      <c r="P5" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39.753819999999997</v>
       </c>
@@ -67588,16 +67588,16 @@
         <v>-104.99643</v>
       </c>
       <c r="C6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G6" t="s">
         <v>1185</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1186</v>
       </c>
       <c r="J6">
         <v>39.743519999999997</v>
@@ -67606,19 +67606,19 @@
         <v>-104.96953999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P6" t="s">
         <v>1185</v>
       </c>
-      <c r="P6" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39.709600000000002</v>
       </c>
@@ -67626,16 +67626,16 @@
         <v>-104.98058</v>
       </c>
       <c r="C7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G7" t="s">
         <v>1185</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1186</v>
       </c>
       <c r="J7">
         <v>39.753050000000002</v>
@@ -67650,13 +67650,13 @@
         <v>1128</v>
       </c>
       <c r="O7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P7" t="s">
         <v>1185</v>
       </c>
-      <c r="P7" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39.76211</v>
       </c>
@@ -67664,16 +67664,16 @@
         <v>-105.01622999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G8" t="s">
         <v>1185</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1186</v>
       </c>
       <c r="J8">
         <v>39.769440000000003</v>
@@ -67682,19 +67682,19 @@
         <v>-104.97676</v>
       </c>
       <c r="L8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="M8" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P8" t="s">
         <v>1185</v>
       </c>
-      <c r="P8" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>39.748190000000001</v>
       </c>
@@ -67702,19 +67702,19 @@
         <v>-104.99897</v>
       </c>
       <c r="C9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D9" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G9" t="s">
         <v>1185</v>
       </c>
-      <c r="G9" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>39.759590000000003</v>
       </c>
@@ -67722,19 +67722,19 @@
         <v>-104.98604</v>
       </c>
       <c r="C10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G10" t="s">
         <v>1185</v>
       </c>
-      <c r="G10" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39.727409999999999</v>
       </c>
@@ -67742,19 +67742,19 @@
         <v>-104.98388</v>
       </c>
       <c r="C11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G11" t="s">
         <v>1185</v>
       </c>
-      <c r="G11" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>39.763539999999999</v>
       </c>
@@ -67762,19 +67762,19 @@
         <v>-105.01106</v>
       </c>
       <c r="C12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G12" t="s">
         <v>1185</v>
       </c>
-      <c r="G12" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>39.768740000000001</v>
       </c>
@@ -67782,19 +67782,19 @@
         <v>-104.9798</v>
       </c>
       <c r="C13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G13" t="s">
         <v>1185</v>
       </c>
-      <c r="G13" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>39.751339999999999</v>
       </c>
@@ -67802,19 +67802,19 @@
         <v>-105.00048</v>
       </c>
       <c r="C14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G14" t="s">
         <v>1185</v>
       </c>
-      <c r="G14" t="s">
-        <v>1186</v>
-      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>39.717610000000001</v>
       </c>
@@ -67822,16 +67822,16 @@
         <v>-104.94761</v>
       </c>
       <c r="C15" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D15" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G15" t="s">
         <v>1185</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1186</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\cld\orange house\happy hour\denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067CC6F3-0BCD-4A4E-BB97-3004DE69DD28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$296</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$282</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3213,9 +3212,6 @@
     <t xml:space="preserve">$4 select draft beers, $5 house wines and select cocktails, $6 select whiskey cocktails, and $8 beer and a shot, and $12 Tappy Meals choosing one beer, one whiskey and one small sandwich; $3-9 food menu </t>
   </si>
   <si>
-    <t xml:space="preserve">$4 drafts, wells, &amp; house wines; $2-6 food menu </t>
-  </si>
-  <si>
     <t xml:space="preserve">$1 off all drafts, wells and feature cocktails, $2 cans, $4 house wines and $9 Cooler of Cold Ones (five cans, bartender choice); $1-5 cheap eats </t>
   </si>
   <si>
@@ -3982,12 +3978,15 @@
   </si>
   <si>
     <t>$4 Select Drafts&lt;br&gt;$6 House Wines&lt;br&gt;$6 Margs&lt;br&gt;$6 BYO Mules&lt;br&gt;$5 Skyy Vodka&lt;br&gt;$5 White Claw&lt;br&gt;$10 Beer and a Shot&lt;br&gt;$4.50 Grilled Artichoke&lt;br&gt;$6 Slider Trio&lt;br&gt;$6 Buffalo Chicken Nachos&lt;br&gt;$5.50 Mac n Cheese&lt;br&gt;$6 Pulled Pork Sandwich&lt;br&gt;$6.50 Turkey Burger&lt;br&gt;$5.50 Chips n Dip&lt;br&gt;$4 Edamame Hummas&lt;br&gt;$2.50 House Salad&lt;br&gt;$4 Southwest Chili Fries</t>
+  </si>
+  <si>
+    <t>$4 drafts, wells, &amp; house wines&lt;br&gt;$7 Artichoke and Cauliflower Fritters&lt;br&gt;$6 Burget Bites&lt;br&gt;$8 Carnitas Pupusa&lt;br&gt;$4 Elotes&lt;br&gt;$3 French Fries&lt;br&gt;$6 Popcorn Chicken&lt;br&gt;$5 Pesto Deviled Eggs&lt;br&gt;$2 Homemade Potato Chips&lt;br&gt;$8 Pierogis&lt;br&gt;$4 Playa Fish Taco&lt;br&gt;$3 Pork Taco&lt;br&gt;$6 Small Chicken Nachos&lt;br&gt;$7 Thai Lettuce Wraps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4614,12 +4613,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -4638,11 +4637,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -4671,7 +4670,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4983,39 +4982,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V249" sqref="V249"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V133" sqref="V133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="46.7265625" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="10.26953125" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" customWidth="1"/>
-    <col min="44" max="49" width="8.7265625" customWidth="1"/>
-    <col min="50" max="50" width="90.54296875" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" customWidth="1"/>
-    <col min="52" max="52" width="8.7265625" customWidth="1"/>
-    <col min="53" max="53" width="10.1796875" customWidth="1"/>
-    <col min="54" max="55" width="8.7265625" customWidth="1"/>
-    <col min="56" max="56" width="11.453125" customWidth="1"/>
-    <col min="57" max="57" width="53.54296875" customWidth="1"/>
-    <col min="58" max="58" width="18.54296875" customWidth="1"/>
+    <col min="40" max="42" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" customWidth="1"/>
+    <col min="44" max="49" width="8.7109375" customWidth="1"/>
+    <col min="50" max="50" width="90.5703125" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" customWidth="1"/>
+    <col min="54" max="55" width="8.7109375" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" customWidth="1"/>
+    <col min="57" max="57" width="53.5703125" customWidth="1"/>
+    <col min="58" max="58" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5183,9 +5182,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C2" t="s">
         <v>1029</v>
@@ -5194,7 +5193,7 @@
         <v>1046</v>
       </c>
       <c r="G2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H2">
         <v>1400</v>
@@ -5239,7 +5238,7 @@
         <v>1800</v>
       </c>
       <c r="V2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5326,7 +5325,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>28</v>
@@ -5388,7 +5387,7 @@
         <v>[39.7319054,-104.9863224],</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>165</v>
       </c>
@@ -5586,9 +5585,9 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C4" t="s">
         <v>811</v>
@@ -5597,7 +5596,7 @@
         <v>1046</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H4">
         <v>800</v>
@@ -5642,7 +5641,7 @@
         <v>1200</v>
       </c>
       <c r="V4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4" si="62">IF(H4&gt;0,H4/100,"")</f>
@@ -5796,9 +5795,9 @@
       </c>
       <c r="BL4" s="7"/>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C5" t="s">
         <v>808</v>
@@ -5807,7 +5806,7 @@
         <v>1046</v>
       </c>
       <c r="G5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J5">
         <v>1500</v>
@@ -5840,7 +5839,7 @@
         <v>1800</v>
       </c>
       <c r="V5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="31"/>
@@ -5927,7 +5926,7 @@
         <v/>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AV5" s="4" t="s">
         <v>28</v>
@@ -5986,7 +5985,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>928</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>928</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>1046</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J7">
         <v>1500</v>
@@ -6376,7 +6375,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>858</v>
       </c>
@@ -6581,9 +6580,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C9" t="s">
         <v>813</v>
@@ -6592,7 +6591,7 @@
         <v>1046</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H9">
         <v>1200</v>
@@ -6637,7 +6636,7 @@
         <v>2000</v>
       </c>
       <c r="V9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="W9">
         <f t="shared" si="31"/>
@@ -6724,7 +6723,7 @@
         <v>12pm-8pm</v>
       </c>
       <c r="AR9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AV9" s="4" t="s">
         <v>28</v>
@@ -6782,7 +6781,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -6991,9 +6990,9 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C11" t="s">
         <v>813</v>
@@ -7002,7 +7001,7 @@
         <v>1046</v>
       </c>
       <c r="G11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H11">
         <v>1430</v>
@@ -7047,7 +7046,7 @@
         <v>1730</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W11">
         <f t="shared" si="31"/>
@@ -7134,7 +7133,7 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>28</v>
@@ -7192,7 +7191,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>412</v>
       </c>
       <c r="V12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W12">
         <f t="shared" si="31"/>
@@ -7398,7 +7397,7 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>231</v>
       </c>
@@ -7442,7 +7441,7 @@
         <v>1900</v>
       </c>
       <c r="V13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="31"/>
@@ -7592,7 +7591,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -7801,9 +7800,9 @@
       </c>
       <c r="BL14" s="7"/>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C15" t="s">
         <v>809</v>
@@ -7857,7 +7856,7 @@
         <v>412</v>
       </c>
       <c r="V15" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="W15">
         <f t="shared" si="31"/>
@@ -8010,9 +8009,9 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C16" t="s">
         <v>308</v>
@@ -8021,7 +8020,7 @@
         <v>1046</v>
       </c>
       <c r="G16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H16">
         <v>1200</v>
@@ -8066,7 +8065,7 @@
         <v>2200</v>
       </c>
       <c r="V16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="W16">
         <f t="shared" si="31"/>
@@ -8153,7 +8152,7 @@
         <v>12pm-10pm</v>
       </c>
       <c r="AR16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AV16" s="4" t="s">
         <v>28</v>
@@ -8211,7 +8210,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>904</v>
       </c>
@@ -8404,9 +8403,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C18" t="s">
         <v>809</v>
@@ -8415,7 +8414,7 @@
         <v>1046</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J18">
         <v>1600</v>
@@ -8591,9 +8590,9 @@
         <v>[39.7692999,-105.0413475],</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C19" t="s">
         <v>1029</v>
@@ -8602,7 +8601,7 @@
         <v>1046</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H19">
         <v>1500</v>
@@ -8647,7 +8646,7 @@
         <v>1800</v>
       </c>
       <c r="V19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="W19">
         <f t="shared" si="31"/>
@@ -8734,7 +8733,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AV19" s="4" t="s">
         <v>28</v>
@@ -8792,7 +8791,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>825</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>837</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>412</v>
       </c>
       <c r="V22" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="W22">
         <f t="shared" si="31"/>
@@ -9351,7 +9350,7 @@
       </c>
       <c r="BL22" s="7"/>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>916</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -9714,7 +9713,7 @@
       </c>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>236</v>
       </c>
@@ -9878,7 +9877,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>62</v>
       </c>
@@ -10084,7 +10083,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>841</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -10447,7 +10446,7 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>64</v>
       </c>
@@ -10503,7 +10502,7 @@
         <v>413</v>
       </c>
       <c r="V29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W29">
         <f t="shared" si="31"/>
@@ -10653,7 +10652,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -10859,7 +10858,7 @@
       </c>
       <c r="BL30" s="7"/>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>902</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>879</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>167</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>1700</v>
       </c>
       <c r="V33" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="31"/>
@@ -11412,7 +11411,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>247</v>
       </c>
@@ -11576,7 +11575,7 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>168</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>1830</v>
       </c>
       <c r="V35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="31"/>
@@ -11770,9 +11769,9 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C36" t="s">
         <v>812</v>
@@ -11781,7 +11780,7 @@
         <v>1046</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="31"/>
@@ -11868,7 +11867,7 @@
         <v/>
       </c>
       <c r="AR36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AV36" s="4" t="s">
         <v>29</v>
@@ -11926,7 +11925,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>1800</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="31"/>
@@ -12120,9 +12119,9 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C38" t="s">
         <v>266</v>
@@ -12131,7 +12130,7 @@
         <v>1046</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H38">
         <v>1600</v>
@@ -12164,7 +12163,7 @@
         <v>1900</v>
       </c>
       <c r="V38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="W38">
         <f t="shared" si="31"/>
@@ -12306,7 +12305,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>238</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>414</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="W39">
         <f t="shared" si="31"/>
@@ -12515,7 +12514,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>919</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>66</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>412</v>
       </c>
       <c r="V41" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="31"/>
@@ -12914,7 +12913,7 @@
       </c>
       <c r="BL41" s="7"/>
     </row>
-    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>170</v>
       </c>
@@ -13108,7 +13107,7 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>171</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>1048</v>
       </c>
       <c r="G43" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J43">
         <v>1500</v>
@@ -13152,7 +13151,7 @@
         <v>1800</v>
       </c>
       <c r="V43" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="31"/>
@@ -13302,18 +13301,18 @@
       </c>
       <c r="BL43" s="7"/>
     </row>
-    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C44" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E44" t="s">
         <v>1046</v>
       </c>
       <c r="G44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H44">
         <v>1200</v>
@@ -13358,7 +13357,7 @@
         <v>1830</v>
       </c>
       <c r="V44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W44">
         <f t="shared" si="31"/>
@@ -13445,7 +13444,7 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR44" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AV44" s="4" t="s">
         <v>28</v>
@@ -13503,7 +13502,7 @@
         <v>[39.75134,-105.00048],</v>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>67</v>
       </c>
@@ -13559,7 +13558,7 @@
         <v>412</v>
       </c>
       <c r="V45" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W45">
         <f t="shared" si="31"/>
@@ -13709,9 +13708,9 @@
       </c>
       <c r="BL45" s="7"/>
     </row>
-    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C46" t="s">
         <v>810</v>
@@ -13720,7 +13719,7 @@
         <v>1046</v>
       </c>
       <c r="G46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="31"/>
@@ -13807,7 +13806,7 @@
         <v/>
       </c>
       <c r="AR46" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AV46" s="4" t="s">
         <v>29</v>
@@ -13865,7 +13864,7 @@
         <v>[39.781885,-104.891501],</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>412</v>
       </c>
       <c r="V47" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="31"/>
@@ -14065,7 +14064,7 @@
       </c>
       <c r="BL47" s="7"/>
     </row>
-    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>829</v>
       </c>
@@ -14255,9 +14254,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C49" t="s">
         <v>298</v>
@@ -14266,7 +14265,7 @@
         <v>1046</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H49">
         <v>1500</v>
@@ -14311,7 +14310,7 @@
         <v>1800</v>
       </c>
       <c r="V49" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
@@ -14456,7 +14455,7 @@
         <v>[39.7499044,-104.9997273],</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>249</v>
       </c>
@@ -14623,7 +14622,7 @@
       </c>
       <c r="BL50" s="7"/>
     </row>
-    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>251</v>
       </c>
@@ -14787,7 +14786,7 @@
       </c>
       <c r="BL51" s="7"/>
     </row>
-    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -14948,9 +14947,9 @@
       </c>
       <c r="BL52" s="7"/>
     </row>
-    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C53" t="s">
         <v>1029</v>
@@ -14959,7 +14958,7 @@
         <v>1046</v>
       </c>
       <c r="G53" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J53">
         <v>1500</v>
@@ -15076,7 +15075,7 @@
         <v/>
       </c>
       <c r="AR53" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AV53" s="4" t="s">
         <v>28</v>
@@ -15134,9 +15133,9 @@
         <v>[39.73225,-105.00513],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C54" t="s">
         <v>610</v>
@@ -15145,7 +15144,7 @@
         <v>1046</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J54">
         <v>1600</v>
@@ -15178,7 +15177,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="31"/>
@@ -15265,7 +15264,7 @@
         <v/>
       </c>
       <c r="AR54" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AV54" s="4" t="s">
         <v>28</v>
@@ -15323,7 +15322,7 @@
         <v>[39.7096,-104.98058],</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -15379,7 +15378,7 @@
         <v>412</v>
       </c>
       <c r="V55" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="W55">
         <f t="shared" si="31"/>
@@ -15529,7 +15528,7 @@
       </c>
       <c r="BL55" s="7"/>
     </row>
-    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -15735,7 +15734,7 @@
       </c>
       <c r="BL56" s="7"/>
     </row>
-    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>823</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>72</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>864</v>
       </c>
@@ -16186,7 +16185,7 @@
         <v>1800</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="W59">
         <f t="shared" si="31"/>
@@ -16335,7 +16334,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>172</v>
       </c>
@@ -16529,7 +16528,7 @@
       </c>
       <c r="BL60" s="7"/>
     </row>
-    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>262</v>
       </c>
@@ -16693,7 +16692,7 @@
       </c>
       <c r="BL61" s="7"/>
     </row>
-    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -16743,7 +16742,7 @@
         <v>412</v>
       </c>
       <c r="V62" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="W62">
         <f t="shared" si="31"/>
@@ -16893,7 +16892,7 @@
       </c>
       <c r="BL62" s="7"/>
     </row>
-    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>173</v>
       </c>
@@ -17087,9 +17086,9 @@
       </c>
       <c r="BL63" s="7"/>
     </row>
-    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C64" t="s">
         <v>610</v>
@@ -17098,7 +17097,7 @@
         <v>1046</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="31"/>
@@ -17185,7 +17184,7 @@
         <v/>
       </c>
       <c r="AR64" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AV64" s="4" t="s">
         <v>29</v>
@@ -17243,7 +17242,7 @@
         <v>[39.692846,-104.980251],</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>850</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -17492,7 +17491,7 @@
         <v>413</v>
       </c>
       <c r="V66" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="31"/>
@@ -17642,7 +17641,7 @@
       </c>
       <c r="BL66" s="7"/>
     </row>
-    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>833</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>174</v>
       </c>
@@ -18033,7 +18032,7 @@
       </c>
       <c r="BL68" s="7"/>
     </row>
-    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -18239,7 +18238,7 @@
       </c>
       <c r="BL69" s="7"/>
     </row>
-    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>76</v>
       </c>
@@ -18295,7 +18294,7 @@
         <v>412</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W70">
         <f t="shared" si="158"/>
@@ -18445,9 +18444,9 @@
       </c>
       <c r="BL70" s="7"/>
     </row>
-    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C71" t="s">
         <v>611</v>
@@ -18501,7 +18500,7 @@
         <v>1900</v>
       </c>
       <c r="V71" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="W71">
         <f t="shared" si="158"/>
@@ -18651,7 +18650,7 @@
       </c>
       <c r="BL71" s="7"/>
     </row>
-    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>175</v>
       </c>
@@ -18845,7 +18844,7 @@
       </c>
       <c r="BL72" s="7"/>
     </row>
-    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>176</v>
       </c>
@@ -19042,7 +19041,7 @@
       </c>
       <c r="BL73" s="7"/>
     </row>
-    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>868</v>
       </c>
@@ -19247,7 +19246,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>177</v>
       </c>
@@ -19441,7 +19440,7 @@
       </c>
       <c r="BL75" s="7"/>
     </row>
-    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>246</v>
       </c>
@@ -19650,9 +19649,9 @@
       </c>
       <c r="BL76" s="7"/>
     </row>
-    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C77" t="s">
         <v>265</v>
@@ -19661,7 +19660,7 @@
         <v>1046</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J77">
         <v>1200</v>
@@ -19700,7 +19699,7 @@
         <v>1300</v>
       </c>
       <c r="V77" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="158"/>
@@ -19787,7 +19786,7 @@
         <v>12pm-1pm</v>
       </c>
       <c r="AR77" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AV77" s="4" t="s">
         <v>28</v>
@@ -19846,7 +19845,7 @@
       </c>
       <c r="BL77" s="7"/>
     </row>
-    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>178</v>
       </c>
@@ -20040,7 +20039,7 @@
       </c>
       <c r="BL78" s="7"/>
     </row>
-    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>886</v>
       </c>
@@ -20245,7 +20244,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>835</v>
       </c>
@@ -20289,7 +20288,7 @@
         <v>1800</v>
       </c>
       <c r="V80" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W80" t="str">
         <f t="shared" si="158"/>
@@ -20438,7 +20437,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>77</v>
       </c>
@@ -20644,7 +20643,7 @@
       </c>
       <c r="BL81" s="7"/>
     </row>
-    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>78</v>
       </c>
@@ -20832,7 +20831,7 @@
       </c>
       <c r="BL82" s="7"/>
     </row>
-    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>240</v>
       </c>
@@ -20999,7 +20998,7 @@
       </c>
       <c r="BL83" s="7"/>
     </row>
-    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>179</v>
       </c>
@@ -21193,9 +21192,9 @@
       </c>
       <c r="BL84" s="7"/>
     </row>
-    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C85" t="s">
         <v>265</v>
@@ -21204,7 +21203,7 @@
         <v>1046</v>
       </c>
       <c r="G85" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H85">
         <v>1500</v>
@@ -21243,7 +21242,7 @@
         <v>1800</v>
       </c>
       <c r="V85" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W85">
         <f t="shared" si="158"/>
@@ -21330,7 +21329,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR85" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AV85" s="4" t="s">
         <v>28</v>
@@ -21389,7 +21388,7 @@
       </c>
       <c r="BL85" s="7"/>
     </row>
-    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -21553,7 +21552,7 @@
       </c>
       <c r="BL86" s="7"/>
     </row>
-    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>180</v>
       </c>
@@ -21747,7 +21746,7 @@
       </c>
       <c r="BL87" s="7"/>
     </row>
-    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>181</v>
       </c>
@@ -21941,9 +21940,9 @@
       </c>
       <c r="BL88" s="7"/>
     </row>
-    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C89" t="s">
         <v>810</v>
@@ -21952,7 +21951,7 @@
         <v>1046</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H89">
         <v>1500</v>
@@ -21991,7 +21990,7 @@
         <v>1800</v>
       </c>
       <c r="V89" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W89">
         <f t="shared" si="158"/>
@@ -22078,7 +22077,7 @@
         <v/>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AS89" t="s">
         <v>407</v>
@@ -22143,9 +22142,9 @@
       </c>
       <c r="BL89" s="7"/>
     </row>
-    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C90" t="s">
         <v>610</v>
@@ -22154,7 +22153,7 @@
         <v>1046</v>
       </c>
       <c r="G90" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="158"/>
@@ -22241,7 +22240,7 @@
         <v/>
       </c>
       <c r="AR90" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AV90" s="4" t="s">
         <v>29</v>
@@ -22299,7 +22298,7 @@
         <v>[39.694056,-104.987055],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>182</v>
       </c>
@@ -22493,7 +22492,7 @@
       </c>
       <c r="BL91" s="7"/>
     </row>
-    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>183</v>
       </c>
@@ -22687,7 +22686,7 @@
       </c>
       <c r="BL92" s="7"/>
     </row>
-    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>248</v>
       </c>
@@ -22899,9 +22898,9 @@
       </c>
       <c r="BL93" s="7"/>
     </row>
-    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C94" t="s">
         <v>809</v>
@@ -22910,7 +22909,7 @@
         <v>1046</v>
       </c>
       <c r="G94" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H94">
         <v>1700</v>
@@ -22955,7 +22954,7 @@
         <v>1830</v>
       </c>
       <c r="V94" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W94">
         <f t="shared" si="158"/>
@@ -23042,7 +23041,7 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR94" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AV94" s="4" t="s">
         <v>28</v>
@@ -23100,7 +23099,7 @@
         <v>[39.76211,-105.01623],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>79</v>
       </c>
@@ -23309,7 +23308,7 @@
       </c>
       <c r="BL95" s="7"/>
     </row>
-    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>184</v>
       </c>
@@ -23503,7 +23502,7 @@
       </c>
       <c r="BL96" s="7"/>
     </row>
-    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>58</v>
       </c>
@@ -23709,7 +23708,7 @@
       </c>
       <c r="BL97" s="7"/>
     </row>
-    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
@@ -23903,7 +23902,7 @@
       </c>
       <c r="BL98" s="7"/>
     </row>
-    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>81</v>
       </c>
@@ -24112,7 +24111,7 @@
       </c>
       <c r="BL99" s="7"/>
     </row>
-    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>924</v>
       </c>
@@ -24305,7 +24304,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>854</v>
       </c>
@@ -24510,7 +24509,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>82</v>
       </c>
@@ -24716,7 +24715,7 @@
       </c>
       <c r="BL102" s="7"/>
     </row>
-    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>264</v>
       </c>
@@ -24736,7 +24735,7 @@
         <v>2200</v>
       </c>
       <c r="V103" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W103" t="str">
         <f t="shared" si="158"/>
@@ -24892,7 +24891,7 @@
       </c>
       <c r="BL103" s="7"/>
     </row>
-    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>83</v>
       </c>
@@ -24948,7 +24947,7 @@
         <v>413</v>
       </c>
       <c r="V104" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W104">
         <f t="shared" si="158"/>
@@ -25098,7 +25097,7 @@
       </c>
       <c r="BL104" s="7"/>
     </row>
-    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>254</v>
       </c>
@@ -25262,7 +25261,7 @@
       </c>
       <c r="BL105" s="7"/>
     </row>
-    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>84</v>
       </c>
@@ -25471,7 +25470,7 @@
       </c>
       <c r="BL106" s="7"/>
     </row>
-    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>884</v>
       </c>
@@ -25631,7 +25630,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>845</v>
       </c>
@@ -25791,7 +25790,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>85</v>
       </c>
@@ -26003,7 +26002,7 @@
       </c>
       <c r="BL109" s="7"/>
     </row>
-    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>185</v>
       </c>
@@ -26191,7 +26190,7 @@
       </c>
       <c r="BL110" s="7"/>
     </row>
-    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>86</v>
       </c>
@@ -26397,7 +26396,7 @@
       </c>
       <c r="BL111" s="7"/>
     </row>
-    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>186</v>
       </c>
@@ -26591,7 +26590,7 @@
       </c>
       <c r="BL112" s="7"/>
     </row>
-    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>87</v>
       </c>
@@ -26752,7 +26751,7 @@
       </c>
       <c r="BL113" s="7"/>
     </row>
-    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>244</v>
       </c>
@@ -26961,7 +26960,7 @@
       </c>
       <c r="BL114" s="7"/>
     </row>
-    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>88</v>
       </c>
@@ -27122,7 +27121,7 @@
       </c>
       <c r="BL115" s="7"/>
     </row>
-    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>874</v>
       </c>
@@ -27172,7 +27171,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="158"/>
@@ -27321,9 +27320,9 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C117" t="s">
         <v>266</v>
@@ -27485,7 +27484,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>89</v>
       </c>
@@ -27691,7 +27690,7 @@
       </c>
       <c r="BL118" s="7"/>
     </row>
-    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>90</v>
       </c>
@@ -27894,7 +27893,7 @@
       </c>
       <c r="BL119" s="7"/>
     </row>
-    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>912</v>
       </c>
@@ -28099,7 +28098,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>187</v>
       </c>
@@ -28293,7 +28292,7 @@
       </c>
       <c r="BL121" s="7"/>
     </row>
-    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>232</v>
       </c>
@@ -28478,7 +28477,7 @@
       </c>
       <c r="BL122" s="7"/>
     </row>
-    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>188</v>
       </c>
@@ -28522,7 +28521,7 @@
         <v>411</v>
       </c>
       <c r="V123" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" si="158"/>
@@ -28673,9 +28672,9 @@
       </c>
       <c r="BL123" s="7"/>
     </row>
-    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C124" t="s">
         <v>308</v>
@@ -28684,7 +28683,7 @@
         <v>1046</v>
       </c>
       <c r="G124" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H124">
         <v>1530</v>
@@ -28729,7 +28728,7 @@
         <v>1700</v>
       </c>
       <c r="V124" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="W124">
         <f t="shared" ref="W124" si="192">IF(H124&gt;0,H124/100,"")</f>
@@ -28816,7 +28815,7 @@
         <v>3.3pm-5pm</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AU124" s="4"/>
       <c r="AV124" s="4" t="s">
@@ -28880,7 +28879,7 @@
       </c>
       <c r="BL124" s="7"/>
     </row>
-    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>91</v>
       </c>
@@ -29074,9 +29073,9 @@
       </c>
       <c r="BL125" s="7"/>
     </row>
-    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C126" t="s">
         <v>308</v>
@@ -29085,7 +29084,7 @@
         <v>1046</v>
       </c>
       <c r="G126" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H126">
         <v>1630</v>
@@ -29130,7 +29129,7 @@
         <v>1800</v>
       </c>
       <c r="V126" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="W126">
         <f t="shared" ref="W126" si="223">IF(H126&gt;0,H126/100,"")</f>
@@ -29217,7 +29216,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AV126" s="4" t="s">
         <v>28</v>
@@ -29280,7 +29279,7 @@
       </c>
       <c r="BL126" s="7"/>
     </row>
-    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>92</v>
       </c>
@@ -29477,7 +29476,7 @@
       </c>
       <c r="BL127" s="7"/>
     </row>
-    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>93</v>
       </c>
@@ -29686,7 +29685,7 @@
       </c>
       <c r="BL128" s="7"/>
     </row>
-    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>239</v>
       </c>
@@ -29742,7 +29741,7 @@
         <v>1400</v>
       </c>
       <c r="V129" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="W129">
         <f t="shared" si="158"/>
@@ -29895,7 +29894,7 @@
       </c>
       <c r="BL129" s="7"/>
     </row>
-    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>189</v>
       </c>
@@ -30095,7 +30094,7 @@
       </c>
       <c r="BL130" s="7"/>
     </row>
-    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>190</v>
       </c>
@@ -30289,7 +30288,7 @@
       </c>
       <c r="BL131" s="7"/>
     </row>
-    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>94</v>
       </c>
@@ -30345,7 +30344,7 @@
         <v>412</v>
       </c>
       <c r="V132" t="s">
-        <v>1059</v>
+        <v>1315</v>
       </c>
       <c r="W132">
         <f t="shared" si="158"/>
@@ -30445,7 +30444,7 @@
         <v>{
     'name': "Hornet, The",
     'area': "Baker",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 drafts, wells, &amp; house wines; $2-6 food menu ", 'link':"http://www.hornetrestaurant.com", 'pricing':"med",   'phone-number': "", 'address': "76 Broadway Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 drafts, wells, &amp; house wines&lt;br&gt;$7 Artichoke and Cauliflower Fritters&lt;br&gt;$6 Burget Bites&lt;br&gt;$8 Carnitas Pupusa&lt;br&gt;$4 Elotes&lt;br&gt;$3 French Fries&lt;br&gt;$6 Popcorn Chicken&lt;br&gt;$5 Pesto Deviled Eggs&lt;br&gt;$2 Homemade Potato Chips&lt;br&gt;$8 Pierogis&lt;br&gt;$4 Playa Fish Taco&lt;br&gt;$3 Pork Taco&lt;br&gt;$6 Small Chicken Nachos&lt;br&gt;$7 Thai Lettuce Wraps", 'link':"http://www.hornetrestaurant.com", 'pricing':"med",   'phone-number': "", 'address': "76 Broadway Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY132" t="str">
         <f t="shared" si="180"/>
@@ -30495,7 +30494,7 @@
       </c>
       <c r="BL132" s="7"/>
     </row>
-    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>888</v>
       </c>
@@ -30655,7 +30654,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>95</v>
       </c>
@@ -30711,7 +30710,7 @@
         <v>412</v>
       </c>
       <c r="V134" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="W134">
         <f t="shared" ref="W134:W199" si="254">IF(H134&gt;0,H134/100,"")</f>
@@ -30865,7 +30864,7 @@
       </c>
       <c r="BL134" s="7"/>
     </row>
-    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>96</v>
       </c>
@@ -31059,9 +31058,9 @@
       </c>
       <c r="BL135" s="7"/>
     </row>
-    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C136" t="s">
         <v>308</v>
@@ -31070,7 +31069,7 @@
         <v>1046</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H136">
         <v>1400</v>
@@ -31115,7 +31114,7 @@
         <v>2130</v>
       </c>
       <c r="V136" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W136">
         <f t="shared" si="254"/>
@@ -31202,7 +31201,7 @@
         <v>2pm-9.3pm</v>
       </c>
       <c r="AR136" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AV136" s="4" t="s">
         <v>28</v>
@@ -31260,7 +31259,7 @@
         <v>[39.75576,-104.99021],</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>97</v>
       </c>
@@ -31469,7 +31468,7 @@
       </c>
       <c r="BL137" s="7"/>
     </row>
-    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>843</v>
       </c>
@@ -31629,7 +31628,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>98</v>
       </c>
@@ -31685,7 +31684,7 @@
         <v>412</v>
       </c>
       <c r="V139" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="W139">
         <f t="shared" si="254"/>
@@ -31835,7 +31834,7 @@
       </c>
       <c r="BL139" s="7"/>
     </row>
-    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>99</v>
       </c>
@@ -31879,7 +31878,7 @@
         <v>413</v>
       </c>
       <c r="V140" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="W140" t="str">
         <f t="shared" si="254"/>
@@ -32029,7 +32028,7 @@
       </c>
       <c r="BL140" s="7"/>
     </row>
-    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>100</v>
       </c>
@@ -32085,7 +32084,7 @@
         <v>413</v>
       </c>
       <c r="V141" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="W141">
         <f t="shared" si="254"/>
@@ -32238,9 +32237,9 @@
       </c>
       <c r="BL141" s="7"/>
     </row>
-    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C142" t="s">
         <v>266</v>
@@ -32249,7 +32248,7 @@
         <v>1046</v>
       </c>
       <c r="G142" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J142">
         <v>1500</v>
@@ -32276,7 +32275,7 @@
         <v>1800</v>
       </c>
       <c r="V142" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="W142" t="str">
         <f t="shared" si="254"/>
@@ -32363,7 +32362,7 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AS142" t="s">
         <v>407</v>
@@ -32428,7 +32427,7 @@
       </c>
       <c r="BL142" s="7"/>
     </row>
-    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>233</v>
       </c>
@@ -32625,7 +32624,7 @@
       </c>
       <c r="BL143" s="7"/>
     </row>
-    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>101</v>
       </c>
@@ -32789,7 +32788,7 @@
       </c>
       <c r="BL144" s="7"/>
     </row>
-    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9" t="s">
         <v>102</v>
       </c>
@@ -32998,7 +32997,7 @@
       </c>
       <c r="BL145" s="7"/>
     </row>
-    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>103</v>
       </c>
@@ -33054,7 +33053,7 @@
         <v>412</v>
       </c>
       <c r="V146" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W146">
         <f t="shared" si="254"/>
@@ -33204,7 +33203,7 @@
       </c>
       <c r="BL146" s="7"/>
     </row>
-    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>104</v>
       </c>
@@ -33410,18 +33409,18 @@
       </c>
       <c r="BL147" s="7"/>
     </row>
-    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C148" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E148" t="s">
         <v>1046</v>
       </c>
       <c r="G148" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H148">
         <v>1500</v>
@@ -33466,7 +33465,7 @@
         <v>1800</v>
       </c>
       <c r="V148" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W148">
         <f t="shared" si="254"/>
@@ -33553,7 +33552,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR148" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AV148" s="4" t="s">
         <v>28</v>
@@ -33611,9 +33610,9 @@
         <v>[39.75382,-104.99643],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C149" t="s">
         <v>610</v>
@@ -33622,7 +33621,7 @@
         <v>1046</v>
       </c>
       <c r="G149" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H149">
         <v>1400</v>
@@ -33751,7 +33750,7 @@
         <v>11.3am-5pm</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AV149" s="4" t="s">
         <v>28</v>
@@ -33813,7 +33812,7 @@
         <v>[39.6905241,-104.9806818],</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>105</v>
       </c>
@@ -34019,9 +34018,9 @@
       </c>
       <c r="BL150" s="7"/>
     </row>
-    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C151" t="s">
         <v>266</v>
@@ -34030,7 +34029,7 @@
         <v>1046</v>
       </c>
       <c r="G151" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H151">
         <v>1100</v>
@@ -34075,7 +34074,7 @@
         <v>1900</v>
       </c>
       <c r="V151" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="W151">
         <f t="shared" si="254"/>
@@ -34217,15 +34216,15 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C152" t="s">
         <v>1308</v>
       </c>
-      <c r="C152" t="s">
+      <c r="G152" t="s">
         <v>1309</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1310</v>
       </c>
       <c r="H152">
         <v>2200</v>
@@ -34270,7 +34269,7 @@
         <v>2400</v>
       </c>
       <c r="V152" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="W152">
         <f t="shared" ref="W152" si="314">IF(H152&gt;0,H152/100,"")</f>
@@ -34416,7 +34415,7 @@
         <v>[39.7158537,-104.987401],</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>191</v>
       </c>
@@ -34460,7 +34459,7 @@
         <v>1800</v>
       </c>
       <c r="V153" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W153" t="str">
         <f t="shared" si="254"/>
@@ -34610,7 +34609,7 @@
       </c>
       <c r="BL153" s="7"/>
     </row>
-    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>106</v>
       </c>
@@ -34804,7 +34803,7 @@
       </c>
       <c r="BL154" s="7"/>
     </row>
-    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>107</v>
       </c>
@@ -35010,7 +35009,7 @@
       </c>
       <c r="BL155" s="7"/>
     </row>
-    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>898</v>
       </c>
@@ -35209,7 +35208,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>819</v>
       </c>
@@ -35408,7 +35407,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>839</v>
       </c>
@@ -35613,18 +35612,18 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C159" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E159" t="s">
         <v>1046</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J159">
         <v>1400</v>
@@ -35663,7 +35662,7 @@
         <v>1800</v>
       </c>
       <c r="V159" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="W159" t="str">
         <f t="shared" si="254"/>
@@ -35750,7 +35749,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR159" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AV159" s="4" t="s">
         <v>28</v>
@@ -35808,7 +35807,7 @@
         <v>[39.7505999,-104.9994734],</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>108</v>
       </c>
@@ -36014,7 +36013,7 @@
       </c>
       <c r="BL160" s="7"/>
     </row>
-    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>192</v>
       </c>
@@ -36205,7 +36204,7 @@
       </c>
       <c r="BL161" s="7"/>
     </row>
-    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>193</v>
       </c>
@@ -36402,7 +36401,7 @@
       </c>
       <c r="BL162" s="7"/>
     </row>
-    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>109</v>
       </c>
@@ -36602,7 +36601,7 @@
       </c>
       <c r="BL163" s="7"/>
     </row>
-    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>194</v>
       </c>
@@ -36799,7 +36798,7 @@
       </c>
       <c r="BL164" s="7"/>
     </row>
-    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>110</v>
       </c>
@@ -36996,7 +36995,7 @@
       </c>
       <c r="BL165" s="7"/>
     </row>
-    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>111</v>
       </c>
@@ -37190,7 +37189,7 @@
       </c>
       <c r="BL166" s="7"/>
     </row>
-    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>112</v>
       </c>
@@ -37384,7 +37383,7 @@
       </c>
       <c r="BL167" s="7"/>
     </row>
-    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>113</v>
       </c>
@@ -37584,7 +37583,7 @@
       </c>
       <c r="BL168" s="7"/>
     </row>
-    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>195</v>
       </c>
@@ -37781,7 +37780,7 @@
       </c>
       <c r="BL169" s="7"/>
     </row>
-    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>196</v>
       </c>
@@ -37975,7 +37974,7 @@
       </c>
       <c r="BL170" s="7"/>
     </row>
-    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>962</v>
       </c>
@@ -38168,7 +38167,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>114</v>
       </c>
@@ -38374,7 +38373,7 @@
       </c>
       <c r="BL172" s="7"/>
     </row>
-    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>197</v>
       </c>
@@ -38568,7 +38567,7 @@
       </c>
       <c r="BL173" s="7"/>
     </row>
-    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>198</v>
       </c>
@@ -38762,7 +38761,7 @@
       </c>
       <c r="BL174" s="7"/>
     </row>
-    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>115</v>
       </c>
@@ -38968,7 +38967,7 @@
       </c>
       <c r="BL175" s="7"/>
     </row>
-    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>116</v>
       </c>
@@ -39174,7 +39173,7 @@
       </c>
       <c r="BL176" s="7"/>
     </row>
-    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>117</v>
       </c>
@@ -39380,7 +39379,7 @@
       </c>
       <c r="BL177" s="7"/>
     </row>
-    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>118</v>
       </c>
@@ -39586,7 +39585,7 @@
       </c>
       <c r="BL178" s="7"/>
     </row>
-    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>119</v>
       </c>
@@ -39792,7 +39791,7 @@
       </c>
       <c r="BL179" s="7"/>
     </row>
-    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>120</v>
       </c>
@@ -39986,7 +39985,7 @@
       </c>
       <c r="BL180" s="7"/>
     </row>
-    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>199</v>
       </c>
@@ -40180,7 +40179,7 @@
       </c>
       <c r="BL181" s="7"/>
     </row>
-    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>257</v>
       </c>
@@ -40389,7 +40388,7 @@
       </c>
       <c r="BL182" s="7"/>
     </row>
-    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>121</v>
       </c>
@@ -40400,7 +40399,7 @@
         <v>1046</v>
       </c>
       <c r="G183" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H183" t="s">
         <v>410</v>
@@ -40595,7 +40594,7 @@
       </c>
       <c r="BL183" s="7"/>
     </row>
-    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>200</v>
       </c>
@@ -40789,7 +40788,7 @@
       </c>
       <c r="BL184" s="7"/>
     </row>
-    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>122</v>
       </c>
@@ -40995,7 +40994,7 @@
       </c>
       <c r="BL185" s="7"/>
     </row>
-    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>201</v>
       </c>
@@ -41189,7 +41188,7 @@
       </c>
       <c r="BL186" s="7"/>
     </row>
-    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>123</v>
       </c>
@@ -41395,7 +41394,7 @@
       </c>
       <c r="BL187" s="7"/>
     </row>
-    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>258</v>
       </c>
@@ -41592,7 +41591,7 @@
       </c>
       <c r="BL188" s="7"/>
     </row>
-    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>852</v>
       </c>
@@ -41779,7 +41778,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>860</v>
       </c>
@@ -41984,7 +41983,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>124</v>
       </c>
@@ -42190,7 +42189,7 @@
       </c>
       <c r="BL191" s="7"/>
     </row>
-    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>234</v>
       </c>
@@ -42384,7 +42383,7 @@
       </c>
       <c r="BL192" s="7"/>
     </row>
-    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>263</v>
       </c>
@@ -42569,7 +42568,7 @@
       </c>
       <c r="BL193" s="7"/>
     </row>
-    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>930</v>
       </c>
@@ -42774,7 +42773,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>866</v>
       </c>
@@ -42931,7 +42930,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>202</v>
       </c>
@@ -43131,9 +43130,9 @@
       </c>
       <c r="BL196" s="7"/>
     </row>
-    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C197" t="s">
         <v>1029</v>
@@ -43142,7 +43141,7 @@
         <v>1046</v>
       </c>
       <c r="G197" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="W197" t="str">
         <f t="shared" si="254"/>
@@ -43229,7 +43228,7 @@
         <v/>
       </c>
       <c r="AR197" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AV197" s="4" t="s">
         <v>29</v>
@@ -43287,7 +43286,7 @@
         <v>[39.677478,-104.914182],</v>
       </c>
     </row>
-    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>847</v>
       </c>
@@ -43492,7 +43491,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>203</v>
       </c>
@@ -43686,7 +43685,7 @@
       </c>
       <c r="BL199" s="7"/>
     </row>
-    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
         <v>204</v>
       </c>
@@ -43884,7 +43883,7 @@
       </c>
       <c r="BL200" s="7"/>
     </row>
-    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>205</v>
       </c>
@@ -44078,7 +44077,7 @@
       </c>
       <c r="BL201" s="7"/>
     </row>
-    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>206</v>
       </c>
@@ -44272,9 +44271,9 @@
       </c>
       <c r="BL202" s="7"/>
     </row>
-    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C203" t="s">
         <v>809</v>
@@ -44283,7 +44282,7 @@
         <v>1046</v>
       </c>
       <c r="G203" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H203">
         <v>1600</v>
@@ -44310,7 +44309,7 @@
         <v>1800</v>
       </c>
       <c r="V203" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="W203">
         <f t="shared" si="347"/>
@@ -44397,7 +44396,7 @@
         <v/>
       </c>
       <c r="AR203" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AV203" s="4" t="s">
         <v>28</v>
@@ -44455,9 +44454,9 @@
         <v>[39.76354,-105.01106],</v>
       </c>
     </row>
-    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C204" t="s">
         <v>609</v>
@@ -44466,7 +44465,7 @@
         <v>1046</v>
       </c>
       <c r="G204" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H204">
         <v>1500</v>
@@ -44511,7 +44510,7 @@
         <v>1800</v>
       </c>
       <c r="V204" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="W204">
         <f t="shared" si="347"/>
@@ -44598,7 +44597,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AV204" s="4" t="s">
         <v>28</v>
@@ -44656,7 +44655,7 @@
         <v>[39.71761,-104.94761],</v>
       </c>
     </row>
-    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>207</v>
       </c>
@@ -44850,18 +44849,18 @@
       </c>
       <c r="BL205" s="7"/>
     </row>
-    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C206" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E206" t="s">
         <v>1046</v>
       </c>
       <c r="G206" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J206">
         <v>1500</v>
@@ -44894,7 +44893,7 @@
         <v>1800</v>
       </c>
       <c r="V206" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="W206" t="str">
         <f t="shared" si="347"/>
@@ -44981,7 +44980,7 @@
         <v/>
       </c>
       <c r="AR206" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV206" s="4" t="s">
         <v>28</v>
@@ -45039,7 +45038,7 @@
         <v>[39.74819,-104.99897],</v>
       </c>
     </row>
-    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>125</v>
       </c>
@@ -45083,7 +45082,7 @@
         <v>412</v>
       </c>
       <c r="V207" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="W207" t="str">
         <f t="shared" si="347"/>
@@ -45233,7 +45232,7 @@
       </c>
       <c r="BL207" s="7"/>
     </row>
-    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>890</v>
       </c>
@@ -45277,7 +45276,7 @@
         <v>1800</v>
       </c>
       <c r="V208" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W208" t="str">
         <f t="shared" si="347"/>
@@ -45426,9 +45425,9 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C209" t="s">
         <v>266</v>
@@ -45437,7 +45436,7 @@
         <v>1046</v>
       </c>
       <c r="G209" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J209">
         <v>1500</v>
@@ -45470,7 +45469,7 @@
         <v>1800</v>
       </c>
       <c r="V209" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="W209" t="str">
         <f t="shared" si="347"/>
@@ -45557,7 +45556,7 @@
         <v/>
       </c>
       <c r="AR209" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AV209" s="4" t="s">
         <v>28</v>
@@ -45615,7 +45614,7 @@
         <v>[39.75959,-104.98604],</v>
       </c>
     </row>
-    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>126</v>
       </c>
@@ -45815,7 +45814,7 @@
       </c>
       <c r="BL210" s="7"/>
     </row>
-    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>817</v>
       </c>
@@ -46005,7 +46004,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>127</v>
       </c>
@@ -46205,7 +46204,7 @@
       </c>
       <c r="BL212" s="7"/>
     </row>
-    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>128</v>
       </c>
@@ -46261,7 +46260,7 @@
         <v>412</v>
       </c>
       <c r="V213" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W213">
         <f t="shared" si="347"/>
@@ -46411,9 +46410,9 @@
       </c>
       <c r="BL213" s="7"/>
     </row>
-    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C214" t="s">
         <v>1029</v>
@@ -46422,7 +46421,7 @@
         <v>1046</v>
       </c>
       <c r="G214" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J214">
         <v>1600</v>
@@ -46455,7 +46454,7 @@
         <v>1800</v>
       </c>
       <c r="V214" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="W214" t="str">
         <f t="shared" si="347"/>
@@ -46542,7 +46541,7 @@
         <v/>
       </c>
       <c r="AR214" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AV214" s="4" t="s">
         <v>28</v>
@@ -46601,7 +46600,7 @@
       </c>
       <c r="BL214" s="7"/>
     </row>
-    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>129</v>
       </c>
@@ -46657,7 +46656,7 @@
         <v>1700</v>
       </c>
       <c r="V215" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="W215">
         <f t="shared" si="347"/>
@@ -46810,7 +46809,7 @@
       </c>
       <c r="BL215" s="7"/>
     </row>
-    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>130</v>
       </c>
@@ -47004,7 +47003,7 @@
       </c>
       <c r="BL216" s="7"/>
     </row>
-    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>208</v>
       </c>
@@ -47048,7 +47047,7 @@
         <v>1900</v>
       </c>
       <c r="V217" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="W217" t="str">
         <f t="shared" si="347"/>
@@ -47198,7 +47197,7 @@
       </c>
       <c r="BL217" s="7"/>
     </row>
-    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>260</v>
       </c>
@@ -47362,7 +47361,7 @@
       </c>
       <c r="BL218" s="7"/>
     </row>
-    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>131</v>
       </c>
@@ -47556,7 +47555,7 @@
       </c>
       <c r="BL219" s="7"/>
     </row>
-    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>132</v>
       </c>
@@ -47612,7 +47611,7 @@
         <v>413</v>
       </c>
       <c r="V220" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="W220">
         <f t="shared" si="347"/>
@@ -47762,7 +47761,7 @@
       </c>
       <c r="BL220" s="7"/>
     </row>
-    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>862</v>
       </c>
@@ -47806,7 +47805,7 @@
         <v>1800</v>
       </c>
       <c r="V221" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="W221" t="str">
         <f t="shared" si="347"/>
@@ -47955,7 +47954,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>133</v>
       </c>
@@ -47999,7 +47998,7 @@
         <v>1900</v>
       </c>
       <c r="V222" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="W222" t="str">
         <f t="shared" si="347"/>
@@ -48149,7 +48148,7 @@
       </c>
       <c r="BL222" s="7"/>
     </row>
-    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>250</v>
       </c>
@@ -48349,7 +48348,7 @@
       </c>
       <c r="BL223" s="7"/>
     </row>
-    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>926</v>
       </c>
@@ -48509,7 +48508,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>259</v>
       </c>
@@ -48673,7 +48672,7 @@
       </c>
       <c r="BL225" s="7"/>
     </row>
-    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>241</v>
       </c>
@@ -48871,7 +48870,7 @@
       </c>
       <c r="BL226" s="7"/>
     </row>
-    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>134</v>
       </c>
@@ -48921,7 +48920,7 @@
         <v>413</v>
       </c>
       <c r="V227" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="W227">
         <f t="shared" si="347"/>
@@ -49071,7 +49070,7 @@
       </c>
       <c r="BL227" s="7"/>
     </row>
-    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>135</v>
       </c>
@@ -49277,7 +49276,7 @@
       </c>
       <c r="BL228" s="7"/>
     </row>
-    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>209</v>
       </c>
@@ -49471,7 +49470,7 @@
       </c>
       <c r="BL229" s="7"/>
     </row>
-    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>136</v>
       </c>
@@ -49527,7 +49526,7 @@
         <v>413</v>
       </c>
       <c r="V230" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="W230">
         <f t="shared" si="347"/>
@@ -49677,7 +49676,7 @@
       </c>
       <c r="BL230" s="7"/>
     </row>
-    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>894</v>
       </c>
@@ -49837,7 +49836,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>137</v>
       </c>
@@ -49881,7 +49880,7 @@
         <v>1800</v>
       </c>
       <c r="V232" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="W232" t="str">
         <f t="shared" si="347"/>
@@ -50031,7 +50030,7 @@
       </c>
       <c r="BL232" s="7"/>
     </row>
-    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>138</v>
       </c>
@@ -50237,7 +50236,7 @@
       </c>
       <c r="BL233" s="7"/>
     </row>
-    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>139</v>
       </c>
@@ -50443,7 +50442,7 @@
       </c>
       <c r="BL234" s="7"/>
     </row>
-    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>261</v>
       </c>
@@ -50607,9 +50606,9 @@
       </c>
       <c r="BL235" s="7"/>
     </row>
-    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C236" t="s">
         <v>266</v>
@@ -50618,7 +50617,7 @@
         <v>1046</v>
       </c>
       <c r="G236" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J236">
         <v>1600</v>
@@ -50651,7 +50650,7 @@
         <v>1900</v>
       </c>
       <c r="V236" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="W236" t="str">
         <f t="shared" si="347"/>
@@ -50794,7 +50793,7 @@
       </c>
       <c r="BL236" s="7"/>
     </row>
-    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>140</v>
       </c>
@@ -50991,7 +50990,7 @@
       </c>
       <c r="BL237" s="7"/>
     </row>
-    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>831</v>
       </c>
@@ -51196,7 +51195,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>210</v>
       </c>
@@ -51390,7 +51389,7 @@
       </c>
       <c r="BL239" s="7"/>
     </row>
-    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>906</v>
       </c>
@@ -51550,9 +51549,9 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C241" t="s">
         <v>813</v>
@@ -51561,7 +51560,7 @@
         <v>1047</v>
       </c>
       <c r="G241" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H241">
         <v>1500</v>
@@ -51606,7 +51605,7 @@
         <v>2000</v>
       </c>
       <c r="V241" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W241">
         <f t="shared" si="347"/>
@@ -51693,7 +51692,7 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR241" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AV241" s="4" t="s">
         <v>28</v>
@@ -51751,7 +51750,7 @@
         <v>[39.753306,-104.996116],</v>
       </c>
     </row>
-    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>211</v>
       </c>
@@ -51948,7 +51947,7 @@
       </c>
       <c r="BL242" s="7"/>
     </row>
-    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>141</v>
       </c>
@@ -52148,9 +52147,9 @@
       </c>
       <c r="BL243" s="7"/>
     </row>
-    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C244" t="s">
         <v>297</v>
@@ -52159,7 +52158,7 @@
         <v>1046</v>
       </c>
       <c r="G244" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W244" t="str">
         <f t="shared" si="347"/>
@@ -52246,7 +52245,7 @@
         <v/>
       </c>
       <c r="AR244" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AV244" s="4" t="s">
         <v>29</v>
@@ -52305,7 +52304,7 @@
       </c>
       <c r="BL244" s="7"/>
     </row>
-    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>881</v>
       </c>
@@ -52510,7 +52509,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>142</v>
       </c>
@@ -52716,7 +52715,7 @@
       </c>
       <c r="BL246" s="7"/>
     </row>
-    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>896</v>
       </c>
@@ -52873,7 +52872,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>869</v>
       </c>
@@ -52929,7 +52928,7 @@
         <v>1800</v>
       </c>
       <c r="V248" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="W248">
         <f t="shared" si="347"/>
@@ -53079,7 +53078,7 @@
       </c>
       <c r="BL248" s="7"/>
     </row>
-    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>212</v>
       </c>
@@ -53273,7 +53272,7 @@
       </c>
       <c r="BL249" s="7"/>
     </row>
-    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>213</v>
       </c>
@@ -53467,7 +53466,7 @@
       </c>
       <c r="BL250" s="7"/>
     </row>
-    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>214</v>
       </c>
@@ -53661,9 +53660,9 @@
       </c>
       <c r="BL251" s="7"/>
     </row>
-    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C252" t="s">
         <v>609</v>
@@ -53672,7 +53671,7 @@
         <v>1046</v>
       </c>
       <c r="G252" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J252">
         <v>1500</v>
@@ -53705,7 +53704,7 @@
         <v>1800</v>
       </c>
       <c r="V252" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W252" t="str">
         <f t="shared" si="347"/>
@@ -53792,7 +53791,7 @@
         <v/>
       </c>
       <c r="AR252" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AV252" s="4" t="s">
         <v>28</v>
@@ -53851,7 +53850,7 @@
       </c>
       <c r="BL252" s="7"/>
     </row>
-    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>215</v>
       </c>
@@ -53895,7 +53894,7 @@
         <v>412</v>
       </c>
       <c r="V253" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="W253" t="str">
         <f t="shared" si="347"/>
@@ -54045,7 +54044,7 @@
       </c>
       <c r="BL253" s="7"/>
     </row>
-    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>143</v>
       </c>
@@ -54251,7 +54250,7 @@
       </c>
       <c r="BL254" s="7"/>
     </row>
-    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>255</v>
       </c>
@@ -54415,7 +54414,7 @@
       </c>
       <c r="BL255" s="7"/>
     </row>
-    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>242</v>
       </c>
@@ -54579,7 +54578,7 @@
       </c>
       <c r="BL256" s="7"/>
     </row>
-    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>144</v>
       </c>
@@ -54635,7 +54634,7 @@
         <v>412</v>
       </c>
       <c r="V257" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="W257">
         <f t="shared" si="347"/>
@@ -54785,7 +54784,7 @@
       </c>
       <c r="BL257" s="7"/>
     </row>
-    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>216</v>
       </c>
@@ -54979,9 +54978,9 @@
       </c>
       <c r="BL258" s="7"/>
     </row>
-    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C259" t="s">
         <v>308</v>
@@ -54990,7 +54989,7 @@
         <v>1046</v>
       </c>
       <c r="G259" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H259">
         <v>1400</v>
@@ -55029,7 +55028,7 @@
         <v>1800</v>
       </c>
       <c r="V259" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="W259">
         <f t="shared" si="347"/>
@@ -55116,7 +55115,7 @@
         <v/>
       </c>
       <c r="AR259" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AV259" s="4" t="s">
         <v>28</v>
@@ -55174,7 +55173,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>217</v>
       </c>
@@ -55368,7 +55367,7 @@
       </c>
       <c r="BL260" s="7"/>
     </row>
-    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>218</v>
       </c>
@@ -55562,9 +55561,9 @@
       </c>
       <c r="BL261" s="7"/>
     </row>
-    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C262" t="s">
         <v>809</v>
@@ -55573,7 +55572,7 @@
         <v>1046</v>
       </c>
       <c r="G262" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H262">
         <v>1500</v>
@@ -55618,7 +55617,7 @@
         <v>1800</v>
       </c>
       <c r="V262" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W262">
         <f t="shared" si="347"/>
@@ -55705,7 +55704,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR262" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AV262" t="s">
         <v>28</v>
@@ -55764,9 +55763,9 @@
       </c>
       <c r="BL262" s="7"/>
     </row>
-    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C263" t="s">
         <v>266</v>
@@ -55775,7 +55774,7 @@
         <v>1046</v>
       </c>
       <c r="G263" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="J263">
         <v>1500</v>
@@ -55808,7 +55807,7 @@
         <v>1800</v>
       </c>
       <c r="V263" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="W263" t="str">
         <f t="shared" ref="W263:W322" si="381">IF(H263&gt;0,H263/100,"")</f>
@@ -55895,7 +55894,7 @@
         <v/>
       </c>
       <c r="AR263" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AV263" t="s">
         <v>28</v>
@@ -55958,7 +55957,7 @@
       </c>
       <c r="BL263" s="7"/>
     </row>
-    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>145</v>
       </c>
@@ -56164,7 +56163,7 @@
       </c>
       <c r="BL264" s="7"/>
     </row>
-    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>146</v>
       </c>
@@ -56370,7 +56369,7 @@
       </c>
       <c r="BL265" s="7"/>
     </row>
-    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>219</v>
       </c>
@@ -56564,7 +56563,7 @@
       </c>
       <c r="BL266" s="7"/>
     </row>
-    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>147</v>
       </c>
@@ -56773,7 +56772,7 @@
       </c>
       <c r="BL267" s="7"/>
     </row>
-    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>872</v>
       </c>
@@ -56933,7 +56932,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>148</v>
       </c>
@@ -56989,7 +56988,7 @@
         <v>1900</v>
       </c>
       <c r="V269" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W269">
         <f t="shared" si="381"/>
@@ -57139,7 +57138,7 @@
       </c>
       <c r="BL269" s="7"/>
     </row>
-    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>149</v>
       </c>
@@ -57183,7 +57182,7 @@
         <v>413</v>
       </c>
       <c r="V270" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="W270" t="str">
         <f t="shared" si="381"/>
@@ -57336,7 +57335,7 @@
       </c>
       <c r="BL270" s="7"/>
     </row>
-    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>150</v>
       </c>
@@ -57530,9 +57529,9 @@
       </c>
       <c r="BL271" s="7"/>
     </row>
-    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C272" t="s">
         <v>809</v>
@@ -57541,7 +57540,7 @@
         <v>1046</v>
       </c>
       <c r="G272" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="W272" t="str">
         <f t="shared" si="381"/>
@@ -57628,7 +57627,7 @@
         <v/>
       </c>
       <c r="AR272" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AV272" s="4" t="s">
         <v>29</v>
@@ -57686,7 +57685,7 @@
         <v>[39.77126,-105.044258],</v>
       </c>
     </row>
-    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>220</v>
       </c>
@@ -57880,7 +57879,7 @@
       </c>
       <c r="BL273" s="7"/>
     </row>
-    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>221</v>
       </c>
@@ -58074,7 +58073,7 @@
       </c>
       <c r="BL274" s="7"/>
     </row>
-    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>151</v>
       </c>
@@ -58268,7 +58267,7 @@
       </c>
       <c r="BL275" s="7"/>
     </row>
-    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>222</v>
       </c>
@@ -58312,7 +58311,7 @@
         <v>412</v>
       </c>
       <c r="V276" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="W276" t="str">
         <f t="shared" si="381"/>
@@ -58462,7 +58461,7 @@
       </c>
       <c r="BL276" s="7"/>
     </row>
-    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>152</v>
       </c>
@@ -58668,7 +58667,7 @@
       </c>
       <c r="BL277" s="7"/>
     </row>
-    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>223</v>
       </c>
@@ -58832,7 +58831,7 @@
       </c>
       <c r="BL278" s="7"/>
     </row>
-    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>827</v>
       </c>
@@ -59037,7 +59036,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>932</v>
       </c>
@@ -59242,9 +59241,9 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C281" t="s">
         <v>297</v>
@@ -59253,7 +59252,7 @@
         <v>1046</v>
       </c>
       <c r="G281" s="24" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H281">
         <v>1600</v>
@@ -59298,7 +59297,7 @@
         <v>1830</v>
       </c>
       <c r="V281" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W281">
         <f t="shared" si="381"/>
@@ -59440,7 +59439,7 @@
         <v>[39.75305,-104.99995],</v>
       </c>
     </row>
-    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>235</v>
       </c>
@@ -59628,7 +59627,7 @@
       </c>
       <c r="BL282" s="7"/>
     </row>
-    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>892</v>
       </c>
@@ -59827,7 +59826,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>900</v>
       </c>
@@ -60017,7 +60016,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>821</v>
       </c>
@@ -60222,7 +60221,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>243</v>
       </c>
@@ -60419,7 +60418,7 @@
       </c>
       <c r="BL286" s="7"/>
     </row>
-    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>856</v>
       </c>
@@ -60624,7 +60623,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>908</v>
       </c>
@@ -60829,7 +60828,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>153</v>
       </c>
@@ -61032,7 +61031,7 @@
       </c>
       <c r="BL289" s="7"/>
     </row>
-    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>934</v>
       </c>
@@ -61237,7 +61236,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>870</v>
       </c>
@@ -61436,7 +61435,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>154</v>
       </c>
@@ -61642,7 +61641,7 @@
       </c>
       <c r="BL292" s="7"/>
     </row>
-    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>237</v>
       </c>
@@ -61851,7 +61850,7 @@
       </c>
       <c r="BL293" s="7"/>
     </row>
-    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>155</v>
       </c>
@@ -61907,7 +61906,7 @@
         <v>412</v>
       </c>
       <c r="V294" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W294">
         <f t="shared" si="381"/>
@@ -62057,7 +62056,7 @@
       </c>
       <c r="BL294" s="7"/>
     </row>
-    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>156</v>
       </c>
@@ -62101,7 +62100,7 @@
         <v>413</v>
       </c>
       <c r="V295" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W295" t="str">
         <f t="shared" si="381"/>
@@ -62251,7 +62250,7 @@
       </c>
       <c r="BL295" s="7"/>
     </row>
-    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>224</v>
       </c>
@@ -62412,7 +62411,7 @@
       </c>
       <c r="BL296" s="7"/>
     </row>
-    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>225</v>
       </c>
@@ -62603,7 +62602,7 @@
       </c>
       <c r="BL297" s="7"/>
     </row>
-    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>918</v>
       </c>
@@ -62754,7 +62753,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>157</v>
       </c>
@@ -62954,7 +62953,7 @@
       </c>
       <c r="BL299" s="7"/>
     </row>
-    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>914</v>
       </c>
@@ -63114,7 +63113,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>226</v>
       </c>
@@ -63308,9 +63307,9 @@
       </c>
       <c r="BL301" s="7"/>
     </row>
-    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C302" t="s">
         <v>1029</v>
@@ -63319,7 +63318,7 @@
         <v>1046</v>
       </c>
       <c r="G302" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H302">
         <v>1600</v>
@@ -63364,7 +63363,7 @@
         <v>2400</v>
       </c>
       <c r="V302" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="W302">
         <f t="shared" si="381"/>
@@ -63451,7 +63450,7 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR302" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV302" s="4" t="s">
         <v>28</v>
@@ -63509,7 +63508,7 @@
         <v>[39.72741,-104.98388],</v>
       </c>
     </row>
-    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>158</v>
       </c>
@@ -63703,7 +63702,7 @@
       </c>
       <c r="BL303" s="7"/>
     </row>
-    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>227</v>
       </c>
@@ -63747,7 +63746,7 @@
         <v>412</v>
       </c>
       <c r="V304" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W304" t="str">
         <f t="shared" si="381"/>
@@ -63900,7 +63899,7 @@
       </c>
       <c r="BL304" s="7"/>
     </row>
-    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>228</v>
       </c>
@@ -63944,7 +63943,7 @@
         <v>413</v>
       </c>
       <c r="V305" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W305" t="str">
         <f t="shared" si="381"/>
@@ -64094,9 +64093,9 @@
       </c>
       <c r="BL305" s="7"/>
     </row>
-    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C306" t="s">
         <v>809</v>
@@ -64105,7 +64104,7 @@
         <v>1046</v>
       </c>
       <c r="G306" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H306">
         <v>1500</v>
@@ -64144,7 +64143,7 @@
         <v>1800</v>
       </c>
       <c r="V306" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="W306">
         <f t="shared" si="381"/>
@@ -64286,7 +64285,7 @@
         <v>[39.77142,-105.04415],</v>
       </c>
     </row>
-    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>229</v>
       </c>
@@ -64480,7 +64479,7 @@
       </c>
       <c r="BL307" s="7"/>
     </row>
-    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>159</v>
       </c>
@@ -64524,7 +64523,7 @@
         <v>413</v>
       </c>
       <c r="V308" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="W308">
         <f t="shared" si="381"/>
@@ -64677,7 +64676,7 @@
       </c>
       <c r="BL308" s="7"/>
     </row>
-    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>160</v>
       </c>
@@ -64883,7 +64882,7 @@
       </c>
       <c r="BL309" s="7"/>
     </row>
-    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>876</v>
       </c>
@@ -65088,7 +65087,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>253</v>
       </c>
@@ -65252,7 +65251,7 @@
       </c>
       <c r="BL311" s="7"/>
     </row>
-    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>922</v>
       </c>
@@ -65454,7 +65453,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>161</v>
       </c>
@@ -65618,9 +65617,9 @@
       </c>
       <c r="BL313" s="7"/>
     </row>
-    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C314" t="s">
         <v>1029</v>
@@ -65629,7 +65628,7 @@
         <v>1046</v>
       </c>
       <c r="G314" s="24" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="L314">
         <v>1700</v>
@@ -65656,7 +65655,7 @@
         <v>1800</v>
       </c>
       <c r="V314" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="W314" t="str">
         <f t="shared" si="381"/>
@@ -65798,7 +65797,7 @@
         <v>[39.74352,-104.96954],</v>
       </c>
     </row>
-    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>938</v>
       </c>
@@ -65997,7 +65996,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>230</v>
       </c>
@@ -66191,7 +66190,7 @@
       </c>
       <c r="BL316" s="7"/>
     </row>
-    <row r="317" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>878</v>
       </c>
@@ -66396,7 +66395,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>162</v>
       </c>
@@ -66590,7 +66589,7 @@
       </c>
       <c r="BL318" s="7"/>
     </row>
-    <row r="319" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>163</v>
       </c>
@@ -66646,7 +66645,7 @@
         <v>413</v>
       </c>
       <c r="V319" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W319">
         <f t="shared" si="381"/>
@@ -66796,7 +66795,7 @@
       </c>
       <c r="BL319" s="7"/>
     </row>
-    <row r="320" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>910</v>
       </c>
@@ -67001,7 +67000,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>256</v>
       </c>
@@ -67165,7 +67164,7 @@
       </c>
       <c r="BL321" s="7"/>
     </row>
-    <row r="322" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>164</v>
       </c>
@@ -67360,33 +67359,33 @@
       <c r="BL322" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C296" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL317">
+  <autoFilter ref="C1:C296"/>
+  <sortState ref="B2:BL317">
     <sortCondition ref="B2:B317"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AR216" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B27" r:id="rId2" display="https://www.yelp.com/biz/backstreet-tavern-and-grill-aurora?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B138" r:id="rId3" display="https://www.yelp.com/biz/improper-city-denver?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B189" r:id="rId4" display="https://www.yelp.com/biz/neighbors-denver?osq=Happy+Hour" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR285" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR80" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR317" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR283" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR194" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR290" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G54" r:id="rId11" display="https://www.google.com/maps/place/Candlelight+Tavern/@39.709632,-104.9828235,17z/data=!4m5!3m4!1s0x876c7ee345a86e4d:0x6a6cf93c603a839b!8m2!3d39.709632!4d-104.9806348" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR206" r:id="rId12" tooltip="Osteria Marco" display="http://www.osteriamarco.com/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR209" r:id="rId13" tooltip="Park Burger" display="http://parkburger.com/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR11" r:id="rId14" tooltip="Acorn" display="http://www.denveracorn.com/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR204" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR159" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR142" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR89" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR124" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR126" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR149" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR216" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2" display="https://www.yelp.com/biz/backstreet-tavern-and-grill-aurora?osq=Happy+Hour"/>
+    <hyperlink ref="B138" r:id="rId3" display="https://www.yelp.com/biz/improper-city-denver?osq=Happy+Hour"/>
+    <hyperlink ref="B189" r:id="rId4" display="https://www.yelp.com/biz/neighbors-denver?osq=Happy+Hour"/>
+    <hyperlink ref="AR285" r:id="rId5"/>
+    <hyperlink ref="AR80" r:id="rId6"/>
+    <hyperlink ref="AR317" r:id="rId7"/>
+    <hyperlink ref="AR283" r:id="rId8"/>
+    <hyperlink ref="AR194" r:id="rId9"/>
+    <hyperlink ref="AR290" r:id="rId10"/>
+    <hyperlink ref="G54" r:id="rId11" display="https://www.google.com/maps/place/Candlelight+Tavern/@39.709632,-104.9828235,17z/data=!4m5!3m4!1s0x876c7ee345a86e4d:0x6a6cf93c603a839b!8m2!3d39.709632!4d-104.9806348"/>
+    <hyperlink ref="AR206" r:id="rId12" tooltip="Osteria Marco" display="http://www.osteriamarco.com/"/>
+    <hyperlink ref="AR209" r:id="rId13" tooltip="Park Burger" display="http://parkburger.com/"/>
+    <hyperlink ref="AR11" r:id="rId14" tooltip="Acorn" display="http://www.denveracorn.com/"/>
+    <hyperlink ref="AR204" r:id="rId15"/>
+    <hyperlink ref="AR159" r:id="rId16"/>
+    <hyperlink ref="AR142" r:id="rId17"/>
+    <hyperlink ref="AR89" r:id="rId18"/>
+    <hyperlink ref="AR124" r:id="rId19"/>
+    <hyperlink ref="AR126" r:id="rId20"/>
+    <hyperlink ref="AR2" r:id="rId21"/>
+    <hyperlink ref="AR149" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -67394,39 +67393,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1" t="s">
         <v>1176</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1177</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1178</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1179</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1180</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1181</v>
       </c>
-      <c r="G1" t="s">
-        <v>1182</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39.755760000000002</v>
       </c>
@@ -67434,40 +67433,40 @@
         <v>-104.99021</v>
       </c>
       <c r="C2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G2" t="s">
         <v>1183</v>
       </c>
-      <c r="G2" t="s">
-        <v>1184</v>
-      </c>
       <c r="J2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K2" t="s">
         <v>1176</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1177</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1178</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1179</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>1180</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1181</v>
       </c>
-      <c r="P2" t="s">
-        <v>1182</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39.732250000000001</v>
       </c>
@@ -67475,16 +67474,16 @@
         <v>-105.00512999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G3" t="s">
         <v>1183</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1184</v>
       </c>
       <c r="J3">
         <v>39.771419999999999</v>
@@ -67493,19 +67492,19 @@
         <v>-105.04415</v>
       </c>
       <c r="L3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="O3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P3" t="s">
         <v>1183</v>
       </c>
-      <c r="P3" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39.754260000000002</v>
       </c>
@@ -67513,16 +67512,16 @@
         <v>-104.99066000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G4" t="s">
         <v>1183</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1184</v>
       </c>
       <c r="J4">
         <v>39.769440000000003</v>
@@ -67531,19 +67530,19 @@
         <v>-104.97676</v>
       </c>
       <c r="L4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P4" t="s">
         <v>1183</v>
       </c>
-      <c r="P4" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39.725490000000001</v>
       </c>
@@ -67551,16 +67550,16 @@
         <v>-104.97929000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G5" t="s">
         <v>1183</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1184</v>
       </c>
       <c r="J5">
         <v>39.761319999999998</v>
@@ -67569,19 +67568,19 @@
         <v>-104.98376</v>
       </c>
       <c r="L5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P5" t="s">
         <v>1183</v>
       </c>
-      <c r="P5" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39.753819999999997</v>
       </c>
@@ -67589,16 +67588,16 @@
         <v>-104.99643</v>
       </c>
       <c r="C6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G6" t="s">
         <v>1183</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1184</v>
       </c>
       <c r="J6">
         <v>39.743519999999997</v>
@@ -67607,19 +67606,19 @@
         <v>-104.96953999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P6" t="s">
         <v>1183</v>
       </c>
-      <c r="P6" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39.709600000000002</v>
       </c>
@@ -67627,16 +67626,16 @@
         <v>-104.98058</v>
       </c>
       <c r="C7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G7" t="s">
         <v>1183</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1184</v>
       </c>
       <c r="J7">
         <v>39.753050000000002</v>
@@ -67645,19 +67644,19 @@
         <v>-104.99995</v>
       </c>
       <c r="L7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="M7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P7" t="s">
         <v>1183</v>
       </c>
-      <c r="P7" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>39.76211</v>
       </c>
@@ -67665,16 +67664,16 @@
         <v>-105.01622999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G8" t="s">
         <v>1183</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1184</v>
       </c>
       <c r="J8">
         <v>39.769440000000003</v>
@@ -67683,19 +67682,19 @@
         <v>-104.97676</v>
       </c>
       <c r="L8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P8" t="s">
         <v>1183</v>
       </c>
-      <c r="P8" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>39.748190000000001</v>
       </c>
@@ -67703,19 +67702,19 @@
         <v>-104.99897</v>
       </c>
       <c r="C9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G9" t="s">
         <v>1183</v>
       </c>
-      <c r="G9" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>39.759590000000003</v>
       </c>
@@ -67723,19 +67722,19 @@
         <v>-104.98604</v>
       </c>
       <c r="C10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G10" t="s">
         <v>1183</v>
       </c>
-      <c r="G10" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39.727409999999999</v>
       </c>
@@ -67743,19 +67742,19 @@
         <v>-104.98388</v>
       </c>
       <c r="C11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G11" t="s">
         <v>1183</v>
       </c>
-      <c r="G11" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>39.763539999999999</v>
       </c>
@@ -67763,19 +67762,19 @@
         <v>-105.01106</v>
       </c>
       <c r="C12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G12" t="s">
         <v>1183</v>
       </c>
-      <c r="G12" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>39.768740000000001</v>
       </c>
@@ -67783,19 +67782,19 @@
         <v>-104.9798</v>
       </c>
       <c r="C13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G13" t="s">
         <v>1183</v>
       </c>
-      <c r="G13" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>39.751339999999999</v>
       </c>
@@ -67803,19 +67802,19 @@
         <v>-105.00048</v>
       </c>
       <c r="C14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G14" t="s">
         <v>1183</v>
       </c>
-      <c r="G14" t="s">
-        <v>1184</v>
-      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>39.717610000000001</v>
       </c>
@@ -67823,16 +67822,16 @@
         <v>-104.94761</v>
       </c>
       <c r="C15" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G15" t="s">
         <v>1183</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1184</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4670" uniqueCount="1316">
   <si>
     <t>Name</t>
   </si>
@@ -3905,9 +3905,6 @@
     <t>$4-5.5 select craft beers and premium wines, $6-8 select cocktails; $2 shucked oysters, and $4-8.25 food menu</t>
   </si>
   <si>
-    <t>Cheese Cart du Jour (Select 3, 5 or 7) Winter Preserve, Candied Walnuts, Baguette  15 / 25 / 35&lt;br&gt;&lt;b&gt;Gourmandise&lt;/b&gt;&lt;br&gt;Grilled Oysters Bourguignonne  15&lt;br&gt;Wagyu Beef Tartare  21&lt;br&gt;Foie Gras and Chicken Liver Mousse  16&lt;br&gt;Bouillabaise Mussels  19&lt;br&gt;LeRoux Burger  14&lt;br&gt;Pommes Frites  3&lt;br&gt;&lt;br&gt;&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;Specialty Cocktails  11&lt;br&gt;Draft Wines  5&lt;br&gt;Select Draft Beers  5&lt;br&gt;Well Liqours 6</t>
-  </si>
-  <si>
     <t>$1 Off Draft Beer&lt;br&gt;$1 Off House Wine&lt;br&gt;$1 Off Cocktails&lt;br&gt;$2 Off Double Cocktails&lt;br&gt;$40 Docktail Buckets&lt;br&gt;$6 Chipped Cheese Plate&lt;br&gt;$5 Chopped Salad&lt;br&gt;$5 Ham-Dog&lt;br&gt;$4 Chili con Queso</t>
   </si>
   <si>
@@ -3941,12 +3938,6 @@
     <t>42 South Broadway Denver, CO 80209</t>
   </si>
   <si>
-    <t>Late night appetizers and small plates from 10pm till midnight</t>
-  </si>
-  <si>
-    <t>$3 Coors Light &amp; Banquet Bottles&lt;br&gt;Monday:&lt;br&gt;-$3.50 Coors Light&lt;br&gt;- $4.00 Jameson&lt;br&gt;- $4.00 Flavored Vodka&lt;br&gt;$4 Burger (6:30-11:30)&lt;br&gt;Tuesday:&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Wednesday:&lt;br&gt;- $3.50 PBR&lt;br&gt;- $4.00 Tequila&lt;br&gt;Thursday:&lt;br&gt;- $4.00 Jameson&lt;br&gt;- $3.50 PBR&lt;br&gt;Friday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Saturday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Sunday:&lt;br&gt;- $4 Hamburger (11am to 6pm)&lt;br&gt;- $4.50 Cheeseburger (11am to pm)&lt;br&gt;- $5.00 Bullet Bourbon&lt;br&gt;- $3.50 Coors Lt Draft&lt;br&gt;- $4 Bloody Marys (11am to 2pm)</t>
-  </si>
-  <si>
     <t>$5 select drafts and house wines and $5 well cocktails&lt;br&gt;$4 Baked Pretzels&lt;br&gt;$5 Fries&lt;br&gt;$5 House Salads&lt;br&gt;$5 Currywurst&lt;br&gt;$7 Cheddarwurst Sausage Sliders&lt;br&gt;$7 Chicken Schnitzel Sliders&lt;br&gt;$7 Miremberg Mini-Brats&lt;br&gt;$16 Flatbread</t>
   </si>
   <si>
@@ -3984,6 +3975,12 @@
   </si>
   <si>
     <t>https://ritualdenver.com/menus/</t>
+  </si>
+  <si>
+    <t>Cheese Cart du Jour (Select 3, 5 or 7) Winter Preserve, Candied Walnuts, Baguette  15 / 25 / 35&lt;br&gt;&lt;b&gt;Gourmandise&lt;/b&gt;&lt;br&gt;French Onion Soup 9&lt;br&gt;Grilled Oysters Bourguignonne  15&lt;br&gt;Wagyu Beef Tartare  21&lt;br&gt;Foie Gras and Chicken Liver Mousse  18&lt;br&gt;LeRoux Burger  11&lt;br&gt;Pommes Frites  3&lt;br&gt;&lt;br&gt;&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;Specialty Cocktails  11&lt;br&gt;Draft Wines  5&lt;br&gt;Select Draft Beers  5&lt;br&gt;Well Liqours 6</t>
+  </si>
+  <si>
+    <t>$3 Wells and Domestic Bottles&lt;br&gt;Monday:&lt;br&gt;-$3.50 Coors Light&lt;br&gt;- $5.00 Jameson&lt;br&gt;- $5.00 Flavored Vodka&lt;br&gt;$4 Burger (6:30-11:30)&lt;br&gt;Tuesday:&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Wednesday:&lt;br&gt;- $3.50 PBR&lt;br&gt;- $5.00 DeLeon&lt;br&gt;Thursday:&lt;br&gt;- $5.00 Jameson and Milagro&lt;br&gt;- $3.50 PBR&lt;br&gt;Friday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Saturday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Sunday:&lt;br&gt;- $4 Hamburger (11am to 6pm)&lt;br&gt;- $5.50 Cheeseburger (11am to pm)&lt;br&gt;- $5.00 Bullet Bourbon&lt;br&gt;- $3.50 Coors Lt Draft&lt;br&gt;- $4 Bloody Marys (11am to 2pm)</t>
   </si>
 </sst>
 </file>
@@ -4989,8 +4986,8 @@
   <dimension ref="B1:BL323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187:XFD187"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6840,7 +6837,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -8068,7 +8065,7 @@
         <v>2200</v>
       </c>
       <c r="V16" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="W16">
         <f t="shared" si="31"/>
@@ -8408,7 +8405,7 @@
     </row>
     <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C18" t="s">
         <v>802</v>
@@ -8417,7 +8414,7 @@
         <v>1039</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J18">
         <v>1600</v>
@@ -8649,7 +8646,7 @@
         <v>1800</v>
       </c>
       <c r="V19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="W19">
         <f t="shared" si="31"/>
@@ -8968,28 +8965,28 @@
         <v>831</v>
       </c>
       <c r="L21">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="M21">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N21">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="O21">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P21">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="Q21">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="R21">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="S21">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T21">
         <v>1500</v>
@@ -9018,35 +9015,35 @@
       </c>
       <c r="AA21">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="AB21">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC21">
         <f t="shared" si="37"/>
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="AD21">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE21">
         <f t="shared" si="39"/>
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="AF21">
         <f t="shared" si="40"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="AH21">
         <f t="shared" si="42"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI21">
         <f t="shared" si="43"/>
@@ -9066,19 +9063,19 @@
       </c>
       <c r="AM21" t="str">
         <f t="shared" si="47"/>
-        <v>3pm-5pm</v>
+        <v>4.3pm-6pm</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" si="48"/>
-        <v>3pm-5pm</v>
+        <v>4.3pm-6pm</v>
       </c>
       <c r="AO21" t="str">
         <f t="shared" si="49"/>
-        <v>3pm-5pm</v>
+        <v>4.3pm-6pm</v>
       </c>
       <c r="AP21" t="str">
         <f t="shared" si="50"/>
-        <v>3pm-5pm</v>
+        <v>4.3pm-6pm</v>
       </c>
       <c r="AQ21" t="str">
         <f t="shared" si="51"/>
@@ -9098,7 +9095,7 @@
         <v>{
     'name': "Annette",
     'area': "aurora",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1500", 'tuesday-end':"1700", 'wednesday-start':"1500", 'wednesday-end':"1700", 'thursday-start':"1500", 'thursday-end':"1700", 'friday-start':"1500", 'friday-end':"1700", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "$2 off house cocktails &lt;br&gt;$5 select specialty cocktails &lt;br&gt;$1 off all beer &lt;br&gt;$20 bottles of wine&lt;br&gt;Food Specials $3-$15", 'link':"http://www.annettescratchtotable.com/", 'pricing':"high",   'phone-number': "", 'address': "2501 Dallas St Aurora, CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1630", 'tuesday-end':"1800", 'wednesday-start':"1630", 'wednesday-end':"1800", 'thursday-start':"1630", 'thursday-end':"1800", 'friday-start':"1630", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "$2 off house cocktails &lt;br&gt;$5 select specialty cocktails &lt;br&gt;$1 off all beer &lt;br&gt;$20 bottles of wine&lt;br&gt;Food Specials $3-$15", 'link':"http://www.annettescratchtotable.com/", 'pricing':"high",   'phone-number': "", 'address': "2501 Dallas St Aurora, CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY21" t="str">
         <f t="shared" si="53"/>
@@ -14313,7 +14310,7 @@
         <v>1800</v>
       </c>
       <c r="V49" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
@@ -15180,7 +15177,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="31"/>
@@ -15280,7 +15277,7 @@
         <v>{
     'name': "Candlelight Tavern",
     'area': "Washington",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3 Coors Light &amp; Banquet Bottles&lt;br&gt;Monday:&lt;br&gt;-$3.50 Coors Light&lt;br&gt;- $4.00 Jameson&lt;br&gt;- $4.00 Flavored Vodka&lt;br&gt;$4 Burger (6:30-11:30)&lt;br&gt;Tuesday:&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Wednesday:&lt;br&gt;- $3.50 PBR&lt;br&gt;- $4.00 Tequila&lt;br&gt;Thursday:&lt;br&gt;- $4.00 Jameson&lt;br&gt;- $3.50 PBR&lt;br&gt;Friday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Saturday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Sunday:&lt;br&gt;- $4 Hamburger (11am to 6pm)&lt;br&gt;- $4.50 Cheeseburger (11am to pm)&lt;br&gt;- $5.00 Bullet Bourbon&lt;br&gt;- $3.50 Coors Lt Draft&lt;br&gt;- $4 Bloody Marys (11am to 2pm)", 'link':"http://candlelighttavern.com/", 'pricing':"med",   'phone-number': "", 'address': "383 S Pearl St Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3 Wells and Domestic Bottles&lt;br&gt;Monday:&lt;br&gt;-$3.50 Coors Light&lt;br&gt;- $5.00 Jameson&lt;br&gt;- $5.00 Flavored Vodka&lt;br&gt;$4 Burger (6:30-11:30)&lt;br&gt;Tuesday:&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Wednesday:&lt;br&gt;- $3.50 PBR&lt;br&gt;- $5.00 DeLeon&lt;br&gt;Thursday:&lt;br&gt;- $5.00 Jameson and Milagro&lt;br&gt;- $3.50 PBR&lt;br&gt;Friday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Saturday:&lt;br&gt;- $4.00 Fireball&lt;br&gt;- $4.00 Jack Fire&lt;br&gt;Sunday:&lt;br&gt;- $4 Hamburger (11am to 6pm)&lt;br&gt;- $5.50 Cheeseburger (11am to pm)&lt;br&gt;- $5.00 Bullet Bourbon&lt;br&gt;- $3.50 Coors Lt Draft&lt;br&gt;- $4 Bloody Marys (11am to 2pm)", 'link':"http://candlelighttavern.com/", 'pricing':"med",   'phone-number': "", 'address': "383 S Pearl St Denver CO", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY54" t="str">
         <f t="shared" si="53"/>
@@ -16745,7 +16742,7 @@
         <v>409</v>
       </c>
       <c r="V62" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="W62">
         <f t="shared" si="31"/>
@@ -18449,7 +18446,7 @@
     </row>
     <row r="71" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C71" t="s">
         <v>263</v>
@@ -18458,7 +18455,7 @@
         <v>1039</v>
       </c>
       <c r="G71" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="H71">
         <v>1500</v>
@@ -18503,7 +18500,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="W71">
         <f t="shared" ref="W71" si="189">IF(H71&gt;0,H71/100,"")</f>
@@ -18590,7 +18587,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="AV71" s="4" t="s">
         <v>28</v>
@@ -27531,7 +27528,7 @@
     </row>
     <row r="118" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C118" t="s">
         <v>264</v>
@@ -30552,7 +30549,7 @@
         <v>409</v>
       </c>
       <c r="V133" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="W133">
         <f t="shared" si="158"/>
@@ -34426,142 +34423,139 @@
     </row>
     <row r="153" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C153" t="s">
         <v>1299</v>
       </c>
-      <c r="C153" t="s">
+      <c r="G153" t="s">
         <v>1300</v>
       </c>
-      <c r="G153" t="s">
-        <v>1301</v>
-      </c>
       <c r="H153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="I153">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="J153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K153">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M153">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="N153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="O153">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="P153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="Q153">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="R153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="S153">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="T153">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="U153">
-        <v>2400</v>
-      </c>
-      <c r="V153" t="s">
-        <v>1302</v>
+        <v>1800</v>
       </c>
       <c r="W153">
         <f t="shared" ref="W153" si="344">IF(H153&gt;0,H153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="X153">
         <f t="shared" ref="X153" si="345">IF(I153&gt;0,I153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y153">
         <f t="shared" ref="Y153" si="346">IF(J153&gt;0,J153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Z153">
         <f t="shared" ref="Z153" si="347">IF(K153&gt;0,K153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA153">
         <f t="shared" ref="AA153" si="348">IF(L153&gt;0,L153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB153">
         <f t="shared" ref="AB153" si="349">IF(M153&gt;0,M153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AC153">
         <f t="shared" ref="AC153" si="350">IF(N153&gt;0,N153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AD153">
         <f t="shared" ref="AD153" si="351">IF(O153&gt;0,O153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE153">
         <f t="shared" ref="AE153" si="352">IF(P153&gt;0,P153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AF153">
         <f t="shared" ref="AF153" si="353">IF(Q153&gt;0,Q153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AG153">
         <f t="shared" ref="AG153" si="354">IF(R153&gt;0,R153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH153">
         <f t="shared" ref="AH153" si="355">IF(S153&gt;0,S153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI153">
         <f t="shared" ref="AI153" si="356">IF(T153&gt;0,T153/100,"")</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AJ153">
         <f t="shared" ref="AJ153" si="357">IF(U153&gt;0,U153/100,"")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AK153" t="str">
         <f t="shared" ref="AK153" si="358">IF(H153&gt;0,CONCATENATE(IF(W153&lt;=12,W153,W153-12),IF(OR(W153&lt;12,W153=24),"am","pm"),"-",IF(X153&lt;=12,X153,X153-12),IF(OR(X153&lt;12,X153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AL153" t="str">
         <f t="shared" ref="AL153" si="359">IF(J153&gt;0,CONCATENATE(IF(Y153&lt;=12,Y153,Y153-12),IF(OR(Y153&lt;12,Y153=24),"am","pm"),"-",IF(Z153&lt;=12,Z153,Z153-12),IF(OR(Z153&lt;12,Z153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM153" t="str">
         <f t="shared" ref="AM153" si="360">IF(L153&gt;0,CONCATENATE(IF(AA153&lt;=12,AA153,AA153-12),IF(OR(AA153&lt;12,AA153=24),"am","pm"),"-",IF(AB153&lt;=12,AB153,AB153-12),IF(OR(AB153&lt;12,AB153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN153" t="str">
         <f t="shared" ref="AN153" si="361">IF(N153&gt;0,CONCATENATE(IF(AC153&lt;=12,AC153,AC153-12),IF(OR(AC153&lt;12,AC153=24),"am","pm"),"-",IF(AD153&lt;=12,AD153,AD153-12),IF(OR(AD153&lt;12,AD153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO153" t="str">
         <f t="shared" ref="AO153" si="362">IF(P153&gt;0,CONCATENATE(IF(AE153&lt;=12,AE153,AE153-12),IF(OR(AE153&lt;12,AE153=24),"am","pm"),"-",IF(AF153&lt;=12,AF153,AF153-12),IF(OR(AF153&lt;12,AF153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP153" t="str">
         <f t="shared" ref="AP153" si="363">IF(R153&gt;0,CONCATENATE(IF(AG153&lt;=12,AG153,AG153-12),IF(OR(AG153&lt;12,AG153=24),"am","pm"),"-",IF(AH153&lt;=12,AH153,AH153-12),IF(OR(AH153&lt;12,AH153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ153" t="str">
         <f t="shared" ref="AQ153" si="364">IF(T153&gt;0,CONCATENATE(IF(AI153&lt;=12,AI153,AI153-12),IF(OR(AI153&lt;12,AI153=24),"am","pm"),"-",IF(AJ153&lt;=12,AJ153,AJ153-12),IF(OR(AJ153&lt;12,AJ153=24),"am","pm")),"")</f>
-        <v>10pm-12am</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AV153" s="4" t="s">
         <v>29</v>
@@ -34578,7 +34572,7 @@
         <v>{
     'name': "La Loteria",
     'area': "baker",'hours': {
-      'sunday-start':"2200", 'sunday-end':"2400", 'monday-start':"2200", 'monday-end':"2400", 'tuesday-start':"2200", 'tuesday-end':"2400", 'wednesday-start':"2200", 'wednesday-end':"2400", 'thursday-start':"2200", 'thursday-end':"2400", 'friday-start':"2200", 'friday-end':"2400", 'saturday-start':"2200", 'saturday-end':"2400"},  'description': "Late night appetizers and small plates from 10pm till midnight", 'link':"", 'pricing':"",   'phone-number': "", 'address': "42 South Broadway Denver, CO 80209", 'other-amenities': ['','',''], 'has-drink':false, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "42 South Broadway Denver, CO 80209", 'other-amenities': ['','',''], 'has-drink':false, 'has-food':true},</v>
       </c>
       <c r="AY153" t="str">
         <f t="shared" ref="AY153" si="366">IF(AS153&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -35870,7 +35864,7 @@
         <v>1800</v>
       </c>
       <c r="V160" t="s">
-        <v>1290</v>
+        <v>1314</v>
       </c>
       <c r="W160" t="str">
         <f t="shared" si="284"/>
@@ -35970,7 +35964,7 @@
         <v>{
     'name': "LeRoux",
     'area': "lodo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "Cheese Cart du Jour (Select 3, 5 or 7) Winter Preserve, Candied Walnuts, Baguette  15 / 25 / 35&lt;br&gt;&lt;b&gt;Gourmandise&lt;/b&gt;&lt;br&gt;Grilled Oysters Bourguignonne  15&lt;br&gt;Wagyu Beef Tartare  21&lt;br&gt;Foie Gras and Chicken Liver Mousse  16&lt;br&gt;Bouillabaise Mussels  19&lt;br&gt;LeRoux Burger  14&lt;br&gt;Pommes Frites  3&lt;br&gt;&lt;br&gt;&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;Specialty Cocktails  11&lt;br&gt;Draft Wines  5&lt;br&gt;Select Draft Beers  5&lt;br&gt;Well Liqours 6", 'link':"https://www.lerouxdenver.com/menu/happy-hour/", 'pricing':"med",   'phone-number': "", 'address': "1555 Blake Street Denver, Colorado", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':TRUE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "Cheese Cart du Jour (Select 3, 5 or 7) Winter Preserve, Candied Walnuts, Baguette  15 / 25 / 35&lt;br&gt;&lt;b&gt;Gourmandise&lt;/b&gt;&lt;br&gt;French Onion Soup 9&lt;br&gt;Grilled Oysters Bourguignonne  15&lt;br&gt;Wagyu Beef Tartare  21&lt;br&gt;Foie Gras and Chicken Liver Mousse  18&lt;br&gt;LeRoux Burger  11&lt;br&gt;Pommes Frites  3&lt;br&gt;&lt;br&gt;&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;Specialty Cocktails  11&lt;br&gt;Draft Wines  5&lt;br&gt;Select Draft Beers  5&lt;br&gt;Well Liqours 6", 'link':"https://www.lerouxdenver.com/menu/happy-hour/", 'pricing':"med",   'phone-number': "", 'address': "1555 Blake Street Denver, Colorado", 'other-amenities': ['','',''], 'has-drink':true, 'has-food':TRUE},</v>
       </c>
       <c r="AY160" t="str">
         <f t="shared" si="306"/>
@@ -46828,13 +46822,13 @@
         <v>129</v>
       </c>
       <c r="C216" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E216" t="s">
         <v>1039</v>
       </c>
       <c r="G216" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="H216">
         <v>900</v>
@@ -48023,7 +48017,7 @@
         <v>1800</v>
       </c>
       <c r="V222" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W222" t="str">
         <f t="shared" si="377"/>
@@ -48216,7 +48210,7 @@
         <v>1900</v>
       </c>
       <c r="V223" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W223" t="str">
         <f t="shared" si="377"/>
@@ -50098,7 +50092,7 @@
         <v>1800</v>
       </c>
       <c r="V233" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="W233" t="str">
         <f t="shared" si="377"/>
@@ -50456,7 +50450,7 @@
     </row>
     <row r="235" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C235" t="s">
         <v>1022</v>
@@ -50465,7 +50459,7 @@
         <v>1039</v>
       </c>
       <c r="G235" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="H235">
         <v>1500</v>
@@ -50510,7 +50504,7 @@
         <v>1800</v>
       </c>
       <c r="V235" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="W235">
         <f t="shared" ref="W235" si="440">IF(H235&gt;0,H235/100,"")</f>
@@ -50597,7 +50591,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR235" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="AV235" s="4" t="s">
         <v>28</v>
@@ -53352,7 +53346,7 @@
         <v>1800</v>
       </c>
       <c r="V250" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="W250">
         <f t="shared" si="377"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\Denver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9428A64B-FDFF-4EAE-9109-04D051B43A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$296</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$282</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3563,9 +3562,6 @@
     <t>2-for-1 wells, house wines and select domestic drafts, $1 off all craft and imported draft beers, and $4 Fireball shots; $7 snack menu &lt;br&gt;Daily food specials&lt;br&gt;Weekend drink specials 1pm-10pm</t>
   </si>
   <si>
-    <t>$3.25 domestic pints, $2 off glasses of wine and $3.50 well drinks&lt;br&gt;$2.50 Tacos and $2.50 Margaritas on Tuesdays&lt;br&gt;Half Priced Burgers and Half Priced Bottles of Wine on Wednesday</t>
-  </si>
-  <si>
     <t>Gyu Kaku</t>
   </si>
   <si>
@@ -3722,9 +3718,6 @@
     <t>$2 off house cocktails &lt;br&gt;$6 PBR and well shot&lt;br&gt;$6 Casa Noble tequilla shot&lt;br&gt;$7 Horses Neck (four roses bourbon, ginger ale, lemon juice, soda, angostura bitters, rocks, lemon wedge)&lt;br&gt;$4 Well Liquor&lt;br&gt;$6 Mimosas&lt;br&gt;$6 Mules&lt;br&gt;$2 off draft beers brewed in Colorado&lt;br&gt;$5 Colorado Cans of Beer&lt;br&gt;$6 Draft wine&lt;br&gt;&lt;b&gt;FOOD&lt;/b&gt;&lt;br&gt;$9 Bison Meatballs&lt;br&gt;$12 Chicken Wings&lt;br&gt;$16-28 Maine Lobster Roll&lt;br&gt;$15 3x Steak Sliders&lt;br&gt;$8 Goat Cheese Plate&lt;br&gt;$9 Green Chili Mac and Chicken or Sausage&lt;br&gt;$12 Wagyu Egg and Cheese Burger&lt;br&gt;$12 Breakfast Chimichanga&lt;br&gt;$12 Steamed Mussels&lt;br&gt;$8 Chile Relleno Rolls&lt;br&gt;$10 3x Street Tacos</t>
   </si>
   <si>
-    <t>Cheese Board 9&lt;br&gt;&lt;b&gt;Gourmandise&lt;/b&gt;&lt;br&gt;French Onion Soup 10&lt;br&gt;Grilled Oysters Bourguignonne  8&lt;br&gt;Wagyu Beef Tartare  21&lt;br&gt;LeRoux Burger 9&lt;br&gt;Pommes Frites  3&lt;br&gt;Cream of Mushroom Soup 9&lt;br&gt;Country Chicken Terrine 13&lt;br&gt;Foie Gras and Chicken Liver Mousse 17&lt;br&gt;French Dip 10&lt;br&gt;&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;Specialty Cocktails  11&lt;br&gt;Draft Wines  5&lt;br&gt;Select Draft Beers  5&lt;br&gt;Well Liqours 6</t>
-  </si>
-  <si>
     <t>$4 select drafts, house wines and well liquors&lt;br&gt;$6 Bubbly&lt;br&gt;$3 food including Merry Meat (cinocchiona salami), Cheerful Cheese (Paradiso cows milk), Happy Sausage (chedderwurst), Glad Fries (with bacon ailoi), Tickled Pickles (fried dill pickles with caramelized onion dip)&lt;br&gt;$10 Joyous Jumble (meat, cheese, bretzel bun, and yellow mustard)</t>
   </si>
   <si>
@@ -3969,13 +3962,19 @@
   </si>
   <si>
     <t>Avanti F B</t>
+  </si>
+  <si>
+    <t>Happy Hour is Available Only in the Bar&lt;br&gt;Cheese Board 9&lt;br&gt;&lt;b&gt;Gourmandise&lt;/b&gt;&lt;br&gt;French Onion Soup 10&lt;br&gt;Grilled Oysters Bourguignonne  8&lt;br&gt;Wagyu Beef Tartare  21&lt;br&gt;LeRoux Burger 9&lt;br&gt;Pommes Frites  3&lt;br&gt;Cream of Mushroom Soup 9&lt;br&gt;Country Chicken Terrine 13&lt;br&gt;Foie Gras and Chicken Liver Mousse 17&lt;br&gt;French Dip 10&lt;br&gt;&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;Specialty Cocktails  11&lt;br&gt;Draft Wines  5&lt;br&gt;Select Draft Beers  5&lt;br&gt;Well Liqours 6</t>
+  </si>
+  <si>
+    <t>$3.25 domestic pints, $2 off glasses of wine and $3.50 well drinks&lt;br&gt;$2.50 Tacos and $2.50 Margaritas on Tuesdays&lt;br&gt;Half Priced Burgers and Half Priced Bottles of Wine on Wednesday&lt;br&gt;Half Priced Bottles of Wine Every Wed and Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4601,12 +4600,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -4625,11 +4624,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -4658,7 +4657,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4970,39 +4969,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B211" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R55" sqref="R55:S55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="46.7265625" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="10.26953125" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" customWidth="1"/>
-    <col min="44" max="49" width="8.7265625" customWidth="1"/>
-    <col min="50" max="50" width="90.54296875" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" customWidth="1"/>
-    <col min="52" max="52" width="8.7265625" customWidth="1"/>
-    <col min="53" max="53" width="10.1796875" customWidth="1"/>
-    <col min="54" max="55" width="8.7265625" customWidth="1"/>
-    <col min="56" max="56" width="11.453125" customWidth="1"/>
-    <col min="57" max="57" width="53.54296875" customWidth="1"/>
-    <col min="58" max="58" width="18.54296875" customWidth="1"/>
+    <col min="40" max="42" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" customWidth="1"/>
+    <col min="44" max="49" width="8.7109375" customWidth="1"/>
+    <col min="50" max="50" width="90.5703125" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" customWidth="1"/>
+    <col min="54" max="55" width="8.7109375" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" customWidth="1"/>
+    <col min="57" max="57" width="53.5703125" customWidth="1"/>
+    <col min="58" max="58" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="18.75" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5170,9 +5169,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="18.75" customHeight="1">
       <c r="B2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C2" t="s">
         <v>936</v>
@@ -5181,7 +5180,7 @@
         <v>952</v>
       </c>
       <c r="G2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H2">
         <v>1400</v>
@@ -5226,7 +5225,7 @@
         <v>1800</v>
       </c>
       <c r="V2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -5313,7 +5312,7 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>28</v>
@@ -5375,7 +5374,7 @@
         <v>[39.7319054,-104.9863224],</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="18.75" customHeight="1">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -5573,9 +5572,9 @@
       </c>
       <c r="BL3" s="7"/>
     </row>
-    <row r="4" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="18.75" customHeight="1">
       <c r="B4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C4" t="s">
         <v>721</v>
@@ -5584,7 +5583,7 @@
         <v>952</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H4">
         <v>800</v>
@@ -5629,7 +5628,7 @@
         <v>1200</v>
       </c>
       <c r="V4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4" si="62">IF(H4&gt;0,H4/100,"")</f>
@@ -5783,7 +5782,7 @@
       </c>
       <c r="BL4" s="7"/>
     </row>
-    <row r="5" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="18.75" customHeight="1">
       <c r="B5" t="s">
         <v>1020</v>
       </c>
@@ -5973,7 +5972,7 @@
       </c>
       <c r="BL5" s="7"/>
     </row>
-    <row r="6" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="18.75" customHeight="1">
       <c r="B6" t="s">
         <v>836</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="18.75" customHeight="1">
       <c r="B7" t="s">
         <v>836</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="18.75" customHeight="1">
       <c r="B8" t="s">
         <v>766</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="18.75" customHeight="1">
       <c r="B9" t="s">
         <v>995</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>[39.7549,-104.977679],</v>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="18.75" customHeight="1">
       <c r="B10" t="s">
         <v>114</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="W10">
         <f t="shared" si="31"/>
@@ -6978,7 +6977,7 @@
       </c>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="18.75" customHeight="1">
       <c r="B11" t="s">
         <v>1069</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>[39.76874,-104.9798],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="18.75" customHeight="1">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -7385,7 +7384,7 @@
       </c>
       <c r="BL12" s="7"/>
     </row>
-    <row r="13" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="18.75" customHeight="1">
       <c r="B13" t="s">
         <v>157</v>
       </c>
@@ -7579,7 +7578,7 @@
       </c>
       <c r="BL13" s="7"/>
     </row>
-    <row r="14" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="18.75" customHeight="1">
       <c r="B14" t="s">
         <v>169</v>
       </c>
@@ -7788,7 +7787,7 @@
       </c>
       <c r="BL14" s="7"/>
     </row>
-    <row r="15" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="18.75" customHeight="1">
       <c r="B15" t="s">
         <v>1106</v>
       </c>
@@ -7997,7 +7996,7 @@
       </c>
       <c r="BL15" s="7"/>
     </row>
-    <row r="16" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="18.75" customHeight="1">
       <c r="B16" t="s">
         <v>1037</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>2200</v>
       </c>
       <c r="V16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="W16">
         <f t="shared" si="31"/>
@@ -8198,7 +8197,7 @@
         <v>[39.75426,-104.99066],</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="18.75" customHeight="1">
       <c r="B17" t="s">
         <v>812</v>
       </c>
@@ -8391,9 +8390,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="18.75" customHeight="1">
       <c r="B18" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C18" t="s">
         <v>719</v>
@@ -8402,7 +8401,7 @@
         <v>952</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="J18">
         <v>1600</v>
@@ -8578,7 +8577,7 @@
         <v>[39.7692999,-105.0413475],</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:64" ht="18.75" customHeight="1">
       <c r="B19" t="s">
         <v>1040</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>1800</v>
       </c>
       <c r="V19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W19">
         <f t="shared" si="31"/>
@@ -8779,7 +8778,7 @@
         <v>[39.72549,-104.97929],</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="18.75" customHeight="1">
       <c r="B20" t="s">
         <v>733</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="18.75" customHeight="1">
       <c r="B21" t="s">
         <v>745</v>
       </c>
@@ -9132,7 +9131,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="18.75" customHeight="1">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>330</v>
       </c>
       <c r="V22" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="W22">
         <f t="shared" si="31"/>
@@ -9338,7 +9337,7 @@
       </c>
       <c r="BL22" s="7"/>
     </row>
-    <row r="23" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="18.75" customHeight="1">
       <c r="B23" t="s">
         <v>824</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="18.75" customHeight="1">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -9701,9 +9700,9 @@
       </c>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="18.75" customHeight="1">
       <c r="B25" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C25" t="s">
         <v>719</v>
@@ -9865,7 +9864,7 @@
       </c>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="18.75" customHeight="1">
       <c r="B26" t="s">
         <v>62</v>
       </c>
@@ -10071,7 +10070,7 @@
       </c>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="18.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>749</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="18.75" customHeight="1">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -10434,9 +10433,9 @@
       </c>
       <c r="BL28" s="7"/>
     </row>
-    <row r="29" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="18.75" customHeight="1">
       <c r="B29" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C29" t="s">
         <v>525</v>
@@ -10640,7 +10639,7 @@
       </c>
       <c r="BL29" s="7"/>
     </row>
-    <row r="30" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="18.75" customHeight="1">
       <c r="B30" t="s">
         <v>64</v>
       </c>
@@ -10846,7 +10845,7 @@
       </c>
       <c r="BL30" s="7"/>
     </row>
-    <row r="31" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="18.75" customHeight="1">
       <c r="B31" t="s">
         <v>810</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="18.75" customHeight="1">
       <c r="B32" t="s">
         <v>787</v>
       </c>
@@ -11199,9 +11198,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="18.75" customHeight="1">
       <c r="B33" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C33" t="s">
         <v>218</v>
@@ -11399,7 +11398,7 @@
       </c>
       <c r="BL33" s="7"/>
     </row>
-    <row r="34" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="18.75" customHeight="1">
       <c r="B34" t="s">
         <v>171</v>
       </c>
@@ -11563,9 +11562,9 @@
       </c>
       <c r="BL34" s="7"/>
     </row>
-    <row r="35" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="18.75" customHeight="1">
       <c r="B35" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C35" t="s">
         <v>186</v>
@@ -11757,7 +11756,7 @@
       </c>
       <c r="BL35" s="7"/>
     </row>
-    <row r="36" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:64" ht="18.75" customHeight="1">
       <c r="B36" t="s">
         <v>1014</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>[39.604065,-104.708484],</v>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="18.75" customHeight="1">
       <c r="B37" t="s">
         <v>115</v>
       </c>
@@ -12107,7 +12106,7 @@
       </c>
       <c r="BL37" s="7"/>
     </row>
-    <row r="38" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="18.75" customHeight="1">
       <c r="B38" t="s">
         <v>1145</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>[39.76944,-104.97676],</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="18.75" customHeight="1">
       <c r="B39" t="s">
         <v>163</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>332</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="W39">
         <f t="shared" si="31"/>
@@ -12502,7 +12501,7 @@
       </c>
       <c r="BL39" s="7"/>
     </row>
-    <row r="40" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="18.75" customHeight="1">
       <c r="B40" t="s">
         <v>827</v>
       </c>
@@ -12707,7 +12706,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans=